--- a/HighRiskInvestment.xlsx
+++ b/HighRiskInvestment.xlsx
@@ -8866,6 +8866,9 @@
     <xf numFmtId="0" fontId="62" fillId="23" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8875,17 +8878,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8900,93 +8900,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="52" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="52" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="54" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="54" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9010,6 +8923,93 @@
     <xf numFmtId="0" fontId="54" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="54" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="54" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="52" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="52" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9025,12 +9025,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9051,18 +9045,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9087,6 +9069,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12865,11 +12865,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A1" s="396" t="s">
+      <c r="A1" s="395" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
+      <c r="B1" s="395"/>
+      <c r="C1" s="395"/>
       <c r="D1" s="110">
         <f>SUM(G10:G88)-SUM(L10:L88)</f>
         <v>268</v>
@@ -12882,11 +12882,11 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A2" s="397" t="s">
+      <c r="A2" s="396" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
+      <c r="B2" s="396"/>
+      <c r="C2" s="396"/>
       <c r="D2" s="111">
         <v>29.75</v>
       </c>
@@ -12901,11 +12901,11 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A3" s="397" t="s">
+      <c r="A3" s="396" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="397"/>
-      <c r="C3" s="397"/>
+      <c r="B3" s="396"/>
+      <c r="C3" s="396"/>
       <c r="D3" s="111">
         <f>D1*0.85</f>
         <v>227.79999999999998</v>
@@ -12921,11 +12921,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A4" s="397" t="s">
+      <c r="A4" s="396" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="397"/>
-      <c r="C4" s="397"/>
+      <c r="B4" s="396"/>
+      <c r="C4" s="396"/>
       <c r="D4" s="112">
         <f>([1]Sheet2!B64)/100</f>
         <v>6.1073000000000004</v>
@@ -12935,11 +12935,11 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="395" t="s">
+      <c r="A5" s="391" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="395"/>
-      <c r="C5" s="395"/>
+      <c r="B5" s="391"/>
+      <c r="C5" s="391"/>
       <c r="D5" s="113">
         <f>SUM(D10:D88)+SUM(H10:H88)</f>
         <v>76568.666499999992</v>
@@ -12949,11 +12949,11 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A6" s="395" t="s">
+      <c r="A6" s="391" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="395"/>
-      <c r="C6" s="395"/>
+      <c r="B6" s="391"/>
+      <c r="C6" s="391"/>
       <c r="D6" s="114">
         <f>SUM(Q10:Q88)</f>
         <v>48178.589949999994</v>
@@ -12967,11 +12967,11 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A7" s="395" t="s">
+      <c r="A7" s="391" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="395"/>
-      <c r="C7" s="395"/>
+      <c r="B7" s="391"/>
+      <c r="C7" s="391"/>
       <c r="D7" s="116">
         <f>D6-D5</f>
         <v>-28390.076549999998</v>
@@ -13050,38 +13050,38 @@
       <c r="B10" s="109">
         <v>0</v>
       </c>
-      <c r="C10" s="391">
+      <c r="C10" s="392">
         <v>68.97</v>
       </c>
-      <c r="D10" s="392">
+      <c r="D10" s="393">
         <f>IF(B15&gt;0,SUM(B10:B15)-C10,0)</f>
         <v>10580.78</v>
       </c>
-      <c r="E10" s="391">
+      <c r="E10" s="392">
         <v>6.2854999999999999</v>
       </c>
-      <c r="F10" s="391">
+      <c r="F10" s="392">
         <v>25.3</v>
       </c>
-      <c r="G10" s="393">
+      <c r="G10" s="394">
         <v>79</v>
       </c>
       <c r="H10" s="120">
         <f t="shared" ref="H10:H15" si="0">R16*0.2</f>
         <v>62.814</v>
       </c>
-      <c r="I10" s="394">
+      <c r="I10" s="397">
         <f>IF($K$28&gt;F10,G10*($K$28-F10)*0.2,0)</f>
         <v>70.309999999999988</v>
       </c>
-      <c r="J10" s="394"/>
-      <c r="K10" s="394"/>
-      <c r="L10" s="394"/>
-      <c r="M10" s="394"/>
-      <c r="N10" s="394"/>
-      <c r="O10" s="394"/>
-      <c r="P10" s="394"/>
-      <c r="Q10" s="394"/>
+      <c r="J10" s="397"/>
+      <c r="K10" s="397"/>
+      <c r="L10" s="397"/>
+      <c r="M10" s="397"/>
+      <c r="N10" s="397"/>
+      <c r="O10" s="397"/>
+      <c r="P10" s="397"/>
+      <c r="Q10" s="397"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
@@ -13090,26 +13090,26 @@
       <c r="B11" s="109">
         <v>3400.95</v>
       </c>
-      <c r="C11" s="391">
+      <c r="C11" s="392">
         <v>3400.95</v>
       </c>
-      <c r="D11" s="392"/>
-      <c r="E11" s="391"/>
-      <c r="F11" s="391"/>
-      <c r="G11" s="393"/>
+      <c r="D11" s="393"/>
+      <c r="E11" s="392"/>
+      <c r="F11" s="392"/>
+      <c r="G11" s="394"/>
       <c r="H11" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I11" s="394"/>
-      <c r="J11" s="394"/>
-      <c r="K11" s="394"/>
-      <c r="L11" s="394"/>
-      <c r="M11" s="394"/>
-      <c r="N11" s="394"/>
-      <c r="O11" s="394"/>
-      <c r="P11" s="394"/>
-      <c r="Q11" s="394"/>
+      <c r="I11" s="397"/>
+      <c r="J11" s="397"/>
+      <c r="K11" s="397"/>
+      <c r="L11" s="397"/>
+      <c r="M11" s="397"/>
+      <c r="N11" s="397"/>
+      <c r="O11" s="397"/>
+      <c r="P11" s="397"/>
+      <c r="Q11" s="397"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1">
@@ -13118,26 +13118,26 @@
       <c r="B12" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C12" s="391">
+      <c r="C12" s="392">
         <v>1706.25</v>
       </c>
-      <c r="D12" s="392"/>
-      <c r="E12" s="391"/>
-      <c r="F12" s="391"/>
-      <c r="G12" s="393"/>
+      <c r="D12" s="393"/>
+      <c r="E12" s="392"/>
+      <c r="F12" s="392"/>
+      <c r="G12" s="394"/>
       <c r="H12" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I12" s="394"/>
-      <c r="J12" s="394"/>
-      <c r="K12" s="394"/>
-      <c r="L12" s="394"/>
-      <c r="M12" s="394"/>
-      <c r="N12" s="394"/>
-      <c r="O12" s="394"/>
-      <c r="P12" s="394"/>
-      <c r="Q12" s="394"/>
+      <c r="I12" s="397"/>
+      <c r="J12" s="397"/>
+      <c r="K12" s="397"/>
+      <c r="L12" s="397"/>
+      <c r="M12" s="397"/>
+      <c r="N12" s="397"/>
+      <c r="O12" s="397"/>
+      <c r="P12" s="397"/>
+      <c r="Q12" s="397"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1">
@@ -13146,26 +13146,26 @@
       <c r="B13" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C13" s="391">
+      <c r="C13" s="392">
         <v>1706.25</v>
       </c>
-      <c r="D13" s="392"/>
-      <c r="E13" s="391"/>
-      <c r="F13" s="391"/>
-      <c r="G13" s="393"/>
+      <c r="D13" s="393"/>
+      <c r="E13" s="392"/>
+      <c r="F13" s="392"/>
+      <c r="G13" s="394"/>
       <c r="H13" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I13" s="394"/>
-      <c r="J13" s="394"/>
-      <c r="K13" s="394"/>
-      <c r="L13" s="394"/>
-      <c r="M13" s="394"/>
-      <c r="N13" s="394"/>
-      <c r="O13" s="394"/>
-      <c r="P13" s="394"/>
-      <c r="Q13" s="394"/>
+      <c r="I13" s="397"/>
+      <c r="J13" s="397"/>
+      <c r="K13" s="397"/>
+      <c r="L13" s="397"/>
+      <c r="M13" s="397"/>
+      <c r="N13" s="397"/>
+      <c r="O13" s="397"/>
+      <c r="P13" s="397"/>
+      <c r="Q13" s="397"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1">
@@ -13174,26 +13174,26 @@
       <c r="B14" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C14" s="391">
+      <c r="C14" s="392">
         <v>1918.15</v>
       </c>
-      <c r="D14" s="392"/>
-      <c r="E14" s="391"/>
-      <c r="F14" s="391"/>
-      <c r="G14" s="393"/>
+      <c r="D14" s="393"/>
+      <c r="E14" s="392"/>
+      <c r="F14" s="392"/>
+      <c r="G14" s="394"/>
       <c r="H14" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I14" s="394"/>
-      <c r="J14" s="394"/>
-      <c r="K14" s="394"/>
-      <c r="L14" s="394"/>
-      <c r="M14" s="394"/>
-      <c r="N14" s="394"/>
-      <c r="O14" s="394"/>
-      <c r="P14" s="394"/>
-      <c r="Q14" s="394"/>
+      <c r="I14" s="397"/>
+      <c r="J14" s="397"/>
+      <c r="K14" s="397"/>
+      <c r="L14" s="397"/>
+      <c r="M14" s="397"/>
+      <c r="N14" s="397"/>
+      <c r="O14" s="397"/>
+      <c r="P14" s="397"/>
+      <c r="Q14" s="397"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1">
@@ -13202,26 +13202,26 @@
       <c r="B15" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C15" s="391">
+      <c r="C15" s="392">
         <v>1918.15</v>
       </c>
-      <c r="D15" s="392"/>
-      <c r="E15" s="391"/>
-      <c r="F15" s="391"/>
-      <c r="G15" s="393"/>
+      <c r="D15" s="393"/>
+      <c r="E15" s="392"/>
+      <c r="F15" s="392"/>
+      <c r="G15" s="394"/>
       <c r="H15" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I15" s="394"/>
-      <c r="J15" s="394"/>
-      <c r="K15" s="394"/>
-      <c r="L15" s="394"/>
-      <c r="M15" s="394"/>
-      <c r="N15" s="394"/>
-      <c r="O15" s="394"/>
-      <c r="P15" s="394"/>
-      <c r="Q15" s="394"/>
+      <c r="I15" s="397"/>
+      <c r="J15" s="397"/>
+      <c r="K15" s="397"/>
+      <c r="L15" s="397"/>
+      <c r="M15" s="397"/>
+      <c r="N15" s="397"/>
+      <c r="O15" s="397"/>
+      <c r="P15" s="397"/>
+      <c r="Q15" s="397"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1">
@@ -13230,38 +13230,38 @@
       <c r="B16" s="109">
         <v>1693.15</v>
       </c>
-      <c r="C16" s="391">
+      <c r="C16" s="392">
         <v>48.24</v>
       </c>
-      <c r="D16" s="392">
+      <c r="D16" s="393">
         <f>IF(B21&gt;0,SUM(B16:B21)-C16,0)</f>
         <v>11196.460000000001</v>
       </c>
-      <c r="E16" s="391">
+      <c r="E16" s="392">
         <v>6.1787000000000001</v>
       </c>
-      <c r="F16" s="391">
+      <c r="F16" s="392">
         <v>23.62</v>
       </c>
-      <c r="G16" s="393">
+      <c r="G16" s="394">
         <v>90</v>
       </c>
       <c r="H16" s="120">
         <f>R22*0.25</f>
         <v>81.435000000000002</v>
       </c>
-      <c r="I16" s="394">
+      <c r="I16" s="397">
         <f>IF($K$28&gt;F16,G16*($K$28-F16)*0.2,0)</f>
         <v>110.33999999999999</v>
       </c>
-      <c r="J16" s="394"/>
-      <c r="K16" s="394"/>
-      <c r="L16" s="394"/>
-      <c r="M16" s="394"/>
-      <c r="N16" s="394"/>
-      <c r="O16" s="394"/>
-      <c r="P16" s="394"/>
-      <c r="Q16" s="394"/>
+      <c r="J16" s="397"/>
+      <c r="K16" s="397"/>
+      <c r="L16" s="397"/>
+      <c r="M16" s="397"/>
+      <c r="N16" s="397"/>
+      <c r="O16" s="397"/>
+      <c r="P16" s="397"/>
+      <c r="Q16" s="397"/>
       <c r="R16" s="109">
         <v>314.07</v>
       </c>
@@ -13273,24 +13273,24 @@
       <c r="B17" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C17" s="391"/>
-      <c r="D17" s="392"/>
-      <c r="E17" s="391"/>
-      <c r="F17" s="391"/>
-      <c r="G17" s="393"/>
+      <c r="C17" s="392"/>
+      <c r="D17" s="393"/>
+      <c r="E17" s="392"/>
+      <c r="F17" s="392"/>
+      <c r="G17" s="394"/>
       <c r="H17" s="120">
         <f t="shared" ref="H17:H80" si="1">R23*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I17" s="394"/>
-      <c r="J17" s="394"/>
-      <c r="K17" s="394"/>
-      <c r="L17" s="394"/>
-      <c r="M17" s="394"/>
-      <c r="N17" s="394"/>
-      <c r="O17" s="394"/>
-      <c r="P17" s="394"/>
-      <c r="Q17" s="394"/>
+      <c r="I17" s="397"/>
+      <c r="J17" s="397"/>
+      <c r="K17" s="397"/>
+      <c r="L17" s="397"/>
+      <c r="M17" s="397"/>
+      <c r="N17" s="397"/>
+      <c r="O17" s="397"/>
+      <c r="P17" s="397"/>
+      <c r="Q17" s="397"/>
       <c r="R17" s="109">
         <f>R16</f>
         <v>314.07</v>
@@ -13303,24 +13303,24 @@
       <c r="B18" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C18" s="391"/>
-      <c r="D18" s="392"/>
-      <c r="E18" s="391"/>
-      <c r="F18" s="391"/>
-      <c r="G18" s="393"/>
+      <c r="C18" s="392"/>
+      <c r="D18" s="393"/>
+      <c r="E18" s="392"/>
+      <c r="F18" s="392"/>
+      <c r="G18" s="394"/>
       <c r="H18" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I18" s="394"/>
-      <c r="J18" s="394"/>
-      <c r="K18" s="394"/>
-      <c r="L18" s="394"/>
-      <c r="M18" s="394"/>
-      <c r="N18" s="394"/>
-      <c r="O18" s="394"/>
-      <c r="P18" s="394"/>
-      <c r="Q18" s="394"/>
+      <c r="I18" s="397"/>
+      <c r="J18" s="397"/>
+      <c r="K18" s="397"/>
+      <c r="L18" s="397"/>
+      <c r="M18" s="397"/>
+      <c r="N18" s="397"/>
+      <c r="O18" s="397"/>
+      <c r="P18" s="397"/>
+      <c r="Q18" s="397"/>
       <c r="R18" s="109">
         <f t="shared" ref="R18:R32" si="2">R17</f>
         <v>314.07</v>
@@ -13333,24 +13333,24 @@
       <c r="B19" s="121">
         <v>2196.35</v>
       </c>
-      <c r="C19" s="391"/>
-      <c r="D19" s="392"/>
-      <c r="E19" s="391"/>
-      <c r="F19" s="391"/>
-      <c r="G19" s="393"/>
+      <c r="C19" s="392"/>
+      <c r="D19" s="393"/>
+      <c r="E19" s="392"/>
+      <c r="F19" s="392"/>
+      <c r="G19" s="394"/>
       <c r="H19" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I19" s="394"/>
-      <c r="J19" s="394"/>
-      <c r="K19" s="394"/>
-      <c r="L19" s="394"/>
-      <c r="M19" s="394"/>
-      <c r="N19" s="394"/>
-      <c r="O19" s="394"/>
-      <c r="P19" s="394"/>
-      <c r="Q19" s="394"/>
+      <c r="I19" s="397"/>
+      <c r="J19" s="397"/>
+      <c r="K19" s="397"/>
+      <c r="L19" s="397"/>
+      <c r="M19" s="397"/>
+      <c r="N19" s="397"/>
+      <c r="O19" s="397"/>
+      <c r="P19" s="397"/>
+      <c r="Q19" s="397"/>
       <c r="R19" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -13363,24 +13363,24 @@
       <c r="B20" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C20" s="391"/>
-      <c r="D20" s="392"/>
-      <c r="E20" s="391"/>
-      <c r="F20" s="391"/>
-      <c r="G20" s="393"/>
+      <c r="C20" s="392"/>
+      <c r="D20" s="393"/>
+      <c r="E20" s="392"/>
+      <c r="F20" s="392"/>
+      <c r="G20" s="394"/>
       <c r="H20" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I20" s="394"/>
-      <c r="J20" s="394"/>
-      <c r="K20" s="394"/>
-      <c r="L20" s="394"/>
-      <c r="M20" s="394"/>
-      <c r="N20" s="394"/>
-      <c r="O20" s="394"/>
-      <c r="P20" s="394"/>
-      <c r="Q20" s="394"/>
+      <c r="I20" s="397"/>
+      <c r="J20" s="397"/>
+      <c r="K20" s="397"/>
+      <c r="L20" s="397"/>
+      <c r="M20" s="397"/>
+      <c r="N20" s="397"/>
+      <c r="O20" s="397"/>
+      <c r="P20" s="397"/>
+      <c r="Q20" s="397"/>
       <c r="R20" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -13393,24 +13393,24 @@
       <c r="B21" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C21" s="391"/>
-      <c r="D21" s="392"/>
-      <c r="E21" s="391"/>
-      <c r="F21" s="391"/>
-      <c r="G21" s="393"/>
+      <c r="C21" s="392"/>
+      <c r="D21" s="393"/>
+      <c r="E21" s="392"/>
+      <c r="F21" s="392"/>
+      <c r="G21" s="394"/>
       <c r="H21" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I21" s="394"/>
-      <c r="J21" s="394"/>
-      <c r="K21" s="394"/>
-      <c r="L21" s="394"/>
-      <c r="M21" s="394"/>
-      <c r="N21" s="394"/>
-      <c r="O21" s="394"/>
-      <c r="P21" s="394"/>
-      <c r="Q21" s="394"/>
+      <c r="I21" s="397"/>
+      <c r="J21" s="397"/>
+      <c r="K21" s="397"/>
+      <c r="L21" s="397"/>
+      <c r="M21" s="397"/>
+      <c r="N21" s="397"/>
+      <c r="O21" s="397"/>
+      <c r="P21" s="397"/>
+      <c r="Q21" s="397"/>
       <c r="R21" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -13423,38 +13423,38 @@
       <c r="B22" s="121">
         <v>1958.23</v>
       </c>
-      <c r="C22" s="391">
+      <c r="C22" s="392">
         <v>34.549999999999997</v>
       </c>
-      <c r="D22" s="392">
+      <c r="D22" s="393">
         <f>IF(B27&gt;0,SUM(B22:B27)-C22,0)</f>
         <v>11771.410000000002</v>
       </c>
-      <c r="E22" s="391">
+      <c r="E22" s="392">
         <v>6.1050000000000004</v>
       </c>
-      <c r="F22" s="391">
+      <c r="F22" s="392">
         <v>24.24</v>
       </c>
-      <c r="G22" s="393">
+      <c r="G22" s="394">
         <v>109</v>
       </c>
       <c r="H22" s="120">
         <f>R28*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I22" s="394">
+      <c r="I22" s="397">
         <f>IF($K$28&gt;F22,G22*($K$28-F22)*0.2,0)</f>
         <v>120.11800000000004</v>
       </c>
-      <c r="J22" s="394"/>
-      <c r="K22" s="394"/>
-      <c r="L22" s="394"/>
-      <c r="M22" s="394"/>
-      <c r="N22" s="394"/>
-      <c r="O22" s="394"/>
-      <c r="P22" s="394"/>
-      <c r="Q22" s="394"/>
+      <c r="J22" s="397"/>
+      <c r="K22" s="397"/>
+      <c r="L22" s="397"/>
+      <c r="M22" s="397"/>
+      <c r="N22" s="397"/>
+      <c r="O22" s="397"/>
+      <c r="P22" s="397"/>
+      <c r="Q22" s="397"/>
       <c r="R22" s="109">
         <v>325.74</v>
       </c>
@@ -13466,24 +13466,24 @@
       <c r="B23" s="121">
         <v>1958.24</v>
       </c>
-      <c r="C23" s="391"/>
-      <c r="D23" s="392"/>
-      <c r="E23" s="391"/>
-      <c r="F23" s="391"/>
-      <c r="G23" s="393"/>
+      <c r="C23" s="392"/>
+      <c r="D23" s="393"/>
+      <c r="E23" s="392"/>
+      <c r="F23" s="392"/>
+      <c r="G23" s="394"/>
       <c r="H23" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I23" s="394"/>
-      <c r="J23" s="394"/>
-      <c r="K23" s="394"/>
-      <c r="L23" s="394"/>
-      <c r="M23" s="394"/>
-      <c r="N23" s="394"/>
-      <c r="O23" s="394"/>
-      <c r="P23" s="394"/>
-      <c r="Q23" s="394"/>
+      <c r="I23" s="397"/>
+      <c r="J23" s="397"/>
+      <c r="K23" s="397"/>
+      <c r="L23" s="397"/>
+      <c r="M23" s="397"/>
+      <c r="N23" s="397"/>
+      <c r="O23" s="397"/>
+      <c r="P23" s="397"/>
+      <c r="Q23" s="397"/>
       <c r="R23" s="109">
         <v>271.45</v>
       </c>
@@ -13495,24 +13495,24 @@
       <c r="B24" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C24" s="391"/>
-      <c r="D24" s="392"/>
-      <c r="E24" s="391"/>
-      <c r="F24" s="391"/>
-      <c r="G24" s="393"/>
+      <c r="C24" s="392"/>
+      <c r="D24" s="393"/>
+      <c r="E24" s="392"/>
+      <c r="F24" s="392"/>
+      <c r="G24" s="394"/>
       <c r="H24" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I24" s="394"/>
-      <c r="J24" s="394"/>
-      <c r="K24" s="394"/>
-      <c r="L24" s="394"/>
-      <c r="M24" s="394"/>
-      <c r="N24" s="394"/>
-      <c r="O24" s="394"/>
-      <c r="P24" s="394"/>
-      <c r="Q24" s="394"/>
+      <c r="I24" s="397"/>
+      <c r="J24" s="397"/>
+      <c r="K24" s="397"/>
+      <c r="L24" s="397"/>
+      <c r="M24" s="397"/>
+      <c r="N24" s="397"/>
+      <c r="O24" s="397"/>
+      <c r="P24" s="397"/>
+      <c r="Q24" s="397"/>
       <c r="R24" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -13525,24 +13525,24 @@
       <c r="B25" s="121">
         <v>1958.26</v>
       </c>
-      <c r="C25" s="391"/>
-      <c r="D25" s="392"/>
-      <c r="E25" s="391"/>
-      <c r="F25" s="391"/>
-      <c r="G25" s="393"/>
+      <c r="C25" s="392"/>
+      <c r="D25" s="393"/>
+      <c r="E25" s="392"/>
+      <c r="F25" s="392"/>
+      <c r="G25" s="394"/>
       <c r="H25" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I25" s="394"/>
-      <c r="J25" s="394"/>
-      <c r="K25" s="394"/>
-      <c r="L25" s="394"/>
-      <c r="M25" s="394"/>
-      <c r="N25" s="394"/>
-      <c r="O25" s="394"/>
-      <c r="P25" s="394"/>
-      <c r="Q25" s="394"/>
+      <c r="I25" s="397"/>
+      <c r="J25" s="397"/>
+      <c r="K25" s="397"/>
+      <c r="L25" s="397"/>
+      <c r="M25" s="397"/>
+      <c r="N25" s="397"/>
+      <c r="O25" s="397"/>
+      <c r="P25" s="397"/>
+      <c r="Q25" s="397"/>
       <c r="R25" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -13555,24 +13555,24 @@
       <c r="B26" s="121">
         <v>2031.49</v>
       </c>
-      <c r="C26" s="391"/>
-      <c r="D26" s="392"/>
-      <c r="E26" s="391"/>
-      <c r="F26" s="391"/>
-      <c r="G26" s="393"/>
+      <c r="C26" s="392"/>
+      <c r="D26" s="393"/>
+      <c r="E26" s="392"/>
+      <c r="F26" s="392"/>
+      <c r="G26" s="394"/>
       <c r="H26" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I26" s="394"/>
-      <c r="J26" s="394"/>
-      <c r="K26" s="394"/>
-      <c r="L26" s="394"/>
-      <c r="M26" s="394"/>
-      <c r="N26" s="394"/>
-      <c r="O26" s="394"/>
-      <c r="P26" s="394"/>
-      <c r="Q26" s="394"/>
+      <c r="I26" s="397"/>
+      <c r="J26" s="397"/>
+      <c r="K26" s="397"/>
+      <c r="L26" s="397"/>
+      <c r="M26" s="397"/>
+      <c r="N26" s="397"/>
+      <c r="O26" s="397"/>
+      <c r="P26" s="397"/>
+      <c r="Q26" s="397"/>
       <c r="R26" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -13585,24 +13585,24 @@
       <c r="B27" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C27" s="391"/>
-      <c r="D27" s="392"/>
-      <c r="E27" s="391"/>
-      <c r="F27" s="391"/>
-      <c r="G27" s="393"/>
+      <c r="C27" s="392"/>
+      <c r="D27" s="393"/>
+      <c r="E27" s="392"/>
+      <c r="F27" s="392"/>
+      <c r="G27" s="394"/>
       <c r="H27" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I27" s="394"/>
-      <c r="J27" s="394"/>
-      <c r="K27" s="394"/>
-      <c r="L27" s="394"/>
-      <c r="M27" s="394"/>
-      <c r="N27" s="394"/>
-      <c r="O27" s="394"/>
-      <c r="P27" s="394"/>
-      <c r="Q27" s="394"/>
+      <c r="I27" s="397"/>
+      <c r="J27" s="397"/>
+      <c r="K27" s="397"/>
+      <c r="L27" s="397"/>
+      <c r="M27" s="397"/>
+      <c r="N27" s="397"/>
+      <c r="O27" s="397"/>
+      <c r="P27" s="397"/>
+      <c r="Q27" s="397"/>
       <c r="R27" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -13615,54 +13615,54 @@
       <c r="B28" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C28" s="391">
+      <c r="C28" s="392">
         <v>22.25</v>
       </c>
-      <c r="D28" s="392">
+      <c r="D28" s="393">
         <f>IF(G28&gt;0,SUM(B28:B34)-C28,0)</f>
         <v>14106.8</v>
       </c>
-      <c r="E28" s="391">
+      <c r="E28" s="392">
         <v>6.1675000000000004</v>
       </c>
-      <c r="F28" s="391">
+      <c r="F28" s="392">
         <v>29.3</v>
       </c>
-      <c r="G28" s="393">
+      <c r="G28" s="394">
         <v>79</v>
       </c>
       <c r="H28" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I28" s="394">
+      <c r="I28" s="397">
         <f>IF($D$2&gt;F28,G28*($D$2-F28)*0.2,0)</f>
         <v>7.1099999999999888</v>
       </c>
-      <c r="J28" s="394">
+      <c r="J28" s="397">
         <f>SUM(I10:I27)</f>
         <v>300.76800000000003</v>
       </c>
-      <c r="K28" s="394">
+      <c r="K28" s="397">
         <v>29.75</v>
       </c>
-      <c r="L28" s="394">
+      <c r="L28" s="397">
         <v>278</v>
       </c>
-      <c r="M28" s="394">
+      <c r="M28" s="397">
         <f>IF(IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005)&gt;25,IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005),25)</f>
         <v>41.352499999999999</v>
       </c>
-      <c r="N28" s="394">
+      <c r="N28" s="397">
         <v>5.25</v>
       </c>
-      <c r="O28" s="394">
-        <v>0</v>
-      </c>
-      <c r="P28" s="394">
+      <c r="O28" s="397">
+        <v>0</v>
+      </c>
+      <c r="P28" s="397">
         <v>25</v>
       </c>
-      <c r="Q28" s="394">
+      <c r="Q28" s="397">
         <f>(K28*L28-J28-M28-N28-O28-P28)*S34</f>
         <v>48178.589949999994</v>
       </c>
@@ -13678,24 +13678,24 @@
       <c r="B29" s="121">
         <v>2445.75</v>
       </c>
-      <c r="C29" s="391"/>
-      <c r="D29" s="392"/>
-      <c r="E29" s="391"/>
-      <c r="F29" s="391"/>
-      <c r="G29" s="393"/>
+      <c r="C29" s="392"/>
+      <c r="D29" s="393"/>
+      <c r="E29" s="392"/>
+      <c r="F29" s="392"/>
+      <c r="G29" s="394"/>
       <c r="H29" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I29" s="394"/>
-      <c r="J29" s="394"/>
-      <c r="K29" s="394"/>
-      <c r="L29" s="394"/>
-      <c r="M29" s="394"/>
-      <c r="N29" s="394"/>
-      <c r="O29" s="394"/>
-      <c r="P29" s="394"/>
-      <c r="Q29" s="394"/>
+      <c r="I29" s="397"/>
+      <c r="J29" s="397"/>
+      <c r="K29" s="397"/>
+      <c r="L29" s="397"/>
+      <c r="M29" s="397"/>
+      <c r="N29" s="397"/>
+      <c r="O29" s="397"/>
+      <c r="P29" s="397"/>
+      <c r="Q29" s="397"/>
       <c r="R29" s="109">
         <v>400.35</v>
       </c>
@@ -13707,24 +13707,24 @@
       <c r="B30" s="121">
         <v>1917.03</v>
       </c>
-      <c r="C30" s="391"/>
-      <c r="D30" s="392"/>
-      <c r="E30" s="391"/>
-      <c r="F30" s="391"/>
-      <c r="G30" s="393"/>
+      <c r="C30" s="392"/>
+      <c r="D30" s="393"/>
+      <c r="E30" s="392"/>
+      <c r="F30" s="392"/>
+      <c r="G30" s="394"/>
       <c r="H30" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I30" s="394"/>
-      <c r="J30" s="394"/>
-      <c r="K30" s="394"/>
-      <c r="L30" s="394"/>
-      <c r="M30" s="394"/>
-      <c r="N30" s="394"/>
-      <c r="O30" s="394"/>
-      <c r="P30" s="394"/>
-      <c r="Q30" s="394"/>
+      <c r="I30" s="397"/>
+      <c r="J30" s="397"/>
+      <c r="K30" s="397"/>
+      <c r="L30" s="397"/>
+      <c r="M30" s="397"/>
+      <c r="N30" s="397"/>
+      <c r="O30" s="397"/>
+      <c r="P30" s="397"/>
+      <c r="Q30" s="397"/>
       <c r="R30" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -13737,24 +13737,24 @@
       <c r="B31" s="121">
         <v>1827.02</v>
       </c>
-      <c r="C31" s="391"/>
-      <c r="D31" s="392"/>
-      <c r="E31" s="391"/>
-      <c r="F31" s="391"/>
-      <c r="G31" s="393"/>
+      <c r="C31" s="392"/>
+      <c r="D31" s="393"/>
+      <c r="E31" s="392"/>
+      <c r="F31" s="392"/>
+      <c r="G31" s="394"/>
       <c r="H31" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I31" s="394"/>
-      <c r="J31" s="394"/>
-      <c r="K31" s="394"/>
-      <c r="L31" s="394"/>
-      <c r="M31" s="394"/>
-      <c r="N31" s="394"/>
-      <c r="O31" s="394"/>
-      <c r="P31" s="394"/>
-      <c r="Q31" s="394"/>
+      <c r="I31" s="397"/>
+      <c r="J31" s="397"/>
+      <c r="K31" s="397"/>
+      <c r="L31" s="397"/>
+      <c r="M31" s="397"/>
+      <c r="N31" s="397"/>
+      <c r="O31" s="397"/>
+      <c r="P31" s="397"/>
+      <c r="Q31" s="397"/>
       <c r="R31" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -13767,24 +13767,24 @@
       <c r="B32" s="121">
         <v>1958.22</v>
       </c>
-      <c r="C32" s="391"/>
-      <c r="D32" s="392"/>
-      <c r="E32" s="391"/>
-      <c r="F32" s="391"/>
-      <c r="G32" s="393"/>
+      <c r="C32" s="392"/>
+      <c r="D32" s="393"/>
+      <c r="E32" s="392"/>
+      <c r="F32" s="392"/>
+      <c r="G32" s="394"/>
       <c r="H32" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I32" s="394"/>
-      <c r="J32" s="394"/>
-      <c r="K32" s="394"/>
-      <c r="L32" s="394"/>
-      <c r="M32" s="394"/>
-      <c r="N32" s="394"/>
-      <c r="O32" s="394"/>
-      <c r="P32" s="394"/>
-      <c r="Q32" s="394"/>
+      <c r="I32" s="397"/>
+      <c r="J32" s="397"/>
+      <c r="K32" s="397"/>
+      <c r="L32" s="397"/>
+      <c r="M32" s="397"/>
+      <c r="N32" s="397"/>
+      <c r="O32" s="397"/>
+      <c r="P32" s="397"/>
+      <c r="Q32" s="397"/>
       <c r="R32" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -13797,24 +13797,24 @@
       <c r="B33" s="121">
         <v>1958.28</v>
       </c>
-      <c r="C33" s="391"/>
-      <c r="D33" s="392"/>
-      <c r="E33" s="391"/>
-      <c r="F33" s="391"/>
-      <c r="G33" s="393"/>
+      <c r="C33" s="392"/>
+      <c r="D33" s="393"/>
+      <c r="E33" s="392"/>
+      <c r="F33" s="392"/>
+      <c r="G33" s="394"/>
       <c r="H33" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I33" s="394"/>
-      <c r="J33" s="394"/>
-      <c r="K33" s="394"/>
-      <c r="L33" s="394"/>
-      <c r="M33" s="394"/>
-      <c r="N33" s="394"/>
-      <c r="O33" s="394"/>
-      <c r="P33" s="394"/>
-      <c r="Q33" s="394"/>
+      <c r="I33" s="397"/>
+      <c r="J33" s="397"/>
+      <c r="K33" s="397"/>
+      <c r="L33" s="397"/>
+      <c r="M33" s="397"/>
+      <c r="N33" s="397"/>
+      <c r="O33" s="397"/>
+      <c r="P33" s="397"/>
+      <c r="Q33" s="397"/>
       <c r="R33" s="109">
         <f>R30</f>
         <v>400.35</v>
@@ -13827,24 +13827,24 @@
       <c r="B34" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C34" s="391"/>
-      <c r="D34" s="392"/>
-      <c r="E34" s="391"/>
-      <c r="F34" s="391"/>
-      <c r="G34" s="393"/>
+      <c r="C34" s="392"/>
+      <c r="D34" s="393"/>
+      <c r="E34" s="392"/>
+      <c r="F34" s="392"/>
+      <c r="G34" s="394"/>
       <c r="H34" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I34" s="394"/>
-      <c r="J34" s="394"/>
-      <c r="K34" s="394"/>
-      <c r="L34" s="394"/>
-      <c r="M34" s="394"/>
-      <c r="N34" s="394"/>
-      <c r="O34" s="394"/>
-      <c r="P34" s="394"/>
-      <c r="Q34" s="394"/>
+      <c r="I34" s="397"/>
+      <c r="J34" s="397"/>
+      <c r="K34" s="397"/>
+      <c r="L34" s="397"/>
+      <c r="M34" s="397"/>
+      <c r="N34" s="397"/>
+      <c r="O34" s="397"/>
+      <c r="P34" s="397"/>
+      <c r="Q34" s="397"/>
       <c r="R34" s="109">
         <f>R32</f>
         <v>400.35</v>
@@ -13860,38 +13860,38 @@
       <c r="B35" s="121">
         <v>2171.2600000000002</v>
       </c>
-      <c r="C35" s="391">
+      <c r="C35" s="392">
         <v>30.19</v>
       </c>
-      <c r="D35" s="392">
+      <c r="D35" s="393">
         <f>IF(B40&gt;0,SUM(B35:B40)-C35,0)</f>
         <v>13016.160000000002</v>
       </c>
-      <c r="E35" s="391">
+      <c r="E35" s="392">
         <v>6.1369999999999996</v>
       </c>
-      <c r="F35" s="391">
+      <c r="F35" s="392">
         <v>25.93</v>
       </c>
-      <c r="G35" s="393">
+      <c r="G35" s="394">
         <v>96</v>
       </c>
       <c r="H35" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I35" s="394">
+      <c r="I35" s="397">
         <f>IF($D$2&gt;F35,G35*($D$2-F35)*0.2,0)</f>
         <v>73.344000000000008</v>
       </c>
-      <c r="J35" s="394"/>
-      <c r="K35" s="394"/>
-      <c r="L35" s="394"/>
-      <c r="M35" s="394"/>
-      <c r="N35" s="394"/>
-      <c r="O35" s="394"/>
-      <c r="P35" s="394"/>
-      <c r="Q35" s="394"/>
+      <c r="J35" s="397"/>
+      <c r="K35" s="397"/>
+      <c r="L35" s="397"/>
+      <c r="M35" s="397"/>
+      <c r="N35" s="397"/>
+      <c r="O35" s="397"/>
+      <c r="P35" s="397"/>
+      <c r="Q35" s="397"/>
       <c r="R35" s="109">
         <v>358.55</v>
       </c>
@@ -13903,24 +13903,24 @@
       <c r="B36" s="121">
         <v>2081.27</v>
       </c>
-      <c r="C36" s="391"/>
-      <c r="D36" s="392"/>
-      <c r="E36" s="391"/>
-      <c r="F36" s="391"/>
-      <c r="G36" s="393"/>
+      <c r="C36" s="392"/>
+      <c r="D36" s="393"/>
+      <c r="E36" s="392"/>
+      <c r="F36" s="392"/>
+      <c r="G36" s="394"/>
       <c r="H36" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I36" s="394"/>
-      <c r="J36" s="394"/>
-      <c r="K36" s="394"/>
-      <c r="L36" s="394"/>
-      <c r="M36" s="394"/>
-      <c r="N36" s="394"/>
-      <c r="O36" s="394"/>
-      <c r="P36" s="394"/>
-      <c r="Q36" s="394"/>
+      <c r="I36" s="397"/>
+      <c r="J36" s="397"/>
+      <c r="K36" s="397"/>
+      <c r="L36" s="397"/>
+      <c r="M36" s="397"/>
+      <c r="N36" s="397"/>
+      <c r="O36" s="397"/>
+      <c r="P36" s="397"/>
+      <c r="Q36" s="397"/>
       <c r="R36" s="109">
         <v>358.55</v>
       </c>
@@ -13932,24 +13932,24 @@
       <c r="B37" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C37" s="391"/>
-      <c r="D37" s="392"/>
-      <c r="E37" s="391"/>
-      <c r="F37" s="391"/>
-      <c r="G37" s="393"/>
+      <c r="C37" s="392"/>
+      <c r="D37" s="393"/>
+      <c r="E37" s="392"/>
+      <c r="F37" s="392"/>
+      <c r="G37" s="394"/>
       <c r="H37" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I37" s="394"/>
-      <c r="J37" s="394"/>
-      <c r="K37" s="394"/>
-      <c r="L37" s="394"/>
-      <c r="M37" s="394"/>
-      <c r="N37" s="394"/>
-      <c r="O37" s="394"/>
-      <c r="P37" s="394"/>
-      <c r="Q37" s="394"/>
+      <c r="I37" s="397"/>
+      <c r="J37" s="397"/>
+      <c r="K37" s="397"/>
+      <c r="L37" s="397"/>
+      <c r="M37" s="397"/>
+      <c r="N37" s="397"/>
+      <c r="O37" s="397"/>
+      <c r="P37" s="397"/>
+      <c r="Q37" s="397"/>
       <c r="R37" s="109">
         <v>358.55</v>
       </c>
@@ -13961,24 +13961,24 @@
       <c r="B38" s="121">
         <v>2537.5100000000002</v>
       </c>
-      <c r="C38" s="391"/>
-      <c r="D38" s="392"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="391"/>
-      <c r="G38" s="393"/>
+      <c r="C38" s="392"/>
+      <c r="D38" s="393"/>
+      <c r="E38" s="392"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="394"/>
       <c r="H38" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I38" s="394"/>
-      <c r="J38" s="394"/>
-      <c r="K38" s="394"/>
-      <c r="L38" s="394"/>
-      <c r="M38" s="394"/>
-      <c r="N38" s="394"/>
-      <c r="O38" s="394"/>
-      <c r="P38" s="394"/>
-      <c r="Q38" s="394"/>
+      <c r="I38" s="397"/>
+      <c r="J38" s="397"/>
+      <c r="K38" s="397"/>
+      <c r="L38" s="397"/>
+      <c r="M38" s="397"/>
+      <c r="N38" s="397"/>
+      <c r="O38" s="397"/>
+      <c r="P38" s="397"/>
+      <c r="Q38" s="397"/>
       <c r="R38" s="109">
         <v>358.55</v>
       </c>
@@ -13990,24 +13990,24 @@
       <c r="B39" s="121">
         <v>2087.52</v>
       </c>
-      <c r="C39" s="391"/>
-      <c r="D39" s="392"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="391"/>
-      <c r="G39" s="393"/>
+      <c r="C39" s="392"/>
+      <c r="D39" s="393"/>
+      <c r="E39" s="392"/>
+      <c r="F39" s="392"/>
+      <c r="G39" s="394"/>
       <c r="H39" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I39" s="394"/>
-      <c r="J39" s="394"/>
-      <c r="K39" s="394"/>
-      <c r="L39" s="394"/>
-      <c r="M39" s="394"/>
-      <c r="N39" s="394"/>
-      <c r="O39" s="394"/>
-      <c r="P39" s="394"/>
-      <c r="Q39" s="394"/>
+      <c r="I39" s="397"/>
+      <c r="J39" s="397"/>
+      <c r="K39" s="397"/>
+      <c r="L39" s="397"/>
+      <c r="M39" s="397"/>
+      <c r="N39" s="397"/>
+      <c r="O39" s="397"/>
+      <c r="P39" s="397"/>
+      <c r="Q39" s="397"/>
       <c r="R39" s="109">
         <v>358.55</v>
       </c>
@@ -14019,24 +14019,24 @@
       <c r="B40" s="121">
         <v>2087.5300000000002</v>
       </c>
-      <c r="C40" s="391"/>
-      <c r="D40" s="392"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="391"/>
-      <c r="G40" s="393"/>
+      <c r="C40" s="392"/>
+      <c r="D40" s="393"/>
+      <c r="E40" s="392"/>
+      <c r="F40" s="392"/>
+      <c r="G40" s="394"/>
       <c r="H40" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I40" s="394"/>
-      <c r="J40" s="394"/>
-      <c r="K40" s="394"/>
-      <c r="L40" s="394"/>
-      <c r="M40" s="394"/>
-      <c r="N40" s="394"/>
-      <c r="O40" s="394"/>
-      <c r="P40" s="394"/>
-      <c r="Q40" s="394"/>
+      <c r="I40" s="397"/>
+      <c r="J40" s="397"/>
+      <c r="K40" s="397"/>
+      <c r="L40" s="397"/>
+      <c r="M40" s="397"/>
+      <c r="N40" s="397"/>
+      <c r="O40" s="397"/>
+      <c r="P40" s="397"/>
+      <c r="Q40" s="397"/>
       <c r="R40" s="109">
         <v>358.55</v>
       </c>
@@ -14048,38 +14048,38 @@
       <c r="B41" s="121">
         <v>2362.48</v>
       </c>
-      <c r="C41" s="391">
+      <c r="C41" s="392">
         <v>52.72</v>
       </c>
-      <c r="D41" s="392">
+      <c r="D41" s="393">
         <f>IF(B46&gt;0,SUM(B41:B46)-C41,0)</f>
         <v>13224.73</v>
       </c>
-      <c r="E41" s="391">
+      <c r="E41" s="392">
         <v>6.2213000000000003</v>
       </c>
-      <c r="F41" s="391">
+      <c r="F41" s="392">
         <v>26.89</v>
       </c>
-      <c r="G41" s="393">
+      <c r="G41" s="394">
         <v>93</v>
       </c>
       <c r="H41" s="120">
         <f t="shared" si="1"/>
         <v>95.527500000000003</v>
       </c>
-      <c r="I41" s="394">
+      <c r="I41" s="397">
         <f>IF($D$2&gt;F41,G41*($D$2-F41)*0.2,0)</f>
         <v>53.195999999999998</v>
       </c>
-      <c r="J41" s="394"/>
-      <c r="K41" s="394"/>
-      <c r="L41" s="394"/>
-      <c r="M41" s="394"/>
-      <c r="N41" s="394"/>
-      <c r="O41" s="394"/>
-      <c r="P41" s="394"/>
-      <c r="Q41" s="394"/>
+      <c r="J41" s="397"/>
+      <c r="K41" s="397"/>
+      <c r="L41" s="397"/>
+      <c r="M41" s="397"/>
+      <c r="N41" s="397"/>
+      <c r="O41" s="397"/>
+      <c r="P41" s="397"/>
+      <c r="Q41" s="397"/>
       <c r="R41" s="109">
         <v>381.97</v>
       </c>
@@ -14091,24 +14091,24 @@
       <c r="B42" s="121">
         <v>2174.98</v>
       </c>
-      <c r="C42" s="391"/>
-      <c r="D42" s="392"/>
-      <c r="E42" s="391"/>
-      <c r="F42" s="391"/>
-      <c r="G42" s="393"/>
+      <c r="C42" s="392"/>
+      <c r="D42" s="393"/>
+      <c r="E42" s="392"/>
+      <c r="F42" s="392"/>
+      <c r="G42" s="394"/>
       <c r="H42" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="394"/>
-      <c r="J42" s="394"/>
-      <c r="K42" s="394"/>
-      <c r="L42" s="394"/>
-      <c r="M42" s="394"/>
-      <c r="N42" s="394"/>
-      <c r="O42" s="394"/>
-      <c r="P42" s="394"/>
-      <c r="Q42" s="394"/>
+      <c r="I42" s="397"/>
+      <c r="J42" s="397"/>
+      <c r="K42" s="397"/>
+      <c r="L42" s="397"/>
+      <c r="M42" s="397"/>
+      <c r="N42" s="397"/>
+      <c r="O42" s="397"/>
+      <c r="P42" s="397"/>
+      <c r="Q42" s="397"/>
       <c r="R42" s="109">
         <v>381.97</v>
       </c>
@@ -14120,24 +14120,24 @@
       <c r="B43" s="121">
         <v>2265</v>
       </c>
-      <c r="C43" s="391"/>
-      <c r="D43" s="392"/>
-      <c r="E43" s="391"/>
-      <c r="F43" s="391"/>
-      <c r="G43" s="393"/>
+      <c r="C43" s="392"/>
+      <c r="D43" s="393"/>
+      <c r="E43" s="392"/>
+      <c r="F43" s="392"/>
+      <c r="G43" s="394"/>
       <c r="H43" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I43" s="394"/>
-      <c r="J43" s="394"/>
-      <c r="K43" s="394"/>
-      <c r="L43" s="394"/>
-      <c r="M43" s="394"/>
-      <c r="N43" s="394"/>
-      <c r="O43" s="394"/>
-      <c r="P43" s="394"/>
-      <c r="Q43" s="394"/>
+      <c r="I43" s="397"/>
+      <c r="J43" s="397"/>
+      <c r="K43" s="397"/>
+      <c r="L43" s="397"/>
+      <c r="M43" s="397"/>
+      <c r="N43" s="397"/>
+      <c r="O43" s="397"/>
+      <c r="P43" s="397"/>
+      <c r="Q43" s="397"/>
       <c r="R43" s="109">
         <v>381.97</v>
       </c>
@@ -14149,24 +14149,24 @@
       <c r="B44" s="121">
         <v>2087.5</v>
       </c>
-      <c r="C44" s="391"/>
-      <c r="D44" s="392"/>
-      <c r="E44" s="391"/>
-      <c r="F44" s="391"/>
-      <c r="G44" s="393"/>
+      <c r="C44" s="392"/>
+      <c r="D44" s="393"/>
+      <c r="E44" s="392"/>
+      <c r="F44" s="392"/>
+      <c r="G44" s="394"/>
       <c r="H44" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44" s="394"/>
-      <c r="J44" s="394"/>
-      <c r="K44" s="394"/>
-      <c r="L44" s="394"/>
-      <c r="M44" s="394"/>
-      <c r="N44" s="394"/>
-      <c r="O44" s="394"/>
-      <c r="P44" s="394"/>
-      <c r="Q44" s="394"/>
+      <c r="I44" s="397"/>
+      <c r="J44" s="397"/>
+      <c r="K44" s="397"/>
+      <c r="L44" s="397"/>
+      <c r="M44" s="397"/>
+      <c r="N44" s="397"/>
+      <c r="O44" s="397"/>
+      <c r="P44" s="397"/>
+      <c r="Q44" s="397"/>
       <c r="R44" s="109">
         <v>381.97</v>
       </c>
@@ -14178,24 +14178,24 @@
       <c r="B45" s="121">
         <v>2087.48</v>
       </c>
-      <c r="C45" s="391"/>
-      <c r="D45" s="392"/>
-      <c r="E45" s="391"/>
-      <c r="F45" s="391"/>
-      <c r="G45" s="393"/>
+      <c r="C45" s="392"/>
+      <c r="D45" s="393"/>
+      <c r="E45" s="392"/>
+      <c r="F45" s="392"/>
+      <c r="G45" s="394"/>
       <c r="H45" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45" s="394"/>
-      <c r="J45" s="394"/>
-      <c r="K45" s="394"/>
-      <c r="L45" s="394"/>
-      <c r="M45" s="394"/>
-      <c r="N45" s="394"/>
-      <c r="O45" s="394"/>
-      <c r="P45" s="394"/>
-      <c r="Q45" s="394"/>
+      <c r="I45" s="397"/>
+      <c r="J45" s="397"/>
+      <c r="K45" s="397"/>
+      <c r="L45" s="397"/>
+      <c r="M45" s="397"/>
+      <c r="N45" s="397"/>
+      <c r="O45" s="397"/>
+      <c r="P45" s="397"/>
+      <c r="Q45" s="397"/>
       <c r="R45" s="109">
         <v>381.97</v>
       </c>
@@ -14207,24 +14207,24 @@
       <c r="B46" s="121">
         <v>2300.0100000000002</v>
       </c>
-      <c r="C46" s="391"/>
-      <c r="D46" s="392"/>
-      <c r="E46" s="391"/>
-      <c r="F46" s="391"/>
-      <c r="G46" s="393"/>
+      <c r="C46" s="392"/>
+      <c r="D46" s="393"/>
+      <c r="E46" s="392"/>
+      <c r="F46" s="392"/>
+      <c r="G46" s="394"/>
       <c r="H46" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46" s="394"/>
-      <c r="J46" s="394"/>
-      <c r="K46" s="394"/>
-      <c r="L46" s="394"/>
-      <c r="M46" s="394"/>
-      <c r="N46" s="394"/>
-      <c r="O46" s="394"/>
-      <c r="P46" s="394"/>
-      <c r="Q46" s="394"/>
+      <c r="I46" s="397"/>
+      <c r="J46" s="397"/>
+      <c r="K46" s="397"/>
+      <c r="L46" s="397"/>
+      <c r="M46" s="397"/>
+      <c r="N46" s="397"/>
+      <c r="O46" s="397"/>
+      <c r="P46" s="397"/>
+      <c r="Q46" s="397"/>
       <c r="R46" s="109">
         <v>381.97</v>
       </c>
@@ -14236,38 +14236,38 @@
       <c r="B47" s="121">
         <v>3787.17</v>
       </c>
-      <c r="C47" s="391">
-        <v>0</v>
-      </c>
-      <c r="D47" s="392">
+      <c r="C47" s="392">
+        <v>0</v>
+      </c>
+      <c r="D47" s="393">
         <f>IF(B52&gt;0,SUM(B47:B52)-C47,0)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="391">
+      <c r="E47" s="392">
         <v>6.2</v>
       </c>
-      <c r="F47" s="391">
+      <c r="F47" s="392">
         <v>25.3</v>
       </c>
-      <c r="G47" s="393">
+      <c r="G47" s="394">
         <v>0</v>
       </c>
       <c r="H47" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="394">
+      <c r="I47" s="397">
         <f>IF($D$2&gt;F47,G47*($D$2-F47)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="394"/>
-      <c r="K47" s="394"/>
-      <c r="L47" s="394"/>
-      <c r="M47" s="394"/>
-      <c r="N47" s="394"/>
-      <c r="O47" s="394"/>
-      <c r="P47" s="394"/>
-      <c r="Q47" s="394"/>
+      <c r="J47" s="397"/>
+      <c r="K47" s="397"/>
+      <c r="L47" s="397"/>
+      <c r="M47" s="397"/>
+      <c r="N47" s="397"/>
+      <c r="O47" s="397"/>
+      <c r="P47" s="397"/>
+      <c r="Q47" s="397"/>
       <c r="R47" s="109">
         <v>382.11</v>
       </c>
@@ -14279,24 +14279,24 @@
       <c r="B48" s="121">
         <v>0</v>
       </c>
-      <c r="C48" s="391"/>
-      <c r="D48" s="392"/>
-      <c r="E48" s="391"/>
-      <c r="F48" s="391"/>
-      <c r="G48" s="393"/>
+      <c r="C48" s="392"/>
+      <c r="D48" s="393"/>
+      <c r="E48" s="392"/>
+      <c r="F48" s="392"/>
+      <c r="G48" s="394"/>
       <c r="H48" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48" s="394"/>
-      <c r="J48" s="394"/>
-      <c r="K48" s="394"/>
-      <c r="L48" s="394"/>
-      <c r="M48" s="394"/>
-      <c r="N48" s="394"/>
-      <c r="O48" s="394"/>
-      <c r="P48" s="394"/>
-      <c r="Q48" s="394"/>
+      <c r="I48" s="397"/>
+      <c r="J48" s="397"/>
+      <c r="K48" s="397"/>
+      <c r="L48" s="397"/>
+      <c r="M48" s="397"/>
+      <c r="N48" s="397"/>
+      <c r="O48" s="397"/>
+      <c r="P48" s="397"/>
+      <c r="Q48" s="397"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
@@ -14305,24 +14305,24 @@
       <c r="B49" s="121">
         <v>0</v>
       </c>
-      <c r="C49" s="391"/>
-      <c r="D49" s="392"/>
-      <c r="E49" s="391"/>
-      <c r="F49" s="391"/>
-      <c r="G49" s="393"/>
+      <c r="C49" s="392"/>
+      <c r="D49" s="393"/>
+      <c r="E49" s="392"/>
+      <c r="F49" s="392"/>
+      <c r="G49" s="394"/>
       <c r="H49" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I49" s="394"/>
-      <c r="J49" s="394"/>
-      <c r="K49" s="394"/>
-      <c r="L49" s="394"/>
-      <c r="M49" s="394"/>
-      <c r="N49" s="394"/>
-      <c r="O49" s="394"/>
-      <c r="P49" s="394"/>
-      <c r="Q49" s="394"/>
+      <c r="I49" s="397"/>
+      <c r="J49" s="397"/>
+      <c r="K49" s="397"/>
+      <c r="L49" s="397"/>
+      <c r="M49" s="397"/>
+      <c r="N49" s="397"/>
+      <c r="O49" s="397"/>
+      <c r="P49" s="397"/>
+      <c r="Q49" s="397"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
@@ -14331,24 +14331,24 @@
       <c r="B50" s="121">
         <v>0</v>
       </c>
-      <c r="C50" s="391"/>
-      <c r="D50" s="392"/>
-      <c r="E50" s="391"/>
-      <c r="F50" s="391"/>
-      <c r="G50" s="393"/>
+      <c r="C50" s="392"/>
+      <c r="D50" s="393"/>
+      <c r="E50" s="392"/>
+      <c r="F50" s="392"/>
+      <c r="G50" s="394"/>
       <c r="H50" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I50" s="394"/>
-      <c r="J50" s="394"/>
-      <c r="K50" s="394"/>
-      <c r="L50" s="394"/>
-      <c r="M50" s="394"/>
-      <c r="N50" s="394"/>
-      <c r="O50" s="394"/>
-      <c r="P50" s="394"/>
-      <c r="Q50" s="394"/>
+      <c r="I50" s="397"/>
+      <c r="J50" s="397"/>
+      <c r="K50" s="397"/>
+      <c r="L50" s="397"/>
+      <c r="M50" s="397"/>
+      <c r="N50" s="397"/>
+      <c r="O50" s="397"/>
+      <c r="P50" s="397"/>
+      <c r="Q50" s="397"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
@@ -14357,24 +14357,24 @@
       <c r="B51" s="121">
         <v>0</v>
       </c>
-      <c r="C51" s="391"/>
-      <c r="D51" s="392"/>
-      <c r="E51" s="391"/>
-      <c r="F51" s="391"/>
-      <c r="G51" s="393"/>
+      <c r="C51" s="392"/>
+      <c r="D51" s="393"/>
+      <c r="E51" s="392"/>
+      <c r="F51" s="392"/>
+      <c r="G51" s="394"/>
       <c r="H51" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I51" s="394"/>
-      <c r="J51" s="394"/>
-      <c r="K51" s="394"/>
-      <c r="L51" s="394"/>
-      <c r="M51" s="394"/>
-      <c r="N51" s="394"/>
-      <c r="O51" s="394"/>
-      <c r="P51" s="394"/>
-      <c r="Q51" s="394"/>
+      <c r="I51" s="397"/>
+      <c r="J51" s="397"/>
+      <c r="K51" s="397"/>
+      <c r="L51" s="397"/>
+      <c r="M51" s="397"/>
+      <c r="N51" s="397"/>
+      <c r="O51" s="397"/>
+      <c r="P51" s="397"/>
+      <c r="Q51" s="397"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
@@ -14383,24 +14383,24 @@
       <c r="B52" s="121">
         <v>0</v>
       </c>
-      <c r="C52" s="391"/>
-      <c r="D52" s="392"/>
-      <c r="E52" s="391"/>
-      <c r="F52" s="391"/>
-      <c r="G52" s="393"/>
+      <c r="C52" s="392"/>
+      <c r="D52" s="393"/>
+      <c r="E52" s="392"/>
+      <c r="F52" s="392"/>
+      <c r="G52" s="394"/>
       <c r="H52" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I52" s="394"/>
-      <c r="J52" s="394"/>
-      <c r="K52" s="394"/>
-      <c r="L52" s="394"/>
-      <c r="M52" s="394"/>
-      <c r="N52" s="394"/>
-      <c r="O52" s="394"/>
-      <c r="P52" s="394"/>
-      <c r="Q52" s="394"/>
+      <c r="I52" s="397"/>
+      <c r="J52" s="397"/>
+      <c r="K52" s="397"/>
+      <c r="L52" s="397"/>
+      <c r="M52" s="397"/>
+      <c r="N52" s="397"/>
+      <c r="O52" s="397"/>
+      <c r="P52" s="397"/>
+      <c r="Q52" s="397"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
@@ -14409,38 +14409,38 @@
       <c r="B53" s="121">
         <v>0</v>
       </c>
-      <c r="C53" s="391">
-        <v>0</v>
-      </c>
-      <c r="D53" s="392">
+      <c r="C53" s="392">
+        <v>0</v>
+      </c>
+      <c r="D53" s="393">
         <f>IF(B58&gt;0,SUM(B53:B58)-C53,0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="391">
+      <c r="E53" s="392">
         <v>6.2</v>
       </c>
-      <c r="F53" s="391">
+      <c r="F53" s="392">
         <v>25.3</v>
       </c>
-      <c r="G53" s="393">
+      <c r="G53" s="394">
         <v>0</v>
       </c>
       <c r="H53" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I53" s="394">
+      <c r="I53" s="397">
         <f>IF($D$2&gt;F53,G53*($D$2-F53)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J53" s="394"/>
-      <c r="K53" s="394"/>
-      <c r="L53" s="394"/>
-      <c r="M53" s="394"/>
-      <c r="N53" s="394"/>
-      <c r="O53" s="394"/>
-      <c r="P53" s="394"/>
-      <c r="Q53" s="394"/>
+      <c r="J53" s="397"/>
+      <c r="K53" s="397"/>
+      <c r="L53" s="397"/>
+      <c r="M53" s="397"/>
+      <c r="N53" s="397"/>
+      <c r="O53" s="397"/>
+      <c r="P53" s="397"/>
+      <c r="Q53" s="397"/>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
@@ -14449,24 +14449,24 @@
       <c r="B54" s="121">
         <v>0</v>
       </c>
-      <c r="C54" s="391"/>
-      <c r="D54" s="392"/>
-      <c r="E54" s="391"/>
-      <c r="F54" s="391"/>
-      <c r="G54" s="393"/>
+      <c r="C54" s="392"/>
+      <c r="D54" s="393"/>
+      <c r="E54" s="392"/>
+      <c r="F54" s="392"/>
+      <c r="G54" s="394"/>
       <c r="H54" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I54" s="394"/>
-      <c r="J54" s="394"/>
-      <c r="K54" s="394"/>
-      <c r="L54" s="394"/>
-      <c r="M54" s="394"/>
-      <c r="N54" s="394"/>
-      <c r="O54" s="394"/>
-      <c r="P54" s="394"/>
-      <c r="Q54" s="394"/>
+      <c r="I54" s="397"/>
+      <c r="J54" s="397"/>
+      <c r="K54" s="397"/>
+      <c r="L54" s="397"/>
+      <c r="M54" s="397"/>
+      <c r="N54" s="397"/>
+      <c r="O54" s="397"/>
+      <c r="P54" s="397"/>
+      <c r="Q54" s="397"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
@@ -14475,24 +14475,24 @@
       <c r="B55" s="121">
         <v>0</v>
       </c>
-      <c r="C55" s="391"/>
-      <c r="D55" s="392"/>
-      <c r="E55" s="391"/>
-      <c r="F55" s="391"/>
-      <c r="G55" s="393"/>
+      <c r="C55" s="392"/>
+      <c r="D55" s="393"/>
+      <c r="E55" s="392"/>
+      <c r="F55" s="392"/>
+      <c r="G55" s="394"/>
       <c r="H55" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I55" s="394"/>
-      <c r="J55" s="394"/>
-      <c r="K55" s="394"/>
-      <c r="L55" s="394"/>
-      <c r="M55" s="394"/>
-      <c r="N55" s="394"/>
-      <c r="O55" s="394"/>
-      <c r="P55" s="394"/>
-      <c r="Q55" s="394"/>
+      <c r="I55" s="397"/>
+      <c r="J55" s="397"/>
+      <c r="K55" s="397"/>
+      <c r="L55" s="397"/>
+      <c r="M55" s="397"/>
+      <c r="N55" s="397"/>
+      <c r="O55" s="397"/>
+      <c r="P55" s="397"/>
+      <c r="Q55" s="397"/>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
@@ -14501,24 +14501,24 @@
       <c r="B56" s="121">
         <v>0</v>
       </c>
-      <c r="C56" s="391"/>
-      <c r="D56" s="392"/>
-      <c r="E56" s="391"/>
-      <c r="F56" s="391"/>
-      <c r="G56" s="393"/>
+      <c r="C56" s="392"/>
+      <c r="D56" s="393"/>
+      <c r="E56" s="392"/>
+      <c r="F56" s="392"/>
+      <c r="G56" s="394"/>
       <c r="H56" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I56" s="394"/>
-      <c r="J56" s="394"/>
-      <c r="K56" s="394"/>
-      <c r="L56" s="394"/>
-      <c r="M56" s="394"/>
-      <c r="N56" s="394"/>
-      <c r="O56" s="394"/>
-      <c r="P56" s="394"/>
-      <c r="Q56" s="394"/>
+      <c r="I56" s="397"/>
+      <c r="J56" s="397"/>
+      <c r="K56" s="397"/>
+      <c r="L56" s="397"/>
+      <c r="M56" s="397"/>
+      <c r="N56" s="397"/>
+      <c r="O56" s="397"/>
+      <c r="P56" s="397"/>
+      <c r="Q56" s="397"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
@@ -14527,24 +14527,24 @@
       <c r="B57" s="121">
         <v>0</v>
       </c>
-      <c r="C57" s="391"/>
-      <c r="D57" s="392"/>
-      <c r="E57" s="391"/>
-      <c r="F57" s="391"/>
-      <c r="G57" s="393"/>
+      <c r="C57" s="392"/>
+      <c r="D57" s="393"/>
+      <c r="E57" s="392"/>
+      <c r="F57" s="392"/>
+      <c r="G57" s="394"/>
       <c r="H57" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I57" s="394"/>
-      <c r="J57" s="394"/>
-      <c r="K57" s="394"/>
-      <c r="L57" s="394"/>
-      <c r="M57" s="394"/>
-      <c r="N57" s="394"/>
-      <c r="O57" s="394"/>
-      <c r="P57" s="394"/>
-      <c r="Q57" s="394"/>
+      <c r="I57" s="397"/>
+      <c r="J57" s="397"/>
+      <c r="K57" s="397"/>
+      <c r="L57" s="397"/>
+      <c r="M57" s="397"/>
+      <c r="N57" s="397"/>
+      <c r="O57" s="397"/>
+      <c r="P57" s="397"/>
+      <c r="Q57" s="397"/>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
@@ -14553,24 +14553,24 @@
       <c r="B58" s="121">
         <v>0</v>
       </c>
-      <c r="C58" s="391"/>
-      <c r="D58" s="392"/>
-      <c r="E58" s="391"/>
-      <c r="F58" s="391"/>
-      <c r="G58" s="393"/>
+      <c r="C58" s="392"/>
+      <c r="D58" s="393"/>
+      <c r="E58" s="392"/>
+      <c r="F58" s="392"/>
+      <c r="G58" s="394"/>
       <c r="H58" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I58" s="394"/>
-      <c r="J58" s="394"/>
-      <c r="K58" s="394"/>
-      <c r="L58" s="394"/>
-      <c r="M58" s="394"/>
-      <c r="N58" s="394"/>
-      <c r="O58" s="394"/>
-      <c r="P58" s="394"/>
-      <c r="Q58" s="394"/>
+      <c r="I58" s="397"/>
+      <c r="J58" s="397"/>
+      <c r="K58" s="397"/>
+      <c r="L58" s="397"/>
+      <c r="M58" s="397"/>
+      <c r="N58" s="397"/>
+      <c r="O58" s="397"/>
+      <c r="P58" s="397"/>
+      <c r="Q58" s="397"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
@@ -14579,38 +14579,38 @@
       <c r="B59" s="121">
         <v>0</v>
       </c>
-      <c r="C59" s="391">
-        <v>0</v>
-      </c>
-      <c r="D59" s="392">
+      <c r="C59" s="392">
+        <v>0</v>
+      </c>
+      <c r="D59" s="393">
         <f>IF(B64&gt;0,SUM(B59:B64)-C59,0)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="391">
+      <c r="E59" s="392">
         <v>6.2</v>
       </c>
-      <c r="F59" s="391">
+      <c r="F59" s="392">
         <v>25.3</v>
       </c>
-      <c r="G59" s="393">
+      <c r="G59" s="394">
         <v>0</v>
       </c>
       <c r="H59" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I59" s="394">
+      <c r="I59" s="397">
         <f>IF($D$2&gt;F59,G59*($D$2-F59)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="394"/>
-      <c r="K59" s="394"/>
-      <c r="L59" s="394"/>
-      <c r="M59" s="394"/>
-      <c r="N59" s="394"/>
-      <c r="O59" s="394"/>
-      <c r="P59" s="394"/>
-      <c r="Q59" s="394"/>
+      <c r="J59" s="397"/>
+      <c r="K59" s="397"/>
+      <c r="L59" s="397"/>
+      <c r="M59" s="397"/>
+      <c r="N59" s="397"/>
+      <c r="O59" s="397"/>
+      <c r="P59" s="397"/>
+      <c r="Q59" s="397"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
@@ -14619,24 +14619,24 @@
       <c r="B60" s="121">
         <v>0</v>
       </c>
-      <c r="C60" s="391"/>
-      <c r="D60" s="392"/>
-      <c r="E60" s="391"/>
-      <c r="F60" s="391"/>
-      <c r="G60" s="393"/>
+      <c r="C60" s="392"/>
+      <c r="D60" s="393"/>
+      <c r="E60" s="392"/>
+      <c r="F60" s="392"/>
+      <c r="G60" s="394"/>
       <c r="H60" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I60" s="394"/>
-      <c r="J60" s="394"/>
-      <c r="K60" s="394"/>
-      <c r="L60" s="394"/>
-      <c r="M60" s="394"/>
-      <c r="N60" s="394"/>
-      <c r="O60" s="394"/>
-      <c r="P60" s="394"/>
-      <c r="Q60" s="394"/>
+      <c r="I60" s="397"/>
+      <c r="J60" s="397"/>
+      <c r="K60" s="397"/>
+      <c r="L60" s="397"/>
+      <c r="M60" s="397"/>
+      <c r="N60" s="397"/>
+      <c r="O60" s="397"/>
+      <c r="P60" s="397"/>
+      <c r="Q60" s="397"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
@@ -14645,24 +14645,24 @@
       <c r="B61" s="121">
         <v>0</v>
       </c>
-      <c r="C61" s="391"/>
-      <c r="D61" s="392"/>
-      <c r="E61" s="391"/>
-      <c r="F61" s="391"/>
-      <c r="G61" s="393"/>
+      <c r="C61" s="392"/>
+      <c r="D61" s="393"/>
+      <c r="E61" s="392"/>
+      <c r="F61" s="392"/>
+      <c r="G61" s="394"/>
       <c r="H61" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I61" s="394"/>
-      <c r="J61" s="394"/>
-      <c r="K61" s="394"/>
-      <c r="L61" s="394"/>
-      <c r="M61" s="394"/>
-      <c r="N61" s="394"/>
-      <c r="O61" s="394"/>
-      <c r="P61" s="394"/>
-      <c r="Q61" s="394"/>
+      <c r="I61" s="397"/>
+      <c r="J61" s="397"/>
+      <c r="K61" s="397"/>
+      <c r="L61" s="397"/>
+      <c r="M61" s="397"/>
+      <c r="N61" s="397"/>
+      <c r="O61" s="397"/>
+      <c r="P61" s="397"/>
+      <c r="Q61" s="397"/>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
@@ -14671,24 +14671,24 @@
       <c r="B62" s="121">
         <v>0</v>
       </c>
-      <c r="C62" s="391"/>
-      <c r="D62" s="392"/>
-      <c r="E62" s="391"/>
-      <c r="F62" s="391"/>
-      <c r="G62" s="393"/>
+      <c r="C62" s="392"/>
+      <c r="D62" s="393"/>
+      <c r="E62" s="392"/>
+      <c r="F62" s="392"/>
+      <c r="G62" s="394"/>
       <c r="H62" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I62" s="394"/>
-      <c r="J62" s="394"/>
-      <c r="K62" s="394"/>
-      <c r="L62" s="394"/>
-      <c r="M62" s="394"/>
-      <c r="N62" s="394"/>
-      <c r="O62" s="394"/>
-      <c r="P62" s="394"/>
-      <c r="Q62" s="394"/>
+      <c r="I62" s="397"/>
+      <c r="J62" s="397"/>
+      <c r="K62" s="397"/>
+      <c r="L62" s="397"/>
+      <c r="M62" s="397"/>
+      <c r="N62" s="397"/>
+      <c r="O62" s="397"/>
+      <c r="P62" s="397"/>
+      <c r="Q62" s="397"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
@@ -14697,24 +14697,24 @@
       <c r="B63" s="121">
         <v>0</v>
       </c>
-      <c r="C63" s="391"/>
-      <c r="D63" s="392"/>
-      <c r="E63" s="391"/>
-      <c r="F63" s="391"/>
-      <c r="G63" s="393"/>
+      <c r="C63" s="392"/>
+      <c r="D63" s="393"/>
+      <c r="E63" s="392"/>
+      <c r="F63" s="392"/>
+      <c r="G63" s="394"/>
       <c r="H63" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I63" s="394"/>
-      <c r="J63" s="394"/>
-      <c r="K63" s="394"/>
-      <c r="L63" s="394"/>
-      <c r="M63" s="394"/>
-      <c r="N63" s="394"/>
-      <c r="O63" s="394"/>
-      <c r="P63" s="394"/>
-      <c r="Q63" s="394"/>
+      <c r="I63" s="397"/>
+      <c r="J63" s="397"/>
+      <c r="K63" s="397"/>
+      <c r="L63" s="397"/>
+      <c r="M63" s="397"/>
+      <c r="N63" s="397"/>
+      <c r="O63" s="397"/>
+      <c r="P63" s="397"/>
+      <c r="Q63" s="397"/>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
@@ -14723,24 +14723,24 @@
       <c r="B64" s="121">
         <v>0</v>
       </c>
-      <c r="C64" s="391"/>
-      <c r="D64" s="392"/>
-      <c r="E64" s="391"/>
-      <c r="F64" s="391"/>
-      <c r="G64" s="393"/>
+      <c r="C64" s="392"/>
+      <c r="D64" s="393"/>
+      <c r="E64" s="392"/>
+      <c r="F64" s="392"/>
+      <c r="G64" s="394"/>
       <c r="H64" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I64" s="394"/>
-      <c r="J64" s="394"/>
-      <c r="K64" s="394"/>
-      <c r="L64" s="394"/>
-      <c r="M64" s="394"/>
-      <c r="N64" s="394"/>
-      <c r="O64" s="394"/>
-      <c r="P64" s="394"/>
-      <c r="Q64" s="394"/>
+      <c r="I64" s="397"/>
+      <c r="J64" s="397"/>
+      <c r="K64" s="397"/>
+      <c r="L64" s="397"/>
+      <c r="M64" s="397"/>
+      <c r="N64" s="397"/>
+      <c r="O64" s="397"/>
+      <c r="P64" s="397"/>
+      <c r="Q64" s="397"/>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1">
@@ -14749,38 +14749,38 @@
       <c r="B65" s="121">
         <v>0</v>
       </c>
-      <c r="C65" s="391">
-        <v>0</v>
-      </c>
-      <c r="D65" s="392">
+      <c r="C65" s="392">
+        <v>0</v>
+      </c>
+      <c r="D65" s="393">
         <f>IF(B70&gt;0,SUM(B65:B70)-C65,0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="391">
+      <c r="E65" s="392">
         <v>6.2</v>
       </c>
-      <c r="F65" s="391">
+      <c r="F65" s="392">
         <v>25.3</v>
       </c>
-      <c r="G65" s="393">
+      <c r="G65" s="394">
         <v>0</v>
       </c>
       <c r="H65" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I65" s="394">
+      <c r="I65" s="397">
         <f>IF($D$2&gt;F65,G65*($D$2-F65)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="394"/>
-      <c r="K65" s="394"/>
-      <c r="L65" s="394"/>
-      <c r="M65" s="394"/>
-      <c r="N65" s="394"/>
-      <c r="O65" s="394"/>
-      <c r="P65" s="394"/>
-      <c r="Q65" s="394"/>
+      <c r="J65" s="397"/>
+      <c r="K65" s="397"/>
+      <c r="L65" s="397"/>
+      <c r="M65" s="397"/>
+      <c r="N65" s="397"/>
+      <c r="O65" s="397"/>
+      <c r="P65" s="397"/>
+      <c r="Q65" s="397"/>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1">
@@ -14789,24 +14789,24 @@
       <c r="B66" s="121">
         <v>0</v>
       </c>
-      <c r="C66" s="391"/>
-      <c r="D66" s="392"/>
-      <c r="E66" s="391"/>
-      <c r="F66" s="391"/>
-      <c r="G66" s="393"/>
+      <c r="C66" s="392"/>
+      <c r="D66" s="393"/>
+      <c r="E66" s="392"/>
+      <c r="F66" s="392"/>
+      <c r="G66" s="394"/>
       <c r="H66" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I66" s="394"/>
-      <c r="J66" s="394"/>
-      <c r="K66" s="394"/>
-      <c r="L66" s="394"/>
-      <c r="M66" s="394"/>
-      <c r="N66" s="394"/>
-      <c r="O66" s="394"/>
-      <c r="P66" s="394"/>
-      <c r="Q66" s="394"/>
+      <c r="I66" s="397"/>
+      <c r="J66" s="397"/>
+      <c r="K66" s="397"/>
+      <c r="L66" s="397"/>
+      <c r="M66" s="397"/>
+      <c r="N66" s="397"/>
+      <c r="O66" s="397"/>
+      <c r="P66" s="397"/>
+      <c r="Q66" s="397"/>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1">
@@ -14815,24 +14815,24 @@
       <c r="B67" s="121">
         <v>0</v>
       </c>
-      <c r="C67" s="391"/>
-      <c r="D67" s="392"/>
-      <c r="E67" s="391"/>
-      <c r="F67" s="391"/>
-      <c r="G67" s="393"/>
+      <c r="C67" s="392"/>
+      <c r="D67" s="393"/>
+      <c r="E67" s="392"/>
+      <c r="F67" s="392"/>
+      <c r="G67" s="394"/>
       <c r="H67" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I67" s="394"/>
-      <c r="J67" s="394"/>
-      <c r="K67" s="394"/>
-      <c r="L67" s="394"/>
-      <c r="M67" s="394"/>
-      <c r="N67" s="394"/>
-      <c r="O67" s="394"/>
-      <c r="P67" s="394"/>
-      <c r="Q67" s="394"/>
+      <c r="I67" s="397"/>
+      <c r="J67" s="397"/>
+      <c r="K67" s="397"/>
+      <c r="L67" s="397"/>
+      <c r="M67" s="397"/>
+      <c r="N67" s="397"/>
+      <c r="O67" s="397"/>
+      <c r="P67" s="397"/>
+      <c r="Q67" s="397"/>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1">
@@ -14841,24 +14841,24 @@
       <c r="B68" s="121">
         <v>0</v>
       </c>
-      <c r="C68" s="391"/>
-      <c r="D68" s="392"/>
-      <c r="E68" s="391"/>
-      <c r="F68" s="391"/>
-      <c r="G68" s="393"/>
+      <c r="C68" s="392"/>
+      <c r="D68" s="393"/>
+      <c r="E68" s="392"/>
+      <c r="F68" s="392"/>
+      <c r="G68" s="394"/>
       <c r="H68" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I68" s="394"/>
-      <c r="J68" s="394"/>
-      <c r="K68" s="394"/>
-      <c r="L68" s="394"/>
-      <c r="M68" s="394"/>
-      <c r="N68" s="394"/>
-      <c r="O68" s="394"/>
-      <c r="P68" s="394"/>
-      <c r="Q68" s="394"/>
+      <c r="I68" s="397"/>
+      <c r="J68" s="397"/>
+      <c r="K68" s="397"/>
+      <c r="L68" s="397"/>
+      <c r="M68" s="397"/>
+      <c r="N68" s="397"/>
+      <c r="O68" s="397"/>
+      <c r="P68" s="397"/>
+      <c r="Q68" s="397"/>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1">
@@ -14867,24 +14867,24 @@
       <c r="B69" s="121">
         <v>0</v>
       </c>
-      <c r="C69" s="391"/>
-      <c r="D69" s="392"/>
-      <c r="E69" s="391"/>
-      <c r="F69" s="391"/>
-      <c r="G69" s="393"/>
+      <c r="C69" s="392"/>
+      <c r="D69" s="393"/>
+      <c r="E69" s="392"/>
+      <c r="F69" s="392"/>
+      <c r="G69" s="394"/>
       <c r="H69" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I69" s="394"/>
-      <c r="J69" s="394"/>
-      <c r="K69" s="394"/>
-      <c r="L69" s="394"/>
-      <c r="M69" s="394"/>
-      <c r="N69" s="394"/>
-      <c r="O69" s="394"/>
-      <c r="P69" s="394"/>
-      <c r="Q69" s="394"/>
+      <c r="I69" s="397"/>
+      <c r="J69" s="397"/>
+      <c r="K69" s="397"/>
+      <c r="L69" s="397"/>
+      <c r="M69" s="397"/>
+      <c r="N69" s="397"/>
+      <c r="O69" s="397"/>
+      <c r="P69" s="397"/>
+      <c r="Q69" s="397"/>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1">
@@ -14893,24 +14893,24 @@
       <c r="B70" s="121">
         <v>0</v>
       </c>
-      <c r="C70" s="391"/>
-      <c r="D70" s="392"/>
-      <c r="E70" s="391"/>
-      <c r="F70" s="391"/>
-      <c r="G70" s="393"/>
+      <c r="C70" s="392"/>
+      <c r="D70" s="393"/>
+      <c r="E70" s="392"/>
+      <c r="F70" s="392"/>
+      <c r="G70" s="394"/>
       <c r="H70" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I70" s="394"/>
-      <c r="J70" s="394"/>
-      <c r="K70" s="394"/>
-      <c r="L70" s="394"/>
-      <c r="M70" s="394"/>
-      <c r="N70" s="394"/>
-      <c r="O70" s="394"/>
-      <c r="P70" s="394"/>
-      <c r="Q70" s="394"/>
+      <c r="I70" s="397"/>
+      <c r="J70" s="397"/>
+      <c r="K70" s="397"/>
+      <c r="L70" s="397"/>
+      <c r="M70" s="397"/>
+      <c r="N70" s="397"/>
+      <c r="O70" s="397"/>
+      <c r="P70" s="397"/>
+      <c r="Q70" s="397"/>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1">
@@ -14919,38 +14919,38 @@
       <c r="B71" s="121">
         <v>0</v>
       </c>
-      <c r="C71" s="391">
-        <v>0</v>
-      </c>
-      <c r="D71" s="392">
+      <c r="C71" s="392">
+        <v>0</v>
+      </c>
+      <c r="D71" s="393">
         <f>IF(B76&gt;0,SUM(B71:B76)-C71,0)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="391">
+      <c r="E71" s="392">
         <v>6.2</v>
       </c>
-      <c r="F71" s="391">
+      <c r="F71" s="392">
         <v>25.3</v>
       </c>
-      <c r="G71" s="393">
+      <c r="G71" s="394">
         <v>0</v>
       </c>
       <c r="H71" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I71" s="394">
+      <c r="I71" s="397">
         <f>IF($D$2&gt;F71,G71*($D$2-F71)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="394"/>
-      <c r="K71" s="394"/>
-      <c r="L71" s="394"/>
-      <c r="M71" s="394"/>
-      <c r="N71" s="394"/>
-      <c r="O71" s="394"/>
-      <c r="P71" s="394"/>
-      <c r="Q71" s="394"/>
+      <c r="J71" s="397"/>
+      <c r="K71" s="397"/>
+      <c r="L71" s="397"/>
+      <c r="M71" s="397"/>
+      <c r="N71" s="397"/>
+      <c r="O71" s="397"/>
+      <c r="P71" s="397"/>
+      <c r="Q71" s="397"/>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1">
@@ -14959,24 +14959,24 @@
       <c r="B72" s="121">
         <v>0</v>
       </c>
-      <c r="C72" s="391"/>
-      <c r="D72" s="392"/>
-      <c r="E72" s="391"/>
-      <c r="F72" s="391"/>
-      <c r="G72" s="393"/>
+      <c r="C72" s="392"/>
+      <c r="D72" s="393"/>
+      <c r="E72" s="392"/>
+      <c r="F72" s="392"/>
+      <c r="G72" s="394"/>
       <c r="H72" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I72" s="394"/>
-      <c r="J72" s="394"/>
-      <c r="K72" s="394"/>
-      <c r="L72" s="394"/>
-      <c r="M72" s="394"/>
-      <c r="N72" s="394"/>
-      <c r="O72" s="394"/>
-      <c r="P72" s="394"/>
-      <c r="Q72" s="394"/>
+      <c r="I72" s="397"/>
+      <c r="J72" s="397"/>
+      <c r="K72" s="397"/>
+      <c r="L72" s="397"/>
+      <c r="M72" s="397"/>
+      <c r="N72" s="397"/>
+      <c r="O72" s="397"/>
+      <c r="P72" s="397"/>
+      <c r="Q72" s="397"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1">
@@ -14985,24 +14985,24 @@
       <c r="B73" s="121">
         <v>0</v>
       </c>
-      <c r="C73" s="391"/>
-      <c r="D73" s="392"/>
-      <c r="E73" s="391"/>
-      <c r="F73" s="391"/>
-      <c r="G73" s="393"/>
+      <c r="C73" s="392"/>
+      <c r="D73" s="393"/>
+      <c r="E73" s="392"/>
+      <c r="F73" s="392"/>
+      <c r="G73" s="394"/>
       <c r="H73" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I73" s="394"/>
-      <c r="J73" s="394"/>
-      <c r="K73" s="394"/>
-      <c r="L73" s="394"/>
-      <c r="M73" s="394"/>
-      <c r="N73" s="394"/>
-      <c r="O73" s="394"/>
-      <c r="P73" s="394"/>
-      <c r="Q73" s="394"/>
+      <c r="I73" s="397"/>
+      <c r="J73" s="397"/>
+      <c r="K73" s="397"/>
+      <c r="L73" s="397"/>
+      <c r="M73" s="397"/>
+      <c r="N73" s="397"/>
+      <c r="O73" s="397"/>
+      <c r="P73" s="397"/>
+      <c r="Q73" s="397"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1">
@@ -15011,24 +15011,24 @@
       <c r="B74" s="121">
         <v>0</v>
       </c>
-      <c r="C74" s="391"/>
-      <c r="D74" s="392"/>
-      <c r="E74" s="391"/>
-      <c r="F74" s="391"/>
-      <c r="G74" s="393"/>
+      <c r="C74" s="392"/>
+      <c r="D74" s="393"/>
+      <c r="E74" s="392"/>
+      <c r="F74" s="392"/>
+      <c r="G74" s="394"/>
       <c r="H74" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I74" s="394"/>
-      <c r="J74" s="394"/>
-      <c r="K74" s="394"/>
-      <c r="L74" s="394"/>
-      <c r="M74" s="394"/>
-      <c r="N74" s="394"/>
-      <c r="O74" s="394"/>
-      <c r="P74" s="394"/>
-      <c r="Q74" s="394"/>
+      <c r="I74" s="397"/>
+      <c r="J74" s="397"/>
+      <c r="K74" s="397"/>
+      <c r="L74" s="397"/>
+      <c r="M74" s="397"/>
+      <c r="N74" s="397"/>
+      <c r="O74" s="397"/>
+      <c r="P74" s="397"/>
+      <c r="Q74" s="397"/>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1">
@@ -15037,24 +15037,24 @@
       <c r="B75" s="121">
         <v>0</v>
       </c>
-      <c r="C75" s="391"/>
-      <c r="D75" s="392"/>
-      <c r="E75" s="391"/>
-      <c r="F75" s="391"/>
-      <c r="G75" s="393"/>
+      <c r="C75" s="392"/>
+      <c r="D75" s="393"/>
+      <c r="E75" s="392"/>
+      <c r="F75" s="392"/>
+      <c r="G75" s="394"/>
       <c r="H75" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I75" s="394"/>
-      <c r="J75" s="394"/>
-      <c r="K75" s="394"/>
-      <c r="L75" s="394"/>
-      <c r="M75" s="394"/>
-      <c r="N75" s="394"/>
-      <c r="O75" s="394"/>
-      <c r="P75" s="394"/>
-      <c r="Q75" s="394"/>
+      <c r="I75" s="397"/>
+      <c r="J75" s="397"/>
+      <c r="K75" s="397"/>
+      <c r="L75" s="397"/>
+      <c r="M75" s="397"/>
+      <c r="N75" s="397"/>
+      <c r="O75" s="397"/>
+      <c r="P75" s="397"/>
+      <c r="Q75" s="397"/>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1">
@@ -15063,24 +15063,24 @@
       <c r="B76" s="121">
         <v>0</v>
       </c>
-      <c r="C76" s="391"/>
-      <c r="D76" s="392"/>
-      <c r="E76" s="391"/>
-      <c r="F76" s="391"/>
-      <c r="G76" s="393"/>
+      <c r="C76" s="392"/>
+      <c r="D76" s="393"/>
+      <c r="E76" s="392"/>
+      <c r="F76" s="392"/>
+      <c r="G76" s="394"/>
       <c r="H76" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I76" s="394"/>
-      <c r="J76" s="394"/>
-      <c r="K76" s="394"/>
-      <c r="L76" s="394"/>
-      <c r="M76" s="394"/>
-      <c r="N76" s="394"/>
-      <c r="O76" s="394"/>
-      <c r="P76" s="394"/>
-      <c r="Q76" s="394"/>
+      <c r="I76" s="397"/>
+      <c r="J76" s="397"/>
+      <c r="K76" s="397"/>
+      <c r="L76" s="397"/>
+      <c r="M76" s="397"/>
+      <c r="N76" s="397"/>
+      <c r="O76" s="397"/>
+      <c r="P76" s="397"/>
+      <c r="Q76" s="397"/>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1">
@@ -15089,38 +15089,38 @@
       <c r="B77" s="121">
         <v>0</v>
       </c>
-      <c r="C77" s="391">
-        <v>0</v>
-      </c>
-      <c r="D77" s="392">
+      <c r="C77" s="392">
+        <v>0</v>
+      </c>
+      <c r="D77" s="393">
         <f>IF(B82&gt;0,SUM(B77:B82)-C77,0)</f>
         <v>0</v>
       </c>
-      <c r="E77" s="391">
+      <c r="E77" s="392">
         <v>6.2</v>
       </c>
-      <c r="F77" s="391">
+      <c r="F77" s="392">
         <v>25.3</v>
       </c>
-      <c r="G77" s="393">
+      <c r="G77" s="394">
         <v>0</v>
       </c>
       <c r="H77" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I77" s="394">
+      <c r="I77" s="397">
         <f>IF($D$2&gt;F77,G77*($D$2-F77)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="394"/>
-      <c r="K77" s="394"/>
-      <c r="L77" s="394"/>
-      <c r="M77" s="394"/>
-      <c r="N77" s="394"/>
-      <c r="O77" s="394"/>
-      <c r="P77" s="394"/>
-      <c r="Q77" s="394"/>
+      <c r="J77" s="397"/>
+      <c r="K77" s="397"/>
+      <c r="L77" s="397"/>
+      <c r="M77" s="397"/>
+      <c r="N77" s="397"/>
+      <c r="O77" s="397"/>
+      <c r="P77" s="397"/>
+      <c r="Q77" s="397"/>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1">
@@ -15129,24 +15129,24 @@
       <c r="B78" s="121">
         <v>0</v>
       </c>
-      <c r="C78" s="391"/>
-      <c r="D78" s="392"/>
-      <c r="E78" s="391"/>
-      <c r="F78" s="391"/>
-      <c r="G78" s="393"/>
+      <c r="C78" s="392"/>
+      <c r="D78" s="393"/>
+      <c r="E78" s="392"/>
+      <c r="F78" s="392"/>
+      <c r="G78" s="394"/>
       <c r="H78" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I78" s="394"/>
-      <c r="J78" s="394"/>
-      <c r="K78" s="394"/>
-      <c r="L78" s="394"/>
-      <c r="M78" s="394"/>
-      <c r="N78" s="394"/>
-      <c r="O78" s="394"/>
-      <c r="P78" s="394"/>
-      <c r="Q78" s="394"/>
+      <c r="I78" s="397"/>
+      <c r="J78" s="397"/>
+      <c r="K78" s="397"/>
+      <c r="L78" s="397"/>
+      <c r="M78" s="397"/>
+      <c r="N78" s="397"/>
+      <c r="O78" s="397"/>
+      <c r="P78" s="397"/>
+      <c r="Q78" s="397"/>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1">
@@ -15155,24 +15155,24 @@
       <c r="B79" s="121">
         <v>0</v>
       </c>
-      <c r="C79" s="391"/>
-      <c r="D79" s="392"/>
-      <c r="E79" s="391"/>
-      <c r="F79" s="391"/>
-      <c r="G79" s="393"/>
+      <c r="C79" s="392"/>
+      <c r="D79" s="393"/>
+      <c r="E79" s="392"/>
+      <c r="F79" s="392"/>
+      <c r="G79" s="394"/>
       <c r="H79" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I79" s="394"/>
-      <c r="J79" s="394"/>
-      <c r="K79" s="394"/>
-      <c r="L79" s="394"/>
-      <c r="M79" s="394"/>
-      <c r="N79" s="394"/>
-      <c r="O79" s="394"/>
-      <c r="P79" s="394"/>
-      <c r="Q79" s="394"/>
+      <c r="I79" s="397"/>
+      <c r="J79" s="397"/>
+      <c r="K79" s="397"/>
+      <c r="L79" s="397"/>
+      <c r="M79" s="397"/>
+      <c r="N79" s="397"/>
+      <c r="O79" s="397"/>
+      <c r="P79" s="397"/>
+      <c r="Q79" s="397"/>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1">
@@ -15181,24 +15181,24 @@
       <c r="B80" s="121">
         <v>0</v>
       </c>
-      <c r="C80" s="391"/>
-      <c r="D80" s="392"/>
-      <c r="E80" s="391"/>
-      <c r="F80" s="391"/>
-      <c r="G80" s="393"/>
+      <c r="C80" s="392"/>
+      <c r="D80" s="393"/>
+      <c r="E80" s="392"/>
+      <c r="F80" s="392"/>
+      <c r="G80" s="394"/>
       <c r="H80" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I80" s="394"/>
-      <c r="J80" s="394"/>
-      <c r="K80" s="394"/>
-      <c r="L80" s="394"/>
-      <c r="M80" s="394"/>
-      <c r="N80" s="394"/>
-      <c r="O80" s="394"/>
-      <c r="P80" s="394"/>
-      <c r="Q80" s="394"/>
+      <c r="I80" s="397"/>
+      <c r="J80" s="397"/>
+      <c r="K80" s="397"/>
+      <c r="L80" s="397"/>
+      <c r="M80" s="397"/>
+      <c r="N80" s="397"/>
+      <c r="O80" s="397"/>
+      <c r="P80" s="397"/>
+      <c r="Q80" s="397"/>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1">
@@ -15207,24 +15207,24 @@
       <c r="B81" s="121">
         <v>0</v>
       </c>
-      <c r="C81" s="391"/>
-      <c r="D81" s="392"/>
-      <c r="E81" s="391"/>
-      <c r="F81" s="391"/>
-      <c r="G81" s="393"/>
+      <c r="C81" s="392"/>
+      <c r="D81" s="393"/>
+      <c r="E81" s="392"/>
+      <c r="F81" s="392"/>
+      <c r="G81" s="394"/>
       <c r="H81" s="120">
         <f t="shared" ref="H81:H88" si="3">R87*0.25</f>
         <v>0</v>
       </c>
-      <c r="I81" s="394"/>
-      <c r="J81" s="394"/>
-      <c r="K81" s="394"/>
-      <c r="L81" s="394"/>
-      <c r="M81" s="394"/>
-      <c r="N81" s="394"/>
-      <c r="O81" s="394"/>
-      <c r="P81" s="394"/>
-      <c r="Q81" s="394"/>
+      <c r="I81" s="397"/>
+      <c r="J81" s="397"/>
+      <c r="K81" s="397"/>
+      <c r="L81" s="397"/>
+      <c r="M81" s="397"/>
+      <c r="N81" s="397"/>
+      <c r="O81" s="397"/>
+      <c r="P81" s="397"/>
+      <c r="Q81" s="397"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1">
@@ -15233,24 +15233,24 @@
       <c r="B82" s="121">
         <v>0</v>
       </c>
-      <c r="C82" s="391"/>
-      <c r="D82" s="392"/>
-      <c r="E82" s="391"/>
-      <c r="F82" s="391"/>
-      <c r="G82" s="393"/>
+      <c r="C82" s="392"/>
+      <c r="D82" s="393"/>
+      <c r="E82" s="392"/>
+      <c r="F82" s="392"/>
+      <c r="G82" s="394"/>
       <c r="H82" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I82" s="394"/>
-      <c r="J82" s="394"/>
-      <c r="K82" s="394"/>
-      <c r="L82" s="394"/>
-      <c r="M82" s="394"/>
-      <c r="N82" s="394"/>
-      <c r="O82" s="394"/>
-      <c r="P82" s="394"/>
-      <c r="Q82" s="394"/>
+      <c r="I82" s="397"/>
+      <c r="J82" s="397"/>
+      <c r="K82" s="397"/>
+      <c r="L82" s="397"/>
+      <c r="M82" s="397"/>
+      <c r="N82" s="397"/>
+      <c r="O82" s="397"/>
+      <c r="P82" s="397"/>
+      <c r="Q82" s="397"/>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1">
@@ -15259,38 +15259,38 @@
       <c r="B83" s="121">
         <v>0</v>
       </c>
-      <c r="C83" s="391">
-        <v>0</v>
-      </c>
-      <c r="D83" s="392">
+      <c r="C83" s="392">
+        <v>0</v>
+      </c>
+      <c r="D83" s="393">
         <f>IF(B88&gt;0,SUM(B83:B88)-C83,0)</f>
         <v>0</v>
       </c>
-      <c r="E83" s="391">
+      <c r="E83" s="392">
         <v>6.2</v>
       </c>
-      <c r="F83" s="391">
+      <c r="F83" s="392">
         <v>25.3</v>
       </c>
-      <c r="G83" s="393">
+      <c r="G83" s="394">
         <v>0</v>
       </c>
       <c r="H83" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I83" s="394">
+      <c r="I83" s="397">
         <f>IF($D$2&gt;F83,G83*($D$2-F83)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J83" s="394"/>
-      <c r="K83" s="394"/>
-      <c r="L83" s="394"/>
-      <c r="M83" s="394"/>
-      <c r="N83" s="394"/>
-      <c r="O83" s="394"/>
-      <c r="P83" s="394"/>
-      <c r="Q83" s="394"/>
+      <c r="J83" s="397"/>
+      <c r="K83" s="397"/>
+      <c r="L83" s="397"/>
+      <c r="M83" s="397"/>
+      <c r="N83" s="397"/>
+      <c r="O83" s="397"/>
+      <c r="P83" s="397"/>
+      <c r="Q83" s="397"/>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1">
@@ -15299,24 +15299,24 @@
       <c r="B84" s="121">
         <v>0</v>
       </c>
-      <c r="C84" s="391"/>
-      <c r="D84" s="392"/>
-      <c r="E84" s="391"/>
-      <c r="F84" s="391"/>
-      <c r="G84" s="393"/>
+      <c r="C84" s="392"/>
+      <c r="D84" s="393"/>
+      <c r="E84" s="392"/>
+      <c r="F84" s="392"/>
+      <c r="G84" s="394"/>
       <c r="H84" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I84" s="394"/>
-      <c r="J84" s="394"/>
-      <c r="K84" s="394"/>
-      <c r="L84" s="394"/>
-      <c r="M84" s="394"/>
-      <c r="N84" s="394"/>
-      <c r="O84" s="394"/>
-      <c r="P84" s="394"/>
-      <c r="Q84" s="394"/>
+      <c r="I84" s="397"/>
+      <c r="J84" s="397"/>
+      <c r="K84" s="397"/>
+      <c r="L84" s="397"/>
+      <c r="M84" s="397"/>
+      <c r="N84" s="397"/>
+      <c r="O84" s="397"/>
+      <c r="P84" s="397"/>
+      <c r="Q84" s="397"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1">
@@ -15325,24 +15325,24 @@
       <c r="B85" s="121">
         <v>0</v>
       </c>
-      <c r="C85" s="391"/>
-      <c r="D85" s="392"/>
-      <c r="E85" s="391"/>
-      <c r="F85" s="391"/>
-      <c r="G85" s="393"/>
+      <c r="C85" s="392"/>
+      <c r="D85" s="393"/>
+      <c r="E85" s="392"/>
+      <c r="F85" s="392"/>
+      <c r="G85" s="394"/>
       <c r="H85" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I85" s="394"/>
-      <c r="J85" s="394"/>
-      <c r="K85" s="394"/>
-      <c r="L85" s="394"/>
-      <c r="M85" s="394"/>
-      <c r="N85" s="394"/>
-      <c r="O85" s="394"/>
-      <c r="P85" s="394"/>
-      <c r="Q85" s="394"/>
+      <c r="I85" s="397"/>
+      <c r="J85" s="397"/>
+      <c r="K85" s="397"/>
+      <c r="L85" s="397"/>
+      <c r="M85" s="397"/>
+      <c r="N85" s="397"/>
+      <c r="O85" s="397"/>
+      <c r="P85" s="397"/>
+      <c r="Q85" s="397"/>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1">
@@ -15351,24 +15351,24 @@
       <c r="B86" s="121">
         <v>0</v>
       </c>
-      <c r="C86" s="391"/>
-      <c r="D86" s="392"/>
-      <c r="E86" s="391"/>
-      <c r="F86" s="391"/>
-      <c r="G86" s="393"/>
+      <c r="C86" s="392"/>
+      <c r="D86" s="393"/>
+      <c r="E86" s="392"/>
+      <c r="F86" s="392"/>
+      <c r="G86" s="394"/>
       <c r="H86" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I86" s="394"/>
-      <c r="J86" s="394"/>
-      <c r="K86" s="394"/>
-      <c r="L86" s="394"/>
-      <c r="M86" s="394"/>
-      <c r="N86" s="394"/>
-      <c r="O86" s="394"/>
-      <c r="P86" s="394"/>
-      <c r="Q86" s="394"/>
+      <c r="I86" s="397"/>
+      <c r="J86" s="397"/>
+      <c r="K86" s="397"/>
+      <c r="L86" s="397"/>
+      <c r="M86" s="397"/>
+      <c r="N86" s="397"/>
+      <c r="O86" s="397"/>
+      <c r="P86" s="397"/>
+      <c r="Q86" s="397"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1">
@@ -15377,24 +15377,24 @@
       <c r="B87" s="121">
         <v>0</v>
       </c>
-      <c r="C87" s="391"/>
-      <c r="D87" s="392"/>
-      <c r="E87" s="391"/>
-      <c r="F87" s="391"/>
-      <c r="G87" s="393"/>
+      <c r="C87" s="392"/>
+      <c r="D87" s="393"/>
+      <c r="E87" s="392"/>
+      <c r="F87" s="392"/>
+      <c r="G87" s="394"/>
       <c r="H87" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I87" s="394"/>
-      <c r="J87" s="394"/>
-      <c r="K87" s="394"/>
-      <c r="L87" s="394"/>
-      <c r="M87" s="394"/>
-      <c r="N87" s="394"/>
-      <c r="O87" s="394"/>
-      <c r="P87" s="394"/>
-      <c r="Q87" s="394"/>
+      <c r="I87" s="397"/>
+      <c r="J87" s="397"/>
+      <c r="K87" s="397"/>
+      <c r="L87" s="397"/>
+      <c r="M87" s="397"/>
+      <c r="N87" s="397"/>
+      <c r="O87" s="397"/>
+      <c r="P87" s="397"/>
+      <c r="Q87" s="397"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1">
@@ -15403,94 +15403,125 @@
       <c r="B88" s="121">
         <v>0</v>
       </c>
-      <c r="C88" s="391"/>
-      <c r="D88" s="392"/>
-      <c r="E88" s="391"/>
-      <c r="F88" s="391"/>
-      <c r="G88" s="393"/>
+      <c r="C88" s="392"/>
+      <c r="D88" s="393"/>
+      <c r="E88" s="392"/>
+      <c r="F88" s="392"/>
+      <c r="G88" s="394"/>
       <c r="H88" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I88" s="394"/>
-      <c r="J88" s="394"/>
-      <c r="K88" s="394"/>
-      <c r="L88" s="394"/>
-      <c r="M88" s="394"/>
-      <c r="N88" s="394"/>
-      <c r="O88" s="394"/>
-      <c r="P88" s="394"/>
-      <c r="Q88" s="394"/>
+      <c r="I88" s="397"/>
+      <c r="J88" s="397"/>
+      <c r="K88" s="397"/>
+      <c r="L88" s="397"/>
+      <c r="M88" s="397"/>
+      <c r="N88" s="397"/>
+      <c r="O88" s="397"/>
+      <c r="P88" s="397"/>
+      <c r="Q88" s="397"/>
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="P10:P15"/>
-    <mergeCell ref="Q10:Q15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="L10:L15"/>
-    <mergeCell ref="M10:M15"/>
-    <mergeCell ref="N10:N15"/>
-    <mergeCell ref="Q16:Q21"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="M16:M21"/>
-    <mergeCell ref="N16:N21"/>
-    <mergeCell ref="O16:O21"/>
-    <mergeCell ref="P16:P21"/>
-    <mergeCell ref="P22:P27"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="G28:G34"/>
-    <mergeCell ref="O28:O34"/>
-    <mergeCell ref="P28:P34"/>
-    <mergeCell ref="Q28:Q34"/>
-    <mergeCell ref="K28:K34"/>
-    <mergeCell ref="L28:L34"/>
-    <mergeCell ref="M28:M34"/>
-    <mergeCell ref="N28:N34"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="J35:J40"/>
-    <mergeCell ref="I28:I34"/>
-    <mergeCell ref="J28:J34"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="G83:G88"/>
+    <mergeCell ref="O83:O88"/>
+    <mergeCell ref="P83:P88"/>
+    <mergeCell ref="Q83:Q88"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="K83:K88"/>
+    <mergeCell ref="L83:L88"/>
+    <mergeCell ref="M83:M88"/>
+    <mergeCell ref="N83:N88"/>
+    <mergeCell ref="M71:M76"/>
+    <mergeCell ref="N71:N76"/>
+    <mergeCell ref="O71:O76"/>
+    <mergeCell ref="P71:P76"/>
+    <mergeCell ref="M77:M82"/>
+    <mergeCell ref="N77:N82"/>
+    <mergeCell ref="O77:O82"/>
+    <mergeCell ref="P77:P82"/>
+    <mergeCell ref="Q77:Q82"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="J77:J82"/>
+    <mergeCell ref="K77:K82"/>
+    <mergeCell ref="L77:L82"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="O65:O70"/>
+    <mergeCell ref="P65:P70"/>
+    <mergeCell ref="Q65:Q70"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="I71:I76"/>
+    <mergeCell ref="J71:J76"/>
+    <mergeCell ref="I65:I70"/>
+    <mergeCell ref="J65:J70"/>
+    <mergeCell ref="K65:K70"/>
+    <mergeCell ref="L65:L70"/>
+    <mergeCell ref="M65:M70"/>
+    <mergeCell ref="N65:N70"/>
+    <mergeCell ref="Q71:Q76"/>
+    <mergeCell ref="K71:K76"/>
+    <mergeCell ref="L71:L76"/>
+    <mergeCell ref="M53:M58"/>
+    <mergeCell ref="N53:N58"/>
+    <mergeCell ref="O53:O58"/>
+    <mergeCell ref="P53:P58"/>
+    <mergeCell ref="M59:M64"/>
+    <mergeCell ref="N59:N64"/>
+    <mergeCell ref="O59:O64"/>
+    <mergeCell ref="P59:P64"/>
+    <mergeCell ref="Q59:Q64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="F59:F64"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="J59:J64"/>
+    <mergeCell ref="K59:K64"/>
+    <mergeCell ref="L59:L64"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="O47:O52"/>
+    <mergeCell ref="P47:P52"/>
+    <mergeCell ref="Q47:Q52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="I53:I58"/>
+    <mergeCell ref="J53:J58"/>
+    <mergeCell ref="I47:I52"/>
+    <mergeCell ref="J47:J52"/>
+    <mergeCell ref="K47:K52"/>
+    <mergeCell ref="L47:L52"/>
+    <mergeCell ref="M47:M52"/>
+    <mergeCell ref="N47:N52"/>
+    <mergeCell ref="Q53:Q58"/>
+    <mergeCell ref="K53:K58"/>
+    <mergeCell ref="L53:L58"/>
     <mergeCell ref="Q35:Q40"/>
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="D41:D46"/>
@@ -15515,104 +15546,73 @@
     <mergeCell ref="C35:C40"/>
     <mergeCell ref="D35:D40"/>
     <mergeCell ref="E35:E40"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="E47:E52"/>
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="O47:O52"/>
-    <mergeCell ref="P47:P52"/>
-    <mergeCell ref="Q47:Q52"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="I53:I58"/>
-    <mergeCell ref="J53:J58"/>
-    <mergeCell ref="I47:I52"/>
-    <mergeCell ref="J47:J52"/>
-    <mergeCell ref="K47:K52"/>
-    <mergeCell ref="L47:L52"/>
-    <mergeCell ref="M47:M52"/>
-    <mergeCell ref="N47:N52"/>
-    <mergeCell ref="Q53:Q58"/>
-    <mergeCell ref="K53:K58"/>
-    <mergeCell ref="L53:L58"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="F59:F64"/>
-    <mergeCell ref="G59:G64"/>
-    <mergeCell ref="I59:I64"/>
-    <mergeCell ref="J59:J64"/>
-    <mergeCell ref="K59:K64"/>
-    <mergeCell ref="L59:L64"/>
-    <mergeCell ref="M53:M58"/>
-    <mergeCell ref="N53:N58"/>
-    <mergeCell ref="O53:O58"/>
-    <mergeCell ref="P53:P58"/>
-    <mergeCell ref="M59:M64"/>
-    <mergeCell ref="N59:N64"/>
-    <mergeCell ref="O59:O64"/>
-    <mergeCell ref="P59:P64"/>
-    <mergeCell ref="Q59:Q64"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="O65:O70"/>
-    <mergeCell ref="P65:P70"/>
-    <mergeCell ref="Q65:Q70"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="F71:F76"/>
-    <mergeCell ref="G71:G76"/>
-    <mergeCell ref="I71:I76"/>
-    <mergeCell ref="J71:J76"/>
-    <mergeCell ref="I65:I70"/>
-    <mergeCell ref="J65:J70"/>
-    <mergeCell ref="K65:K70"/>
-    <mergeCell ref="L65:L70"/>
-    <mergeCell ref="M65:M70"/>
-    <mergeCell ref="N65:N70"/>
-    <mergeCell ref="Q71:Q76"/>
-    <mergeCell ref="K71:K76"/>
-    <mergeCell ref="L71:L76"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="F77:F82"/>
-    <mergeCell ref="G77:G82"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="J77:J82"/>
-    <mergeCell ref="K77:K82"/>
-    <mergeCell ref="L77:L82"/>
-    <mergeCell ref="M71:M76"/>
-    <mergeCell ref="N71:N76"/>
-    <mergeCell ref="O71:O76"/>
-    <mergeCell ref="P71:P76"/>
-    <mergeCell ref="M77:M82"/>
-    <mergeCell ref="N77:N82"/>
-    <mergeCell ref="O77:O82"/>
-    <mergeCell ref="P77:P82"/>
-    <mergeCell ref="Q77:Q82"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="G83:G88"/>
-    <mergeCell ref="O83:O88"/>
-    <mergeCell ref="P83:P88"/>
-    <mergeCell ref="Q83:Q88"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="K83:K88"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="M83:M88"/>
-    <mergeCell ref="N83:N88"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="J35:J40"/>
+    <mergeCell ref="I28:I34"/>
+    <mergeCell ref="J28:J34"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="P22:P27"/>
+    <mergeCell ref="Q22:Q27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="O28:O34"/>
+    <mergeCell ref="P28:P34"/>
+    <mergeCell ref="Q28:Q34"/>
+    <mergeCell ref="K28:K34"/>
+    <mergeCell ref="L28:L34"/>
+    <mergeCell ref="M28:M34"/>
+    <mergeCell ref="N28:N34"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="P10:P15"/>
+    <mergeCell ref="Q10:Q15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="M10:M15"/>
+    <mergeCell ref="N10:N15"/>
+    <mergeCell ref="Q16:Q21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="N16:N21"/>
+    <mergeCell ref="O16:O21"/>
+    <mergeCell ref="P16:P21"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17045,29 +17045,29 @@
     </row>
     <row r="6" spans="4:12" ht="17.100000000000001" customHeight="1">
       <c r="F6" s="245"/>
-      <c r="G6" s="458" t="s">
+      <c r="G6" s="466" t="s">
         <v>1289</v>
       </c>
-      <c r="H6" s="460" t="s">
+      <c r="H6" s="468" t="s">
         <v>1290</v>
       </c>
-      <c r="I6" s="460" t="s">
+      <c r="I6" s="468" t="s">
         <v>1291</v>
       </c>
-      <c r="J6" s="460" t="s">
+      <c r="J6" s="468" t="s">
         <v>1292</v>
       </c>
-      <c r="K6" s="449" t="s">
+      <c r="K6" s="464" t="s">
         <v>1293</v>
       </c>
-      <c r="L6" s="450"/>
+      <c r="L6" s="465"/>
     </row>
     <row r="7" spans="4:12" ht="18" customHeight="1">
       <c r="F7" s="245"/>
-      <c r="G7" s="459"/>
-      <c r="H7" s="461"/>
-      <c r="I7" s="461"/>
-      <c r="J7" s="461"/>
+      <c r="G7" s="467"/>
+      <c r="H7" s="469"/>
+      <c r="I7" s="469"/>
+      <c r="J7" s="469"/>
       <c r="K7" s="246" t="s">
         <v>1294</v>
       </c>
@@ -17076,11 +17076,11 @@
       </c>
     </row>
     <row r="8" spans="4:12" ht="30" customHeight="1" thickBot="1">
-      <c r="D8" s="457" t="s">
+      <c r="D8" s="455" t="s">
         <v>1296</v>
       </c>
-      <c r="E8" s="457"/>
-      <c r="F8" s="457"/>
+      <c r="E8" s="455"/>
+      <c r="F8" s="455"/>
       <c r="G8" s="248">
         <v>9.6</v>
       </c>
@@ -17126,21 +17126,21 @@
     </row>
     <row r="12" spans="4:12" ht="18.75">
       <c r="F12" s="245"/>
-      <c r="G12" s="451" t="s">
+      <c r="G12" s="449" t="s">
         <v>1297</v>
       </c>
-      <c r="H12" s="453" t="s">
+      <c r="H12" s="451" t="s">
         <v>1298</v>
       </c>
-      <c r="I12" s="455" t="s">
+      <c r="I12" s="453" t="s">
         <v>1299</v>
       </c>
-      <c r="J12" s="456"/>
+      <c r="J12" s="454"/>
     </row>
     <row r="13" spans="4:12" ht="18.75">
       <c r="F13" s="245"/>
-      <c r="G13" s="452"/>
-      <c r="H13" s="454"/>
+      <c r="G13" s="450"/>
+      <c r="H13" s="452"/>
       <c r="I13" s="251" t="s">
         <v>1300</v>
       </c>
@@ -17149,11 +17149,11 @@
       </c>
     </row>
     <row r="14" spans="4:12" ht="33" customHeight="1" thickBot="1">
-      <c r="D14" s="457" t="s">
+      <c r="D14" s="455" t="s">
         <v>1302</v>
       </c>
-      <c r="E14" s="457"/>
-      <c r="F14" s="457"/>
+      <c r="E14" s="455"/>
+      <c r="F14" s="455"/>
       <c r="G14" s="253" t="s">
         <v>1303</v>
       </c>
@@ -17171,20 +17171,20 @@
     </row>
     <row r="16" spans="4:12" ht="15.75" thickBot="1"/>
     <row r="17" spans="4:10" ht="18.75">
-      <c r="G17" s="451" t="s">
+      <c r="G17" s="449" t="s">
         <v>1304</v>
       </c>
-      <c r="H17" s="453" t="s">
+      <c r="H17" s="451" t="s">
         <v>1298</v>
       </c>
-      <c r="I17" s="455" t="s">
+      <c r="I17" s="453" t="s">
         <v>1299</v>
       </c>
-      <c r="J17" s="456"/>
+      <c r="J17" s="454"/>
     </row>
     <row r="18" spans="4:10" ht="18.75">
-      <c r="G18" s="452"/>
-      <c r="H18" s="454"/>
+      <c r="G18" s="450"/>
+      <c r="H18" s="452"/>
       <c r="I18" s="251" t="s">
         <v>1300</v>
       </c>
@@ -17193,11 +17193,11 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="33" customHeight="1" thickBot="1">
-      <c r="D19" s="457" t="s">
+      <c r="D19" s="455" t="s">
         <v>1302</v>
       </c>
-      <c r="E19" s="457"/>
-      <c r="F19" s="457"/>
+      <c r="E19" s="455"/>
+      <c r="F19" s="455"/>
       <c r="G19" s="253" t="s">
         <v>1305</v>
       </c>
@@ -17215,20 +17215,20 @@
     </row>
     <row r="21" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="22" spans="4:10" ht="18.75">
-      <c r="G22" s="462" t="s">
+      <c r="G22" s="456" t="s">
         <v>1306</v>
       </c>
-      <c r="H22" s="453" t="s">
+      <c r="H22" s="451" t="s">
         <v>1298</v>
       </c>
-      <c r="I22" s="455" t="s">
+      <c r="I22" s="453" t="s">
         <v>1299</v>
       </c>
-      <c r="J22" s="456"/>
+      <c r="J22" s="454"/>
     </row>
     <row r="23" spans="4:10" ht="18.75">
-      <c r="G23" s="463"/>
-      <c r="H23" s="454"/>
+      <c r="G23" s="457"/>
+      <c r="H23" s="452"/>
       <c r="I23" s="251" t="s">
         <v>1300</v>
       </c>
@@ -17237,11 +17237,11 @@
       </c>
     </row>
     <row r="24" spans="4:10" ht="32.1" customHeight="1">
-      <c r="D24" s="457" t="s">
+      <c r="D24" s="455" t="s">
         <v>1302</v>
       </c>
-      <c r="E24" s="457"/>
-      <c r="F24" s="457"/>
+      <c r="E24" s="455"/>
+      <c r="F24" s="455"/>
       <c r="G24" s="254" t="s">
         <v>1307</v>
       </c>
@@ -17296,20 +17296,20 @@
     </row>
     <row r="29" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="30" spans="4:10" ht="18.75">
-      <c r="G30" s="464" t="s">
+      <c r="G30" s="458" t="s">
         <v>1310</v>
       </c>
-      <c r="H30" s="466" t="s">
+      <c r="H30" s="460" t="s">
         <v>1311</v>
       </c>
-      <c r="I30" s="468" t="s">
+      <c r="I30" s="462" t="s">
         <v>1312</v>
       </c>
-      <c r="J30" s="469"/>
+      <c r="J30" s="463"/>
     </row>
     <row r="31" spans="4:10" ht="18.75">
-      <c r="G31" s="465"/>
-      <c r="H31" s="467"/>
+      <c r="G31" s="459"/>
+      <c r="H31" s="461"/>
       <c r="I31" s="258" t="s">
         <v>1294</v>
       </c>
@@ -17318,11 +17318,11 @@
       </c>
     </row>
     <row r="32" spans="4:10" ht="35.1" customHeight="1" thickBot="1">
-      <c r="D32" s="457" t="s">
+      <c r="D32" s="455" t="s">
         <v>1313</v>
       </c>
-      <c r="E32" s="457"/>
-      <c r="F32" s="457"/>
+      <c r="E32" s="455"/>
+      <c r="F32" s="455"/>
       <c r="G32" s="260" t="s">
         <v>1307</v>
       </c>
@@ -17340,6 +17340,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:J17"/>
@@ -17352,16 +17362,6 @@
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19110,17 +19110,17 @@
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" thickBot="1">
       <c r="A1" s="304"/>
-      <c r="B1" s="436" t="s">
+      <c r="B1" s="403" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="437"/>
-      <c r="D1" s="437"/>
-      <c r="E1" s="437"/>
-      <c r="F1" s="438"/>
-      <c r="G1" s="439" t="s">
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="405"/>
+      <c r="G1" s="406" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="440"/>
+      <c r="H1" s="407"/>
     </row>
     <row r="2" spans="1:40" ht="17.25" thickBot="1">
       <c r="A2" s="307" t="s">
@@ -19141,11 +19141,11 @@
       <c r="F2" s="309" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="441">
+      <c r="G2" s="408">
         <f ca="1">TODAY()-A13</f>
         <v>1114</v>
       </c>
-      <c r="H2" s="442"/>
+      <c r="H2" s="409"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
       <c r="A3" s="310">
@@ -19172,10 +19172,10 @@
         <f>'whobor-touna'!L3</f>
         <v>20849.739999999998</v>
       </c>
-      <c r="G3" s="439" t="s">
+      <c r="G3" s="406" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="440"/>
+      <c r="H3" s="407"/>
     </row>
     <row r="4" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="315"/>
@@ -19196,11 +19196,11 @@
         <f>F3/$B$3</f>
         <v>1.531443456635999E-2</v>
       </c>
-      <c r="G4" s="434">
+      <c r="G4" s="410">
         <f ca="1">A6/G2</f>
         <v>201.58596842010741</v>
       </c>
-      <c r="H4" s="435"/>
+      <c r="H4" s="411"/>
     </row>
     <row r="5" spans="1:40" ht="17.25" thickBot="1">
       <c r="A5" s="318" t="s">
@@ -19221,10 +19221,10 @@
       <c r="F5" s="322" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="431" t="s">
+      <c r="G5" s="417" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="432"/>
+      <c r="H5" s="418"/>
     </row>
     <row r="6" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="323">
@@ -19251,205 +19251,205 @@
         <f>D6-E6</f>
         <v>1822693.9888200001</v>
       </c>
-      <c r="G6" s="434">
+      <c r="G6" s="410">
         <f ca="1">G4*30</f>
         <v>6047.5790526032224</v>
       </c>
-      <c r="H6" s="435"/>
+      <c r="H6" s="411"/>
     </row>
     <row r="7" spans="1:40" s="330" customFormat="1" ht="20.25">
       <c r="A7" s="329"/>
-      <c r="B7" s="428" t="s">
+      <c r="B7" s="430" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="426"/>
-      <c r="D7" s="426"/>
-      <c r="E7" s="427"/>
-      <c r="F7" s="429"/>
-      <c r="G7" s="425" t="s">
+      <c r="C7" s="428"/>
+      <c r="D7" s="428"/>
+      <c r="E7" s="429"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="427" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="426"/>
-      <c r="I7" s="426"/>
-      <c r="J7" s="427"/>
-      <c r="K7" s="427"/>
-      <c r="L7" s="419" t="s">
+      <c r="H7" s="428"/>
+      <c r="I7" s="428"/>
+      <c r="J7" s="429"/>
+      <c r="K7" s="429"/>
+      <c r="L7" s="423" t="s">
         <v>1281</v>
       </c>
-      <c r="M7" s="420"/>
-      <c r="N7" s="420"/>
-      <c r="O7" s="420"/>
-      <c r="P7" s="420"/>
-      <c r="Q7" s="421"/>
-      <c r="R7" s="420" t="s">
+      <c r="M7" s="419"/>
+      <c r="N7" s="419"/>
+      <c r="O7" s="419"/>
+      <c r="P7" s="419"/>
+      <c r="Q7" s="424"/>
+      <c r="R7" s="419" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="420"/>
-      <c r="T7" s="420"/>
-      <c r="U7" s="420"/>
-      <c r="V7" s="420"/>
-      <c r="W7" s="420"/>
-      <c r="X7" s="419" t="s">
+      <c r="S7" s="419"/>
+      <c r="T7" s="419"/>
+      <c r="U7" s="419"/>
+      <c r="V7" s="419"/>
+      <c r="W7" s="419"/>
+      <c r="X7" s="423" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="420"/>
-      <c r="Z7" s="420"/>
-      <c r="AA7" s="420"/>
-      <c r="AB7" s="420"/>
-      <c r="AC7" s="421"/>
+      <c r="Y7" s="419"/>
+      <c r="Z7" s="419"/>
+      <c r="AA7" s="419"/>
+      <c r="AB7" s="419"/>
+      <c r="AC7" s="424"/>
     </row>
     <row r="8" spans="1:40" s="330" customFormat="1" ht="16.5">
       <c r="A8" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="422" t="s">
+      <c r="B8" s="425" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="423"/>
-      <c r="D8" s="423"/>
-      <c r="E8" s="423"/>
-      <c r="F8" s="424"/>
-      <c r="G8" s="423" t="s">
+      <c r="C8" s="420"/>
+      <c r="D8" s="420"/>
+      <c r="E8" s="420"/>
+      <c r="F8" s="426"/>
+      <c r="G8" s="420" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="423"/>
-      <c r="I8" s="423"/>
-      <c r="J8" s="423"/>
-      <c r="K8" s="423"/>
-      <c r="L8" s="422" t="s">
+      <c r="H8" s="420"/>
+      <c r="I8" s="420"/>
+      <c r="J8" s="420"/>
+      <c r="K8" s="420"/>
+      <c r="L8" s="425" t="s">
         <v>1282</v>
       </c>
-      <c r="M8" s="423"/>
-      <c r="N8" s="423"/>
-      <c r="O8" s="423"/>
-      <c r="P8" s="423"/>
-      <c r="Q8" s="424"/>
-      <c r="R8" s="423" t="s">
+      <c r="M8" s="420"/>
+      <c r="N8" s="420"/>
+      <c r="O8" s="420"/>
+      <c r="P8" s="420"/>
+      <c r="Q8" s="426"/>
+      <c r="R8" s="420" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="423"/>
-      <c r="T8" s="423"/>
-      <c r="U8" s="423"/>
-      <c r="V8" s="423"/>
-      <c r="W8" s="423"/>
-      <c r="X8" s="422" t="s">
+      <c r="S8" s="420"/>
+      <c r="T8" s="420"/>
+      <c r="U8" s="420"/>
+      <c r="V8" s="420"/>
+      <c r="W8" s="420"/>
+      <c r="X8" s="425" t="s">
         <v>197</v>
       </c>
-      <c r="Y8" s="423"/>
-      <c r="Z8" s="423"/>
-      <c r="AA8" s="423"/>
-      <c r="AB8" s="423"/>
-      <c r="AC8" s="424"/>
+      <c r="Y8" s="420"/>
+      <c r="Z8" s="420"/>
+      <c r="AA8" s="420"/>
+      <c r="AB8" s="420"/>
+      <c r="AC8" s="426"/>
       <c r="AK8" s="332"/>
     </row>
     <row r="9" spans="1:40" s="330" customFormat="1" ht="16.5">
       <c r="A9" s="331" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="407" t="s">
+      <c r="B9" s="414" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="408"/>
-      <c r="D9" s="407" t="s">
+      <c r="C9" s="413"/>
+      <c r="D9" s="414" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="412"/>
-      <c r="F9" s="418"/>
-      <c r="G9" s="430" t="s">
+      <c r="E9" s="415"/>
+      <c r="F9" s="442"/>
+      <c r="G9" s="412" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="408"/>
-      <c r="I9" s="407" t="s">
+      <c r="H9" s="413"/>
+      <c r="I9" s="414" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="412"/>
-      <c r="K9" s="411"/>
-      <c r="L9" s="405" t="s">
+      <c r="J9" s="415"/>
+      <c r="K9" s="416"/>
+      <c r="L9" s="434" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="406"/>
-      <c r="N9" s="411" t="s">
+      <c r="M9" s="422"/>
+      <c r="N9" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="412"/>
-      <c r="P9" s="412"/>
-      <c r="Q9" s="413"/>
-      <c r="R9" s="433" t="s">
+      <c r="O9" s="415"/>
+      <c r="P9" s="415"/>
+      <c r="Q9" s="437"/>
+      <c r="R9" s="421" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="406"/>
-      <c r="T9" s="411" t="s">
+      <c r="S9" s="422"/>
+      <c r="T9" s="416" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="412"/>
-      <c r="V9" s="412"/>
-      <c r="W9" s="412"/>
-      <c r="X9" s="405" t="s">
+      <c r="U9" s="415"/>
+      <c r="V9" s="415"/>
+      <c r="W9" s="415"/>
+      <c r="X9" s="434" t="s">
         <v>49</v>
       </c>
-      <c r="Y9" s="406"/>
-      <c r="Z9" s="411" t="s">
+      <c r="Y9" s="422"/>
+      <c r="Z9" s="416" t="s">
         <v>50</v>
       </c>
-      <c r="AA9" s="412"/>
-      <c r="AB9" s="412"/>
-      <c r="AC9" s="413"/>
+      <c r="AA9" s="415"/>
+      <c r="AB9" s="415"/>
+      <c r="AC9" s="437"/>
     </row>
     <row r="10" spans="1:40" ht="15.75" customHeight="1">
       <c r="A10" s="333" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="403" t="s">
+      <c r="B10" s="432" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="404"/>
-      <c r="D10" s="415">
+      <c r="C10" s="433"/>
+      <c r="D10" s="439">
         <f>'whobor-touna'!G3/$B$3</f>
         <v>0.38614368819240269</v>
       </c>
-      <c r="E10" s="409"/>
-      <c r="F10" s="410"/>
-      <c r="G10" s="414" t="s">
+      <c r="E10" s="435"/>
+      <c r="F10" s="436"/>
+      <c r="G10" s="438" t="s">
         <v>284</v>
       </c>
-      <c r="H10" s="404"/>
-      <c r="I10" s="415">
+      <c r="H10" s="433"/>
+      <c r="I10" s="439">
         <f>'thmei-touna'!G3/$B$3</f>
         <v>0.55253287122778982</v>
       </c>
-      <c r="J10" s="409"/>
-      <c r="K10" s="409"/>
-      <c r="L10" s="416" t="s">
+      <c r="J10" s="435"/>
+      <c r="K10" s="435"/>
+      <c r="L10" s="440" t="s">
         <v>284</v>
       </c>
-      <c r="M10" s="417"/>
-      <c r="N10" s="409">
+      <c r="M10" s="441"/>
+      <c r="N10" s="435">
         <f>宜人贷!T2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="O10" s="409"/>
-      <c r="P10" s="409"/>
-      <c r="Q10" s="410"/>
-      <c r="R10" s="417"/>
-      <c r="S10" s="417"/>
-      <c r="T10" s="409">
+      <c r="O10" s="435"/>
+      <c r="P10" s="435"/>
+      <c r="Q10" s="436"/>
+      <c r="R10" s="441"/>
+      <c r="S10" s="441"/>
+      <c r="T10" s="435">
         <f>宜人贷!Z2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="U10" s="409"/>
-      <c r="V10" s="409"/>
-      <c r="W10" s="409"/>
-      <c r="X10" s="416">
+      <c r="U10" s="435"/>
+      <c r="V10" s="435"/>
+      <c r="W10" s="435"/>
+      <c r="X10" s="440">
         <v>830106</v>
       </c>
-      <c r="Y10" s="417"/>
-      <c r="Z10" s="409">
+      <c r="Y10" s="441"/>
+      <c r="Z10" s="435">
         <f>'whobor-wzd'!L2/$B$3</f>
         <v>3.9250643399737585E-2</v>
       </c>
-      <c r="AA10" s="409"/>
-      <c r="AB10" s="409"/>
-      <c r="AC10" s="410"/>
+      <c r="AA10" s="435"/>
+      <c r="AB10" s="435"/>
+      <c r="AC10" s="436"/>
     </row>
     <row r="11" spans="1:40" ht="28.5" customHeight="1">
       <c r="A11" s="334" t="s">
@@ -36289,27 +36289,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="L7:Q7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B9:C9"/>
@@ -36326,6 +36305,27 @@
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D9:F9"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36340,7 +36340,7 @@
   <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
@@ -42678,7 +42678,7 @@
   <dimension ref="A1:P397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A79" sqref="A79:XFD81"/>
     </sheetView>
   </sheetViews>
@@ -62329,7 +62329,7 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/HighRiskInvestment.xlsx
+++ b/HighRiskInvestment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3585" windowWidth="14805" windowHeight="4530" tabRatio="771" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="3585" windowWidth="14805" windowHeight="4530" tabRatio="771" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ESPP" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </externalReferences>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -8834,6 +8834,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8843,17 +8846,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8868,93 +8868,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="52" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="52" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="54" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="54" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8978,6 +8891,93 @@
     <xf numFmtId="0" fontId="54" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="54" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="54" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="52" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="52" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8993,12 +8993,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9019,18 +9013,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9055,6 +9037,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12346,7 +12346,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:D10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -12437,7 +12437,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -12833,11 +12833,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A1" s="397" t="s">
+      <c r="A1" s="396" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
+      <c r="B1" s="396"/>
+      <c r="C1" s="396"/>
       <c r="D1" s="110">
         <f>SUM(G10:G88)-SUM(L10:L88)</f>
         <v>268</v>
@@ -12850,11 +12850,11 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="397" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="398"/>
-      <c r="C2" s="398"/>
+      <c r="B2" s="397"/>
+      <c r="C2" s="397"/>
       <c r="D2" s="111">
         <v>29.75</v>
       </c>
@@ -12869,11 +12869,11 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A3" s="398" t="s">
+      <c r="A3" s="397" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="398"/>
-      <c r="C3" s="398"/>
+      <c r="B3" s="397"/>
+      <c r="C3" s="397"/>
       <c r="D3" s="111">
         <f>D1*0.85</f>
         <v>227.79999999999998</v>
@@ -12889,11 +12889,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A4" s="398" t="s">
+      <c r="A4" s="397" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="398"/>
-      <c r="C4" s="398"/>
+      <c r="B4" s="397"/>
+      <c r="C4" s="397"/>
       <c r="D4" s="112">
         <f>([1]Sheet2!B64)/100</f>
         <v>6.1073000000000004</v>
@@ -12903,11 +12903,11 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="396" t="s">
+      <c r="A5" s="392" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="396"/>
-      <c r="C5" s="396"/>
+      <c r="B5" s="392"/>
+      <c r="C5" s="392"/>
       <c r="D5" s="113">
         <f>SUM(D10:D88)+SUM(H10:H88)</f>
         <v>76568.666499999992</v>
@@ -12917,11 +12917,11 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A6" s="396" t="s">
+      <c r="A6" s="392" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="396"/>
-      <c r="C6" s="396"/>
+      <c r="B6" s="392"/>
+      <c r="C6" s="392"/>
       <c r="D6" s="114">
         <f>SUM(Q10:Q88)</f>
         <v>48178.589949999994</v>
@@ -12935,11 +12935,11 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A7" s="396" t="s">
+      <c r="A7" s="392" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="396"/>
-      <c r="C7" s="396"/>
+      <c r="B7" s="392"/>
+      <c r="C7" s="392"/>
       <c r="D7" s="116">
         <f>D6-D5</f>
         <v>-28390.076549999998</v>
@@ -13018,38 +13018,38 @@
       <c r="B10" s="109">
         <v>0</v>
       </c>
-      <c r="C10" s="392">
+      <c r="C10" s="393">
         <v>68.97</v>
       </c>
-      <c r="D10" s="393">
+      <c r="D10" s="394">
         <f>IF(B15&gt;0,SUM(B10:B15)-C10,0)</f>
         <v>10580.78</v>
       </c>
-      <c r="E10" s="392">
+      <c r="E10" s="393">
         <v>6.2854999999999999</v>
       </c>
-      <c r="F10" s="392">
+      <c r="F10" s="393">
         <v>25.3</v>
       </c>
-      <c r="G10" s="394">
+      <c r="G10" s="395">
         <v>79</v>
       </c>
       <c r="H10" s="120">
         <f t="shared" ref="H10:H15" si="0">R16*0.2</f>
         <v>62.814</v>
       </c>
-      <c r="I10" s="395">
+      <c r="I10" s="398">
         <f>IF($K$28&gt;F10,G10*($K$28-F10)*0.2,0)</f>
         <v>70.309999999999988</v>
       </c>
-      <c r="J10" s="395"/>
-      <c r="K10" s="395"/>
-      <c r="L10" s="395"/>
-      <c r="M10" s="395"/>
-      <c r="N10" s="395"/>
-      <c r="O10" s="395"/>
-      <c r="P10" s="395"/>
-      <c r="Q10" s="395"/>
+      <c r="J10" s="398"/>
+      <c r="K10" s="398"/>
+      <c r="L10" s="398"/>
+      <c r="M10" s="398"/>
+      <c r="N10" s="398"/>
+      <c r="O10" s="398"/>
+      <c r="P10" s="398"/>
+      <c r="Q10" s="398"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
@@ -13058,26 +13058,26 @@
       <c r="B11" s="109">
         <v>3400.95</v>
       </c>
-      <c r="C11" s="392">
+      <c r="C11" s="393">
         <v>3400.95</v>
       </c>
-      <c r="D11" s="393"/>
-      <c r="E11" s="392"/>
-      <c r="F11" s="392"/>
-      <c r="G11" s="394"/>
+      <c r="D11" s="394"/>
+      <c r="E11" s="393"/>
+      <c r="F11" s="393"/>
+      <c r="G11" s="395"/>
       <c r="H11" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I11" s="395"/>
-      <c r="J11" s="395"/>
-      <c r="K11" s="395"/>
-      <c r="L11" s="395"/>
-      <c r="M11" s="395"/>
-      <c r="N11" s="395"/>
-      <c r="O11" s="395"/>
-      <c r="P11" s="395"/>
-      <c r="Q11" s="395"/>
+      <c r="I11" s="398"/>
+      <c r="J11" s="398"/>
+      <c r="K11" s="398"/>
+      <c r="L11" s="398"/>
+      <c r="M11" s="398"/>
+      <c r="N11" s="398"/>
+      <c r="O11" s="398"/>
+      <c r="P11" s="398"/>
+      <c r="Q11" s="398"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1">
@@ -13086,26 +13086,26 @@
       <c r="B12" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C12" s="392">
+      <c r="C12" s="393">
         <v>1706.25</v>
       </c>
-      <c r="D12" s="393"/>
-      <c r="E12" s="392"/>
-      <c r="F12" s="392"/>
-      <c r="G12" s="394"/>
+      <c r="D12" s="394"/>
+      <c r="E12" s="393"/>
+      <c r="F12" s="393"/>
+      <c r="G12" s="395"/>
       <c r="H12" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I12" s="395"/>
-      <c r="J12" s="395"/>
-      <c r="K12" s="395"/>
-      <c r="L12" s="395"/>
-      <c r="M12" s="395"/>
-      <c r="N12" s="395"/>
-      <c r="O12" s="395"/>
-      <c r="P12" s="395"/>
-      <c r="Q12" s="395"/>
+      <c r="I12" s="398"/>
+      <c r="J12" s="398"/>
+      <c r="K12" s="398"/>
+      <c r="L12" s="398"/>
+      <c r="M12" s="398"/>
+      <c r="N12" s="398"/>
+      <c r="O12" s="398"/>
+      <c r="P12" s="398"/>
+      <c r="Q12" s="398"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1">
@@ -13114,26 +13114,26 @@
       <c r="B13" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C13" s="392">
+      <c r="C13" s="393">
         <v>1706.25</v>
       </c>
-      <c r="D13" s="393"/>
-      <c r="E13" s="392"/>
-      <c r="F13" s="392"/>
-      <c r="G13" s="394"/>
+      <c r="D13" s="394"/>
+      <c r="E13" s="393"/>
+      <c r="F13" s="393"/>
+      <c r="G13" s="395"/>
       <c r="H13" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I13" s="395"/>
-      <c r="J13" s="395"/>
-      <c r="K13" s="395"/>
-      <c r="L13" s="395"/>
-      <c r="M13" s="395"/>
-      <c r="N13" s="395"/>
-      <c r="O13" s="395"/>
-      <c r="P13" s="395"/>
-      <c r="Q13" s="395"/>
+      <c r="I13" s="398"/>
+      <c r="J13" s="398"/>
+      <c r="K13" s="398"/>
+      <c r="L13" s="398"/>
+      <c r="M13" s="398"/>
+      <c r="N13" s="398"/>
+      <c r="O13" s="398"/>
+      <c r="P13" s="398"/>
+      <c r="Q13" s="398"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1">
@@ -13142,26 +13142,26 @@
       <c r="B14" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C14" s="392">
+      <c r="C14" s="393">
         <v>1918.15</v>
       </c>
-      <c r="D14" s="393"/>
-      <c r="E14" s="392"/>
-      <c r="F14" s="392"/>
-      <c r="G14" s="394"/>
+      <c r="D14" s="394"/>
+      <c r="E14" s="393"/>
+      <c r="F14" s="393"/>
+      <c r="G14" s="395"/>
       <c r="H14" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I14" s="395"/>
-      <c r="J14" s="395"/>
-      <c r="K14" s="395"/>
-      <c r="L14" s="395"/>
-      <c r="M14" s="395"/>
-      <c r="N14" s="395"/>
-      <c r="O14" s="395"/>
-      <c r="P14" s="395"/>
-      <c r="Q14" s="395"/>
+      <c r="I14" s="398"/>
+      <c r="J14" s="398"/>
+      <c r="K14" s="398"/>
+      <c r="L14" s="398"/>
+      <c r="M14" s="398"/>
+      <c r="N14" s="398"/>
+      <c r="O14" s="398"/>
+      <c r="P14" s="398"/>
+      <c r="Q14" s="398"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1">
@@ -13170,26 +13170,26 @@
       <c r="B15" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C15" s="392">
+      <c r="C15" s="393">
         <v>1918.15</v>
       </c>
-      <c r="D15" s="393"/>
-      <c r="E15" s="392"/>
-      <c r="F15" s="392"/>
-      <c r="G15" s="394"/>
+      <c r="D15" s="394"/>
+      <c r="E15" s="393"/>
+      <c r="F15" s="393"/>
+      <c r="G15" s="395"/>
       <c r="H15" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I15" s="395"/>
-      <c r="J15" s="395"/>
-      <c r="K15" s="395"/>
-      <c r="L15" s="395"/>
-      <c r="M15" s="395"/>
-      <c r="N15" s="395"/>
-      <c r="O15" s="395"/>
-      <c r="P15" s="395"/>
-      <c r="Q15" s="395"/>
+      <c r="I15" s="398"/>
+      <c r="J15" s="398"/>
+      <c r="K15" s="398"/>
+      <c r="L15" s="398"/>
+      <c r="M15" s="398"/>
+      <c r="N15" s="398"/>
+      <c r="O15" s="398"/>
+      <c r="P15" s="398"/>
+      <c r="Q15" s="398"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1">
@@ -13198,38 +13198,38 @@
       <c r="B16" s="109">
         <v>1693.15</v>
       </c>
-      <c r="C16" s="392">
+      <c r="C16" s="393">
         <v>48.24</v>
       </c>
-      <c r="D16" s="393">
+      <c r="D16" s="394">
         <f>IF(B21&gt;0,SUM(B16:B21)-C16,0)</f>
         <v>11196.460000000001</v>
       </c>
-      <c r="E16" s="392">
+      <c r="E16" s="393">
         <v>6.1787000000000001</v>
       </c>
-      <c r="F16" s="392">
+      <c r="F16" s="393">
         <v>23.62</v>
       </c>
-      <c r="G16" s="394">
+      <c r="G16" s="395">
         <v>90</v>
       </c>
       <c r="H16" s="120">
         <f>R22*0.25</f>
         <v>81.435000000000002</v>
       </c>
-      <c r="I16" s="395">
+      <c r="I16" s="398">
         <f>IF($K$28&gt;F16,G16*($K$28-F16)*0.2,0)</f>
         <v>110.33999999999999</v>
       </c>
-      <c r="J16" s="395"/>
-      <c r="K16" s="395"/>
-      <c r="L16" s="395"/>
-      <c r="M16" s="395"/>
-      <c r="N16" s="395"/>
-      <c r="O16" s="395"/>
-      <c r="P16" s="395"/>
-      <c r="Q16" s="395"/>
+      <c r="J16" s="398"/>
+      <c r="K16" s="398"/>
+      <c r="L16" s="398"/>
+      <c r="M16" s="398"/>
+      <c r="N16" s="398"/>
+      <c r="O16" s="398"/>
+      <c r="P16" s="398"/>
+      <c r="Q16" s="398"/>
       <c r="R16" s="109">
         <v>314.07</v>
       </c>
@@ -13241,24 +13241,24 @@
       <c r="B17" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C17" s="392"/>
-      <c r="D17" s="393"/>
-      <c r="E17" s="392"/>
-      <c r="F17" s="392"/>
-      <c r="G17" s="394"/>
+      <c r="C17" s="393"/>
+      <c r="D17" s="394"/>
+      <c r="E17" s="393"/>
+      <c r="F17" s="393"/>
+      <c r="G17" s="395"/>
       <c r="H17" s="120">
         <f t="shared" ref="H17:H80" si="1">R23*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I17" s="395"/>
-      <c r="J17" s="395"/>
-      <c r="K17" s="395"/>
-      <c r="L17" s="395"/>
-      <c r="M17" s="395"/>
-      <c r="N17" s="395"/>
-      <c r="O17" s="395"/>
-      <c r="P17" s="395"/>
-      <c r="Q17" s="395"/>
+      <c r="I17" s="398"/>
+      <c r="J17" s="398"/>
+      <c r="K17" s="398"/>
+      <c r="L17" s="398"/>
+      <c r="M17" s="398"/>
+      <c r="N17" s="398"/>
+      <c r="O17" s="398"/>
+      <c r="P17" s="398"/>
+      <c r="Q17" s="398"/>
       <c r="R17" s="109">
         <f>R16</f>
         <v>314.07</v>
@@ -13271,24 +13271,24 @@
       <c r="B18" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C18" s="392"/>
-      <c r="D18" s="393"/>
-      <c r="E18" s="392"/>
-      <c r="F18" s="392"/>
-      <c r="G18" s="394"/>
+      <c r="C18" s="393"/>
+      <c r="D18" s="394"/>
+      <c r="E18" s="393"/>
+      <c r="F18" s="393"/>
+      <c r="G18" s="395"/>
       <c r="H18" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I18" s="395"/>
-      <c r="J18" s="395"/>
-      <c r="K18" s="395"/>
-      <c r="L18" s="395"/>
-      <c r="M18" s="395"/>
-      <c r="N18" s="395"/>
-      <c r="O18" s="395"/>
-      <c r="P18" s="395"/>
-      <c r="Q18" s="395"/>
+      <c r="I18" s="398"/>
+      <c r="J18" s="398"/>
+      <c r="K18" s="398"/>
+      <c r="L18" s="398"/>
+      <c r="M18" s="398"/>
+      <c r="N18" s="398"/>
+      <c r="O18" s="398"/>
+      <c r="P18" s="398"/>
+      <c r="Q18" s="398"/>
       <c r="R18" s="109">
         <f t="shared" ref="R18:R32" si="2">R17</f>
         <v>314.07</v>
@@ -13301,24 +13301,24 @@
       <c r="B19" s="121">
         <v>2196.35</v>
       </c>
-      <c r="C19" s="392"/>
-      <c r="D19" s="393"/>
-      <c r="E19" s="392"/>
-      <c r="F19" s="392"/>
-      <c r="G19" s="394"/>
+      <c r="C19" s="393"/>
+      <c r="D19" s="394"/>
+      <c r="E19" s="393"/>
+      <c r="F19" s="393"/>
+      <c r="G19" s="395"/>
       <c r="H19" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I19" s="395"/>
-      <c r="J19" s="395"/>
-      <c r="K19" s="395"/>
-      <c r="L19" s="395"/>
-      <c r="M19" s="395"/>
-      <c r="N19" s="395"/>
-      <c r="O19" s="395"/>
-      <c r="P19" s="395"/>
-      <c r="Q19" s="395"/>
+      <c r="I19" s="398"/>
+      <c r="J19" s="398"/>
+      <c r="K19" s="398"/>
+      <c r="L19" s="398"/>
+      <c r="M19" s="398"/>
+      <c r="N19" s="398"/>
+      <c r="O19" s="398"/>
+      <c r="P19" s="398"/>
+      <c r="Q19" s="398"/>
       <c r="R19" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -13331,24 +13331,24 @@
       <c r="B20" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C20" s="392"/>
-      <c r="D20" s="393"/>
-      <c r="E20" s="392"/>
-      <c r="F20" s="392"/>
-      <c r="G20" s="394"/>
+      <c r="C20" s="393"/>
+      <c r="D20" s="394"/>
+      <c r="E20" s="393"/>
+      <c r="F20" s="393"/>
+      <c r="G20" s="395"/>
       <c r="H20" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I20" s="395"/>
-      <c r="J20" s="395"/>
-      <c r="K20" s="395"/>
-      <c r="L20" s="395"/>
-      <c r="M20" s="395"/>
-      <c r="N20" s="395"/>
-      <c r="O20" s="395"/>
-      <c r="P20" s="395"/>
-      <c r="Q20" s="395"/>
+      <c r="I20" s="398"/>
+      <c r="J20" s="398"/>
+      <c r="K20" s="398"/>
+      <c r="L20" s="398"/>
+      <c r="M20" s="398"/>
+      <c r="N20" s="398"/>
+      <c r="O20" s="398"/>
+      <c r="P20" s="398"/>
+      <c r="Q20" s="398"/>
       <c r="R20" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -13361,24 +13361,24 @@
       <c r="B21" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C21" s="392"/>
-      <c r="D21" s="393"/>
-      <c r="E21" s="392"/>
-      <c r="F21" s="392"/>
-      <c r="G21" s="394"/>
+      <c r="C21" s="393"/>
+      <c r="D21" s="394"/>
+      <c r="E21" s="393"/>
+      <c r="F21" s="393"/>
+      <c r="G21" s="395"/>
       <c r="H21" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I21" s="395"/>
-      <c r="J21" s="395"/>
-      <c r="K21" s="395"/>
-      <c r="L21" s="395"/>
-      <c r="M21" s="395"/>
-      <c r="N21" s="395"/>
-      <c r="O21" s="395"/>
-      <c r="P21" s="395"/>
-      <c r="Q21" s="395"/>
+      <c r="I21" s="398"/>
+      <c r="J21" s="398"/>
+      <c r="K21" s="398"/>
+      <c r="L21" s="398"/>
+      <c r="M21" s="398"/>
+      <c r="N21" s="398"/>
+      <c r="O21" s="398"/>
+      <c r="P21" s="398"/>
+      <c r="Q21" s="398"/>
       <c r="R21" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -13391,38 +13391,38 @@
       <c r="B22" s="121">
         <v>1958.23</v>
       </c>
-      <c r="C22" s="392">
+      <c r="C22" s="393">
         <v>34.549999999999997</v>
       </c>
-      <c r="D22" s="393">
+      <c r="D22" s="394">
         <f>IF(B27&gt;0,SUM(B22:B27)-C22,0)</f>
         <v>11771.410000000002</v>
       </c>
-      <c r="E22" s="392">
+      <c r="E22" s="393">
         <v>6.1050000000000004</v>
       </c>
-      <c r="F22" s="392">
+      <c r="F22" s="393">
         <v>24.24</v>
       </c>
-      <c r="G22" s="394">
+      <c r="G22" s="395">
         <v>109</v>
       </c>
       <c r="H22" s="120">
         <f>R28*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I22" s="395">
+      <c r="I22" s="398">
         <f>IF($K$28&gt;F22,G22*($K$28-F22)*0.2,0)</f>
         <v>120.11800000000004</v>
       </c>
-      <c r="J22" s="395"/>
-      <c r="K22" s="395"/>
-      <c r="L22" s="395"/>
-      <c r="M22" s="395"/>
-      <c r="N22" s="395"/>
-      <c r="O22" s="395"/>
-      <c r="P22" s="395"/>
-      <c r="Q22" s="395"/>
+      <c r="J22" s="398"/>
+      <c r="K22" s="398"/>
+      <c r="L22" s="398"/>
+      <c r="M22" s="398"/>
+      <c r="N22" s="398"/>
+      <c r="O22" s="398"/>
+      <c r="P22" s="398"/>
+      <c r="Q22" s="398"/>
       <c r="R22" s="109">
         <v>325.74</v>
       </c>
@@ -13434,24 +13434,24 @@
       <c r="B23" s="121">
         <v>1958.24</v>
       </c>
-      <c r="C23" s="392"/>
-      <c r="D23" s="393"/>
-      <c r="E23" s="392"/>
-      <c r="F23" s="392"/>
-      <c r="G23" s="394"/>
+      <c r="C23" s="393"/>
+      <c r="D23" s="394"/>
+      <c r="E23" s="393"/>
+      <c r="F23" s="393"/>
+      <c r="G23" s="395"/>
       <c r="H23" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I23" s="395"/>
-      <c r="J23" s="395"/>
-      <c r="K23" s="395"/>
-      <c r="L23" s="395"/>
-      <c r="M23" s="395"/>
-      <c r="N23" s="395"/>
-      <c r="O23" s="395"/>
-      <c r="P23" s="395"/>
-      <c r="Q23" s="395"/>
+      <c r="I23" s="398"/>
+      <c r="J23" s="398"/>
+      <c r="K23" s="398"/>
+      <c r="L23" s="398"/>
+      <c r="M23" s="398"/>
+      <c r="N23" s="398"/>
+      <c r="O23" s="398"/>
+      <c r="P23" s="398"/>
+      <c r="Q23" s="398"/>
       <c r="R23" s="109">
         <v>271.45</v>
       </c>
@@ -13463,24 +13463,24 @@
       <c r="B24" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C24" s="392"/>
-      <c r="D24" s="393"/>
-      <c r="E24" s="392"/>
-      <c r="F24" s="392"/>
-      <c r="G24" s="394"/>
+      <c r="C24" s="393"/>
+      <c r="D24" s="394"/>
+      <c r="E24" s="393"/>
+      <c r="F24" s="393"/>
+      <c r="G24" s="395"/>
       <c r="H24" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I24" s="395"/>
-      <c r="J24" s="395"/>
-      <c r="K24" s="395"/>
-      <c r="L24" s="395"/>
-      <c r="M24" s="395"/>
-      <c r="N24" s="395"/>
-      <c r="O24" s="395"/>
-      <c r="P24" s="395"/>
-      <c r="Q24" s="395"/>
+      <c r="I24" s="398"/>
+      <c r="J24" s="398"/>
+      <c r="K24" s="398"/>
+      <c r="L24" s="398"/>
+      <c r="M24" s="398"/>
+      <c r="N24" s="398"/>
+      <c r="O24" s="398"/>
+      <c r="P24" s="398"/>
+      <c r="Q24" s="398"/>
       <c r="R24" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -13493,24 +13493,24 @@
       <c r="B25" s="121">
         <v>1958.26</v>
       </c>
-      <c r="C25" s="392"/>
-      <c r="D25" s="393"/>
-      <c r="E25" s="392"/>
-      <c r="F25" s="392"/>
-      <c r="G25" s="394"/>
+      <c r="C25" s="393"/>
+      <c r="D25" s="394"/>
+      <c r="E25" s="393"/>
+      <c r="F25" s="393"/>
+      <c r="G25" s="395"/>
       <c r="H25" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I25" s="395"/>
-      <c r="J25" s="395"/>
-      <c r="K25" s="395"/>
-      <c r="L25" s="395"/>
-      <c r="M25" s="395"/>
-      <c r="N25" s="395"/>
-      <c r="O25" s="395"/>
-      <c r="P25" s="395"/>
-      <c r="Q25" s="395"/>
+      <c r="I25" s="398"/>
+      <c r="J25" s="398"/>
+      <c r="K25" s="398"/>
+      <c r="L25" s="398"/>
+      <c r="M25" s="398"/>
+      <c r="N25" s="398"/>
+      <c r="O25" s="398"/>
+      <c r="P25" s="398"/>
+      <c r="Q25" s="398"/>
       <c r="R25" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -13523,24 +13523,24 @@
       <c r="B26" s="121">
         <v>2031.49</v>
       </c>
-      <c r="C26" s="392"/>
-      <c r="D26" s="393"/>
-      <c r="E26" s="392"/>
-      <c r="F26" s="392"/>
-      <c r="G26" s="394"/>
+      <c r="C26" s="393"/>
+      <c r="D26" s="394"/>
+      <c r="E26" s="393"/>
+      <c r="F26" s="393"/>
+      <c r="G26" s="395"/>
       <c r="H26" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I26" s="395"/>
-      <c r="J26" s="395"/>
-      <c r="K26" s="395"/>
-      <c r="L26" s="395"/>
-      <c r="M26" s="395"/>
-      <c r="N26" s="395"/>
-      <c r="O26" s="395"/>
-      <c r="P26" s="395"/>
-      <c r="Q26" s="395"/>
+      <c r="I26" s="398"/>
+      <c r="J26" s="398"/>
+      <c r="K26" s="398"/>
+      <c r="L26" s="398"/>
+      <c r="M26" s="398"/>
+      <c r="N26" s="398"/>
+      <c r="O26" s="398"/>
+      <c r="P26" s="398"/>
+      <c r="Q26" s="398"/>
       <c r="R26" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -13553,24 +13553,24 @@
       <c r="B27" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C27" s="392"/>
-      <c r="D27" s="393"/>
-      <c r="E27" s="392"/>
-      <c r="F27" s="392"/>
-      <c r="G27" s="394"/>
+      <c r="C27" s="393"/>
+      <c r="D27" s="394"/>
+      <c r="E27" s="393"/>
+      <c r="F27" s="393"/>
+      <c r="G27" s="395"/>
       <c r="H27" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I27" s="395"/>
-      <c r="J27" s="395"/>
-      <c r="K27" s="395"/>
-      <c r="L27" s="395"/>
-      <c r="M27" s="395"/>
-      <c r="N27" s="395"/>
-      <c r="O27" s="395"/>
-      <c r="P27" s="395"/>
-      <c r="Q27" s="395"/>
+      <c r="I27" s="398"/>
+      <c r="J27" s="398"/>
+      <c r="K27" s="398"/>
+      <c r="L27" s="398"/>
+      <c r="M27" s="398"/>
+      <c r="N27" s="398"/>
+      <c r="O27" s="398"/>
+      <c r="P27" s="398"/>
+      <c r="Q27" s="398"/>
       <c r="R27" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -13583,54 +13583,54 @@
       <c r="B28" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C28" s="392">
+      <c r="C28" s="393">
         <v>22.25</v>
       </c>
-      <c r="D28" s="393">
+      <c r="D28" s="394">
         <f>IF(G28&gt;0,SUM(B28:B34)-C28,0)</f>
         <v>14106.8</v>
       </c>
-      <c r="E28" s="392">
+      <c r="E28" s="393">
         <v>6.1675000000000004</v>
       </c>
-      <c r="F28" s="392">
+      <c r="F28" s="393">
         <v>29.3</v>
       </c>
-      <c r="G28" s="394">
+      <c r="G28" s="395">
         <v>79</v>
       </c>
       <c r="H28" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I28" s="395">
+      <c r="I28" s="398">
         <f>IF($D$2&gt;F28,G28*($D$2-F28)*0.2,0)</f>
         <v>7.1099999999999888</v>
       </c>
-      <c r="J28" s="395">
+      <c r="J28" s="398">
         <f>SUM(I10:I27)</f>
         <v>300.76800000000003</v>
       </c>
-      <c r="K28" s="395">
+      <c r="K28" s="398">
         <v>29.75</v>
       </c>
-      <c r="L28" s="395">
+      <c r="L28" s="398">
         <v>278</v>
       </c>
-      <c r="M28" s="395">
+      <c r="M28" s="398">
         <f>IF(IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005)&gt;25,IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005),25)</f>
         <v>41.352499999999999</v>
       </c>
-      <c r="N28" s="395">
+      <c r="N28" s="398">
         <v>5.25</v>
       </c>
-      <c r="O28" s="395">
-        <v>0</v>
-      </c>
-      <c r="P28" s="395">
+      <c r="O28" s="398">
+        <v>0</v>
+      </c>
+      <c r="P28" s="398">
         <v>25</v>
       </c>
-      <c r="Q28" s="395">
+      <c r="Q28" s="398">
         <f>(K28*L28-J28-M28-N28-O28-P28)*S34</f>
         <v>48178.589949999994</v>
       </c>
@@ -13646,24 +13646,24 @@
       <c r="B29" s="121">
         <v>2445.75</v>
       </c>
-      <c r="C29" s="392"/>
-      <c r="D29" s="393"/>
-      <c r="E29" s="392"/>
-      <c r="F29" s="392"/>
-      <c r="G29" s="394"/>
+      <c r="C29" s="393"/>
+      <c r="D29" s="394"/>
+      <c r="E29" s="393"/>
+      <c r="F29" s="393"/>
+      <c r="G29" s="395"/>
       <c r="H29" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I29" s="395"/>
-      <c r="J29" s="395"/>
-      <c r="K29" s="395"/>
-      <c r="L29" s="395"/>
-      <c r="M29" s="395"/>
-      <c r="N29" s="395"/>
-      <c r="O29" s="395"/>
-      <c r="P29" s="395"/>
-      <c r="Q29" s="395"/>
+      <c r="I29" s="398"/>
+      <c r="J29" s="398"/>
+      <c r="K29" s="398"/>
+      <c r="L29" s="398"/>
+      <c r="M29" s="398"/>
+      <c r="N29" s="398"/>
+      <c r="O29" s="398"/>
+      <c r="P29" s="398"/>
+      <c r="Q29" s="398"/>
       <c r="R29" s="109">
         <v>400.35</v>
       </c>
@@ -13675,24 +13675,24 @@
       <c r="B30" s="121">
         <v>1917.03</v>
       </c>
-      <c r="C30" s="392"/>
-      <c r="D30" s="393"/>
-      <c r="E30" s="392"/>
-      <c r="F30" s="392"/>
-      <c r="G30" s="394"/>
+      <c r="C30" s="393"/>
+      <c r="D30" s="394"/>
+      <c r="E30" s="393"/>
+      <c r="F30" s="393"/>
+      <c r="G30" s="395"/>
       <c r="H30" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I30" s="395"/>
-      <c r="J30" s="395"/>
-      <c r="K30" s="395"/>
-      <c r="L30" s="395"/>
-      <c r="M30" s="395"/>
-      <c r="N30" s="395"/>
-      <c r="O30" s="395"/>
-      <c r="P30" s="395"/>
-      <c r="Q30" s="395"/>
+      <c r="I30" s="398"/>
+      <c r="J30" s="398"/>
+      <c r="K30" s="398"/>
+      <c r="L30" s="398"/>
+      <c r="M30" s="398"/>
+      <c r="N30" s="398"/>
+      <c r="O30" s="398"/>
+      <c r="P30" s="398"/>
+      <c r="Q30" s="398"/>
       <c r="R30" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -13705,24 +13705,24 @@
       <c r="B31" s="121">
         <v>1827.02</v>
       </c>
-      <c r="C31" s="392"/>
-      <c r="D31" s="393"/>
-      <c r="E31" s="392"/>
-      <c r="F31" s="392"/>
-      <c r="G31" s="394"/>
+      <c r="C31" s="393"/>
+      <c r="D31" s="394"/>
+      <c r="E31" s="393"/>
+      <c r="F31" s="393"/>
+      <c r="G31" s="395"/>
       <c r="H31" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I31" s="395"/>
-      <c r="J31" s="395"/>
-      <c r="K31" s="395"/>
-      <c r="L31" s="395"/>
-      <c r="M31" s="395"/>
-      <c r="N31" s="395"/>
-      <c r="O31" s="395"/>
-      <c r="P31" s="395"/>
-      <c r="Q31" s="395"/>
+      <c r="I31" s="398"/>
+      <c r="J31" s="398"/>
+      <c r="K31" s="398"/>
+      <c r="L31" s="398"/>
+      <c r="M31" s="398"/>
+      <c r="N31" s="398"/>
+      <c r="O31" s="398"/>
+      <c r="P31" s="398"/>
+      <c r="Q31" s="398"/>
       <c r="R31" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -13735,24 +13735,24 @@
       <c r="B32" s="121">
         <v>1958.22</v>
       </c>
-      <c r="C32" s="392"/>
-      <c r="D32" s="393"/>
-      <c r="E32" s="392"/>
-      <c r="F32" s="392"/>
-      <c r="G32" s="394"/>
+      <c r="C32" s="393"/>
+      <c r="D32" s="394"/>
+      <c r="E32" s="393"/>
+      <c r="F32" s="393"/>
+      <c r="G32" s="395"/>
       <c r="H32" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I32" s="395"/>
-      <c r="J32" s="395"/>
-      <c r="K32" s="395"/>
-      <c r="L32" s="395"/>
-      <c r="M32" s="395"/>
-      <c r="N32" s="395"/>
-      <c r="O32" s="395"/>
-      <c r="P32" s="395"/>
-      <c r="Q32" s="395"/>
+      <c r="I32" s="398"/>
+      <c r="J32" s="398"/>
+      <c r="K32" s="398"/>
+      <c r="L32" s="398"/>
+      <c r="M32" s="398"/>
+      <c r="N32" s="398"/>
+      <c r="O32" s="398"/>
+      <c r="P32" s="398"/>
+      <c r="Q32" s="398"/>
       <c r="R32" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -13765,24 +13765,24 @@
       <c r="B33" s="121">
         <v>1958.28</v>
       </c>
-      <c r="C33" s="392"/>
-      <c r="D33" s="393"/>
-      <c r="E33" s="392"/>
-      <c r="F33" s="392"/>
-      <c r="G33" s="394"/>
+      <c r="C33" s="393"/>
+      <c r="D33" s="394"/>
+      <c r="E33" s="393"/>
+      <c r="F33" s="393"/>
+      <c r="G33" s="395"/>
       <c r="H33" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I33" s="395"/>
-      <c r="J33" s="395"/>
-      <c r="K33" s="395"/>
-      <c r="L33" s="395"/>
-      <c r="M33" s="395"/>
-      <c r="N33" s="395"/>
-      <c r="O33" s="395"/>
-      <c r="P33" s="395"/>
-      <c r="Q33" s="395"/>
+      <c r="I33" s="398"/>
+      <c r="J33" s="398"/>
+      <c r="K33" s="398"/>
+      <c r="L33" s="398"/>
+      <c r="M33" s="398"/>
+      <c r="N33" s="398"/>
+      <c r="O33" s="398"/>
+      <c r="P33" s="398"/>
+      <c r="Q33" s="398"/>
       <c r="R33" s="109">
         <f>R30</f>
         <v>400.35</v>
@@ -13795,24 +13795,24 @@
       <c r="B34" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C34" s="392"/>
-      <c r="D34" s="393"/>
-      <c r="E34" s="392"/>
-      <c r="F34" s="392"/>
-      <c r="G34" s="394"/>
+      <c r="C34" s="393"/>
+      <c r="D34" s="394"/>
+      <c r="E34" s="393"/>
+      <c r="F34" s="393"/>
+      <c r="G34" s="395"/>
       <c r="H34" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I34" s="395"/>
-      <c r="J34" s="395"/>
-      <c r="K34" s="395"/>
-      <c r="L34" s="395"/>
-      <c r="M34" s="395"/>
-      <c r="N34" s="395"/>
-      <c r="O34" s="395"/>
-      <c r="P34" s="395"/>
-      <c r="Q34" s="395"/>
+      <c r="I34" s="398"/>
+      <c r="J34" s="398"/>
+      <c r="K34" s="398"/>
+      <c r="L34" s="398"/>
+      <c r="M34" s="398"/>
+      <c r="N34" s="398"/>
+      <c r="O34" s="398"/>
+      <c r="P34" s="398"/>
+      <c r="Q34" s="398"/>
       <c r="R34" s="109">
         <f>R32</f>
         <v>400.35</v>
@@ -13828,38 +13828,38 @@
       <c r="B35" s="121">
         <v>2171.2600000000002</v>
       </c>
-      <c r="C35" s="392">
+      <c r="C35" s="393">
         <v>30.19</v>
       </c>
-      <c r="D35" s="393">
+      <c r="D35" s="394">
         <f>IF(B40&gt;0,SUM(B35:B40)-C35,0)</f>
         <v>13016.160000000002</v>
       </c>
-      <c r="E35" s="392">
+      <c r="E35" s="393">
         <v>6.1369999999999996</v>
       </c>
-      <c r="F35" s="392">
+      <c r="F35" s="393">
         <v>25.93</v>
       </c>
-      <c r="G35" s="394">
+      <c r="G35" s="395">
         <v>96</v>
       </c>
       <c r="H35" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I35" s="395">
+      <c r="I35" s="398">
         <f>IF($D$2&gt;F35,G35*($D$2-F35)*0.2,0)</f>
         <v>73.344000000000008</v>
       </c>
-      <c r="J35" s="395"/>
-      <c r="K35" s="395"/>
-      <c r="L35" s="395"/>
-      <c r="M35" s="395"/>
-      <c r="N35" s="395"/>
-      <c r="O35" s="395"/>
-      <c r="P35" s="395"/>
-      <c r="Q35" s="395"/>
+      <c r="J35" s="398"/>
+      <c r="K35" s="398"/>
+      <c r="L35" s="398"/>
+      <c r="M35" s="398"/>
+      <c r="N35" s="398"/>
+      <c r="O35" s="398"/>
+      <c r="P35" s="398"/>
+      <c r="Q35" s="398"/>
       <c r="R35" s="109">
         <v>358.55</v>
       </c>
@@ -13871,24 +13871,24 @@
       <c r="B36" s="121">
         <v>2081.27</v>
       </c>
-      <c r="C36" s="392"/>
-      <c r="D36" s="393"/>
-      <c r="E36" s="392"/>
-      <c r="F36" s="392"/>
-      <c r="G36" s="394"/>
+      <c r="C36" s="393"/>
+      <c r="D36" s="394"/>
+      <c r="E36" s="393"/>
+      <c r="F36" s="393"/>
+      <c r="G36" s="395"/>
       <c r="H36" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I36" s="395"/>
-      <c r="J36" s="395"/>
-      <c r="K36" s="395"/>
-      <c r="L36" s="395"/>
-      <c r="M36" s="395"/>
-      <c r="N36" s="395"/>
-      <c r="O36" s="395"/>
-      <c r="P36" s="395"/>
-      <c r="Q36" s="395"/>
+      <c r="I36" s="398"/>
+      <c r="J36" s="398"/>
+      <c r="K36" s="398"/>
+      <c r="L36" s="398"/>
+      <c r="M36" s="398"/>
+      <c r="N36" s="398"/>
+      <c r="O36" s="398"/>
+      <c r="P36" s="398"/>
+      <c r="Q36" s="398"/>
       <c r="R36" s="109">
         <v>358.55</v>
       </c>
@@ -13900,24 +13900,24 @@
       <c r="B37" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C37" s="392"/>
-      <c r="D37" s="393"/>
-      <c r="E37" s="392"/>
-      <c r="F37" s="392"/>
-      <c r="G37" s="394"/>
+      <c r="C37" s="393"/>
+      <c r="D37" s="394"/>
+      <c r="E37" s="393"/>
+      <c r="F37" s="393"/>
+      <c r="G37" s="395"/>
       <c r="H37" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I37" s="395"/>
-      <c r="J37" s="395"/>
-      <c r="K37" s="395"/>
-      <c r="L37" s="395"/>
-      <c r="M37" s="395"/>
-      <c r="N37" s="395"/>
-      <c r="O37" s="395"/>
-      <c r="P37" s="395"/>
-      <c r="Q37" s="395"/>
+      <c r="I37" s="398"/>
+      <c r="J37" s="398"/>
+      <c r="K37" s="398"/>
+      <c r="L37" s="398"/>
+      <c r="M37" s="398"/>
+      <c r="N37" s="398"/>
+      <c r="O37" s="398"/>
+      <c r="P37" s="398"/>
+      <c r="Q37" s="398"/>
       <c r="R37" s="109">
         <v>358.55</v>
       </c>
@@ -13929,24 +13929,24 @@
       <c r="B38" s="121">
         <v>2537.5100000000002</v>
       </c>
-      <c r="C38" s="392"/>
-      <c r="D38" s="393"/>
-      <c r="E38" s="392"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="394"/>
+      <c r="C38" s="393"/>
+      <c r="D38" s="394"/>
+      <c r="E38" s="393"/>
+      <c r="F38" s="393"/>
+      <c r="G38" s="395"/>
       <c r="H38" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I38" s="395"/>
-      <c r="J38" s="395"/>
-      <c r="K38" s="395"/>
-      <c r="L38" s="395"/>
-      <c r="M38" s="395"/>
-      <c r="N38" s="395"/>
-      <c r="O38" s="395"/>
-      <c r="P38" s="395"/>
-      <c r="Q38" s="395"/>
+      <c r="I38" s="398"/>
+      <c r="J38" s="398"/>
+      <c r="K38" s="398"/>
+      <c r="L38" s="398"/>
+      <c r="M38" s="398"/>
+      <c r="N38" s="398"/>
+      <c r="O38" s="398"/>
+      <c r="P38" s="398"/>
+      <c r="Q38" s="398"/>
       <c r="R38" s="109">
         <v>358.55</v>
       </c>
@@ -13958,24 +13958,24 @@
       <c r="B39" s="121">
         <v>2087.52</v>
       </c>
-      <c r="C39" s="392"/>
-      <c r="D39" s="393"/>
-      <c r="E39" s="392"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="394"/>
+      <c r="C39" s="393"/>
+      <c r="D39" s="394"/>
+      <c r="E39" s="393"/>
+      <c r="F39" s="393"/>
+      <c r="G39" s="395"/>
       <c r="H39" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I39" s="395"/>
-      <c r="J39" s="395"/>
-      <c r="K39" s="395"/>
-      <c r="L39" s="395"/>
-      <c r="M39" s="395"/>
-      <c r="N39" s="395"/>
-      <c r="O39" s="395"/>
-      <c r="P39" s="395"/>
-      <c r="Q39" s="395"/>
+      <c r="I39" s="398"/>
+      <c r="J39" s="398"/>
+      <c r="K39" s="398"/>
+      <c r="L39" s="398"/>
+      <c r="M39" s="398"/>
+      <c r="N39" s="398"/>
+      <c r="O39" s="398"/>
+      <c r="P39" s="398"/>
+      <c r="Q39" s="398"/>
       <c r="R39" s="109">
         <v>358.55</v>
       </c>
@@ -13987,24 +13987,24 @@
       <c r="B40" s="121">
         <v>2087.5300000000002</v>
       </c>
-      <c r="C40" s="392"/>
-      <c r="D40" s="393"/>
-      <c r="E40" s="392"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="394"/>
+      <c r="C40" s="393"/>
+      <c r="D40" s="394"/>
+      <c r="E40" s="393"/>
+      <c r="F40" s="393"/>
+      <c r="G40" s="395"/>
       <c r="H40" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I40" s="395"/>
-      <c r="J40" s="395"/>
-      <c r="K40" s="395"/>
-      <c r="L40" s="395"/>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
-      <c r="O40" s="395"/>
-      <c r="P40" s="395"/>
-      <c r="Q40" s="395"/>
+      <c r="I40" s="398"/>
+      <c r="J40" s="398"/>
+      <c r="K40" s="398"/>
+      <c r="L40" s="398"/>
+      <c r="M40" s="398"/>
+      <c r="N40" s="398"/>
+      <c r="O40" s="398"/>
+      <c r="P40" s="398"/>
+      <c r="Q40" s="398"/>
       <c r="R40" s="109">
         <v>358.55</v>
       </c>
@@ -14016,38 +14016,38 @@
       <c r="B41" s="121">
         <v>2362.48</v>
       </c>
-      <c r="C41" s="392">
+      <c r="C41" s="393">
         <v>52.72</v>
       </c>
-      <c r="D41" s="393">
+      <c r="D41" s="394">
         <f>IF(B46&gt;0,SUM(B41:B46)-C41,0)</f>
         <v>13224.73</v>
       </c>
-      <c r="E41" s="392">
+      <c r="E41" s="393">
         <v>6.2213000000000003</v>
       </c>
-      <c r="F41" s="392">
+      <c r="F41" s="393">
         <v>26.89</v>
       </c>
-      <c r="G41" s="394">
+      <c r="G41" s="395">
         <v>93</v>
       </c>
       <c r="H41" s="120">
         <f t="shared" si="1"/>
         <v>95.527500000000003</v>
       </c>
-      <c r="I41" s="395">
+      <c r="I41" s="398">
         <f>IF($D$2&gt;F41,G41*($D$2-F41)*0.2,0)</f>
         <v>53.195999999999998</v>
       </c>
-      <c r="J41" s="395"/>
-      <c r="K41" s="395"/>
-      <c r="L41" s="395"/>
-      <c r="M41" s="395"/>
-      <c r="N41" s="395"/>
-      <c r="O41" s="395"/>
-      <c r="P41" s="395"/>
-      <c r="Q41" s="395"/>
+      <c r="J41" s="398"/>
+      <c r="K41" s="398"/>
+      <c r="L41" s="398"/>
+      <c r="M41" s="398"/>
+      <c r="N41" s="398"/>
+      <c r="O41" s="398"/>
+      <c r="P41" s="398"/>
+      <c r="Q41" s="398"/>
       <c r="R41" s="109">
         <v>381.97</v>
       </c>
@@ -14059,24 +14059,24 @@
       <c r="B42" s="121">
         <v>2174.98</v>
       </c>
-      <c r="C42" s="392"/>
-      <c r="D42" s="393"/>
-      <c r="E42" s="392"/>
-      <c r="F42" s="392"/>
-      <c r="G42" s="394"/>
+      <c r="C42" s="393"/>
+      <c r="D42" s="394"/>
+      <c r="E42" s="393"/>
+      <c r="F42" s="393"/>
+      <c r="G42" s="395"/>
       <c r="H42" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="395"/>
-      <c r="J42" s="395"/>
-      <c r="K42" s="395"/>
-      <c r="L42" s="395"/>
-      <c r="M42" s="395"/>
-      <c r="N42" s="395"/>
-      <c r="O42" s="395"/>
-      <c r="P42" s="395"/>
-      <c r="Q42" s="395"/>
+      <c r="I42" s="398"/>
+      <c r="J42" s="398"/>
+      <c r="K42" s="398"/>
+      <c r="L42" s="398"/>
+      <c r="M42" s="398"/>
+      <c r="N42" s="398"/>
+      <c r="O42" s="398"/>
+      <c r="P42" s="398"/>
+      <c r="Q42" s="398"/>
       <c r="R42" s="109">
         <v>381.97</v>
       </c>
@@ -14088,24 +14088,24 @@
       <c r="B43" s="121">
         <v>2265</v>
       </c>
-      <c r="C43" s="392"/>
-      <c r="D43" s="393"/>
-      <c r="E43" s="392"/>
-      <c r="F43" s="392"/>
-      <c r="G43" s="394"/>
+      <c r="C43" s="393"/>
+      <c r="D43" s="394"/>
+      <c r="E43" s="393"/>
+      <c r="F43" s="393"/>
+      <c r="G43" s="395"/>
       <c r="H43" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I43" s="395"/>
-      <c r="J43" s="395"/>
-      <c r="K43" s="395"/>
-      <c r="L43" s="395"/>
-      <c r="M43" s="395"/>
-      <c r="N43" s="395"/>
-      <c r="O43" s="395"/>
-      <c r="P43" s="395"/>
-      <c r="Q43" s="395"/>
+      <c r="I43" s="398"/>
+      <c r="J43" s="398"/>
+      <c r="K43" s="398"/>
+      <c r="L43" s="398"/>
+      <c r="M43" s="398"/>
+      <c r="N43" s="398"/>
+      <c r="O43" s="398"/>
+      <c r="P43" s="398"/>
+      <c r="Q43" s="398"/>
       <c r="R43" s="109">
         <v>381.97</v>
       </c>
@@ -14117,24 +14117,24 @@
       <c r="B44" s="121">
         <v>2087.5</v>
       </c>
-      <c r="C44" s="392"/>
-      <c r="D44" s="393"/>
-      <c r="E44" s="392"/>
-      <c r="F44" s="392"/>
-      <c r="G44" s="394"/>
+      <c r="C44" s="393"/>
+      <c r="D44" s="394"/>
+      <c r="E44" s="393"/>
+      <c r="F44" s="393"/>
+      <c r="G44" s="395"/>
       <c r="H44" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44" s="395"/>
-      <c r="J44" s="395"/>
-      <c r="K44" s="395"/>
-      <c r="L44" s="395"/>
-      <c r="M44" s="395"/>
-      <c r="N44" s="395"/>
-      <c r="O44" s="395"/>
-      <c r="P44" s="395"/>
-      <c r="Q44" s="395"/>
+      <c r="I44" s="398"/>
+      <c r="J44" s="398"/>
+      <c r="K44" s="398"/>
+      <c r="L44" s="398"/>
+      <c r="M44" s="398"/>
+      <c r="N44" s="398"/>
+      <c r="O44" s="398"/>
+      <c r="P44" s="398"/>
+      <c r="Q44" s="398"/>
       <c r="R44" s="109">
         <v>381.97</v>
       </c>
@@ -14146,24 +14146,24 @@
       <c r="B45" s="121">
         <v>2087.48</v>
       </c>
-      <c r="C45" s="392"/>
-      <c r="D45" s="393"/>
-      <c r="E45" s="392"/>
-      <c r="F45" s="392"/>
-      <c r="G45" s="394"/>
+      <c r="C45" s="393"/>
+      <c r="D45" s="394"/>
+      <c r="E45" s="393"/>
+      <c r="F45" s="393"/>
+      <c r="G45" s="395"/>
       <c r="H45" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45" s="395"/>
-      <c r="J45" s="395"/>
-      <c r="K45" s="395"/>
-      <c r="L45" s="395"/>
-      <c r="M45" s="395"/>
-      <c r="N45" s="395"/>
-      <c r="O45" s="395"/>
-      <c r="P45" s="395"/>
-      <c r="Q45" s="395"/>
+      <c r="I45" s="398"/>
+      <c r="J45" s="398"/>
+      <c r="K45" s="398"/>
+      <c r="L45" s="398"/>
+      <c r="M45" s="398"/>
+      <c r="N45" s="398"/>
+      <c r="O45" s="398"/>
+      <c r="P45" s="398"/>
+      <c r="Q45" s="398"/>
       <c r="R45" s="109">
         <v>381.97</v>
       </c>
@@ -14175,24 +14175,24 @@
       <c r="B46" s="121">
         <v>2300.0100000000002</v>
       </c>
-      <c r="C46" s="392"/>
-      <c r="D46" s="393"/>
-      <c r="E46" s="392"/>
-      <c r="F46" s="392"/>
-      <c r="G46" s="394"/>
+      <c r="C46" s="393"/>
+      <c r="D46" s="394"/>
+      <c r="E46" s="393"/>
+      <c r="F46" s="393"/>
+      <c r="G46" s="395"/>
       <c r="H46" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46" s="395"/>
-      <c r="J46" s="395"/>
-      <c r="K46" s="395"/>
-      <c r="L46" s="395"/>
-      <c r="M46" s="395"/>
-      <c r="N46" s="395"/>
-      <c r="O46" s="395"/>
-      <c r="P46" s="395"/>
-      <c r="Q46" s="395"/>
+      <c r="I46" s="398"/>
+      <c r="J46" s="398"/>
+      <c r="K46" s="398"/>
+      <c r="L46" s="398"/>
+      <c r="M46" s="398"/>
+      <c r="N46" s="398"/>
+      <c r="O46" s="398"/>
+      <c r="P46" s="398"/>
+      <c r="Q46" s="398"/>
       <c r="R46" s="109">
         <v>381.97</v>
       </c>
@@ -14204,38 +14204,38 @@
       <c r="B47" s="121">
         <v>3787.17</v>
       </c>
-      <c r="C47" s="392">
-        <v>0</v>
-      </c>
-      <c r="D47" s="393">
+      <c r="C47" s="393">
+        <v>0</v>
+      </c>
+      <c r="D47" s="394">
         <f>IF(B52&gt;0,SUM(B47:B52)-C47,0)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="392">
+      <c r="E47" s="393">
         <v>6.2</v>
       </c>
-      <c r="F47" s="392">
+      <c r="F47" s="393">
         <v>25.3</v>
       </c>
-      <c r="G47" s="394">
+      <c r="G47" s="395">
         <v>0</v>
       </c>
       <c r="H47" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="395">
+      <c r="I47" s="398">
         <f>IF($D$2&gt;F47,G47*($D$2-F47)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="395"/>
-      <c r="K47" s="395"/>
-      <c r="L47" s="395"/>
-      <c r="M47" s="395"/>
-      <c r="N47" s="395"/>
-      <c r="O47" s="395"/>
-      <c r="P47" s="395"/>
-      <c r="Q47" s="395"/>
+      <c r="J47" s="398"/>
+      <c r="K47" s="398"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="398"/>
+      <c r="P47" s="398"/>
+      <c r="Q47" s="398"/>
       <c r="R47" s="109">
         <v>382.11</v>
       </c>
@@ -14247,24 +14247,24 @@
       <c r="B48" s="121">
         <v>0</v>
       </c>
-      <c r="C48" s="392"/>
-      <c r="D48" s="393"/>
-      <c r="E48" s="392"/>
-      <c r="F48" s="392"/>
-      <c r="G48" s="394"/>
+      <c r="C48" s="393"/>
+      <c r="D48" s="394"/>
+      <c r="E48" s="393"/>
+      <c r="F48" s="393"/>
+      <c r="G48" s="395"/>
       <c r="H48" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48" s="395"/>
-      <c r="J48" s="395"/>
-      <c r="K48" s="395"/>
-      <c r="L48" s="395"/>
-      <c r="M48" s="395"/>
-      <c r="N48" s="395"/>
-      <c r="O48" s="395"/>
-      <c r="P48" s="395"/>
-      <c r="Q48" s="395"/>
+      <c r="I48" s="398"/>
+      <c r="J48" s="398"/>
+      <c r="K48" s="398"/>
+      <c r="L48" s="398"/>
+      <c r="M48" s="398"/>
+      <c r="N48" s="398"/>
+      <c r="O48" s="398"/>
+      <c r="P48" s="398"/>
+      <c r="Q48" s="398"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
@@ -14273,24 +14273,24 @@
       <c r="B49" s="121">
         <v>0</v>
       </c>
-      <c r="C49" s="392"/>
-      <c r="D49" s="393"/>
-      <c r="E49" s="392"/>
-      <c r="F49" s="392"/>
-      <c r="G49" s="394"/>
+      <c r="C49" s="393"/>
+      <c r="D49" s="394"/>
+      <c r="E49" s="393"/>
+      <c r="F49" s="393"/>
+      <c r="G49" s="395"/>
       <c r="H49" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I49" s="395"/>
-      <c r="J49" s="395"/>
-      <c r="K49" s="395"/>
-      <c r="L49" s="395"/>
-      <c r="M49" s="395"/>
-      <c r="N49" s="395"/>
-      <c r="O49" s="395"/>
-      <c r="P49" s="395"/>
-      <c r="Q49" s="395"/>
+      <c r="I49" s="398"/>
+      <c r="J49" s="398"/>
+      <c r="K49" s="398"/>
+      <c r="L49" s="398"/>
+      <c r="M49" s="398"/>
+      <c r="N49" s="398"/>
+      <c r="O49" s="398"/>
+      <c r="P49" s="398"/>
+      <c r="Q49" s="398"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
@@ -14299,24 +14299,24 @@
       <c r="B50" s="121">
         <v>0</v>
       </c>
-      <c r="C50" s="392"/>
-      <c r="D50" s="393"/>
-      <c r="E50" s="392"/>
-      <c r="F50" s="392"/>
-      <c r="G50" s="394"/>
+      <c r="C50" s="393"/>
+      <c r="D50" s="394"/>
+      <c r="E50" s="393"/>
+      <c r="F50" s="393"/>
+      <c r="G50" s="395"/>
       <c r="H50" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I50" s="395"/>
-      <c r="J50" s="395"/>
-      <c r="K50" s="395"/>
-      <c r="L50" s="395"/>
-      <c r="M50" s="395"/>
-      <c r="N50" s="395"/>
-      <c r="O50" s="395"/>
-      <c r="P50" s="395"/>
-      <c r="Q50" s="395"/>
+      <c r="I50" s="398"/>
+      <c r="J50" s="398"/>
+      <c r="K50" s="398"/>
+      <c r="L50" s="398"/>
+      <c r="M50" s="398"/>
+      <c r="N50" s="398"/>
+      <c r="O50" s="398"/>
+      <c r="P50" s="398"/>
+      <c r="Q50" s="398"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
@@ -14325,24 +14325,24 @@
       <c r="B51" s="121">
         <v>0</v>
       </c>
-      <c r="C51" s="392"/>
-      <c r="D51" s="393"/>
-      <c r="E51" s="392"/>
-      <c r="F51" s="392"/>
-      <c r="G51" s="394"/>
+      <c r="C51" s="393"/>
+      <c r="D51" s="394"/>
+      <c r="E51" s="393"/>
+      <c r="F51" s="393"/>
+      <c r="G51" s="395"/>
       <c r="H51" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I51" s="395"/>
-      <c r="J51" s="395"/>
-      <c r="K51" s="395"/>
-      <c r="L51" s="395"/>
-      <c r="M51" s="395"/>
-      <c r="N51" s="395"/>
-      <c r="O51" s="395"/>
-      <c r="P51" s="395"/>
-      <c r="Q51" s="395"/>
+      <c r="I51" s="398"/>
+      <c r="J51" s="398"/>
+      <c r="K51" s="398"/>
+      <c r="L51" s="398"/>
+      <c r="M51" s="398"/>
+      <c r="N51" s="398"/>
+      <c r="O51" s="398"/>
+      <c r="P51" s="398"/>
+      <c r="Q51" s="398"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
@@ -14351,24 +14351,24 @@
       <c r="B52" s="121">
         <v>0</v>
       </c>
-      <c r="C52" s="392"/>
-      <c r="D52" s="393"/>
-      <c r="E52" s="392"/>
-      <c r="F52" s="392"/>
-      <c r="G52" s="394"/>
+      <c r="C52" s="393"/>
+      <c r="D52" s="394"/>
+      <c r="E52" s="393"/>
+      <c r="F52" s="393"/>
+      <c r="G52" s="395"/>
       <c r="H52" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I52" s="395"/>
-      <c r="J52" s="395"/>
-      <c r="K52" s="395"/>
-      <c r="L52" s="395"/>
-      <c r="M52" s="395"/>
-      <c r="N52" s="395"/>
-      <c r="O52" s="395"/>
-      <c r="P52" s="395"/>
-      <c r="Q52" s="395"/>
+      <c r="I52" s="398"/>
+      <c r="J52" s="398"/>
+      <c r="K52" s="398"/>
+      <c r="L52" s="398"/>
+      <c r="M52" s="398"/>
+      <c r="N52" s="398"/>
+      <c r="O52" s="398"/>
+      <c r="P52" s="398"/>
+      <c r="Q52" s="398"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
@@ -14377,38 +14377,38 @@
       <c r="B53" s="121">
         <v>0</v>
       </c>
-      <c r="C53" s="392">
-        <v>0</v>
-      </c>
-      <c r="D53" s="393">
+      <c r="C53" s="393">
+        <v>0</v>
+      </c>
+      <c r="D53" s="394">
         <f>IF(B58&gt;0,SUM(B53:B58)-C53,0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="392">
+      <c r="E53" s="393">
         <v>6.2</v>
       </c>
-      <c r="F53" s="392">
+      <c r="F53" s="393">
         <v>25.3</v>
       </c>
-      <c r="G53" s="394">
+      <c r="G53" s="395">
         <v>0</v>
       </c>
       <c r="H53" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I53" s="395">
+      <c r="I53" s="398">
         <f>IF($D$2&gt;F53,G53*($D$2-F53)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J53" s="395"/>
-      <c r="K53" s="395"/>
-      <c r="L53" s="395"/>
-      <c r="M53" s="395"/>
-      <c r="N53" s="395"/>
-      <c r="O53" s="395"/>
-      <c r="P53" s="395"/>
-      <c r="Q53" s="395"/>
+      <c r="J53" s="398"/>
+      <c r="K53" s="398"/>
+      <c r="L53" s="398"/>
+      <c r="M53" s="398"/>
+      <c r="N53" s="398"/>
+      <c r="O53" s="398"/>
+      <c r="P53" s="398"/>
+      <c r="Q53" s="398"/>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
@@ -14417,24 +14417,24 @@
       <c r="B54" s="121">
         <v>0</v>
       </c>
-      <c r="C54" s="392"/>
-      <c r="D54" s="393"/>
-      <c r="E54" s="392"/>
-      <c r="F54" s="392"/>
-      <c r="G54" s="394"/>
+      <c r="C54" s="393"/>
+      <c r="D54" s="394"/>
+      <c r="E54" s="393"/>
+      <c r="F54" s="393"/>
+      <c r="G54" s="395"/>
       <c r="H54" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I54" s="395"/>
-      <c r="J54" s="395"/>
-      <c r="K54" s="395"/>
-      <c r="L54" s="395"/>
-      <c r="M54" s="395"/>
-      <c r="N54" s="395"/>
-      <c r="O54" s="395"/>
-      <c r="P54" s="395"/>
-      <c r="Q54" s="395"/>
+      <c r="I54" s="398"/>
+      <c r="J54" s="398"/>
+      <c r="K54" s="398"/>
+      <c r="L54" s="398"/>
+      <c r="M54" s="398"/>
+      <c r="N54" s="398"/>
+      <c r="O54" s="398"/>
+      <c r="P54" s="398"/>
+      <c r="Q54" s="398"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
@@ -14443,24 +14443,24 @@
       <c r="B55" s="121">
         <v>0</v>
       </c>
-      <c r="C55" s="392"/>
-      <c r="D55" s="393"/>
-      <c r="E55" s="392"/>
-      <c r="F55" s="392"/>
-      <c r="G55" s="394"/>
+      <c r="C55" s="393"/>
+      <c r="D55" s="394"/>
+      <c r="E55" s="393"/>
+      <c r="F55" s="393"/>
+      <c r="G55" s="395"/>
       <c r="H55" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I55" s="395"/>
-      <c r="J55" s="395"/>
-      <c r="K55" s="395"/>
-      <c r="L55" s="395"/>
-      <c r="M55" s="395"/>
-      <c r="N55" s="395"/>
-      <c r="O55" s="395"/>
-      <c r="P55" s="395"/>
-      <c r="Q55" s="395"/>
+      <c r="I55" s="398"/>
+      <c r="J55" s="398"/>
+      <c r="K55" s="398"/>
+      <c r="L55" s="398"/>
+      <c r="M55" s="398"/>
+      <c r="N55" s="398"/>
+      <c r="O55" s="398"/>
+      <c r="P55" s="398"/>
+      <c r="Q55" s="398"/>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
@@ -14469,24 +14469,24 @@
       <c r="B56" s="121">
         <v>0</v>
       </c>
-      <c r="C56" s="392"/>
-      <c r="D56" s="393"/>
-      <c r="E56" s="392"/>
-      <c r="F56" s="392"/>
-      <c r="G56" s="394"/>
+      <c r="C56" s="393"/>
+      <c r="D56" s="394"/>
+      <c r="E56" s="393"/>
+      <c r="F56" s="393"/>
+      <c r="G56" s="395"/>
       <c r="H56" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I56" s="395"/>
-      <c r="J56" s="395"/>
-      <c r="K56" s="395"/>
-      <c r="L56" s="395"/>
-      <c r="M56" s="395"/>
-      <c r="N56" s="395"/>
-      <c r="O56" s="395"/>
-      <c r="P56" s="395"/>
-      <c r="Q56" s="395"/>
+      <c r="I56" s="398"/>
+      <c r="J56" s="398"/>
+      <c r="K56" s="398"/>
+      <c r="L56" s="398"/>
+      <c r="M56" s="398"/>
+      <c r="N56" s="398"/>
+      <c r="O56" s="398"/>
+      <c r="P56" s="398"/>
+      <c r="Q56" s="398"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
@@ -14495,24 +14495,24 @@
       <c r="B57" s="121">
         <v>0</v>
       </c>
-      <c r="C57" s="392"/>
-      <c r="D57" s="393"/>
-      <c r="E57" s="392"/>
-      <c r="F57" s="392"/>
-      <c r="G57" s="394"/>
+      <c r="C57" s="393"/>
+      <c r="D57" s="394"/>
+      <c r="E57" s="393"/>
+      <c r="F57" s="393"/>
+      <c r="G57" s="395"/>
       <c r="H57" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I57" s="395"/>
-      <c r="J57" s="395"/>
-      <c r="K57" s="395"/>
-      <c r="L57" s="395"/>
-      <c r="M57" s="395"/>
-      <c r="N57" s="395"/>
-      <c r="O57" s="395"/>
-      <c r="P57" s="395"/>
-      <c r="Q57" s="395"/>
+      <c r="I57" s="398"/>
+      <c r="J57" s="398"/>
+      <c r="K57" s="398"/>
+      <c r="L57" s="398"/>
+      <c r="M57" s="398"/>
+      <c r="N57" s="398"/>
+      <c r="O57" s="398"/>
+      <c r="P57" s="398"/>
+      <c r="Q57" s="398"/>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
@@ -14521,24 +14521,24 @@
       <c r="B58" s="121">
         <v>0</v>
       </c>
-      <c r="C58" s="392"/>
-      <c r="D58" s="393"/>
-      <c r="E58" s="392"/>
-      <c r="F58" s="392"/>
-      <c r="G58" s="394"/>
+      <c r="C58" s="393"/>
+      <c r="D58" s="394"/>
+      <c r="E58" s="393"/>
+      <c r="F58" s="393"/>
+      <c r="G58" s="395"/>
       <c r="H58" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I58" s="395"/>
-      <c r="J58" s="395"/>
-      <c r="K58" s="395"/>
-      <c r="L58" s="395"/>
-      <c r="M58" s="395"/>
-      <c r="N58" s="395"/>
-      <c r="O58" s="395"/>
-      <c r="P58" s="395"/>
-      <c r="Q58" s="395"/>
+      <c r="I58" s="398"/>
+      <c r="J58" s="398"/>
+      <c r="K58" s="398"/>
+      <c r="L58" s="398"/>
+      <c r="M58" s="398"/>
+      <c r="N58" s="398"/>
+      <c r="O58" s="398"/>
+      <c r="P58" s="398"/>
+      <c r="Q58" s="398"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
@@ -14547,38 +14547,38 @@
       <c r="B59" s="121">
         <v>0</v>
       </c>
-      <c r="C59" s="392">
-        <v>0</v>
-      </c>
-      <c r="D59" s="393">
+      <c r="C59" s="393">
+        <v>0</v>
+      </c>
+      <c r="D59" s="394">
         <f>IF(B64&gt;0,SUM(B59:B64)-C59,0)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="392">
+      <c r="E59" s="393">
         <v>6.2</v>
       </c>
-      <c r="F59" s="392">
+      <c r="F59" s="393">
         <v>25.3</v>
       </c>
-      <c r="G59" s="394">
+      <c r="G59" s="395">
         <v>0</v>
       </c>
       <c r="H59" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I59" s="395">
+      <c r="I59" s="398">
         <f>IF($D$2&gt;F59,G59*($D$2-F59)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="395"/>
-      <c r="K59" s="395"/>
-      <c r="L59" s="395"/>
-      <c r="M59" s="395"/>
-      <c r="N59" s="395"/>
-      <c r="O59" s="395"/>
-      <c r="P59" s="395"/>
-      <c r="Q59" s="395"/>
+      <c r="J59" s="398"/>
+      <c r="K59" s="398"/>
+      <c r="L59" s="398"/>
+      <c r="M59" s="398"/>
+      <c r="N59" s="398"/>
+      <c r="O59" s="398"/>
+      <c r="P59" s="398"/>
+      <c r="Q59" s="398"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
@@ -14587,24 +14587,24 @@
       <c r="B60" s="121">
         <v>0</v>
       </c>
-      <c r="C60" s="392"/>
-      <c r="D60" s="393"/>
-      <c r="E60" s="392"/>
-      <c r="F60" s="392"/>
-      <c r="G60" s="394"/>
+      <c r="C60" s="393"/>
+      <c r="D60" s="394"/>
+      <c r="E60" s="393"/>
+      <c r="F60" s="393"/>
+      <c r="G60" s="395"/>
       <c r="H60" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I60" s="395"/>
-      <c r="J60" s="395"/>
-      <c r="K60" s="395"/>
-      <c r="L60" s="395"/>
-      <c r="M60" s="395"/>
-      <c r="N60" s="395"/>
-      <c r="O60" s="395"/>
-      <c r="P60" s="395"/>
-      <c r="Q60" s="395"/>
+      <c r="I60" s="398"/>
+      <c r="J60" s="398"/>
+      <c r="K60" s="398"/>
+      <c r="L60" s="398"/>
+      <c r="M60" s="398"/>
+      <c r="N60" s="398"/>
+      <c r="O60" s="398"/>
+      <c r="P60" s="398"/>
+      <c r="Q60" s="398"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
@@ -14613,24 +14613,24 @@
       <c r="B61" s="121">
         <v>0</v>
       </c>
-      <c r="C61" s="392"/>
-      <c r="D61" s="393"/>
-      <c r="E61" s="392"/>
-      <c r="F61" s="392"/>
-      <c r="G61" s="394"/>
+      <c r="C61" s="393"/>
+      <c r="D61" s="394"/>
+      <c r="E61" s="393"/>
+      <c r="F61" s="393"/>
+      <c r="G61" s="395"/>
       <c r="H61" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I61" s="395"/>
-      <c r="J61" s="395"/>
-      <c r="K61" s="395"/>
-      <c r="L61" s="395"/>
-      <c r="M61" s="395"/>
-      <c r="N61" s="395"/>
-      <c r="O61" s="395"/>
-      <c r="P61" s="395"/>
-      <c r="Q61" s="395"/>
+      <c r="I61" s="398"/>
+      <c r="J61" s="398"/>
+      <c r="K61" s="398"/>
+      <c r="L61" s="398"/>
+      <c r="M61" s="398"/>
+      <c r="N61" s="398"/>
+      <c r="O61" s="398"/>
+      <c r="P61" s="398"/>
+      <c r="Q61" s="398"/>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
@@ -14639,24 +14639,24 @@
       <c r="B62" s="121">
         <v>0</v>
       </c>
-      <c r="C62" s="392"/>
-      <c r="D62" s="393"/>
-      <c r="E62" s="392"/>
-      <c r="F62" s="392"/>
-      <c r="G62" s="394"/>
+      <c r="C62" s="393"/>
+      <c r="D62" s="394"/>
+      <c r="E62" s="393"/>
+      <c r="F62" s="393"/>
+      <c r="G62" s="395"/>
       <c r="H62" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I62" s="395"/>
-      <c r="J62" s="395"/>
-      <c r="K62" s="395"/>
-      <c r="L62" s="395"/>
-      <c r="M62" s="395"/>
-      <c r="N62" s="395"/>
-      <c r="O62" s="395"/>
-      <c r="P62" s="395"/>
-      <c r="Q62" s="395"/>
+      <c r="I62" s="398"/>
+      <c r="J62" s="398"/>
+      <c r="K62" s="398"/>
+      <c r="L62" s="398"/>
+      <c r="M62" s="398"/>
+      <c r="N62" s="398"/>
+      <c r="O62" s="398"/>
+      <c r="P62" s="398"/>
+      <c r="Q62" s="398"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
@@ -14665,24 +14665,24 @@
       <c r="B63" s="121">
         <v>0</v>
       </c>
-      <c r="C63" s="392"/>
-      <c r="D63" s="393"/>
-      <c r="E63" s="392"/>
-      <c r="F63" s="392"/>
-      <c r="G63" s="394"/>
+      <c r="C63" s="393"/>
+      <c r="D63" s="394"/>
+      <c r="E63" s="393"/>
+      <c r="F63" s="393"/>
+      <c r="G63" s="395"/>
       <c r="H63" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I63" s="395"/>
-      <c r="J63" s="395"/>
-      <c r="K63" s="395"/>
-      <c r="L63" s="395"/>
-      <c r="M63" s="395"/>
-      <c r="N63" s="395"/>
-      <c r="O63" s="395"/>
-      <c r="P63" s="395"/>
-      <c r="Q63" s="395"/>
+      <c r="I63" s="398"/>
+      <c r="J63" s="398"/>
+      <c r="K63" s="398"/>
+      <c r="L63" s="398"/>
+      <c r="M63" s="398"/>
+      <c r="N63" s="398"/>
+      <c r="O63" s="398"/>
+      <c r="P63" s="398"/>
+      <c r="Q63" s="398"/>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
@@ -14691,24 +14691,24 @@
       <c r="B64" s="121">
         <v>0</v>
       </c>
-      <c r="C64" s="392"/>
-      <c r="D64" s="393"/>
-      <c r="E64" s="392"/>
-      <c r="F64" s="392"/>
-      <c r="G64" s="394"/>
+      <c r="C64" s="393"/>
+      <c r="D64" s="394"/>
+      <c r="E64" s="393"/>
+      <c r="F64" s="393"/>
+      <c r="G64" s="395"/>
       <c r="H64" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I64" s="395"/>
-      <c r="J64" s="395"/>
-      <c r="K64" s="395"/>
-      <c r="L64" s="395"/>
-      <c r="M64" s="395"/>
-      <c r="N64" s="395"/>
-      <c r="O64" s="395"/>
-      <c r="P64" s="395"/>
-      <c r="Q64" s="395"/>
+      <c r="I64" s="398"/>
+      <c r="J64" s="398"/>
+      <c r="K64" s="398"/>
+      <c r="L64" s="398"/>
+      <c r="M64" s="398"/>
+      <c r="N64" s="398"/>
+      <c r="O64" s="398"/>
+      <c r="P64" s="398"/>
+      <c r="Q64" s="398"/>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1">
@@ -14717,38 +14717,38 @@
       <c r="B65" s="121">
         <v>0</v>
       </c>
-      <c r="C65" s="392">
-        <v>0</v>
-      </c>
-      <c r="D65" s="393">
+      <c r="C65" s="393">
+        <v>0</v>
+      </c>
+      <c r="D65" s="394">
         <f>IF(B70&gt;0,SUM(B65:B70)-C65,0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="392">
+      <c r="E65" s="393">
         <v>6.2</v>
       </c>
-      <c r="F65" s="392">
+      <c r="F65" s="393">
         <v>25.3</v>
       </c>
-      <c r="G65" s="394">
+      <c r="G65" s="395">
         <v>0</v>
       </c>
       <c r="H65" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I65" s="395">
+      <c r="I65" s="398">
         <f>IF($D$2&gt;F65,G65*($D$2-F65)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="395"/>
-      <c r="K65" s="395"/>
-      <c r="L65" s="395"/>
-      <c r="M65" s="395"/>
-      <c r="N65" s="395"/>
-      <c r="O65" s="395"/>
-      <c r="P65" s="395"/>
-      <c r="Q65" s="395"/>
+      <c r="J65" s="398"/>
+      <c r="K65" s="398"/>
+      <c r="L65" s="398"/>
+      <c r="M65" s="398"/>
+      <c r="N65" s="398"/>
+      <c r="O65" s="398"/>
+      <c r="P65" s="398"/>
+      <c r="Q65" s="398"/>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1">
@@ -14757,24 +14757,24 @@
       <c r="B66" s="121">
         <v>0</v>
       </c>
-      <c r="C66" s="392"/>
-      <c r="D66" s="393"/>
-      <c r="E66" s="392"/>
-      <c r="F66" s="392"/>
-      <c r="G66" s="394"/>
+      <c r="C66" s="393"/>
+      <c r="D66" s="394"/>
+      <c r="E66" s="393"/>
+      <c r="F66" s="393"/>
+      <c r="G66" s="395"/>
       <c r="H66" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I66" s="395"/>
-      <c r="J66" s="395"/>
-      <c r="K66" s="395"/>
-      <c r="L66" s="395"/>
-      <c r="M66" s="395"/>
-      <c r="N66" s="395"/>
-      <c r="O66" s="395"/>
-      <c r="P66" s="395"/>
-      <c r="Q66" s="395"/>
+      <c r="I66" s="398"/>
+      <c r="J66" s="398"/>
+      <c r="K66" s="398"/>
+      <c r="L66" s="398"/>
+      <c r="M66" s="398"/>
+      <c r="N66" s="398"/>
+      <c r="O66" s="398"/>
+      <c r="P66" s="398"/>
+      <c r="Q66" s="398"/>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1">
@@ -14783,24 +14783,24 @@
       <c r="B67" s="121">
         <v>0</v>
       </c>
-      <c r="C67" s="392"/>
-      <c r="D67" s="393"/>
-      <c r="E67" s="392"/>
-      <c r="F67" s="392"/>
-      <c r="G67" s="394"/>
+      <c r="C67" s="393"/>
+      <c r="D67" s="394"/>
+      <c r="E67" s="393"/>
+      <c r="F67" s="393"/>
+      <c r="G67" s="395"/>
       <c r="H67" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I67" s="395"/>
-      <c r="J67" s="395"/>
-      <c r="K67" s="395"/>
-      <c r="L67" s="395"/>
-      <c r="M67" s="395"/>
-      <c r="N67" s="395"/>
-      <c r="O67" s="395"/>
-      <c r="P67" s="395"/>
-      <c r="Q67" s="395"/>
+      <c r="I67" s="398"/>
+      <c r="J67" s="398"/>
+      <c r="K67" s="398"/>
+      <c r="L67" s="398"/>
+      <c r="M67" s="398"/>
+      <c r="N67" s="398"/>
+      <c r="O67" s="398"/>
+      <c r="P67" s="398"/>
+      <c r="Q67" s="398"/>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1">
@@ -14809,24 +14809,24 @@
       <c r="B68" s="121">
         <v>0</v>
       </c>
-      <c r="C68" s="392"/>
-      <c r="D68" s="393"/>
-      <c r="E68" s="392"/>
-      <c r="F68" s="392"/>
-      <c r="G68" s="394"/>
+      <c r="C68" s="393"/>
+      <c r="D68" s="394"/>
+      <c r="E68" s="393"/>
+      <c r="F68" s="393"/>
+      <c r="G68" s="395"/>
       <c r="H68" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I68" s="395"/>
-      <c r="J68" s="395"/>
-      <c r="K68" s="395"/>
-      <c r="L68" s="395"/>
-      <c r="M68" s="395"/>
-      <c r="N68" s="395"/>
-      <c r="O68" s="395"/>
-      <c r="P68" s="395"/>
-      <c r="Q68" s="395"/>
+      <c r="I68" s="398"/>
+      <c r="J68" s="398"/>
+      <c r="K68" s="398"/>
+      <c r="L68" s="398"/>
+      <c r="M68" s="398"/>
+      <c r="N68" s="398"/>
+      <c r="O68" s="398"/>
+      <c r="P68" s="398"/>
+      <c r="Q68" s="398"/>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1">
@@ -14835,24 +14835,24 @@
       <c r="B69" s="121">
         <v>0</v>
       </c>
-      <c r="C69" s="392"/>
-      <c r="D69" s="393"/>
-      <c r="E69" s="392"/>
-      <c r="F69" s="392"/>
-      <c r="G69" s="394"/>
+      <c r="C69" s="393"/>
+      <c r="D69" s="394"/>
+      <c r="E69" s="393"/>
+      <c r="F69" s="393"/>
+      <c r="G69" s="395"/>
       <c r="H69" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I69" s="395"/>
-      <c r="J69" s="395"/>
-      <c r="K69" s="395"/>
-      <c r="L69" s="395"/>
-      <c r="M69" s="395"/>
-      <c r="N69" s="395"/>
-      <c r="O69" s="395"/>
-      <c r="P69" s="395"/>
-      <c r="Q69" s="395"/>
+      <c r="I69" s="398"/>
+      <c r="J69" s="398"/>
+      <c r="K69" s="398"/>
+      <c r="L69" s="398"/>
+      <c r="M69" s="398"/>
+      <c r="N69" s="398"/>
+      <c r="O69" s="398"/>
+      <c r="P69" s="398"/>
+      <c r="Q69" s="398"/>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1">
@@ -14861,24 +14861,24 @@
       <c r="B70" s="121">
         <v>0</v>
       </c>
-      <c r="C70" s="392"/>
-      <c r="D70" s="393"/>
-      <c r="E70" s="392"/>
-      <c r="F70" s="392"/>
-      <c r="G70" s="394"/>
+      <c r="C70" s="393"/>
+      <c r="D70" s="394"/>
+      <c r="E70" s="393"/>
+      <c r="F70" s="393"/>
+      <c r="G70" s="395"/>
       <c r="H70" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I70" s="395"/>
-      <c r="J70" s="395"/>
-      <c r="K70" s="395"/>
-      <c r="L70" s="395"/>
-      <c r="M70" s="395"/>
-      <c r="N70" s="395"/>
-      <c r="O70" s="395"/>
-      <c r="P70" s="395"/>
-      <c r="Q70" s="395"/>
+      <c r="I70" s="398"/>
+      <c r="J70" s="398"/>
+      <c r="K70" s="398"/>
+      <c r="L70" s="398"/>
+      <c r="M70" s="398"/>
+      <c r="N70" s="398"/>
+      <c r="O70" s="398"/>
+      <c r="P70" s="398"/>
+      <c r="Q70" s="398"/>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1">
@@ -14887,38 +14887,38 @@
       <c r="B71" s="121">
         <v>0</v>
       </c>
-      <c r="C71" s="392">
-        <v>0</v>
-      </c>
-      <c r="D71" s="393">
+      <c r="C71" s="393">
+        <v>0</v>
+      </c>
+      <c r="D71" s="394">
         <f>IF(B76&gt;0,SUM(B71:B76)-C71,0)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="392">
+      <c r="E71" s="393">
         <v>6.2</v>
       </c>
-      <c r="F71" s="392">
+      <c r="F71" s="393">
         <v>25.3</v>
       </c>
-      <c r="G71" s="394">
+      <c r="G71" s="395">
         <v>0</v>
       </c>
       <c r="H71" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I71" s="395">
+      <c r="I71" s="398">
         <f>IF($D$2&gt;F71,G71*($D$2-F71)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="395"/>
-      <c r="K71" s="395"/>
-      <c r="L71" s="395"/>
-      <c r="M71" s="395"/>
-      <c r="N71" s="395"/>
-      <c r="O71" s="395"/>
-      <c r="P71" s="395"/>
-      <c r="Q71" s="395"/>
+      <c r="J71" s="398"/>
+      <c r="K71" s="398"/>
+      <c r="L71" s="398"/>
+      <c r="M71" s="398"/>
+      <c r="N71" s="398"/>
+      <c r="O71" s="398"/>
+      <c r="P71" s="398"/>
+      <c r="Q71" s="398"/>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1">
@@ -14927,24 +14927,24 @@
       <c r="B72" s="121">
         <v>0</v>
       </c>
-      <c r="C72" s="392"/>
-      <c r="D72" s="393"/>
-      <c r="E72" s="392"/>
-      <c r="F72" s="392"/>
-      <c r="G72" s="394"/>
+      <c r="C72" s="393"/>
+      <c r="D72" s="394"/>
+      <c r="E72" s="393"/>
+      <c r="F72" s="393"/>
+      <c r="G72" s="395"/>
       <c r="H72" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I72" s="395"/>
-      <c r="J72" s="395"/>
-      <c r="K72" s="395"/>
-      <c r="L72" s="395"/>
-      <c r="M72" s="395"/>
-      <c r="N72" s="395"/>
-      <c r="O72" s="395"/>
-      <c r="P72" s="395"/>
-      <c r="Q72" s="395"/>
+      <c r="I72" s="398"/>
+      <c r="J72" s="398"/>
+      <c r="K72" s="398"/>
+      <c r="L72" s="398"/>
+      <c r="M72" s="398"/>
+      <c r="N72" s="398"/>
+      <c r="O72" s="398"/>
+      <c r="P72" s="398"/>
+      <c r="Q72" s="398"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1">
@@ -14953,24 +14953,24 @@
       <c r="B73" s="121">
         <v>0</v>
       </c>
-      <c r="C73" s="392"/>
-      <c r="D73" s="393"/>
-      <c r="E73" s="392"/>
-      <c r="F73" s="392"/>
-      <c r="G73" s="394"/>
+      <c r="C73" s="393"/>
+      <c r="D73" s="394"/>
+      <c r="E73" s="393"/>
+      <c r="F73" s="393"/>
+      <c r="G73" s="395"/>
       <c r="H73" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I73" s="395"/>
-      <c r="J73" s="395"/>
-      <c r="K73" s="395"/>
-      <c r="L73" s="395"/>
-      <c r="M73" s="395"/>
-      <c r="N73" s="395"/>
-      <c r="O73" s="395"/>
-      <c r="P73" s="395"/>
-      <c r="Q73" s="395"/>
+      <c r="I73" s="398"/>
+      <c r="J73" s="398"/>
+      <c r="K73" s="398"/>
+      <c r="L73" s="398"/>
+      <c r="M73" s="398"/>
+      <c r="N73" s="398"/>
+      <c r="O73" s="398"/>
+      <c r="P73" s="398"/>
+      <c r="Q73" s="398"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1">
@@ -14979,24 +14979,24 @@
       <c r="B74" s="121">
         <v>0</v>
       </c>
-      <c r="C74" s="392"/>
-      <c r="D74" s="393"/>
-      <c r="E74" s="392"/>
-      <c r="F74" s="392"/>
-      <c r="G74" s="394"/>
+      <c r="C74" s="393"/>
+      <c r="D74" s="394"/>
+      <c r="E74" s="393"/>
+      <c r="F74" s="393"/>
+      <c r="G74" s="395"/>
       <c r="H74" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I74" s="395"/>
-      <c r="J74" s="395"/>
-      <c r="K74" s="395"/>
-      <c r="L74" s="395"/>
-      <c r="M74" s="395"/>
-      <c r="N74" s="395"/>
-      <c r="O74" s="395"/>
-      <c r="P74" s="395"/>
-      <c r="Q74" s="395"/>
+      <c r="I74" s="398"/>
+      <c r="J74" s="398"/>
+      <c r="K74" s="398"/>
+      <c r="L74" s="398"/>
+      <c r="M74" s="398"/>
+      <c r="N74" s="398"/>
+      <c r="O74" s="398"/>
+      <c r="P74" s="398"/>
+      <c r="Q74" s="398"/>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1">
@@ -15005,24 +15005,24 @@
       <c r="B75" s="121">
         <v>0</v>
       </c>
-      <c r="C75" s="392"/>
-      <c r="D75" s="393"/>
-      <c r="E75" s="392"/>
-      <c r="F75" s="392"/>
-      <c r="G75" s="394"/>
+      <c r="C75" s="393"/>
+      <c r="D75" s="394"/>
+      <c r="E75" s="393"/>
+      <c r="F75" s="393"/>
+      <c r="G75" s="395"/>
       <c r="H75" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I75" s="395"/>
-      <c r="J75" s="395"/>
-      <c r="K75" s="395"/>
-      <c r="L75" s="395"/>
-      <c r="M75" s="395"/>
-      <c r="N75" s="395"/>
-      <c r="O75" s="395"/>
-      <c r="P75" s="395"/>
-      <c r="Q75" s="395"/>
+      <c r="I75" s="398"/>
+      <c r="J75" s="398"/>
+      <c r="K75" s="398"/>
+      <c r="L75" s="398"/>
+      <c r="M75" s="398"/>
+      <c r="N75" s="398"/>
+      <c r="O75" s="398"/>
+      <c r="P75" s="398"/>
+      <c r="Q75" s="398"/>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1">
@@ -15031,24 +15031,24 @@
       <c r="B76" s="121">
         <v>0</v>
       </c>
-      <c r="C76" s="392"/>
-      <c r="D76" s="393"/>
-      <c r="E76" s="392"/>
-      <c r="F76" s="392"/>
-      <c r="G76" s="394"/>
+      <c r="C76" s="393"/>
+      <c r="D76" s="394"/>
+      <c r="E76" s="393"/>
+      <c r="F76" s="393"/>
+      <c r="G76" s="395"/>
       <c r="H76" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I76" s="395"/>
-      <c r="J76" s="395"/>
-      <c r="K76" s="395"/>
-      <c r="L76" s="395"/>
-      <c r="M76" s="395"/>
-      <c r="N76" s="395"/>
-      <c r="O76" s="395"/>
-      <c r="P76" s="395"/>
-      <c r="Q76" s="395"/>
+      <c r="I76" s="398"/>
+      <c r="J76" s="398"/>
+      <c r="K76" s="398"/>
+      <c r="L76" s="398"/>
+      <c r="M76" s="398"/>
+      <c r="N76" s="398"/>
+      <c r="O76" s="398"/>
+      <c r="P76" s="398"/>
+      <c r="Q76" s="398"/>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1">
@@ -15057,38 +15057,38 @@
       <c r="B77" s="121">
         <v>0</v>
       </c>
-      <c r="C77" s="392">
-        <v>0</v>
-      </c>
-      <c r="D77" s="393">
+      <c r="C77" s="393">
+        <v>0</v>
+      </c>
+      <c r="D77" s="394">
         <f>IF(B82&gt;0,SUM(B77:B82)-C77,0)</f>
         <v>0</v>
       </c>
-      <c r="E77" s="392">
+      <c r="E77" s="393">
         <v>6.2</v>
       </c>
-      <c r="F77" s="392">
+      <c r="F77" s="393">
         <v>25.3</v>
       </c>
-      <c r="G77" s="394">
+      <c r="G77" s="395">
         <v>0</v>
       </c>
       <c r="H77" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I77" s="395">
+      <c r="I77" s="398">
         <f>IF($D$2&gt;F77,G77*($D$2-F77)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="395"/>
-      <c r="K77" s="395"/>
-      <c r="L77" s="395"/>
-      <c r="M77" s="395"/>
-      <c r="N77" s="395"/>
-      <c r="O77" s="395"/>
-      <c r="P77" s="395"/>
-      <c r="Q77" s="395"/>
+      <c r="J77" s="398"/>
+      <c r="K77" s="398"/>
+      <c r="L77" s="398"/>
+      <c r="M77" s="398"/>
+      <c r="N77" s="398"/>
+      <c r="O77" s="398"/>
+      <c r="P77" s="398"/>
+      <c r="Q77" s="398"/>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1">
@@ -15097,24 +15097,24 @@
       <c r="B78" s="121">
         <v>0</v>
       </c>
-      <c r="C78" s="392"/>
-      <c r="D78" s="393"/>
-      <c r="E78" s="392"/>
-      <c r="F78" s="392"/>
-      <c r="G78" s="394"/>
+      <c r="C78" s="393"/>
+      <c r="D78" s="394"/>
+      <c r="E78" s="393"/>
+      <c r="F78" s="393"/>
+      <c r="G78" s="395"/>
       <c r="H78" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I78" s="395"/>
-      <c r="J78" s="395"/>
-      <c r="K78" s="395"/>
-      <c r="L78" s="395"/>
-      <c r="M78" s="395"/>
-      <c r="N78" s="395"/>
-      <c r="O78" s="395"/>
-      <c r="P78" s="395"/>
-      <c r="Q78" s="395"/>
+      <c r="I78" s="398"/>
+      <c r="J78" s="398"/>
+      <c r="K78" s="398"/>
+      <c r="L78" s="398"/>
+      <c r="M78" s="398"/>
+      <c r="N78" s="398"/>
+      <c r="O78" s="398"/>
+      <c r="P78" s="398"/>
+      <c r="Q78" s="398"/>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1">
@@ -15123,24 +15123,24 @@
       <c r="B79" s="121">
         <v>0</v>
       </c>
-      <c r="C79" s="392"/>
-      <c r="D79" s="393"/>
-      <c r="E79" s="392"/>
-      <c r="F79" s="392"/>
-      <c r="G79" s="394"/>
+      <c r="C79" s="393"/>
+      <c r="D79" s="394"/>
+      <c r="E79" s="393"/>
+      <c r="F79" s="393"/>
+      <c r="G79" s="395"/>
       <c r="H79" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I79" s="395"/>
-      <c r="J79" s="395"/>
-      <c r="K79" s="395"/>
-      <c r="L79" s="395"/>
-      <c r="M79" s="395"/>
-      <c r="N79" s="395"/>
-      <c r="O79" s="395"/>
-      <c r="P79" s="395"/>
-      <c r="Q79" s="395"/>
+      <c r="I79" s="398"/>
+      <c r="J79" s="398"/>
+      <c r="K79" s="398"/>
+      <c r="L79" s="398"/>
+      <c r="M79" s="398"/>
+      <c r="N79" s="398"/>
+      <c r="O79" s="398"/>
+      <c r="P79" s="398"/>
+      <c r="Q79" s="398"/>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1">
@@ -15149,24 +15149,24 @@
       <c r="B80" s="121">
         <v>0</v>
       </c>
-      <c r="C80" s="392"/>
-      <c r="D80" s="393"/>
-      <c r="E80" s="392"/>
-      <c r="F80" s="392"/>
-      <c r="G80" s="394"/>
+      <c r="C80" s="393"/>
+      <c r="D80" s="394"/>
+      <c r="E80" s="393"/>
+      <c r="F80" s="393"/>
+      <c r="G80" s="395"/>
       <c r="H80" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I80" s="395"/>
-      <c r="J80" s="395"/>
-      <c r="K80" s="395"/>
-      <c r="L80" s="395"/>
-      <c r="M80" s="395"/>
-      <c r="N80" s="395"/>
-      <c r="O80" s="395"/>
-      <c r="P80" s="395"/>
-      <c r="Q80" s="395"/>
+      <c r="I80" s="398"/>
+      <c r="J80" s="398"/>
+      <c r="K80" s="398"/>
+      <c r="L80" s="398"/>
+      <c r="M80" s="398"/>
+      <c r="N80" s="398"/>
+      <c r="O80" s="398"/>
+      <c r="P80" s="398"/>
+      <c r="Q80" s="398"/>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1">
@@ -15175,24 +15175,24 @@
       <c r="B81" s="121">
         <v>0</v>
       </c>
-      <c r="C81" s="392"/>
-      <c r="D81" s="393"/>
-      <c r="E81" s="392"/>
-      <c r="F81" s="392"/>
-      <c r="G81" s="394"/>
+      <c r="C81" s="393"/>
+      <c r="D81" s="394"/>
+      <c r="E81" s="393"/>
+      <c r="F81" s="393"/>
+      <c r="G81" s="395"/>
       <c r="H81" s="120">
         <f t="shared" ref="H81:H88" si="3">R87*0.25</f>
         <v>0</v>
       </c>
-      <c r="I81" s="395"/>
-      <c r="J81" s="395"/>
-      <c r="K81" s="395"/>
-      <c r="L81" s="395"/>
-      <c r="M81" s="395"/>
-      <c r="N81" s="395"/>
-      <c r="O81" s="395"/>
-      <c r="P81" s="395"/>
-      <c r="Q81" s="395"/>
+      <c r="I81" s="398"/>
+      <c r="J81" s="398"/>
+      <c r="K81" s="398"/>
+      <c r="L81" s="398"/>
+      <c r="M81" s="398"/>
+      <c r="N81" s="398"/>
+      <c r="O81" s="398"/>
+      <c r="P81" s="398"/>
+      <c r="Q81" s="398"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1">
@@ -15201,24 +15201,24 @@
       <c r="B82" s="121">
         <v>0</v>
       </c>
-      <c r="C82" s="392"/>
-      <c r="D82" s="393"/>
-      <c r="E82" s="392"/>
-      <c r="F82" s="392"/>
-      <c r="G82" s="394"/>
+      <c r="C82" s="393"/>
+      <c r="D82" s="394"/>
+      <c r="E82" s="393"/>
+      <c r="F82" s="393"/>
+      <c r="G82" s="395"/>
       <c r="H82" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I82" s="395"/>
-      <c r="J82" s="395"/>
-      <c r="K82" s="395"/>
-      <c r="L82" s="395"/>
-      <c r="M82" s="395"/>
-      <c r="N82" s="395"/>
-      <c r="O82" s="395"/>
-      <c r="P82" s="395"/>
-      <c r="Q82" s="395"/>
+      <c r="I82" s="398"/>
+      <c r="J82" s="398"/>
+      <c r="K82" s="398"/>
+      <c r="L82" s="398"/>
+      <c r="M82" s="398"/>
+      <c r="N82" s="398"/>
+      <c r="O82" s="398"/>
+      <c r="P82" s="398"/>
+      <c r="Q82" s="398"/>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1">
@@ -15227,38 +15227,38 @@
       <c r="B83" s="121">
         <v>0</v>
       </c>
-      <c r="C83" s="392">
-        <v>0</v>
-      </c>
-      <c r="D83" s="393">
+      <c r="C83" s="393">
+        <v>0</v>
+      </c>
+      <c r="D83" s="394">
         <f>IF(B88&gt;0,SUM(B83:B88)-C83,0)</f>
         <v>0</v>
       </c>
-      <c r="E83" s="392">
+      <c r="E83" s="393">
         <v>6.2</v>
       </c>
-      <c r="F83" s="392">
+      <c r="F83" s="393">
         <v>25.3</v>
       </c>
-      <c r="G83" s="394">
+      <c r="G83" s="395">
         <v>0</v>
       </c>
       <c r="H83" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I83" s="395">
+      <c r="I83" s="398">
         <f>IF($D$2&gt;F83,G83*($D$2-F83)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J83" s="395"/>
-      <c r="K83" s="395"/>
-      <c r="L83" s="395"/>
-      <c r="M83" s="395"/>
-      <c r="N83" s="395"/>
-      <c r="O83" s="395"/>
-      <c r="P83" s="395"/>
-      <c r="Q83" s="395"/>
+      <c r="J83" s="398"/>
+      <c r="K83" s="398"/>
+      <c r="L83" s="398"/>
+      <c r="M83" s="398"/>
+      <c r="N83" s="398"/>
+      <c r="O83" s="398"/>
+      <c r="P83" s="398"/>
+      <c r="Q83" s="398"/>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1">
@@ -15267,24 +15267,24 @@
       <c r="B84" s="121">
         <v>0</v>
       </c>
-      <c r="C84" s="392"/>
-      <c r="D84" s="393"/>
-      <c r="E84" s="392"/>
-      <c r="F84" s="392"/>
-      <c r="G84" s="394"/>
+      <c r="C84" s="393"/>
+      <c r="D84" s="394"/>
+      <c r="E84" s="393"/>
+      <c r="F84" s="393"/>
+      <c r="G84" s="395"/>
       <c r="H84" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I84" s="395"/>
-      <c r="J84" s="395"/>
-      <c r="K84" s="395"/>
-      <c r="L84" s="395"/>
-      <c r="M84" s="395"/>
-      <c r="N84" s="395"/>
-      <c r="O84" s="395"/>
-      <c r="P84" s="395"/>
-      <c r="Q84" s="395"/>
+      <c r="I84" s="398"/>
+      <c r="J84" s="398"/>
+      <c r="K84" s="398"/>
+      <c r="L84" s="398"/>
+      <c r="M84" s="398"/>
+      <c r="N84" s="398"/>
+      <c r="O84" s="398"/>
+      <c r="P84" s="398"/>
+      <c r="Q84" s="398"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1">
@@ -15293,24 +15293,24 @@
       <c r="B85" s="121">
         <v>0</v>
       </c>
-      <c r="C85" s="392"/>
-      <c r="D85" s="393"/>
-      <c r="E85" s="392"/>
-      <c r="F85" s="392"/>
-      <c r="G85" s="394"/>
+      <c r="C85" s="393"/>
+      <c r="D85" s="394"/>
+      <c r="E85" s="393"/>
+      <c r="F85" s="393"/>
+      <c r="G85" s="395"/>
       <c r="H85" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I85" s="395"/>
-      <c r="J85" s="395"/>
-      <c r="K85" s="395"/>
-      <c r="L85" s="395"/>
-      <c r="M85" s="395"/>
-      <c r="N85" s="395"/>
-      <c r="O85" s="395"/>
-      <c r="P85" s="395"/>
-      <c r="Q85" s="395"/>
+      <c r="I85" s="398"/>
+      <c r="J85" s="398"/>
+      <c r="K85" s="398"/>
+      <c r="L85" s="398"/>
+      <c r="M85" s="398"/>
+      <c r="N85" s="398"/>
+      <c r="O85" s="398"/>
+      <c r="P85" s="398"/>
+      <c r="Q85" s="398"/>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1">
@@ -15319,24 +15319,24 @@
       <c r="B86" s="121">
         <v>0</v>
       </c>
-      <c r="C86" s="392"/>
-      <c r="D86" s="393"/>
-      <c r="E86" s="392"/>
-      <c r="F86" s="392"/>
-      <c r="G86" s="394"/>
+      <c r="C86" s="393"/>
+      <c r="D86" s="394"/>
+      <c r="E86" s="393"/>
+      <c r="F86" s="393"/>
+      <c r="G86" s="395"/>
       <c r="H86" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I86" s="395"/>
-      <c r="J86" s="395"/>
-      <c r="K86" s="395"/>
-      <c r="L86" s="395"/>
-      <c r="M86" s="395"/>
-      <c r="N86" s="395"/>
-      <c r="O86" s="395"/>
-      <c r="P86" s="395"/>
-      <c r="Q86" s="395"/>
+      <c r="I86" s="398"/>
+      <c r="J86" s="398"/>
+      <c r="K86" s="398"/>
+      <c r="L86" s="398"/>
+      <c r="M86" s="398"/>
+      <c r="N86" s="398"/>
+      <c r="O86" s="398"/>
+      <c r="P86" s="398"/>
+      <c r="Q86" s="398"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1">
@@ -15345,24 +15345,24 @@
       <c r="B87" s="121">
         <v>0</v>
       </c>
-      <c r="C87" s="392"/>
-      <c r="D87" s="393"/>
-      <c r="E87" s="392"/>
-      <c r="F87" s="392"/>
-      <c r="G87" s="394"/>
+      <c r="C87" s="393"/>
+      <c r="D87" s="394"/>
+      <c r="E87" s="393"/>
+      <c r="F87" s="393"/>
+      <c r="G87" s="395"/>
       <c r="H87" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I87" s="395"/>
-      <c r="J87" s="395"/>
-      <c r="K87" s="395"/>
-      <c r="L87" s="395"/>
-      <c r="M87" s="395"/>
-      <c r="N87" s="395"/>
-      <c r="O87" s="395"/>
-      <c r="P87" s="395"/>
-      <c r="Q87" s="395"/>
+      <c r="I87" s="398"/>
+      <c r="J87" s="398"/>
+      <c r="K87" s="398"/>
+      <c r="L87" s="398"/>
+      <c r="M87" s="398"/>
+      <c r="N87" s="398"/>
+      <c r="O87" s="398"/>
+      <c r="P87" s="398"/>
+      <c r="Q87" s="398"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1">
@@ -15371,94 +15371,125 @@
       <c r="B88" s="121">
         <v>0</v>
       </c>
-      <c r="C88" s="392"/>
-      <c r="D88" s="393"/>
-      <c r="E88" s="392"/>
-      <c r="F88" s="392"/>
-      <c r="G88" s="394"/>
+      <c r="C88" s="393"/>
+      <c r="D88" s="394"/>
+      <c r="E88" s="393"/>
+      <c r="F88" s="393"/>
+      <c r="G88" s="395"/>
       <c r="H88" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I88" s="395"/>
-      <c r="J88" s="395"/>
-      <c r="K88" s="395"/>
-      <c r="L88" s="395"/>
-      <c r="M88" s="395"/>
-      <c r="N88" s="395"/>
-      <c r="O88" s="395"/>
-      <c r="P88" s="395"/>
-      <c r="Q88" s="395"/>
+      <c r="I88" s="398"/>
+      <c r="J88" s="398"/>
+      <c r="K88" s="398"/>
+      <c r="L88" s="398"/>
+      <c r="M88" s="398"/>
+      <c r="N88" s="398"/>
+      <c r="O88" s="398"/>
+      <c r="P88" s="398"/>
+      <c r="Q88" s="398"/>
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="P10:P15"/>
-    <mergeCell ref="Q10:Q15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="L10:L15"/>
-    <mergeCell ref="M10:M15"/>
-    <mergeCell ref="N10:N15"/>
-    <mergeCell ref="Q16:Q21"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="M16:M21"/>
-    <mergeCell ref="N16:N21"/>
-    <mergeCell ref="O16:O21"/>
-    <mergeCell ref="P16:P21"/>
-    <mergeCell ref="P22:P27"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="G28:G34"/>
-    <mergeCell ref="O28:O34"/>
-    <mergeCell ref="P28:P34"/>
-    <mergeCell ref="Q28:Q34"/>
-    <mergeCell ref="K28:K34"/>
-    <mergeCell ref="L28:L34"/>
-    <mergeCell ref="M28:M34"/>
-    <mergeCell ref="N28:N34"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="J35:J40"/>
-    <mergeCell ref="I28:I34"/>
-    <mergeCell ref="J28:J34"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="G83:G88"/>
+    <mergeCell ref="O83:O88"/>
+    <mergeCell ref="P83:P88"/>
+    <mergeCell ref="Q83:Q88"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="K83:K88"/>
+    <mergeCell ref="L83:L88"/>
+    <mergeCell ref="M83:M88"/>
+    <mergeCell ref="N83:N88"/>
+    <mergeCell ref="M71:M76"/>
+    <mergeCell ref="N71:N76"/>
+    <mergeCell ref="O71:O76"/>
+    <mergeCell ref="P71:P76"/>
+    <mergeCell ref="M77:M82"/>
+    <mergeCell ref="N77:N82"/>
+    <mergeCell ref="O77:O82"/>
+    <mergeCell ref="P77:P82"/>
+    <mergeCell ref="Q77:Q82"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="J77:J82"/>
+    <mergeCell ref="K77:K82"/>
+    <mergeCell ref="L77:L82"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="O65:O70"/>
+    <mergeCell ref="P65:P70"/>
+    <mergeCell ref="Q65:Q70"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="I71:I76"/>
+    <mergeCell ref="J71:J76"/>
+    <mergeCell ref="I65:I70"/>
+    <mergeCell ref="J65:J70"/>
+    <mergeCell ref="K65:K70"/>
+    <mergeCell ref="L65:L70"/>
+    <mergeCell ref="M65:M70"/>
+    <mergeCell ref="N65:N70"/>
+    <mergeCell ref="Q71:Q76"/>
+    <mergeCell ref="K71:K76"/>
+    <mergeCell ref="L71:L76"/>
+    <mergeCell ref="M53:M58"/>
+    <mergeCell ref="N53:N58"/>
+    <mergeCell ref="O53:O58"/>
+    <mergeCell ref="P53:P58"/>
+    <mergeCell ref="M59:M64"/>
+    <mergeCell ref="N59:N64"/>
+    <mergeCell ref="O59:O64"/>
+    <mergeCell ref="P59:P64"/>
+    <mergeCell ref="Q59:Q64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="F59:F64"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="J59:J64"/>
+    <mergeCell ref="K59:K64"/>
+    <mergeCell ref="L59:L64"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="O47:O52"/>
+    <mergeCell ref="P47:P52"/>
+    <mergeCell ref="Q47:Q52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="I53:I58"/>
+    <mergeCell ref="J53:J58"/>
+    <mergeCell ref="I47:I52"/>
+    <mergeCell ref="J47:J52"/>
+    <mergeCell ref="K47:K52"/>
+    <mergeCell ref="L47:L52"/>
+    <mergeCell ref="M47:M52"/>
+    <mergeCell ref="N47:N52"/>
+    <mergeCell ref="Q53:Q58"/>
+    <mergeCell ref="K53:K58"/>
+    <mergeCell ref="L53:L58"/>
     <mergeCell ref="Q35:Q40"/>
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="D41:D46"/>
@@ -15483,104 +15514,73 @@
     <mergeCell ref="C35:C40"/>
     <mergeCell ref="D35:D40"/>
     <mergeCell ref="E35:E40"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="E47:E52"/>
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="O47:O52"/>
-    <mergeCell ref="P47:P52"/>
-    <mergeCell ref="Q47:Q52"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="I53:I58"/>
-    <mergeCell ref="J53:J58"/>
-    <mergeCell ref="I47:I52"/>
-    <mergeCell ref="J47:J52"/>
-    <mergeCell ref="K47:K52"/>
-    <mergeCell ref="L47:L52"/>
-    <mergeCell ref="M47:M52"/>
-    <mergeCell ref="N47:N52"/>
-    <mergeCell ref="Q53:Q58"/>
-    <mergeCell ref="K53:K58"/>
-    <mergeCell ref="L53:L58"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="F59:F64"/>
-    <mergeCell ref="G59:G64"/>
-    <mergeCell ref="I59:I64"/>
-    <mergeCell ref="J59:J64"/>
-    <mergeCell ref="K59:K64"/>
-    <mergeCell ref="L59:L64"/>
-    <mergeCell ref="M53:M58"/>
-    <mergeCell ref="N53:N58"/>
-    <mergeCell ref="O53:O58"/>
-    <mergeCell ref="P53:P58"/>
-    <mergeCell ref="M59:M64"/>
-    <mergeCell ref="N59:N64"/>
-    <mergeCell ref="O59:O64"/>
-    <mergeCell ref="P59:P64"/>
-    <mergeCell ref="Q59:Q64"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="O65:O70"/>
-    <mergeCell ref="P65:P70"/>
-    <mergeCell ref="Q65:Q70"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="F71:F76"/>
-    <mergeCell ref="G71:G76"/>
-    <mergeCell ref="I71:I76"/>
-    <mergeCell ref="J71:J76"/>
-    <mergeCell ref="I65:I70"/>
-    <mergeCell ref="J65:J70"/>
-    <mergeCell ref="K65:K70"/>
-    <mergeCell ref="L65:L70"/>
-    <mergeCell ref="M65:M70"/>
-    <mergeCell ref="N65:N70"/>
-    <mergeCell ref="Q71:Q76"/>
-    <mergeCell ref="K71:K76"/>
-    <mergeCell ref="L71:L76"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="F77:F82"/>
-    <mergeCell ref="G77:G82"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="J77:J82"/>
-    <mergeCell ref="K77:K82"/>
-    <mergeCell ref="L77:L82"/>
-    <mergeCell ref="M71:M76"/>
-    <mergeCell ref="N71:N76"/>
-    <mergeCell ref="O71:O76"/>
-    <mergeCell ref="P71:P76"/>
-    <mergeCell ref="M77:M82"/>
-    <mergeCell ref="N77:N82"/>
-    <mergeCell ref="O77:O82"/>
-    <mergeCell ref="P77:P82"/>
-    <mergeCell ref="Q77:Q82"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="G83:G88"/>
-    <mergeCell ref="O83:O88"/>
-    <mergeCell ref="P83:P88"/>
-    <mergeCell ref="Q83:Q88"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="K83:K88"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="M83:M88"/>
-    <mergeCell ref="N83:N88"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="J35:J40"/>
+    <mergeCell ref="I28:I34"/>
+    <mergeCell ref="J28:J34"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="P22:P27"/>
+    <mergeCell ref="Q22:Q27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="O28:O34"/>
+    <mergeCell ref="P28:P34"/>
+    <mergeCell ref="Q28:Q34"/>
+    <mergeCell ref="K28:K34"/>
+    <mergeCell ref="L28:L34"/>
+    <mergeCell ref="M28:M34"/>
+    <mergeCell ref="N28:N34"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="P10:P15"/>
+    <mergeCell ref="Q10:Q15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="M10:M15"/>
+    <mergeCell ref="N10:N15"/>
+    <mergeCell ref="Q16:Q21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="N16:N21"/>
+    <mergeCell ref="O16:O21"/>
+    <mergeCell ref="P16:P21"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17013,29 +17013,29 @@
     </row>
     <row r="6" spans="4:12" ht="17.100000000000001" customHeight="1">
       <c r="F6" s="245"/>
-      <c r="G6" s="459" t="s">
+      <c r="G6" s="467" t="s">
         <v>1283</v>
       </c>
-      <c r="H6" s="461" t="s">
+      <c r="H6" s="469" t="s">
         <v>1284</v>
       </c>
-      <c r="I6" s="461" t="s">
+      <c r="I6" s="469" t="s">
         <v>1285</v>
       </c>
-      <c r="J6" s="461" t="s">
+      <c r="J6" s="469" t="s">
         <v>1286</v>
       </c>
-      <c r="K6" s="450" t="s">
+      <c r="K6" s="465" t="s">
         <v>1287</v>
       </c>
-      <c r="L6" s="451"/>
+      <c r="L6" s="466"/>
     </row>
     <row r="7" spans="4:12" ht="18" customHeight="1">
       <c r="F7" s="245"/>
-      <c r="G7" s="460"/>
-      <c r="H7" s="462"/>
-      <c r="I7" s="462"/>
-      <c r="J7" s="462"/>
+      <c r="G7" s="468"/>
+      <c r="H7" s="470"/>
+      <c r="I7" s="470"/>
+      <c r="J7" s="470"/>
       <c r="K7" s="246" t="s">
         <v>1288</v>
       </c>
@@ -17044,11 +17044,11 @@
       </c>
     </row>
     <row r="8" spans="4:12" ht="30" customHeight="1" thickBot="1">
-      <c r="D8" s="458" t="s">
+      <c r="D8" s="456" t="s">
         <v>1290</v>
       </c>
-      <c r="E8" s="458"/>
-      <c r="F8" s="458"/>
+      <c r="E8" s="456"/>
+      <c r="F8" s="456"/>
       <c r="G8" s="248">
         <v>9.6</v>
       </c>
@@ -17094,21 +17094,21 @@
     </row>
     <row r="12" spans="4:12" ht="18.75">
       <c r="F12" s="245"/>
-      <c r="G12" s="452" t="s">
+      <c r="G12" s="450" t="s">
         <v>1291</v>
       </c>
-      <c r="H12" s="454" t="s">
+      <c r="H12" s="452" t="s">
         <v>1292</v>
       </c>
-      <c r="I12" s="456" t="s">
+      <c r="I12" s="454" t="s">
         <v>1293</v>
       </c>
-      <c r="J12" s="457"/>
+      <c r="J12" s="455"/>
     </row>
     <row r="13" spans="4:12" ht="18.75">
       <c r="F13" s="245"/>
-      <c r="G13" s="453"/>
-      <c r="H13" s="455"/>
+      <c r="G13" s="451"/>
+      <c r="H13" s="453"/>
       <c r="I13" s="251" t="s">
         <v>1294</v>
       </c>
@@ -17117,11 +17117,11 @@
       </c>
     </row>
     <row r="14" spans="4:12" ht="33" customHeight="1" thickBot="1">
-      <c r="D14" s="458" t="s">
+      <c r="D14" s="456" t="s">
         <v>1296</v>
       </c>
-      <c r="E14" s="458"/>
-      <c r="F14" s="458"/>
+      <c r="E14" s="456"/>
+      <c r="F14" s="456"/>
       <c r="G14" s="253" t="s">
         <v>1297</v>
       </c>
@@ -17139,20 +17139,20 @@
     </row>
     <row r="16" spans="4:12" ht="15.75" thickBot="1"/>
     <row r="17" spans="4:10" ht="18.75">
-      <c r="G17" s="452" t="s">
+      <c r="G17" s="450" t="s">
         <v>1298</v>
       </c>
-      <c r="H17" s="454" t="s">
+      <c r="H17" s="452" t="s">
         <v>1292</v>
       </c>
-      <c r="I17" s="456" t="s">
+      <c r="I17" s="454" t="s">
         <v>1293</v>
       </c>
-      <c r="J17" s="457"/>
+      <c r="J17" s="455"/>
     </row>
     <row r="18" spans="4:10" ht="18.75">
-      <c r="G18" s="453"/>
-      <c r="H18" s="455"/>
+      <c r="G18" s="451"/>
+      <c r="H18" s="453"/>
       <c r="I18" s="251" t="s">
         <v>1294</v>
       </c>
@@ -17161,11 +17161,11 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="33" customHeight="1" thickBot="1">
-      <c r="D19" s="458" t="s">
+      <c r="D19" s="456" t="s">
         <v>1296</v>
       </c>
-      <c r="E19" s="458"/>
-      <c r="F19" s="458"/>
+      <c r="E19" s="456"/>
+      <c r="F19" s="456"/>
       <c r="G19" s="253" t="s">
         <v>1299</v>
       </c>
@@ -17183,20 +17183,20 @@
     </row>
     <row r="21" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="22" spans="4:10" ht="18.75">
-      <c r="G22" s="463" t="s">
+      <c r="G22" s="457" t="s">
         <v>1300</v>
       </c>
-      <c r="H22" s="454" t="s">
+      <c r="H22" s="452" t="s">
         <v>1292</v>
       </c>
-      <c r="I22" s="456" t="s">
+      <c r="I22" s="454" t="s">
         <v>1293</v>
       </c>
-      <c r="J22" s="457"/>
+      <c r="J22" s="455"/>
     </row>
     <row r="23" spans="4:10" ht="18.75">
-      <c r="G23" s="464"/>
-      <c r="H23" s="455"/>
+      <c r="G23" s="458"/>
+      <c r="H23" s="453"/>
       <c r="I23" s="251" t="s">
         <v>1294</v>
       </c>
@@ -17205,11 +17205,11 @@
       </c>
     </row>
     <row r="24" spans="4:10" ht="32.1" customHeight="1">
-      <c r="D24" s="458" t="s">
+      <c r="D24" s="456" t="s">
         <v>1296</v>
       </c>
-      <c r="E24" s="458"/>
-      <c r="F24" s="458"/>
+      <c r="E24" s="456"/>
+      <c r="F24" s="456"/>
       <c r="G24" s="254" t="s">
         <v>1301</v>
       </c>
@@ -17264,20 +17264,20 @@
     </row>
     <row r="29" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="30" spans="4:10" ht="18.75">
-      <c r="G30" s="465" t="s">
+      <c r="G30" s="459" t="s">
         <v>1304</v>
       </c>
-      <c r="H30" s="467" t="s">
+      <c r="H30" s="461" t="s">
         <v>1305</v>
       </c>
-      <c r="I30" s="469" t="s">
+      <c r="I30" s="463" t="s">
         <v>1306</v>
       </c>
-      <c r="J30" s="470"/>
+      <c r="J30" s="464"/>
     </row>
     <row r="31" spans="4:10" ht="18.75">
-      <c r="G31" s="466"/>
-      <c r="H31" s="468"/>
+      <c r="G31" s="460"/>
+      <c r="H31" s="462"/>
       <c r="I31" s="258" t="s">
         <v>1288</v>
       </c>
@@ -17286,11 +17286,11 @@
       </c>
     </row>
     <row r="32" spans="4:10" ht="35.1" customHeight="1" thickBot="1">
-      <c r="D32" s="458" t="s">
+      <c r="D32" s="456" t="s">
         <v>1307</v>
       </c>
-      <c r="E32" s="458"/>
-      <c r="F32" s="458"/>
+      <c r="E32" s="456"/>
+      <c r="F32" s="456"/>
       <c r="G32" s="260" t="s">
         <v>1301</v>
       </c>
@@ -17308,6 +17308,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:J17"/>
@@ -17320,16 +17330,6 @@
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19078,17 +19078,17 @@
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" thickBot="1">
       <c r="A1" s="304"/>
-      <c r="B1" s="437" t="s">
+      <c r="B1" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="438"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="438"/>
-      <c r="F1" s="439"/>
-      <c r="G1" s="440" t="s">
+      <c r="C1" s="405"/>
+      <c r="D1" s="405"/>
+      <c r="E1" s="405"/>
+      <c r="F1" s="406"/>
+      <c r="G1" s="407" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="441"/>
+      <c r="H1" s="408"/>
     </row>
     <row r="2" spans="1:40" ht="17.25" thickBot="1">
       <c r="A2" s="307" t="s">
@@ -19109,11 +19109,11 @@
       <c r="F2" s="309" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="442">
+      <c r="G2" s="409">
         <f ca="1">TODAY()-A13</f>
         <v>1116</v>
       </c>
-      <c r="H2" s="443"/>
+      <c r="H2" s="410"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
       <c r="A3" s="310">
@@ -19140,10 +19140,10 @@
         <f>'whobor-touna'!L3</f>
         <v>20849.739999999998</v>
       </c>
-      <c r="G3" s="440" t="s">
+      <c r="G3" s="407" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="441"/>
+      <c r="H3" s="408"/>
     </row>
     <row r="4" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="315"/>
@@ -19164,11 +19164,11 @@
         <f>F3/$B$3</f>
         <v>1.5308597043787142E-2</v>
       </c>
-      <c r="G4" s="435">
+      <c r="G4" s="411">
         <f ca="1">A6/G2</f>
         <v>201.68989141577043</v>
       </c>
-      <c r="H4" s="436"/>
+      <c r="H4" s="412"/>
     </row>
     <row r="5" spans="1:40" ht="17.25" thickBot="1">
       <c r="A5" s="318" t="s">
@@ -19189,10 +19189,10 @@
       <c r="F5" s="322" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="432" t="s">
+      <c r="G5" s="418" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="433"/>
+      <c r="H5" s="419"/>
     </row>
     <row r="6" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="323">
@@ -19219,205 +19219,205 @@
         <f>D6-E6</f>
         <v>1822693.9888200001</v>
       </c>
-      <c r="G6" s="435">
+      <c r="G6" s="411">
         <f ca="1">G4*30</f>
         <v>6050.6967424731129</v>
       </c>
-      <c r="H6" s="436"/>
+      <c r="H6" s="412"/>
     </row>
     <row r="7" spans="1:40" s="330" customFormat="1" ht="20.25">
       <c r="A7" s="329"/>
-      <c r="B7" s="429" t="s">
+      <c r="B7" s="431" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="427"/>
-      <c r="D7" s="427"/>
-      <c r="E7" s="428"/>
-      <c r="F7" s="430"/>
-      <c r="G7" s="426" t="s">
+      <c r="C7" s="429"/>
+      <c r="D7" s="429"/>
+      <c r="E7" s="430"/>
+      <c r="F7" s="432"/>
+      <c r="G7" s="428" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="427"/>
-      <c r="I7" s="427"/>
-      <c r="J7" s="428"/>
-      <c r="K7" s="428"/>
-      <c r="L7" s="420" t="s">
+      <c r="H7" s="429"/>
+      <c r="I7" s="429"/>
+      <c r="J7" s="430"/>
+      <c r="K7" s="430"/>
+      <c r="L7" s="424" t="s">
         <v>1275</v>
       </c>
-      <c r="M7" s="421"/>
-      <c r="N7" s="421"/>
-      <c r="O7" s="421"/>
-      <c r="P7" s="421"/>
-      <c r="Q7" s="422"/>
-      <c r="R7" s="421" t="s">
+      <c r="M7" s="420"/>
+      <c r="N7" s="420"/>
+      <c r="O7" s="420"/>
+      <c r="P7" s="420"/>
+      <c r="Q7" s="425"/>
+      <c r="R7" s="420" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="421"/>
-      <c r="T7" s="421"/>
-      <c r="U7" s="421"/>
-      <c r="V7" s="421"/>
-      <c r="W7" s="421"/>
-      <c r="X7" s="420" t="s">
+      <c r="S7" s="420"/>
+      <c r="T7" s="420"/>
+      <c r="U7" s="420"/>
+      <c r="V7" s="420"/>
+      <c r="W7" s="420"/>
+      <c r="X7" s="424" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="421"/>
-      <c r="Z7" s="421"/>
-      <c r="AA7" s="421"/>
-      <c r="AB7" s="421"/>
-      <c r="AC7" s="422"/>
+      <c r="Y7" s="420"/>
+      <c r="Z7" s="420"/>
+      <c r="AA7" s="420"/>
+      <c r="AB7" s="420"/>
+      <c r="AC7" s="425"/>
     </row>
     <row r="8" spans="1:40" s="330" customFormat="1" ht="16.5">
       <c r="A8" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="423" t="s">
+      <c r="B8" s="426" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="424"/>
-      <c r="D8" s="424"/>
-      <c r="E8" s="424"/>
-      <c r="F8" s="425"/>
-      <c r="G8" s="424" t="s">
+      <c r="C8" s="421"/>
+      <c r="D8" s="421"/>
+      <c r="E8" s="421"/>
+      <c r="F8" s="427"/>
+      <c r="G8" s="421" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="424"/>
-      <c r="I8" s="424"/>
-      <c r="J8" s="424"/>
-      <c r="K8" s="424"/>
-      <c r="L8" s="423" t="s">
+      <c r="H8" s="421"/>
+      <c r="I8" s="421"/>
+      <c r="J8" s="421"/>
+      <c r="K8" s="421"/>
+      <c r="L8" s="426" t="s">
         <v>1276</v>
       </c>
-      <c r="M8" s="424"/>
-      <c r="N8" s="424"/>
-      <c r="O8" s="424"/>
-      <c r="P8" s="424"/>
-      <c r="Q8" s="425"/>
-      <c r="R8" s="424" t="s">
+      <c r="M8" s="421"/>
+      <c r="N8" s="421"/>
+      <c r="O8" s="421"/>
+      <c r="P8" s="421"/>
+      <c r="Q8" s="427"/>
+      <c r="R8" s="421" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="424"/>
-      <c r="T8" s="424"/>
-      <c r="U8" s="424"/>
-      <c r="V8" s="424"/>
-      <c r="W8" s="424"/>
-      <c r="X8" s="423" t="s">
+      <c r="S8" s="421"/>
+      <c r="T8" s="421"/>
+      <c r="U8" s="421"/>
+      <c r="V8" s="421"/>
+      <c r="W8" s="421"/>
+      <c r="X8" s="426" t="s">
         <v>196</v>
       </c>
-      <c r="Y8" s="424"/>
-      <c r="Z8" s="424"/>
-      <c r="AA8" s="424"/>
-      <c r="AB8" s="424"/>
-      <c r="AC8" s="425"/>
+      <c r="Y8" s="421"/>
+      <c r="Z8" s="421"/>
+      <c r="AA8" s="421"/>
+      <c r="AB8" s="421"/>
+      <c r="AC8" s="427"/>
       <c r="AK8" s="332"/>
     </row>
     <row r="9" spans="1:40" s="330" customFormat="1" ht="16.5">
       <c r="A9" s="331" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="408" t="s">
+      <c r="B9" s="415" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="409"/>
-      <c r="D9" s="408" t="s">
+      <c r="C9" s="414"/>
+      <c r="D9" s="415" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="413"/>
-      <c r="F9" s="419"/>
-      <c r="G9" s="431" t="s">
+      <c r="E9" s="416"/>
+      <c r="F9" s="443"/>
+      <c r="G9" s="413" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="409"/>
-      <c r="I9" s="408" t="s">
+      <c r="H9" s="414"/>
+      <c r="I9" s="415" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="413"/>
-      <c r="K9" s="412"/>
-      <c r="L9" s="406" t="s">
+      <c r="J9" s="416"/>
+      <c r="K9" s="417"/>
+      <c r="L9" s="435" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="407"/>
-      <c r="N9" s="412" t="s">
+      <c r="M9" s="423"/>
+      <c r="N9" s="417" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="413"/>
-      <c r="P9" s="413"/>
-      <c r="Q9" s="414"/>
-      <c r="R9" s="434" t="s">
+      <c r="O9" s="416"/>
+      <c r="P9" s="416"/>
+      <c r="Q9" s="438"/>
+      <c r="R9" s="422" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="407"/>
-      <c r="T9" s="412" t="s">
+      <c r="S9" s="423"/>
+      <c r="T9" s="417" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="413"/>
-      <c r="V9" s="413"/>
-      <c r="W9" s="413"/>
-      <c r="X9" s="406" t="s">
+      <c r="U9" s="416"/>
+      <c r="V9" s="416"/>
+      <c r="W9" s="416"/>
+      <c r="X9" s="435" t="s">
         <v>49</v>
       </c>
-      <c r="Y9" s="407"/>
-      <c r="Z9" s="412" t="s">
+      <c r="Y9" s="423"/>
+      <c r="Z9" s="417" t="s">
         <v>50</v>
       </c>
-      <c r="AA9" s="413"/>
-      <c r="AB9" s="413"/>
-      <c r="AC9" s="414"/>
+      <c r="AA9" s="416"/>
+      <c r="AB9" s="416"/>
+      <c r="AC9" s="438"/>
     </row>
     <row r="10" spans="1:40" ht="15.75" customHeight="1">
       <c r="A10" s="333" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="404" t="s">
+      <c r="B10" s="433" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="405"/>
-      <c r="D10" s="416">
+      <c r="C10" s="434"/>
+      <c r="D10" s="440">
         <f>'whobor-touna'!G3/$B$3</f>
         <v>0.3861106502158409</v>
       </c>
-      <c r="E10" s="410"/>
-      <c r="F10" s="411"/>
-      <c r="G10" s="415" t="s">
+      <c r="E10" s="436"/>
+      <c r="F10" s="437"/>
+      <c r="G10" s="439" t="s">
         <v>283</v>
       </c>
-      <c r="H10" s="405"/>
-      <c r="I10" s="416">
+      <c r="H10" s="434"/>
+      <c r="I10" s="440">
         <f>'thmei-touna'!G3/$B$3</f>
         <v>0.55258928433890697</v>
       </c>
-      <c r="J10" s="410"/>
-      <c r="K10" s="410"/>
-      <c r="L10" s="417" t="s">
+      <c r="J10" s="436"/>
+      <c r="K10" s="436"/>
+      <c r="L10" s="441" t="s">
         <v>283</v>
       </c>
-      <c r="M10" s="418"/>
-      <c r="N10" s="410">
+      <c r="M10" s="442"/>
+      <c r="N10" s="436">
         <f>宜人贷!T2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="O10" s="410"/>
-      <c r="P10" s="410"/>
-      <c r="Q10" s="411"/>
-      <c r="R10" s="418"/>
-      <c r="S10" s="418"/>
-      <c r="T10" s="410">
+      <c r="O10" s="436"/>
+      <c r="P10" s="436"/>
+      <c r="Q10" s="437"/>
+      <c r="R10" s="442"/>
+      <c r="S10" s="442"/>
+      <c r="T10" s="436">
         <f>宜人贷!Z2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="U10" s="410"/>
-      <c r="V10" s="410"/>
-      <c r="W10" s="410"/>
-      <c r="X10" s="417">
+      <c r="U10" s="436"/>
+      <c r="V10" s="436"/>
+      <c r="W10" s="436"/>
+      <c r="X10" s="441">
         <v>830106</v>
       </c>
-      <c r="Y10" s="418"/>
-      <c r="Z10" s="410">
+      <c r="Y10" s="442"/>
+      <c r="Z10" s="436">
         <f>'whobor-wzd'!L2/$B$3</f>
         <v>3.9235681925590307E-2</v>
       </c>
-      <c r="AA10" s="410"/>
-      <c r="AB10" s="410"/>
-      <c r="AC10" s="411"/>
+      <c r="AA10" s="436"/>
+      <c r="AB10" s="436"/>
+      <c r="AC10" s="437"/>
     </row>
     <row r="11" spans="1:40" ht="28.5" customHeight="1">
       <c r="A11" s="334" t="s">
@@ -36257,27 +36257,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="L7:Q7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B9:C9"/>
@@ -36294,6 +36273,27 @@
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D9:F9"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36307,8 +36307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -42646,7 +42646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P396"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>

--- a/HighRiskInvestment.xlsx
+++ b/HighRiskInvestment.xlsx
@@ -27,7 +27,7 @@
   </externalReferences>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="1404">
   <si>
     <t>Ahu99</t>
   </si>
@@ -5250,9 +5250,6 @@
   </si>
   <si>
     <t>年省心I 7618期</t>
-  </si>
-  <si>
-    <t>短期宝20170304D01</t>
   </si>
   <si>
     <t>年省心Ⅲ1959期</t>
@@ -7920,229 +7917,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="62" fillId="8" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8181,6 +7955,229 @@
     </xf>
     <xf numFmtId="9" fontId="62" fillId="23" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -8236,74 +8233,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8355,9 +8284,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -8387,7 +8314,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>647952.85</c:v>
+                  <c:v>648098.81000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>741023.53999999922</c:v>
@@ -8418,7 +8345,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11471,7 +11397,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:D10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -11562,7 +11488,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -11958,11 +11884,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A1" s="400" t="s">
+      <c r="A1" s="414" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
+      <c r="B1" s="414"/>
+      <c r="C1" s="414"/>
       <c r="D1" s="110">
         <f>SUM(G10:G88)-SUM(L10:L88)</f>
         <v>268</v>
@@ -11975,11 +11901,11 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A2" s="401" t="s">
+      <c r="A2" s="415" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
+      <c r="B2" s="415"/>
+      <c r="C2" s="415"/>
       <c r="D2" s="111">
         <v>29.75</v>
       </c>
@@ -11994,11 +11920,11 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A3" s="401" t="s">
+      <c r="A3" s="415" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="401"/>
-      <c r="C3" s="401"/>
+      <c r="B3" s="415"/>
+      <c r="C3" s="415"/>
       <c r="D3" s="111">
         <f>D1*0.85</f>
         <v>227.79999999999998</v>
@@ -12014,11 +11940,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A4" s="401" t="s">
+      <c r="A4" s="415" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="401"/>
-      <c r="C4" s="401"/>
+      <c r="B4" s="415"/>
+      <c r="C4" s="415"/>
       <c r="D4" s="112">
         <f>([1]Sheet2!B64)/100</f>
         <v>6.1073000000000004</v>
@@ -12028,11 +11954,11 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="396" t="s">
+      <c r="A5" s="413" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="396"/>
-      <c r="C5" s="396"/>
+      <c r="B5" s="413"/>
+      <c r="C5" s="413"/>
       <c r="D5" s="113">
         <f>SUM(D10:D88)+SUM(H10:H88)</f>
         <v>76568.666499999992</v>
@@ -12042,11 +11968,11 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A6" s="396" t="s">
+      <c r="A6" s="413" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="396"/>
-      <c r="C6" s="396"/>
+      <c r="B6" s="413"/>
+      <c r="C6" s="413"/>
       <c r="D6" s="114">
         <f>SUM(Q10:Q88)</f>
         <v>48178.589949999994</v>
@@ -12060,11 +11986,11 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A7" s="396" t="s">
+      <c r="A7" s="413" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="396"/>
-      <c r="C7" s="396"/>
+      <c r="B7" s="413"/>
+      <c r="C7" s="413"/>
       <c r="D7" s="116">
         <f>D6-D5</f>
         <v>-28390.076549999998</v>
@@ -12143,38 +12069,38 @@
       <c r="B10" s="109">
         <v>0</v>
       </c>
-      <c r="C10" s="397">
+      <c r="C10" s="409">
         <v>68.97</v>
       </c>
-      <c r="D10" s="398">
+      <c r="D10" s="410">
         <f>IF(B15&gt;0,SUM(B10:B15)-C10,0)</f>
         <v>10580.78</v>
       </c>
-      <c r="E10" s="397">
+      <c r="E10" s="409">
         <v>6.2854999999999999</v>
       </c>
-      <c r="F10" s="397">
+      <c r="F10" s="409">
         <v>25.3</v>
       </c>
-      <c r="G10" s="399">
+      <c r="G10" s="411">
         <v>79</v>
       </c>
       <c r="H10" s="120">
         <f t="shared" ref="H10:H15" si="0">R16*0.2</f>
         <v>62.814</v>
       </c>
-      <c r="I10" s="402">
+      <c r="I10" s="412">
         <f>IF($K$28&gt;F10,G10*($K$28-F10)*0.2,0)</f>
         <v>70.309999999999988</v>
       </c>
-      <c r="J10" s="402"/>
-      <c r="K10" s="402"/>
-      <c r="L10" s="402"/>
-      <c r="M10" s="402"/>
-      <c r="N10" s="402"/>
-      <c r="O10" s="402"/>
-      <c r="P10" s="402"/>
-      <c r="Q10" s="402"/>
+      <c r="J10" s="412"/>
+      <c r="K10" s="412"/>
+      <c r="L10" s="412"/>
+      <c r="M10" s="412"/>
+      <c r="N10" s="412"/>
+      <c r="O10" s="412"/>
+      <c r="P10" s="412"/>
+      <c r="Q10" s="412"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
@@ -12183,26 +12109,26 @@
       <c r="B11" s="109">
         <v>3400.95</v>
       </c>
-      <c r="C11" s="397">
+      <c r="C11" s="409">
         <v>3400.95</v>
       </c>
-      <c r="D11" s="398"/>
-      <c r="E11" s="397"/>
-      <c r="F11" s="397"/>
-      <c r="G11" s="399"/>
+      <c r="D11" s="410"/>
+      <c r="E11" s="409"/>
+      <c r="F11" s="409"/>
+      <c r="G11" s="411"/>
       <c r="H11" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I11" s="402"/>
-      <c r="J11" s="402"/>
-      <c r="K11" s="402"/>
-      <c r="L11" s="402"/>
-      <c r="M11" s="402"/>
-      <c r="N11" s="402"/>
-      <c r="O11" s="402"/>
-      <c r="P11" s="402"/>
-      <c r="Q11" s="402"/>
+      <c r="I11" s="412"/>
+      <c r="J11" s="412"/>
+      <c r="K11" s="412"/>
+      <c r="L11" s="412"/>
+      <c r="M11" s="412"/>
+      <c r="N11" s="412"/>
+      <c r="O11" s="412"/>
+      <c r="P11" s="412"/>
+      <c r="Q11" s="412"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1">
@@ -12211,26 +12137,26 @@
       <c r="B12" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C12" s="397">
+      <c r="C12" s="409">
         <v>1706.25</v>
       </c>
-      <c r="D12" s="398"/>
-      <c r="E12" s="397"/>
-      <c r="F12" s="397"/>
-      <c r="G12" s="399"/>
+      <c r="D12" s="410"/>
+      <c r="E12" s="409"/>
+      <c r="F12" s="409"/>
+      <c r="G12" s="411"/>
       <c r="H12" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I12" s="402"/>
-      <c r="J12" s="402"/>
-      <c r="K12" s="402"/>
-      <c r="L12" s="402"/>
-      <c r="M12" s="402"/>
-      <c r="N12" s="402"/>
-      <c r="O12" s="402"/>
-      <c r="P12" s="402"/>
-      <c r="Q12" s="402"/>
+      <c r="I12" s="412"/>
+      <c r="J12" s="412"/>
+      <c r="K12" s="412"/>
+      <c r="L12" s="412"/>
+      <c r="M12" s="412"/>
+      <c r="N12" s="412"/>
+      <c r="O12" s="412"/>
+      <c r="P12" s="412"/>
+      <c r="Q12" s="412"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1">
@@ -12239,26 +12165,26 @@
       <c r="B13" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C13" s="397">
+      <c r="C13" s="409">
         <v>1706.25</v>
       </c>
-      <c r="D13" s="398"/>
-      <c r="E13" s="397"/>
-      <c r="F13" s="397"/>
-      <c r="G13" s="399"/>
+      <c r="D13" s="410"/>
+      <c r="E13" s="409"/>
+      <c r="F13" s="409"/>
+      <c r="G13" s="411"/>
       <c r="H13" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I13" s="402"/>
-      <c r="J13" s="402"/>
-      <c r="K13" s="402"/>
-      <c r="L13" s="402"/>
-      <c r="M13" s="402"/>
-      <c r="N13" s="402"/>
-      <c r="O13" s="402"/>
-      <c r="P13" s="402"/>
-      <c r="Q13" s="402"/>
+      <c r="I13" s="412"/>
+      <c r="J13" s="412"/>
+      <c r="K13" s="412"/>
+      <c r="L13" s="412"/>
+      <c r="M13" s="412"/>
+      <c r="N13" s="412"/>
+      <c r="O13" s="412"/>
+      <c r="P13" s="412"/>
+      <c r="Q13" s="412"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1">
@@ -12267,26 +12193,26 @@
       <c r="B14" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C14" s="397">
+      <c r="C14" s="409">
         <v>1918.15</v>
       </c>
-      <c r="D14" s="398"/>
-      <c r="E14" s="397"/>
-      <c r="F14" s="397"/>
-      <c r="G14" s="399"/>
+      <c r="D14" s="410"/>
+      <c r="E14" s="409"/>
+      <c r="F14" s="409"/>
+      <c r="G14" s="411"/>
       <c r="H14" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I14" s="402"/>
-      <c r="J14" s="402"/>
-      <c r="K14" s="402"/>
-      <c r="L14" s="402"/>
-      <c r="M14" s="402"/>
-      <c r="N14" s="402"/>
-      <c r="O14" s="402"/>
-      <c r="P14" s="402"/>
-      <c r="Q14" s="402"/>
+      <c r="I14" s="412"/>
+      <c r="J14" s="412"/>
+      <c r="K14" s="412"/>
+      <c r="L14" s="412"/>
+      <c r="M14" s="412"/>
+      <c r="N14" s="412"/>
+      <c r="O14" s="412"/>
+      <c r="P14" s="412"/>
+      <c r="Q14" s="412"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1">
@@ -12295,26 +12221,26 @@
       <c r="B15" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C15" s="397">
+      <c r="C15" s="409">
         <v>1918.15</v>
       </c>
-      <c r="D15" s="398"/>
-      <c r="E15" s="397"/>
-      <c r="F15" s="397"/>
-      <c r="G15" s="399"/>
+      <c r="D15" s="410"/>
+      <c r="E15" s="409"/>
+      <c r="F15" s="409"/>
+      <c r="G15" s="411"/>
       <c r="H15" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I15" s="402"/>
-      <c r="J15" s="402"/>
-      <c r="K15" s="402"/>
-      <c r="L15" s="402"/>
-      <c r="M15" s="402"/>
-      <c r="N15" s="402"/>
-      <c r="O15" s="402"/>
-      <c r="P15" s="402"/>
-      <c r="Q15" s="402"/>
+      <c r="I15" s="412"/>
+      <c r="J15" s="412"/>
+      <c r="K15" s="412"/>
+      <c r="L15" s="412"/>
+      <c r="M15" s="412"/>
+      <c r="N15" s="412"/>
+      <c r="O15" s="412"/>
+      <c r="P15" s="412"/>
+      <c r="Q15" s="412"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1">
@@ -12323,38 +12249,38 @@
       <c r="B16" s="109">
         <v>1693.15</v>
       </c>
-      <c r="C16" s="397">
+      <c r="C16" s="409">
         <v>48.24</v>
       </c>
-      <c r="D16" s="398">
+      <c r="D16" s="410">
         <f>IF(B21&gt;0,SUM(B16:B21)-C16,0)</f>
         <v>11196.460000000001</v>
       </c>
-      <c r="E16" s="397">
+      <c r="E16" s="409">
         <v>6.1787000000000001</v>
       </c>
-      <c r="F16" s="397">
+      <c r="F16" s="409">
         <v>23.62</v>
       </c>
-      <c r="G16" s="399">
+      <c r="G16" s="411">
         <v>90</v>
       </c>
       <c r="H16" s="120">
         <f>R22*0.25</f>
         <v>81.435000000000002</v>
       </c>
-      <c r="I16" s="402">
+      <c r="I16" s="412">
         <f>IF($K$28&gt;F16,G16*($K$28-F16)*0.2,0)</f>
         <v>110.33999999999999</v>
       </c>
-      <c r="J16" s="402"/>
-      <c r="K16" s="402"/>
-      <c r="L16" s="402"/>
-      <c r="M16" s="402"/>
-      <c r="N16" s="402"/>
-      <c r="O16" s="402"/>
-      <c r="P16" s="402"/>
-      <c r="Q16" s="402"/>
+      <c r="J16" s="412"/>
+      <c r="K16" s="412"/>
+      <c r="L16" s="412"/>
+      <c r="M16" s="412"/>
+      <c r="N16" s="412"/>
+      <c r="O16" s="412"/>
+      <c r="P16" s="412"/>
+      <c r="Q16" s="412"/>
       <c r="R16" s="109">
         <v>314.07</v>
       </c>
@@ -12366,24 +12292,24 @@
       <c r="B17" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C17" s="397"/>
-      <c r="D17" s="398"/>
-      <c r="E17" s="397"/>
-      <c r="F17" s="397"/>
-      <c r="G17" s="399"/>
+      <c r="C17" s="409"/>
+      <c r="D17" s="410"/>
+      <c r="E17" s="409"/>
+      <c r="F17" s="409"/>
+      <c r="G17" s="411"/>
       <c r="H17" s="120">
         <f t="shared" ref="H17:H80" si="1">R23*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I17" s="402"/>
-      <c r="J17" s="402"/>
-      <c r="K17" s="402"/>
-      <c r="L17" s="402"/>
-      <c r="M17" s="402"/>
-      <c r="N17" s="402"/>
-      <c r="O17" s="402"/>
-      <c r="P17" s="402"/>
-      <c r="Q17" s="402"/>
+      <c r="I17" s="412"/>
+      <c r="J17" s="412"/>
+      <c r="K17" s="412"/>
+      <c r="L17" s="412"/>
+      <c r="M17" s="412"/>
+      <c r="N17" s="412"/>
+      <c r="O17" s="412"/>
+      <c r="P17" s="412"/>
+      <c r="Q17" s="412"/>
       <c r="R17" s="109">
         <f>R16</f>
         <v>314.07</v>
@@ -12396,24 +12322,24 @@
       <c r="B18" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C18" s="397"/>
-      <c r="D18" s="398"/>
-      <c r="E18" s="397"/>
-      <c r="F18" s="397"/>
-      <c r="G18" s="399"/>
+      <c r="C18" s="409"/>
+      <c r="D18" s="410"/>
+      <c r="E18" s="409"/>
+      <c r="F18" s="409"/>
+      <c r="G18" s="411"/>
       <c r="H18" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I18" s="402"/>
-      <c r="J18" s="402"/>
-      <c r="K18" s="402"/>
-      <c r="L18" s="402"/>
-      <c r="M18" s="402"/>
-      <c r="N18" s="402"/>
-      <c r="O18" s="402"/>
-      <c r="P18" s="402"/>
-      <c r="Q18" s="402"/>
+      <c r="I18" s="412"/>
+      <c r="J18" s="412"/>
+      <c r="K18" s="412"/>
+      <c r="L18" s="412"/>
+      <c r="M18" s="412"/>
+      <c r="N18" s="412"/>
+      <c r="O18" s="412"/>
+      <c r="P18" s="412"/>
+      <c r="Q18" s="412"/>
       <c r="R18" s="109">
         <f t="shared" ref="R18:R32" si="2">R17</f>
         <v>314.07</v>
@@ -12426,24 +12352,24 @@
       <c r="B19" s="121">
         <v>2196.35</v>
       </c>
-      <c r="C19" s="397"/>
-      <c r="D19" s="398"/>
-      <c r="E19" s="397"/>
-      <c r="F19" s="397"/>
-      <c r="G19" s="399"/>
+      <c r="C19" s="409"/>
+      <c r="D19" s="410"/>
+      <c r="E19" s="409"/>
+      <c r="F19" s="409"/>
+      <c r="G19" s="411"/>
       <c r="H19" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I19" s="402"/>
-      <c r="J19" s="402"/>
-      <c r="K19" s="402"/>
-      <c r="L19" s="402"/>
-      <c r="M19" s="402"/>
-      <c r="N19" s="402"/>
-      <c r="O19" s="402"/>
-      <c r="P19" s="402"/>
-      <c r="Q19" s="402"/>
+      <c r="I19" s="412"/>
+      <c r="J19" s="412"/>
+      <c r="K19" s="412"/>
+      <c r="L19" s="412"/>
+      <c r="M19" s="412"/>
+      <c r="N19" s="412"/>
+      <c r="O19" s="412"/>
+      <c r="P19" s="412"/>
+      <c r="Q19" s="412"/>
       <c r="R19" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12456,24 +12382,24 @@
       <c r="B20" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C20" s="397"/>
-      <c r="D20" s="398"/>
-      <c r="E20" s="397"/>
-      <c r="F20" s="397"/>
-      <c r="G20" s="399"/>
+      <c r="C20" s="409"/>
+      <c r="D20" s="410"/>
+      <c r="E20" s="409"/>
+      <c r="F20" s="409"/>
+      <c r="G20" s="411"/>
       <c r="H20" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I20" s="402"/>
-      <c r="J20" s="402"/>
-      <c r="K20" s="402"/>
-      <c r="L20" s="402"/>
-      <c r="M20" s="402"/>
-      <c r="N20" s="402"/>
-      <c r="O20" s="402"/>
-      <c r="P20" s="402"/>
-      <c r="Q20" s="402"/>
+      <c r="I20" s="412"/>
+      <c r="J20" s="412"/>
+      <c r="K20" s="412"/>
+      <c r="L20" s="412"/>
+      <c r="M20" s="412"/>
+      <c r="N20" s="412"/>
+      <c r="O20" s="412"/>
+      <c r="P20" s="412"/>
+      <c r="Q20" s="412"/>
       <c r="R20" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12486,24 +12412,24 @@
       <c r="B21" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C21" s="397"/>
-      <c r="D21" s="398"/>
-      <c r="E21" s="397"/>
-      <c r="F21" s="397"/>
-      <c r="G21" s="399"/>
+      <c r="C21" s="409"/>
+      <c r="D21" s="410"/>
+      <c r="E21" s="409"/>
+      <c r="F21" s="409"/>
+      <c r="G21" s="411"/>
       <c r="H21" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I21" s="402"/>
-      <c r="J21" s="402"/>
-      <c r="K21" s="402"/>
-      <c r="L21" s="402"/>
-      <c r="M21" s="402"/>
-      <c r="N21" s="402"/>
-      <c r="O21" s="402"/>
-      <c r="P21" s="402"/>
-      <c r="Q21" s="402"/>
+      <c r="I21" s="412"/>
+      <c r="J21" s="412"/>
+      <c r="K21" s="412"/>
+      <c r="L21" s="412"/>
+      <c r="M21" s="412"/>
+      <c r="N21" s="412"/>
+      <c r="O21" s="412"/>
+      <c r="P21" s="412"/>
+      <c r="Q21" s="412"/>
       <c r="R21" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12516,38 +12442,38 @@
       <c r="B22" s="121">
         <v>1958.23</v>
       </c>
-      <c r="C22" s="397">
+      <c r="C22" s="409">
         <v>34.549999999999997</v>
       </c>
-      <c r="D22" s="398">
+      <c r="D22" s="410">
         <f>IF(B27&gt;0,SUM(B22:B27)-C22,0)</f>
         <v>11771.410000000002</v>
       </c>
-      <c r="E22" s="397">
+      <c r="E22" s="409">
         <v>6.1050000000000004</v>
       </c>
-      <c r="F22" s="397">
+      <c r="F22" s="409">
         <v>24.24</v>
       </c>
-      <c r="G22" s="399">
+      <c r="G22" s="411">
         <v>109</v>
       </c>
       <c r="H22" s="120">
         <f>R28*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I22" s="402">
+      <c r="I22" s="412">
         <f>IF($K$28&gt;F22,G22*($K$28-F22)*0.2,0)</f>
         <v>120.11800000000004</v>
       </c>
-      <c r="J22" s="402"/>
-      <c r="K22" s="402"/>
-      <c r="L22" s="402"/>
-      <c r="M22" s="402"/>
-      <c r="N22" s="402"/>
-      <c r="O22" s="402"/>
-      <c r="P22" s="402"/>
-      <c r="Q22" s="402"/>
+      <c r="J22" s="412"/>
+      <c r="K22" s="412"/>
+      <c r="L22" s="412"/>
+      <c r="M22" s="412"/>
+      <c r="N22" s="412"/>
+      <c r="O22" s="412"/>
+      <c r="P22" s="412"/>
+      <c r="Q22" s="412"/>
       <c r="R22" s="109">
         <v>325.74</v>
       </c>
@@ -12559,24 +12485,24 @@
       <c r="B23" s="121">
         <v>1958.24</v>
       </c>
-      <c r="C23" s="397"/>
-      <c r="D23" s="398"/>
-      <c r="E23" s="397"/>
-      <c r="F23" s="397"/>
-      <c r="G23" s="399"/>
+      <c r="C23" s="409"/>
+      <c r="D23" s="410"/>
+      <c r="E23" s="409"/>
+      <c r="F23" s="409"/>
+      <c r="G23" s="411"/>
       <c r="H23" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I23" s="402"/>
-      <c r="J23" s="402"/>
-      <c r="K23" s="402"/>
-      <c r="L23" s="402"/>
-      <c r="M23" s="402"/>
-      <c r="N23" s="402"/>
-      <c r="O23" s="402"/>
-      <c r="P23" s="402"/>
-      <c r="Q23" s="402"/>
+      <c r="I23" s="412"/>
+      <c r="J23" s="412"/>
+      <c r="K23" s="412"/>
+      <c r="L23" s="412"/>
+      <c r="M23" s="412"/>
+      <c r="N23" s="412"/>
+      <c r="O23" s="412"/>
+      <c r="P23" s="412"/>
+      <c r="Q23" s="412"/>
       <c r="R23" s="109">
         <v>271.45</v>
       </c>
@@ -12588,24 +12514,24 @@
       <c r="B24" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C24" s="397"/>
-      <c r="D24" s="398"/>
-      <c r="E24" s="397"/>
-      <c r="F24" s="397"/>
-      <c r="G24" s="399"/>
+      <c r="C24" s="409"/>
+      <c r="D24" s="410"/>
+      <c r="E24" s="409"/>
+      <c r="F24" s="409"/>
+      <c r="G24" s="411"/>
       <c r="H24" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I24" s="402"/>
-      <c r="J24" s="402"/>
-      <c r="K24" s="402"/>
-      <c r="L24" s="402"/>
-      <c r="M24" s="402"/>
-      <c r="N24" s="402"/>
-      <c r="O24" s="402"/>
-      <c r="P24" s="402"/>
-      <c r="Q24" s="402"/>
+      <c r="I24" s="412"/>
+      <c r="J24" s="412"/>
+      <c r="K24" s="412"/>
+      <c r="L24" s="412"/>
+      <c r="M24" s="412"/>
+      <c r="N24" s="412"/>
+      <c r="O24" s="412"/>
+      <c r="P24" s="412"/>
+      <c r="Q24" s="412"/>
       <c r="R24" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12618,24 +12544,24 @@
       <c r="B25" s="121">
         <v>1958.26</v>
       </c>
-      <c r="C25" s="397"/>
-      <c r="D25" s="398"/>
-      <c r="E25" s="397"/>
-      <c r="F25" s="397"/>
-      <c r="G25" s="399"/>
+      <c r="C25" s="409"/>
+      <c r="D25" s="410"/>
+      <c r="E25" s="409"/>
+      <c r="F25" s="409"/>
+      <c r="G25" s="411"/>
       <c r="H25" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I25" s="402"/>
-      <c r="J25" s="402"/>
-      <c r="K25" s="402"/>
-      <c r="L25" s="402"/>
-      <c r="M25" s="402"/>
-      <c r="N25" s="402"/>
-      <c r="O25" s="402"/>
-      <c r="P25" s="402"/>
-      <c r="Q25" s="402"/>
+      <c r="I25" s="412"/>
+      <c r="J25" s="412"/>
+      <c r="K25" s="412"/>
+      <c r="L25" s="412"/>
+      <c r="M25" s="412"/>
+      <c r="N25" s="412"/>
+      <c r="O25" s="412"/>
+      <c r="P25" s="412"/>
+      <c r="Q25" s="412"/>
       <c r="R25" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12648,24 +12574,24 @@
       <c r="B26" s="121">
         <v>2031.49</v>
       </c>
-      <c r="C26" s="397"/>
-      <c r="D26" s="398"/>
-      <c r="E26" s="397"/>
-      <c r="F26" s="397"/>
-      <c r="G26" s="399"/>
+      <c r="C26" s="409"/>
+      <c r="D26" s="410"/>
+      <c r="E26" s="409"/>
+      <c r="F26" s="409"/>
+      <c r="G26" s="411"/>
       <c r="H26" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I26" s="402"/>
-      <c r="J26" s="402"/>
-      <c r="K26" s="402"/>
-      <c r="L26" s="402"/>
-      <c r="M26" s="402"/>
-      <c r="N26" s="402"/>
-      <c r="O26" s="402"/>
-      <c r="P26" s="402"/>
-      <c r="Q26" s="402"/>
+      <c r="I26" s="412"/>
+      <c r="J26" s="412"/>
+      <c r="K26" s="412"/>
+      <c r="L26" s="412"/>
+      <c r="M26" s="412"/>
+      <c r="N26" s="412"/>
+      <c r="O26" s="412"/>
+      <c r="P26" s="412"/>
+      <c r="Q26" s="412"/>
       <c r="R26" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12678,24 +12604,24 @@
       <c r="B27" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C27" s="397"/>
-      <c r="D27" s="398"/>
-      <c r="E27" s="397"/>
-      <c r="F27" s="397"/>
-      <c r="G27" s="399"/>
+      <c r="C27" s="409"/>
+      <c r="D27" s="410"/>
+      <c r="E27" s="409"/>
+      <c r="F27" s="409"/>
+      <c r="G27" s="411"/>
       <c r="H27" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I27" s="402"/>
-      <c r="J27" s="402"/>
-      <c r="K27" s="402"/>
-      <c r="L27" s="402"/>
-      <c r="M27" s="402"/>
-      <c r="N27" s="402"/>
-      <c r="O27" s="402"/>
-      <c r="P27" s="402"/>
-      <c r="Q27" s="402"/>
+      <c r="I27" s="412"/>
+      <c r="J27" s="412"/>
+      <c r="K27" s="412"/>
+      <c r="L27" s="412"/>
+      <c r="M27" s="412"/>
+      <c r="N27" s="412"/>
+      <c r="O27" s="412"/>
+      <c r="P27" s="412"/>
+      <c r="Q27" s="412"/>
       <c r="R27" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12708,54 +12634,54 @@
       <c r="B28" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C28" s="397">
+      <c r="C28" s="409">
         <v>22.25</v>
       </c>
-      <c r="D28" s="398">
+      <c r="D28" s="410">
         <f>IF(G28&gt;0,SUM(B28:B34)-C28,0)</f>
         <v>14106.8</v>
       </c>
-      <c r="E28" s="397">
+      <c r="E28" s="409">
         <v>6.1675000000000004</v>
       </c>
-      <c r="F28" s="397">
+      <c r="F28" s="409">
         <v>29.3</v>
       </c>
-      <c r="G28" s="399">
+      <c r="G28" s="411">
         <v>79</v>
       </c>
       <c r="H28" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I28" s="402">
+      <c r="I28" s="412">
         <f>IF($D$2&gt;F28,G28*($D$2-F28)*0.2,0)</f>
         <v>7.1099999999999888</v>
       </c>
-      <c r="J28" s="402">
+      <c r="J28" s="412">
         <f>SUM(I10:I27)</f>
         <v>300.76800000000003</v>
       </c>
-      <c r="K28" s="402">
+      <c r="K28" s="412">
         <v>29.75</v>
       </c>
-      <c r="L28" s="402">
+      <c r="L28" s="412">
         <v>278</v>
       </c>
-      <c r="M28" s="402">
+      <c r="M28" s="412">
         <f>IF(IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005)&gt;25,IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005),25)</f>
         <v>41.352499999999999</v>
       </c>
-      <c r="N28" s="402">
+      <c r="N28" s="412">
         <v>5.25</v>
       </c>
-      <c r="O28" s="402">
-        <v>0</v>
-      </c>
-      <c r="P28" s="402">
+      <c r="O28" s="412">
+        <v>0</v>
+      </c>
+      <c r="P28" s="412">
         <v>25</v>
       </c>
-      <c r="Q28" s="402">
+      <c r="Q28" s="412">
         <f>(K28*L28-J28-M28-N28-O28-P28)*S34</f>
         <v>48178.589949999994</v>
       </c>
@@ -12771,24 +12697,24 @@
       <c r="B29" s="121">
         <v>2445.75</v>
       </c>
-      <c r="C29" s="397"/>
-      <c r="D29" s="398"/>
-      <c r="E29" s="397"/>
-      <c r="F29" s="397"/>
-      <c r="G29" s="399"/>
+      <c r="C29" s="409"/>
+      <c r="D29" s="410"/>
+      <c r="E29" s="409"/>
+      <c r="F29" s="409"/>
+      <c r="G29" s="411"/>
       <c r="H29" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I29" s="402"/>
-      <c r="J29" s="402"/>
-      <c r="K29" s="402"/>
-      <c r="L29" s="402"/>
-      <c r="M29" s="402"/>
-      <c r="N29" s="402"/>
-      <c r="O29" s="402"/>
-      <c r="P29" s="402"/>
-      <c r="Q29" s="402"/>
+      <c r="I29" s="412"/>
+      <c r="J29" s="412"/>
+      <c r="K29" s="412"/>
+      <c r="L29" s="412"/>
+      <c r="M29" s="412"/>
+      <c r="N29" s="412"/>
+      <c r="O29" s="412"/>
+      <c r="P29" s="412"/>
+      <c r="Q29" s="412"/>
       <c r="R29" s="109">
         <v>400.35</v>
       </c>
@@ -12800,24 +12726,24 @@
       <c r="B30" s="121">
         <v>1917.03</v>
       </c>
-      <c r="C30" s="397"/>
-      <c r="D30" s="398"/>
-      <c r="E30" s="397"/>
-      <c r="F30" s="397"/>
-      <c r="G30" s="399"/>
+      <c r="C30" s="409"/>
+      <c r="D30" s="410"/>
+      <c r="E30" s="409"/>
+      <c r="F30" s="409"/>
+      <c r="G30" s="411"/>
       <c r="H30" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I30" s="402"/>
-      <c r="J30" s="402"/>
-      <c r="K30" s="402"/>
-      <c r="L30" s="402"/>
-      <c r="M30" s="402"/>
-      <c r="N30" s="402"/>
-      <c r="O30" s="402"/>
-      <c r="P30" s="402"/>
-      <c r="Q30" s="402"/>
+      <c r="I30" s="412"/>
+      <c r="J30" s="412"/>
+      <c r="K30" s="412"/>
+      <c r="L30" s="412"/>
+      <c r="M30" s="412"/>
+      <c r="N30" s="412"/>
+      <c r="O30" s="412"/>
+      <c r="P30" s="412"/>
+      <c r="Q30" s="412"/>
       <c r="R30" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12830,24 +12756,24 @@
       <c r="B31" s="121">
         <v>1827.02</v>
       </c>
-      <c r="C31" s="397"/>
-      <c r="D31" s="398"/>
-      <c r="E31" s="397"/>
-      <c r="F31" s="397"/>
-      <c r="G31" s="399"/>
+      <c r="C31" s="409"/>
+      <c r="D31" s="410"/>
+      <c r="E31" s="409"/>
+      <c r="F31" s="409"/>
+      <c r="G31" s="411"/>
       <c r="H31" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I31" s="402"/>
-      <c r="J31" s="402"/>
-      <c r="K31" s="402"/>
-      <c r="L31" s="402"/>
-      <c r="M31" s="402"/>
-      <c r="N31" s="402"/>
-      <c r="O31" s="402"/>
-      <c r="P31" s="402"/>
-      <c r="Q31" s="402"/>
+      <c r="I31" s="412"/>
+      <c r="J31" s="412"/>
+      <c r="K31" s="412"/>
+      <c r="L31" s="412"/>
+      <c r="M31" s="412"/>
+      <c r="N31" s="412"/>
+      <c r="O31" s="412"/>
+      <c r="P31" s="412"/>
+      <c r="Q31" s="412"/>
       <c r="R31" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12860,24 +12786,24 @@
       <c r="B32" s="121">
         <v>1958.22</v>
       </c>
-      <c r="C32" s="397"/>
-      <c r="D32" s="398"/>
-      <c r="E32" s="397"/>
-      <c r="F32" s="397"/>
-      <c r="G32" s="399"/>
+      <c r="C32" s="409"/>
+      <c r="D32" s="410"/>
+      <c r="E32" s="409"/>
+      <c r="F32" s="409"/>
+      <c r="G32" s="411"/>
       <c r="H32" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I32" s="402"/>
-      <c r="J32" s="402"/>
-      <c r="K32" s="402"/>
-      <c r="L32" s="402"/>
-      <c r="M32" s="402"/>
-      <c r="N32" s="402"/>
-      <c r="O32" s="402"/>
-      <c r="P32" s="402"/>
-      <c r="Q32" s="402"/>
+      <c r="I32" s="412"/>
+      <c r="J32" s="412"/>
+      <c r="K32" s="412"/>
+      <c r="L32" s="412"/>
+      <c r="M32" s="412"/>
+      <c r="N32" s="412"/>
+      <c r="O32" s="412"/>
+      <c r="P32" s="412"/>
+      <c r="Q32" s="412"/>
       <c r="R32" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12890,24 +12816,24 @@
       <c r="B33" s="121">
         <v>1958.28</v>
       </c>
-      <c r="C33" s="397"/>
-      <c r="D33" s="398"/>
-      <c r="E33" s="397"/>
-      <c r="F33" s="397"/>
-      <c r="G33" s="399"/>
+      <c r="C33" s="409"/>
+      <c r="D33" s="410"/>
+      <c r="E33" s="409"/>
+      <c r="F33" s="409"/>
+      <c r="G33" s="411"/>
       <c r="H33" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I33" s="402"/>
-      <c r="J33" s="402"/>
-      <c r="K33" s="402"/>
-      <c r="L33" s="402"/>
-      <c r="M33" s="402"/>
-      <c r="N33" s="402"/>
-      <c r="O33" s="402"/>
-      <c r="P33" s="402"/>
-      <c r="Q33" s="402"/>
+      <c r="I33" s="412"/>
+      <c r="J33" s="412"/>
+      <c r="K33" s="412"/>
+      <c r="L33" s="412"/>
+      <c r="M33" s="412"/>
+      <c r="N33" s="412"/>
+      <c r="O33" s="412"/>
+      <c r="P33" s="412"/>
+      <c r="Q33" s="412"/>
       <c r="R33" s="109">
         <f>R30</f>
         <v>400.35</v>
@@ -12920,24 +12846,24 @@
       <c r="B34" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C34" s="397"/>
-      <c r="D34" s="398"/>
-      <c r="E34" s="397"/>
-      <c r="F34" s="397"/>
-      <c r="G34" s="399"/>
+      <c r="C34" s="409"/>
+      <c r="D34" s="410"/>
+      <c r="E34" s="409"/>
+      <c r="F34" s="409"/>
+      <c r="G34" s="411"/>
       <c r="H34" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I34" s="402"/>
-      <c r="J34" s="402"/>
-      <c r="K34" s="402"/>
-      <c r="L34" s="402"/>
-      <c r="M34" s="402"/>
-      <c r="N34" s="402"/>
-      <c r="O34" s="402"/>
-      <c r="P34" s="402"/>
-      <c r="Q34" s="402"/>
+      <c r="I34" s="412"/>
+      <c r="J34" s="412"/>
+      <c r="K34" s="412"/>
+      <c r="L34" s="412"/>
+      <c r="M34" s="412"/>
+      <c r="N34" s="412"/>
+      <c r="O34" s="412"/>
+      <c r="P34" s="412"/>
+      <c r="Q34" s="412"/>
       <c r="R34" s="109">
         <f>R32</f>
         <v>400.35</v>
@@ -12953,38 +12879,38 @@
       <c r="B35" s="121">
         <v>2171.2600000000002</v>
       </c>
-      <c r="C35" s="397">
+      <c r="C35" s="409">
         <v>30.19</v>
       </c>
-      <c r="D35" s="398">
+      <c r="D35" s="410">
         <f>IF(B40&gt;0,SUM(B35:B40)-C35,0)</f>
         <v>13016.160000000002</v>
       </c>
-      <c r="E35" s="397">
+      <c r="E35" s="409">
         <v>6.1369999999999996</v>
       </c>
-      <c r="F35" s="397">
+      <c r="F35" s="409">
         <v>25.93</v>
       </c>
-      <c r="G35" s="399">
+      <c r="G35" s="411">
         <v>96</v>
       </c>
       <c r="H35" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I35" s="402">
+      <c r="I35" s="412">
         <f>IF($D$2&gt;F35,G35*($D$2-F35)*0.2,0)</f>
         <v>73.344000000000008</v>
       </c>
-      <c r="J35" s="402"/>
-      <c r="K35" s="402"/>
-      <c r="L35" s="402"/>
-      <c r="M35" s="402"/>
-      <c r="N35" s="402"/>
-      <c r="O35" s="402"/>
-      <c r="P35" s="402"/>
-      <c r="Q35" s="402"/>
+      <c r="J35" s="412"/>
+      <c r="K35" s="412"/>
+      <c r="L35" s="412"/>
+      <c r="M35" s="412"/>
+      <c r="N35" s="412"/>
+      <c r="O35" s="412"/>
+      <c r="P35" s="412"/>
+      <c r="Q35" s="412"/>
       <c r="R35" s="109">
         <v>358.55</v>
       </c>
@@ -12996,24 +12922,24 @@
       <c r="B36" s="121">
         <v>2081.27</v>
       </c>
-      <c r="C36" s="397"/>
-      <c r="D36" s="398"/>
-      <c r="E36" s="397"/>
-      <c r="F36" s="397"/>
-      <c r="G36" s="399"/>
+      <c r="C36" s="409"/>
+      <c r="D36" s="410"/>
+      <c r="E36" s="409"/>
+      <c r="F36" s="409"/>
+      <c r="G36" s="411"/>
       <c r="H36" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I36" s="402"/>
-      <c r="J36" s="402"/>
-      <c r="K36" s="402"/>
-      <c r="L36" s="402"/>
-      <c r="M36" s="402"/>
-      <c r="N36" s="402"/>
-      <c r="O36" s="402"/>
-      <c r="P36" s="402"/>
-      <c r="Q36" s="402"/>
+      <c r="I36" s="412"/>
+      <c r="J36" s="412"/>
+      <c r="K36" s="412"/>
+      <c r="L36" s="412"/>
+      <c r="M36" s="412"/>
+      <c r="N36" s="412"/>
+      <c r="O36" s="412"/>
+      <c r="P36" s="412"/>
+      <c r="Q36" s="412"/>
       <c r="R36" s="109">
         <v>358.55</v>
       </c>
@@ -13025,24 +12951,24 @@
       <c r="B37" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C37" s="397"/>
-      <c r="D37" s="398"/>
-      <c r="E37" s="397"/>
-      <c r="F37" s="397"/>
-      <c r="G37" s="399"/>
+      <c r="C37" s="409"/>
+      <c r="D37" s="410"/>
+      <c r="E37" s="409"/>
+      <c r="F37" s="409"/>
+      <c r="G37" s="411"/>
       <c r="H37" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I37" s="402"/>
-      <c r="J37" s="402"/>
-      <c r="K37" s="402"/>
-      <c r="L37" s="402"/>
-      <c r="M37" s="402"/>
-      <c r="N37" s="402"/>
-      <c r="O37" s="402"/>
-      <c r="P37" s="402"/>
-      <c r="Q37" s="402"/>
+      <c r="I37" s="412"/>
+      <c r="J37" s="412"/>
+      <c r="K37" s="412"/>
+      <c r="L37" s="412"/>
+      <c r="M37" s="412"/>
+      <c r="N37" s="412"/>
+      <c r="O37" s="412"/>
+      <c r="P37" s="412"/>
+      <c r="Q37" s="412"/>
       <c r="R37" s="109">
         <v>358.55</v>
       </c>
@@ -13054,24 +12980,24 @@
       <c r="B38" s="121">
         <v>2537.5100000000002</v>
       </c>
-      <c r="C38" s="397"/>
-      <c r="D38" s="398"/>
-      <c r="E38" s="397"/>
-      <c r="F38" s="397"/>
-      <c r="G38" s="399"/>
+      <c r="C38" s="409"/>
+      <c r="D38" s="410"/>
+      <c r="E38" s="409"/>
+      <c r="F38" s="409"/>
+      <c r="G38" s="411"/>
       <c r="H38" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I38" s="402"/>
-      <c r="J38" s="402"/>
-      <c r="K38" s="402"/>
-      <c r="L38" s="402"/>
-      <c r="M38" s="402"/>
-      <c r="N38" s="402"/>
-      <c r="O38" s="402"/>
-      <c r="P38" s="402"/>
-      <c r="Q38" s="402"/>
+      <c r="I38" s="412"/>
+      <c r="J38" s="412"/>
+      <c r="K38" s="412"/>
+      <c r="L38" s="412"/>
+      <c r="M38" s="412"/>
+      <c r="N38" s="412"/>
+      <c r="O38" s="412"/>
+      <c r="P38" s="412"/>
+      <c r="Q38" s="412"/>
       <c r="R38" s="109">
         <v>358.55</v>
       </c>
@@ -13083,24 +13009,24 @@
       <c r="B39" s="121">
         <v>2087.52</v>
       </c>
-      <c r="C39" s="397"/>
-      <c r="D39" s="398"/>
-      <c r="E39" s="397"/>
-      <c r="F39" s="397"/>
-      <c r="G39" s="399"/>
+      <c r="C39" s="409"/>
+      <c r="D39" s="410"/>
+      <c r="E39" s="409"/>
+      <c r="F39" s="409"/>
+      <c r="G39" s="411"/>
       <c r="H39" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I39" s="402"/>
-      <c r="J39" s="402"/>
-      <c r="K39" s="402"/>
-      <c r="L39" s="402"/>
-      <c r="M39" s="402"/>
-      <c r="N39" s="402"/>
-      <c r="O39" s="402"/>
-      <c r="P39" s="402"/>
-      <c r="Q39" s="402"/>
+      <c r="I39" s="412"/>
+      <c r="J39" s="412"/>
+      <c r="K39" s="412"/>
+      <c r="L39" s="412"/>
+      <c r="M39" s="412"/>
+      <c r="N39" s="412"/>
+      <c r="O39" s="412"/>
+      <c r="P39" s="412"/>
+      <c r="Q39" s="412"/>
       <c r="R39" s="109">
         <v>358.55</v>
       </c>
@@ -13112,24 +13038,24 @@
       <c r="B40" s="121">
         <v>2087.5300000000002</v>
       </c>
-      <c r="C40" s="397"/>
-      <c r="D40" s="398"/>
-      <c r="E40" s="397"/>
-      <c r="F40" s="397"/>
-      <c r="G40" s="399"/>
+      <c r="C40" s="409"/>
+      <c r="D40" s="410"/>
+      <c r="E40" s="409"/>
+      <c r="F40" s="409"/>
+      <c r="G40" s="411"/>
       <c r="H40" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I40" s="402"/>
-      <c r="J40" s="402"/>
-      <c r="K40" s="402"/>
-      <c r="L40" s="402"/>
-      <c r="M40" s="402"/>
-      <c r="N40" s="402"/>
-      <c r="O40" s="402"/>
-      <c r="P40" s="402"/>
-      <c r="Q40" s="402"/>
+      <c r="I40" s="412"/>
+      <c r="J40" s="412"/>
+      <c r="K40" s="412"/>
+      <c r="L40" s="412"/>
+      <c r="M40" s="412"/>
+      <c r="N40" s="412"/>
+      <c r="O40" s="412"/>
+      <c r="P40" s="412"/>
+      <c r="Q40" s="412"/>
       <c r="R40" s="109">
         <v>358.55</v>
       </c>
@@ -13141,38 +13067,38 @@
       <c r="B41" s="121">
         <v>2362.48</v>
       </c>
-      <c r="C41" s="397">
+      <c r="C41" s="409">
         <v>52.72</v>
       </c>
-      <c r="D41" s="398">
+      <c r="D41" s="410">
         <f>IF(B46&gt;0,SUM(B41:B46)-C41,0)</f>
         <v>13224.73</v>
       </c>
-      <c r="E41" s="397">
+      <c r="E41" s="409">
         <v>6.2213000000000003</v>
       </c>
-      <c r="F41" s="397">
+      <c r="F41" s="409">
         <v>26.89</v>
       </c>
-      <c r="G41" s="399">
+      <c r="G41" s="411">
         <v>93</v>
       </c>
       <c r="H41" s="120">
         <f t="shared" si="1"/>
         <v>95.527500000000003</v>
       </c>
-      <c r="I41" s="402">
+      <c r="I41" s="412">
         <f>IF($D$2&gt;F41,G41*($D$2-F41)*0.2,0)</f>
         <v>53.195999999999998</v>
       </c>
-      <c r="J41" s="402"/>
-      <c r="K41" s="402"/>
-      <c r="L41" s="402"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="402"/>
-      <c r="O41" s="402"/>
-      <c r="P41" s="402"/>
-      <c r="Q41" s="402"/>
+      <c r="J41" s="412"/>
+      <c r="K41" s="412"/>
+      <c r="L41" s="412"/>
+      <c r="M41" s="412"/>
+      <c r="N41" s="412"/>
+      <c r="O41" s="412"/>
+      <c r="P41" s="412"/>
+      <c r="Q41" s="412"/>
       <c r="R41" s="109">
         <v>381.97</v>
       </c>
@@ -13184,24 +13110,24 @@
       <c r="B42" s="121">
         <v>2174.98</v>
       </c>
-      <c r="C42" s="397"/>
-      <c r="D42" s="398"/>
-      <c r="E42" s="397"/>
-      <c r="F42" s="397"/>
-      <c r="G42" s="399"/>
+      <c r="C42" s="409"/>
+      <c r="D42" s="410"/>
+      <c r="E42" s="409"/>
+      <c r="F42" s="409"/>
+      <c r="G42" s="411"/>
       <c r="H42" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="402"/>
-      <c r="J42" s="402"/>
-      <c r="K42" s="402"/>
-      <c r="L42" s="402"/>
-      <c r="M42" s="402"/>
-      <c r="N42" s="402"/>
-      <c r="O42" s="402"/>
-      <c r="P42" s="402"/>
-      <c r="Q42" s="402"/>
+      <c r="I42" s="412"/>
+      <c r="J42" s="412"/>
+      <c r="K42" s="412"/>
+      <c r="L42" s="412"/>
+      <c r="M42" s="412"/>
+      <c r="N42" s="412"/>
+      <c r="O42" s="412"/>
+      <c r="P42" s="412"/>
+      <c r="Q42" s="412"/>
       <c r="R42" s="109">
         <v>381.97</v>
       </c>
@@ -13213,24 +13139,24 @@
       <c r="B43" s="121">
         <v>2265</v>
       </c>
-      <c r="C43" s="397"/>
-      <c r="D43" s="398"/>
-      <c r="E43" s="397"/>
-      <c r="F43" s="397"/>
-      <c r="G43" s="399"/>
+      <c r="C43" s="409"/>
+      <c r="D43" s="410"/>
+      <c r="E43" s="409"/>
+      <c r="F43" s="409"/>
+      <c r="G43" s="411"/>
       <c r="H43" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I43" s="402"/>
-      <c r="J43" s="402"/>
-      <c r="K43" s="402"/>
-      <c r="L43" s="402"/>
-      <c r="M43" s="402"/>
-      <c r="N43" s="402"/>
-      <c r="O43" s="402"/>
-      <c r="P43" s="402"/>
-      <c r="Q43" s="402"/>
+      <c r="I43" s="412"/>
+      <c r="J43" s="412"/>
+      <c r="K43" s="412"/>
+      <c r="L43" s="412"/>
+      <c r="M43" s="412"/>
+      <c r="N43" s="412"/>
+      <c r="O43" s="412"/>
+      <c r="P43" s="412"/>
+      <c r="Q43" s="412"/>
       <c r="R43" s="109">
         <v>381.97</v>
       </c>
@@ -13242,24 +13168,24 @@
       <c r="B44" s="121">
         <v>2087.5</v>
       </c>
-      <c r="C44" s="397"/>
-      <c r="D44" s="398"/>
-      <c r="E44" s="397"/>
-      <c r="F44" s="397"/>
-      <c r="G44" s="399"/>
+      <c r="C44" s="409"/>
+      <c r="D44" s="410"/>
+      <c r="E44" s="409"/>
+      <c r="F44" s="409"/>
+      <c r="G44" s="411"/>
       <c r="H44" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44" s="402"/>
-      <c r="J44" s="402"/>
-      <c r="K44" s="402"/>
-      <c r="L44" s="402"/>
-      <c r="M44" s="402"/>
-      <c r="N44" s="402"/>
-      <c r="O44" s="402"/>
-      <c r="P44" s="402"/>
-      <c r="Q44" s="402"/>
+      <c r="I44" s="412"/>
+      <c r="J44" s="412"/>
+      <c r="K44" s="412"/>
+      <c r="L44" s="412"/>
+      <c r="M44" s="412"/>
+      <c r="N44" s="412"/>
+      <c r="O44" s="412"/>
+      <c r="P44" s="412"/>
+      <c r="Q44" s="412"/>
       <c r="R44" s="109">
         <v>381.97</v>
       </c>
@@ -13271,24 +13197,24 @@
       <c r="B45" s="121">
         <v>2087.48</v>
       </c>
-      <c r="C45" s="397"/>
-      <c r="D45" s="398"/>
-      <c r="E45" s="397"/>
-      <c r="F45" s="397"/>
-      <c r="G45" s="399"/>
+      <c r="C45" s="409"/>
+      <c r="D45" s="410"/>
+      <c r="E45" s="409"/>
+      <c r="F45" s="409"/>
+      <c r="G45" s="411"/>
       <c r="H45" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45" s="402"/>
-      <c r="J45" s="402"/>
-      <c r="K45" s="402"/>
-      <c r="L45" s="402"/>
-      <c r="M45" s="402"/>
-      <c r="N45" s="402"/>
-      <c r="O45" s="402"/>
-      <c r="P45" s="402"/>
-      <c r="Q45" s="402"/>
+      <c r="I45" s="412"/>
+      <c r="J45" s="412"/>
+      <c r="K45" s="412"/>
+      <c r="L45" s="412"/>
+      <c r="M45" s="412"/>
+      <c r="N45" s="412"/>
+      <c r="O45" s="412"/>
+      <c r="P45" s="412"/>
+      <c r="Q45" s="412"/>
       <c r="R45" s="109">
         <v>381.97</v>
       </c>
@@ -13300,24 +13226,24 @@
       <c r="B46" s="121">
         <v>2300.0100000000002</v>
       </c>
-      <c r="C46" s="397"/>
-      <c r="D46" s="398"/>
-      <c r="E46" s="397"/>
-      <c r="F46" s="397"/>
-      <c r="G46" s="399"/>
+      <c r="C46" s="409"/>
+      <c r="D46" s="410"/>
+      <c r="E46" s="409"/>
+      <c r="F46" s="409"/>
+      <c r="G46" s="411"/>
       <c r="H46" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46" s="402"/>
-      <c r="J46" s="402"/>
-      <c r="K46" s="402"/>
-      <c r="L46" s="402"/>
-      <c r="M46" s="402"/>
-      <c r="N46" s="402"/>
-      <c r="O46" s="402"/>
-      <c r="P46" s="402"/>
-      <c r="Q46" s="402"/>
+      <c r="I46" s="412"/>
+      <c r="J46" s="412"/>
+      <c r="K46" s="412"/>
+      <c r="L46" s="412"/>
+      <c r="M46" s="412"/>
+      <c r="N46" s="412"/>
+      <c r="O46" s="412"/>
+      <c r="P46" s="412"/>
+      <c r="Q46" s="412"/>
       <c r="R46" s="109">
         <v>381.97</v>
       </c>
@@ -13329,38 +13255,38 @@
       <c r="B47" s="121">
         <v>3787.17</v>
       </c>
-      <c r="C47" s="397">
-        <v>0</v>
-      </c>
-      <c r="D47" s="398">
+      <c r="C47" s="409">
+        <v>0</v>
+      </c>
+      <c r="D47" s="410">
         <f>IF(B52&gt;0,SUM(B47:B52)-C47,0)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="397">
+      <c r="E47" s="409">
         <v>6.2</v>
       </c>
-      <c r="F47" s="397">
+      <c r="F47" s="409">
         <v>25.3</v>
       </c>
-      <c r="G47" s="399">
+      <c r="G47" s="411">
         <v>0</v>
       </c>
       <c r="H47" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="402">
+      <c r="I47" s="412">
         <f>IF($D$2&gt;F47,G47*($D$2-F47)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="402"/>
-      <c r="K47" s="402"/>
-      <c r="L47" s="402"/>
-      <c r="M47" s="402"/>
-      <c r="N47" s="402"/>
-      <c r="O47" s="402"/>
-      <c r="P47" s="402"/>
-      <c r="Q47" s="402"/>
+      <c r="J47" s="412"/>
+      <c r="K47" s="412"/>
+      <c r="L47" s="412"/>
+      <c r="M47" s="412"/>
+      <c r="N47" s="412"/>
+      <c r="O47" s="412"/>
+      <c r="P47" s="412"/>
+      <c r="Q47" s="412"/>
       <c r="R47" s="109">
         <v>382.11</v>
       </c>
@@ -13372,24 +13298,24 @@
       <c r="B48" s="121">
         <v>0</v>
       </c>
-      <c r="C48" s="397"/>
-      <c r="D48" s="398"/>
-      <c r="E48" s="397"/>
-      <c r="F48" s="397"/>
-      <c r="G48" s="399"/>
+      <c r="C48" s="409"/>
+      <c r="D48" s="410"/>
+      <c r="E48" s="409"/>
+      <c r="F48" s="409"/>
+      <c r="G48" s="411"/>
       <c r="H48" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48" s="402"/>
-      <c r="J48" s="402"/>
-      <c r="K48" s="402"/>
-      <c r="L48" s="402"/>
-      <c r="M48" s="402"/>
-      <c r="N48" s="402"/>
-      <c r="O48" s="402"/>
-      <c r="P48" s="402"/>
-      <c r="Q48" s="402"/>
+      <c r="I48" s="412"/>
+      <c r="J48" s="412"/>
+      <c r="K48" s="412"/>
+      <c r="L48" s="412"/>
+      <c r="M48" s="412"/>
+      <c r="N48" s="412"/>
+      <c r="O48" s="412"/>
+      <c r="P48" s="412"/>
+      <c r="Q48" s="412"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
@@ -13398,24 +13324,24 @@
       <c r="B49" s="121">
         <v>0</v>
       </c>
-      <c r="C49" s="397"/>
-      <c r="D49" s="398"/>
-      <c r="E49" s="397"/>
-      <c r="F49" s="397"/>
-      <c r="G49" s="399"/>
+      <c r="C49" s="409"/>
+      <c r="D49" s="410"/>
+      <c r="E49" s="409"/>
+      <c r="F49" s="409"/>
+      <c r="G49" s="411"/>
       <c r="H49" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I49" s="402"/>
-      <c r="J49" s="402"/>
-      <c r="K49" s="402"/>
-      <c r="L49" s="402"/>
-      <c r="M49" s="402"/>
-      <c r="N49" s="402"/>
-      <c r="O49" s="402"/>
-      <c r="P49" s="402"/>
-      <c r="Q49" s="402"/>
+      <c r="I49" s="412"/>
+      <c r="J49" s="412"/>
+      <c r="K49" s="412"/>
+      <c r="L49" s="412"/>
+      <c r="M49" s="412"/>
+      <c r="N49" s="412"/>
+      <c r="O49" s="412"/>
+      <c r="P49" s="412"/>
+      <c r="Q49" s="412"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
@@ -13424,24 +13350,24 @@
       <c r="B50" s="121">
         <v>0</v>
       </c>
-      <c r="C50" s="397"/>
-      <c r="D50" s="398"/>
-      <c r="E50" s="397"/>
-      <c r="F50" s="397"/>
-      <c r="G50" s="399"/>
+      <c r="C50" s="409"/>
+      <c r="D50" s="410"/>
+      <c r="E50" s="409"/>
+      <c r="F50" s="409"/>
+      <c r="G50" s="411"/>
       <c r="H50" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I50" s="402"/>
-      <c r="J50" s="402"/>
-      <c r="K50" s="402"/>
-      <c r="L50" s="402"/>
-      <c r="M50" s="402"/>
-      <c r="N50" s="402"/>
-      <c r="O50" s="402"/>
-      <c r="P50" s="402"/>
-      <c r="Q50" s="402"/>
+      <c r="I50" s="412"/>
+      <c r="J50" s="412"/>
+      <c r="K50" s="412"/>
+      <c r="L50" s="412"/>
+      <c r="M50" s="412"/>
+      <c r="N50" s="412"/>
+      <c r="O50" s="412"/>
+      <c r="P50" s="412"/>
+      <c r="Q50" s="412"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
@@ -13450,24 +13376,24 @@
       <c r="B51" s="121">
         <v>0</v>
       </c>
-      <c r="C51" s="397"/>
-      <c r="D51" s="398"/>
-      <c r="E51" s="397"/>
-      <c r="F51" s="397"/>
-      <c r="G51" s="399"/>
+      <c r="C51" s="409"/>
+      <c r="D51" s="410"/>
+      <c r="E51" s="409"/>
+      <c r="F51" s="409"/>
+      <c r="G51" s="411"/>
       <c r="H51" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I51" s="402"/>
-      <c r="J51" s="402"/>
-      <c r="K51" s="402"/>
-      <c r="L51" s="402"/>
-      <c r="M51" s="402"/>
-      <c r="N51" s="402"/>
-      <c r="O51" s="402"/>
-      <c r="P51" s="402"/>
-      <c r="Q51" s="402"/>
+      <c r="I51" s="412"/>
+      <c r="J51" s="412"/>
+      <c r="K51" s="412"/>
+      <c r="L51" s="412"/>
+      <c r="M51" s="412"/>
+      <c r="N51" s="412"/>
+      <c r="O51" s="412"/>
+      <c r="P51" s="412"/>
+      <c r="Q51" s="412"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
@@ -13476,24 +13402,24 @@
       <c r="B52" s="121">
         <v>0</v>
       </c>
-      <c r="C52" s="397"/>
-      <c r="D52" s="398"/>
-      <c r="E52" s="397"/>
-      <c r="F52" s="397"/>
-      <c r="G52" s="399"/>
+      <c r="C52" s="409"/>
+      <c r="D52" s="410"/>
+      <c r="E52" s="409"/>
+      <c r="F52" s="409"/>
+      <c r="G52" s="411"/>
       <c r="H52" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I52" s="402"/>
-      <c r="J52" s="402"/>
-      <c r="K52" s="402"/>
-      <c r="L52" s="402"/>
-      <c r="M52" s="402"/>
-      <c r="N52" s="402"/>
-      <c r="O52" s="402"/>
-      <c r="P52" s="402"/>
-      <c r="Q52" s="402"/>
+      <c r="I52" s="412"/>
+      <c r="J52" s="412"/>
+      <c r="K52" s="412"/>
+      <c r="L52" s="412"/>
+      <c r="M52" s="412"/>
+      <c r="N52" s="412"/>
+      <c r="O52" s="412"/>
+      <c r="P52" s="412"/>
+      <c r="Q52" s="412"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
@@ -13502,38 +13428,38 @@
       <c r="B53" s="121">
         <v>0</v>
       </c>
-      <c r="C53" s="397">
-        <v>0</v>
-      </c>
-      <c r="D53" s="398">
+      <c r="C53" s="409">
+        <v>0</v>
+      </c>
+      <c r="D53" s="410">
         <f>IF(B58&gt;0,SUM(B53:B58)-C53,0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="397">
+      <c r="E53" s="409">
         <v>6.2</v>
       </c>
-      <c r="F53" s="397">
+      <c r="F53" s="409">
         <v>25.3</v>
       </c>
-      <c r="G53" s="399">
+      <c r="G53" s="411">
         <v>0</v>
       </c>
       <c r="H53" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I53" s="402">
+      <c r="I53" s="412">
         <f>IF($D$2&gt;F53,G53*($D$2-F53)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J53" s="402"/>
-      <c r="K53" s="402"/>
-      <c r="L53" s="402"/>
-      <c r="M53" s="402"/>
-      <c r="N53" s="402"/>
-      <c r="O53" s="402"/>
-      <c r="P53" s="402"/>
-      <c r="Q53" s="402"/>
+      <c r="J53" s="412"/>
+      <c r="K53" s="412"/>
+      <c r="L53" s="412"/>
+      <c r="M53" s="412"/>
+      <c r="N53" s="412"/>
+      <c r="O53" s="412"/>
+      <c r="P53" s="412"/>
+      <c r="Q53" s="412"/>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
@@ -13542,24 +13468,24 @@
       <c r="B54" s="121">
         <v>0</v>
       </c>
-      <c r="C54" s="397"/>
-      <c r="D54" s="398"/>
-      <c r="E54" s="397"/>
-      <c r="F54" s="397"/>
-      <c r="G54" s="399"/>
+      <c r="C54" s="409"/>
+      <c r="D54" s="410"/>
+      <c r="E54" s="409"/>
+      <c r="F54" s="409"/>
+      <c r="G54" s="411"/>
       <c r="H54" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I54" s="402"/>
-      <c r="J54" s="402"/>
-      <c r="K54" s="402"/>
-      <c r="L54" s="402"/>
-      <c r="M54" s="402"/>
-      <c r="N54" s="402"/>
-      <c r="O54" s="402"/>
-      <c r="P54" s="402"/>
-      <c r="Q54" s="402"/>
+      <c r="I54" s="412"/>
+      <c r="J54" s="412"/>
+      <c r="K54" s="412"/>
+      <c r="L54" s="412"/>
+      <c r="M54" s="412"/>
+      <c r="N54" s="412"/>
+      <c r="O54" s="412"/>
+      <c r="P54" s="412"/>
+      <c r="Q54" s="412"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
@@ -13568,24 +13494,24 @@
       <c r="B55" s="121">
         <v>0</v>
       </c>
-      <c r="C55" s="397"/>
-      <c r="D55" s="398"/>
-      <c r="E55" s="397"/>
-      <c r="F55" s="397"/>
-      <c r="G55" s="399"/>
+      <c r="C55" s="409"/>
+      <c r="D55" s="410"/>
+      <c r="E55" s="409"/>
+      <c r="F55" s="409"/>
+      <c r="G55" s="411"/>
       <c r="H55" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I55" s="402"/>
-      <c r="J55" s="402"/>
-      <c r="K55" s="402"/>
-      <c r="L55" s="402"/>
-      <c r="M55" s="402"/>
-      <c r="N55" s="402"/>
-      <c r="O55" s="402"/>
-      <c r="P55" s="402"/>
-      <c r="Q55" s="402"/>
+      <c r="I55" s="412"/>
+      <c r="J55" s="412"/>
+      <c r="K55" s="412"/>
+      <c r="L55" s="412"/>
+      <c r="M55" s="412"/>
+      <c r="N55" s="412"/>
+      <c r="O55" s="412"/>
+      <c r="P55" s="412"/>
+      <c r="Q55" s="412"/>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
@@ -13594,24 +13520,24 @@
       <c r="B56" s="121">
         <v>0</v>
       </c>
-      <c r="C56" s="397"/>
-      <c r="D56" s="398"/>
-      <c r="E56" s="397"/>
-      <c r="F56" s="397"/>
-      <c r="G56" s="399"/>
+      <c r="C56" s="409"/>
+      <c r="D56" s="410"/>
+      <c r="E56" s="409"/>
+      <c r="F56" s="409"/>
+      <c r="G56" s="411"/>
       <c r="H56" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I56" s="402"/>
-      <c r="J56" s="402"/>
-      <c r="K56" s="402"/>
-      <c r="L56" s="402"/>
-      <c r="M56" s="402"/>
-      <c r="N56" s="402"/>
-      <c r="O56" s="402"/>
-      <c r="P56" s="402"/>
-      <c r="Q56" s="402"/>
+      <c r="I56" s="412"/>
+      <c r="J56" s="412"/>
+      <c r="K56" s="412"/>
+      <c r="L56" s="412"/>
+      <c r="M56" s="412"/>
+      <c r="N56" s="412"/>
+      <c r="O56" s="412"/>
+      <c r="P56" s="412"/>
+      <c r="Q56" s="412"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
@@ -13620,24 +13546,24 @@
       <c r="B57" s="121">
         <v>0</v>
       </c>
-      <c r="C57" s="397"/>
-      <c r="D57" s="398"/>
-      <c r="E57" s="397"/>
-      <c r="F57" s="397"/>
-      <c r="G57" s="399"/>
+      <c r="C57" s="409"/>
+      <c r="D57" s="410"/>
+      <c r="E57" s="409"/>
+      <c r="F57" s="409"/>
+      <c r="G57" s="411"/>
       <c r="H57" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I57" s="402"/>
-      <c r="J57" s="402"/>
-      <c r="K57" s="402"/>
-      <c r="L57" s="402"/>
-      <c r="M57" s="402"/>
-      <c r="N57" s="402"/>
-      <c r="O57" s="402"/>
-      <c r="P57" s="402"/>
-      <c r="Q57" s="402"/>
+      <c r="I57" s="412"/>
+      <c r="J57" s="412"/>
+      <c r="K57" s="412"/>
+      <c r="L57" s="412"/>
+      <c r="M57" s="412"/>
+      <c r="N57" s="412"/>
+      <c r="O57" s="412"/>
+      <c r="P57" s="412"/>
+      <c r="Q57" s="412"/>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
@@ -13646,24 +13572,24 @@
       <c r="B58" s="121">
         <v>0</v>
       </c>
-      <c r="C58" s="397"/>
-      <c r="D58" s="398"/>
-      <c r="E58" s="397"/>
-      <c r="F58" s="397"/>
-      <c r="G58" s="399"/>
+      <c r="C58" s="409"/>
+      <c r="D58" s="410"/>
+      <c r="E58" s="409"/>
+      <c r="F58" s="409"/>
+      <c r="G58" s="411"/>
       <c r="H58" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I58" s="402"/>
-      <c r="J58" s="402"/>
-      <c r="K58" s="402"/>
-      <c r="L58" s="402"/>
-      <c r="M58" s="402"/>
-      <c r="N58" s="402"/>
-      <c r="O58" s="402"/>
-      <c r="P58" s="402"/>
-      <c r="Q58" s="402"/>
+      <c r="I58" s="412"/>
+      <c r="J58" s="412"/>
+      <c r="K58" s="412"/>
+      <c r="L58" s="412"/>
+      <c r="M58" s="412"/>
+      <c r="N58" s="412"/>
+      <c r="O58" s="412"/>
+      <c r="P58" s="412"/>
+      <c r="Q58" s="412"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
@@ -13672,38 +13598,38 @@
       <c r="B59" s="121">
         <v>0</v>
       </c>
-      <c r="C59" s="397">
-        <v>0</v>
-      </c>
-      <c r="D59" s="398">
+      <c r="C59" s="409">
+        <v>0</v>
+      </c>
+      <c r="D59" s="410">
         <f>IF(B64&gt;0,SUM(B59:B64)-C59,0)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="397">
+      <c r="E59" s="409">
         <v>6.2</v>
       </c>
-      <c r="F59" s="397">
+      <c r="F59" s="409">
         <v>25.3</v>
       </c>
-      <c r="G59" s="399">
+      <c r="G59" s="411">
         <v>0</v>
       </c>
       <c r="H59" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I59" s="402">
+      <c r="I59" s="412">
         <f>IF($D$2&gt;F59,G59*($D$2-F59)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="402"/>
-      <c r="K59" s="402"/>
-      <c r="L59" s="402"/>
-      <c r="M59" s="402"/>
-      <c r="N59" s="402"/>
-      <c r="O59" s="402"/>
-      <c r="P59" s="402"/>
-      <c r="Q59" s="402"/>
+      <c r="J59" s="412"/>
+      <c r="K59" s="412"/>
+      <c r="L59" s="412"/>
+      <c r="M59" s="412"/>
+      <c r="N59" s="412"/>
+      <c r="O59" s="412"/>
+      <c r="P59" s="412"/>
+      <c r="Q59" s="412"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
@@ -13712,24 +13638,24 @@
       <c r="B60" s="121">
         <v>0</v>
       </c>
-      <c r="C60" s="397"/>
-      <c r="D60" s="398"/>
-      <c r="E60" s="397"/>
-      <c r="F60" s="397"/>
-      <c r="G60" s="399"/>
+      <c r="C60" s="409"/>
+      <c r="D60" s="410"/>
+      <c r="E60" s="409"/>
+      <c r="F60" s="409"/>
+      <c r="G60" s="411"/>
       <c r="H60" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I60" s="402"/>
-      <c r="J60" s="402"/>
-      <c r="K60" s="402"/>
-      <c r="L60" s="402"/>
-      <c r="M60" s="402"/>
-      <c r="N60" s="402"/>
-      <c r="O60" s="402"/>
-      <c r="P60" s="402"/>
-      <c r="Q60" s="402"/>
+      <c r="I60" s="412"/>
+      <c r="J60" s="412"/>
+      <c r="K60" s="412"/>
+      <c r="L60" s="412"/>
+      <c r="M60" s="412"/>
+      <c r="N60" s="412"/>
+      <c r="O60" s="412"/>
+      <c r="P60" s="412"/>
+      <c r="Q60" s="412"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
@@ -13738,24 +13664,24 @@
       <c r="B61" s="121">
         <v>0</v>
       </c>
-      <c r="C61" s="397"/>
-      <c r="D61" s="398"/>
-      <c r="E61" s="397"/>
-      <c r="F61" s="397"/>
-      <c r="G61" s="399"/>
+      <c r="C61" s="409"/>
+      <c r="D61" s="410"/>
+      <c r="E61" s="409"/>
+      <c r="F61" s="409"/>
+      <c r="G61" s="411"/>
       <c r="H61" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I61" s="402"/>
-      <c r="J61" s="402"/>
-      <c r="K61" s="402"/>
-      <c r="L61" s="402"/>
-      <c r="M61" s="402"/>
-      <c r="N61" s="402"/>
-      <c r="O61" s="402"/>
-      <c r="P61" s="402"/>
-      <c r="Q61" s="402"/>
+      <c r="I61" s="412"/>
+      <c r="J61" s="412"/>
+      <c r="K61" s="412"/>
+      <c r="L61" s="412"/>
+      <c r="M61" s="412"/>
+      <c r="N61" s="412"/>
+      <c r="O61" s="412"/>
+      <c r="P61" s="412"/>
+      <c r="Q61" s="412"/>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
@@ -13764,24 +13690,24 @@
       <c r="B62" s="121">
         <v>0</v>
       </c>
-      <c r="C62" s="397"/>
-      <c r="D62" s="398"/>
-      <c r="E62" s="397"/>
-      <c r="F62" s="397"/>
-      <c r="G62" s="399"/>
+      <c r="C62" s="409"/>
+      <c r="D62" s="410"/>
+      <c r="E62" s="409"/>
+      <c r="F62" s="409"/>
+      <c r="G62" s="411"/>
       <c r="H62" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I62" s="402"/>
-      <c r="J62" s="402"/>
-      <c r="K62" s="402"/>
-      <c r="L62" s="402"/>
-      <c r="M62" s="402"/>
-      <c r="N62" s="402"/>
-      <c r="O62" s="402"/>
-      <c r="P62" s="402"/>
-      <c r="Q62" s="402"/>
+      <c r="I62" s="412"/>
+      <c r="J62" s="412"/>
+      <c r="K62" s="412"/>
+      <c r="L62" s="412"/>
+      <c r="M62" s="412"/>
+      <c r="N62" s="412"/>
+      <c r="O62" s="412"/>
+      <c r="P62" s="412"/>
+      <c r="Q62" s="412"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
@@ -13790,24 +13716,24 @@
       <c r="B63" s="121">
         <v>0</v>
       </c>
-      <c r="C63" s="397"/>
-      <c r="D63" s="398"/>
-      <c r="E63" s="397"/>
-      <c r="F63" s="397"/>
-      <c r="G63" s="399"/>
+      <c r="C63" s="409"/>
+      <c r="D63" s="410"/>
+      <c r="E63" s="409"/>
+      <c r="F63" s="409"/>
+      <c r="G63" s="411"/>
       <c r="H63" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I63" s="402"/>
-      <c r="J63" s="402"/>
-      <c r="K63" s="402"/>
-      <c r="L63" s="402"/>
-      <c r="M63" s="402"/>
-      <c r="N63" s="402"/>
-      <c r="O63" s="402"/>
-      <c r="P63" s="402"/>
-      <c r="Q63" s="402"/>
+      <c r="I63" s="412"/>
+      <c r="J63" s="412"/>
+      <c r="K63" s="412"/>
+      <c r="L63" s="412"/>
+      <c r="M63" s="412"/>
+      <c r="N63" s="412"/>
+      <c r="O63" s="412"/>
+      <c r="P63" s="412"/>
+      <c r="Q63" s="412"/>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
@@ -13816,24 +13742,24 @@
       <c r="B64" s="121">
         <v>0</v>
       </c>
-      <c r="C64" s="397"/>
-      <c r="D64" s="398"/>
-      <c r="E64" s="397"/>
-      <c r="F64" s="397"/>
-      <c r="G64" s="399"/>
+      <c r="C64" s="409"/>
+      <c r="D64" s="410"/>
+      <c r="E64" s="409"/>
+      <c r="F64" s="409"/>
+      <c r="G64" s="411"/>
       <c r="H64" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I64" s="402"/>
-      <c r="J64" s="402"/>
-      <c r="K64" s="402"/>
-      <c r="L64" s="402"/>
-      <c r="M64" s="402"/>
-      <c r="N64" s="402"/>
-      <c r="O64" s="402"/>
-      <c r="P64" s="402"/>
-      <c r="Q64" s="402"/>
+      <c r="I64" s="412"/>
+      <c r="J64" s="412"/>
+      <c r="K64" s="412"/>
+      <c r="L64" s="412"/>
+      <c r="M64" s="412"/>
+      <c r="N64" s="412"/>
+      <c r="O64" s="412"/>
+      <c r="P64" s="412"/>
+      <c r="Q64" s="412"/>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1">
@@ -13842,38 +13768,38 @@
       <c r="B65" s="121">
         <v>0</v>
       </c>
-      <c r="C65" s="397">
-        <v>0</v>
-      </c>
-      <c r="D65" s="398">
+      <c r="C65" s="409">
+        <v>0</v>
+      </c>
+      <c r="D65" s="410">
         <f>IF(B70&gt;0,SUM(B65:B70)-C65,0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="397">
+      <c r="E65" s="409">
         <v>6.2</v>
       </c>
-      <c r="F65" s="397">
+      <c r="F65" s="409">
         <v>25.3</v>
       </c>
-      <c r="G65" s="399">
+      <c r="G65" s="411">
         <v>0</v>
       </c>
       <c r="H65" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I65" s="402">
+      <c r="I65" s="412">
         <f>IF($D$2&gt;F65,G65*($D$2-F65)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="402"/>
-      <c r="K65" s="402"/>
-      <c r="L65" s="402"/>
-      <c r="M65" s="402"/>
-      <c r="N65" s="402"/>
-      <c r="O65" s="402"/>
-      <c r="P65" s="402"/>
-      <c r="Q65" s="402"/>
+      <c r="J65" s="412"/>
+      <c r="K65" s="412"/>
+      <c r="L65" s="412"/>
+      <c r="M65" s="412"/>
+      <c r="N65" s="412"/>
+      <c r="O65" s="412"/>
+      <c r="P65" s="412"/>
+      <c r="Q65" s="412"/>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1">
@@ -13882,24 +13808,24 @@
       <c r="B66" s="121">
         <v>0</v>
       </c>
-      <c r="C66" s="397"/>
-      <c r="D66" s="398"/>
-      <c r="E66" s="397"/>
-      <c r="F66" s="397"/>
-      <c r="G66" s="399"/>
+      <c r="C66" s="409"/>
+      <c r="D66" s="410"/>
+      <c r="E66" s="409"/>
+      <c r="F66" s="409"/>
+      <c r="G66" s="411"/>
       <c r="H66" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I66" s="402"/>
-      <c r="J66" s="402"/>
-      <c r="K66" s="402"/>
-      <c r="L66" s="402"/>
-      <c r="M66" s="402"/>
-      <c r="N66" s="402"/>
-      <c r="O66" s="402"/>
-      <c r="P66" s="402"/>
-      <c r="Q66" s="402"/>
+      <c r="I66" s="412"/>
+      <c r="J66" s="412"/>
+      <c r="K66" s="412"/>
+      <c r="L66" s="412"/>
+      <c r="M66" s="412"/>
+      <c r="N66" s="412"/>
+      <c r="O66" s="412"/>
+      <c r="P66" s="412"/>
+      <c r="Q66" s="412"/>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1">
@@ -13908,24 +13834,24 @@
       <c r="B67" s="121">
         <v>0</v>
       </c>
-      <c r="C67" s="397"/>
-      <c r="D67" s="398"/>
-      <c r="E67" s="397"/>
-      <c r="F67" s="397"/>
-      <c r="G67" s="399"/>
+      <c r="C67" s="409"/>
+      <c r="D67" s="410"/>
+      <c r="E67" s="409"/>
+      <c r="F67" s="409"/>
+      <c r="G67" s="411"/>
       <c r="H67" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I67" s="402"/>
-      <c r="J67" s="402"/>
-      <c r="K67" s="402"/>
-      <c r="L67" s="402"/>
-      <c r="M67" s="402"/>
-      <c r="N67" s="402"/>
-      <c r="O67" s="402"/>
-      <c r="P67" s="402"/>
-      <c r="Q67" s="402"/>
+      <c r="I67" s="412"/>
+      <c r="J67" s="412"/>
+      <c r="K67" s="412"/>
+      <c r="L67" s="412"/>
+      <c r="M67" s="412"/>
+      <c r="N67" s="412"/>
+      <c r="O67" s="412"/>
+      <c r="P67" s="412"/>
+      <c r="Q67" s="412"/>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1">
@@ -13934,24 +13860,24 @@
       <c r="B68" s="121">
         <v>0</v>
       </c>
-      <c r="C68" s="397"/>
-      <c r="D68" s="398"/>
-      <c r="E68" s="397"/>
-      <c r="F68" s="397"/>
-      <c r="G68" s="399"/>
+      <c r="C68" s="409"/>
+      <c r="D68" s="410"/>
+      <c r="E68" s="409"/>
+      <c r="F68" s="409"/>
+      <c r="G68" s="411"/>
       <c r="H68" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I68" s="402"/>
-      <c r="J68" s="402"/>
-      <c r="K68" s="402"/>
-      <c r="L68" s="402"/>
-      <c r="M68" s="402"/>
-      <c r="N68" s="402"/>
-      <c r="O68" s="402"/>
-      <c r="P68" s="402"/>
-      <c r="Q68" s="402"/>
+      <c r="I68" s="412"/>
+      <c r="J68" s="412"/>
+      <c r="K68" s="412"/>
+      <c r="L68" s="412"/>
+      <c r="M68" s="412"/>
+      <c r="N68" s="412"/>
+      <c r="O68" s="412"/>
+      <c r="P68" s="412"/>
+      <c r="Q68" s="412"/>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1">
@@ -13960,24 +13886,24 @@
       <c r="B69" s="121">
         <v>0</v>
       </c>
-      <c r="C69" s="397"/>
-      <c r="D69" s="398"/>
-      <c r="E69" s="397"/>
-      <c r="F69" s="397"/>
-      <c r="G69" s="399"/>
+      <c r="C69" s="409"/>
+      <c r="D69" s="410"/>
+      <c r="E69" s="409"/>
+      <c r="F69" s="409"/>
+      <c r="G69" s="411"/>
       <c r="H69" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I69" s="402"/>
-      <c r="J69" s="402"/>
-      <c r="K69" s="402"/>
-      <c r="L69" s="402"/>
-      <c r="M69" s="402"/>
-      <c r="N69" s="402"/>
-      <c r="O69" s="402"/>
-      <c r="P69" s="402"/>
-      <c r="Q69" s="402"/>
+      <c r="I69" s="412"/>
+      <c r="J69" s="412"/>
+      <c r="K69" s="412"/>
+      <c r="L69" s="412"/>
+      <c r="M69" s="412"/>
+      <c r="N69" s="412"/>
+      <c r="O69" s="412"/>
+      <c r="P69" s="412"/>
+      <c r="Q69" s="412"/>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1">
@@ -13986,24 +13912,24 @@
       <c r="B70" s="121">
         <v>0</v>
       </c>
-      <c r="C70" s="397"/>
-      <c r="D70" s="398"/>
-      <c r="E70" s="397"/>
-      <c r="F70" s="397"/>
-      <c r="G70" s="399"/>
+      <c r="C70" s="409"/>
+      <c r="D70" s="410"/>
+      <c r="E70" s="409"/>
+      <c r="F70" s="409"/>
+      <c r="G70" s="411"/>
       <c r="H70" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I70" s="402"/>
-      <c r="J70" s="402"/>
-      <c r="K70" s="402"/>
-      <c r="L70" s="402"/>
-      <c r="M70" s="402"/>
-      <c r="N70" s="402"/>
-      <c r="O70" s="402"/>
-      <c r="P70" s="402"/>
-      <c r="Q70" s="402"/>
+      <c r="I70" s="412"/>
+      <c r="J70" s="412"/>
+      <c r="K70" s="412"/>
+      <c r="L70" s="412"/>
+      <c r="M70" s="412"/>
+      <c r="N70" s="412"/>
+      <c r="O70" s="412"/>
+      <c r="P70" s="412"/>
+      <c r="Q70" s="412"/>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1">
@@ -14012,38 +13938,38 @@
       <c r="B71" s="121">
         <v>0</v>
       </c>
-      <c r="C71" s="397">
-        <v>0</v>
-      </c>
-      <c r="D71" s="398">
+      <c r="C71" s="409">
+        <v>0</v>
+      </c>
+      <c r="D71" s="410">
         <f>IF(B76&gt;0,SUM(B71:B76)-C71,0)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="397">
+      <c r="E71" s="409">
         <v>6.2</v>
       </c>
-      <c r="F71" s="397">
+      <c r="F71" s="409">
         <v>25.3</v>
       </c>
-      <c r="G71" s="399">
+      <c r="G71" s="411">
         <v>0</v>
       </c>
       <c r="H71" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I71" s="402">
+      <c r="I71" s="412">
         <f>IF($D$2&gt;F71,G71*($D$2-F71)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="402"/>
-      <c r="K71" s="402"/>
-      <c r="L71" s="402"/>
-      <c r="M71" s="402"/>
-      <c r="N71" s="402"/>
-      <c r="O71" s="402"/>
-      <c r="P71" s="402"/>
-      <c r="Q71" s="402"/>
+      <c r="J71" s="412"/>
+      <c r="K71" s="412"/>
+      <c r="L71" s="412"/>
+      <c r="M71" s="412"/>
+      <c r="N71" s="412"/>
+      <c r="O71" s="412"/>
+      <c r="P71" s="412"/>
+      <c r="Q71" s="412"/>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1">
@@ -14052,24 +13978,24 @@
       <c r="B72" s="121">
         <v>0</v>
       </c>
-      <c r="C72" s="397"/>
-      <c r="D72" s="398"/>
-      <c r="E72" s="397"/>
-      <c r="F72" s="397"/>
-      <c r="G72" s="399"/>
+      <c r="C72" s="409"/>
+      <c r="D72" s="410"/>
+      <c r="E72" s="409"/>
+      <c r="F72" s="409"/>
+      <c r="G72" s="411"/>
       <c r="H72" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I72" s="402"/>
-      <c r="J72" s="402"/>
-      <c r="K72" s="402"/>
-      <c r="L72" s="402"/>
-      <c r="M72" s="402"/>
-      <c r="N72" s="402"/>
-      <c r="O72" s="402"/>
-      <c r="P72" s="402"/>
-      <c r="Q72" s="402"/>
+      <c r="I72" s="412"/>
+      <c r="J72" s="412"/>
+      <c r="K72" s="412"/>
+      <c r="L72" s="412"/>
+      <c r="M72" s="412"/>
+      <c r="N72" s="412"/>
+      <c r="O72" s="412"/>
+      <c r="P72" s="412"/>
+      <c r="Q72" s="412"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1">
@@ -14078,24 +14004,24 @@
       <c r="B73" s="121">
         <v>0</v>
       </c>
-      <c r="C73" s="397"/>
-      <c r="D73" s="398"/>
-      <c r="E73" s="397"/>
-      <c r="F73" s="397"/>
-      <c r="G73" s="399"/>
+      <c r="C73" s="409"/>
+      <c r="D73" s="410"/>
+      <c r="E73" s="409"/>
+      <c r="F73" s="409"/>
+      <c r="G73" s="411"/>
       <c r="H73" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I73" s="402"/>
-      <c r="J73" s="402"/>
-      <c r="K73" s="402"/>
-      <c r="L73" s="402"/>
-      <c r="M73" s="402"/>
-      <c r="N73" s="402"/>
-      <c r="O73" s="402"/>
-      <c r="P73" s="402"/>
-      <c r="Q73" s="402"/>
+      <c r="I73" s="412"/>
+      <c r="J73" s="412"/>
+      <c r="K73" s="412"/>
+      <c r="L73" s="412"/>
+      <c r="M73" s="412"/>
+      <c r="N73" s="412"/>
+      <c r="O73" s="412"/>
+      <c r="P73" s="412"/>
+      <c r="Q73" s="412"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1">
@@ -14104,24 +14030,24 @@
       <c r="B74" s="121">
         <v>0</v>
       </c>
-      <c r="C74" s="397"/>
-      <c r="D74" s="398"/>
-      <c r="E74" s="397"/>
-      <c r="F74" s="397"/>
-      <c r="G74" s="399"/>
+      <c r="C74" s="409"/>
+      <c r="D74" s="410"/>
+      <c r="E74" s="409"/>
+      <c r="F74" s="409"/>
+      <c r="G74" s="411"/>
       <c r="H74" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I74" s="402"/>
-      <c r="J74" s="402"/>
-      <c r="K74" s="402"/>
-      <c r="L74" s="402"/>
-      <c r="M74" s="402"/>
-      <c r="N74" s="402"/>
-      <c r="O74" s="402"/>
-      <c r="P74" s="402"/>
-      <c r="Q74" s="402"/>
+      <c r="I74" s="412"/>
+      <c r="J74" s="412"/>
+      <c r="K74" s="412"/>
+      <c r="L74" s="412"/>
+      <c r="M74" s="412"/>
+      <c r="N74" s="412"/>
+      <c r="O74" s="412"/>
+      <c r="P74" s="412"/>
+      <c r="Q74" s="412"/>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1">
@@ -14130,24 +14056,24 @@
       <c r="B75" s="121">
         <v>0</v>
       </c>
-      <c r="C75" s="397"/>
-      <c r="D75" s="398"/>
-      <c r="E75" s="397"/>
-      <c r="F75" s="397"/>
-      <c r="G75" s="399"/>
+      <c r="C75" s="409"/>
+      <c r="D75" s="410"/>
+      <c r="E75" s="409"/>
+      <c r="F75" s="409"/>
+      <c r="G75" s="411"/>
       <c r="H75" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I75" s="402"/>
-      <c r="J75" s="402"/>
-      <c r="K75" s="402"/>
-      <c r="L75" s="402"/>
-      <c r="M75" s="402"/>
-      <c r="N75" s="402"/>
-      <c r="O75" s="402"/>
-      <c r="P75" s="402"/>
-      <c r="Q75" s="402"/>
+      <c r="I75" s="412"/>
+      <c r="J75" s="412"/>
+      <c r="K75" s="412"/>
+      <c r="L75" s="412"/>
+      <c r="M75" s="412"/>
+      <c r="N75" s="412"/>
+      <c r="O75" s="412"/>
+      <c r="P75" s="412"/>
+      <c r="Q75" s="412"/>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1">
@@ -14156,24 +14082,24 @@
       <c r="B76" s="121">
         <v>0</v>
       </c>
-      <c r="C76" s="397"/>
-      <c r="D76" s="398"/>
-      <c r="E76" s="397"/>
-      <c r="F76" s="397"/>
-      <c r="G76" s="399"/>
+      <c r="C76" s="409"/>
+      <c r="D76" s="410"/>
+      <c r="E76" s="409"/>
+      <c r="F76" s="409"/>
+      <c r="G76" s="411"/>
       <c r="H76" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I76" s="402"/>
-      <c r="J76" s="402"/>
-      <c r="K76" s="402"/>
-      <c r="L76" s="402"/>
-      <c r="M76" s="402"/>
-      <c r="N76" s="402"/>
-      <c r="O76" s="402"/>
-      <c r="P76" s="402"/>
-      <c r="Q76" s="402"/>
+      <c r="I76" s="412"/>
+      <c r="J76" s="412"/>
+      <c r="K76" s="412"/>
+      <c r="L76" s="412"/>
+      <c r="M76" s="412"/>
+      <c r="N76" s="412"/>
+      <c r="O76" s="412"/>
+      <c r="P76" s="412"/>
+      <c r="Q76" s="412"/>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1">
@@ -14182,38 +14108,38 @@
       <c r="B77" s="121">
         <v>0</v>
       </c>
-      <c r="C77" s="397">
-        <v>0</v>
-      </c>
-      <c r="D77" s="398">
+      <c r="C77" s="409">
+        <v>0</v>
+      </c>
+      <c r="D77" s="410">
         <f>IF(B82&gt;0,SUM(B77:B82)-C77,0)</f>
         <v>0</v>
       </c>
-      <c r="E77" s="397">
+      <c r="E77" s="409">
         <v>6.2</v>
       </c>
-      <c r="F77" s="397">
+      <c r="F77" s="409">
         <v>25.3</v>
       </c>
-      <c r="G77" s="399">
+      <c r="G77" s="411">
         <v>0</v>
       </c>
       <c r="H77" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I77" s="402">
+      <c r="I77" s="412">
         <f>IF($D$2&gt;F77,G77*($D$2-F77)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="402"/>
-      <c r="K77" s="402"/>
-      <c r="L77" s="402"/>
-      <c r="M77" s="402"/>
-      <c r="N77" s="402"/>
-      <c r="O77" s="402"/>
-      <c r="P77" s="402"/>
-      <c r="Q77" s="402"/>
+      <c r="J77" s="412"/>
+      <c r="K77" s="412"/>
+      <c r="L77" s="412"/>
+      <c r="M77" s="412"/>
+      <c r="N77" s="412"/>
+      <c r="O77" s="412"/>
+      <c r="P77" s="412"/>
+      <c r="Q77" s="412"/>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1">
@@ -14222,24 +14148,24 @@
       <c r="B78" s="121">
         <v>0</v>
       </c>
-      <c r="C78" s="397"/>
-      <c r="D78" s="398"/>
-      <c r="E78" s="397"/>
-      <c r="F78" s="397"/>
-      <c r="G78" s="399"/>
+      <c r="C78" s="409"/>
+      <c r="D78" s="410"/>
+      <c r="E78" s="409"/>
+      <c r="F78" s="409"/>
+      <c r="G78" s="411"/>
       <c r="H78" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I78" s="402"/>
-      <c r="J78" s="402"/>
-      <c r="K78" s="402"/>
-      <c r="L78" s="402"/>
-      <c r="M78" s="402"/>
-      <c r="N78" s="402"/>
-      <c r="O78" s="402"/>
-      <c r="P78" s="402"/>
-      <c r="Q78" s="402"/>
+      <c r="I78" s="412"/>
+      <c r="J78" s="412"/>
+      <c r="K78" s="412"/>
+      <c r="L78" s="412"/>
+      <c r="M78" s="412"/>
+      <c r="N78" s="412"/>
+      <c r="O78" s="412"/>
+      <c r="P78" s="412"/>
+      <c r="Q78" s="412"/>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1">
@@ -14248,24 +14174,24 @@
       <c r="B79" s="121">
         <v>0</v>
       </c>
-      <c r="C79" s="397"/>
-      <c r="D79" s="398"/>
-      <c r="E79" s="397"/>
-      <c r="F79" s="397"/>
-      <c r="G79" s="399"/>
+      <c r="C79" s="409"/>
+      <c r="D79" s="410"/>
+      <c r="E79" s="409"/>
+      <c r="F79" s="409"/>
+      <c r="G79" s="411"/>
       <c r="H79" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I79" s="402"/>
-      <c r="J79" s="402"/>
-      <c r="K79" s="402"/>
-      <c r="L79" s="402"/>
-      <c r="M79" s="402"/>
-      <c r="N79" s="402"/>
-      <c r="O79" s="402"/>
-      <c r="P79" s="402"/>
-      <c r="Q79" s="402"/>
+      <c r="I79" s="412"/>
+      <c r="J79" s="412"/>
+      <c r="K79" s="412"/>
+      <c r="L79" s="412"/>
+      <c r="M79" s="412"/>
+      <c r="N79" s="412"/>
+      <c r="O79" s="412"/>
+      <c r="P79" s="412"/>
+      <c r="Q79" s="412"/>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1">
@@ -14274,24 +14200,24 @@
       <c r="B80" s="121">
         <v>0</v>
       </c>
-      <c r="C80" s="397"/>
-      <c r="D80" s="398"/>
-      <c r="E80" s="397"/>
-      <c r="F80" s="397"/>
-      <c r="G80" s="399"/>
+      <c r="C80" s="409"/>
+      <c r="D80" s="410"/>
+      <c r="E80" s="409"/>
+      <c r="F80" s="409"/>
+      <c r="G80" s="411"/>
       <c r="H80" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I80" s="402"/>
-      <c r="J80" s="402"/>
-      <c r="K80" s="402"/>
-      <c r="L80" s="402"/>
-      <c r="M80" s="402"/>
-      <c r="N80" s="402"/>
-      <c r="O80" s="402"/>
-      <c r="P80" s="402"/>
-      <c r="Q80" s="402"/>
+      <c r="I80" s="412"/>
+      <c r="J80" s="412"/>
+      <c r="K80" s="412"/>
+      <c r="L80" s="412"/>
+      <c r="M80" s="412"/>
+      <c r="N80" s="412"/>
+      <c r="O80" s="412"/>
+      <c r="P80" s="412"/>
+      <c r="Q80" s="412"/>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1">
@@ -14300,24 +14226,24 @@
       <c r="B81" s="121">
         <v>0</v>
       </c>
-      <c r="C81" s="397"/>
-      <c r="D81" s="398"/>
-      <c r="E81" s="397"/>
-      <c r="F81" s="397"/>
-      <c r="G81" s="399"/>
+      <c r="C81" s="409"/>
+      <c r="D81" s="410"/>
+      <c r="E81" s="409"/>
+      <c r="F81" s="409"/>
+      <c r="G81" s="411"/>
       <c r="H81" s="120">
         <f t="shared" ref="H81:H88" si="3">R87*0.25</f>
         <v>0</v>
       </c>
-      <c r="I81" s="402"/>
-      <c r="J81" s="402"/>
-      <c r="K81" s="402"/>
-      <c r="L81" s="402"/>
-      <c r="M81" s="402"/>
-      <c r="N81" s="402"/>
-      <c r="O81" s="402"/>
-      <c r="P81" s="402"/>
-      <c r="Q81" s="402"/>
+      <c r="I81" s="412"/>
+      <c r="J81" s="412"/>
+      <c r="K81" s="412"/>
+      <c r="L81" s="412"/>
+      <c r="M81" s="412"/>
+      <c r="N81" s="412"/>
+      <c r="O81" s="412"/>
+      <c r="P81" s="412"/>
+      <c r="Q81" s="412"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1">
@@ -14326,24 +14252,24 @@
       <c r="B82" s="121">
         <v>0</v>
       </c>
-      <c r="C82" s="397"/>
-      <c r="D82" s="398"/>
-      <c r="E82" s="397"/>
-      <c r="F82" s="397"/>
-      <c r="G82" s="399"/>
+      <c r="C82" s="409"/>
+      <c r="D82" s="410"/>
+      <c r="E82" s="409"/>
+      <c r="F82" s="409"/>
+      <c r="G82" s="411"/>
       <c r="H82" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I82" s="402"/>
-      <c r="J82" s="402"/>
-      <c r="K82" s="402"/>
-      <c r="L82" s="402"/>
-      <c r="M82" s="402"/>
-      <c r="N82" s="402"/>
-      <c r="O82" s="402"/>
-      <c r="P82" s="402"/>
-      <c r="Q82" s="402"/>
+      <c r="I82" s="412"/>
+      <c r="J82" s="412"/>
+      <c r="K82" s="412"/>
+      <c r="L82" s="412"/>
+      <c r="M82" s="412"/>
+      <c r="N82" s="412"/>
+      <c r="O82" s="412"/>
+      <c r="P82" s="412"/>
+      <c r="Q82" s="412"/>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1">
@@ -14352,38 +14278,38 @@
       <c r="B83" s="121">
         <v>0</v>
       </c>
-      <c r="C83" s="397">
-        <v>0</v>
-      </c>
-      <c r="D83" s="398">
+      <c r="C83" s="409">
+        <v>0</v>
+      </c>
+      <c r="D83" s="410">
         <f>IF(B88&gt;0,SUM(B83:B88)-C83,0)</f>
         <v>0</v>
       </c>
-      <c r="E83" s="397">
+      <c r="E83" s="409">
         <v>6.2</v>
       </c>
-      <c r="F83" s="397">
+      <c r="F83" s="409">
         <v>25.3</v>
       </c>
-      <c r="G83" s="399">
+      <c r="G83" s="411">
         <v>0</v>
       </c>
       <c r="H83" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I83" s="402">
+      <c r="I83" s="412">
         <f>IF($D$2&gt;F83,G83*($D$2-F83)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J83" s="402"/>
-      <c r="K83" s="402"/>
-      <c r="L83" s="402"/>
-      <c r="M83" s="402"/>
-      <c r="N83" s="402"/>
-      <c r="O83" s="402"/>
-      <c r="P83" s="402"/>
-      <c r="Q83" s="402"/>
+      <c r="J83" s="412"/>
+      <c r="K83" s="412"/>
+      <c r="L83" s="412"/>
+      <c r="M83" s="412"/>
+      <c r="N83" s="412"/>
+      <c r="O83" s="412"/>
+      <c r="P83" s="412"/>
+      <c r="Q83" s="412"/>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1">
@@ -14392,24 +14318,24 @@
       <c r="B84" s="121">
         <v>0</v>
       </c>
-      <c r="C84" s="397"/>
-      <c r="D84" s="398"/>
-      <c r="E84" s="397"/>
-      <c r="F84" s="397"/>
-      <c r="G84" s="399"/>
+      <c r="C84" s="409"/>
+      <c r="D84" s="410"/>
+      <c r="E84" s="409"/>
+      <c r="F84" s="409"/>
+      <c r="G84" s="411"/>
       <c r="H84" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I84" s="402"/>
-      <c r="J84" s="402"/>
-      <c r="K84" s="402"/>
-      <c r="L84" s="402"/>
-      <c r="M84" s="402"/>
-      <c r="N84" s="402"/>
-      <c r="O84" s="402"/>
-      <c r="P84" s="402"/>
-      <c r="Q84" s="402"/>
+      <c r="I84" s="412"/>
+      <c r="J84" s="412"/>
+      <c r="K84" s="412"/>
+      <c r="L84" s="412"/>
+      <c r="M84" s="412"/>
+      <c r="N84" s="412"/>
+      <c r="O84" s="412"/>
+      <c r="P84" s="412"/>
+      <c r="Q84" s="412"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1">
@@ -14418,24 +14344,24 @@
       <c r="B85" s="121">
         <v>0</v>
       </c>
-      <c r="C85" s="397"/>
-      <c r="D85" s="398"/>
-      <c r="E85" s="397"/>
-      <c r="F85" s="397"/>
-      <c r="G85" s="399"/>
+      <c r="C85" s="409"/>
+      <c r="D85" s="410"/>
+      <c r="E85" s="409"/>
+      <c r="F85" s="409"/>
+      <c r="G85" s="411"/>
       <c r="H85" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I85" s="402"/>
-      <c r="J85" s="402"/>
-      <c r="K85" s="402"/>
-      <c r="L85" s="402"/>
-      <c r="M85" s="402"/>
-      <c r="N85" s="402"/>
-      <c r="O85" s="402"/>
-      <c r="P85" s="402"/>
-      <c r="Q85" s="402"/>
+      <c r="I85" s="412"/>
+      <c r="J85" s="412"/>
+      <c r="K85" s="412"/>
+      <c r="L85" s="412"/>
+      <c r="M85" s="412"/>
+      <c r="N85" s="412"/>
+      <c r="O85" s="412"/>
+      <c r="P85" s="412"/>
+      <c r="Q85" s="412"/>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1">
@@ -14444,24 +14370,24 @@
       <c r="B86" s="121">
         <v>0</v>
       </c>
-      <c r="C86" s="397"/>
-      <c r="D86" s="398"/>
-      <c r="E86" s="397"/>
-      <c r="F86" s="397"/>
-      <c r="G86" s="399"/>
+      <c r="C86" s="409"/>
+      <c r="D86" s="410"/>
+      <c r="E86" s="409"/>
+      <c r="F86" s="409"/>
+      <c r="G86" s="411"/>
       <c r="H86" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I86" s="402"/>
-      <c r="J86" s="402"/>
-      <c r="K86" s="402"/>
-      <c r="L86" s="402"/>
-      <c r="M86" s="402"/>
-      <c r="N86" s="402"/>
-      <c r="O86" s="402"/>
-      <c r="P86" s="402"/>
-      <c r="Q86" s="402"/>
+      <c r="I86" s="412"/>
+      <c r="J86" s="412"/>
+      <c r="K86" s="412"/>
+      <c r="L86" s="412"/>
+      <c r="M86" s="412"/>
+      <c r="N86" s="412"/>
+      <c r="O86" s="412"/>
+      <c r="P86" s="412"/>
+      <c r="Q86" s="412"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1">
@@ -14470,24 +14396,24 @@
       <c r="B87" s="121">
         <v>0</v>
       </c>
-      <c r="C87" s="397"/>
-      <c r="D87" s="398"/>
-      <c r="E87" s="397"/>
-      <c r="F87" s="397"/>
-      <c r="G87" s="399"/>
+      <c r="C87" s="409"/>
+      <c r="D87" s="410"/>
+      <c r="E87" s="409"/>
+      <c r="F87" s="409"/>
+      <c r="G87" s="411"/>
       <c r="H87" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I87" s="402"/>
-      <c r="J87" s="402"/>
-      <c r="K87" s="402"/>
-      <c r="L87" s="402"/>
-      <c r="M87" s="402"/>
-      <c r="N87" s="402"/>
-      <c r="O87" s="402"/>
-      <c r="P87" s="402"/>
-      <c r="Q87" s="402"/>
+      <c r="I87" s="412"/>
+      <c r="J87" s="412"/>
+      <c r="K87" s="412"/>
+      <c r="L87" s="412"/>
+      <c r="M87" s="412"/>
+      <c r="N87" s="412"/>
+      <c r="O87" s="412"/>
+      <c r="P87" s="412"/>
+      <c r="Q87" s="412"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1">
@@ -14496,59 +14422,160 @@
       <c r="B88" s="121">
         <v>0</v>
       </c>
-      <c r="C88" s="397"/>
-      <c r="D88" s="398"/>
-      <c r="E88" s="397"/>
-      <c r="F88" s="397"/>
-      <c r="G88" s="399"/>
+      <c r="C88" s="409"/>
+      <c r="D88" s="410"/>
+      <c r="E88" s="409"/>
+      <c r="F88" s="409"/>
+      <c r="G88" s="411"/>
       <c r="H88" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I88" s="402"/>
-      <c r="J88" s="402"/>
-      <c r="K88" s="402"/>
-      <c r="L88" s="402"/>
-      <c r="M88" s="402"/>
-      <c r="N88" s="402"/>
-      <c r="O88" s="402"/>
-      <c r="P88" s="402"/>
-      <c r="Q88" s="402"/>
+      <c r="I88" s="412"/>
+      <c r="J88" s="412"/>
+      <c r="K88" s="412"/>
+      <c r="L88" s="412"/>
+      <c r="M88" s="412"/>
+      <c r="N88" s="412"/>
+      <c r="O88" s="412"/>
+      <c r="P88" s="412"/>
+      <c r="Q88" s="412"/>
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="G83:G88"/>
-    <mergeCell ref="O83:O88"/>
-    <mergeCell ref="P83:P88"/>
-    <mergeCell ref="Q83:Q88"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="K83:K88"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="M83:M88"/>
-    <mergeCell ref="N83:N88"/>
-    <mergeCell ref="M71:M76"/>
-    <mergeCell ref="N71:N76"/>
-    <mergeCell ref="O71:O76"/>
-    <mergeCell ref="P71:P76"/>
-    <mergeCell ref="M77:M82"/>
-    <mergeCell ref="N77:N82"/>
-    <mergeCell ref="O77:O82"/>
-    <mergeCell ref="P77:P82"/>
-    <mergeCell ref="Q77:Q82"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="F77:F82"/>
-    <mergeCell ref="G77:G82"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="J77:J82"/>
-    <mergeCell ref="K77:K82"/>
-    <mergeCell ref="L77:L82"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="P10:P15"/>
+    <mergeCell ref="Q10:Q15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="M10:M15"/>
+    <mergeCell ref="N10:N15"/>
+    <mergeCell ref="Q16:Q21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="N16:N21"/>
+    <mergeCell ref="O16:O21"/>
+    <mergeCell ref="P16:P21"/>
+    <mergeCell ref="P22:P27"/>
+    <mergeCell ref="Q22:Q27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="O28:O34"/>
+    <mergeCell ref="P28:P34"/>
+    <mergeCell ref="Q28:Q34"/>
+    <mergeCell ref="K28:K34"/>
+    <mergeCell ref="L28:L34"/>
+    <mergeCell ref="M28:M34"/>
+    <mergeCell ref="N28:N34"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="J35:J40"/>
+    <mergeCell ref="I28:I34"/>
+    <mergeCell ref="J28:J34"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="Q35:Q40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="F41:F46"/>
+    <mergeCell ref="G41:G46"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="J41:J46"/>
+    <mergeCell ref="K41:K46"/>
+    <mergeCell ref="L41:L46"/>
+    <mergeCell ref="K35:K40"/>
+    <mergeCell ref="L35:L40"/>
+    <mergeCell ref="M35:M40"/>
+    <mergeCell ref="N35:N40"/>
+    <mergeCell ref="O35:O40"/>
+    <mergeCell ref="P35:P40"/>
+    <mergeCell ref="M41:M46"/>
+    <mergeCell ref="N41:N46"/>
+    <mergeCell ref="O41:O46"/>
+    <mergeCell ref="P41:P46"/>
+    <mergeCell ref="Q41:Q46"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="O47:O52"/>
+    <mergeCell ref="P47:P52"/>
+    <mergeCell ref="Q47:Q52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="I53:I58"/>
+    <mergeCell ref="J53:J58"/>
+    <mergeCell ref="I47:I52"/>
+    <mergeCell ref="J47:J52"/>
+    <mergeCell ref="K47:K52"/>
+    <mergeCell ref="L47:L52"/>
+    <mergeCell ref="M47:M52"/>
+    <mergeCell ref="N47:N52"/>
+    <mergeCell ref="Q53:Q58"/>
+    <mergeCell ref="K53:K58"/>
+    <mergeCell ref="L53:L58"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="F59:F64"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="J59:J64"/>
+    <mergeCell ref="K59:K64"/>
+    <mergeCell ref="L59:L64"/>
+    <mergeCell ref="M53:M58"/>
+    <mergeCell ref="N53:N58"/>
+    <mergeCell ref="O53:O58"/>
+    <mergeCell ref="P53:P58"/>
+    <mergeCell ref="M59:M64"/>
+    <mergeCell ref="N59:N64"/>
+    <mergeCell ref="O59:O64"/>
+    <mergeCell ref="P59:P64"/>
+    <mergeCell ref="Q59:Q64"/>
     <mergeCell ref="C65:C70"/>
     <mergeCell ref="D65:D70"/>
     <mergeCell ref="E65:E70"/>
@@ -14573,139 +14600,38 @@
     <mergeCell ref="Q71:Q76"/>
     <mergeCell ref="K71:K76"/>
     <mergeCell ref="L71:L76"/>
-    <mergeCell ref="M53:M58"/>
-    <mergeCell ref="N53:N58"/>
-    <mergeCell ref="O53:O58"/>
-    <mergeCell ref="P53:P58"/>
-    <mergeCell ref="M59:M64"/>
-    <mergeCell ref="N59:N64"/>
-    <mergeCell ref="O59:O64"/>
-    <mergeCell ref="P59:P64"/>
-    <mergeCell ref="Q59:Q64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="F59:F64"/>
-    <mergeCell ref="G59:G64"/>
-    <mergeCell ref="I59:I64"/>
-    <mergeCell ref="J59:J64"/>
-    <mergeCell ref="K59:K64"/>
-    <mergeCell ref="L59:L64"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="E47:E52"/>
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="O47:O52"/>
-    <mergeCell ref="P47:P52"/>
-    <mergeCell ref="Q47:Q52"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="I53:I58"/>
-    <mergeCell ref="J53:J58"/>
-    <mergeCell ref="I47:I52"/>
-    <mergeCell ref="J47:J52"/>
-    <mergeCell ref="K47:K52"/>
-    <mergeCell ref="L47:L52"/>
-    <mergeCell ref="M47:M52"/>
-    <mergeCell ref="N47:N52"/>
-    <mergeCell ref="Q53:Q58"/>
-    <mergeCell ref="K53:K58"/>
-    <mergeCell ref="L53:L58"/>
-    <mergeCell ref="Q35:Q40"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="F41:F46"/>
-    <mergeCell ref="G41:G46"/>
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="J41:J46"/>
-    <mergeCell ref="K41:K46"/>
-    <mergeCell ref="L41:L46"/>
-    <mergeCell ref="K35:K40"/>
-    <mergeCell ref="L35:L40"/>
-    <mergeCell ref="M35:M40"/>
-    <mergeCell ref="N35:N40"/>
-    <mergeCell ref="O35:O40"/>
-    <mergeCell ref="P35:P40"/>
-    <mergeCell ref="M41:M46"/>
-    <mergeCell ref="N41:N46"/>
-    <mergeCell ref="O41:O46"/>
-    <mergeCell ref="P41:P46"/>
-    <mergeCell ref="Q41:Q46"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="J35:J40"/>
-    <mergeCell ref="I28:I34"/>
-    <mergeCell ref="J28:J34"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="O22:O27"/>
-    <mergeCell ref="P22:P27"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="G28:G34"/>
-    <mergeCell ref="O28:O34"/>
-    <mergeCell ref="P28:P34"/>
-    <mergeCell ref="Q28:Q34"/>
-    <mergeCell ref="K28:K34"/>
-    <mergeCell ref="L28:L34"/>
-    <mergeCell ref="M28:M34"/>
-    <mergeCell ref="N28:N34"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="P10:P15"/>
-    <mergeCell ref="Q10:Q15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="L10:L15"/>
-    <mergeCell ref="M10:M15"/>
-    <mergeCell ref="N10:N15"/>
-    <mergeCell ref="Q16:Q21"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="M16:M21"/>
-    <mergeCell ref="N16:N21"/>
-    <mergeCell ref="O16:O21"/>
-    <mergeCell ref="P16:P21"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="J77:J82"/>
+    <mergeCell ref="K77:K82"/>
+    <mergeCell ref="L77:L82"/>
+    <mergeCell ref="M71:M76"/>
+    <mergeCell ref="N71:N76"/>
+    <mergeCell ref="O71:O76"/>
+    <mergeCell ref="P71:P76"/>
+    <mergeCell ref="M77:M82"/>
+    <mergeCell ref="N77:N82"/>
+    <mergeCell ref="O77:O82"/>
+    <mergeCell ref="P77:P82"/>
+    <mergeCell ref="Q77:Q82"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="G83:G88"/>
+    <mergeCell ref="O83:O88"/>
+    <mergeCell ref="P83:P88"/>
+    <mergeCell ref="Q83:Q88"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="K83:K88"/>
+    <mergeCell ref="L83:L88"/>
+    <mergeCell ref="M83:M88"/>
+    <mergeCell ref="N83:N88"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16138,29 +16064,29 @@
     </row>
     <row r="6" spans="4:12" ht="17.100000000000001" customHeight="1">
       <c r="F6" s="220"/>
-      <c r="G6" s="471" t="s">
+      <c r="G6" s="476" t="s">
         <v>981</v>
       </c>
-      <c r="H6" s="473" t="s">
+      <c r="H6" s="478" t="s">
         <v>982</v>
       </c>
-      <c r="I6" s="473" t="s">
+      <c r="I6" s="478" t="s">
         <v>983</v>
       </c>
-      <c r="J6" s="473" t="s">
+      <c r="J6" s="478" t="s">
         <v>984</v>
       </c>
-      <c r="K6" s="469" t="s">
+      <c r="K6" s="467" t="s">
         <v>985</v>
       </c>
-      <c r="L6" s="470"/>
+      <c r="L6" s="468"/>
     </row>
     <row r="7" spans="4:12" ht="18" customHeight="1">
       <c r="F7" s="220"/>
-      <c r="G7" s="472"/>
-      <c r="H7" s="474"/>
-      <c r="I7" s="474"/>
-      <c r="J7" s="474"/>
+      <c r="G7" s="477"/>
+      <c r="H7" s="479"/>
+      <c r="I7" s="479"/>
+      <c r="J7" s="479"/>
       <c r="K7" s="221" t="s">
         <v>986</v>
       </c>
@@ -16169,11 +16095,11 @@
       </c>
     </row>
     <row r="8" spans="4:12" ht="30" customHeight="1" thickBot="1">
-      <c r="D8" s="460" t="s">
+      <c r="D8" s="475" t="s">
         <v>988</v>
       </c>
-      <c r="E8" s="460"/>
-      <c r="F8" s="460"/>
+      <c r="E8" s="475"/>
+      <c r="F8" s="475"/>
       <c r="G8" s="223">
         <v>9.6</v>
       </c>
@@ -16219,21 +16145,21 @@
     </row>
     <row r="12" spans="4:12" ht="18.75">
       <c r="F12" s="220"/>
-      <c r="G12" s="454" t="s">
+      <c r="G12" s="469" t="s">
         <v>989</v>
       </c>
-      <c r="H12" s="456" t="s">
+      <c r="H12" s="471" t="s">
         <v>990</v>
       </c>
-      <c r="I12" s="458" t="s">
+      <c r="I12" s="473" t="s">
         <v>991</v>
       </c>
-      <c r="J12" s="459"/>
+      <c r="J12" s="474"/>
     </row>
     <row r="13" spans="4:12" ht="18.75">
       <c r="F13" s="220"/>
-      <c r="G13" s="455"/>
-      <c r="H13" s="457"/>
+      <c r="G13" s="470"/>
+      <c r="H13" s="472"/>
       <c r="I13" s="226" t="s">
         <v>992</v>
       </c>
@@ -16242,11 +16168,11 @@
       </c>
     </row>
     <row r="14" spans="4:12" ht="33" customHeight="1" thickBot="1">
-      <c r="D14" s="460" t="s">
+      <c r="D14" s="475" t="s">
         <v>994</v>
       </c>
-      <c r="E14" s="460"/>
-      <c r="F14" s="460"/>
+      <c r="E14" s="475"/>
+      <c r="F14" s="475"/>
       <c r="G14" s="228" t="s">
         <v>995</v>
       </c>
@@ -16264,20 +16190,20 @@
     </row>
     <row r="16" spans="4:12" ht="15.75" thickBot="1"/>
     <row r="17" spans="4:10" ht="18.75">
-      <c r="G17" s="454" t="s">
+      <c r="G17" s="469" t="s">
         <v>996</v>
       </c>
-      <c r="H17" s="456" t="s">
+      <c r="H17" s="471" t="s">
         <v>990</v>
       </c>
-      <c r="I17" s="458" t="s">
+      <c r="I17" s="473" t="s">
         <v>991</v>
       </c>
-      <c r="J17" s="459"/>
+      <c r="J17" s="474"/>
     </row>
     <row r="18" spans="4:10" ht="18.75">
-      <c r="G18" s="455"/>
-      <c r="H18" s="457"/>
+      <c r="G18" s="470"/>
+      <c r="H18" s="472"/>
       <c r="I18" s="226" t="s">
         <v>992</v>
       </c>
@@ -16286,11 +16212,11 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="33" customHeight="1" thickBot="1">
-      <c r="D19" s="460" t="s">
+      <c r="D19" s="475" t="s">
         <v>994</v>
       </c>
-      <c r="E19" s="460"/>
-      <c r="F19" s="460"/>
+      <c r="E19" s="475"/>
+      <c r="F19" s="475"/>
       <c r="G19" s="228" t="s">
         <v>997</v>
       </c>
@@ -16308,20 +16234,20 @@
     </row>
     <row r="21" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="22" spans="4:10" ht="18.75">
-      <c r="G22" s="461" t="s">
+      <c r="G22" s="480" t="s">
         <v>998</v>
       </c>
-      <c r="H22" s="456" t="s">
+      <c r="H22" s="471" t="s">
         <v>990</v>
       </c>
-      <c r="I22" s="458" t="s">
+      <c r="I22" s="473" t="s">
         <v>991</v>
       </c>
-      <c r="J22" s="459"/>
+      <c r="J22" s="474"/>
     </row>
     <row r="23" spans="4:10" ht="18.75">
-      <c r="G23" s="462"/>
-      <c r="H23" s="457"/>
+      <c r="G23" s="481"/>
+      <c r="H23" s="472"/>
       <c r="I23" s="226" t="s">
         <v>992</v>
       </c>
@@ -16330,11 +16256,11 @@
       </c>
     </row>
     <row r="24" spans="4:10" ht="32.1" customHeight="1">
-      <c r="D24" s="460" t="s">
+      <c r="D24" s="475" t="s">
         <v>994</v>
       </c>
-      <c r="E24" s="460"/>
-      <c r="F24" s="460"/>
+      <c r="E24" s="475"/>
+      <c r="F24" s="475"/>
       <c r="G24" s="229" t="s">
         <v>999</v>
       </c>
@@ -16389,20 +16315,20 @@
     </row>
     <row r="29" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="30" spans="4:10" ht="18.75">
-      <c r="G30" s="463" t="s">
+      <c r="G30" s="482" t="s">
         <v>1002</v>
       </c>
-      <c r="H30" s="465" t="s">
+      <c r="H30" s="484" t="s">
         <v>1003</v>
       </c>
-      <c r="I30" s="467" t="s">
+      <c r="I30" s="486" t="s">
         <v>1004</v>
       </c>
-      <c r="J30" s="468"/>
+      <c r="J30" s="487"/>
     </row>
     <row r="31" spans="4:10" ht="18.75">
-      <c r="G31" s="464"/>
-      <c r="H31" s="466"/>
+      <c r="G31" s="483"/>
+      <c r="H31" s="485"/>
       <c r="I31" s="233" t="s">
         <v>986</v>
       </c>
@@ -16411,11 +16337,11 @@
       </c>
     </row>
     <row r="32" spans="4:10" ht="35.1" customHeight="1" thickBot="1">
-      <c r="D32" s="460" t="s">
+      <c r="D32" s="475" t="s">
         <v>1005</v>
       </c>
-      <c r="E32" s="460"/>
-      <c r="F32" s="460"/>
+      <c r="E32" s="475"/>
+      <c r="F32" s="475"/>
       <c r="G32" s="235" t="s">
         <v>999</v>
       </c>
@@ -16433,16 +16359,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:J17"/>
@@ -16455,6 +16371,16 @@
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17518,14 +17444,14 @@
       <c r="C8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="403" t="s">
+      <c r="D8" s="416" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="404"/>
-      <c r="F8" s="404"/>
-      <c r="G8" s="404"/>
-      <c r="H8" s="404"/>
-      <c r="I8" s="405"/>
+      <c r="E8" s="417"/>
+      <c r="F8" s="417"/>
+      <c r="G8" s="417"/>
+      <c r="H8" s="417"/>
+      <c r="I8" s="418"/>
       <c r="J8" s="59" t="s">
         <v>78</v>
       </c>
@@ -17533,8 +17459,8 @@
     </row>
     <row r="9" spans="1:11" s="47" customFormat="1">
       <c r="A9" s="65"/>
-      <c r="B9" s="406"/>
-      <c r="C9" s="407"/>
+      <c r="B9" s="419"/>
+      <c r="C9" s="420"/>
       <c r="D9" s="59" t="s">
         <v>93</v>
       </c>
@@ -18203,17 +18129,17 @@
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" thickBot="1">
       <c r="A1" s="272"/>
-      <c r="B1" s="408" t="s">
+      <c r="B1" s="454" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="409"/>
-      <c r="D1" s="409"/>
-      <c r="E1" s="409"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="411" t="s">
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="457" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="412"/>
+      <c r="H1" s="458"/>
     </row>
     <row r="2" spans="1:40" ht="17.25" thickBot="1">
       <c r="A2" s="275" t="s">
@@ -18234,11 +18160,11 @@
       <c r="F2" s="277" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="413">
+      <c r="G2" s="459">
         <f ca="1">TODAY()-A13</f>
-        <v>1198</v>
-      </c>
-      <c r="H2" s="414"/>
+        <v>1200</v>
+      </c>
+      <c r="H2" s="460"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
       <c r="A3" s="278">
@@ -18247,11 +18173,11 @@
       </c>
       <c r="B3" s="279">
         <f>C3+D3+E3+F3</f>
-        <v>1434742.5599999994</v>
+        <v>1434888.5199999993</v>
       </c>
       <c r="C3" s="280">
         <f>'whobor-touna'!J3+人人贷!E3+宜人贷!T2+'whobor-wzd'!N2</f>
-        <v>647952.85</v>
+        <v>648098.81000000006</v>
       </c>
       <c r="D3" s="281">
         <f>'thmei-touna'!J3</f>
@@ -18265,35 +18191,35 @@
         <f>'whobor-touna'!L3</f>
         <v>21315.100000000002</v>
       </c>
-      <c r="G3" s="411" t="s">
+      <c r="G3" s="457" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="412"/>
+      <c r="H3" s="458"/>
     </row>
     <row r="4" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="283"/>
       <c r="B4" s="283"/>
       <c r="C4" s="284">
         <f>C3/$B$3</f>
-        <v>0.45161610735238822</v>
+        <v>0.45167189016189241</v>
       </c>
       <c r="D4" s="284">
         <f>D3/$B$3</f>
-        <v>0.5164853686364469</v>
+        <v>0.51643283061460388</v>
       </c>
       <c r="E4" s="284">
         <f>E3/$B$3</f>
-        <v>1.7042130540826789E-2</v>
+        <v>1.7040396978017507E-2</v>
       </c>
       <c r="F4" s="285">
         <f>F3/$B$3</f>
-        <v>1.485639347033799E-2</v>
-      </c>
-      <c r="G4" s="415">
+        <v>1.485488224548623E-2</v>
+      </c>
+      <c r="G4" s="452">
         <f ca="1">A6/G2</f>
-        <v>198.0429956761264</v>
-      </c>
-      <c r="H4" s="416"/>
+        <v>197.83455734999947</v>
+      </c>
+      <c r="H4" s="453"/>
     </row>
     <row r="5" spans="1:40" ht="17.25" thickBot="1">
       <c r="A5" s="286" t="s">
@@ -18314,15 +18240,15 @@
       <c r="F5" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="422" t="s">
+      <c r="G5" s="449" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="423"/>
+      <c r="H5" s="450"/>
     </row>
     <row r="6" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="291">
         <f>B3-A3</f>
-        <v>237255.50881999941</v>
+        <v>237401.46881999937</v>
       </c>
       <c r="B6" s="292">
         <f>F6-C6</f>
@@ -18344,205 +18270,205 @@
         <f>D6-E6</f>
         <v>1836440.8388200002</v>
       </c>
-      <c r="G6" s="415">
+      <c r="G6" s="452">
         <f ca="1">G4*30</f>
-        <v>5941.289870283792</v>
-      </c>
-      <c r="H6" s="416"/>
+        <v>5935.0367204999839</v>
+      </c>
+      <c r="H6" s="453"/>
     </row>
     <row r="7" spans="1:40" s="298" customFormat="1" ht="20.25">
       <c r="A7" s="297"/>
-      <c r="B7" s="435" t="s">
+      <c r="B7" s="446" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="433"/>
-      <c r="D7" s="433"/>
-      <c r="E7" s="434"/>
-      <c r="F7" s="436"/>
-      <c r="G7" s="432" t="s">
+      <c r="C7" s="444"/>
+      <c r="D7" s="444"/>
+      <c r="E7" s="445"/>
+      <c r="F7" s="447"/>
+      <c r="G7" s="443" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="433"/>
-      <c r="I7" s="433"/>
-      <c r="J7" s="434"/>
-      <c r="K7" s="434"/>
-      <c r="L7" s="428" t="s">
+      <c r="H7" s="444"/>
+      <c r="I7" s="444"/>
+      <c r="J7" s="445"/>
+      <c r="K7" s="445"/>
+      <c r="L7" s="437" t="s">
         <v>973</v>
       </c>
-      <c r="M7" s="424"/>
-      <c r="N7" s="424"/>
-      <c r="O7" s="424"/>
-      <c r="P7" s="424"/>
-      <c r="Q7" s="429"/>
-      <c r="R7" s="424" t="s">
+      <c r="M7" s="438"/>
+      <c r="N7" s="438"/>
+      <c r="O7" s="438"/>
+      <c r="P7" s="438"/>
+      <c r="Q7" s="439"/>
+      <c r="R7" s="438" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="424"/>
-      <c r="T7" s="424"/>
-      <c r="U7" s="424"/>
-      <c r="V7" s="424"/>
-      <c r="W7" s="424"/>
-      <c r="X7" s="428" t="s">
+      <c r="S7" s="438"/>
+      <c r="T7" s="438"/>
+      <c r="U7" s="438"/>
+      <c r="V7" s="438"/>
+      <c r="W7" s="438"/>
+      <c r="X7" s="437" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="424"/>
-      <c r="Z7" s="424"/>
-      <c r="AA7" s="424"/>
-      <c r="AB7" s="424"/>
-      <c r="AC7" s="429"/>
+      <c r="Y7" s="438"/>
+      <c r="Z7" s="438"/>
+      <c r="AA7" s="438"/>
+      <c r="AB7" s="438"/>
+      <c r="AC7" s="439"/>
     </row>
     <row r="8" spans="1:40" s="298" customFormat="1" ht="16.5">
       <c r="A8" s="299" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="430" t="s">
+      <c r="B8" s="440" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="425"/>
-      <c r="D8" s="425"/>
-      <c r="E8" s="425"/>
-      <c r="F8" s="431"/>
-      <c r="G8" s="425" t="s">
+      <c r="C8" s="441"/>
+      <c r="D8" s="441"/>
+      <c r="E8" s="441"/>
+      <c r="F8" s="442"/>
+      <c r="G8" s="441" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="425"/>
-      <c r="I8" s="425"/>
-      <c r="J8" s="425"/>
-      <c r="K8" s="425"/>
-      <c r="L8" s="430" t="s">
+      <c r="H8" s="441"/>
+      <c r="I8" s="441"/>
+      <c r="J8" s="441"/>
+      <c r="K8" s="441"/>
+      <c r="L8" s="440" t="s">
         <v>974</v>
       </c>
-      <c r="M8" s="425"/>
-      <c r="N8" s="425"/>
-      <c r="O8" s="425"/>
-      <c r="P8" s="425"/>
-      <c r="Q8" s="431"/>
-      <c r="R8" s="425" t="s">
+      <c r="M8" s="441"/>
+      <c r="N8" s="441"/>
+      <c r="O8" s="441"/>
+      <c r="P8" s="441"/>
+      <c r="Q8" s="442"/>
+      <c r="R8" s="441" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="425"/>
-      <c r="T8" s="425"/>
-      <c r="U8" s="425"/>
-      <c r="V8" s="425"/>
-      <c r="W8" s="425"/>
-      <c r="X8" s="430" t="s">
+      <c r="S8" s="441"/>
+      <c r="T8" s="441"/>
+      <c r="U8" s="441"/>
+      <c r="V8" s="441"/>
+      <c r="W8" s="441"/>
+      <c r="X8" s="440" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" s="425"/>
-      <c r="Z8" s="425"/>
-      <c r="AA8" s="425"/>
-      <c r="AB8" s="425"/>
-      <c r="AC8" s="431"/>
+      <c r="Y8" s="441"/>
+      <c r="Z8" s="441"/>
+      <c r="AA8" s="441"/>
+      <c r="AB8" s="441"/>
+      <c r="AC8" s="442"/>
       <c r="AK8" s="300"/>
     </row>
     <row r="9" spans="1:40" s="298" customFormat="1" ht="16.5">
       <c r="A9" s="299" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="419" t="s">
+      <c r="B9" s="425" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="418"/>
-      <c r="D9" s="419" t="s">
+      <c r="C9" s="426"/>
+      <c r="D9" s="425" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="420"/>
-      <c r="F9" s="447"/>
-      <c r="G9" s="417" t="s">
+      <c r="E9" s="430"/>
+      <c r="F9" s="436"/>
+      <c r="G9" s="448" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="418"/>
-      <c r="I9" s="419" t="s">
+      <c r="H9" s="426"/>
+      <c r="I9" s="425" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="420"/>
-      <c r="K9" s="421"/>
-      <c r="L9" s="439" t="s">
+      <c r="J9" s="430"/>
+      <c r="K9" s="429"/>
+      <c r="L9" s="423" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="427"/>
-      <c r="N9" s="421" t="s">
+      <c r="M9" s="424"/>
+      <c r="N9" s="429" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="420"/>
-      <c r="P9" s="420"/>
-      <c r="Q9" s="442"/>
-      <c r="R9" s="426" t="s">
+      <c r="O9" s="430"/>
+      <c r="P9" s="430"/>
+      <c r="Q9" s="431"/>
+      <c r="R9" s="451" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="427"/>
-      <c r="T9" s="421" t="s">
+      <c r="S9" s="424"/>
+      <c r="T9" s="429" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="420"/>
-      <c r="V9" s="420"/>
-      <c r="W9" s="420"/>
-      <c r="X9" s="439" t="s">
+      <c r="U9" s="430"/>
+      <c r="V9" s="430"/>
+      <c r="W9" s="430"/>
+      <c r="X9" s="423" t="s">
         <v>49</v>
       </c>
-      <c r="Y9" s="427"/>
-      <c r="Z9" s="421" t="s">
+      <c r="Y9" s="424"/>
+      <c r="Z9" s="429" t="s">
         <v>50</v>
       </c>
-      <c r="AA9" s="420"/>
-      <c r="AB9" s="420"/>
-      <c r="AC9" s="442"/>
+      <c r="AA9" s="430"/>
+      <c r="AB9" s="430"/>
+      <c r="AC9" s="431"/>
     </row>
     <row r="10" spans="1:40" ht="15.75" customHeight="1">
       <c r="A10" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="437" t="s">
+      <c r="B10" s="421" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="438"/>
-      <c r="D10" s="444">
+      <c r="C10" s="422"/>
+      <c r="D10" s="433">
         <f>'whobor-touna'!G3/$B$3</f>
-        <v>0.36380116165230386</v>
-      </c>
-      <c r="E10" s="440"/>
-      <c r="F10" s="441"/>
-      <c r="G10" s="443" t="s">
+        <v>0.36376415500209058</v>
+      </c>
+      <c r="E10" s="427"/>
+      <c r="F10" s="428"/>
+      <c r="G10" s="432" t="s">
         <v>234</v>
       </c>
-      <c r="H10" s="438"/>
-      <c r="I10" s="444">
+      <c r="H10" s="422"/>
+      <c r="I10" s="433">
         <f>'thmei-touna'!G3/$B$3</f>
-        <v>0.53352749917727371</v>
-      </c>
-      <c r="J10" s="440"/>
-      <c r="K10" s="440"/>
-      <c r="L10" s="445" t="s">
+        <v>0.53347322759262128</v>
+      </c>
+      <c r="J10" s="427"/>
+      <c r="K10" s="427"/>
+      <c r="L10" s="434" t="s">
         <v>234</v>
       </c>
-      <c r="M10" s="446"/>
-      <c r="N10" s="440">
+      <c r="M10" s="435"/>
+      <c r="N10" s="427">
         <f>宜人贷!T2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="O10" s="440"/>
-      <c r="P10" s="440"/>
-      <c r="Q10" s="441"/>
-      <c r="R10" s="446"/>
-      <c r="S10" s="446"/>
-      <c r="T10" s="440">
+      <c r="O10" s="427"/>
+      <c r="P10" s="427"/>
+      <c r="Q10" s="428"/>
+      <c r="R10" s="435"/>
+      <c r="S10" s="435"/>
+      <c r="T10" s="427">
         <f>宜人贷!Z2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="U10" s="440"/>
-      <c r="V10" s="440"/>
-      <c r="W10" s="440"/>
-      <c r="X10" s="445">
+      <c r="U10" s="427"/>
+      <c r="V10" s="427"/>
+      <c r="W10" s="427"/>
+      <c r="X10" s="434">
         <v>830106</v>
       </c>
-      <c r="Y10" s="446"/>
-      <c r="Z10" s="440">
+      <c r="Y10" s="435"/>
+      <c r="Z10" s="427">
         <f>'whobor-wzd'!N2/$B$3</f>
-        <v>7.4756317258756186E-2</v>
-      </c>
-      <c r="AA10" s="440"/>
-      <c r="AB10" s="440"/>
-      <c r="AC10" s="441"/>
+        <v>7.4850435070732912E-2</v>
+      </c>
+      <c r="AA10" s="427"/>
+      <c r="AB10" s="427"/>
+      <c r="AC10" s="428"/>
     </row>
     <row r="11" spans="1:40" ht="28.5" customHeight="1">
       <c r="A11" s="302" t="s">
@@ -18726,11 +18652,11 @@
       <c r="AA12" s="313"/>
       <c r="AB12" s="317">
         <f>Y12-X12+AC12-Z12</f>
-        <v>33832.496420000243</v>
+        <v>33978.45642000025</v>
       </c>
       <c r="AC12" s="315">
         <f>'whobor-wzd'!N2</f>
-        <v>107256.06999999999</v>
+        <v>107402.03</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -35551,6 +35477,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="L7:Q7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B9:C9"/>
@@ -35567,27 +35514,6 @@
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35748,21 +35674,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="448" t="s">
+      <c r="A1" s="461" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="449"/>
-      <c r="C1" s="449"/>
-      <c r="D1" s="449"/>
-      <c r="E1" s="449"/>
-      <c r="F1" s="449"/>
-      <c r="G1" s="449"/>
-      <c r="H1" s="449"/>
-      <c r="I1" s="449"/>
-      <c r="J1" s="449"/>
-      <c r="K1" s="449"/>
-      <c r="L1" s="449"/>
-      <c r="M1" s="449"/>
+      <c r="B1" s="462"/>
+      <c r="C1" s="462"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
+      <c r="F1" s="462"/>
+      <c r="G1" s="462"/>
+      <c r="H1" s="462"/>
+      <c r="I1" s="462"/>
+      <c r="J1" s="462"/>
+      <c r="K1" s="462"/>
+      <c r="L1" s="462"/>
+      <c r="M1" s="462"/>
     </row>
     <row r="2" spans="1:16" ht="42" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -35802,7 +35728,7 @@
         <v>102</v>
       </c>
       <c r="N2" s="75" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
@@ -36238,7 +36164,7 @@
         <v>43045</v>
       </c>
       <c r="B13" s="123" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C13" s="126">
         <v>470.31</v>
@@ -36368,7 +36294,7 @@
         <v>43104</v>
       </c>
       <c r="B16" s="123" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C16" s="126">
         <v>1778.42</v>
@@ -37161,7 +37087,7 @@
         <v>43509</v>
       </c>
       <c r="B34" s="123" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C34" s="126">
         <v>1177.51</v>
@@ -37249,7 +37175,7 @@
         <v>43530</v>
       </c>
       <c r="B36" s="123" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C36" s="126">
         <v>3816</v>
@@ -37293,7 +37219,7 @@
         <v>43530</v>
       </c>
       <c r="B37" s="123" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C37" s="126">
         <v>10000</v>
@@ -37337,7 +37263,7 @@
         <v>43564</v>
       </c>
       <c r="B38" s="123" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C38" s="126">
         <v>620</v>
@@ -37381,7 +37307,7 @@
         <v>43565</v>
       </c>
       <c r="B39" s="123" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C39" s="126">
         <v>10000</v>
@@ -37425,7 +37351,7 @@
         <v>43570</v>
       </c>
       <c r="B40" s="123" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C40" s="126">
         <v>4060</v>
@@ -37507,7 +37433,7 @@
         <v>42870</v>
       </c>
       <c r="B42" s="383" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C42" s="384">
         <v>1793</v>
@@ -37546,7 +37472,7 @@
         <v>1793</v>
       </c>
       <c r="N42" s="381" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -37648,13 +37574,13 @@
         <v>204</v>
       </c>
       <c r="B45" s="26" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C45" s="26" t="s">
         <v>1301</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="D45" s="26" t="s">
         <v>1302</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>1303</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>286</v>
@@ -41146,21 +41072,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="448" t="s">
+      <c r="A1" s="461" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="449"/>
-      <c r="C1" s="449"/>
-      <c r="D1" s="449"/>
-      <c r="E1" s="449"/>
-      <c r="F1" s="449"/>
-      <c r="G1" s="449"/>
-      <c r="H1" s="449"/>
-      <c r="I1" s="449"/>
-      <c r="J1" s="449"/>
-      <c r="K1" s="449"/>
-      <c r="L1" s="449"/>
-      <c r="M1" s="449"/>
+      <c r="B1" s="462"/>
+      <c r="C1" s="462"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
+      <c r="F1" s="462"/>
+      <c r="G1" s="462"/>
+      <c r="H1" s="462"/>
+      <c r="I1" s="462"/>
+      <c r="J1" s="462"/>
+      <c r="K1" s="462"/>
+      <c r="L1" s="462"/>
+      <c r="M1" s="462"/>
     </row>
     <row r="2" spans="1:16" ht="45" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -41200,7 +41126,7 @@
         <v>100</v>
       </c>
       <c r="N2" s="75" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="30.75" customHeight="1" thickBot="1">
@@ -41597,7 +41523,7 @@
         <v>42951</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C12" s="126">
         <v>910.67</v>
@@ -41681,7 +41607,7 @@
         <v>693</v>
       </c>
       <c r="P13" s="176" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="168" customFormat="1" ht="15.75" thickBot="1">
@@ -42235,7 +42161,7 @@
         <v>43045</v>
       </c>
       <c r="B26" s="123" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C26" s="126">
         <v>1232.93</v>
@@ -42465,7 +42391,7 @@
         <v>43103</v>
       </c>
       <c r="B31" s="123" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C31" s="126">
         <v>1087.3499999999999</v>
@@ -42641,7 +42567,7 @@
         <v>43115</v>
       </c>
       <c r="B35" s="123" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C35" s="126">
         <v>1244.07</v>
@@ -42817,7 +42743,7 @@
         <v>43145</v>
       </c>
       <c r="B39" s="123" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C39" s="126">
         <v>5350.66</v>
@@ -42905,7 +42831,7 @@
         <v>43159</v>
       </c>
       <c r="B41" s="123" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C41" s="126">
         <v>555.36</v>
@@ -42949,7 +42875,7 @@
         <v>43350</v>
       </c>
       <c r="B42" s="123" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C42" s="126">
         <v>803.92</v>
@@ -43478,7 +43404,7 @@
         <v>43436</v>
       </c>
       <c r="B54" s="123" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C54" s="126">
         <v>1046.44</v>
@@ -44050,7 +43976,7 @@
         <v>43515</v>
       </c>
       <c r="B67" s="123" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C67" s="126">
         <v>2585.5</v>
@@ -44094,7 +44020,7 @@
         <v>43530</v>
       </c>
       <c r="B68" s="123" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C68" s="126">
         <v>10000</v>
@@ -44138,7 +44064,7 @@
         <v>43536</v>
       </c>
       <c r="B69" s="123" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C69" s="126">
         <v>4540.4799999999996</v>
@@ -44182,7 +44108,7 @@
         <v>43539</v>
       </c>
       <c r="B70" s="123" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C70" s="126">
         <v>4693</v>
@@ -44226,7 +44152,7 @@
         <v>43548</v>
       </c>
       <c r="B71" s="357" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C71" s="126">
         <v>5026</v>
@@ -44270,7 +44196,7 @@
         <v>43558</v>
       </c>
       <c r="B72" s="357" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C72" s="126">
         <v>3000</v>
@@ -44314,7 +44240,7 @@
         <v>43560</v>
       </c>
       <c r="B73" s="357" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C73" s="126">
         <v>5000</v>
@@ -44358,7 +44284,7 @@
         <v>43563</v>
       </c>
       <c r="B74" s="357" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C74" s="126">
         <v>3134</v>
@@ -44402,7 +44328,7 @@
         <v>43566</v>
       </c>
       <c r="B75" s="357" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C75" s="126">
         <v>10824</v>
@@ -44446,7 +44372,7 @@
         <v>43569</v>
       </c>
       <c r="B76" s="357" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C76" s="126">
         <v>2187</v>
@@ -44490,7 +44416,7 @@
         <v>43570</v>
       </c>
       <c r="B77" s="357" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C77" s="126">
         <v>1279</v>
@@ -44534,7 +44460,7 @@
         <v>43570</v>
       </c>
       <c r="B78" s="357" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C78" s="126">
         <v>8837</v>
@@ -44579,7 +44505,7 @@
         <v>43572</v>
       </c>
       <c r="B79" s="357" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C79" s="126">
         <v>1124.54</v>
@@ -44623,7 +44549,7 @@
         <v>43582</v>
       </c>
       <c r="B80" s="357" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C80" s="126">
         <v>1240</v>
@@ -44667,7 +44593,7 @@
         <v>43583</v>
       </c>
       <c r="B81" s="357" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C81" s="126">
         <v>11652</v>
@@ -44711,7 +44637,7 @@
         <v>43587</v>
       </c>
       <c r="B82" s="357" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C82" s="126">
         <v>3279</v>
@@ -44755,7 +44681,7 @@
         <v>43587</v>
       </c>
       <c r="B83" s="357" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C83" s="126">
         <v>4735</v>
@@ -44799,7 +44725,7 @@
         <v>43593</v>
       </c>
       <c r="B84" s="357" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C84" s="126">
         <v>3000</v>
@@ -44843,7 +44769,7 @@
         <v>42872</v>
       </c>
       <c r="B85" s="393" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C85" s="384">
         <v>1284</v>
@@ -44882,7 +44808,7 @@
         <v>0</v>
       </c>
       <c r="N85" s="381" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="394" customFormat="1" ht="26.25" thickBot="1">
@@ -44890,7 +44816,7 @@
         <v>42878</v>
       </c>
       <c r="B86" s="393" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C86" s="384">
         <v>6000</v>
@@ -44929,7 +44855,7 @@
         <v>0</v>
       </c>
       <c r="N86" s="394" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="394" customFormat="1" ht="25.5">
@@ -44937,7 +44863,7 @@
         <v>42879</v>
       </c>
       <c r="B87" s="393" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C87" s="384">
         <v>5835</v>
@@ -44976,7 +44902,7 @@
         <v>0</v>
       </c>
       <c r="N87" s="394" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -45043,16 +44969,16 @@
         <v>190</v>
       </c>
       <c r="B90" s="26" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C90" s="26" t="s">
         <v>1327</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="D90" s="26" t="s">
         <v>1328</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="E90" s="26" t="s">
         <v>1329</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>1330</v>
       </c>
       <c r="F90" s="26" t="s">
         <v>311</v>
@@ -45359,13 +45285,13 @@
         <v>490</v>
       </c>
       <c r="C97" s="26" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D97" s="26" t="s">
         <v>1306</v>
       </c>
-      <c r="D97" s="26" t="s">
+      <c r="E97" s="26" t="s">
         <v>1307</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>1308</v>
       </c>
       <c r="F97" s="26" t="s">
         <v>311</v>
@@ -45716,16 +45642,16 @@
         <v>191</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C105" s="26" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D105" s="26" t="s">
         <v>1331</v>
       </c>
-      <c r="D105" s="26" t="s">
+      <c r="E105" s="26" t="s">
         <v>1332</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>1333</v>
       </c>
       <c r="F105" s="26" t="s">
         <v>311</v>
@@ -46389,16 +46315,16 @@
         <v>192</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C120" s="26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D120" s="26" t="s">
         <v>1334</v>
       </c>
-      <c r="D120" s="26" t="s">
+      <c r="E120" s="26" t="s">
         <v>1335</v>
-      </c>
-      <c r="E120" s="26" t="s">
-        <v>1336</v>
       </c>
       <c r="F120" s="26" t="s">
         <v>311</v>
@@ -47062,16 +46988,16 @@
         <v>193</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C135" s="26" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D135" s="26" t="s">
         <v>1337</v>
       </c>
-      <c r="D135" s="26" t="s">
+      <c r="E135" s="26" t="s">
         <v>1338</v>
-      </c>
-      <c r="E135" s="26" t="s">
-        <v>1339</v>
       </c>
       <c r="F135" s="26" t="s">
         <v>311</v>
@@ -47690,16 +47616,16 @@
         <v>194</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C149" s="26" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D149" s="26" t="s">
         <v>1340</v>
       </c>
-      <c r="D149" s="26" t="s">
+      <c r="E149" s="26" t="s">
         <v>1341</v>
-      </c>
-      <c r="E149" s="26" t="s">
-        <v>1342</v>
       </c>
       <c r="F149" s="26" t="s">
         <v>311</v>
@@ -48365,16 +48291,16 @@
         <v>195</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C164" s="26" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D164" s="26" t="s">
         <v>1343</v>
       </c>
-      <c r="D164" s="26" t="s">
+      <c r="E164" s="26" t="s">
         <v>1344</v>
-      </c>
-      <c r="E164" s="26" t="s">
-        <v>1345</v>
       </c>
       <c r="F164" s="26" t="s">
         <v>311</v>
@@ -48993,16 +48919,16 @@
         <v>196</v>
       </c>
       <c r="B178" s="26" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C178" s="26" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D178" s="26" t="s">
         <v>1346</v>
       </c>
-      <c r="D178" s="26" t="s">
+      <c r="E178" s="26" t="s">
         <v>1347</v>
-      </c>
-      <c r="E178" s="26" t="s">
-        <v>1348</v>
       </c>
       <c r="F178" s="26" t="s">
         <v>311</v>
@@ -49666,16 +49592,16 @@
         <v>294</v>
       </c>
       <c r="B193" s="26" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C193" s="26" t="s">
         <v>1349</v>
       </c>
-      <c r="C193" s="26" t="s">
+      <c r="D193" s="26" t="s">
         <v>1350</v>
       </c>
-      <c r="D193" s="26" t="s">
+      <c r="E193" s="26" t="s">
         <v>1351</v>
-      </c>
-      <c r="E193" s="26" t="s">
-        <v>1352</v>
       </c>
       <c r="F193" s="26" t="s">
         <v>308</v>
@@ -50296,13 +50222,13 @@
         <v>295</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C207" s="26" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D207" s="26" t="s">
         <v>1353</v>
-      </c>
-      <c r="D207" s="26" t="s">
-        <v>1354</v>
       </c>
       <c r="E207" s="26" t="s">
         <v>899</v>
@@ -50791,16 +50717,16 @@
         <v>248</v>
       </c>
       <c r="B218" s="26" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C218" s="26" t="s">
         <v>1388</v>
       </c>
-      <c r="C218" s="26" t="s">
+      <c r="D218" s="26" t="s">
         <v>1389</v>
       </c>
-      <c r="D218" s="26" t="s">
+      <c r="E218" s="26" t="s">
         <v>1390</v>
-      </c>
-      <c r="E218" s="26" t="s">
-        <v>1391</v>
       </c>
       <c r="F218" s="26" t="s">
         <v>310</v>
@@ -50836,16 +50762,16 @@
         <v>296</v>
       </c>
       <c r="B219" s="26" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C219" s="26" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D219" s="26" t="s">
         <v>1355</v>
       </c>
-      <c r="D219" s="26" t="s">
+      <c r="E219" s="26" t="s">
         <v>1356</v>
-      </c>
-      <c r="E219" s="26" t="s">
-        <v>1357</v>
       </c>
       <c r="F219" s="26" t="s">
         <v>308</v>
@@ -51466,16 +51392,16 @@
         <v>297</v>
       </c>
       <c r="B233" s="26" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C233" s="26" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D233" s="26" t="s">
         <v>1358</v>
       </c>
-      <c r="D233" s="26" t="s">
+      <c r="E233" s="26" t="s">
         <v>1359</v>
-      </c>
-      <c r="E233" s="26" t="s">
-        <v>1360</v>
       </c>
       <c r="F233" s="26" t="s">
         <v>308</v>
@@ -52051,16 +51977,16 @@
         <v>298</v>
       </c>
       <c r="B246" s="26" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C246" s="26" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D246" s="26" t="s">
         <v>1361</v>
       </c>
-      <c r="D246" s="26" t="s">
+      <c r="E246" s="26" t="s">
         <v>1362</v>
-      </c>
-      <c r="E246" s="26" t="s">
-        <v>1363</v>
       </c>
       <c r="F246" s="26" t="s">
         <v>308</v>
@@ -52636,16 +52562,16 @@
         <v>299</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C259" s="26" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D259" s="26" t="s">
         <v>1364</v>
       </c>
-      <c r="D259" s="26" t="s">
+      <c r="E259" s="26" t="s">
         <v>1365</v>
-      </c>
-      <c r="E259" s="26" t="s">
-        <v>1366</v>
       </c>
       <c r="F259" s="26" t="s">
         <v>308</v>
@@ -55581,11 +55507,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56035,8 +55961,8 @@
       <c r="D2" s="148"/>
       <c r="E2" s="149"/>
       <c r="F2" s="152">
-        <f>SUM(F4:F52)</f>
-        <v>155686.79999999999</v>
+        <f>SUM(F4:F51)</f>
+        <v>149686.79999999999</v>
       </c>
       <c r="G2" s="147"/>
       <c r="H2" s="147"/>
@@ -56047,20 +55973,20 @@
         <v>0</v>
       </c>
       <c r="L2" s="149">
-        <f>SUM(L3:L52)</f>
-        <v>8323.2000000000007</v>
+        <f>SUM(L3:L51)</f>
+        <v>8168.7000000000007</v>
       </c>
       <c r="M2" s="150">
-        <f>SUM(M3:M54)</f>
-        <v>48430.729999999996</v>
+        <f>SUM(M3:M53)</f>
+        <v>42284.77</v>
       </c>
       <c r="N2" s="149">
         <f>F2-M2</f>
-        <v>107256.06999999999</v>
+        <v>107402.03</v>
       </c>
       <c r="O2" s="149">
-        <f>SUM(O3:O52)</f>
-        <v>115579.26999999999</v>
+        <f>SUM(O3:O51)</f>
+        <v>115570.73000000001</v>
       </c>
       <c r="S2" s="151" t="s">
         <v>63</v>
@@ -56093,31 +56019,31 @@
     </row>
     <row r="4" spans="1:19" ht="30.75" thickBot="1">
       <c r="A4" s="374">
-        <v>42888</v>
+        <v>42889</v>
       </c>
       <c r="B4" s="376" t="s">
-        <v>1286</v>
+        <v>1320</v>
       </c>
       <c r="C4" s="375" t="s">
-        <v>1284</v>
+        <v>1321</v>
       </c>
       <c r="D4" s="377">
         <v>42736</v>
       </c>
       <c r="E4" s="378">
-        <v>6154.5</v>
+        <v>2015.5</v>
       </c>
       <c r="F4" s="378">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G4" s="375">
-        <v>154.5</v>
+        <v>15.5</v>
       </c>
       <c r="H4" s="375">
         <v>0</v>
       </c>
       <c r="I4" s="379">
-        <v>0.10299999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="J4" s="380">
         <v>0</v>
@@ -56126,45 +56052,45 @@
         <v>170</v>
       </c>
       <c r="L4" s="142">
-        <f t="shared" ref="L4:L5" si="0">G4</f>
-        <v>154.5</v>
+        <f t="shared" ref="L4" si="0">G4</f>
+        <v>15.5</v>
       </c>
       <c r="M4" s="146">
-        <v>6145.96</v>
+        <v>12813.65</v>
       </c>
       <c r="N4" s="142"/>
       <c r="O4" s="142">
-        <f t="shared" ref="O4:O5" si="1">E4-M4</f>
-        <v>8.5399999999999636</v>
+        <f t="shared" ref="O4" si="1">E4-M4</f>
+        <v>-10798.15</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30.75" thickBot="1">
       <c r="A5" s="374">
-        <v>42889</v>
+        <v>42890</v>
       </c>
       <c r="B5" s="376" t="s">
-        <v>1321</v>
+        <v>1289</v>
       </c>
       <c r="C5" s="375" t="s">
-        <v>1322</v>
+        <v>1284</v>
       </c>
       <c r="D5" s="377">
         <v>42736</v>
       </c>
       <c r="E5" s="378">
-        <v>2015.5</v>
+        <v>10339.56</v>
       </c>
       <c r="F5" s="378">
-        <v>2000</v>
+        <v>10080</v>
       </c>
       <c r="G5" s="375">
-        <v>15.5</v>
+        <v>259.56</v>
       </c>
       <c r="H5" s="375">
         <v>0</v>
       </c>
       <c r="I5" s="379">
-        <v>9.2999999999999999E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="J5" s="380">
         <v>0</v>
@@ -56173,68 +56099,48 @@
         <v>170</v>
       </c>
       <c r="L5" s="142">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
+        <f t="shared" ref="L5" si="2">G5</f>
+        <v>259.56</v>
       </c>
       <c r="M5" s="146">
-        <v>12813.65</v>
+        <v>2002.16</v>
       </c>
       <c r="N5" s="142"/>
       <c r="O5" s="142">
-        <f t="shared" si="1"/>
-        <v>-10798.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="30.75" thickBot="1">
+        <f t="shared" ref="O5" si="3">E5-M5</f>
+        <v>8337.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1">
       <c r="A6" s="374">
-        <v>42890</v>
-      </c>
-      <c r="B6" s="376" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C6" s="375" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D6" s="377">
-        <v>42736</v>
-      </c>
-      <c r="E6" s="378">
-        <v>10339.56</v>
-      </c>
-      <c r="F6" s="378">
-        <v>10080</v>
-      </c>
-      <c r="G6" s="375">
-        <v>259.56</v>
-      </c>
-      <c r="H6" s="375">
-        <v>0</v>
-      </c>
-      <c r="I6" s="379">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="J6" s="380">
-        <v>0</v>
-      </c>
-      <c r="K6" s="375" t="s">
-        <v>170</v>
-      </c>
+        <v>42896</v>
+      </c>
+      <c r="B6" s="376"/>
+      <c r="C6" s="375"/>
+      <c r="D6" s="377"/>
+      <c r="E6" s="378"/>
+      <c r="F6" s="378"/>
+      <c r="G6" s="375"/>
+      <c r="H6" s="375"/>
+      <c r="I6" s="379"/>
+      <c r="J6" s="380"/>
+      <c r="K6" s="375"/>
       <c r="L6" s="142">
-        <f t="shared" ref="L6" si="2">G6</f>
-        <v>259.56</v>
+        <f t="shared" ref="L6:L10" si="4">G6</f>
+        <v>0</v>
       </c>
       <c r="M6" s="146">
-        <v>2002.16</v>
+        <v>4611.21</v>
       </c>
       <c r="N6" s="142"/>
       <c r="O6" s="142">
-        <f t="shared" ref="O6" si="3">E6-M6</f>
-        <v>8337.4</v>
+        <f t="shared" ref="O6:O10" si="5">E6-M6</f>
+        <v>-4611.21</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1">
       <c r="A7" s="374">
-        <v>42896</v>
+        <v>42898</v>
       </c>
       <c r="B7" s="376"/>
       <c r="C7" s="375"/>
@@ -56247,21 +56153,21 @@
       <c r="J7" s="380"/>
       <c r="K7" s="375"/>
       <c r="L7" s="142">
-        <f t="shared" ref="L7:L11" si="4">G7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M7" s="146">
-        <v>4611.21</v>
+        <v>8235.48</v>
       </c>
       <c r="N7" s="142"/>
       <c r="O7" s="142">
-        <f t="shared" ref="O7:O11" si="5">E7-M7</f>
-        <v>-4611.21</v>
+        <f t="shared" si="5"/>
+        <v>-8235.48</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
       <c r="A8" s="374">
-        <v>42898</v>
+        <v>42904</v>
       </c>
       <c r="B8" s="376"/>
       <c r="C8" s="375"/>
@@ -56278,17 +56184,17 @@
         <v>0</v>
       </c>
       <c r="M8" s="146">
-        <v>8235.48</v>
+        <v>6392.33</v>
       </c>
       <c r="N8" s="142"/>
       <c r="O8" s="142">
         <f t="shared" si="5"/>
-        <v>-8235.48</v>
+        <v>-6392.33</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1">
       <c r="A9" s="374">
-        <v>42904</v>
+        <v>42905</v>
       </c>
       <c r="B9" s="376"/>
       <c r="C9" s="375"/>
@@ -56305,17 +56211,17 @@
         <v>0</v>
       </c>
       <c r="M9" s="146">
-        <v>6392.33</v>
+        <v>1991.13</v>
       </c>
       <c r="N9" s="142"/>
       <c r="O9" s="142">
         <f t="shared" si="5"/>
-        <v>-6392.33</v>
+        <v>-1991.13</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1">
       <c r="A10" s="374">
-        <v>42905</v>
+        <v>42909</v>
       </c>
       <c r="B10" s="376"/>
       <c r="C10" s="375"/>
@@ -56332,107 +56238,125 @@
         <v>0</v>
       </c>
       <c r="M10" s="146">
-        <v>1991.13</v>
+        <v>6238.81</v>
       </c>
       <c r="N10" s="142"/>
       <c r="O10" s="142">
         <f t="shared" si="5"/>
-        <v>-1991.13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A11" s="374">
-        <v>42909</v>
-      </c>
-      <c r="B11" s="376"/>
-      <c r="C11" s="375"/>
-      <c r="D11" s="377"/>
-      <c r="E11" s="378"/>
-      <c r="F11" s="378"/>
-      <c r="G11" s="375"/>
-      <c r="H11" s="375"/>
-      <c r="I11" s="379"/>
-      <c r="J11" s="380"/>
-      <c r="K11" s="375"/>
+        <v>-6238.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="30.75" thickBot="1">
+      <c r="A11" s="396">
+        <v>42915</v>
+      </c>
+      <c r="B11" s="153" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C11" s="397" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D11" s="398">
+        <v>42736</v>
+      </c>
+      <c r="E11" s="399">
+        <v>1078.02</v>
+      </c>
+      <c r="F11" s="399">
+        <v>1070</v>
+      </c>
+      <c r="G11" s="397">
+        <v>8.02</v>
+      </c>
+      <c r="H11" s="397">
+        <v>0</v>
+      </c>
+      <c r="I11" s="400">
+        <v>0.09</v>
+      </c>
+      <c r="J11" s="400">
+        <v>0</v>
+      </c>
+      <c r="K11" s="397" t="s">
+        <v>170</v>
+      </c>
       <c r="L11" s="142">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="146">
-        <v>6238.81</v>
-      </c>
+        <f t="shared" ref="L11" si="6">G11</f>
+        <v>8.02</v>
+      </c>
+      <c r="M11" s="146"/>
       <c r="N11" s="142"/>
       <c r="O11" s="142">
-        <f t="shared" si="5"/>
-        <v>-6238.81</v>
+        <f t="shared" ref="O11" si="7">E11-M11</f>
+        <v>1078.02</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="30.75" thickBot="1">
-      <c r="A12" s="475">
-        <v>42915</v>
-      </c>
-      <c r="B12" s="153" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C12" s="476" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D12" s="477">
+      <c r="A12" s="374">
+        <v>42916</v>
+      </c>
+      <c r="B12" s="376" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C12" s="375" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D12" s="377">
         <v>42736</v>
       </c>
-      <c r="E12" s="478">
-        <v>1078.02</v>
-      </c>
-      <c r="F12" s="478">
-        <v>1070</v>
-      </c>
-      <c r="G12" s="476">
-        <v>8.02</v>
-      </c>
-      <c r="H12" s="476">
-        <v>0</v>
-      </c>
-      <c r="I12" s="479">
-        <v>0.09</v>
-      </c>
-      <c r="J12" s="479">
-        <v>0</v>
-      </c>
-      <c r="K12" s="476" t="s">
+      <c r="E12" s="378">
+        <v>9231.75</v>
+      </c>
+      <c r="F12" s="378">
+        <v>9000</v>
+      </c>
+      <c r="G12" s="375">
+        <v>231.75</v>
+      </c>
+      <c r="H12" s="375">
+        <v>0</v>
+      </c>
+      <c r="I12" s="379">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="J12" s="380">
+        <v>0</v>
+      </c>
+      <c r="K12" s="375" t="s">
         <v>170</v>
       </c>
       <c r="L12" s="142">
-        <f t="shared" ref="L12" si="6">G12</f>
-        <v>8.02</v>
+        <f t="shared" ref="L12" si="8">G12</f>
+        <v>231.75</v>
       </c>
       <c r="M12" s="146"/>
       <c r="N12" s="142"/>
       <c r="O12" s="142">
-        <f t="shared" ref="O12" si="7">E12-M12</f>
-        <v>1078.02</v>
+        <f t="shared" ref="O12:O15" si="9">E12-M12</f>
+        <v>9231.75</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="30.75" thickBot="1">
       <c r="A13" s="374">
-        <v>42916</v>
+        <v>42950</v>
       </c>
       <c r="B13" s="376" t="s">
-        <v>1298</v>
+        <v>1322</v>
       </c>
       <c r="C13" s="375" t="s">
-        <v>1372</v>
+        <v>1323</v>
       </c>
       <c r="D13" s="377">
         <v>42736</v>
       </c>
       <c r="E13" s="378">
-        <v>9231.75</v>
+        <v>2051.5</v>
       </c>
       <c r="F13" s="378">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="G13" s="375">
-        <v>231.75</v>
+        <v>51.5</v>
       </c>
       <c r="H13" s="375">
         <v>0</v>
@@ -56447,25 +56371,25 @@
         <v>170</v>
       </c>
       <c r="L13" s="142">
-        <f t="shared" ref="L13" si="8">G13</f>
-        <v>231.75</v>
+        <f t="shared" ref="L13" si="10">G13</f>
+        <v>51.5</v>
       </c>
       <c r="M13" s="146"/>
       <c r="N13" s="142"/>
       <c r="O13" s="142">
-        <f t="shared" ref="O13:O16" si="9">E13-M13</f>
-        <v>9231.75</v>
+        <f t="shared" ref="O13" si="11">E13-M13</f>
+        <v>2051.5</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="30.75" thickBot="1">
       <c r="A14" s="374">
-        <v>42950</v>
+        <v>42951</v>
       </c>
       <c r="B14" s="376" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C14" s="375" t="s">
         <v>1323</v>
-      </c>
-      <c r="C14" s="375" t="s">
-        <v>1324</v>
       </c>
       <c r="D14" s="377">
         <v>42736</v>
@@ -56492,25 +56416,25 @@
         <v>170</v>
       </c>
       <c r="L14" s="142">
-        <f t="shared" ref="L14" si="10">G14</f>
+        <f t="shared" ref="L14" si="12">G14</f>
         <v>51.5</v>
       </c>
       <c r="M14" s="146"/>
       <c r="N14" s="142"/>
       <c r="O14" s="142">
-        <f t="shared" ref="O14" si="11">E14-M14</f>
+        <f t="shared" ref="O14" si="13">E14-M14</f>
         <v>2051.5</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="30.75" thickBot="1">
       <c r="A15" s="374">
-        <v>42951</v>
+        <v>42955</v>
       </c>
       <c r="B15" s="376" t="s">
-        <v>1326</v>
+        <v>1372</v>
       </c>
       <c r="C15" s="375" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D15" s="377">
         <v>42736</v>
@@ -56536,14 +56460,14 @@
       <c r="K15" s="375" t="s">
         <v>170</v>
       </c>
-      <c r="L15" s="142">
-        <f t="shared" ref="L15" si="12">G15</f>
+      <c r="L15" s="370">
+        <f>G15+H15</f>
         <v>51.5</v>
       </c>
       <c r="M15" s="146"/>
       <c r="N15" s="142"/>
       <c r="O15" s="142">
-        <f t="shared" ref="O15" si="13">E15-M15</f>
+        <f t="shared" si="9"/>
         <v>2051.5</v>
       </c>
     </row>
@@ -56552,22 +56476,22 @@
         <v>42955</v>
       </c>
       <c r="B16" s="376" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C16" s="375" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D16" s="377">
         <v>42736</v>
       </c>
       <c r="E16" s="378">
-        <v>2051.5</v>
+        <v>1025.75</v>
       </c>
       <c r="F16" s="378">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G16" s="375">
-        <v>51.5</v>
+        <v>25.75</v>
       </c>
       <c r="H16" s="375">
         <v>0</v>
@@ -56582,14 +56506,14 @@
         <v>170</v>
       </c>
       <c r="L16" s="370">
-        <f>G16+H16</f>
-        <v>51.5</v>
+        <f t="shared" ref="L16:L26" si="14">G16+H16</f>
+        <v>25.75</v>
       </c>
       <c r="M16" s="146"/>
       <c r="N16" s="142"/>
       <c r="O16" s="142">
-        <f t="shared" si="9"/>
-        <v>2051.5</v>
+        <f t="shared" ref="O16:O26" si="15">E16-M16</f>
+        <v>1025.75</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="30.75" thickBot="1">
@@ -56597,22 +56521,22 @@
         <v>42955</v>
       </c>
       <c r="B17" s="376" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C17" s="375" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D17" s="377">
         <v>42736</v>
       </c>
       <c r="E17" s="378">
-        <v>1025.75</v>
+        <v>2051.5</v>
       </c>
       <c r="F17" s="378">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G17" s="375">
-        <v>25.75</v>
+        <v>51.5</v>
       </c>
       <c r="H17" s="375">
         <v>0</v>
@@ -56627,37 +56551,37 @@
         <v>170</v>
       </c>
       <c r="L17" s="370">
-        <f t="shared" ref="L17:L27" si="14">G17+H17</f>
-        <v>25.75</v>
+        <f t="shared" si="14"/>
+        <v>51.5</v>
       </c>
       <c r="M17" s="146"/>
       <c r="N17" s="142"/>
       <c r="O17" s="142">
-        <f t="shared" ref="O17:O27" si="15">E17-M17</f>
-        <v>1025.75</v>
+        <f t="shared" si="15"/>
+        <v>2051.5</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="30.75" thickBot="1">
       <c r="A18" s="374">
-        <v>42955</v>
+        <v>42959</v>
       </c>
       <c r="B18" s="376" t="s">
         <v>1373</v>
       </c>
       <c r="C18" s="375" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D18" s="377">
         <v>42736</v>
       </c>
       <c r="E18" s="378">
-        <v>2051.5</v>
+        <v>1025.75</v>
       </c>
       <c r="F18" s="378">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="375">
-        <v>51.5</v>
+        <v>25.75</v>
       </c>
       <c r="H18" s="375">
         <v>0</v>
@@ -56673,13 +56597,13 @@
       </c>
       <c r="L18" s="370">
         <f t="shared" si="14"/>
-        <v>51.5</v>
+        <v>25.75</v>
       </c>
       <c r="M18" s="146"/>
       <c r="N18" s="142"/>
       <c r="O18" s="142">
         <f t="shared" si="15"/>
-        <v>2051.5</v>
+        <v>1025.75</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="30.75" thickBot="1">
@@ -56687,10 +56611,10 @@
         <v>42959</v>
       </c>
       <c r="B19" s="376" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C19" s="375" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D19" s="377">
         <v>42736</v>
@@ -56732,10 +56656,10 @@
         <v>42959</v>
       </c>
       <c r="B20" s="376" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C20" s="375" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D20" s="377">
         <v>42736</v>
@@ -56773,209 +56697,209 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="30.75" thickBot="1">
-      <c r="A21" s="374">
-        <v>42959</v>
-      </c>
-      <c r="B21" s="376" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C21" s="375" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D21" s="377">
+      <c r="A21" s="396">
+        <v>42972</v>
+      </c>
+      <c r="B21" s="153" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C21" s="397" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D21" s="398">
         <v>42736</v>
       </c>
-      <c r="E21" s="378">
-        <v>1025.75</v>
-      </c>
-      <c r="F21" s="378">
-        <v>1000</v>
-      </c>
-      <c r="G21" s="375">
-        <v>25.75</v>
-      </c>
-      <c r="H21" s="375">
-        <v>0</v>
-      </c>
-      <c r="I21" s="379">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="J21" s="380">
-        <v>0</v>
-      </c>
-      <c r="K21" s="375" t="s">
+      <c r="E21" s="399">
+        <v>2054</v>
+      </c>
+      <c r="F21" s="399">
+        <v>2000</v>
+      </c>
+      <c r="G21" s="397">
+        <v>54</v>
+      </c>
+      <c r="H21" s="397">
+        <v>0</v>
+      </c>
+      <c r="I21" s="401">
+        <v>0.108</v>
+      </c>
+      <c r="J21" s="400">
+        <v>0</v>
+      </c>
+      <c r="K21" s="397" t="s">
         <v>170</v>
       </c>
       <c r="L21" s="370">
-        <f t="shared" si="14"/>
-        <v>25.75</v>
+        <f t="shared" ref="L21:L23" si="16">G21+H21</f>
+        <v>54</v>
       </c>
       <c r="M21" s="146"/>
       <c r="N21" s="142"/>
       <c r="O21" s="142">
-        <f t="shared" si="15"/>
-        <v>1025.75</v>
+        <f t="shared" ref="O21:O23" si="17">E21-M21</f>
+        <v>2054</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="30.75" thickBot="1">
-      <c r="A22" s="475">
-        <v>42972</v>
+      <c r="A22" s="396">
+        <v>42974</v>
       </c>
       <c r="B22" s="153" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C22" s="397" t="s">
         <v>1397</v>
       </c>
-      <c r="C22" s="476" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D22" s="477">
+      <c r="D22" s="398">
         <v>42736</v>
       </c>
-      <c r="E22" s="478">
-        <v>2054</v>
-      </c>
-      <c r="F22" s="478">
-        <v>2000</v>
-      </c>
-      <c r="G22" s="476">
-        <v>54</v>
-      </c>
-      <c r="H22" s="476">
-        <v>0</v>
-      </c>
-      <c r="I22" s="480">
+      <c r="E22" s="399">
+        <v>1027</v>
+      </c>
+      <c r="F22" s="399">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="397">
+        <v>27</v>
+      </c>
+      <c r="H22" s="397">
+        <v>0</v>
+      </c>
+      <c r="I22" s="401">
         <v>0.108</v>
       </c>
-      <c r="J22" s="479">
-        <v>0</v>
-      </c>
-      <c r="K22" s="476" t="s">
+      <c r="J22" s="400">
+        <v>0</v>
+      </c>
+      <c r="K22" s="397" t="s">
         <v>170</v>
       </c>
       <c r="L22" s="370">
-        <f t="shared" ref="L22:L24" si="16">G22+H22</f>
-        <v>54</v>
+        <f t="shared" si="16"/>
+        <v>27</v>
       </c>
       <c r="M22" s="146"/>
       <c r="N22" s="142"/>
       <c r="O22" s="142">
-        <f t="shared" ref="O22:O24" si="17">E22-M22</f>
+        <f t="shared" si="17"/>
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="30.75" thickBot="1">
+      <c r="A23" s="402">
+        <v>42975</v>
+      </c>
+      <c r="B23" s="404" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C23" s="403" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D23" s="405">
+        <v>42736</v>
+      </c>
+      <c r="E23" s="406">
         <v>2054</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="30.75" thickBot="1">
-      <c r="A23" s="475">
-        <v>42974</v>
-      </c>
-      <c r="B23" s="153" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C23" s="476" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D23" s="477">
-        <v>42736</v>
-      </c>
-      <c r="E23" s="478">
-        <v>1027</v>
-      </c>
-      <c r="F23" s="478">
-        <v>1000</v>
-      </c>
-      <c r="G23" s="476">
-        <v>27</v>
-      </c>
-      <c r="H23" s="476">
-        <v>0</v>
-      </c>
-      <c r="I23" s="480">
+      <c r="F23" s="406">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="403">
+        <v>54</v>
+      </c>
+      <c r="H23" s="403">
+        <v>0</v>
+      </c>
+      <c r="I23" s="407">
         <v>0.108</v>
       </c>
-      <c r="J23" s="479">
-        <v>0</v>
-      </c>
-      <c r="K23" s="476" t="s">
+      <c r="J23" s="408">
+        <v>0</v>
+      </c>
+      <c r="K23" s="403" t="s">
         <v>170</v>
       </c>
       <c r="L23" s="370">
         <f t="shared" si="16"/>
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M23" s="146"/>
       <c r="N23" s="142"/>
       <c r="O23" s="142">
         <f t="shared" si="17"/>
-        <v>1027</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="30.75" thickBot="1">
-      <c r="A24" s="481">
-        <v>42975</v>
-      </c>
-      <c r="B24" s="483" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C24" s="482" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D24" s="484">
+      <c r="A24" s="374">
+        <v>43034</v>
+      </c>
+      <c r="B24" s="376" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C24" s="375" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D24" s="377">
         <v>42736</v>
       </c>
-      <c r="E24" s="485">
-        <v>2054</v>
-      </c>
-      <c r="F24" s="485">
-        <v>2000</v>
-      </c>
-      <c r="G24" s="482">
-        <v>54</v>
-      </c>
-      <c r="H24" s="482">
-        <v>0</v>
-      </c>
-      <c r="I24" s="486">
-        <v>0.108</v>
-      </c>
-      <c r="J24" s="487">
-        <v>0</v>
-      </c>
-      <c r="K24" s="482" t="s">
+      <c r="E24" s="378">
+        <v>53782.27</v>
+      </c>
+      <c r="F24" s="378">
+        <v>50499.8</v>
+      </c>
+      <c r="G24" s="378">
+        <v>2903.73</v>
+      </c>
+      <c r="H24" s="375">
+        <v>378.74</v>
+      </c>
+      <c r="I24" s="379">
+        <v>0.115</v>
+      </c>
+      <c r="J24" s="379">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K24" s="375" t="s">
         <v>170</v>
       </c>
       <c r="L24" s="370">
-        <f t="shared" si="16"/>
-        <v>54</v>
+        <f t="shared" si="14"/>
+        <v>3282.4700000000003</v>
       </c>
       <c r="M24" s="146"/>
       <c r="N24" s="142"/>
       <c r="O24" s="142">
-        <f t="shared" si="17"/>
-        <v>2054</v>
+        <f t="shared" si="15"/>
+        <v>53782.27</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="30.75" thickBot="1">
       <c r="A25" s="374">
-        <v>43034</v>
+        <v>43045</v>
       </c>
       <c r="B25" s="376" t="s">
-        <v>1320</v>
+        <v>1375</v>
       </c>
       <c r="C25" s="375" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D25" s="377">
         <v>42736</v>
       </c>
       <c r="E25" s="378">
-        <v>53782.27</v>
+        <v>32013.9</v>
       </c>
       <c r="F25" s="378">
-        <v>50499.8</v>
+        <v>30060</v>
       </c>
       <c r="G25" s="378">
-        <v>2903.73</v>
+        <v>1728.45</v>
       </c>
       <c r="H25" s="375">
-        <v>378.74</v>
+        <v>225.45</v>
       </c>
       <c r="I25" s="379">
         <v>0.115</v>
@@ -56988,39 +56912,39 @@
       </c>
       <c r="L25" s="370">
         <f t="shared" si="14"/>
-        <v>3282.4700000000003</v>
+        <v>1953.9</v>
       </c>
       <c r="M25" s="146"/>
       <c r="N25" s="142"/>
       <c r="O25" s="142">
         <f t="shared" si="15"/>
-        <v>53782.27</v>
+        <v>32013.9</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="30.75" thickBot="1">
       <c r="A26" s="374">
-        <v>43045</v>
+        <v>43049</v>
       </c>
       <c r="B26" s="376" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C26" s="375" t="s">
         <v>1376</v>
-      </c>
-      <c r="C26" s="375" t="s">
-        <v>1377</v>
       </c>
       <c r="D26" s="377">
         <v>42736</v>
       </c>
       <c r="E26" s="378">
-        <v>32013.9</v>
+        <v>10650</v>
       </c>
       <c r="F26" s="378">
-        <v>30060</v>
-      </c>
-      <c r="G26" s="378">
-        <v>1728.45</v>
+        <v>10000</v>
+      </c>
+      <c r="G26" s="375">
+        <v>575</v>
       </c>
       <c r="H26" s="375">
-        <v>225.45</v>
+        <v>75</v>
       </c>
       <c r="I26" s="379">
         <v>0.115</v>
@@ -57033,146 +56957,101 @@
       </c>
       <c r="L26" s="370">
         <f t="shared" si="14"/>
-        <v>1953.9</v>
+        <v>650</v>
       </c>
       <c r="M26" s="146"/>
       <c r="N26" s="142"/>
       <c r="O26" s="142">
         <f t="shared" si="15"/>
-        <v>32013.9</v>
+        <v>10650</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="30.75" thickBot="1">
-      <c r="A27" s="374">
-        <v>43049</v>
-      </c>
-      <c r="B27" s="376" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C27" s="375" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D27" s="377">
+      <c r="A27" s="396">
+        <v>43062</v>
+      </c>
+      <c r="B27" s="153" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C27" s="397" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D27" s="398">
         <v>42736</v>
       </c>
-      <c r="E27" s="378">
-        <v>10650</v>
-      </c>
-      <c r="F27" s="378">
+      <c r="E27" s="399">
+        <v>10675</v>
+      </c>
+      <c r="F27" s="399">
         <v>10000</v>
       </c>
-      <c r="G27" s="375">
-        <v>575</v>
-      </c>
-      <c r="H27" s="375">
+      <c r="G27" s="397">
+        <v>600</v>
+      </c>
+      <c r="H27" s="397">
         <v>75</v>
       </c>
-      <c r="I27" s="379">
-        <v>0.115</v>
-      </c>
-      <c r="J27" s="379">
+      <c r="I27" s="400">
+        <v>0.12</v>
+      </c>
+      <c r="J27" s="401">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K27" s="375" t="s">
+      <c r="K27" s="397" t="s">
         <v>170</v>
       </c>
       <c r="L27" s="370">
-        <f t="shared" si="14"/>
-        <v>650</v>
+        <f t="shared" ref="L27:L28" si="18">G27+H27</f>
+        <v>675</v>
       </c>
       <c r="M27" s="146"/>
       <c r="N27" s="142"/>
       <c r="O27" s="142">
-        <f t="shared" si="15"/>
-        <v>10650</v>
+        <f t="shared" ref="O27:O28" si="19">E27-M27</f>
+        <v>10675</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="30.75" thickBot="1">
-      <c r="A28" s="475">
-        <v>43062</v>
+      <c r="A28" s="396">
+        <v>43064</v>
       </c>
       <c r="B28" s="153" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C28" s="476" t="s">
         <v>1402</v>
       </c>
-      <c r="D28" s="477">
+      <c r="C28" s="397" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D28" s="398">
         <v>42736</v>
       </c>
-      <c r="E28" s="478">
-        <v>10675</v>
-      </c>
-      <c r="F28" s="478">
-        <v>10000</v>
-      </c>
-      <c r="G28" s="476">
-        <v>600</v>
-      </c>
-      <c r="H28" s="476">
-        <v>75</v>
-      </c>
-      <c r="I28" s="479">
+      <c r="E28" s="399">
+        <v>10625.5</v>
+      </c>
+      <c r="F28" s="399">
+        <v>9977</v>
+      </c>
+      <c r="G28" s="397">
+        <v>598.62</v>
+      </c>
+      <c r="H28" s="397">
+        <v>49.88</v>
+      </c>
+      <c r="I28" s="400">
         <v>0.12</v>
       </c>
-      <c r="J28" s="480">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K28" s="476" t="s">
+      <c r="J28" s="400">
+        <v>0.01</v>
+      </c>
+      <c r="K28" s="397" t="s">
         <v>170</v>
       </c>
       <c r="L28" s="370">
-        <f t="shared" ref="L28:L29" si="18">G28+H28</f>
-        <v>675</v>
+        <f t="shared" si="18"/>
+        <v>648.5</v>
       </c>
       <c r="M28" s="146"/>
       <c r="N28" s="142"/>
       <c r="O28" s="142">
-        <f t="shared" ref="O28:O29" si="19">E28-M28</f>
-        <v>10675</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="30.75" thickBot="1">
-      <c r="A29" s="475">
-        <v>43064</v>
-      </c>
-      <c r="B29" s="153" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C29" s="476" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D29" s="477">
-        <v>42736</v>
-      </c>
-      <c r="E29" s="478">
-        <v>10625.5</v>
-      </c>
-      <c r="F29" s="478">
-        <v>9977</v>
-      </c>
-      <c r="G29" s="476">
-        <v>598.62</v>
-      </c>
-      <c r="H29" s="476">
-        <v>49.88</v>
-      </c>
-      <c r="I29" s="479">
-        <v>0.12</v>
-      </c>
-      <c r="J29" s="479">
-        <v>0.01</v>
-      </c>
-      <c r="K29" s="476" t="s">
-        <v>170</v>
-      </c>
-      <c r="L29" s="370">
-        <f t="shared" si="18"/>
-        <v>648.5</v>
-      </c>
-      <c r="M29" s="146"/>
-      <c r="N29" s="142"/>
-      <c r="O29" s="142">
         <f t="shared" si="19"/>
         <v>10625.5</v>
       </c>
@@ -57180,30 +57059,29 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=901062"/>
-    <hyperlink ref="B5" r:id="rId2" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=926809"/>
-    <hyperlink ref="B6" r:id="rId3" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=902205"/>
-    <hyperlink ref="B13" r:id="rId4" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=913779"/>
-    <hyperlink ref="B14" r:id="rId5" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=926784"/>
-    <hyperlink ref="B15" r:id="rId6" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=926932"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=926809"/>
+    <hyperlink ref="B5" r:id="rId2" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=902205"/>
+    <hyperlink ref="B12" r:id="rId3" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=913779"/>
+    <hyperlink ref="B13" r:id="rId4" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=926784"/>
+    <hyperlink ref="B14" r:id="rId5" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=926932"/>
+    <hyperlink ref="B15" r:id="rId6" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929619"/>
     <hyperlink ref="B16" r:id="rId7" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929619"/>
     <hyperlink ref="B17" r:id="rId8" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929619"/>
-    <hyperlink ref="B18" r:id="rId9" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929619"/>
+    <hyperlink ref="B18" r:id="rId9" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=930981"/>
     <hyperlink ref="B19" r:id="rId10" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=930981"/>
     <hyperlink ref="B20" r:id="rId11" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=930981"/>
-    <hyperlink ref="B21" r:id="rId12" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=930981"/>
-    <hyperlink ref="B25" r:id="rId13" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=924483"/>
-    <hyperlink ref="B26" r:id="rId14" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929963"/>
-    <hyperlink ref="B27" r:id="rId15" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=931710"/>
-    <hyperlink ref="B12" r:id="rId16" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=937273"/>
-    <hyperlink ref="B22" r:id="rId17" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936366"/>
-    <hyperlink ref="B23" r:id="rId18" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936596"/>
-    <hyperlink ref="B24" r:id="rId19" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936619"/>
-    <hyperlink ref="B28" r:id="rId20" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936548"/>
-    <hyperlink ref="B29" r:id="rId21" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936622"/>
+    <hyperlink ref="B24" r:id="rId12" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=924483"/>
+    <hyperlink ref="B25" r:id="rId13" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929963"/>
+    <hyperlink ref="B26" r:id="rId14" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=931710"/>
+    <hyperlink ref="B11" r:id="rId15" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=937273"/>
+    <hyperlink ref="B21" r:id="rId16" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936366"/>
+    <hyperlink ref="B22" r:id="rId17" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936596"/>
+    <hyperlink ref="B23" r:id="rId18" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936619"/>
+    <hyperlink ref="B27" r:id="rId19" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936548"/>
+    <hyperlink ref="B28" r:id="rId20" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936622"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -57609,18 +57487,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A1" s="450" t="s">
+      <c r="A1" s="463" t="s">
         <v>1060</v>
       </c>
-      <c r="B1" s="451"/>
-      <c r="C1" s="451" t="s">
+      <c r="B1" s="464"/>
+      <c r="C1" s="464" t="s">
         <v>1061</v>
       </c>
-      <c r="D1" s="451"/>
-      <c r="E1" s="452" t="s">
+      <c r="D1" s="464"/>
+      <c r="E1" s="465" t="s">
         <v>1062</v>
       </c>
-      <c r="F1" s="453"/>
+      <c r="F1" s="466"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="244" t="s">
@@ -57700,7 +57578,7 @@
         <v>42800</v>
       </c>
       <c r="K4" s="204" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L4" s="350">
         <v>9.5000000000000001E-2</v>
@@ -57758,7 +57636,7 @@
         <v>42841</v>
       </c>
       <c r="K6" s="204" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="L6" s="350">
         <v>9.2999999999999999E-2</v>

--- a/HighRiskInvestment.xlsx
+++ b/HighRiskInvestment.xlsx
@@ -7956,6 +7956,9 @@
     <xf numFmtId="9" fontId="62" fillId="23" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7965,17 +7968,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7990,93 +7990,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8100,6 +8013,93 @@
     <xf numFmtId="0" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8115,12 +8115,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8141,18 +8135,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8177,6 +8159,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11884,11 +11884,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A1" s="414" t="s">
+      <c r="A1" s="413" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="414"/>
-      <c r="C1" s="414"/>
+      <c r="B1" s="413"/>
+      <c r="C1" s="413"/>
       <c r="D1" s="110">
         <f>SUM(G10:G88)-SUM(L10:L88)</f>
         <v>268</v>
@@ -11901,11 +11901,11 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A2" s="415" t="s">
+      <c r="A2" s="414" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="415"/>
-      <c r="C2" s="415"/>
+      <c r="B2" s="414"/>
+      <c r="C2" s="414"/>
       <c r="D2" s="111">
         <v>29.75</v>
       </c>
@@ -11920,11 +11920,11 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A3" s="415" t="s">
+      <c r="A3" s="414" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="415"/>
-      <c r="C3" s="415"/>
+      <c r="B3" s="414"/>
+      <c r="C3" s="414"/>
       <c r="D3" s="111">
         <f>D1*0.85</f>
         <v>227.79999999999998</v>
@@ -11940,11 +11940,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A4" s="415" t="s">
+      <c r="A4" s="414" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="415"/>
-      <c r="C4" s="415"/>
+      <c r="B4" s="414"/>
+      <c r="C4" s="414"/>
       <c r="D4" s="112">
         <f>([1]Sheet2!B64)/100</f>
         <v>6.1073000000000004</v>
@@ -11954,11 +11954,11 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="413" t="s">
+      <c r="A5" s="409" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="413"/>
-      <c r="C5" s="413"/>
+      <c r="B5" s="409"/>
+      <c r="C5" s="409"/>
       <c r="D5" s="113">
         <f>SUM(D10:D88)+SUM(H10:H88)</f>
         <v>76568.666499999992</v>
@@ -11968,11 +11968,11 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A6" s="413" t="s">
+      <c r="A6" s="409" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="413"/>
-      <c r="C6" s="413"/>
+      <c r="B6" s="409"/>
+      <c r="C6" s="409"/>
       <c r="D6" s="114">
         <f>SUM(Q10:Q88)</f>
         <v>48178.589949999994</v>
@@ -11986,11 +11986,11 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A7" s="413" t="s">
+      <c r="A7" s="409" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="413"/>
-      <c r="C7" s="413"/>
+      <c r="B7" s="409"/>
+      <c r="C7" s="409"/>
       <c r="D7" s="116">
         <f>D6-D5</f>
         <v>-28390.076549999998</v>
@@ -12069,38 +12069,38 @@
       <c r="B10" s="109">
         <v>0</v>
       </c>
-      <c r="C10" s="409">
+      <c r="C10" s="410">
         <v>68.97</v>
       </c>
-      <c r="D10" s="410">
+      <c r="D10" s="411">
         <f>IF(B15&gt;0,SUM(B10:B15)-C10,0)</f>
         <v>10580.78</v>
       </c>
-      <c r="E10" s="409">
+      <c r="E10" s="410">
         <v>6.2854999999999999</v>
       </c>
-      <c r="F10" s="409">
+      <c r="F10" s="410">
         <v>25.3</v>
       </c>
-      <c r="G10" s="411">
+      <c r="G10" s="412">
         <v>79</v>
       </c>
       <c r="H10" s="120">
         <f t="shared" ref="H10:H15" si="0">R16*0.2</f>
         <v>62.814</v>
       </c>
-      <c r="I10" s="412">
+      <c r="I10" s="415">
         <f>IF($K$28&gt;F10,G10*($K$28-F10)*0.2,0)</f>
         <v>70.309999999999988</v>
       </c>
-      <c r="J10" s="412"/>
-      <c r="K10" s="412"/>
-      <c r="L10" s="412"/>
-      <c r="M10" s="412"/>
-      <c r="N10" s="412"/>
-      <c r="O10" s="412"/>
-      <c r="P10" s="412"/>
-      <c r="Q10" s="412"/>
+      <c r="J10" s="415"/>
+      <c r="K10" s="415"/>
+      <c r="L10" s="415"/>
+      <c r="M10" s="415"/>
+      <c r="N10" s="415"/>
+      <c r="O10" s="415"/>
+      <c r="P10" s="415"/>
+      <c r="Q10" s="415"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
@@ -12109,26 +12109,26 @@
       <c r="B11" s="109">
         <v>3400.95</v>
       </c>
-      <c r="C11" s="409">
+      <c r="C11" s="410">
         <v>3400.95</v>
       </c>
-      <c r="D11" s="410"/>
-      <c r="E11" s="409"/>
-      <c r="F11" s="409"/>
-      <c r="G11" s="411"/>
+      <c r="D11" s="411"/>
+      <c r="E11" s="410"/>
+      <c r="F11" s="410"/>
+      <c r="G11" s="412"/>
       <c r="H11" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I11" s="412"/>
-      <c r="J11" s="412"/>
-      <c r="K11" s="412"/>
-      <c r="L11" s="412"/>
-      <c r="M11" s="412"/>
-      <c r="N11" s="412"/>
-      <c r="O11" s="412"/>
-      <c r="P11" s="412"/>
-      <c r="Q11" s="412"/>
+      <c r="I11" s="415"/>
+      <c r="J11" s="415"/>
+      <c r="K11" s="415"/>
+      <c r="L11" s="415"/>
+      <c r="M11" s="415"/>
+      <c r="N11" s="415"/>
+      <c r="O11" s="415"/>
+      <c r="P11" s="415"/>
+      <c r="Q11" s="415"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1">
@@ -12137,26 +12137,26 @@
       <c r="B12" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C12" s="409">
+      <c r="C12" s="410">
         <v>1706.25</v>
       </c>
-      <c r="D12" s="410"/>
-      <c r="E12" s="409"/>
-      <c r="F12" s="409"/>
-      <c r="G12" s="411"/>
+      <c r="D12" s="411"/>
+      <c r="E12" s="410"/>
+      <c r="F12" s="410"/>
+      <c r="G12" s="412"/>
       <c r="H12" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I12" s="412"/>
-      <c r="J12" s="412"/>
-      <c r="K12" s="412"/>
-      <c r="L12" s="412"/>
-      <c r="M12" s="412"/>
-      <c r="N12" s="412"/>
-      <c r="O12" s="412"/>
-      <c r="P12" s="412"/>
-      <c r="Q12" s="412"/>
+      <c r="I12" s="415"/>
+      <c r="J12" s="415"/>
+      <c r="K12" s="415"/>
+      <c r="L12" s="415"/>
+      <c r="M12" s="415"/>
+      <c r="N12" s="415"/>
+      <c r="O12" s="415"/>
+      <c r="P12" s="415"/>
+      <c r="Q12" s="415"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1">
@@ -12165,26 +12165,26 @@
       <c r="B13" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C13" s="409">
+      <c r="C13" s="410">
         <v>1706.25</v>
       </c>
-      <c r="D13" s="410"/>
-      <c r="E13" s="409"/>
-      <c r="F13" s="409"/>
-      <c r="G13" s="411"/>
+      <c r="D13" s="411"/>
+      <c r="E13" s="410"/>
+      <c r="F13" s="410"/>
+      <c r="G13" s="412"/>
       <c r="H13" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I13" s="412"/>
-      <c r="J13" s="412"/>
-      <c r="K13" s="412"/>
-      <c r="L13" s="412"/>
-      <c r="M13" s="412"/>
-      <c r="N13" s="412"/>
-      <c r="O13" s="412"/>
-      <c r="P13" s="412"/>
-      <c r="Q13" s="412"/>
+      <c r="I13" s="415"/>
+      <c r="J13" s="415"/>
+      <c r="K13" s="415"/>
+      <c r="L13" s="415"/>
+      <c r="M13" s="415"/>
+      <c r="N13" s="415"/>
+      <c r="O13" s="415"/>
+      <c r="P13" s="415"/>
+      <c r="Q13" s="415"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1">
@@ -12193,26 +12193,26 @@
       <c r="B14" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C14" s="409">
+      <c r="C14" s="410">
         <v>1918.15</v>
       </c>
-      <c r="D14" s="410"/>
-      <c r="E14" s="409"/>
-      <c r="F14" s="409"/>
-      <c r="G14" s="411"/>
+      <c r="D14" s="411"/>
+      <c r="E14" s="410"/>
+      <c r="F14" s="410"/>
+      <c r="G14" s="412"/>
       <c r="H14" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I14" s="412"/>
-      <c r="J14" s="412"/>
-      <c r="K14" s="412"/>
-      <c r="L14" s="412"/>
-      <c r="M14" s="412"/>
-      <c r="N14" s="412"/>
-      <c r="O14" s="412"/>
-      <c r="P14" s="412"/>
-      <c r="Q14" s="412"/>
+      <c r="I14" s="415"/>
+      <c r="J14" s="415"/>
+      <c r="K14" s="415"/>
+      <c r="L14" s="415"/>
+      <c r="M14" s="415"/>
+      <c r="N14" s="415"/>
+      <c r="O14" s="415"/>
+      <c r="P14" s="415"/>
+      <c r="Q14" s="415"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1">
@@ -12221,26 +12221,26 @@
       <c r="B15" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C15" s="409">
+      <c r="C15" s="410">
         <v>1918.15</v>
       </c>
-      <c r="D15" s="410"/>
-      <c r="E15" s="409"/>
-      <c r="F15" s="409"/>
-      <c r="G15" s="411"/>
+      <c r="D15" s="411"/>
+      <c r="E15" s="410"/>
+      <c r="F15" s="410"/>
+      <c r="G15" s="412"/>
       <c r="H15" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I15" s="412"/>
-      <c r="J15" s="412"/>
-      <c r="K15" s="412"/>
-      <c r="L15" s="412"/>
-      <c r="M15" s="412"/>
-      <c r="N15" s="412"/>
-      <c r="O15" s="412"/>
-      <c r="P15" s="412"/>
-      <c r="Q15" s="412"/>
+      <c r="I15" s="415"/>
+      <c r="J15" s="415"/>
+      <c r="K15" s="415"/>
+      <c r="L15" s="415"/>
+      <c r="M15" s="415"/>
+      <c r="N15" s="415"/>
+      <c r="O15" s="415"/>
+      <c r="P15" s="415"/>
+      <c r="Q15" s="415"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1">
@@ -12249,38 +12249,38 @@
       <c r="B16" s="109">
         <v>1693.15</v>
       </c>
-      <c r="C16" s="409">
+      <c r="C16" s="410">
         <v>48.24</v>
       </c>
-      <c r="D16" s="410">
+      <c r="D16" s="411">
         <f>IF(B21&gt;0,SUM(B16:B21)-C16,0)</f>
         <v>11196.460000000001</v>
       </c>
-      <c r="E16" s="409">
+      <c r="E16" s="410">
         <v>6.1787000000000001</v>
       </c>
-      <c r="F16" s="409">
+      <c r="F16" s="410">
         <v>23.62</v>
       </c>
-      <c r="G16" s="411">
+      <c r="G16" s="412">
         <v>90</v>
       </c>
       <c r="H16" s="120">
         <f>R22*0.25</f>
         <v>81.435000000000002</v>
       </c>
-      <c r="I16" s="412">
+      <c r="I16" s="415">
         <f>IF($K$28&gt;F16,G16*($K$28-F16)*0.2,0)</f>
         <v>110.33999999999999</v>
       </c>
-      <c r="J16" s="412"/>
-      <c r="K16" s="412"/>
-      <c r="L16" s="412"/>
-      <c r="M16" s="412"/>
-      <c r="N16" s="412"/>
-      <c r="O16" s="412"/>
-      <c r="P16" s="412"/>
-      <c r="Q16" s="412"/>
+      <c r="J16" s="415"/>
+      <c r="K16" s="415"/>
+      <c r="L16" s="415"/>
+      <c r="M16" s="415"/>
+      <c r="N16" s="415"/>
+      <c r="O16" s="415"/>
+      <c r="P16" s="415"/>
+      <c r="Q16" s="415"/>
       <c r="R16" s="109">
         <v>314.07</v>
       </c>
@@ -12292,24 +12292,24 @@
       <c r="B17" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C17" s="409"/>
-      <c r="D17" s="410"/>
-      <c r="E17" s="409"/>
-      <c r="F17" s="409"/>
-      <c r="G17" s="411"/>
+      <c r="C17" s="410"/>
+      <c r="D17" s="411"/>
+      <c r="E17" s="410"/>
+      <c r="F17" s="410"/>
+      <c r="G17" s="412"/>
       <c r="H17" s="120">
         <f t="shared" ref="H17:H80" si="1">R23*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I17" s="412"/>
-      <c r="J17" s="412"/>
-      <c r="K17" s="412"/>
-      <c r="L17" s="412"/>
-      <c r="M17" s="412"/>
-      <c r="N17" s="412"/>
-      <c r="O17" s="412"/>
-      <c r="P17" s="412"/>
-      <c r="Q17" s="412"/>
+      <c r="I17" s="415"/>
+      <c r="J17" s="415"/>
+      <c r="K17" s="415"/>
+      <c r="L17" s="415"/>
+      <c r="M17" s="415"/>
+      <c r="N17" s="415"/>
+      <c r="O17" s="415"/>
+      <c r="P17" s="415"/>
+      <c r="Q17" s="415"/>
       <c r="R17" s="109">
         <f>R16</f>
         <v>314.07</v>
@@ -12322,24 +12322,24 @@
       <c r="B18" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C18" s="409"/>
-      <c r="D18" s="410"/>
-      <c r="E18" s="409"/>
-      <c r="F18" s="409"/>
-      <c r="G18" s="411"/>
+      <c r="C18" s="410"/>
+      <c r="D18" s="411"/>
+      <c r="E18" s="410"/>
+      <c r="F18" s="410"/>
+      <c r="G18" s="412"/>
       <c r="H18" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I18" s="412"/>
-      <c r="J18" s="412"/>
-      <c r="K18" s="412"/>
-      <c r="L18" s="412"/>
-      <c r="M18" s="412"/>
-      <c r="N18" s="412"/>
-      <c r="O18" s="412"/>
-      <c r="P18" s="412"/>
-      <c r="Q18" s="412"/>
+      <c r="I18" s="415"/>
+      <c r="J18" s="415"/>
+      <c r="K18" s="415"/>
+      <c r="L18" s="415"/>
+      <c r="M18" s="415"/>
+      <c r="N18" s="415"/>
+      <c r="O18" s="415"/>
+      <c r="P18" s="415"/>
+      <c r="Q18" s="415"/>
       <c r="R18" s="109">
         <f t="shared" ref="R18:R32" si="2">R17</f>
         <v>314.07</v>
@@ -12352,24 +12352,24 @@
       <c r="B19" s="121">
         <v>2196.35</v>
       </c>
-      <c r="C19" s="409"/>
-      <c r="D19" s="410"/>
-      <c r="E19" s="409"/>
-      <c r="F19" s="409"/>
-      <c r="G19" s="411"/>
+      <c r="C19" s="410"/>
+      <c r="D19" s="411"/>
+      <c r="E19" s="410"/>
+      <c r="F19" s="410"/>
+      <c r="G19" s="412"/>
       <c r="H19" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I19" s="412"/>
-      <c r="J19" s="412"/>
-      <c r="K19" s="412"/>
-      <c r="L19" s="412"/>
-      <c r="M19" s="412"/>
-      <c r="N19" s="412"/>
-      <c r="O19" s="412"/>
-      <c r="P19" s="412"/>
-      <c r="Q19" s="412"/>
+      <c r="I19" s="415"/>
+      <c r="J19" s="415"/>
+      <c r="K19" s="415"/>
+      <c r="L19" s="415"/>
+      <c r="M19" s="415"/>
+      <c r="N19" s="415"/>
+      <c r="O19" s="415"/>
+      <c r="P19" s="415"/>
+      <c r="Q19" s="415"/>
       <c r="R19" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12382,24 +12382,24 @@
       <c r="B20" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C20" s="409"/>
-      <c r="D20" s="410"/>
-      <c r="E20" s="409"/>
-      <c r="F20" s="409"/>
-      <c r="G20" s="411"/>
+      <c r="C20" s="410"/>
+      <c r="D20" s="411"/>
+      <c r="E20" s="410"/>
+      <c r="F20" s="410"/>
+      <c r="G20" s="412"/>
       <c r="H20" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I20" s="412"/>
-      <c r="J20" s="412"/>
-      <c r="K20" s="412"/>
-      <c r="L20" s="412"/>
-      <c r="M20" s="412"/>
-      <c r="N20" s="412"/>
-      <c r="O20" s="412"/>
-      <c r="P20" s="412"/>
-      <c r="Q20" s="412"/>
+      <c r="I20" s="415"/>
+      <c r="J20" s="415"/>
+      <c r="K20" s="415"/>
+      <c r="L20" s="415"/>
+      <c r="M20" s="415"/>
+      <c r="N20" s="415"/>
+      <c r="O20" s="415"/>
+      <c r="P20" s="415"/>
+      <c r="Q20" s="415"/>
       <c r="R20" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12412,24 +12412,24 @@
       <c r="B21" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C21" s="409"/>
-      <c r="D21" s="410"/>
-      <c r="E21" s="409"/>
-      <c r="F21" s="409"/>
-      <c r="G21" s="411"/>
+      <c r="C21" s="410"/>
+      <c r="D21" s="411"/>
+      <c r="E21" s="410"/>
+      <c r="F21" s="410"/>
+      <c r="G21" s="412"/>
       <c r="H21" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I21" s="412"/>
-      <c r="J21" s="412"/>
-      <c r="K21" s="412"/>
-      <c r="L21" s="412"/>
-      <c r="M21" s="412"/>
-      <c r="N21" s="412"/>
-      <c r="O21" s="412"/>
-      <c r="P21" s="412"/>
-      <c r="Q21" s="412"/>
+      <c r="I21" s="415"/>
+      <c r="J21" s="415"/>
+      <c r="K21" s="415"/>
+      <c r="L21" s="415"/>
+      <c r="M21" s="415"/>
+      <c r="N21" s="415"/>
+      <c r="O21" s="415"/>
+      <c r="P21" s="415"/>
+      <c r="Q21" s="415"/>
       <c r="R21" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12442,38 +12442,38 @@
       <c r="B22" s="121">
         <v>1958.23</v>
       </c>
-      <c r="C22" s="409">
+      <c r="C22" s="410">
         <v>34.549999999999997</v>
       </c>
-      <c r="D22" s="410">
+      <c r="D22" s="411">
         <f>IF(B27&gt;0,SUM(B22:B27)-C22,0)</f>
         <v>11771.410000000002</v>
       </c>
-      <c r="E22" s="409">
+      <c r="E22" s="410">
         <v>6.1050000000000004</v>
       </c>
-      <c r="F22" s="409">
+      <c r="F22" s="410">
         <v>24.24</v>
       </c>
-      <c r="G22" s="411">
+      <c r="G22" s="412">
         <v>109</v>
       </c>
       <c r="H22" s="120">
         <f>R28*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I22" s="412">
+      <c r="I22" s="415">
         <f>IF($K$28&gt;F22,G22*($K$28-F22)*0.2,0)</f>
         <v>120.11800000000004</v>
       </c>
-      <c r="J22" s="412"/>
-      <c r="K22" s="412"/>
-      <c r="L22" s="412"/>
-      <c r="M22" s="412"/>
-      <c r="N22" s="412"/>
-      <c r="O22" s="412"/>
-      <c r="P22" s="412"/>
-      <c r="Q22" s="412"/>
+      <c r="J22" s="415"/>
+      <c r="K22" s="415"/>
+      <c r="L22" s="415"/>
+      <c r="M22" s="415"/>
+      <c r="N22" s="415"/>
+      <c r="O22" s="415"/>
+      <c r="P22" s="415"/>
+      <c r="Q22" s="415"/>
       <c r="R22" s="109">
         <v>325.74</v>
       </c>
@@ -12485,24 +12485,24 @@
       <c r="B23" s="121">
         <v>1958.24</v>
       </c>
-      <c r="C23" s="409"/>
-      <c r="D23" s="410"/>
-      <c r="E23" s="409"/>
-      <c r="F23" s="409"/>
-      <c r="G23" s="411"/>
+      <c r="C23" s="410"/>
+      <c r="D23" s="411"/>
+      <c r="E23" s="410"/>
+      <c r="F23" s="410"/>
+      <c r="G23" s="412"/>
       <c r="H23" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I23" s="412"/>
-      <c r="J23" s="412"/>
-      <c r="K23" s="412"/>
-      <c r="L23" s="412"/>
-      <c r="M23" s="412"/>
-      <c r="N23" s="412"/>
-      <c r="O23" s="412"/>
-      <c r="P23" s="412"/>
-      <c r="Q23" s="412"/>
+      <c r="I23" s="415"/>
+      <c r="J23" s="415"/>
+      <c r="K23" s="415"/>
+      <c r="L23" s="415"/>
+      <c r="M23" s="415"/>
+      <c r="N23" s="415"/>
+      <c r="O23" s="415"/>
+      <c r="P23" s="415"/>
+      <c r="Q23" s="415"/>
       <c r="R23" s="109">
         <v>271.45</v>
       </c>
@@ -12514,24 +12514,24 @@
       <c r="B24" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C24" s="409"/>
-      <c r="D24" s="410"/>
-      <c r="E24" s="409"/>
-      <c r="F24" s="409"/>
-      <c r="G24" s="411"/>
+      <c r="C24" s="410"/>
+      <c r="D24" s="411"/>
+      <c r="E24" s="410"/>
+      <c r="F24" s="410"/>
+      <c r="G24" s="412"/>
       <c r="H24" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I24" s="412"/>
-      <c r="J24" s="412"/>
-      <c r="K24" s="412"/>
-      <c r="L24" s="412"/>
-      <c r="M24" s="412"/>
-      <c r="N24" s="412"/>
-      <c r="O24" s="412"/>
-      <c r="P24" s="412"/>
-      <c r="Q24" s="412"/>
+      <c r="I24" s="415"/>
+      <c r="J24" s="415"/>
+      <c r="K24" s="415"/>
+      <c r="L24" s="415"/>
+      <c r="M24" s="415"/>
+      <c r="N24" s="415"/>
+      <c r="O24" s="415"/>
+      <c r="P24" s="415"/>
+      <c r="Q24" s="415"/>
       <c r="R24" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12544,24 +12544,24 @@
       <c r="B25" s="121">
         <v>1958.26</v>
       </c>
-      <c r="C25" s="409"/>
-      <c r="D25" s="410"/>
-      <c r="E25" s="409"/>
-      <c r="F25" s="409"/>
-      <c r="G25" s="411"/>
+      <c r="C25" s="410"/>
+      <c r="D25" s="411"/>
+      <c r="E25" s="410"/>
+      <c r="F25" s="410"/>
+      <c r="G25" s="412"/>
       <c r="H25" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I25" s="412"/>
-      <c r="J25" s="412"/>
-      <c r="K25" s="412"/>
-      <c r="L25" s="412"/>
-      <c r="M25" s="412"/>
-      <c r="N25" s="412"/>
-      <c r="O25" s="412"/>
-      <c r="P25" s="412"/>
-      <c r="Q25" s="412"/>
+      <c r="I25" s="415"/>
+      <c r="J25" s="415"/>
+      <c r="K25" s="415"/>
+      <c r="L25" s="415"/>
+      <c r="M25" s="415"/>
+      <c r="N25" s="415"/>
+      <c r="O25" s="415"/>
+      <c r="P25" s="415"/>
+      <c r="Q25" s="415"/>
       <c r="R25" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12574,24 +12574,24 @@
       <c r="B26" s="121">
         <v>2031.49</v>
       </c>
-      <c r="C26" s="409"/>
-      <c r="D26" s="410"/>
-      <c r="E26" s="409"/>
-      <c r="F26" s="409"/>
-      <c r="G26" s="411"/>
+      <c r="C26" s="410"/>
+      <c r="D26" s="411"/>
+      <c r="E26" s="410"/>
+      <c r="F26" s="410"/>
+      <c r="G26" s="412"/>
       <c r="H26" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I26" s="412"/>
-      <c r="J26" s="412"/>
-      <c r="K26" s="412"/>
-      <c r="L26" s="412"/>
-      <c r="M26" s="412"/>
-      <c r="N26" s="412"/>
-      <c r="O26" s="412"/>
-      <c r="P26" s="412"/>
-      <c r="Q26" s="412"/>
+      <c r="I26" s="415"/>
+      <c r="J26" s="415"/>
+      <c r="K26" s="415"/>
+      <c r="L26" s="415"/>
+      <c r="M26" s="415"/>
+      <c r="N26" s="415"/>
+      <c r="O26" s="415"/>
+      <c r="P26" s="415"/>
+      <c r="Q26" s="415"/>
       <c r="R26" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12604,24 +12604,24 @@
       <c r="B27" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C27" s="409"/>
-      <c r="D27" s="410"/>
-      <c r="E27" s="409"/>
-      <c r="F27" s="409"/>
-      <c r="G27" s="411"/>
+      <c r="C27" s="410"/>
+      <c r="D27" s="411"/>
+      <c r="E27" s="410"/>
+      <c r="F27" s="410"/>
+      <c r="G27" s="412"/>
       <c r="H27" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I27" s="412"/>
-      <c r="J27" s="412"/>
-      <c r="K27" s="412"/>
-      <c r="L27" s="412"/>
-      <c r="M27" s="412"/>
-      <c r="N27" s="412"/>
-      <c r="O27" s="412"/>
-      <c r="P27" s="412"/>
-      <c r="Q27" s="412"/>
+      <c r="I27" s="415"/>
+      <c r="J27" s="415"/>
+      <c r="K27" s="415"/>
+      <c r="L27" s="415"/>
+      <c r="M27" s="415"/>
+      <c r="N27" s="415"/>
+      <c r="O27" s="415"/>
+      <c r="P27" s="415"/>
+      <c r="Q27" s="415"/>
       <c r="R27" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12634,54 +12634,54 @@
       <c r="B28" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C28" s="409">
+      <c r="C28" s="410">
         <v>22.25</v>
       </c>
-      <c r="D28" s="410">
+      <c r="D28" s="411">
         <f>IF(G28&gt;0,SUM(B28:B34)-C28,0)</f>
         <v>14106.8</v>
       </c>
-      <c r="E28" s="409">
+      <c r="E28" s="410">
         <v>6.1675000000000004</v>
       </c>
-      <c r="F28" s="409">
+      <c r="F28" s="410">
         <v>29.3</v>
       </c>
-      <c r="G28" s="411">
+      <c r="G28" s="412">
         <v>79</v>
       </c>
       <c r="H28" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I28" s="412">
+      <c r="I28" s="415">
         <f>IF($D$2&gt;F28,G28*($D$2-F28)*0.2,0)</f>
         <v>7.1099999999999888</v>
       </c>
-      <c r="J28" s="412">
+      <c r="J28" s="415">
         <f>SUM(I10:I27)</f>
         <v>300.76800000000003</v>
       </c>
-      <c r="K28" s="412">
+      <c r="K28" s="415">
         <v>29.75</v>
       </c>
-      <c r="L28" s="412">
+      <c r="L28" s="415">
         <v>278</v>
       </c>
-      <c r="M28" s="412">
+      <c r="M28" s="415">
         <f>IF(IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005)&gt;25,IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005),25)</f>
         <v>41.352499999999999</v>
       </c>
-      <c r="N28" s="412">
+      <c r="N28" s="415">
         <v>5.25</v>
       </c>
-      <c r="O28" s="412">
-        <v>0</v>
-      </c>
-      <c r="P28" s="412">
+      <c r="O28" s="415">
+        <v>0</v>
+      </c>
+      <c r="P28" s="415">
         <v>25</v>
       </c>
-      <c r="Q28" s="412">
+      <c r="Q28" s="415">
         <f>(K28*L28-J28-M28-N28-O28-P28)*S34</f>
         <v>48178.589949999994</v>
       </c>
@@ -12697,24 +12697,24 @@
       <c r="B29" s="121">
         <v>2445.75</v>
       </c>
-      <c r="C29" s="409"/>
-      <c r="D29" s="410"/>
-      <c r="E29" s="409"/>
-      <c r="F29" s="409"/>
-      <c r="G29" s="411"/>
+      <c r="C29" s="410"/>
+      <c r="D29" s="411"/>
+      <c r="E29" s="410"/>
+      <c r="F29" s="410"/>
+      <c r="G29" s="412"/>
       <c r="H29" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I29" s="412"/>
-      <c r="J29" s="412"/>
-      <c r="K29" s="412"/>
-      <c r="L29" s="412"/>
-      <c r="M29" s="412"/>
-      <c r="N29" s="412"/>
-      <c r="O29" s="412"/>
-      <c r="P29" s="412"/>
-      <c r="Q29" s="412"/>
+      <c r="I29" s="415"/>
+      <c r="J29" s="415"/>
+      <c r="K29" s="415"/>
+      <c r="L29" s="415"/>
+      <c r="M29" s="415"/>
+      <c r="N29" s="415"/>
+      <c r="O29" s="415"/>
+      <c r="P29" s="415"/>
+      <c r="Q29" s="415"/>
       <c r="R29" s="109">
         <v>400.35</v>
       </c>
@@ -12726,24 +12726,24 @@
       <c r="B30" s="121">
         <v>1917.03</v>
       </c>
-      <c r="C30" s="409"/>
-      <c r="D30" s="410"/>
-      <c r="E30" s="409"/>
-      <c r="F30" s="409"/>
-      <c r="G30" s="411"/>
+      <c r="C30" s="410"/>
+      <c r="D30" s="411"/>
+      <c r="E30" s="410"/>
+      <c r="F30" s="410"/>
+      <c r="G30" s="412"/>
       <c r="H30" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I30" s="412"/>
-      <c r="J30" s="412"/>
-      <c r="K30" s="412"/>
-      <c r="L30" s="412"/>
-      <c r="M30" s="412"/>
-      <c r="N30" s="412"/>
-      <c r="O30" s="412"/>
-      <c r="P30" s="412"/>
-      <c r="Q30" s="412"/>
+      <c r="I30" s="415"/>
+      <c r="J30" s="415"/>
+      <c r="K30" s="415"/>
+      <c r="L30" s="415"/>
+      <c r="M30" s="415"/>
+      <c r="N30" s="415"/>
+      <c r="O30" s="415"/>
+      <c r="P30" s="415"/>
+      <c r="Q30" s="415"/>
       <c r="R30" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12756,24 +12756,24 @@
       <c r="B31" s="121">
         <v>1827.02</v>
       </c>
-      <c r="C31" s="409"/>
-      <c r="D31" s="410"/>
-      <c r="E31" s="409"/>
-      <c r="F31" s="409"/>
-      <c r="G31" s="411"/>
+      <c r="C31" s="410"/>
+      <c r="D31" s="411"/>
+      <c r="E31" s="410"/>
+      <c r="F31" s="410"/>
+      <c r="G31" s="412"/>
       <c r="H31" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I31" s="412"/>
-      <c r="J31" s="412"/>
-      <c r="K31" s="412"/>
-      <c r="L31" s="412"/>
-      <c r="M31" s="412"/>
-      <c r="N31" s="412"/>
-      <c r="O31" s="412"/>
-      <c r="P31" s="412"/>
-      <c r="Q31" s="412"/>
+      <c r="I31" s="415"/>
+      <c r="J31" s="415"/>
+      <c r="K31" s="415"/>
+      <c r="L31" s="415"/>
+      <c r="M31" s="415"/>
+      <c r="N31" s="415"/>
+      <c r="O31" s="415"/>
+      <c r="P31" s="415"/>
+      <c r="Q31" s="415"/>
       <c r="R31" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12786,24 +12786,24 @@
       <c r="B32" s="121">
         <v>1958.22</v>
       </c>
-      <c r="C32" s="409"/>
-      <c r="D32" s="410"/>
-      <c r="E32" s="409"/>
-      <c r="F32" s="409"/>
-      <c r="G32" s="411"/>
+      <c r="C32" s="410"/>
+      <c r="D32" s="411"/>
+      <c r="E32" s="410"/>
+      <c r="F32" s="410"/>
+      <c r="G32" s="412"/>
       <c r="H32" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I32" s="412"/>
-      <c r="J32" s="412"/>
-      <c r="K32" s="412"/>
-      <c r="L32" s="412"/>
-      <c r="M32" s="412"/>
-      <c r="N32" s="412"/>
-      <c r="O32" s="412"/>
-      <c r="P32" s="412"/>
-      <c r="Q32" s="412"/>
+      <c r="I32" s="415"/>
+      <c r="J32" s="415"/>
+      <c r="K32" s="415"/>
+      <c r="L32" s="415"/>
+      <c r="M32" s="415"/>
+      <c r="N32" s="415"/>
+      <c r="O32" s="415"/>
+      <c r="P32" s="415"/>
+      <c r="Q32" s="415"/>
       <c r="R32" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12816,24 +12816,24 @@
       <c r="B33" s="121">
         <v>1958.28</v>
       </c>
-      <c r="C33" s="409"/>
-      <c r="D33" s="410"/>
-      <c r="E33" s="409"/>
-      <c r="F33" s="409"/>
-      <c r="G33" s="411"/>
+      <c r="C33" s="410"/>
+      <c r="D33" s="411"/>
+      <c r="E33" s="410"/>
+      <c r="F33" s="410"/>
+      <c r="G33" s="412"/>
       <c r="H33" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I33" s="412"/>
-      <c r="J33" s="412"/>
-      <c r="K33" s="412"/>
-      <c r="L33" s="412"/>
-      <c r="M33" s="412"/>
-      <c r="N33" s="412"/>
-      <c r="O33" s="412"/>
-      <c r="P33" s="412"/>
-      <c r="Q33" s="412"/>
+      <c r="I33" s="415"/>
+      <c r="J33" s="415"/>
+      <c r="K33" s="415"/>
+      <c r="L33" s="415"/>
+      <c r="M33" s="415"/>
+      <c r="N33" s="415"/>
+      <c r="O33" s="415"/>
+      <c r="P33" s="415"/>
+      <c r="Q33" s="415"/>
       <c r="R33" s="109">
         <f>R30</f>
         <v>400.35</v>
@@ -12846,24 +12846,24 @@
       <c r="B34" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C34" s="409"/>
-      <c r="D34" s="410"/>
-      <c r="E34" s="409"/>
-      <c r="F34" s="409"/>
-      <c r="G34" s="411"/>
+      <c r="C34" s="410"/>
+      <c r="D34" s="411"/>
+      <c r="E34" s="410"/>
+      <c r="F34" s="410"/>
+      <c r="G34" s="412"/>
       <c r="H34" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I34" s="412"/>
-      <c r="J34" s="412"/>
-      <c r="K34" s="412"/>
-      <c r="L34" s="412"/>
-      <c r="M34" s="412"/>
-      <c r="N34" s="412"/>
-      <c r="O34" s="412"/>
-      <c r="P34" s="412"/>
-      <c r="Q34" s="412"/>
+      <c r="I34" s="415"/>
+      <c r="J34" s="415"/>
+      <c r="K34" s="415"/>
+      <c r="L34" s="415"/>
+      <c r="M34" s="415"/>
+      <c r="N34" s="415"/>
+      <c r="O34" s="415"/>
+      <c r="P34" s="415"/>
+      <c r="Q34" s="415"/>
       <c r="R34" s="109">
         <f>R32</f>
         <v>400.35</v>
@@ -12879,38 +12879,38 @@
       <c r="B35" s="121">
         <v>2171.2600000000002</v>
       </c>
-      <c r="C35" s="409">
+      <c r="C35" s="410">
         <v>30.19</v>
       </c>
-      <c r="D35" s="410">
+      <c r="D35" s="411">
         <f>IF(B40&gt;0,SUM(B35:B40)-C35,0)</f>
         <v>13016.160000000002</v>
       </c>
-      <c r="E35" s="409">
+      <c r="E35" s="410">
         <v>6.1369999999999996</v>
       </c>
-      <c r="F35" s="409">
+      <c r="F35" s="410">
         <v>25.93</v>
       </c>
-      <c r="G35" s="411">
+      <c r="G35" s="412">
         <v>96</v>
       </c>
       <c r="H35" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I35" s="412">
+      <c r="I35" s="415">
         <f>IF($D$2&gt;F35,G35*($D$2-F35)*0.2,0)</f>
         <v>73.344000000000008</v>
       </c>
-      <c r="J35" s="412"/>
-      <c r="K35" s="412"/>
-      <c r="L35" s="412"/>
-      <c r="M35" s="412"/>
-      <c r="N35" s="412"/>
-      <c r="O35" s="412"/>
-      <c r="P35" s="412"/>
-      <c r="Q35" s="412"/>
+      <c r="J35" s="415"/>
+      <c r="K35" s="415"/>
+      <c r="L35" s="415"/>
+      <c r="M35" s="415"/>
+      <c r="N35" s="415"/>
+      <c r="O35" s="415"/>
+      <c r="P35" s="415"/>
+      <c r="Q35" s="415"/>
       <c r="R35" s="109">
         <v>358.55</v>
       </c>
@@ -12922,24 +12922,24 @@
       <c r="B36" s="121">
         <v>2081.27</v>
       </c>
-      <c r="C36" s="409"/>
-      <c r="D36" s="410"/>
-      <c r="E36" s="409"/>
-      <c r="F36" s="409"/>
-      <c r="G36" s="411"/>
+      <c r="C36" s="410"/>
+      <c r="D36" s="411"/>
+      <c r="E36" s="410"/>
+      <c r="F36" s="410"/>
+      <c r="G36" s="412"/>
       <c r="H36" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I36" s="412"/>
-      <c r="J36" s="412"/>
-      <c r="K36" s="412"/>
-      <c r="L36" s="412"/>
-      <c r="M36" s="412"/>
-      <c r="N36" s="412"/>
-      <c r="O36" s="412"/>
-      <c r="P36" s="412"/>
-      <c r="Q36" s="412"/>
+      <c r="I36" s="415"/>
+      <c r="J36" s="415"/>
+      <c r="K36" s="415"/>
+      <c r="L36" s="415"/>
+      <c r="M36" s="415"/>
+      <c r="N36" s="415"/>
+      <c r="O36" s="415"/>
+      <c r="P36" s="415"/>
+      <c r="Q36" s="415"/>
       <c r="R36" s="109">
         <v>358.55</v>
       </c>
@@ -12951,24 +12951,24 @@
       <c r="B37" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C37" s="409"/>
-      <c r="D37" s="410"/>
-      <c r="E37" s="409"/>
-      <c r="F37" s="409"/>
-      <c r="G37" s="411"/>
+      <c r="C37" s="410"/>
+      <c r="D37" s="411"/>
+      <c r="E37" s="410"/>
+      <c r="F37" s="410"/>
+      <c r="G37" s="412"/>
       <c r="H37" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I37" s="412"/>
-      <c r="J37" s="412"/>
-      <c r="K37" s="412"/>
-      <c r="L37" s="412"/>
-      <c r="M37" s="412"/>
-      <c r="N37" s="412"/>
-      <c r="O37" s="412"/>
-      <c r="P37" s="412"/>
-      <c r="Q37" s="412"/>
+      <c r="I37" s="415"/>
+      <c r="J37" s="415"/>
+      <c r="K37" s="415"/>
+      <c r="L37" s="415"/>
+      <c r="M37" s="415"/>
+      <c r="N37" s="415"/>
+      <c r="O37" s="415"/>
+      <c r="P37" s="415"/>
+      <c r="Q37" s="415"/>
       <c r="R37" s="109">
         <v>358.55</v>
       </c>
@@ -12980,24 +12980,24 @@
       <c r="B38" s="121">
         <v>2537.5100000000002</v>
       </c>
-      <c r="C38" s="409"/>
-      <c r="D38" s="410"/>
-      <c r="E38" s="409"/>
-      <c r="F38" s="409"/>
-      <c r="G38" s="411"/>
+      <c r="C38" s="410"/>
+      <c r="D38" s="411"/>
+      <c r="E38" s="410"/>
+      <c r="F38" s="410"/>
+      <c r="G38" s="412"/>
       <c r="H38" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I38" s="412"/>
-      <c r="J38" s="412"/>
-      <c r="K38" s="412"/>
-      <c r="L38" s="412"/>
-      <c r="M38" s="412"/>
-      <c r="N38" s="412"/>
-      <c r="O38" s="412"/>
-      <c r="P38" s="412"/>
-      <c r="Q38" s="412"/>
+      <c r="I38" s="415"/>
+      <c r="J38" s="415"/>
+      <c r="K38" s="415"/>
+      <c r="L38" s="415"/>
+      <c r="M38" s="415"/>
+      <c r="N38" s="415"/>
+      <c r="O38" s="415"/>
+      <c r="P38" s="415"/>
+      <c r="Q38" s="415"/>
       <c r="R38" s="109">
         <v>358.55</v>
       </c>
@@ -13009,24 +13009,24 @@
       <c r="B39" s="121">
         <v>2087.52</v>
       </c>
-      <c r="C39" s="409"/>
-      <c r="D39" s="410"/>
-      <c r="E39" s="409"/>
-      <c r="F39" s="409"/>
-      <c r="G39" s="411"/>
+      <c r="C39" s="410"/>
+      <c r="D39" s="411"/>
+      <c r="E39" s="410"/>
+      <c r="F39" s="410"/>
+      <c r="G39" s="412"/>
       <c r="H39" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I39" s="412"/>
-      <c r="J39" s="412"/>
-      <c r="K39" s="412"/>
-      <c r="L39" s="412"/>
-      <c r="M39" s="412"/>
-      <c r="N39" s="412"/>
-      <c r="O39" s="412"/>
-      <c r="P39" s="412"/>
-      <c r="Q39" s="412"/>
+      <c r="I39" s="415"/>
+      <c r="J39" s="415"/>
+      <c r="K39" s="415"/>
+      <c r="L39" s="415"/>
+      <c r="M39" s="415"/>
+      <c r="N39" s="415"/>
+      <c r="O39" s="415"/>
+      <c r="P39" s="415"/>
+      <c r="Q39" s="415"/>
       <c r="R39" s="109">
         <v>358.55</v>
       </c>
@@ -13038,24 +13038,24 @@
       <c r="B40" s="121">
         <v>2087.5300000000002</v>
       </c>
-      <c r="C40" s="409"/>
-      <c r="D40" s="410"/>
-      <c r="E40" s="409"/>
-      <c r="F40" s="409"/>
-      <c r="G40" s="411"/>
+      <c r="C40" s="410"/>
+      <c r="D40" s="411"/>
+      <c r="E40" s="410"/>
+      <c r="F40" s="410"/>
+      <c r="G40" s="412"/>
       <c r="H40" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I40" s="412"/>
-      <c r="J40" s="412"/>
-      <c r="K40" s="412"/>
-      <c r="L40" s="412"/>
-      <c r="M40" s="412"/>
-      <c r="N40" s="412"/>
-      <c r="O40" s="412"/>
-      <c r="P40" s="412"/>
-      <c r="Q40" s="412"/>
+      <c r="I40" s="415"/>
+      <c r="J40" s="415"/>
+      <c r="K40" s="415"/>
+      <c r="L40" s="415"/>
+      <c r="M40" s="415"/>
+      <c r="N40" s="415"/>
+      <c r="O40" s="415"/>
+      <c r="P40" s="415"/>
+      <c r="Q40" s="415"/>
       <c r="R40" s="109">
         <v>358.55</v>
       </c>
@@ -13067,38 +13067,38 @@
       <c r="B41" s="121">
         <v>2362.48</v>
       </c>
-      <c r="C41" s="409">
+      <c r="C41" s="410">
         <v>52.72</v>
       </c>
-      <c r="D41" s="410">
+      <c r="D41" s="411">
         <f>IF(B46&gt;0,SUM(B41:B46)-C41,0)</f>
         <v>13224.73</v>
       </c>
-      <c r="E41" s="409">
+      <c r="E41" s="410">
         <v>6.2213000000000003</v>
       </c>
-      <c r="F41" s="409">
+      <c r="F41" s="410">
         <v>26.89</v>
       </c>
-      <c r="G41" s="411">
+      <c r="G41" s="412">
         <v>93</v>
       </c>
       <c r="H41" s="120">
         <f t="shared" si="1"/>
         <v>95.527500000000003</v>
       </c>
-      <c r="I41" s="412">
+      <c r="I41" s="415">
         <f>IF($D$2&gt;F41,G41*($D$2-F41)*0.2,0)</f>
         <v>53.195999999999998</v>
       </c>
-      <c r="J41" s="412"/>
-      <c r="K41" s="412"/>
-      <c r="L41" s="412"/>
-      <c r="M41" s="412"/>
-      <c r="N41" s="412"/>
-      <c r="O41" s="412"/>
-      <c r="P41" s="412"/>
-      <c r="Q41" s="412"/>
+      <c r="J41" s="415"/>
+      <c r="K41" s="415"/>
+      <c r="L41" s="415"/>
+      <c r="M41" s="415"/>
+      <c r="N41" s="415"/>
+      <c r="O41" s="415"/>
+      <c r="P41" s="415"/>
+      <c r="Q41" s="415"/>
       <c r="R41" s="109">
         <v>381.97</v>
       </c>
@@ -13110,24 +13110,24 @@
       <c r="B42" s="121">
         <v>2174.98</v>
       </c>
-      <c r="C42" s="409"/>
-      <c r="D42" s="410"/>
-      <c r="E42" s="409"/>
-      <c r="F42" s="409"/>
-      <c r="G42" s="411"/>
+      <c r="C42" s="410"/>
+      <c r="D42" s="411"/>
+      <c r="E42" s="410"/>
+      <c r="F42" s="410"/>
+      <c r="G42" s="412"/>
       <c r="H42" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="412"/>
-      <c r="J42" s="412"/>
-      <c r="K42" s="412"/>
-      <c r="L42" s="412"/>
-      <c r="M42" s="412"/>
-      <c r="N42" s="412"/>
-      <c r="O42" s="412"/>
-      <c r="P42" s="412"/>
-      <c r="Q42" s="412"/>
+      <c r="I42" s="415"/>
+      <c r="J42" s="415"/>
+      <c r="K42" s="415"/>
+      <c r="L42" s="415"/>
+      <c r="M42" s="415"/>
+      <c r="N42" s="415"/>
+      <c r="O42" s="415"/>
+      <c r="P42" s="415"/>
+      <c r="Q42" s="415"/>
       <c r="R42" s="109">
         <v>381.97</v>
       </c>
@@ -13139,24 +13139,24 @@
       <c r="B43" s="121">
         <v>2265</v>
       </c>
-      <c r="C43" s="409"/>
-      <c r="D43" s="410"/>
-      <c r="E43" s="409"/>
-      <c r="F43" s="409"/>
-      <c r="G43" s="411"/>
+      <c r="C43" s="410"/>
+      <c r="D43" s="411"/>
+      <c r="E43" s="410"/>
+      <c r="F43" s="410"/>
+      <c r="G43" s="412"/>
       <c r="H43" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I43" s="412"/>
-      <c r="J43" s="412"/>
-      <c r="K43" s="412"/>
-      <c r="L43" s="412"/>
-      <c r="M43" s="412"/>
-      <c r="N43" s="412"/>
-      <c r="O43" s="412"/>
-      <c r="P43" s="412"/>
-      <c r="Q43" s="412"/>
+      <c r="I43" s="415"/>
+      <c r="J43" s="415"/>
+      <c r="K43" s="415"/>
+      <c r="L43" s="415"/>
+      <c r="M43" s="415"/>
+      <c r="N43" s="415"/>
+      <c r="O43" s="415"/>
+      <c r="P43" s="415"/>
+      <c r="Q43" s="415"/>
       <c r="R43" s="109">
         <v>381.97</v>
       </c>
@@ -13168,24 +13168,24 @@
       <c r="B44" s="121">
         <v>2087.5</v>
       </c>
-      <c r="C44" s="409"/>
-      <c r="D44" s="410"/>
-      <c r="E44" s="409"/>
-      <c r="F44" s="409"/>
-      <c r="G44" s="411"/>
+      <c r="C44" s="410"/>
+      <c r="D44" s="411"/>
+      <c r="E44" s="410"/>
+      <c r="F44" s="410"/>
+      <c r="G44" s="412"/>
       <c r="H44" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44" s="412"/>
-      <c r="J44" s="412"/>
-      <c r="K44" s="412"/>
-      <c r="L44" s="412"/>
-      <c r="M44" s="412"/>
-      <c r="N44" s="412"/>
-      <c r="O44" s="412"/>
-      <c r="P44" s="412"/>
-      <c r="Q44" s="412"/>
+      <c r="I44" s="415"/>
+      <c r="J44" s="415"/>
+      <c r="K44" s="415"/>
+      <c r="L44" s="415"/>
+      <c r="M44" s="415"/>
+      <c r="N44" s="415"/>
+      <c r="O44" s="415"/>
+      <c r="P44" s="415"/>
+      <c r="Q44" s="415"/>
       <c r="R44" s="109">
         <v>381.97</v>
       </c>
@@ -13197,24 +13197,24 @@
       <c r="B45" s="121">
         <v>2087.48</v>
       </c>
-      <c r="C45" s="409"/>
-      <c r="D45" s="410"/>
-      <c r="E45" s="409"/>
-      <c r="F45" s="409"/>
-      <c r="G45" s="411"/>
+      <c r="C45" s="410"/>
+      <c r="D45" s="411"/>
+      <c r="E45" s="410"/>
+      <c r="F45" s="410"/>
+      <c r="G45" s="412"/>
       <c r="H45" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45" s="412"/>
-      <c r="J45" s="412"/>
-      <c r="K45" s="412"/>
-      <c r="L45" s="412"/>
-      <c r="M45" s="412"/>
-      <c r="N45" s="412"/>
-      <c r="O45" s="412"/>
-      <c r="P45" s="412"/>
-      <c r="Q45" s="412"/>
+      <c r="I45" s="415"/>
+      <c r="J45" s="415"/>
+      <c r="K45" s="415"/>
+      <c r="L45" s="415"/>
+      <c r="M45" s="415"/>
+      <c r="N45" s="415"/>
+      <c r="O45" s="415"/>
+      <c r="P45" s="415"/>
+      <c r="Q45" s="415"/>
       <c r="R45" s="109">
         <v>381.97</v>
       </c>
@@ -13226,24 +13226,24 @@
       <c r="B46" s="121">
         <v>2300.0100000000002</v>
       </c>
-      <c r="C46" s="409"/>
-      <c r="D46" s="410"/>
-      <c r="E46" s="409"/>
-      <c r="F46" s="409"/>
-      <c r="G46" s="411"/>
+      <c r="C46" s="410"/>
+      <c r="D46" s="411"/>
+      <c r="E46" s="410"/>
+      <c r="F46" s="410"/>
+      <c r="G46" s="412"/>
       <c r="H46" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46" s="412"/>
-      <c r="J46" s="412"/>
-      <c r="K46" s="412"/>
-      <c r="L46" s="412"/>
-      <c r="M46" s="412"/>
-      <c r="N46" s="412"/>
-      <c r="O46" s="412"/>
-      <c r="P46" s="412"/>
-      <c r="Q46" s="412"/>
+      <c r="I46" s="415"/>
+      <c r="J46" s="415"/>
+      <c r="K46" s="415"/>
+      <c r="L46" s="415"/>
+      <c r="M46" s="415"/>
+      <c r="N46" s="415"/>
+      <c r="O46" s="415"/>
+      <c r="P46" s="415"/>
+      <c r="Q46" s="415"/>
       <c r="R46" s="109">
         <v>381.97</v>
       </c>
@@ -13255,38 +13255,38 @@
       <c r="B47" s="121">
         <v>3787.17</v>
       </c>
-      <c r="C47" s="409">
-        <v>0</v>
-      </c>
-      <c r="D47" s="410">
+      <c r="C47" s="410">
+        <v>0</v>
+      </c>
+      <c r="D47" s="411">
         <f>IF(B52&gt;0,SUM(B47:B52)-C47,0)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="409">
+      <c r="E47" s="410">
         <v>6.2</v>
       </c>
-      <c r="F47" s="409">
+      <c r="F47" s="410">
         <v>25.3</v>
       </c>
-      <c r="G47" s="411">
+      <c r="G47" s="412">
         <v>0</v>
       </c>
       <c r="H47" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="412">
+      <c r="I47" s="415">
         <f>IF($D$2&gt;F47,G47*($D$2-F47)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="412"/>
-      <c r="K47" s="412"/>
-      <c r="L47" s="412"/>
-      <c r="M47" s="412"/>
-      <c r="N47" s="412"/>
-      <c r="O47" s="412"/>
-      <c r="P47" s="412"/>
-      <c r="Q47" s="412"/>
+      <c r="J47" s="415"/>
+      <c r="K47" s="415"/>
+      <c r="L47" s="415"/>
+      <c r="M47" s="415"/>
+      <c r="N47" s="415"/>
+      <c r="O47" s="415"/>
+      <c r="P47" s="415"/>
+      <c r="Q47" s="415"/>
       <c r="R47" s="109">
         <v>382.11</v>
       </c>
@@ -13298,24 +13298,24 @@
       <c r="B48" s="121">
         <v>0</v>
       </c>
-      <c r="C48" s="409"/>
-      <c r="D48" s="410"/>
-      <c r="E48" s="409"/>
-      <c r="F48" s="409"/>
-      <c r="G48" s="411"/>
+      <c r="C48" s="410"/>
+      <c r="D48" s="411"/>
+      <c r="E48" s="410"/>
+      <c r="F48" s="410"/>
+      <c r="G48" s="412"/>
       <c r="H48" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48" s="412"/>
-      <c r="J48" s="412"/>
-      <c r="K48" s="412"/>
-      <c r="L48" s="412"/>
-      <c r="M48" s="412"/>
-      <c r="N48" s="412"/>
-      <c r="O48" s="412"/>
-      <c r="P48" s="412"/>
-      <c r="Q48" s="412"/>
+      <c r="I48" s="415"/>
+      <c r="J48" s="415"/>
+      <c r="K48" s="415"/>
+      <c r="L48" s="415"/>
+      <c r="M48" s="415"/>
+      <c r="N48" s="415"/>
+      <c r="O48" s="415"/>
+      <c r="P48" s="415"/>
+      <c r="Q48" s="415"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
@@ -13324,24 +13324,24 @@
       <c r="B49" s="121">
         <v>0</v>
       </c>
-      <c r="C49" s="409"/>
-      <c r="D49" s="410"/>
-      <c r="E49" s="409"/>
-      <c r="F49" s="409"/>
-      <c r="G49" s="411"/>
+      <c r="C49" s="410"/>
+      <c r="D49" s="411"/>
+      <c r="E49" s="410"/>
+      <c r="F49" s="410"/>
+      <c r="G49" s="412"/>
       <c r="H49" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I49" s="412"/>
-      <c r="J49" s="412"/>
-      <c r="K49" s="412"/>
-      <c r="L49" s="412"/>
-      <c r="M49" s="412"/>
-      <c r="N49" s="412"/>
-      <c r="O49" s="412"/>
-      <c r="P49" s="412"/>
-      <c r="Q49" s="412"/>
+      <c r="I49" s="415"/>
+      <c r="J49" s="415"/>
+      <c r="K49" s="415"/>
+      <c r="L49" s="415"/>
+      <c r="M49" s="415"/>
+      <c r="N49" s="415"/>
+      <c r="O49" s="415"/>
+      <c r="P49" s="415"/>
+      <c r="Q49" s="415"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
@@ -13350,24 +13350,24 @@
       <c r="B50" s="121">
         <v>0</v>
       </c>
-      <c r="C50" s="409"/>
-      <c r="D50" s="410"/>
-      <c r="E50" s="409"/>
-      <c r="F50" s="409"/>
-      <c r="G50" s="411"/>
+      <c r="C50" s="410"/>
+      <c r="D50" s="411"/>
+      <c r="E50" s="410"/>
+      <c r="F50" s="410"/>
+      <c r="G50" s="412"/>
       <c r="H50" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I50" s="412"/>
-      <c r="J50" s="412"/>
-      <c r="K50" s="412"/>
-      <c r="L50" s="412"/>
-      <c r="M50" s="412"/>
-      <c r="N50" s="412"/>
-      <c r="O50" s="412"/>
-      <c r="P50" s="412"/>
-      <c r="Q50" s="412"/>
+      <c r="I50" s="415"/>
+      <c r="J50" s="415"/>
+      <c r="K50" s="415"/>
+      <c r="L50" s="415"/>
+      <c r="M50" s="415"/>
+      <c r="N50" s="415"/>
+      <c r="O50" s="415"/>
+      <c r="P50" s="415"/>
+      <c r="Q50" s="415"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
@@ -13376,24 +13376,24 @@
       <c r="B51" s="121">
         <v>0</v>
       </c>
-      <c r="C51" s="409"/>
-      <c r="D51" s="410"/>
-      <c r="E51" s="409"/>
-      <c r="F51" s="409"/>
-      <c r="G51" s="411"/>
+      <c r="C51" s="410"/>
+      <c r="D51" s="411"/>
+      <c r="E51" s="410"/>
+      <c r="F51" s="410"/>
+      <c r="G51" s="412"/>
       <c r="H51" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I51" s="412"/>
-      <c r="J51" s="412"/>
-      <c r="K51" s="412"/>
-      <c r="L51" s="412"/>
-      <c r="M51" s="412"/>
-      <c r="N51" s="412"/>
-      <c r="O51" s="412"/>
-      <c r="P51" s="412"/>
-      <c r="Q51" s="412"/>
+      <c r="I51" s="415"/>
+      <c r="J51" s="415"/>
+      <c r="K51" s="415"/>
+      <c r="L51" s="415"/>
+      <c r="M51" s="415"/>
+      <c r="N51" s="415"/>
+      <c r="O51" s="415"/>
+      <c r="P51" s="415"/>
+      <c r="Q51" s="415"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
@@ -13402,24 +13402,24 @@
       <c r="B52" s="121">
         <v>0</v>
       </c>
-      <c r="C52" s="409"/>
-      <c r="D52" s="410"/>
-      <c r="E52" s="409"/>
-      <c r="F52" s="409"/>
-      <c r="G52" s="411"/>
+      <c r="C52" s="410"/>
+      <c r="D52" s="411"/>
+      <c r="E52" s="410"/>
+      <c r="F52" s="410"/>
+      <c r="G52" s="412"/>
       <c r="H52" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I52" s="412"/>
-      <c r="J52" s="412"/>
-      <c r="K52" s="412"/>
-      <c r="L52" s="412"/>
-      <c r="M52" s="412"/>
-      <c r="N52" s="412"/>
-      <c r="O52" s="412"/>
-      <c r="P52" s="412"/>
-      <c r="Q52" s="412"/>
+      <c r="I52" s="415"/>
+      <c r="J52" s="415"/>
+      <c r="K52" s="415"/>
+      <c r="L52" s="415"/>
+      <c r="M52" s="415"/>
+      <c r="N52" s="415"/>
+      <c r="O52" s="415"/>
+      <c r="P52" s="415"/>
+      <c r="Q52" s="415"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
@@ -13428,38 +13428,38 @@
       <c r="B53" s="121">
         <v>0</v>
       </c>
-      <c r="C53" s="409">
-        <v>0</v>
-      </c>
-      <c r="D53" s="410">
+      <c r="C53" s="410">
+        <v>0</v>
+      </c>
+      <c r="D53" s="411">
         <f>IF(B58&gt;0,SUM(B53:B58)-C53,0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="409">
+      <c r="E53" s="410">
         <v>6.2</v>
       </c>
-      <c r="F53" s="409">
+      <c r="F53" s="410">
         <v>25.3</v>
       </c>
-      <c r="G53" s="411">
+      <c r="G53" s="412">
         <v>0</v>
       </c>
       <c r="H53" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I53" s="412">
+      <c r="I53" s="415">
         <f>IF($D$2&gt;F53,G53*($D$2-F53)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J53" s="412"/>
-      <c r="K53" s="412"/>
-      <c r="L53" s="412"/>
-      <c r="M53" s="412"/>
-      <c r="N53" s="412"/>
-      <c r="O53" s="412"/>
-      <c r="P53" s="412"/>
-      <c r="Q53" s="412"/>
+      <c r="J53" s="415"/>
+      <c r="K53" s="415"/>
+      <c r="L53" s="415"/>
+      <c r="M53" s="415"/>
+      <c r="N53" s="415"/>
+      <c r="O53" s="415"/>
+      <c r="P53" s="415"/>
+      <c r="Q53" s="415"/>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
@@ -13468,24 +13468,24 @@
       <c r="B54" s="121">
         <v>0</v>
       </c>
-      <c r="C54" s="409"/>
-      <c r="D54" s="410"/>
-      <c r="E54" s="409"/>
-      <c r="F54" s="409"/>
-      <c r="G54" s="411"/>
+      <c r="C54" s="410"/>
+      <c r="D54" s="411"/>
+      <c r="E54" s="410"/>
+      <c r="F54" s="410"/>
+      <c r="G54" s="412"/>
       <c r="H54" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I54" s="412"/>
-      <c r="J54" s="412"/>
-      <c r="K54" s="412"/>
-      <c r="L54" s="412"/>
-      <c r="M54" s="412"/>
-      <c r="N54" s="412"/>
-      <c r="O54" s="412"/>
-      <c r="P54" s="412"/>
-      <c r="Q54" s="412"/>
+      <c r="I54" s="415"/>
+      <c r="J54" s="415"/>
+      <c r="K54" s="415"/>
+      <c r="L54" s="415"/>
+      <c r="M54" s="415"/>
+      <c r="N54" s="415"/>
+      <c r="O54" s="415"/>
+      <c r="P54" s="415"/>
+      <c r="Q54" s="415"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
@@ -13494,24 +13494,24 @@
       <c r="B55" s="121">
         <v>0</v>
       </c>
-      <c r="C55" s="409"/>
-      <c r="D55" s="410"/>
-      <c r="E55" s="409"/>
-      <c r="F55" s="409"/>
-      <c r="G55" s="411"/>
+      <c r="C55" s="410"/>
+      <c r="D55" s="411"/>
+      <c r="E55" s="410"/>
+      <c r="F55" s="410"/>
+      <c r="G55" s="412"/>
       <c r="H55" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I55" s="412"/>
-      <c r="J55" s="412"/>
-      <c r="K55" s="412"/>
-      <c r="L55" s="412"/>
-      <c r="M55" s="412"/>
-      <c r="N55" s="412"/>
-      <c r="O55" s="412"/>
-      <c r="P55" s="412"/>
-      <c r="Q55" s="412"/>
+      <c r="I55" s="415"/>
+      <c r="J55" s="415"/>
+      <c r="K55" s="415"/>
+      <c r="L55" s="415"/>
+      <c r="M55" s="415"/>
+      <c r="N55" s="415"/>
+      <c r="O55" s="415"/>
+      <c r="P55" s="415"/>
+      <c r="Q55" s="415"/>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
@@ -13520,24 +13520,24 @@
       <c r="B56" s="121">
         <v>0</v>
       </c>
-      <c r="C56" s="409"/>
-      <c r="D56" s="410"/>
-      <c r="E56" s="409"/>
-      <c r="F56" s="409"/>
-      <c r="G56" s="411"/>
+      <c r="C56" s="410"/>
+      <c r="D56" s="411"/>
+      <c r="E56" s="410"/>
+      <c r="F56" s="410"/>
+      <c r="G56" s="412"/>
       <c r="H56" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I56" s="412"/>
-      <c r="J56" s="412"/>
-      <c r="K56" s="412"/>
-      <c r="L56" s="412"/>
-      <c r="M56" s="412"/>
-      <c r="N56" s="412"/>
-      <c r="O56" s="412"/>
-      <c r="P56" s="412"/>
-      <c r="Q56" s="412"/>
+      <c r="I56" s="415"/>
+      <c r="J56" s="415"/>
+      <c r="K56" s="415"/>
+      <c r="L56" s="415"/>
+      <c r="M56" s="415"/>
+      <c r="N56" s="415"/>
+      <c r="O56" s="415"/>
+      <c r="P56" s="415"/>
+      <c r="Q56" s="415"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
@@ -13546,24 +13546,24 @@
       <c r="B57" s="121">
         <v>0</v>
       </c>
-      <c r="C57" s="409"/>
-      <c r="D57" s="410"/>
-      <c r="E57" s="409"/>
-      <c r="F57" s="409"/>
-      <c r="G57" s="411"/>
+      <c r="C57" s="410"/>
+      <c r="D57" s="411"/>
+      <c r="E57" s="410"/>
+      <c r="F57" s="410"/>
+      <c r="G57" s="412"/>
       <c r="H57" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I57" s="412"/>
-      <c r="J57" s="412"/>
-      <c r="K57" s="412"/>
-      <c r="L57" s="412"/>
-      <c r="M57" s="412"/>
-      <c r="N57" s="412"/>
-      <c r="O57" s="412"/>
-      <c r="P57" s="412"/>
-      <c r="Q57" s="412"/>
+      <c r="I57" s="415"/>
+      <c r="J57" s="415"/>
+      <c r="K57" s="415"/>
+      <c r="L57" s="415"/>
+      <c r="M57" s="415"/>
+      <c r="N57" s="415"/>
+      <c r="O57" s="415"/>
+      <c r="P57" s="415"/>
+      <c r="Q57" s="415"/>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
@@ -13572,24 +13572,24 @@
       <c r="B58" s="121">
         <v>0</v>
       </c>
-      <c r="C58" s="409"/>
-      <c r="D58" s="410"/>
-      <c r="E58" s="409"/>
-      <c r="F58" s="409"/>
-      <c r="G58" s="411"/>
+      <c r="C58" s="410"/>
+      <c r="D58" s="411"/>
+      <c r="E58" s="410"/>
+      <c r="F58" s="410"/>
+      <c r="G58" s="412"/>
       <c r="H58" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I58" s="412"/>
-      <c r="J58" s="412"/>
-      <c r="K58" s="412"/>
-      <c r="L58" s="412"/>
-      <c r="M58" s="412"/>
-      <c r="N58" s="412"/>
-      <c r="O58" s="412"/>
-      <c r="P58" s="412"/>
-      <c r="Q58" s="412"/>
+      <c r="I58" s="415"/>
+      <c r="J58" s="415"/>
+      <c r="K58" s="415"/>
+      <c r="L58" s="415"/>
+      <c r="M58" s="415"/>
+      <c r="N58" s="415"/>
+      <c r="O58" s="415"/>
+      <c r="P58" s="415"/>
+      <c r="Q58" s="415"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
@@ -13598,38 +13598,38 @@
       <c r="B59" s="121">
         <v>0</v>
       </c>
-      <c r="C59" s="409">
-        <v>0</v>
-      </c>
-      <c r="D59" s="410">
+      <c r="C59" s="410">
+        <v>0</v>
+      </c>
+      <c r="D59" s="411">
         <f>IF(B64&gt;0,SUM(B59:B64)-C59,0)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="409">
+      <c r="E59" s="410">
         <v>6.2</v>
       </c>
-      <c r="F59" s="409">
+      <c r="F59" s="410">
         <v>25.3</v>
       </c>
-      <c r="G59" s="411">
+      <c r="G59" s="412">
         <v>0</v>
       </c>
       <c r="H59" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I59" s="412">
+      <c r="I59" s="415">
         <f>IF($D$2&gt;F59,G59*($D$2-F59)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="412"/>
-      <c r="K59" s="412"/>
-      <c r="L59" s="412"/>
-      <c r="M59" s="412"/>
-      <c r="N59" s="412"/>
-      <c r="O59" s="412"/>
-      <c r="P59" s="412"/>
-      <c r="Q59" s="412"/>
+      <c r="J59" s="415"/>
+      <c r="K59" s="415"/>
+      <c r="L59" s="415"/>
+      <c r="M59" s="415"/>
+      <c r="N59" s="415"/>
+      <c r="O59" s="415"/>
+      <c r="P59" s="415"/>
+      <c r="Q59" s="415"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
@@ -13638,24 +13638,24 @@
       <c r="B60" s="121">
         <v>0</v>
       </c>
-      <c r="C60" s="409"/>
-      <c r="D60" s="410"/>
-      <c r="E60" s="409"/>
-      <c r="F60" s="409"/>
-      <c r="G60" s="411"/>
+      <c r="C60" s="410"/>
+      <c r="D60" s="411"/>
+      <c r="E60" s="410"/>
+      <c r="F60" s="410"/>
+      <c r="G60" s="412"/>
       <c r="H60" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I60" s="412"/>
-      <c r="J60" s="412"/>
-      <c r="K60" s="412"/>
-      <c r="L60" s="412"/>
-      <c r="M60" s="412"/>
-      <c r="N60" s="412"/>
-      <c r="O60" s="412"/>
-      <c r="P60" s="412"/>
-      <c r="Q60" s="412"/>
+      <c r="I60" s="415"/>
+      <c r="J60" s="415"/>
+      <c r="K60" s="415"/>
+      <c r="L60" s="415"/>
+      <c r="M60" s="415"/>
+      <c r="N60" s="415"/>
+      <c r="O60" s="415"/>
+      <c r="P60" s="415"/>
+      <c r="Q60" s="415"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
@@ -13664,24 +13664,24 @@
       <c r="B61" s="121">
         <v>0</v>
       </c>
-      <c r="C61" s="409"/>
-      <c r="D61" s="410"/>
-      <c r="E61" s="409"/>
-      <c r="F61" s="409"/>
-      <c r="G61" s="411"/>
+      <c r="C61" s="410"/>
+      <c r="D61" s="411"/>
+      <c r="E61" s="410"/>
+      <c r="F61" s="410"/>
+      <c r="G61" s="412"/>
       <c r="H61" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I61" s="412"/>
-      <c r="J61" s="412"/>
-      <c r="K61" s="412"/>
-      <c r="L61" s="412"/>
-      <c r="M61" s="412"/>
-      <c r="N61" s="412"/>
-      <c r="O61" s="412"/>
-      <c r="P61" s="412"/>
-      <c r="Q61" s="412"/>
+      <c r="I61" s="415"/>
+      <c r="J61" s="415"/>
+      <c r="K61" s="415"/>
+      <c r="L61" s="415"/>
+      <c r="M61" s="415"/>
+      <c r="N61" s="415"/>
+      <c r="O61" s="415"/>
+      <c r="P61" s="415"/>
+      <c r="Q61" s="415"/>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
@@ -13690,24 +13690,24 @@
       <c r="B62" s="121">
         <v>0</v>
       </c>
-      <c r="C62" s="409"/>
-      <c r="D62" s="410"/>
-      <c r="E62" s="409"/>
-      <c r="F62" s="409"/>
-      <c r="G62" s="411"/>
+      <c r="C62" s="410"/>
+      <c r="D62" s="411"/>
+      <c r="E62" s="410"/>
+      <c r="F62" s="410"/>
+      <c r="G62" s="412"/>
       <c r="H62" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I62" s="412"/>
-      <c r="J62" s="412"/>
-      <c r="K62" s="412"/>
-      <c r="L62" s="412"/>
-      <c r="M62" s="412"/>
-      <c r="N62" s="412"/>
-      <c r="O62" s="412"/>
-      <c r="P62" s="412"/>
-      <c r="Q62" s="412"/>
+      <c r="I62" s="415"/>
+      <c r="J62" s="415"/>
+      <c r="K62" s="415"/>
+      <c r="L62" s="415"/>
+      <c r="M62" s="415"/>
+      <c r="N62" s="415"/>
+      <c r="O62" s="415"/>
+      <c r="P62" s="415"/>
+      <c r="Q62" s="415"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
@@ -13716,24 +13716,24 @@
       <c r="B63" s="121">
         <v>0</v>
       </c>
-      <c r="C63" s="409"/>
-      <c r="D63" s="410"/>
-      <c r="E63" s="409"/>
-      <c r="F63" s="409"/>
-      <c r="G63" s="411"/>
+      <c r="C63" s="410"/>
+      <c r="D63" s="411"/>
+      <c r="E63" s="410"/>
+      <c r="F63" s="410"/>
+      <c r="G63" s="412"/>
       <c r="H63" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I63" s="412"/>
-      <c r="J63" s="412"/>
-      <c r="K63" s="412"/>
-      <c r="L63" s="412"/>
-      <c r="M63" s="412"/>
-      <c r="N63" s="412"/>
-      <c r="O63" s="412"/>
-      <c r="P63" s="412"/>
-      <c r="Q63" s="412"/>
+      <c r="I63" s="415"/>
+      <c r="J63" s="415"/>
+      <c r="K63" s="415"/>
+      <c r="L63" s="415"/>
+      <c r="M63" s="415"/>
+      <c r="N63" s="415"/>
+      <c r="O63" s="415"/>
+      <c r="P63" s="415"/>
+      <c r="Q63" s="415"/>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
@@ -13742,24 +13742,24 @@
       <c r="B64" s="121">
         <v>0</v>
       </c>
-      <c r="C64" s="409"/>
-      <c r="D64" s="410"/>
-      <c r="E64" s="409"/>
-      <c r="F64" s="409"/>
-      <c r="G64" s="411"/>
+      <c r="C64" s="410"/>
+      <c r="D64" s="411"/>
+      <c r="E64" s="410"/>
+      <c r="F64" s="410"/>
+      <c r="G64" s="412"/>
       <c r="H64" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I64" s="412"/>
-      <c r="J64" s="412"/>
-      <c r="K64" s="412"/>
-      <c r="L64" s="412"/>
-      <c r="M64" s="412"/>
-      <c r="N64" s="412"/>
-      <c r="O64" s="412"/>
-      <c r="P64" s="412"/>
-      <c r="Q64" s="412"/>
+      <c r="I64" s="415"/>
+      <c r="J64" s="415"/>
+      <c r="K64" s="415"/>
+      <c r="L64" s="415"/>
+      <c r="M64" s="415"/>
+      <c r="N64" s="415"/>
+      <c r="O64" s="415"/>
+      <c r="P64" s="415"/>
+      <c r="Q64" s="415"/>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1">
@@ -13768,38 +13768,38 @@
       <c r="B65" s="121">
         <v>0</v>
       </c>
-      <c r="C65" s="409">
-        <v>0</v>
-      </c>
-      <c r="D65" s="410">
+      <c r="C65" s="410">
+        <v>0</v>
+      </c>
+      <c r="D65" s="411">
         <f>IF(B70&gt;0,SUM(B65:B70)-C65,0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="409">
+      <c r="E65" s="410">
         <v>6.2</v>
       </c>
-      <c r="F65" s="409">
+      <c r="F65" s="410">
         <v>25.3</v>
       </c>
-      <c r="G65" s="411">
+      <c r="G65" s="412">
         <v>0</v>
       </c>
       <c r="H65" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I65" s="412">
+      <c r="I65" s="415">
         <f>IF($D$2&gt;F65,G65*($D$2-F65)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="412"/>
-      <c r="K65" s="412"/>
-      <c r="L65" s="412"/>
-      <c r="M65" s="412"/>
-      <c r="N65" s="412"/>
-      <c r="O65" s="412"/>
-      <c r="P65" s="412"/>
-      <c r="Q65" s="412"/>
+      <c r="J65" s="415"/>
+      <c r="K65" s="415"/>
+      <c r="L65" s="415"/>
+      <c r="M65" s="415"/>
+      <c r="N65" s="415"/>
+      <c r="O65" s="415"/>
+      <c r="P65" s="415"/>
+      <c r="Q65" s="415"/>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1">
@@ -13808,24 +13808,24 @@
       <c r="B66" s="121">
         <v>0</v>
       </c>
-      <c r="C66" s="409"/>
-      <c r="D66" s="410"/>
-      <c r="E66" s="409"/>
-      <c r="F66" s="409"/>
-      <c r="G66" s="411"/>
+      <c r="C66" s="410"/>
+      <c r="D66" s="411"/>
+      <c r="E66" s="410"/>
+      <c r="F66" s="410"/>
+      <c r="G66" s="412"/>
       <c r="H66" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I66" s="412"/>
-      <c r="J66" s="412"/>
-      <c r="K66" s="412"/>
-      <c r="L66" s="412"/>
-      <c r="M66" s="412"/>
-      <c r="N66" s="412"/>
-      <c r="O66" s="412"/>
-      <c r="P66" s="412"/>
-      <c r="Q66" s="412"/>
+      <c r="I66" s="415"/>
+      <c r="J66" s="415"/>
+      <c r="K66" s="415"/>
+      <c r="L66" s="415"/>
+      <c r="M66" s="415"/>
+      <c r="N66" s="415"/>
+      <c r="O66" s="415"/>
+      <c r="P66" s="415"/>
+      <c r="Q66" s="415"/>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1">
@@ -13834,24 +13834,24 @@
       <c r="B67" s="121">
         <v>0</v>
       </c>
-      <c r="C67" s="409"/>
-      <c r="D67" s="410"/>
-      <c r="E67" s="409"/>
-      <c r="F67" s="409"/>
-      <c r="G67" s="411"/>
+      <c r="C67" s="410"/>
+      <c r="D67" s="411"/>
+      <c r="E67" s="410"/>
+      <c r="F67" s="410"/>
+      <c r="G67" s="412"/>
       <c r="H67" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I67" s="412"/>
-      <c r="J67" s="412"/>
-      <c r="K67" s="412"/>
-      <c r="L67" s="412"/>
-      <c r="M67" s="412"/>
-      <c r="N67" s="412"/>
-      <c r="O67" s="412"/>
-      <c r="P67" s="412"/>
-      <c r="Q67" s="412"/>
+      <c r="I67" s="415"/>
+      <c r="J67" s="415"/>
+      <c r="K67" s="415"/>
+      <c r="L67" s="415"/>
+      <c r="M67" s="415"/>
+      <c r="N67" s="415"/>
+      <c r="O67" s="415"/>
+      <c r="P67" s="415"/>
+      <c r="Q67" s="415"/>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1">
@@ -13860,24 +13860,24 @@
       <c r="B68" s="121">
         <v>0</v>
       </c>
-      <c r="C68" s="409"/>
-      <c r="D68" s="410"/>
-      <c r="E68" s="409"/>
-      <c r="F68" s="409"/>
-      <c r="G68" s="411"/>
+      <c r="C68" s="410"/>
+      <c r="D68" s="411"/>
+      <c r="E68" s="410"/>
+      <c r="F68" s="410"/>
+      <c r="G68" s="412"/>
       <c r="H68" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I68" s="412"/>
-      <c r="J68" s="412"/>
-      <c r="K68" s="412"/>
-      <c r="L68" s="412"/>
-      <c r="M68" s="412"/>
-      <c r="N68" s="412"/>
-      <c r="O68" s="412"/>
-      <c r="P68" s="412"/>
-      <c r="Q68" s="412"/>
+      <c r="I68" s="415"/>
+      <c r="J68" s="415"/>
+      <c r="K68" s="415"/>
+      <c r="L68" s="415"/>
+      <c r="M68" s="415"/>
+      <c r="N68" s="415"/>
+      <c r="O68" s="415"/>
+      <c r="P68" s="415"/>
+      <c r="Q68" s="415"/>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1">
@@ -13886,24 +13886,24 @@
       <c r="B69" s="121">
         <v>0</v>
       </c>
-      <c r="C69" s="409"/>
-      <c r="D69" s="410"/>
-      <c r="E69" s="409"/>
-      <c r="F69" s="409"/>
-      <c r="G69" s="411"/>
+      <c r="C69" s="410"/>
+      <c r="D69" s="411"/>
+      <c r="E69" s="410"/>
+      <c r="F69" s="410"/>
+      <c r="G69" s="412"/>
       <c r="H69" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I69" s="412"/>
-      <c r="J69" s="412"/>
-      <c r="K69" s="412"/>
-      <c r="L69" s="412"/>
-      <c r="M69" s="412"/>
-      <c r="N69" s="412"/>
-      <c r="O69" s="412"/>
-      <c r="P69" s="412"/>
-      <c r="Q69" s="412"/>
+      <c r="I69" s="415"/>
+      <c r="J69" s="415"/>
+      <c r="K69" s="415"/>
+      <c r="L69" s="415"/>
+      <c r="M69" s="415"/>
+      <c r="N69" s="415"/>
+      <c r="O69" s="415"/>
+      <c r="P69" s="415"/>
+      <c r="Q69" s="415"/>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1">
@@ -13912,24 +13912,24 @@
       <c r="B70" s="121">
         <v>0</v>
       </c>
-      <c r="C70" s="409"/>
-      <c r="D70" s="410"/>
-      <c r="E70" s="409"/>
-      <c r="F70" s="409"/>
-      <c r="G70" s="411"/>
+      <c r="C70" s="410"/>
+      <c r="D70" s="411"/>
+      <c r="E70" s="410"/>
+      <c r="F70" s="410"/>
+      <c r="G70" s="412"/>
       <c r="H70" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I70" s="412"/>
-      <c r="J70" s="412"/>
-      <c r="K70" s="412"/>
-      <c r="L70" s="412"/>
-      <c r="M70" s="412"/>
-      <c r="N70" s="412"/>
-      <c r="O70" s="412"/>
-      <c r="P70" s="412"/>
-      <c r="Q70" s="412"/>
+      <c r="I70" s="415"/>
+      <c r="J70" s="415"/>
+      <c r="K70" s="415"/>
+      <c r="L70" s="415"/>
+      <c r="M70" s="415"/>
+      <c r="N70" s="415"/>
+      <c r="O70" s="415"/>
+      <c r="P70" s="415"/>
+      <c r="Q70" s="415"/>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1">
@@ -13938,38 +13938,38 @@
       <c r="B71" s="121">
         <v>0</v>
       </c>
-      <c r="C71" s="409">
-        <v>0</v>
-      </c>
-      <c r="D71" s="410">
+      <c r="C71" s="410">
+        <v>0</v>
+      </c>
+      <c r="D71" s="411">
         <f>IF(B76&gt;0,SUM(B71:B76)-C71,0)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="409">
+      <c r="E71" s="410">
         <v>6.2</v>
       </c>
-      <c r="F71" s="409">
+      <c r="F71" s="410">
         <v>25.3</v>
       </c>
-      <c r="G71" s="411">
+      <c r="G71" s="412">
         <v>0</v>
       </c>
       <c r="H71" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I71" s="412">
+      <c r="I71" s="415">
         <f>IF($D$2&gt;F71,G71*($D$2-F71)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="412"/>
-      <c r="K71" s="412"/>
-      <c r="L71" s="412"/>
-      <c r="M71" s="412"/>
-      <c r="N71" s="412"/>
-      <c r="O71" s="412"/>
-      <c r="P71" s="412"/>
-      <c r="Q71" s="412"/>
+      <c r="J71" s="415"/>
+      <c r="K71" s="415"/>
+      <c r="L71" s="415"/>
+      <c r="M71" s="415"/>
+      <c r="N71" s="415"/>
+      <c r="O71" s="415"/>
+      <c r="P71" s="415"/>
+      <c r="Q71" s="415"/>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1">
@@ -13978,24 +13978,24 @@
       <c r="B72" s="121">
         <v>0</v>
       </c>
-      <c r="C72" s="409"/>
-      <c r="D72" s="410"/>
-      <c r="E72" s="409"/>
-      <c r="F72" s="409"/>
-      <c r="G72" s="411"/>
+      <c r="C72" s="410"/>
+      <c r="D72" s="411"/>
+      <c r="E72" s="410"/>
+      <c r="F72" s="410"/>
+      <c r="G72" s="412"/>
       <c r="H72" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I72" s="412"/>
-      <c r="J72" s="412"/>
-      <c r="K72" s="412"/>
-      <c r="L72" s="412"/>
-      <c r="M72" s="412"/>
-      <c r="N72" s="412"/>
-      <c r="O72" s="412"/>
-      <c r="P72" s="412"/>
-      <c r="Q72" s="412"/>
+      <c r="I72" s="415"/>
+      <c r="J72" s="415"/>
+      <c r="K72" s="415"/>
+      <c r="L72" s="415"/>
+      <c r="M72" s="415"/>
+      <c r="N72" s="415"/>
+      <c r="O72" s="415"/>
+      <c r="P72" s="415"/>
+      <c r="Q72" s="415"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1">
@@ -14004,24 +14004,24 @@
       <c r="B73" s="121">
         <v>0</v>
       </c>
-      <c r="C73" s="409"/>
-      <c r="D73" s="410"/>
-      <c r="E73" s="409"/>
-      <c r="F73" s="409"/>
-      <c r="G73" s="411"/>
+      <c r="C73" s="410"/>
+      <c r="D73" s="411"/>
+      <c r="E73" s="410"/>
+      <c r="F73" s="410"/>
+      <c r="G73" s="412"/>
       <c r="H73" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I73" s="412"/>
-      <c r="J73" s="412"/>
-      <c r="K73" s="412"/>
-      <c r="L73" s="412"/>
-      <c r="M73" s="412"/>
-      <c r="N73" s="412"/>
-      <c r="O73" s="412"/>
-      <c r="P73" s="412"/>
-      <c r="Q73" s="412"/>
+      <c r="I73" s="415"/>
+      <c r="J73" s="415"/>
+      <c r="K73" s="415"/>
+      <c r="L73" s="415"/>
+      <c r="M73" s="415"/>
+      <c r="N73" s="415"/>
+      <c r="O73" s="415"/>
+      <c r="P73" s="415"/>
+      <c r="Q73" s="415"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1">
@@ -14030,24 +14030,24 @@
       <c r="B74" s="121">
         <v>0</v>
       </c>
-      <c r="C74" s="409"/>
-      <c r="D74" s="410"/>
-      <c r="E74" s="409"/>
-      <c r="F74" s="409"/>
-      <c r="G74" s="411"/>
+      <c r="C74" s="410"/>
+      <c r="D74" s="411"/>
+      <c r="E74" s="410"/>
+      <c r="F74" s="410"/>
+      <c r="G74" s="412"/>
       <c r="H74" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I74" s="412"/>
-      <c r="J74" s="412"/>
-      <c r="K74" s="412"/>
-      <c r="L74" s="412"/>
-      <c r="M74" s="412"/>
-      <c r="N74" s="412"/>
-      <c r="O74" s="412"/>
-      <c r="P74" s="412"/>
-      <c r="Q74" s="412"/>
+      <c r="I74" s="415"/>
+      <c r="J74" s="415"/>
+      <c r="K74" s="415"/>
+      <c r="L74" s="415"/>
+      <c r="M74" s="415"/>
+      <c r="N74" s="415"/>
+      <c r="O74" s="415"/>
+      <c r="P74" s="415"/>
+      <c r="Q74" s="415"/>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1">
@@ -14056,24 +14056,24 @@
       <c r="B75" s="121">
         <v>0</v>
       </c>
-      <c r="C75" s="409"/>
-      <c r="D75" s="410"/>
-      <c r="E75" s="409"/>
-      <c r="F75" s="409"/>
-      <c r="G75" s="411"/>
+      <c r="C75" s="410"/>
+      <c r="D75" s="411"/>
+      <c r="E75" s="410"/>
+      <c r="F75" s="410"/>
+      <c r="G75" s="412"/>
       <c r="H75" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I75" s="412"/>
-      <c r="J75" s="412"/>
-      <c r="K75" s="412"/>
-      <c r="L75" s="412"/>
-      <c r="M75" s="412"/>
-      <c r="N75" s="412"/>
-      <c r="O75" s="412"/>
-      <c r="P75" s="412"/>
-      <c r="Q75" s="412"/>
+      <c r="I75" s="415"/>
+      <c r="J75" s="415"/>
+      <c r="K75" s="415"/>
+      <c r="L75" s="415"/>
+      <c r="M75" s="415"/>
+      <c r="N75" s="415"/>
+      <c r="O75" s="415"/>
+      <c r="P75" s="415"/>
+      <c r="Q75" s="415"/>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1">
@@ -14082,24 +14082,24 @@
       <c r="B76" s="121">
         <v>0</v>
       </c>
-      <c r="C76" s="409"/>
-      <c r="D76" s="410"/>
-      <c r="E76" s="409"/>
-      <c r="F76" s="409"/>
-      <c r="G76" s="411"/>
+      <c r="C76" s="410"/>
+      <c r="D76" s="411"/>
+      <c r="E76" s="410"/>
+      <c r="F76" s="410"/>
+      <c r="G76" s="412"/>
       <c r="H76" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I76" s="412"/>
-      <c r="J76" s="412"/>
-      <c r="K76" s="412"/>
-      <c r="L76" s="412"/>
-      <c r="M76" s="412"/>
-      <c r="N76" s="412"/>
-      <c r="O76" s="412"/>
-      <c r="P76" s="412"/>
-      <c r="Q76" s="412"/>
+      <c r="I76" s="415"/>
+      <c r="J76" s="415"/>
+      <c r="K76" s="415"/>
+      <c r="L76" s="415"/>
+      <c r="M76" s="415"/>
+      <c r="N76" s="415"/>
+      <c r="O76" s="415"/>
+      <c r="P76" s="415"/>
+      <c r="Q76" s="415"/>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1">
@@ -14108,38 +14108,38 @@
       <c r="B77" s="121">
         <v>0</v>
       </c>
-      <c r="C77" s="409">
-        <v>0</v>
-      </c>
-      <c r="D77" s="410">
+      <c r="C77" s="410">
+        <v>0</v>
+      </c>
+      <c r="D77" s="411">
         <f>IF(B82&gt;0,SUM(B77:B82)-C77,0)</f>
         <v>0</v>
       </c>
-      <c r="E77" s="409">
+      <c r="E77" s="410">
         <v>6.2</v>
       </c>
-      <c r="F77" s="409">
+      <c r="F77" s="410">
         <v>25.3</v>
       </c>
-      <c r="G77" s="411">
+      <c r="G77" s="412">
         <v>0</v>
       </c>
       <c r="H77" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I77" s="412">
+      <c r="I77" s="415">
         <f>IF($D$2&gt;F77,G77*($D$2-F77)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="412"/>
-      <c r="K77" s="412"/>
-      <c r="L77" s="412"/>
-      <c r="M77" s="412"/>
-      <c r="N77" s="412"/>
-      <c r="O77" s="412"/>
-      <c r="P77" s="412"/>
-      <c r="Q77" s="412"/>
+      <c r="J77" s="415"/>
+      <c r="K77" s="415"/>
+      <c r="L77" s="415"/>
+      <c r="M77" s="415"/>
+      <c r="N77" s="415"/>
+      <c r="O77" s="415"/>
+      <c r="P77" s="415"/>
+      <c r="Q77" s="415"/>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1">
@@ -14148,24 +14148,24 @@
       <c r="B78" s="121">
         <v>0</v>
       </c>
-      <c r="C78" s="409"/>
-      <c r="D78" s="410"/>
-      <c r="E78" s="409"/>
-      <c r="F78" s="409"/>
-      <c r="G78" s="411"/>
+      <c r="C78" s="410"/>
+      <c r="D78" s="411"/>
+      <c r="E78" s="410"/>
+      <c r="F78" s="410"/>
+      <c r="G78" s="412"/>
       <c r="H78" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I78" s="412"/>
-      <c r="J78" s="412"/>
-      <c r="K78" s="412"/>
-      <c r="L78" s="412"/>
-      <c r="M78" s="412"/>
-      <c r="N78" s="412"/>
-      <c r="O78" s="412"/>
-      <c r="P78" s="412"/>
-      <c r="Q78" s="412"/>
+      <c r="I78" s="415"/>
+      <c r="J78" s="415"/>
+      <c r="K78" s="415"/>
+      <c r="L78" s="415"/>
+      <c r="M78" s="415"/>
+      <c r="N78" s="415"/>
+      <c r="O78" s="415"/>
+      <c r="P78" s="415"/>
+      <c r="Q78" s="415"/>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1">
@@ -14174,24 +14174,24 @@
       <c r="B79" s="121">
         <v>0</v>
       </c>
-      <c r="C79" s="409"/>
-      <c r="D79" s="410"/>
-      <c r="E79" s="409"/>
-      <c r="F79" s="409"/>
-      <c r="G79" s="411"/>
+      <c r="C79" s="410"/>
+      <c r="D79" s="411"/>
+      <c r="E79" s="410"/>
+      <c r="F79" s="410"/>
+      <c r="G79" s="412"/>
       <c r="H79" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I79" s="412"/>
-      <c r="J79" s="412"/>
-      <c r="K79" s="412"/>
-      <c r="L79" s="412"/>
-      <c r="M79" s="412"/>
-      <c r="N79" s="412"/>
-      <c r="O79" s="412"/>
-      <c r="P79" s="412"/>
-      <c r="Q79" s="412"/>
+      <c r="I79" s="415"/>
+      <c r="J79" s="415"/>
+      <c r="K79" s="415"/>
+      <c r="L79" s="415"/>
+      <c r="M79" s="415"/>
+      <c r="N79" s="415"/>
+      <c r="O79" s="415"/>
+      <c r="P79" s="415"/>
+      <c r="Q79" s="415"/>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1">
@@ -14200,24 +14200,24 @@
       <c r="B80" s="121">
         <v>0</v>
       </c>
-      <c r="C80" s="409"/>
-      <c r="D80" s="410"/>
-      <c r="E80" s="409"/>
-      <c r="F80" s="409"/>
-      <c r="G80" s="411"/>
+      <c r="C80" s="410"/>
+      <c r="D80" s="411"/>
+      <c r="E80" s="410"/>
+      <c r="F80" s="410"/>
+      <c r="G80" s="412"/>
       <c r="H80" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I80" s="412"/>
-      <c r="J80" s="412"/>
-      <c r="K80" s="412"/>
-      <c r="L80" s="412"/>
-      <c r="M80" s="412"/>
-      <c r="N80" s="412"/>
-      <c r="O80" s="412"/>
-      <c r="P80" s="412"/>
-      <c r="Q80" s="412"/>
+      <c r="I80" s="415"/>
+      <c r="J80" s="415"/>
+      <c r="K80" s="415"/>
+      <c r="L80" s="415"/>
+      <c r="M80" s="415"/>
+      <c r="N80" s="415"/>
+      <c r="O80" s="415"/>
+      <c r="P80" s="415"/>
+      <c r="Q80" s="415"/>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1">
@@ -14226,24 +14226,24 @@
       <c r="B81" s="121">
         <v>0</v>
       </c>
-      <c r="C81" s="409"/>
-      <c r="D81" s="410"/>
-      <c r="E81" s="409"/>
-      <c r="F81" s="409"/>
-      <c r="G81" s="411"/>
+      <c r="C81" s="410"/>
+      <c r="D81" s="411"/>
+      <c r="E81" s="410"/>
+      <c r="F81" s="410"/>
+      <c r="G81" s="412"/>
       <c r="H81" s="120">
         <f t="shared" ref="H81:H88" si="3">R87*0.25</f>
         <v>0</v>
       </c>
-      <c r="I81" s="412"/>
-      <c r="J81" s="412"/>
-      <c r="K81" s="412"/>
-      <c r="L81" s="412"/>
-      <c r="M81" s="412"/>
-      <c r="N81" s="412"/>
-      <c r="O81" s="412"/>
-      <c r="P81" s="412"/>
-      <c r="Q81" s="412"/>
+      <c r="I81" s="415"/>
+      <c r="J81" s="415"/>
+      <c r="K81" s="415"/>
+      <c r="L81" s="415"/>
+      <c r="M81" s="415"/>
+      <c r="N81" s="415"/>
+      <c r="O81" s="415"/>
+      <c r="P81" s="415"/>
+      <c r="Q81" s="415"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1">
@@ -14252,24 +14252,24 @@
       <c r="B82" s="121">
         <v>0</v>
       </c>
-      <c r="C82" s="409"/>
-      <c r="D82" s="410"/>
-      <c r="E82" s="409"/>
-      <c r="F82" s="409"/>
-      <c r="G82" s="411"/>
+      <c r="C82" s="410"/>
+      <c r="D82" s="411"/>
+      <c r="E82" s="410"/>
+      <c r="F82" s="410"/>
+      <c r="G82" s="412"/>
       <c r="H82" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I82" s="412"/>
-      <c r="J82" s="412"/>
-      <c r="K82" s="412"/>
-      <c r="L82" s="412"/>
-      <c r="M82" s="412"/>
-      <c r="N82" s="412"/>
-      <c r="O82" s="412"/>
-      <c r="P82" s="412"/>
-      <c r="Q82" s="412"/>
+      <c r="I82" s="415"/>
+      <c r="J82" s="415"/>
+      <c r="K82" s="415"/>
+      <c r="L82" s="415"/>
+      <c r="M82" s="415"/>
+      <c r="N82" s="415"/>
+      <c r="O82" s="415"/>
+      <c r="P82" s="415"/>
+      <c r="Q82" s="415"/>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1">
@@ -14278,38 +14278,38 @@
       <c r="B83" s="121">
         <v>0</v>
       </c>
-      <c r="C83" s="409">
-        <v>0</v>
-      </c>
-      <c r="D83" s="410">
+      <c r="C83" s="410">
+        <v>0</v>
+      </c>
+      <c r="D83" s="411">
         <f>IF(B88&gt;0,SUM(B83:B88)-C83,0)</f>
         <v>0</v>
       </c>
-      <c r="E83" s="409">
+      <c r="E83" s="410">
         <v>6.2</v>
       </c>
-      <c r="F83" s="409">
+      <c r="F83" s="410">
         <v>25.3</v>
       </c>
-      <c r="G83" s="411">
+      <c r="G83" s="412">
         <v>0</v>
       </c>
       <c r="H83" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I83" s="412">
+      <c r="I83" s="415">
         <f>IF($D$2&gt;F83,G83*($D$2-F83)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J83" s="412"/>
-      <c r="K83" s="412"/>
-      <c r="L83" s="412"/>
-      <c r="M83" s="412"/>
-      <c r="N83" s="412"/>
-      <c r="O83" s="412"/>
-      <c r="P83" s="412"/>
-      <c r="Q83" s="412"/>
+      <c r="J83" s="415"/>
+      <c r="K83" s="415"/>
+      <c r="L83" s="415"/>
+      <c r="M83" s="415"/>
+      <c r="N83" s="415"/>
+      <c r="O83" s="415"/>
+      <c r="P83" s="415"/>
+      <c r="Q83" s="415"/>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1">
@@ -14318,24 +14318,24 @@
       <c r="B84" s="121">
         <v>0</v>
       </c>
-      <c r="C84" s="409"/>
-      <c r="D84" s="410"/>
-      <c r="E84" s="409"/>
-      <c r="F84" s="409"/>
-      <c r="G84" s="411"/>
+      <c r="C84" s="410"/>
+      <c r="D84" s="411"/>
+      <c r="E84" s="410"/>
+      <c r="F84" s="410"/>
+      <c r="G84" s="412"/>
       <c r="H84" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I84" s="412"/>
-      <c r="J84" s="412"/>
-      <c r="K84" s="412"/>
-      <c r="L84" s="412"/>
-      <c r="M84" s="412"/>
-      <c r="N84" s="412"/>
-      <c r="O84" s="412"/>
-      <c r="P84" s="412"/>
-      <c r="Q84" s="412"/>
+      <c r="I84" s="415"/>
+      <c r="J84" s="415"/>
+      <c r="K84" s="415"/>
+      <c r="L84" s="415"/>
+      <c r="M84" s="415"/>
+      <c r="N84" s="415"/>
+      <c r="O84" s="415"/>
+      <c r="P84" s="415"/>
+      <c r="Q84" s="415"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1">
@@ -14344,24 +14344,24 @@
       <c r="B85" s="121">
         <v>0</v>
       </c>
-      <c r="C85" s="409"/>
-      <c r="D85" s="410"/>
-      <c r="E85" s="409"/>
-      <c r="F85" s="409"/>
-      <c r="G85" s="411"/>
+      <c r="C85" s="410"/>
+      <c r="D85" s="411"/>
+      <c r="E85" s="410"/>
+      <c r="F85" s="410"/>
+      <c r="G85" s="412"/>
       <c r="H85" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I85" s="412"/>
-      <c r="J85" s="412"/>
-      <c r="K85" s="412"/>
-      <c r="L85" s="412"/>
-      <c r="M85" s="412"/>
-      <c r="N85" s="412"/>
-      <c r="O85" s="412"/>
-      <c r="P85" s="412"/>
-      <c r="Q85" s="412"/>
+      <c r="I85" s="415"/>
+      <c r="J85" s="415"/>
+      <c r="K85" s="415"/>
+      <c r="L85" s="415"/>
+      <c r="M85" s="415"/>
+      <c r="N85" s="415"/>
+      <c r="O85" s="415"/>
+      <c r="P85" s="415"/>
+      <c r="Q85" s="415"/>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1">
@@ -14370,24 +14370,24 @@
       <c r="B86" s="121">
         <v>0</v>
       </c>
-      <c r="C86" s="409"/>
-      <c r="D86" s="410"/>
-      <c r="E86" s="409"/>
-      <c r="F86" s="409"/>
-      <c r="G86" s="411"/>
+      <c r="C86" s="410"/>
+      <c r="D86" s="411"/>
+      <c r="E86" s="410"/>
+      <c r="F86" s="410"/>
+      <c r="G86" s="412"/>
       <c r="H86" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I86" s="412"/>
-      <c r="J86" s="412"/>
-      <c r="K86" s="412"/>
-      <c r="L86" s="412"/>
-      <c r="M86" s="412"/>
-      <c r="N86" s="412"/>
-      <c r="O86" s="412"/>
-      <c r="P86" s="412"/>
-      <c r="Q86" s="412"/>
+      <c r="I86" s="415"/>
+      <c r="J86" s="415"/>
+      <c r="K86" s="415"/>
+      <c r="L86" s="415"/>
+      <c r="M86" s="415"/>
+      <c r="N86" s="415"/>
+      <c r="O86" s="415"/>
+      <c r="P86" s="415"/>
+      <c r="Q86" s="415"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1">
@@ -14396,24 +14396,24 @@
       <c r="B87" s="121">
         <v>0</v>
       </c>
-      <c r="C87" s="409"/>
-      <c r="D87" s="410"/>
-      <c r="E87" s="409"/>
-      <c r="F87" s="409"/>
-      <c r="G87" s="411"/>
+      <c r="C87" s="410"/>
+      <c r="D87" s="411"/>
+      <c r="E87" s="410"/>
+      <c r="F87" s="410"/>
+      <c r="G87" s="412"/>
       <c r="H87" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I87" s="412"/>
-      <c r="J87" s="412"/>
-      <c r="K87" s="412"/>
-      <c r="L87" s="412"/>
-      <c r="M87" s="412"/>
-      <c r="N87" s="412"/>
-      <c r="O87" s="412"/>
-      <c r="P87" s="412"/>
-      <c r="Q87" s="412"/>
+      <c r="I87" s="415"/>
+      <c r="J87" s="415"/>
+      <c r="K87" s="415"/>
+      <c r="L87" s="415"/>
+      <c r="M87" s="415"/>
+      <c r="N87" s="415"/>
+      <c r="O87" s="415"/>
+      <c r="P87" s="415"/>
+      <c r="Q87" s="415"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1">
@@ -14422,94 +14422,125 @@
       <c r="B88" s="121">
         <v>0</v>
       </c>
-      <c r="C88" s="409"/>
-      <c r="D88" s="410"/>
-      <c r="E88" s="409"/>
-      <c r="F88" s="409"/>
-      <c r="G88" s="411"/>
+      <c r="C88" s="410"/>
+      <c r="D88" s="411"/>
+      <c r="E88" s="410"/>
+      <c r="F88" s="410"/>
+      <c r="G88" s="412"/>
       <c r="H88" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I88" s="412"/>
-      <c r="J88" s="412"/>
-      <c r="K88" s="412"/>
-      <c r="L88" s="412"/>
-      <c r="M88" s="412"/>
-      <c r="N88" s="412"/>
-      <c r="O88" s="412"/>
-      <c r="P88" s="412"/>
-      <c r="Q88" s="412"/>
+      <c r="I88" s="415"/>
+      <c r="J88" s="415"/>
+      <c r="K88" s="415"/>
+      <c r="L88" s="415"/>
+      <c r="M88" s="415"/>
+      <c r="N88" s="415"/>
+      <c r="O88" s="415"/>
+      <c r="P88" s="415"/>
+      <c r="Q88" s="415"/>
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="P10:P15"/>
-    <mergeCell ref="Q10:Q15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="L10:L15"/>
-    <mergeCell ref="M10:M15"/>
-    <mergeCell ref="N10:N15"/>
-    <mergeCell ref="Q16:Q21"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="M16:M21"/>
-    <mergeCell ref="N16:N21"/>
-    <mergeCell ref="O16:O21"/>
-    <mergeCell ref="P16:P21"/>
-    <mergeCell ref="P22:P27"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="G28:G34"/>
-    <mergeCell ref="O28:O34"/>
-    <mergeCell ref="P28:P34"/>
-    <mergeCell ref="Q28:Q34"/>
-    <mergeCell ref="K28:K34"/>
-    <mergeCell ref="L28:L34"/>
-    <mergeCell ref="M28:M34"/>
-    <mergeCell ref="N28:N34"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="J35:J40"/>
-    <mergeCell ref="I28:I34"/>
-    <mergeCell ref="J28:J34"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="G83:G88"/>
+    <mergeCell ref="O83:O88"/>
+    <mergeCell ref="P83:P88"/>
+    <mergeCell ref="Q83:Q88"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="K83:K88"/>
+    <mergeCell ref="L83:L88"/>
+    <mergeCell ref="M83:M88"/>
+    <mergeCell ref="N83:N88"/>
+    <mergeCell ref="M71:M76"/>
+    <mergeCell ref="N71:N76"/>
+    <mergeCell ref="O71:O76"/>
+    <mergeCell ref="P71:P76"/>
+    <mergeCell ref="M77:M82"/>
+    <mergeCell ref="N77:N82"/>
+    <mergeCell ref="O77:O82"/>
+    <mergeCell ref="P77:P82"/>
+    <mergeCell ref="Q77:Q82"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="J77:J82"/>
+    <mergeCell ref="K77:K82"/>
+    <mergeCell ref="L77:L82"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="O65:O70"/>
+    <mergeCell ref="P65:P70"/>
+    <mergeCell ref="Q65:Q70"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="I71:I76"/>
+    <mergeCell ref="J71:J76"/>
+    <mergeCell ref="I65:I70"/>
+    <mergeCell ref="J65:J70"/>
+    <mergeCell ref="K65:K70"/>
+    <mergeCell ref="L65:L70"/>
+    <mergeCell ref="M65:M70"/>
+    <mergeCell ref="N65:N70"/>
+    <mergeCell ref="Q71:Q76"/>
+    <mergeCell ref="K71:K76"/>
+    <mergeCell ref="L71:L76"/>
+    <mergeCell ref="M53:M58"/>
+    <mergeCell ref="N53:N58"/>
+    <mergeCell ref="O53:O58"/>
+    <mergeCell ref="P53:P58"/>
+    <mergeCell ref="M59:M64"/>
+    <mergeCell ref="N59:N64"/>
+    <mergeCell ref="O59:O64"/>
+    <mergeCell ref="P59:P64"/>
+    <mergeCell ref="Q59:Q64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="F59:F64"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="J59:J64"/>
+    <mergeCell ref="K59:K64"/>
+    <mergeCell ref="L59:L64"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="O47:O52"/>
+    <mergeCell ref="P47:P52"/>
+    <mergeCell ref="Q47:Q52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="I53:I58"/>
+    <mergeCell ref="J53:J58"/>
+    <mergeCell ref="I47:I52"/>
+    <mergeCell ref="J47:J52"/>
+    <mergeCell ref="K47:K52"/>
+    <mergeCell ref="L47:L52"/>
+    <mergeCell ref="M47:M52"/>
+    <mergeCell ref="N47:N52"/>
+    <mergeCell ref="Q53:Q58"/>
+    <mergeCell ref="K53:K58"/>
+    <mergeCell ref="L53:L58"/>
     <mergeCell ref="Q35:Q40"/>
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="D41:D46"/>
@@ -14534,104 +14565,73 @@
     <mergeCell ref="C35:C40"/>
     <mergeCell ref="D35:D40"/>
     <mergeCell ref="E35:E40"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="E47:E52"/>
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="O47:O52"/>
-    <mergeCell ref="P47:P52"/>
-    <mergeCell ref="Q47:Q52"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="I53:I58"/>
-    <mergeCell ref="J53:J58"/>
-    <mergeCell ref="I47:I52"/>
-    <mergeCell ref="J47:J52"/>
-    <mergeCell ref="K47:K52"/>
-    <mergeCell ref="L47:L52"/>
-    <mergeCell ref="M47:M52"/>
-    <mergeCell ref="N47:N52"/>
-    <mergeCell ref="Q53:Q58"/>
-    <mergeCell ref="K53:K58"/>
-    <mergeCell ref="L53:L58"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="F59:F64"/>
-    <mergeCell ref="G59:G64"/>
-    <mergeCell ref="I59:I64"/>
-    <mergeCell ref="J59:J64"/>
-    <mergeCell ref="K59:K64"/>
-    <mergeCell ref="L59:L64"/>
-    <mergeCell ref="M53:M58"/>
-    <mergeCell ref="N53:N58"/>
-    <mergeCell ref="O53:O58"/>
-    <mergeCell ref="P53:P58"/>
-    <mergeCell ref="M59:M64"/>
-    <mergeCell ref="N59:N64"/>
-    <mergeCell ref="O59:O64"/>
-    <mergeCell ref="P59:P64"/>
-    <mergeCell ref="Q59:Q64"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="O65:O70"/>
-    <mergeCell ref="P65:P70"/>
-    <mergeCell ref="Q65:Q70"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="F71:F76"/>
-    <mergeCell ref="G71:G76"/>
-    <mergeCell ref="I71:I76"/>
-    <mergeCell ref="J71:J76"/>
-    <mergeCell ref="I65:I70"/>
-    <mergeCell ref="J65:J70"/>
-    <mergeCell ref="K65:K70"/>
-    <mergeCell ref="L65:L70"/>
-    <mergeCell ref="M65:M70"/>
-    <mergeCell ref="N65:N70"/>
-    <mergeCell ref="Q71:Q76"/>
-    <mergeCell ref="K71:K76"/>
-    <mergeCell ref="L71:L76"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="F77:F82"/>
-    <mergeCell ref="G77:G82"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="J77:J82"/>
-    <mergeCell ref="K77:K82"/>
-    <mergeCell ref="L77:L82"/>
-    <mergeCell ref="M71:M76"/>
-    <mergeCell ref="N71:N76"/>
-    <mergeCell ref="O71:O76"/>
-    <mergeCell ref="P71:P76"/>
-    <mergeCell ref="M77:M82"/>
-    <mergeCell ref="N77:N82"/>
-    <mergeCell ref="O77:O82"/>
-    <mergeCell ref="P77:P82"/>
-    <mergeCell ref="Q77:Q82"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="G83:G88"/>
-    <mergeCell ref="O83:O88"/>
-    <mergeCell ref="P83:P88"/>
-    <mergeCell ref="Q83:Q88"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="K83:K88"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="M83:M88"/>
-    <mergeCell ref="N83:N88"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="J35:J40"/>
+    <mergeCell ref="I28:I34"/>
+    <mergeCell ref="J28:J34"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="P22:P27"/>
+    <mergeCell ref="Q22:Q27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="O28:O34"/>
+    <mergeCell ref="P28:P34"/>
+    <mergeCell ref="Q28:Q34"/>
+    <mergeCell ref="K28:K34"/>
+    <mergeCell ref="L28:L34"/>
+    <mergeCell ref="M28:M34"/>
+    <mergeCell ref="N28:N34"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="P10:P15"/>
+    <mergeCell ref="Q10:Q15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="M10:M15"/>
+    <mergeCell ref="N10:N15"/>
+    <mergeCell ref="Q16:Q21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="N16:N21"/>
+    <mergeCell ref="O16:O21"/>
+    <mergeCell ref="P16:P21"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16064,29 +16064,29 @@
     </row>
     <row r="6" spans="4:12" ht="17.100000000000001" customHeight="1">
       <c r="F6" s="220"/>
-      <c r="G6" s="476" t="s">
+      <c r="G6" s="484" t="s">
         <v>981</v>
       </c>
-      <c r="H6" s="478" t="s">
+      <c r="H6" s="486" t="s">
         <v>982</v>
       </c>
-      <c r="I6" s="478" t="s">
+      <c r="I6" s="486" t="s">
         <v>983</v>
       </c>
-      <c r="J6" s="478" t="s">
+      <c r="J6" s="486" t="s">
         <v>984</v>
       </c>
-      <c r="K6" s="467" t="s">
+      <c r="K6" s="482" t="s">
         <v>985</v>
       </c>
-      <c r="L6" s="468"/>
+      <c r="L6" s="483"/>
     </row>
     <row r="7" spans="4:12" ht="18" customHeight="1">
       <c r="F7" s="220"/>
-      <c r="G7" s="477"/>
-      <c r="H7" s="479"/>
-      <c r="I7" s="479"/>
-      <c r="J7" s="479"/>
+      <c r="G7" s="485"/>
+      <c r="H7" s="487"/>
+      <c r="I7" s="487"/>
+      <c r="J7" s="487"/>
       <c r="K7" s="221" t="s">
         <v>986</v>
       </c>
@@ -16095,11 +16095,11 @@
       </c>
     </row>
     <row r="8" spans="4:12" ht="30" customHeight="1" thickBot="1">
-      <c r="D8" s="475" t="s">
+      <c r="D8" s="473" t="s">
         <v>988</v>
       </c>
-      <c r="E8" s="475"/>
-      <c r="F8" s="475"/>
+      <c r="E8" s="473"/>
+      <c r="F8" s="473"/>
       <c r="G8" s="223">
         <v>9.6</v>
       </c>
@@ -16145,21 +16145,21 @@
     </row>
     <row r="12" spans="4:12" ht="18.75">
       <c r="F12" s="220"/>
-      <c r="G12" s="469" t="s">
+      <c r="G12" s="467" t="s">
         <v>989</v>
       </c>
-      <c r="H12" s="471" t="s">
+      <c r="H12" s="469" t="s">
         <v>990</v>
       </c>
-      <c r="I12" s="473" t="s">
+      <c r="I12" s="471" t="s">
         <v>991</v>
       </c>
-      <c r="J12" s="474"/>
+      <c r="J12" s="472"/>
     </row>
     <row r="13" spans="4:12" ht="18.75">
       <c r="F13" s="220"/>
-      <c r="G13" s="470"/>
-      <c r="H13" s="472"/>
+      <c r="G13" s="468"/>
+      <c r="H13" s="470"/>
       <c r="I13" s="226" t="s">
         <v>992</v>
       </c>
@@ -16168,11 +16168,11 @@
       </c>
     </row>
     <row r="14" spans="4:12" ht="33" customHeight="1" thickBot="1">
-      <c r="D14" s="475" t="s">
+      <c r="D14" s="473" t="s">
         <v>994</v>
       </c>
-      <c r="E14" s="475"/>
-      <c r="F14" s="475"/>
+      <c r="E14" s="473"/>
+      <c r="F14" s="473"/>
       <c r="G14" s="228" t="s">
         <v>995</v>
       </c>
@@ -16190,20 +16190,20 @@
     </row>
     <row r="16" spans="4:12" ht="15.75" thickBot="1"/>
     <row r="17" spans="4:10" ht="18.75">
-      <c r="G17" s="469" t="s">
+      <c r="G17" s="467" t="s">
         <v>996</v>
       </c>
-      <c r="H17" s="471" t="s">
+      <c r="H17" s="469" t="s">
         <v>990</v>
       </c>
-      <c r="I17" s="473" t="s">
+      <c r="I17" s="471" t="s">
         <v>991</v>
       </c>
-      <c r="J17" s="474"/>
+      <c r="J17" s="472"/>
     </row>
     <row r="18" spans="4:10" ht="18.75">
-      <c r="G18" s="470"/>
-      <c r="H18" s="472"/>
+      <c r="G18" s="468"/>
+      <c r="H18" s="470"/>
       <c r="I18" s="226" t="s">
         <v>992</v>
       </c>
@@ -16212,11 +16212,11 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="33" customHeight="1" thickBot="1">
-      <c r="D19" s="475" t="s">
+      <c r="D19" s="473" t="s">
         <v>994</v>
       </c>
-      <c r="E19" s="475"/>
-      <c r="F19" s="475"/>
+      <c r="E19" s="473"/>
+      <c r="F19" s="473"/>
       <c r="G19" s="228" t="s">
         <v>997</v>
       </c>
@@ -16234,20 +16234,20 @@
     </row>
     <row r="21" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="22" spans="4:10" ht="18.75">
-      <c r="G22" s="480" t="s">
+      <c r="G22" s="474" t="s">
         <v>998</v>
       </c>
-      <c r="H22" s="471" t="s">
+      <c r="H22" s="469" t="s">
         <v>990</v>
       </c>
-      <c r="I22" s="473" t="s">
+      <c r="I22" s="471" t="s">
         <v>991</v>
       </c>
-      <c r="J22" s="474"/>
+      <c r="J22" s="472"/>
     </row>
     <row r="23" spans="4:10" ht="18.75">
-      <c r="G23" s="481"/>
-      <c r="H23" s="472"/>
+      <c r="G23" s="475"/>
+      <c r="H23" s="470"/>
       <c r="I23" s="226" t="s">
         <v>992</v>
       </c>
@@ -16256,11 +16256,11 @@
       </c>
     </row>
     <row r="24" spans="4:10" ht="32.1" customHeight="1">
-      <c r="D24" s="475" t="s">
+      <c r="D24" s="473" t="s">
         <v>994</v>
       </c>
-      <c r="E24" s="475"/>
-      <c r="F24" s="475"/>
+      <c r="E24" s="473"/>
+      <c r="F24" s="473"/>
       <c r="G24" s="229" t="s">
         <v>999</v>
       </c>
@@ -16315,20 +16315,20 @@
     </row>
     <row r="29" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="30" spans="4:10" ht="18.75">
-      <c r="G30" s="482" t="s">
+      <c r="G30" s="476" t="s">
         <v>1002</v>
       </c>
-      <c r="H30" s="484" t="s">
+      <c r="H30" s="478" t="s">
         <v>1003</v>
       </c>
-      <c r="I30" s="486" t="s">
+      <c r="I30" s="480" t="s">
         <v>1004</v>
       </c>
-      <c r="J30" s="487"/>
+      <c r="J30" s="481"/>
     </row>
     <row r="31" spans="4:10" ht="18.75">
-      <c r="G31" s="483"/>
-      <c r="H31" s="485"/>
+      <c r="G31" s="477"/>
+      <c r="H31" s="479"/>
       <c r="I31" s="233" t="s">
         <v>986</v>
       </c>
@@ -16337,11 +16337,11 @@
       </c>
     </row>
     <row r="32" spans="4:10" ht="35.1" customHeight="1" thickBot="1">
-      <c r="D32" s="475" t="s">
+      <c r="D32" s="473" t="s">
         <v>1005</v>
       </c>
-      <c r="E32" s="475"/>
-      <c r="F32" s="475"/>
+      <c r="E32" s="473"/>
+      <c r="F32" s="473"/>
       <c r="G32" s="235" t="s">
         <v>999</v>
       </c>
@@ -16359,6 +16359,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:J17"/>
@@ -16371,16 +16381,6 @@
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18129,17 +18129,17 @@
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" thickBot="1">
       <c r="A1" s="272"/>
-      <c r="B1" s="454" t="s">
+      <c r="B1" s="421" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
-      <c r="F1" s="456"/>
-      <c r="G1" s="457" t="s">
+      <c r="C1" s="422"/>
+      <c r="D1" s="422"/>
+      <c r="E1" s="422"/>
+      <c r="F1" s="423"/>
+      <c r="G1" s="424" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="458"/>
+      <c r="H1" s="425"/>
     </row>
     <row r="2" spans="1:40" ht="17.25" thickBot="1">
       <c r="A2" s="275" t="s">
@@ -18160,11 +18160,11 @@
       <c r="F2" s="277" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="459">
+      <c r="G2" s="426">
         <f ca="1">TODAY()-A13</f>
         <v>1200</v>
       </c>
-      <c r="H2" s="460"/>
+      <c r="H2" s="427"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
       <c r="A3" s="278">
@@ -18191,10 +18191,10 @@
         <f>'whobor-touna'!L3</f>
         <v>21315.100000000002</v>
       </c>
-      <c r="G3" s="457" t="s">
+      <c r="G3" s="424" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="458"/>
+      <c r="H3" s="425"/>
     </row>
     <row r="4" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="283"/>
@@ -18215,11 +18215,11 @@
         <f>F3/$B$3</f>
         <v>1.485488224548623E-2</v>
       </c>
-      <c r="G4" s="452">
+      <c r="G4" s="428">
         <f ca="1">A6/G2</f>
         <v>197.83455734999947</v>
       </c>
-      <c r="H4" s="453"/>
+      <c r="H4" s="429"/>
     </row>
     <row r="5" spans="1:40" ht="17.25" thickBot="1">
       <c r="A5" s="286" t="s">
@@ -18240,10 +18240,10 @@
       <c r="F5" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="449" t="s">
+      <c r="G5" s="435" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="450"/>
+      <c r="H5" s="436"/>
     </row>
     <row r="6" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="291">
@@ -18270,205 +18270,205 @@
         <f>D6-E6</f>
         <v>1836440.8388200002</v>
       </c>
-      <c r="G6" s="452">
+      <c r="G6" s="428">
         <f ca="1">G4*30</f>
         <v>5935.0367204999839</v>
       </c>
-      <c r="H6" s="453"/>
+      <c r="H6" s="429"/>
     </row>
     <row r="7" spans="1:40" s="298" customFormat="1" ht="20.25">
       <c r="A7" s="297"/>
-      <c r="B7" s="446" t="s">
+      <c r="B7" s="448" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="444"/>
-      <c r="D7" s="444"/>
-      <c r="E7" s="445"/>
-      <c r="F7" s="447"/>
-      <c r="G7" s="443" t="s">
+      <c r="C7" s="446"/>
+      <c r="D7" s="446"/>
+      <c r="E7" s="447"/>
+      <c r="F7" s="449"/>
+      <c r="G7" s="445" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="444"/>
-      <c r="I7" s="444"/>
-      <c r="J7" s="445"/>
-      <c r="K7" s="445"/>
-      <c r="L7" s="437" t="s">
+      <c r="H7" s="446"/>
+      <c r="I7" s="446"/>
+      <c r="J7" s="447"/>
+      <c r="K7" s="447"/>
+      <c r="L7" s="441" t="s">
         <v>973</v>
       </c>
-      <c r="M7" s="438"/>
-      <c r="N7" s="438"/>
-      <c r="O7" s="438"/>
-      <c r="P7" s="438"/>
-      <c r="Q7" s="439"/>
-      <c r="R7" s="438" t="s">
+      <c r="M7" s="437"/>
+      <c r="N7" s="437"/>
+      <c r="O7" s="437"/>
+      <c r="P7" s="437"/>
+      <c r="Q7" s="442"/>
+      <c r="R7" s="437" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="438"/>
-      <c r="T7" s="438"/>
-      <c r="U7" s="438"/>
-      <c r="V7" s="438"/>
-      <c r="W7" s="438"/>
-      <c r="X7" s="437" t="s">
+      <c r="S7" s="437"/>
+      <c r="T7" s="437"/>
+      <c r="U7" s="437"/>
+      <c r="V7" s="437"/>
+      <c r="W7" s="437"/>
+      <c r="X7" s="441" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="438"/>
-      <c r="Z7" s="438"/>
-      <c r="AA7" s="438"/>
-      <c r="AB7" s="438"/>
-      <c r="AC7" s="439"/>
+      <c r="Y7" s="437"/>
+      <c r="Z7" s="437"/>
+      <c r="AA7" s="437"/>
+      <c r="AB7" s="437"/>
+      <c r="AC7" s="442"/>
     </row>
     <row r="8" spans="1:40" s="298" customFormat="1" ht="16.5">
       <c r="A8" s="299" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="440" t="s">
+      <c r="B8" s="443" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="441"/>
-      <c r="D8" s="441"/>
-      <c r="E8" s="441"/>
-      <c r="F8" s="442"/>
-      <c r="G8" s="441" t="s">
+      <c r="C8" s="438"/>
+      <c r="D8" s="438"/>
+      <c r="E8" s="438"/>
+      <c r="F8" s="444"/>
+      <c r="G8" s="438" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="441"/>
-      <c r="I8" s="441"/>
-      <c r="J8" s="441"/>
-      <c r="K8" s="441"/>
-      <c r="L8" s="440" t="s">
+      <c r="H8" s="438"/>
+      <c r="I8" s="438"/>
+      <c r="J8" s="438"/>
+      <c r="K8" s="438"/>
+      <c r="L8" s="443" t="s">
         <v>974</v>
       </c>
-      <c r="M8" s="441"/>
-      <c r="N8" s="441"/>
-      <c r="O8" s="441"/>
-      <c r="P8" s="441"/>
-      <c r="Q8" s="442"/>
-      <c r="R8" s="441" t="s">
+      <c r="M8" s="438"/>
+      <c r="N8" s="438"/>
+      <c r="O8" s="438"/>
+      <c r="P8" s="438"/>
+      <c r="Q8" s="444"/>
+      <c r="R8" s="438" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="441"/>
-      <c r="T8" s="441"/>
-      <c r="U8" s="441"/>
-      <c r="V8" s="441"/>
-      <c r="W8" s="441"/>
-      <c r="X8" s="440" t="s">
+      <c r="S8" s="438"/>
+      <c r="T8" s="438"/>
+      <c r="U8" s="438"/>
+      <c r="V8" s="438"/>
+      <c r="W8" s="438"/>
+      <c r="X8" s="443" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" s="441"/>
-      <c r="Z8" s="441"/>
-      <c r="AA8" s="441"/>
-      <c r="AB8" s="441"/>
-      <c r="AC8" s="442"/>
+      <c r="Y8" s="438"/>
+      <c r="Z8" s="438"/>
+      <c r="AA8" s="438"/>
+      <c r="AB8" s="438"/>
+      <c r="AC8" s="444"/>
       <c r="AK8" s="300"/>
     </row>
     <row r="9" spans="1:40" s="298" customFormat="1" ht="16.5">
       <c r="A9" s="299" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="425" t="s">
+      <c r="B9" s="432" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="426"/>
-      <c r="D9" s="425" t="s">
+      <c r="C9" s="431"/>
+      <c r="D9" s="432" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="430"/>
-      <c r="F9" s="436"/>
-      <c r="G9" s="448" t="s">
+      <c r="E9" s="433"/>
+      <c r="F9" s="460"/>
+      <c r="G9" s="430" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="426"/>
-      <c r="I9" s="425" t="s">
+      <c r="H9" s="431"/>
+      <c r="I9" s="432" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="430"/>
-      <c r="K9" s="429"/>
-      <c r="L9" s="423" t="s">
+      <c r="J9" s="433"/>
+      <c r="K9" s="434"/>
+      <c r="L9" s="452" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="424"/>
-      <c r="N9" s="429" t="s">
+      <c r="M9" s="440"/>
+      <c r="N9" s="434" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="430"/>
-      <c r="P9" s="430"/>
-      <c r="Q9" s="431"/>
-      <c r="R9" s="451" t="s">
+      <c r="O9" s="433"/>
+      <c r="P9" s="433"/>
+      <c r="Q9" s="455"/>
+      <c r="R9" s="439" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="424"/>
-      <c r="T9" s="429" t="s">
+      <c r="S9" s="440"/>
+      <c r="T9" s="434" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="430"/>
-      <c r="V9" s="430"/>
-      <c r="W9" s="430"/>
-      <c r="X9" s="423" t="s">
+      <c r="U9" s="433"/>
+      <c r="V9" s="433"/>
+      <c r="W9" s="433"/>
+      <c r="X9" s="452" t="s">
         <v>49</v>
       </c>
-      <c r="Y9" s="424"/>
-      <c r="Z9" s="429" t="s">
+      <c r="Y9" s="440"/>
+      <c r="Z9" s="434" t="s">
         <v>50</v>
       </c>
-      <c r="AA9" s="430"/>
-      <c r="AB9" s="430"/>
-      <c r="AC9" s="431"/>
+      <c r="AA9" s="433"/>
+      <c r="AB9" s="433"/>
+      <c r="AC9" s="455"/>
     </row>
     <row r="10" spans="1:40" ht="15.75" customHeight="1">
       <c r="A10" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="421" t="s">
+      <c r="B10" s="450" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="422"/>
-      <c r="D10" s="433">
+      <c r="C10" s="451"/>
+      <c r="D10" s="457">
         <f>'whobor-touna'!G3/$B$3</f>
         <v>0.36376415500209058</v>
       </c>
-      <c r="E10" s="427"/>
-      <c r="F10" s="428"/>
-      <c r="G10" s="432" t="s">
+      <c r="E10" s="453"/>
+      <c r="F10" s="454"/>
+      <c r="G10" s="456" t="s">
         <v>234</v>
       </c>
-      <c r="H10" s="422"/>
-      <c r="I10" s="433">
+      <c r="H10" s="451"/>
+      <c r="I10" s="457">
         <f>'thmei-touna'!G3/$B$3</f>
         <v>0.53347322759262128</v>
       </c>
-      <c r="J10" s="427"/>
-      <c r="K10" s="427"/>
-      <c r="L10" s="434" t="s">
+      <c r="J10" s="453"/>
+      <c r="K10" s="453"/>
+      <c r="L10" s="458" t="s">
         <v>234</v>
       </c>
-      <c r="M10" s="435"/>
-      <c r="N10" s="427">
+      <c r="M10" s="459"/>
+      <c r="N10" s="453">
         <f>宜人贷!T2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="O10" s="427"/>
-      <c r="P10" s="427"/>
-      <c r="Q10" s="428"/>
-      <c r="R10" s="435"/>
-      <c r="S10" s="435"/>
-      <c r="T10" s="427">
+      <c r="O10" s="453"/>
+      <c r="P10" s="453"/>
+      <c r="Q10" s="454"/>
+      <c r="R10" s="459"/>
+      <c r="S10" s="459"/>
+      <c r="T10" s="453">
         <f>宜人贷!Z2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="U10" s="427"/>
-      <c r="V10" s="427"/>
-      <c r="W10" s="427"/>
-      <c r="X10" s="434">
+      <c r="U10" s="453"/>
+      <c r="V10" s="453"/>
+      <c r="W10" s="453"/>
+      <c r="X10" s="458">
         <v>830106</v>
       </c>
-      <c r="Y10" s="435"/>
-      <c r="Z10" s="427">
+      <c r="Y10" s="459"/>
+      <c r="Z10" s="453">
         <f>'whobor-wzd'!N2/$B$3</f>
         <v>7.4850435070732912E-2</v>
       </c>
-      <c r="AA10" s="427"/>
-      <c r="AB10" s="427"/>
-      <c r="AC10" s="428"/>
+      <c r="AA10" s="453"/>
+      <c r="AB10" s="453"/>
+      <c r="AC10" s="454"/>
     </row>
     <row r="11" spans="1:40" ht="28.5" customHeight="1">
       <c r="A11" s="302" t="s">
@@ -35477,27 +35477,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="L7:Q7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B9:C9"/>
@@ -35514,6 +35493,27 @@
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D9:F9"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HighRiskInvestment.xlsx
+++ b/HighRiskInvestment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="4410" tabRatio="771" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="4410" tabRatio="771" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ESPP" sheetId="10" r:id="rId1"/>
@@ -1371,7 +1371,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="1286">
   <si>
     <t>Ahu99</t>
   </si>
@@ -4983,9 +4983,6 @@
     <t xml:space="preserve">年省心3273期 </t>
   </si>
   <si>
-    <t>短期宝20170331D02</t>
-  </si>
-  <si>
     <t>年省心I8901期</t>
   </si>
   <si>
@@ -5086,9 +5083,6 @@
     <t>年省心Ⅲ934期</t>
   </si>
   <si>
-    <t>xjxia08</t>
-  </si>
-  <si>
     <t>短期宝20170510D02</t>
   </si>
   <si>
@@ -5141,9 +5135,6 @@
   </si>
   <si>
     <t>年省心II 1151期</t>
-  </si>
-  <si>
-    <t>月享盈-2017052902</t>
   </si>
   <si>
     <t>xybt03</t>
@@ -7657,6 +7648,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7666,17 +7660,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7691,93 +7682,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7801,6 +7705,93 @@
     <xf numFmtId="0" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7816,12 +7807,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7842,18 +7827,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7878,6 +7851,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8017,7 +8008,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>667459.72</c:v>
+                  <c:v>666624.47000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>716622.75999999943</c:v>
@@ -11588,11 +11579,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A1" s="412" t="s">
+      <c r="A1" s="411" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="412"/>
-      <c r="C1" s="412"/>
+      <c r="B1" s="411"/>
+      <c r="C1" s="411"/>
       <c r="D1" s="110">
         <f>SUM(G10:G88)-SUM(L10:L88)</f>
         <v>268</v>
@@ -11605,11 +11596,11 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A2" s="413" t="s">
+      <c r="A2" s="412" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="413"/>
-      <c r="C2" s="413"/>
+      <c r="B2" s="412"/>
+      <c r="C2" s="412"/>
       <c r="D2" s="111">
         <v>29.75</v>
       </c>
@@ -11624,11 +11615,11 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A3" s="413" t="s">
+      <c r="A3" s="412" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="413"/>
-      <c r="C3" s="413"/>
+      <c r="B3" s="412"/>
+      <c r="C3" s="412"/>
       <c r="D3" s="111">
         <f>D1*0.85</f>
         <v>227.79999999999998</v>
@@ -11644,11 +11635,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A4" s="413" t="s">
+      <c r="A4" s="412" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="413"/>
-      <c r="C4" s="413"/>
+      <c r="B4" s="412"/>
+      <c r="C4" s="412"/>
       <c r="D4" s="112">
         <f>([1]Sheet2!B64)/100</f>
         <v>6.1073000000000004</v>
@@ -11658,11 +11649,11 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="411" t="s">
+      <c r="A5" s="407" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="411"/>
-      <c r="C5" s="411"/>
+      <c r="B5" s="407"/>
+      <c r="C5" s="407"/>
       <c r="D5" s="113">
         <f>SUM(D10:D88)+SUM(H10:H88)</f>
         <v>76568.666499999992</v>
@@ -11672,11 +11663,11 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A6" s="411" t="s">
+      <c r="A6" s="407" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="411"/>
-      <c r="C6" s="411"/>
+      <c r="B6" s="407"/>
+      <c r="C6" s="407"/>
       <c r="D6" s="114">
         <f>SUM(Q10:Q88)</f>
         <v>48178.589949999994</v>
@@ -11690,11 +11681,11 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A7" s="411" t="s">
+      <c r="A7" s="407" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="411"/>
-      <c r="C7" s="411"/>
+      <c r="B7" s="407"/>
+      <c r="C7" s="407"/>
       <c r="D7" s="116">
         <f>D6-D5</f>
         <v>-28390.076549999998</v>
@@ -11773,38 +11764,38 @@
       <c r="B10" s="109">
         <v>0</v>
       </c>
-      <c r="C10" s="407">
+      <c r="C10" s="408">
         <v>68.97</v>
       </c>
-      <c r="D10" s="408">
+      <c r="D10" s="409">
         <f>IF(B15&gt;0,SUM(B10:B15)-C10,0)</f>
         <v>10580.78</v>
       </c>
-      <c r="E10" s="407">
+      <c r="E10" s="408">
         <v>6.2854999999999999</v>
       </c>
-      <c r="F10" s="407">
+      <c r="F10" s="408">
         <v>25.3</v>
       </c>
-      <c r="G10" s="409">
+      <c r="G10" s="410">
         <v>79</v>
       </c>
       <c r="H10" s="120">
         <f t="shared" ref="H10:H15" si="0">R16*0.2</f>
         <v>62.814</v>
       </c>
-      <c r="I10" s="410">
+      <c r="I10" s="413">
         <f>IF($K$28&gt;F10,G10*($K$28-F10)*0.2,0)</f>
         <v>70.309999999999988</v>
       </c>
-      <c r="J10" s="410"/>
-      <c r="K10" s="410"/>
-      <c r="L10" s="410"/>
-      <c r="M10" s="410"/>
-      <c r="N10" s="410"/>
-      <c r="O10" s="410"/>
-      <c r="P10" s="410"/>
-      <c r="Q10" s="410"/>
+      <c r="J10" s="413"/>
+      <c r="K10" s="413"/>
+      <c r="L10" s="413"/>
+      <c r="M10" s="413"/>
+      <c r="N10" s="413"/>
+      <c r="O10" s="413"/>
+      <c r="P10" s="413"/>
+      <c r="Q10" s="413"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
@@ -11813,26 +11804,26 @@
       <c r="B11" s="109">
         <v>3400.95</v>
       </c>
-      <c r="C11" s="407">
+      <c r="C11" s="408">
         <v>3400.95</v>
       </c>
-      <c r="D11" s="408"/>
-      <c r="E11" s="407"/>
-      <c r="F11" s="407"/>
-      <c r="G11" s="409"/>
+      <c r="D11" s="409"/>
+      <c r="E11" s="408"/>
+      <c r="F11" s="408"/>
+      <c r="G11" s="410"/>
       <c r="H11" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I11" s="410"/>
-      <c r="J11" s="410"/>
-      <c r="K11" s="410"/>
-      <c r="L11" s="410"/>
-      <c r="M11" s="410"/>
-      <c r="N11" s="410"/>
-      <c r="O11" s="410"/>
-      <c r="P11" s="410"/>
-      <c r="Q11" s="410"/>
+      <c r="I11" s="413"/>
+      <c r="J11" s="413"/>
+      <c r="K11" s="413"/>
+      <c r="L11" s="413"/>
+      <c r="M11" s="413"/>
+      <c r="N11" s="413"/>
+      <c r="O11" s="413"/>
+      <c r="P11" s="413"/>
+      <c r="Q11" s="413"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1">
@@ -11841,26 +11832,26 @@
       <c r="B12" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C12" s="407">
+      <c r="C12" s="408">
         <v>1706.25</v>
       </c>
-      <c r="D12" s="408"/>
-      <c r="E12" s="407"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="409"/>
+      <c r="D12" s="409"/>
+      <c r="E12" s="408"/>
+      <c r="F12" s="408"/>
+      <c r="G12" s="410"/>
       <c r="H12" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I12" s="410"/>
-      <c r="J12" s="410"/>
-      <c r="K12" s="410"/>
-      <c r="L12" s="410"/>
-      <c r="M12" s="410"/>
-      <c r="N12" s="410"/>
-      <c r="O12" s="410"/>
-      <c r="P12" s="410"/>
-      <c r="Q12" s="410"/>
+      <c r="I12" s="413"/>
+      <c r="J12" s="413"/>
+      <c r="K12" s="413"/>
+      <c r="L12" s="413"/>
+      <c r="M12" s="413"/>
+      <c r="N12" s="413"/>
+      <c r="O12" s="413"/>
+      <c r="P12" s="413"/>
+      <c r="Q12" s="413"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1">
@@ -11869,26 +11860,26 @@
       <c r="B13" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C13" s="407">
+      <c r="C13" s="408">
         <v>1706.25</v>
       </c>
-      <c r="D13" s="408"/>
-      <c r="E13" s="407"/>
-      <c r="F13" s="407"/>
-      <c r="G13" s="409"/>
+      <c r="D13" s="409"/>
+      <c r="E13" s="408"/>
+      <c r="F13" s="408"/>
+      <c r="G13" s="410"/>
       <c r="H13" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I13" s="410"/>
-      <c r="J13" s="410"/>
-      <c r="K13" s="410"/>
-      <c r="L13" s="410"/>
-      <c r="M13" s="410"/>
-      <c r="N13" s="410"/>
-      <c r="O13" s="410"/>
-      <c r="P13" s="410"/>
-      <c r="Q13" s="410"/>
+      <c r="I13" s="413"/>
+      <c r="J13" s="413"/>
+      <c r="K13" s="413"/>
+      <c r="L13" s="413"/>
+      <c r="M13" s="413"/>
+      <c r="N13" s="413"/>
+      <c r="O13" s="413"/>
+      <c r="P13" s="413"/>
+      <c r="Q13" s="413"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1">
@@ -11897,26 +11888,26 @@
       <c r="B14" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C14" s="407">
+      <c r="C14" s="408">
         <v>1918.15</v>
       </c>
-      <c r="D14" s="408"/>
-      <c r="E14" s="407"/>
-      <c r="F14" s="407"/>
-      <c r="G14" s="409"/>
+      <c r="D14" s="409"/>
+      <c r="E14" s="408"/>
+      <c r="F14" s="408"/>
+      <c r="G14" s="410"/>
       <c r="H14" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I14" s="410"/>
-      <c r="J14" s="410"/>
-      <c r="K14" s="410"/>
-      <c r="L14" s="410"/>
-      <c r="M14" s="410"/>
-      <c r="N14" s="410"/>
-      <c r="O14" s="410"/>
-      <c r="P14" s="410"/>
-      <c r="Q14" s="410"/>
+      <c r="I14" s="413"/>
+      <c r="J14" s="413"/>
+      <c r="K14" s="413"/>
+      <c r="L14" s="413"/>
+      <c r="M14" s="413"/>
+      <c r="N14" s="413"/>
+      <c r="O14" s="413"/>
+      <c r="P14" s="413"/>
+      <c r="Q14" s="413"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1">
@@ -11925,26 +11916,26 @@
       <c r="B15" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C15" s="407">
+      <c r="C15" s="408">
         <v>1918.15</v>
       </c>
-      <c r="D15" s="408"/>
-      <c r="E15" s="407"/>
-      <c r="F15" s="407"/>
-      <c r="G15" s="409"/>
+      <c r="D15" s="409"/>
+      <c r="E15" s="408"/>
+      <c r="F15" s="408"/>
+      <c r="G15" s="410"/>
       <c r="H15" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I15" s="410"/>
-      <c r="J15" s="410"/>
-      <c r="K15" s="410"/>
-      <c r="L15" s="410"/>
-      <c r="M15" s="410"/>
-      <c r="N15" s="410"/>
-      <c r="O15" s="410"/>
-      <c r="P15" s="410"/>
-      <c r="Q15" s="410"/>
+      <c r="I15" s="413"/>
+      <c r="J15" s="413"/>
+      <c r="K15" s="413"/>
+      <c r="L15" s="413"/>
+      <c r="M15" s="413"/>
+      <c r="N15" s="413"/>
+      <c r="O15" s="413"/>
+      <c r="P15" s="413"/>
+      <c r="Q15" s="413"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1">
@@ -11953,38 +11944,38 @@
       <c r="B16" s="109">
         <v>1693.15</v>
       </c>
-      <c r="C16" s="407">
+      <c r="C16" s="408">
         <v>48.24</v>
       </c>
-      <c r="D16" s="408">
+      <c r="D16" s="409">
         <f>IF(B21&gt;0,SUM(B16:B21)-C16,0)</f>
         <v>11196.460000000001</v>
       </c>
-      <c r="E16" s="407">
+      <c r="E16" s="408">
         <v>6.1787000000000001</v>
       </c>
-      <c r="F16" s="407">
+      <c r="F16" s="408">
         <v>23.62</v>
       </c>
-      <c r="G16" s="409">
+      <c r="G16" s="410">
         <v>90</v>
       </c>
       <c r="H16" s="120">
         <f>R22*0.25</f>
         <v>81.435000000000002</v>
       </c>
-      <c r="I16" s="410">
+      <c r="I16" s="413">
         <f>IF($K$28&gt;F16,G16*($K$28-F16)*0.2,0)</f>
         <v>110.33999999999999</v>
       </c>
-      <c r="J16" s="410"/>
-      <c r="K16" s="410"/>
-      <c r="L16" s="410"/>
-      <c r="M16" s="410"/>
-      <c r="N16" s="410"/>
-      <c r="O16" s="410"/>
-      <c r="P16" s="410"/>
-      <c r="Q16" s="410"/>
+      <c r="J16" s="413"/>
+      <c r="K16" s="413"/>
+      <c r="L16" s="413"/>
+      <c r="M16" s="413"/>
+      <c r="N16" s="413"/>
+      <c r="O16" s="413"/>
+      <c r="P16" s="413"/>
+      <c r="Q16" s="413"/>
       <c r="R16" s="109">
         <v>314.07</v>
       </c>
@@ -11996,24 +11987,24 @@
       <c r="B17" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C17" s="407"/>
-      <c r="D17" s="408"/>
-      <c r="E17" s="407"/>
-      <c r="F17" s="407"/>
-      <c r="G17" s="409"/>
+      <c r="C17" s="408"/>
+      <c r="D17" s="409"/>
+      <c r="E17" s="408"/>
+      <c r="F17" s="408"/>
+      <c r="G17" s="410"/>
       <c r="H17" s="120">
         <f t="shared" ref="H17:H80" si="1">R23*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I17" s="410"/>
-      <c r="J17" s="410"/>
-      <c r="K17" s="410"/>
-      <c r="L17" s="410"/>
-      <c r="M17" s="410"/>
-      <c r="N17" s="410"/>
-      <c r="O17" s="410"/>
-      <c r="P17" s="410"/>
-      <c r="Q17" s="410"/>
+      <c r="I17" s="413"/>
+      <c r="J17" s="413"/>
+      <c r="K17" s="413"/>
+      <c r="L17" s="413"/>
+      <c r="M17" s="413"/>
+      <c r="N17" s="413"/>
+      <c r="O17" s="413"/>
+      <c r="P17" s="413"/>
+      <c r="Q17" s="413"/>
       <c r="R17" s="109">
         <f>R16</f>
         <v>314.07</v>
@@ -12026,24 +12017,24 @@
       <c r="B18" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C18" s="407"/>
-      <c r="D18" s="408"/>
-      <c r="E18" s="407"/>
-      <c r="F18" s="407"/>
-      <c r="G18" s="409"/>
+      <c r="C18" s="408"/>
+      <c r="D18" s="409"/>
+      <c r="E18" s="408"/>
+      <c r="F18" s="408"/>
+      <c r="G18" s="410"/>
       <c r="H18" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I18" s="410"/>
-      <c r="J18" s="410"/>
-      <c r="K18" s="410"/>
-      <c r="L18" s="410"/>
-      <c r="M18" s="410"/>
-      <c r="N18" s="410"/>
-      <c r="O18" s="410"/>
-      <c r="P18" s="410"/>
-      <c r="Q18" s="410"/>
+      <c r="I18" s="413"/>
+      <c r="J18" s="413"/>
+      <c r="K18" s="413"/>
+      <c r="L18" s="413"/>
+      <c r="M18" s="413"/>
+      <c r="N18" s="413"/>
+      <c r="O18" s="413"/>
+      <c r="P18" s="413"/>
+      <c r="Q18" s="413"/>
       <c r="R18" s="109">
         <f t="shared" ref="R18:R32" si="2">R17</f>
         <v>314.07</v>
@@ -12056,24 +12047,24 @@
       <c r="B19" s="121">
         <v>2196.35</v>
       </c>
-      <c r="C19" s="407"/>
-      <c r="D19" s="408"/>
-      <c r="E19" s="407"/>
-      <c r="F19" s="407"/>
-      <c r="G19" s="409"/>
+      <c r="C19" s="408"/>
+      <c r="D19" s="409"/>
+      <c r="E19" s="408"/>
+      <c r="F19" s="408"/>
+      <c r="G19" s="410"/>
       <c r="H19" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I19" s="410"/>
-      <c r="J19" s="410"/>
-      <c r="K19" s="410"/>
-      <c r="L19" s="410"/>
-      <c r="M19" s="410"/>
-      <c r="N19" s="410"/>
-      <c r="O19" s="410"/>
-      <c r="P19" s="410"/>
-      <c r="Q19" s="410"/>
+      <c r="I19" s="413"/>
+      <c r="J19" s="413"/>
+      <c r="K19" s="413"/>
+      <c r="L19" s="413"/>
+      <c r="M19" s="413"/>
+      <c r="N19" s="413"/>
+      <c r="O19" s="413"/>
+      <c r="P19" s="413"/>
+      <c r="Q19" s="413"/>
       <c r="R19" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12086,24 +12077,24 @@
       <c r="B20" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C20" s="407"/>
-      <c r="D20" s="408"/>
-      <c r="E20" s="407"/>
-      <c r="F20" s="407"/>
-      <c r="G20" s="409"/>
+      <c r="C20" s="408"/>
+      <c r="D20" s="409"/>
+      <c r="E20" s="408"/>
+      <c r="F20" s="408"/>
+      <c r="G20" s="410"/>
       <c r="H20" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I20" s="410"/>
-      <c r="J20" s="410"/>
-      <c r="K20" s="410"/>
-      <c r="L20" s="410"/>
-      <c r="M20" s="410"/>
-      <c r="N20" s="410"/>
-      <c r="O20" s="410"/>
-      <c r="P20" s="410"/>
-      <c r="Q20" s="410"/>
+      <c r="I20" s="413"/>
+      <c r="J20" s="413"/>
+      <c r="K20" s="413"/>
+      <c r="L20" s="413"/>
+      <c r="M20" s="413"/>
+      <c r="N20" s="413"/>
+      <c r="O20" s="413"/>
+      <c r="P20" s="413"/>
+      <c r="Q20" s="413"/>
       <c r="R20" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12116,24 +12107,24 @@
       <c r="B21" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C21" s="407"/>
-      <c r="D21" s="408"/>
-      <c r="E21" s="407"/>
-      <c r="F21" s="407"/>
-      <c r="G21" s="409"/>
+      <c r="C21" s="408"/>
+      <c r="D21" s="409"/>
+      <c r="E21" s="408"/>
+      <c r="F21" s="408"/>
+      <c r="G21" s="410"/>
       <c r="H21" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I21" s="410"/>
-      <c r="J21" s="410"/>
-      <c r="K21" s="410"/>
-      <c r="L21" s="410"/>
-      <c r="M21" s="410"/>
-      <c r="N21" s="410"/>
-      <c r="O21" s="410"/>
-      <c r="P21" s="410"/>
-      <c r="Q21" s="410"/>
+      <c r="I21" s="413"/>
+      <c r="J21" s="413"/>
+      <c r="K21" s="413"/>
+      <c r="L21" s="413"/>
+      <c r="M21" s="413"/>
+      <c r="N21" s="413"/>
+      <c r="O21" s="413"/>
+      <c r="P21" s="413"/>
+      <c r="Q21" s="413"/>
       <c r="R21" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12146,38 +12137,38 @@
       <c r="B22" s="121">
         <v>1958.23</v>
       </c>
-      <c r="C22" s="407">
+      <c r="C22" s="408">
         <v>34.549999999999997</v>
       </c>
-      <c r="D22" s="408">
+      <c r="D22" s="409">
         <f>IF(B27&gt;0,SUM(B22:B27)-C22,0)</f>
         <v>11771.410000000002</v>
       </c>
-      <c r="E22" s="407">
+      <c r="E22" s="408">
         <v>6.1050000000000004</v>
       </c>
-      <c r="F22" s="407">
+      <c r="F22" s="408">
         <v>24.24</v>
       </c>
-      <c r="G22" s="409">
+      <c r="G22" s="410">
         <v>109</v>
       </c>
       <c r="H22" s="120">
         <f>R28*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I22" s="410">
+      <c r="I22" s="413">
         <f>IF($K$28&gt;F22,G22*($K$28-F22)*0.2,0)</f>
         <v>120.11800000000004</v>
       </c>
-      <c r="J22" s="410"/>
-      <c r="K22" s="410"/>
-      <c r="L22" s="410"/>
-      <c r="M22" s="410"/>
-      <c r="N22" s="410"/>
-      <c r="O22" s="410"/>
-      <c r="P22" s="410"/>
-      <c r="Q22" s="410"/>
+      <c r="J22" s="413"/>
+      <c r="K22" s="413"/>
+      <c r="L22" s="413"/>
+      <c r="M22" s="413"/>
+      <c r="N22" s="413"/>
+      <c r="O22" s="413"/>
+      <c r="P22" s="413"/>
+      <c r="Q22" s="413"/>
       <c r="R22" s="109">
         <v>325.74</v>
       </c>
@@ -12189,24 +12180,24 @@
       <c r="B23" s="121">
         <v>1958.24</v>
       </c>
-      <c r="C23" s="407"/>
-      <c r="D23" s="408"/>
-      <c r="E23" s="407"/>
-      <c r="F23" s="407"/>
-      <c r="G23" s="409"/>
+      <c r="C23" s="408"/>
+      <c r="D23" s="409"/>
+      <c r="E23" s="408"/>
+      <c r="F23" s="408"/>
+      <c r="G23" s="410"/>
       <c r="H23" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I23" s="410"/>
-      <c r="J23" s="410"/>
-      <c r="K23" s="410"/>
-      <c r="L23" s="410"/>
-      <c r="M23" s="410"/>
-      <c r="N23" s="410"/>
-      <c r="O23" s="410"/>
-      <c r="P23" s="410"/>
-      <c r="Q23" s="410"/>
+      <c r="I23" s="413"/>
+      <c r="J23" s="413"/>
+      <c r="K23" s="413"/>
+      <c r="L23" s="413"/>
+      <c r="M23" s="413"/>
+      <c r="N23" s="413"/>
+      <c r="O23" s="413"/>
+      <c r="P23" s="413"/>
+      <c r="Q23" s="413"/>
       <c r="R23" s="109">
         <v>271.45</v>
       </c>
@@ -12218,24 +12209,24 @@
       <c r="B24" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C24" s="407"/>
-      <c r="D24" s="408"/>
-      <c r="E24" s="407"/>
-      <c r="F24" s="407"/>
-      <c r="G24" s="409"/>
+      <c r="C24" s="408"/>
+      <c r="D24" s="409"/>
+      <c r="E24" s="408"/>
+      <c r="F24" s="408"/>
+      <c r="G24" s="410"/>
       <c r="H24" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I24" s="410"/>
-      <c r="J24" s="410"/>
-      <c r="K24" s="410"/>
-      <c r="L24" s="410"/>
-      <c r="M24" s="410"/>
-      <c r="N24" s="410"/>
-      <c r="O24" s="410"/>
-      <c r="P24" s="410"/>
-      <c r="Q24" s="410"/>
+      <c r="I24" s="413"/>
+      <c r="J24" s="413"/>
+      <c r="K24" s="413"/>
+      <c r="L24" s="413"/>
+      <c r="M24" s="413"/>
+      <c r="N24" s="413"/>
+      <c r="O24" s="413"/>
+      <c r="P24" s="413"/>
+      <c r="Q24" s="413"/>
       <c r="R24" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12248,24 +12239,24 @@
       <c r="B25" s="121">
         <v>1958.26</v>
       </c>
-      <c r="C25" s="407"/>
-      <c r="D25" s="408"/>
-      <c r="E25" s="407"/>
-      <c r="F25" s="407"/>
-      <c r="G25" s="409"/>
+      <c r="C25" s="408"/>
+      <c r="D25" s="409"/>
+      <c r="E25" s="408"/>
+      <c r="F25" s="408"/>
+      <c r="G25" s="410"/>
       <c r="H25" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I25" s="410"/>
-      <c r="J25" s="410"/>
-      <c r="K25" s="410"/>
-      <c r="L25" s="410"/>
-      <c r="M25" s="410"/>
-      <c r="N25" s="410"/>
-      <c r="O25" s="410"/>
-      <c r="P25" s="410"/>
-      <c r="Q25" s="410"/>
+      <c r="I25" s="413"/>
+      <c r="J25" s="413"/>
+      <c r="K25" s="413"/>
+      <c r="L25" s="413"/>
+      <c r="M25" s="413"/>
+      <c r="N25" s="413"/>
+      <c r="O25" s="413"/>
+      <c r="P25" s="413"/>
+      <c r="Q25" s="413"/>
       <c r="R25" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12278,24 +12269,24 @@
       <c r="B26" s="121">
         <v>2031.49</v>
       </c>
-      <c r="C26" s="407"/>
-      <c r="D26" s="408"/>
-      <c r="E26" s="407"/>
-      <c r="F26" s="407"/>
-      <c r="G26" s="409"/>
+      <c r="C26" s="408"/>
+      <c r="D26" s="409"/>
+      <c r="E26" s="408"/>
+      <c r="F26" s="408"/>
+      <c r="G26" s="410"/>
       <c r="H26" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I26" s="410"/>
-      <c r="J26" s="410"/>
-      <c r="K26" s="410"/>
-      <c r="L26" s="410"/>
-      <c r="M26" s="410"/>
-      <c r="N26" s="410"/>
-      <c r="O26" s="410"/>
-      <c r="P26" s="410"/>
-      <c r="Q26" s="410"/>
+      <c r="I26" s="413"/>
+      <c r="J26" s="413"/>
+      <c r="K26" s="413"/>
+      <c r="L26" s="413"/>
+      <c r="M26" s="413"/>
+      <c r="N26" s="413"/>
+      <c r="O26" s="413"/>
+      <c r="P26" s="413"/>
+      <c r="Q26" s="413"/>
       <c r="R26" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12308,24 +12299,24 @@
       <c r="B27" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C27" s="407"/>
-      <c r="D27" s="408"/>
-      <c r="E27" s="407"/>
-      <c r="F27" s="407"/>
-      <c r="G27" s="409"/>
+      <c r="C27" s="408"/>
+      <c r="D27" s="409"/>
+      <c r="E27" s="408"/>
+      <c r="F27" s="408"/>
+      <c r="G27" s="410"/>
       <c r="H27" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I27" s="410"/>
-      <c r="J27" s="410"/>
-      <c r="K27" s="410"/>
-      <c r="L27" s="410"/>
-      <c r="M27" s="410"/>
-      <c r="N27" s="410"/>
-      <c r="O27" s="410"/>
-      <c r="P27" s="410"/>
-      <c r="Q27" s="410"/>
+      <c r="I27" s="413"/>
+      <c r="J27" s="413"/>
+      <c r="K27" s="413"/>
+      <c r="L27" s="413"/>
+      <c r="M27" s="413"/>
+      <c r="N27" s="413"/>
+      <c r="O27" s="413"/>
+      <c r="P27" s="413"/>
+      <c r="Q27" s="413"/>
       <c r="R27" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12338,54 +12329,54 @@
       <c r="B28" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C28" s="407">
+      <c r="C28" s="408">
         <v>22.25</v>
       </c>
-      <c r="D28" s="408">
+      <c r="D28" s="409">
         <f>IF(G28&gt;0,SUM(B28:B34)-C28,0)</f>
         <v>14106.8</v>
       </c>
-      <c r="E28" s="407">
+      <c r="E28" s="408">
         <v>6.1675000000000004</v>
       </c>
-      <c r="F28" s="407">
+      <c r="F28" s="408">
         <v>29.3</v>
       </c>
-      <c r="G28" s="409">
+      <c r="G28" s="410">
         <v>79</v>
       </c>
       <c r="H28" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I28" s="410">
+      <c r="I28" s="413">
         <f>IF($D$2&gt;F28,G28*($D$2-F28)*0.2,0)</f>
         <v>7.1099999999999888</v>
       </c>
-      <c r="J28" s="410">
+      <c r="J28" s="413">
         <f>SUM(I10:I27)</f>
         <v>300.76800000000003</v>
       </c>
-      <c r="K28" s="410">
+      <c r="K28" s="413">
         <v>29.75</v>
       </c>
-      <c r="L28" s="410">
+      <c r="L28" s="413">
         <v>278</v>
       </c>
-      <c r="M28" s="410">
+      <c r="M28" s="413">
         <f>IF(IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005)&gt;25,IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005),25)</f>
         <v>41.352499999999999</v>
       </c>
-      <c r="N28" s="410">
+      <c r="N28" s="413">
         <v>5.25</v>
       </c>
-      <c r="O28" s="410">
-        <v>0</v>
-      </c>
-      <c r="P28" s="410">
+      <c r="O28" s="413">
+        <v>0</v>
+      </c>
+      <c r="P28" s="413">
         <v>25</v>
       </c>
-      <c r="Q28" s="410">
+      <c r="Q28" s="413">
         <f>(K28*L28-J28-M28-N28-O28-P28)*S34</f>
         <v>48178.589949999994</v>
       </c>
@@ -12401,24 +12392,24 @@
       <c r="B29" s="121">
         <v>2445.75</v>
       </c>
-      <c r="C29" s="407"/>
-      <c r="D29" s="408"/>
-      <c r="E29" s="407"/>
-      <c r="F29" s="407"/>
-      <c r="G29" s="409"/>
+      <c r="C29" s="408"/>
+      <c r="D29" s="409"/>
+      <c r="E29" s="408"/>
+      <c r="F29" s="408"/>
+      <c r="G29" s="410"/>
       <c r="H29" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I29" s="410"/>
-      <c r="J29" s="410"/>
-      <c r="K29" s="410"/>
-      <c r="L29" s="410"/>
-      <c r="M29" s="410"/>
-      <c r="N29" s="410"/>
-      <c r="O29" s="410"/>
-      <c r="P29" s="410"/>
-      <c r="Q29" s="410"/>
+      <c r="I29" s="413"/>
+      <c r="J29" s="413"/>
+      <c r="K29" s="413"/>
+      <c r="L29" s="413"/>
+      <c r="M29" s="413"/>
+      <c r="N29" s="413"/>
+      <c r="O29" s="413"/>
+      <c r="P29" s="413"/>
+      <c r="Q29" s="413"/>
       <c r="R29" s="109">
         <v>400.35</v>
       </c>
@@ -12430,24 +12421,24 @@
       <c r="B30" s="121">
         <v>1917.03</v>
       </c>
-      <c r="C30" s="407"/>
-      <c r="D30" s="408"/>
-      <c r="E30" s="407"/>
-      <c r="F30" s="407"/>
-      <c r="G30" s="409"/>
+      <c r="C30" s="408"/>
+      <c r="D30" s="409"/>
+      <c r="E30" s="408"/>
+      <c r="F30" s="408"/>
+      <c r="G30" s="410"/>
       <c r="H30" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I30" s="410"/>
-      <c r="J30" s="410"/>
-      <c r="K30" s="410"/>
-      <c r="L30" s="410"/>
-      <c r="M30" s="410"/>
-      <c r="N30" s="410"/>
-      <c r="O30" s="410"/>
-      <c r="P30" s="410"/>
-      <c r="Q30" s="410"/>
+      <c r="I30" s="413"/>
+      <c r="J30" s="413"/>
+      <c r="K30" s="413"/>
+      <c r="L30" s="413"/>
+      <c r="M30" s="413"/>
+      <c r="N30" s="413"/>
+      <c r="O30" s="413"/>
+      <c r="P30" s="413"/>
+      <c r="Q30" s="413"/>
       <c r="R30" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12460,24 +12451,24 @@
       <c r="B31" s="121">
         <v>1827.02</v>
       </c>
-      <c r="C31" s="407"/>
-      <c r="D31" s="408"/>
-      <c r="E31" s="407"/>
-      <c r="F31" s="407"/>
-      <c r="G31" s="409"/>
+      <c r="C31" s="408"/>
+      <c r="D31" s="409"/>
+      <c r="E31" s="408"/>
+      <c r="F31" s="408"/>
+      <c r="G31" s="410"/>
       <c r="H31" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I31" s="410"/>
-      <c r="J31" s="410"/>
-      <c r="K31" s="410"/>
-      <c r="L31" s="410"/>
-      <c r="M31" s="410"/>
-      <c r="N31" s="410"/>
-      <c r="O31" s="410"/>
-      <c r="P31" s="410"/>
-      <c r="Q31" s="410"/>
+      <c r="I31" s="413"/>
+      <c r="J31" s="413"/>
+      <c r="K31" s="413"/>
+      <c r="L31" s="413"/>
+      <c r="M31" s="413"/>
+      <c r="N31" s="413"/>
+      <c r="O31" s="413"/>
+      <c r="P31" s="413"/>
+      <c r="Q31" s="413"/>
       <c r="R31" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12490,24 +12481,24 @@
       <c r="B32" s="121">
         <v>1958.22</v>
       </c>
-      <c r="C32" s="407"/>
-      <c r="D32" s="408"/>
-      <c r="E32" s="407"/>
-      <c r="F32" s="407"/>
-      <c r="G32" s="409"/>
+      <c r="C32" s="408"/>
+      <c r="D32" s="409"/>
+      <c r="E32" s="408"/>
+      <c r="F32" s="408"/>
+      <c r="G32" s="410"/>
       <c r="H32" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I32" s="410"/>
-      <c r="J32" s="410"/>
-      <c r="K32" s="410"/>
-      <c r="L32" s="410"/>
-      <c r="M32" s="410"/>
-      <c r="N32" s="410"/>
-      <c r="O32" s="410"/>
-      <c r="P32" s="410"/>
-      <c r="Q32" s="410"/>
+      <c r="I32" s="413"/>
+      <c r="J32" s="413"/>
+      <c r="K32" s="413"/>
+      <c r="L32" s="413"/>
+      <c r="M32" s="413"/>
+      <c r="N32" s="413"/>
+      <c r="O32" s="413"/>
+      <c r="P32" s="413"/>
+      <c r="Q32" s="413"/>
       <c r="R32" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12520,24 +12511,24 @@
       <c r="B33" s="121">
         <v>1958.28</v>
       </c>
-      <c r="C33" s="407"/>
-      <c r="D33" s="408"/>
-      <c r="E33" s="407"/>
-      <c r="F33" s="407"/>
-      <c r="G33" s="409"/>
+      <c r="C33" s="408"/>
+      <c r="D33" s="409"/>
+      <c r="E33" s="408"/>
+      <c r="F33" s="408"/>
+      <c r="G33" s="410"/>
       <c r="H33" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I33" s="410"/>
-      <c r="J33" s="410"/>
-      <c r="K33" s="410"/>
-      <c r="L33" s="410"/>
-      <c r="M33" s="410"/>
-      <c r="N33" s="410"/>
-      <c r="O33" s="410"/>
-      <c r="P33" s="410"/>
-      <c r="Q33" s="410"/>
+      <c r="I33" s="413"/>
+      <c r="J33" s="413"/>
+      <c r="K33" s="413"/>
+      <c r="L33" s="413"/>
+      <c r="M33" s="413"/>
+      <c r="N33" s="413"/>
+      <c r="O33" s="413"/>
+      <c r="P33" s="413"/>
+      <c r="Q33" s="413"/>
       <c r="R33" s="109">
         <f>R30</f>
         <v>400.35</v>
@@ -12550,24 +12541,24 @@
       <c r="B34" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C34" s="407"/>
-      <c r="D34" s="408"/>
-      <c r="E34" s="407"/>
-      <c r="F34" s="407"/>
-      <c r="G34" s="409"/>
+      <c r="C34" s="408"/>
+      <c r="D34" s="409"/>
+      <c r="E34" s="408"/>
+      <c r="F34" s="408"/>
+      <c r="G34" s="410"/>
       <c r="H34" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I34" s="410"/>
-      <c r="J34" s="410"/>
-      <c r="K34" s="410"/>
-      <c r="L34" s="410"/>
-      <c r="M34" s="410"/>
-      <c r="N34" s="410"/>
-      <c r="O34" s="410"/>
-      <c r="P34" s="410"/>
-      <c r="Q34" s="410"/>
+      <c r="I34" s="413"/>
+      <c r="J34" s="413"/>
+      <c r="K34" s="413"/>
+      <c r="L34" s="413"/>
+      <c r="M34" s="413"/>
+      <c r="N34" s="413"/>
+      <c r="O34" s="413"/>
+      <c r="P34" s="413"/>
+      <c r="Q34" s="413"/>
       <c r="R34" s="109">
         <f>R32</f>
         <v>400.35</v>
@@ -12583,38 +12574,38 @@
       <c r="B35" s="121">
         <v>2171.2600000000002</v>
       </c>
-      <c r="C35" s="407">
+      <c r="C35" s="408">
         <v>30.19</v>
       </c>
-      <c r="D35" s="408">
+      <c r="D35" s="409">
         <f>IF(B40&gt;0,SUM(B35:B40)-C35,0)</f>
         <v>13016.160000000002</v>
       </c>
-      <c r="E35" s="407">
+      <c r="E35" s="408">
         <v>6.1369999999999996</v>
       </c>
-      <c r="F35" s="407">
+      <c r="F35" s="408">
         <v>25.93</v>
       </c>
-      <c r="G35" s="409">
+      <c r="G35" s="410">
         <v>96</v>
       </c>
       <c r="H35" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I35" s="410">
+      <c r="I35" s="413">
         <f>IF($D$2&gt;F35,G35*($D$2-F35)*0.2,0)</f>
         <v>73.344000000000008</v>
       </c>
-      <c r="J35" s="410"/>
-      <c r="K35" s="410"/>
-      <c r="L35" s="410"/>
-      <c r="M35" s="410"/>
-      <c r="N35" s="410"/>
-      <c r="O35" s="410"/>
-      <c r="P35" s="410"/>
-      <c r="Q35" s="410"/>
+      <c r="J35" s="413"/>
+      <c r="K35" s="413"/>
+      <c r="L35" s="413"/>
+      <c r="M35" s="413"/>
+      <c r="N35" s="413"/>
+      <c r="O35" s="413"/>
+      <c r="P35" s="413"/>
+      <c r="Q35" s="413"/>
       <c r="R35" s="109">
         <v>358.55</v>
       </c>
@@ -12626,24 +12617,24 @@
       <c r="B36" s="121">
         <v>2081.27</v>
       </c>
-      <c r="C36" s="407"/>
-      <c r="D36" s="408"/>
-      <c r="E36" s="407"/>
-      <c r="F36" s="407"/>
-      <c r="G36" s="409"/>
+      <c r="C36" s="408"/>
+      <c r="D36" s="409"/>
+      <c r="E36" s="408"/>
+      <c r="F36" s="408"/>
+      <c r="G36" s="410"/>
       <c r="H36" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I36" s="410"/>
-      <c r="J36" s="410"/>
-      <c r="K36" s="410"/>
-      <c r="L36" s="410"/>
-      <c r="M36" s="410"/>
-      <c r="N36" s="410"/>
-      <c r="O36" s="410"/>
-      <c r="P36" s="410"/>
-      <c r="Q36" s="410"/>
+      <c r="I36" s="413"/>
+      <c r="J36" s="413"/>
+      <c r="K36" s="413"/>
+      <c r="L36" s="413"/>
+      <c r="M36" s="413"/>
+      <c r="N36" s="413"/>
+      <c r="O36" s="413"/>
+      <c r="P36" s="413"/>
+      <c r="Q36" s="413"/>
       <c r="R36" s="109">
         <v>358.55</v>
       </c>
@@ -12655,24 +12646,24 @@
       <c r="B37" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C37" s="407"/>
-      <c r="D37" s="408"/>
-      <c r="E37" s="407"/>
-      <c r="F37" s="407"/>
-      <c r="G37" s="409"/>
+      <c r="C37" s="408"/>
+      <c r="D37" s="409"/>
+      <c r="E37" s="408"/>
+      <c r="F37" s="408"/>
+      <c r="G37" s="410"/>
       <c r="H37" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I37" s="410"/>
-      <c r="J37" s="410"/>
-      <c r="K37" s="410"/>
-      <c r="L37" s="410"/>
-      <c r="M37" s="410"/>
-      <c r="N37" s="410"/>
-      <c r="O37" s="410"/>
-      <c r="P37" s="410"/>
-      <c r="Q37" s="410"/>
+      <c r="I37" s="413"/>
+      <c r="J37" s="413"/>
+      <c r="K37" s="413"/>
+      <c r="L37" s="413"/>
+      <c r="M37" s="413"/>
+      <c r="N37" s="413"/>
+      <c r="O37" s="413"/>
+      <c r="P37" s="413"/>
+      <c r="Q37" s="413"/>
       <c r="R37" s="109">
         <v>358.55</v>
       </c>
@@ -12684,24 +12675,24 @@
       <c r="B38" s="121">
         <v>2537.5100000000002</v>
       </c>
-      <c r="C38" s="407"/>
-      <c r="D38" s="408"/>
-      <c r="E38" s="407"/>
-      <c r="F38" s="407"/>
-      <c r="G38" s="409"/>
+      <c r="C38" s="408"/>
+      <c r="D38" s="409"/>
+      <c r="E38" s="408"/>
+      <c r="F38" s="408"/>
+      <c r="G38" s="410"/>
       <c r="H38" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I38" s="410"/>
-      <c r="J38" s="410"/>
-      <c r="K38" s="410"/>
-      <c r="L38" s="410"/>
-      <c r="M38" s="410"/>
-      <c r="N38" s="410"/>
-      <c r="O38" s="410"/>
-      <c r="P38" s="410"/>
-      <c r="Q38" s="410"/>
+      <c r="I38" s="413"/>
+      <c r="J38" s="413"/>
+      <c r="K38" s="413"/>
+      <c r="L38" s="413"/>
+      <c r="M38" s="413"/>
+      <c r="N38" s="413"/>
+      <c r="O38" s="413"/>
+      <c r="P38" s="413"/>
+      <c r="Q38" s="413"/>
       <c r="R38" s="109">
         <v>358.55</v>
       </c>
@@ -12713,24 +12704,24 @@
       <c r="B39" s="121">
         <v>2087.52</v>
       </c>
-      <c r="C39" s="407"/>
-      <c r="D39" s="408"/>
-      <c r="E39" s="407"/>
-      <c r="F39" s="407"/>
-      <c r="G39" s="409"/>
+      <c r="C39" s="408"/>
+      <c r="D39" s="409"/>
+      <c r="E39" s="408"/>
+      <c r="F39" s="408"/>
+      <c r="G39" s="410"/>
       <c r="H39" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I39" s="410"/>
-      <c r="J39" s="410"/>
-      <c r="K39" s="410"/>
-      <c r="L39" s="410"/>
-      <c r="M39" s="410"/>
-      <c r="N39" s="410"/>
-      <c r="O39" s="410"/>
-      <c r="P39" s="410"/>
-      <c r="Q39" s="410"/>
+      <c r="I39" s="413"/>
+      <c r="J39" s="413"/>
+      <c r="K39" s="413"/>
+      <c r="L39" s="413"/>
+      <c r="M39" s="413"/>
+      <c r="N39" s="413"/>
+      <c r="O39" s="413"/>
+      <c r="P39" s="413"/>
+      <c r="Q39" s="413"/>
       <c r="R39" s="109">
         <v>358.55</v>
       </c>
@@ -12742,24 +12733,24 @@
       <c r="B40" s="121">
         <v>2087.5300000000002</v>
       </c>
-      <c r="C40" s="407"/>
-      <c r="D40" s="408"/>
-      <c r="E40" s="407"/>
-      <c r="F40" s="407"/>
-      <c r="G40" s="409"/>
+      <c r="C40" s="408"/>
+      <c r="D40" s="409"/>
+      <c r="E40" s="408"/>
+      <c r="F40" s="408"/>
+      <c r="G40" s="410"/>
       <c r="H40" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I40" s="410"/>
-      <c r="J40" s="410"/>
-      <c r="K40" s="410"/>
-      <c r="L40" s="410"/>
-      <c r="M40" s="410"/>
-      <c r="N40" s="410"/>
-      <c r="O40" s="410"/>
-      <c r="P40" s="410"/>
-      <c r="Q40" s="410"/>
+      <c r="I40" s="413"/>
+      <c r="J40" s="413"/>
+      <c r="K40" s="413"/>
+      <c r="L40" s="413"/>
+      <c r="M40" s="413"/>
+      <c r="N40" s="413"/>
+      <c r="O40" s="413"/>
+      <c r="P40" s="413"/>
+      <c r="Q40" s="413"/>
       <c r="R40" s="109">
         <v>358.55</v>
       </c>
@@ -12771,38 +12762,38 @@
       <c r="B41" s="121">
         <v>2362.48</v>
       </c>
-      <c r="C41" s="407">
+      <c r="C41" s="408">
         <v>52.72</v>
       </c>
-      <c r="D41" s="408">
+      <c r="D41" s="409">
         <f>IF(B46&gt;0,SUM(B41:B46)-C41,0)</f>
         <v>13224.73</v>
       </c>
-      <c r="E41" s="407">
+      <c r="E41" s="408">
         <v>6.2213000000000003</v>
       </c>
-      <c r="F41" s="407">
+      <c r="F41" s="408">
         <v>26.89</v>
       </c>
-      <c r="G41" s="409">
+      <c r="G41" s="410">
         <v>93</v>
       </c>
       <c r="H41" s="120">
         <f t="shared" si="1"/>
         <v>95.527500000000003</v>
       </c>
-      <c r="I41" s="410">
+      <c r="I41" s="413">
         <f>IF($D$2&gt;F41,G41*($D$2-F41)*0.2,0)</f>
         <v>53.195999999999998</v>
       </c>
-      <c r="J41" s="410"/>
-      <c r="K41" s="410"/>
-      <c r="L41" s="410"/>
-      <c r="M41" s="410"/>
-      <c r="N41" s="410"/>
-      <c r="O41" s="410"/>
-      <c r="P41" s="410"/>
-      <c r="Q41" s="410"/>
+      <c r="J41" s="413"/>
+      <c r="K41" s="413"/>
+      <c r="L41" s="413"/>
+      <c r="M41" s="413"/>
+      <c r="N41" s="413"/>
+      <c r="O41" s="413"/>
+      <c r="P41" s="413"/>
+      <c r="Q41" s="413"/>
       <c r="R41" s="109">
         <v>381.97</v>
       </c>
@@ -12814,24 +12805,24 @@
       <c r="B42" s="121">
         <v>2174.98</v>
       </c>
-      <c r="C42" s="407"/>
-      <c r="D42" s="408"/>
-      <c r="E42" s="407"/>
-      <c r="F42" s="407"/>
-      <c r="G42" s="409"/>
+      <c r="C42" s="408"/>
+      <c r="D42" s="409"/>
+      <c r="E42" s="408"/>
+      <c r="F42" s="408"/>
+      <c r="G42" s="410"/>
       <c r="H42" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="410"/>
-      <c r="J42" s="410"/>
-      <c r="K42" s="410"/>
-      <c r="L42" s="410"/>
-      <c r="M42" s="410"/>
-      <c r="N42" s="410"/>
-      <c r="O42" s="410"/>
-      <c r="P42" s="410"/>
-      <c r="Q42" s="410"/>
+      <c r="I42" s="413"/>
+      <c r="J42" s="413"/>
+      <c r="K42" s="413"/>
+      <c r="L42" s="413"/>
+      <c r="M42" s="413"/>
+      <c r="N42" s="413"/>
+      <c r="O42" s="413"/>
+      <c r="P42" s="413"/>
+      <c r="Q42" s="413"/>
       <c r="R42" s="109">
         <v>381.97</v>
       </c>
@@ -12843,24 +12834,24 @@
       <c r="B43" s="121">
         <v>2265</v>
       </c>
-      <c r="C43" s="407"/>
-      <c r="D43" s="408"/>
-      <c r="E43" s="407"/>
-      <c r="F43" s="407"/>
-      <c r="G43" s="409"/>
+      <c r="C43" s="408"/>
+      <c r="D43" s="409"/>
+      <c r="E43" s="408"/>
+      <c r="F43" s="408"/>
+      <c r="G43" s="410"/>
       <c r="H43" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I43" s="410"/>
-      <c r="J43" s="410"/>
-      <c r="K43" s="410"/>
-      <c r="L43" s="410"/>
-      <c r="M43" s="410"/>
-      <c r="N43" s="410"/>
-      <c r="O43" s="410"/>
-      <c r="P43" s="410"/>
-      <c r="Q43" s="410"/>
+      <c r="I43" s="413"/>
+      <c r="J43" s="413"/>
+      <c r="K43" s="413"/>
+      <c r="L43" s="413"/>
+      <c r="M43" s="413"/>
+      <c r="N43" s="413"/>
+      <c r="O43" s="413"/>
+      <c r="P43" s="413"/>
+      <c r="Q43" s="413"/>
       <c r="R43" s="109">
         <v>381.97</v>
       </c>
@@ -12872,24 +12863,24 @@
       <c r="B44" s="121">
         <v>2087.5</v>
       </c>
-      <c r="C44" s="407"/>
-      <c r="D44" s="408"/>
-      <c r="E44" s="407"/>
-      <c r="F44" s="407"/>
-      <c r="G44" s="409"/>
+      <c r="C44" s="408"/>
+      <c r="D44" s="409"/>
+      <c r="E44" s="408"/>
+      <c r="F44" s="408"/>
+      <c r="G44" s="410"/>
       <c r="H44" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44" s="410"/>
-      <c r="J44" s="410"/>
-      <c r="K44" s="410"/>
-      <c r="L44" s="410"/>
-      <c r="M44" s="410"/>
-      <c r="N44" s="410"/>
-      <c r="O44" s="410"/>
-      <c r="P44" s="410"/>
-      <c r="Q44" s="410"/>
+      <c r="I44" s="413"/>
+      <c r="J44" s="413"/>
+      <c r="K44" s="413"/>
+      <c r="L44" s="413"/>
+      <c r="M44" s="413"/>
+      <c r="N44" s="413"/>
+      <c r="O44" s="413"/>
+      <c r="P44" s="413"/>
+      <c r="Q44" s="413"/>
       <c r="R44" s="109">
         <v>381.97</v>
       </c>
@@ -12901,24 +12892,24 @@
       <c r="B45" s="121">
         <v>2087.48</v>
       </c>
-      <c r="C45" s="407"/>
-      <c r="D45" s="408"/>
-      <c r="E45" s="407"/>
-      <c r="F45" s="407"/>
-      <c r="G45" s="409"/>
+      <c r="C45" s="408"/>
+      <c r="D45" s="409"/>
+      <c r="E45" s="408"/>
+      <c r="F45" s="408"/>
+      <c r="G45" s="410"/>
       <c r="H45" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45" s="410"/>
-      <c r="J45" s="410"/>
-      <c r="K45" s="410"/>
-      <c r="L45" s="410"/>
-      <c r="M45" s="410"/>
-      <c r="N45" s="410"/>
-      <c r="O45" s="410"/>
-      <c r="P45" s="410"/>
-      <c r="Q45" s="410"/>
+      <c r="I45" s="413"/>
+      <c r="J45" s="413"/>
+      <c r="K45" s="413"/>
+      <c r="L45" s="413"/>
+      <c r="M45" s="413"/>
+      <c r="N45" s="413"/>
+      <c r="O45" s="413"/>
+      <c r="P45" s="413"/>
+      <c r="Q45" s="413"/>
       <c r="R45" s="109">
         <v>381.97</v>
       </c>
@@ -12930,24 +12921,24 @@
       <c r="B46" s="121">
         <v>2300.0100000000002</v>
       </c>
-      <c r="C46" s="407"/>
-      <c r="D46" s="408"/>
-      <c r="E46" s="407"/>
-      <c r="F46" s="407"/>
-      <c r="G46" s="409"/>
+      <c r="C46" s="408"/>
+      <c r="D46" s="409"/>
+      <c r="E46" s="408"/>
+      <c r="F46" s="408"/>
+      <c r="G46" s="410"/>
       <c r="H46" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46" s="410"/>
-      <c r="J46" s="410"/>
-      <c r="K46" s="410"/>
-      <c r="L46" s="410"/>
-      <c r="M46" s="410"/>
-      <c r="N46" s="410"/>
-      <c r="O46" s="410"/>
-      <c r="P46" s="410"/>
-      <c r="Q46" s="410"/>
+      <c r="I46" s="413"/>
+      <c r="J46" s="413"/>
+      <c r="K46" s="413"/>
+      <c r="L46" s="413"/>
+      <c r="M46" s="413"/>
+      <c r="N46" s="413"/>
+      <c r="O46" s="413"/>
+      <c r="P46" s="413"/>
+      <c r="Q46" s="413"/>
       <c r="R46" s="109">
         <v>381.97</v>
       </c>
@@ -12959,38 +12950,38 @@
       <c r="B47" s="121">
         <v>3787.17</v>
       </c>
-      <c r="C47" s="407">
-        <v>0</v>
-      </c>
-      <c r="D47" s="408">
+      <c r="C47" s="408">
+        <v>0</v>
+      </c>
+      <c r="D47" s="409">
         <f>IF(B52&gt;0,SUM(B47:B52)-C47,0)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="407">
+      <c r="E47" s="408">
         <v>6.2</v>
       </c>
-      <c r="F47" s="407">
+      <c r="F47" s="408">
         <v>25.3</v>
       </c>
-      <c r="G47" s="409">
+      <c r="G47" s="410">
         <v>0</v>
       </c>
       <c r="H47" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="410">
+      <c r="I47" s="413">
         <f>IF($D$2&gt;F47,G47*($D$2-F47)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="410"/>
-      <c r="K47" s="410"/>
-      <c r="L47" s="410"/>
-      <c r="M47" s="410"/>
-      <c r="N47" s="410"/>
-      <c r="O47" s="410"/>
-      <c r="P47" s="410"/>
-      <c r="Q47" s="410"/>
+      <c r="J47" s="413"/>
+      <c r="K47" s="413"/>
+      <c r="L47" s="413"/>
+      <c r="M47" s="413"/>
+      <c r="N47" s="413"/>
+      <c r="O47" s="413"/>
+      <c r="P47" s="413"/>
+      <c r="Q47" s="413"/>
       <c r="R47" s="109">
         <v>382.11</v>
       </c>
@@ -13002,24 +12993,24 @@
       <c r="B48" s="121">
         <v>0</v>
       </c>
-      <c r="C48" s="407"/>
-      <c r="D48" s="408"/>
-      <c r="E48" s="407"/>
-      <c r="F48" s="407"/>
-      <c r="G48" s="409"/>
+      <c r="C48" s="408"/>
+      <c r="D48" s="409"/>
+      <c r="E48" s="408"/>
+      <c r="F48" s="408"/>
+      <c r="G48" s="410"/>
       <c r="H48" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48" s="410"/>
-      <c r="J48" s="410"/>
-      <c r="K48" s="410"/>
-      <c r="L48" s="410"/>
-      <c r="M48" s="410"/>
-      <c r="N48" s="410"/>
-      <c r="O48" s="410"/>
-      <c r="P48" s="410"/>
-      <c r="Q48" s="410"/>
+      <c r="I48" s="413"/>
+      <c r="J48" s="413"/>
+      <c r="K48" s="413"/>
+      <c r="L48" s="413"/>
+      <c r="M48" s="413"/>
+      <c r="N48" s="413"/>
+      <c r="O48" s="413"/>
+      <c r="P48" s="413"/>
+      <c r="Q48" s="413"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
@@ -13028,24 +13019,24 @@
       <c r="B49" s="121">
         <v>0</v>
       </c>
-      <c r="C49" s="407"/>
-      <c r="D49" s="408"/>
-      <c r="E49" s="407"/>
-      <c r="F49" s="407"/>
-      <c r="G49" s="409"/>
+      <c r="C49" s="408"/>
+      <c r="D49" s="409"/>
+      <c r="E49" s="408"/>
+      <c r="F49" s="408"/>
+      <c r="G49" s="410"/>
       <c r="H49" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I49" s="410"/>
-      <c r="J49" s="410"/>
-      <c r="K49" s="410"/>
-      <c r="L49" s="410"/>
-      <c r="M49" s="410"/>
-      <c r="N49" s="410"/>
-      <c r="O49" s="410"/>
-      <c r="P49" s="410"/>
-      <c r="Q49" s="410"/>
+      <c r="I49" s="413"/>
+      <c r="J49" s="413"/>
+      <c r="K49" s="413"/>
+      <c r="L49" s="413"/>
+      <c r="M49" s="413"/>
+      <c r="N49" s="413"/>
+      <c r="O49" s="413"/>
+      <c r="P49" s="413"/>
+      <c r="Q49" s="413"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
@@ -13054,24 +13045,24 @@
       <c r="B50" s="121">
         <v>0</v>
       </c>
-      <c r="C50" s="407"/>
-      <c r="D50" s="408"/>
-      <c r="E50" s="407"/>
-      <c r="F50" s="407"/>
-      <c r="G50" s="409"/>
+      <c r="C50" s="408"/>
+      <c r="D50" s="409"/>
+      <c r="E50" s="408"/>
+      <c r="F50" s="408"/>
+      <c r="G50" s="410"/>
       <c r="H50" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I50" s="410"/>
-      <c r="J50" s="410"/>
-      <c r="K50" s="410"/>
-      <c r="L50" s="410"/>
-      <c r="M50" s="410"/>
-      <c r="N50" s="410"/>
-      <c r="O50" s="410"/>
-      <c r="P50" s="410"/>
-      <c r="Q50" s="410"/>
+      <c r="I50" s="413"/>
+      <c r="J50" s="413"/>
+      <c r="K50" s="413"/>
+      <c r="L50" s="413"/>
+      <c r="M50" s="413"/>
+      <c r="N50" s="413"/>
+      <c r="O50" s="413"/>
+      <c r="P50" s="413"/>
+      <c r="Q50" s="413"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
@@ -13080,24 +13071,24 @@
       <c r="B51" s="121">
         <v>0</v>
       </c>
-      <c r="C51" s="407"/>
-      <c r="D51" s="408"/>
-      <c r="E51" s="407"/>
-      <c r="F51" s="407"/>
-      <c r="G51" s="409"/>
+      <c r="C51" s="408"/>
+      <c r="D51" s="409"/>
+      <c r="E51" s="408"/>
+      <c r="F51" s="408"/>
+      <c r="G51" s="410"/>
       <c r="H51" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I51" s="410"/>
-      <c r="J51" s="410"/>
-      <c r="K51" s="410"/>
-      <c r="L51" s="410"/>
-      <c r="M51" s="410"/>
-      <c r="N51" s="410"/>
-      <c r="O51" s="410"/>
-      <c r="P51" s="410"/>
-      <c r="Q51" s="410"/>
+      <c r="I51" s="413"/>
+      <c r="J51" s="413"/>
+      <c r="K51" s="413"/>
+      <c r="L51" s="413"/>
+      <c r="M51" s="413"/>
+      <c r="N51" s="413"/>
+      <c r="O51" s="413"/>
+      <c r="P51" s="413"/>
+      <c r="Q51" s="413"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
@@ -13106,24 +13097,24 @@
       <c r="B52" s="121">
         <v>0</v>
       </c>
-      <c r="C52" s="407"/>
-      <c r="D52" s="408"/>
-      <c r="E52" s="407"/>
-      <c r="F52" s="407"/>
-      <c r="G52" s="409"/>
+      <c r="C52" s="408"/>
+      <c r="D52" s="409"/>
+      <c r="E52" s="408"/>
+      <c r="F52" s="408"/>
+      <c r="G52" s="410"/>
       <c r="H52" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I52" s="410"/>
-      <c r="J52" s="410"/>
-      <c r="K52" s="410"/>
-      <c r="L52" s="410"/>
-      <c r="M52" s="410"/>
-      <c r="N52" s="410"/>
-      <c r="O52" s="410"/>
-      <c r="P52" s="410"/>
-      <c r="Q52" s="410"/>
+      <c r="I52" s="413"/>
+      <c r="J52" s="413"/>
+      <c r="K52" s="413"/>
+      <c r="L52" s="413"/>
+      <c r="M52" s="413"/>
+      <c r="N52" s="413"/>
+      <c r="O52" s="413"/>
+      <c r="P52" s="413"/>
+      <c r="Q52" s="413"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
@@ -13132,38 +13123,38 @@
       <c r="B53" s="121">
         <v>0</v>
       </c>
-      <c r="C53" s="407">
-        <v>0</v>
-      </c>
-      <c r="D53" s="408">
+      <c r="C53" s="408">
+        <v>0</v>
+      </c>
+      <c r="D53" s="409">
         <f>IF(B58&gt;0,SUM(B53:B58)-C53,0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="407">
+      <c r="E53" s="408">
         <v>6.2</v>
       </c>
-      <c r="F53" s="407">
+      <c r="F53" s="408">
         <v>25.3</v>
       </c>
-      <c r="G53" s="409">
+      <c r="G53" s="410">
         <v>0</v>
       </c>
       <c r="H53" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I53" s="410">
+      <c r="I53" s="413">
         <f>IF($D$2&gt;F53,G53*($D$2-F53)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J53" s="410"/>
-      <c r="K53" s="410"/>
-      <c r="L53" s="410"/>
-      <c r="M53" s="410"/>
-      <c r="N53" s="410"/>
-      <c r="O53" s="410"/>
-      <c r="P53" s="410"/>
-      <c r="Q53" s="410"/>
+      <c r="J53" s="413"/>
+      <c r="K53" s="413"/>
+      <c r="L53" s="413"/>
+      <c r="M53" s="413"/>
+      <c r="N53" s="413"/>
+      <c r="O53" s="413"/>
+      <c r="P53" s="413"/>
+      <c r="Q53" s="413"/>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
@@ -13172,24 +13163,24 @@
       <c r="B54" s="121">
         <v>0</v>
       </c>
-      <c r="C54" s="407"/>
-      <c r="D54" s="408"/>
-      <c r="E54" s="407"/>
-      <c r="F54" s="407"/>
-      <c r="G54" s="409"/>
+      <c r="C54" s="408"/>
+      <c r="D54" s="409"/>
+      <c r="E54" s="408"/>
+      <c r="F54" s="408"/>
+      <c r="G54" s="410"/>
       <c r="H54" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I54" s="410"/>
-      <c r="J54" s="410"/>
-      <c r="K54" s="410"/>
-      <c r="L54" s="410"/>
-      <c r="M54" s="410"/>
-      <c r="N54" s="410"/>
-      <c r="O54" s="410"/>
-      <c r="P54" s="410"/>
-      <c r="Q54" s="410"/>
+      <c r="I54" s="413"/>
+      <c r="J54" s="413"/>
+      <c r="K54" s="413"/>
+      <c r="L54" s="413"/>
+      <c r="M54" s="413"/>
+      <c r="N54" s="413"/>
+      <c r="O54" s="413"/>
+      <c r="P54" s="413"/>
+      <c r="Q54" s="413"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
@@ -13198,24 +13189,24 @@
       <c r="B55" s="121">
         <v>0</v>
       </c>
-      <c r="C55" s="407"/>
-      <c r="D55" s="408"/>
-      <c r="E55" s="407"/>
-      <c r="F55" s="407"/>
-      <c r="G55" s="409"/>
+      <c r="C55" s="408"/>
+      <c r="D55" s="409"/>
+      <c r="E55" s="408"/>
+      <c r="F55" s="408"/>
+      <c r="G55" s="410"/>
       <c r="H55" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I55" s="410"/>
-      <c r="J55" s="410"/>
-      <c r="K55" s="410"/>
-      <c r="L55" s="410"/>
-      <c r="M55" s="410"/>
-      <c r="N55" s="410"/>
-      <c r="O55" s="410"/>
-      <c r="P55" s="410"/>
-      <c r="Q55" s="410"/>
+      <c r="I55" s="413"/>
+      <c r="J55" s="413"/>
+      <c r="K55" s="413"/>
+      <c r="L55" s="413"/>
+      <c r="M55" s="413"/>
+      <c r="N55" s="413"/>
+      <c r="O55" s="413"/>
+      <c r="P55" s="413"/>
+      <c r="Q55" s="413"/>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
@@ -13224,24 +13215,24 @@
       <c r="B56" s="121">
         <v>0</v>
       </c>
-      <c r="C56" s="407"/>
-      <c r="D56" s="408"/>
-      <c r="E56" s="407"/>
-      <c r="F56" s="407"/>
-      <c r="G56" s="409"/>
+      <c r="C56" s="408"/>
+      <c r="D56" s="409"/>
+      <c r="E56" s="408"/>
+      <c r="F56" s="408"/>
+      <c r="G56" s="410"/>
       <c r="H56" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I56" s="410"/>
-      <c r="J56" s="410"/>
-      <c r="K56" s="410"/>
-      <c r="L56" s="410"/>
-      <c r="M56" s="410"/>
-      <c r="N56" s="410"/>
-      <c r="O56" s="410"/>
-      <c r="P56" s="410"/>
-      <c r="Q56" s="410"/>
+      <c r="I56" s="413"/>
+      <c r="J56" s="413"/>
+      <c r="K56" s="413"/>
+      <c r="L56" s="413"/>
+      <c r="M56" s="413"/>
+      <c r="N56" s="413"/>
+      <c r="O56" s="413"/>
+      <c r="P56" s="413"/>
+      <c r="Q56" s="413"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
@@ -13250,24 +13241,24 @@
       <c r="B57" s="121">
         <v>0</v>
       </c>
-      <c r="C57" s="407"/>
-      <c r="D57" s="408"/>
-      <c r="E57" s="407"/>
-      <c r="F57" s="407"/>
-      <c r="G57" s="409"/>
+      <c r="C57" s="408"/>
+      <c r="D57" s="409"/>
+      <c r="E57" s="408"/>
+      <c r="F57" s="408"/>
+      <c r="G57" s="410"/>
       <c r="H57" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I57" s="410"/>
-      <c r="J57" s="410"/>
-      <c r="K57" s="410"/>
-      <c r="L57" s="410"/>
-      <c r="M57" s="410"/>
-      <c r="N57" s="410"/>
-      <c r="O57" s="410"/>
-      <c r="P57" s="410"/>
-      <c r="Q57" s="410"/>
+      <c r="I57" s="413"/>
+      <c r="J57" s="413"/>
+      <c r="K57" s="413"/>
+      <c r="L57" s="413"/>
+      <c r="M57" s="413"/>
+      <c r="N57" s="413"/>
+      <c r="O57" s="413"/>
+      <c r="P57" s="413"/>
+      <c r="Q57" s="413"/>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
@@ -13276,24 +13267,24 @@
       <c r="B58" s="121">
         <v>0</v>
       </c>
-      <c r="C58" s="407"/>
-      <c r="D58" s="408"/>
-      <c r="E58" s="407"/>
-      <c r="F58" s="407"/>
-      <c r="G58" s="409"/>
+      <c r="C58" s="408"/>
+      <c r="D58" s="409"/>
+      <c r="E58" s="408"/>
+      <c r="F58" s="408"/>
+      <c r="G58" s="410"/>
       <c r="H58" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I58" s="410"/>
-      <c r="J58" s="410"/>
-      <c r="K58" s="410"/>
-      <c r="L58" s="410"/>
-      <c r="M58" s="410"/>
-      <c r="N58" s="410"/>
-      <c r="O58" s="410"/>
-      <c r="P58" s="410"/>
-      <c r="Q58" s="410"/>
+      <c r="I58" s="413"/>
+      <c r="J58" s="413"/>
+      <c r="K58" s="413"/>
+      <c r="L58" s="413"/>
+      <c r="M58" s="413"/>
+      <c r="N58" s="413"/>
+      <c r="O58" s="413"/>
+      <c r="P58" s="413"/>
+      <c r="Q58" s="413"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
@@ -13302,38 +13293,38 @@
       <c r="B59" s="121">
         <v>0</v>
       </c>
-      <c r="C59" s="407">
-        <v>0</v>
-      </c>
-      <c r="D59" s="408">
+      <c r="C59" s="408">
+        <v>0</v>
+      </c>
+      <c r="D59" s="409">
         <f>IF(B64&gt;0,SUM(B59:B64)-C59,0)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="407">
+      <c r="E59" s="408">
         <v>6.2</v>
       </c>
-      <c r="F59" s="407">
+      <c r="F59" s="408">
         <v>25.3</v>
       </c>
-      <c r="G59" s="409">
+      <c r="G59" s="410">
         <v>0</v>
       </c>
       <c r="H59" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I59" s="410">
+      <c r="I59" s="413">
         <f>IF($D$2&gt;F59,G59*($D$2-F59)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="410"/>
-      <c r="K59" s="410"/>
-      <c r="L59" s="410"/>
-      <c r="M59" s="410"/>
-      <c r="N59" s="410"/>
-      <c r="O59" s="410"/>
-      <c r="P59" s="410"/>
-      <c r="Q59" s="410"/>
+      <c r="J59" s="413"/>
+      <c r="K59" s="413"/>
+      <c r="L59" s="413"/>
+      <c r="M59" s="413"/>
+      <c r="N59" s="413"/>
+      <c r="O59" s="413"/>
+      <c r="P59" s="413"/>
+      <c r="Q59" s="413"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
@@ -13342,24 +13333,24 @@
       <c r="B60" s="121">
         <v>0</v>
       </c>
-      <c r="C60" s="407"/>
-      <c r="D60" s="408"/>
-      <c r="E60" s="407"/>
-      <c r="F60" s="407"/>
-      <c r="G60" s="409"/>
+      <c r="C60" s="408"/>
+      <c r="D60" s="409"/>
+      <c r="E60" s="408"/>
+      <c r="F60" s="408"/>
+      <c r="G60" s="410"/>
       <c r="H60" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I60" s="410"/>
-      <c r="J60" s="410"/>
-      <c r="K60" s="410"/>
-      <c r="L60" s="410"/>
-      <c r="M60" s="410"/>
-      <c r="N60" s="410"/>
-      <c r="O60" s="410"/>
-      <c r="P60" s="410"/>
-      <c r="Q60" s="410"/>
+      <c r="I60" s="413"/>
+      <c r="J60" s="413"/>
+      <c r="K60" s="413"/>
+      <c r="L60" s="413"/>
+      <c r="M60" s="413"/>
+      <c r="N60" s="413"/>
+      <c r="O60" s="413"/>
+      <c r="P60" s="413"/>
+      <c r="Q60" s="413"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
@@ -13368,24 +13359,24 @@
       <c r="B61" s="121">
         <v>0</v>
       </c>
-      <c r="C61" s="407"/>
-      <c r="D61" s="408"/>
-      <c r="E61" s="407"/>
-      <c r="F61" s="407"/>
-      <c r="G61" s="409"/>
+      <c r="C61" s="408"/>
+      <c r="D61" s="409"/>
+      <c r="E61" s="408"/>
+      <c r="F61" s="408"/>
+      <c r="G61" s="410"/>
       <c r="H61" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I61" s="410"/>
-      <c r="J61" s="410"/>
-      <c r="K61" s="410"/>
-      <c r="L61" s="410"/>
-      <c r="M61" s="410"/>
-      <c r="N61" s="410"/>
-      <c r="O61" s="410"/>
-      <c r="P61" s="410"/>
-      <c r="Q61" s="410"/>
+      <c r="I61" s="413"/>
+      <c r="J61" s="413"/>
+      <c r="K61" s="413"/>
+      <c r="L61" s="413"/>
+      <c r="M61" s="413"/>
+      <c r="N61" s="413"/>
+      <c r="O61" s="413"/>
+      <c r="P61" s="413"/>
+      <c r="Q61" s="413"/>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
@@ -13394,24 +13385,24 @@
       <c r="B62" s="121">
         <v>0</v>
       </c>
-      <c r="C62" s="407"/>
-      <c r="D62" s="408"/>
-      <c r="E62" s="407"/>
-      <c r="F62" s="407"/>
-      <c r="G62" s="409"/>
+      <c r="C62" s="408"/>
+      <c r="D62" s="409"/>
+      <c r="E62" s="408"/>
+      <c r="F62" s="408"/>
+      <c r="G62" s="410"/>
       <c r="H62" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I62" s="410"/>
-      <c r="J62" s="410"/>
-      <c r="K62" s="410"/>
-      <c r="L62" s="410"/>
-      <c r="M62" s="410"/>
-      <c r="N62" s="410"/>
-      <c r="O62" s="410"/>
-      <c r="P62" s="410"/>
-      <c r="Q62" s="410"/>
+      <c r="I62" s="413"/>
+      <c r="J62" s="413"/>
+      <c r="K62" s="413"/>
+      <c r="L62" s="413"/>
+      <c r="M62" s="413"/>
+      <c r="N62" s="413"/>
+      <c r="O62" s="413"/>
+      <c r="P62" s="413"/>
+      <c r="Q62" s="413"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
@@ -13420,24 +13411,24 @@
       <c r="B63" s="121">
         <v>0</v>
       </c>
-      <c r="C63" s="407"/>
-      <c r="D63" s="408"/>
-      <c r="E63" s="407"/>
-      <c r="F63" s="407"/>
-      <c r="G63" s="409"/>
+      <c r="C63" s="408"/>
+      <c r="D63" s="409"/>
+      <c r="E63" s="408"/>
+      <c r="F63" s="408"/>
+      <c r="G63" s="410"/>
       <c r="H63" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I63" s="410"/>
-      <c r="J63" s="410"/>
-      <c r="K63" s="410"/>
-      <c r="L63" s="410"/>
-      <c r="M63" s="410"/>
-      <c r="N63" s="410"/>
-      <c r="O63" s="410"/>
-      <c r="P63" s="410"/>
-      <c r="Q63" s="410"/>
+      <c r="I63" s="413"/>
+      <c r="J63" s="413"/>
+      <c r="K63" s="413"/>
+      <c r="L63" s="413"/>
+      <c r="M63" s="413"/>
+      <c r="N63" s="413"/>
+      <c r="O63" s="413"/>
+      <c r="P63" s="413"/>
+      <c r="Q63" s="413"/>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
@@ -13446,24 +13437,24 @@
       <c r="B64" s="121">
         <v>0</v>
       </c>
-      <c r="C64" s="407"/>
-      <c r="D64" s="408"/>
-      <c r="E64" s="407"/>
-      <c r="F64" s="407"/>
-      <c r="G64" s="409"/>
+      <c r="C64" s="408"/>
+      <c r="D64" s="409"/>
+      <c r="E64" s="408"/>
+      <c r="F64" s="408"/>
+      <c r="G64" s="410"/>
       <c r="H64" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I64" s="410"/>
-      <c r="J64" s="410"/>
-      <c r="K64" s="410"/>
-      <c r="L64" s="410"/>
-      <c r="M64" s="410"/>
-      <c r="N64" s="410"/>
-      <c r="O64" s="410"/>
-      <c r="P64" s="410"/>
-      <c r="Q64" s="410"/>
+      <c r="I64" s="413"/>
+      <c r="J64" s="413"/>
+      <c r="K64" s="413"/>
+      <c r="L64" s="413"/>
+      <c r="M64" s="413"/>
+      <c r="N64" s="413"/>
+      <c r="O64" s="413"/>
+      <c r="P64" s="413"/>
+      <c r="Q64" s="413"/>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1">
@@ -13472,38 +13463,38 @@
       <c r="B65" s="121">
         <v>0</v>
       </c>
-      <c r="C65" s="407">
-        <v>0</v>
-      </c>
-      <c r="D65" s="408">
+      <c r="C65" s="408">
+        <v>0</v>
+      </c>
+      <c r="D65" s="409">
         <f>IF(B70&gt;0,SUM(B65:B70)-C65,0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="407">
+      <c r="E65" s="408">
         <v>6.2</v>
       </c>
-      <c r="F65" s="407">
+      <c r="F65" s="408">
         <v>25.3</v>
       </c>
-      <c r="G65" s="409">
+      <c r="G65" s="410">
         <v>0</v>
       </c>
       <c r="H65" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I65" s="410">
+      <c r="I65" s="413">
         <f>IF($D$2&gt;F65,G65*($D$2-F65)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="410"/>
-      <c r="K65" s="410"/>
-      <c r="L65" s="410"/>
-      <c r="M65" s="410"/>
-      <c r="N65" s="410"/>
-      <c r="O65" s="410"/>
-      <c r="P65" s="410"/>
-      <c r="Q65" s="410"/>
+      <c r="J65" s="413"/>
+      <c r="K65" s="413"/>
+      <c r="L65" s="413"/>
+      <c r="M65" s="413"/>
+      <c r="N65" s="413"/>
+      <c r="O65" s="413"/>
+      <c r="P65" s="413"/>
+      <c r="Q65" s="413"/>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1">
@@ -13512,24 +13503,24 @@
       <c r="B66" s="121">
         <v>0</v>
       </c>
-      <c r="C66" s="407"/>
-      <c r="D66" s="408"/>
-      <c r="E66" s="407"/>
-      <c r="F66" s="407"/>
-      <c r="G66" s="409"/>
+      <c r="C66" s="408"/>
+      <c r="D66" s="409"/>
+      <c r="E66" s="408"/>
+      <c r="F66" s="408"/>
+      <c r="G66" s="410"/>
       <c r="H66" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I66" s="410"/>
-      <c r="J66" s="410"/>
-      <c r="K66" s="410"/>
-      <c r="L66" s="410"/>
-      <c r="M66" s="410"/>
-      <c r="N66" s="410"/>
-      <c r="O66" s="410"/>
-      <c r="P66" s="410"/>
-      <c r="Q66" s="410"/>
+      <c r="I66" s="413"/>
+      <c r="J66" s="413"/>
+      <c r="K66" s="413"/>
+      <c r="L66" s="413"/>
+      <c r="M66" s="413"/>
+      <c r="N66" s="413"/>
+      <c r="O66" s="413"/>
+      <c r="P66" s="413"/>
+      <c r="Q66" s="413"/>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1">
@@ -13538,24 +13529,24 @@
       <c r="B67" s="121">
         <v>0</v>
       </c>
-      <c r="C67" s="407"/>
-      <c r="D67" s="408"/>
-      <c r="E67" s="407"/>
-      <c r="F67" s="407"/>
-      <c r="G67" s="409"/>
+      <c r="C67" s="408"/>
+      <c r="D67" s="409"/>
+      <c r="E67" s="408"/>
+      <c r="F67" s="408"/>
+      <c r="G67" s="410"/>
       <c r="H67" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I67" s="410"/>
-      <c r="J67" s="410"/>
-      <c r="K67" s="410"/>
-      <c r="L67" s="410"/>
-      <c r="M67" s="410"/>
-      <c r="N67" s="410"/>
-      <c r="O67" s="410"/>
-      <c r="P67" s="410"/>
-      <c r="Q67" s="410"/>
+      <c r="I67" s="413"/>
+      <c r="J67" s="413"/>
+      <c r="K67" s="413"/>
+      <c r="L67" s="413"/>
+      <c r="M67" s="413"/>
+      <c r="N67" s="413"/>
+      <c r="O67" s="413"/>
+      <c r="P67" s="413"/>
+      <c r="Q67" s="413"/>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1">
@@ -13564,24 +13555,24 @@
       <c r="B68" s="121">
         <v>0</v>
       </c>
-      <c r="C68" s="407"/>
-      <c r="D68" s="408"/>
-      <c r="E68" s="407"/>
-      <c r="F68" s="407"/>
-      <c r="G68" s="409"/>
+      <c r="C68" s="408"/>
+      <c r="D68" s="409"/>
+      <c r="E68" s="408"/>
+      <c r="F68" s="408"/>
+      <c r="G68" s="410"/>
       <c r="H68" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I68" s="410"/>
-      <c r="J68" s="410"/>
-      <c r="K68" s="410"/>
-      <c r="L68" s="410"/>
-      <c r="M68" s="410"/>
-      <c r="N68" s="410"/>
-      <c r="O68" s="410"/>
-      <c r="P68" s="410"/>
-      <c r="Q68" s="410"/>
+      <c r="I68" s="413"/>
+      <c r="J68" s="413"/>
+      <c r="K68" s="413"/>
+      <c r="L68" s="413"/>
+      <c r="M68" s="413"/>
+      <c r="N68" s="413"/>
+      <c r="O68" s="413"/>
+      <c r="P68" s="413"/>
+      <c r="Q68" s="413"/>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1">
@@ -13590,24 +13581,24 @@
       <c r="B69" s="121">
         <v>0</v>
       </c>
-      <c r="C69" s="407"/>
-      <c r="D69" s="408"/>
-      <c r="E69" s="407"/>
-      <c r="F69" s="407"/>
-      <c r="G69" s="409"/>
+      <c r="C69" s="408"/>
+      <c r="D69" s="409"/>
+      <c r="E69" s="408"/>
+      <c r="F69" s="408"/>
+      <c r="G69" s="410"/>
       <c r="H69" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I69" s="410"/>
-      <c r="J69" s="410"/>
-      <c r="K69" s="410"/>
-      <c r="L69" s="410"/>
-      <c r="M69" s="410"/>
-      <c r="N69" s="410"/>
-      <c r="O69" s="410"/>
-      <c r="P69" s="410"/>
-      <c r="Q69" s="410"/>
+      <c r="I69" s="413"/>
+      <c r="J69" s="413"/>
+      <c r="K69" s="413"/>
+      <c r="L69" s="413"/>
+      <c r="M69" s="413"/>
+      <c r="N69" s="413"/>
+      <c r="O69" s="413"/>
+      <c r="P69" s="413"/>
+      <c r="Q69" s="413"/>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1">
@@ -13616,24 +13607,24 @@
       <c r="B70" s="121">
         <v>0</v>
       </c>
-      <c r="C70" s="407"/>
-      <c r="D70" s="408"/>
-      <c r="E70" s="407"/>
-      <c r="F70" s="407"/>
-      <c r="G70" s="409"/>
+      <c r="C70" s="408"/>
+      <c r="D70" s="409"/>
+      <c r="E70" s="408"/>
+      <c r="F70" s="408"/>
+      <c r="G70" s="410"/>
       <c r="H70" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I70" s="410"/>
-      <c r="J70" s="410"/>
-      <c r="K70" s="410"/>
-      <c r="L70" s="410"/>
-      <c r="M70" s="410"/>
-      <c r="N70" s="410"/>
-      <c r="O70" s="410"/>
-      <c r="P70" s="410"/>
-      <c r="Q70" s="410"/>
+      <c r="I70" s="413"/>
+      <c r="J70" s="413"/>
+      <c r="K70" s="413"/>
+      <c r="L70" s="413"/>
+      <c r="M70" s="413"/>
+      <c r="N70" s="413"/>
+      <c r="O70" s="413"/>
+      <c r="P70" s="413"/>
+      <c r="Q70" s="413"/>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1">
@@ -13642,38 +13633,38 @@
       <c r="B71" s="121">
         <v>0</v>
       </c>
-      <c r="C71" s="407">
-        <v>0</v>
-      </c>
-      <c r="D71" s="408">
+      <c r="C71" s="408">
+        <v>0</v>
+      </c>
+      <c r="D71" s="409">
         <f>IF(B76&gt;0,SUM(B71:B76)-C71,0)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="407">
+      <c r="E71" s="408">
         <v>6.2</v>
       </c>
-      <c r="F71" s="407">
+      <c r="F71" s="408">
         <v>25.3</v>
       </c>
-      <c r="G71" s="409">
+      <c r="G71" s="410">
         <v>0</v>
       </c>
       <c r="H71" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I71" s="410">
+      <c r="I71" s="413">
         <f>IF($D$2&gt;F71,G71*($D$2-F71)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="410"/>
-      <c r="K71" s="410"/>
-      <c r="L71" s="410"/>
-      <c r="M71" s="410"/>
-      <c r="N71" s="410"/>
-      <c r="O71" s="410"/>
-      <c r="P71" s="410"/>
-      <c r="Q71" s="410"/>
+      <c r="J71" s="413"/>
+      <c r="K71" s="413"/>
+      <c r="L71" s="413"/>
+      <c r="M71" s="413"/>
+      <c r="N71" s="413"/>
+      <c r="O71" s="413"/>
+      <c r="P71" s="413"/>
+      <c r="Q71" s="413"/>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1">
@@ -13682,24 +13673,24 @@
       <c r="B72" s="121">
         <v>0</v>
       </c>
-      <c r="C72" s="407"/>
-      <c r="D72" s="408"/>
-      <c r="E72" s="407"/>
-      <c r="F72" s="407"/>
-      <c r="G72" s="409"/>
+      <c r="C72" s="408"/>
+      <c r="D72" s="409"/>
+      <c r="E72" s="408"/>
+      <c r="F72" s="408"/>
+      <c r="G72" s="410"/>
       <c r="H72" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I72" s="410"/>
-      <c r="J72" s="410"/>
-      <c r="K72" s="410"/>
-      <c r="L72" s="410"/>
-      <c r="M72" s="410"/>
-      <c r="N72" s="410"/>
-      <c r="O72" s="410"/>
-      <c r="P72" s="410"/>
-      <c r="Q72" s="410"/>
+      <c r="I72" s="413"/>
+      <c r="J72" s="413"/>
+      <c r="K72" s="413"/>
+      <c r="L72" s="413"/>
+      <c r="M72" s="413"/>
+      <c r="N72" s="413"/>
+      <c r="O72" s="413"/>
+      <c r="P72" s="413"/>
+      <c r="Q72" s="413"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1">
@@ -13708,24 +13699,24 @@
       <c r="B73" s="121">
         <v>0</v>
       </c>
-      <c r="C73" s="407"/>
-      <c r="D73" s="408"/>
-      <c r="E73" s="407"/>
-      <c r="F73" s="407"/>
-      <c r="G73" s="409"/>
+      <c r="C73" s="408"/>
+      <c r="D73" s="409"/>
+      <c r="E73" s="408"/>
+      <c r="F73" s="408"/>
+      <c r="G73" s="410"/>
       <c r="H73" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I73" s="410"/>
-      <c r="J73" s="410"/>
-      <c r="K73" s="410"/>
-      <c r="L73" s="410"/>
-      <c r="M73" s="410"/>
-      <c r="N73" s="410"/>
-      <c r="O73" s="410"/>
-      <c r="P73" s="410"/>
-      <c r="Q73" s="410"/>
+      <c r="I73" s="413"/>
+      <c r="J73" s="413"/>
+      <c r="K73" s="413"/>
+      <c r="L73" s="413"/>
+      <c r="M73" s="413"/>
+      <c r="N73" s="413"/>
+      <c r="O73" s="413"/>
+      <c r="P73" s="413"/>
+      <c r="Q73" s="413"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1">
@@ -13734,24 +13725,24 @@
       <c r="B74" s="121">
         <v>0</v>
       </c>
-      <c r="C74" s="407"/>
-      <c r="D74" s="408"/>
-      <c r="E74" s="407"/>
-      <c r="F74" s="407"/>
-      <c r="G74" s="409"/>
+      <c r="C74" s="408"/>
+      <c r="D74" s="409"/>
+      <c r="E74" s="408"/>
+      <c r="F74" s="408"/>
+      <c r="G74" s="410"/>
       <c r="H74" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I74" s="410"/>
-      <c r="J74" s="410"/>
-      <c r="K74" s="410"/>
-      <c r="L74" s="410"/>
-      <c r="M74" s="410"/>
-      <c r="N74" s="410"/>
-      <c r="O74" s="410"/>
-      <c r="P74" s="410"/>
-      <c r="Q74" s="410"/>
+      <c r="I74" s="413"/>
+      <c r="J74" s="413"/>
+      <c r="K74" s="413"/>
+      <c r="L74" s="413"/>
+      <c r="M74" s="413"/>
+      <c r="N74" s="413"/>
+      <c r="O74" s="413"/>
+      <c r="P74" s="413"/>
+      <c r="Q74" s="413"/>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1">
@@ -13760,24 +13751,24 @@
       <c r="B75" s="121">
         <v>0</v>
       </c>
-      <c r="C75" s="407"/>
-      <c r="D75" s="408"/>
-      <c r="E75" s="407"/>
-      <c r="F75" s="407"/>
-      <c r="G75" s="409"/>
+      <c r="C75" s="408"/>
+      <c r="D75" s="409"/>
+      <c r="E75" s="408"/>
+      <c r="F75" s="408"/>
+      <c r="G75" s="410"/>
       <c r="H75" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I75" s="410"/>
-      <c r="J75" s="410"/>
-      <c r="K75" s="410"/>
-      <c r="L75" s="410"/>
-      <c r="M75" s="410"/>
-      <c r="N75" s="410"/>
-      <c r="O75" s="410"/>
-      <c r="P75" s="410"/>
-      <c r="Q75" s="410"/>
+      <c r="I75" s="413"/>
+      <c r="J75" s="413"/>
+      <c r="K75" s="413"/>
+      <c r="L75" s="413"/>
+      <c r="M75" s="413"/>
+      <c r="N75" s="413"/>
+      <c r="O75" s="413"/>
+      <c r="P75" s="413"/>
+      <c r="Q75" s="413"/>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1">
@@ -13786,24 +13777,24 @@
       <c r="B76" s="121">
         <v>0</v>
       </c>
-      <c r="C76" s="407"/>
-      <c r="D76" s="408"/>
-      <c r="E76" s="407"/>
-      <c r="F76" s="407"/>
-      <c r="G76" s="409"/>
+      <c r="C76" s="408"/>
+      <c r="D76" s="409"/>
+      <c r="E76" s="408"/>
+      <c r="F76" s="408"/>
+      <c r="G76" s="410"/>
       <c r="H76" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I76" s="410"/>
-      <c r="J76" s="410"/>
-      <c r="K76" s="410"/>
-      <c r="L76" s="410"/>
-      <c r="M76" s="410"/>
-      <c r="N76" s="410"/>
-      <c r="O76" s="410"/>
-      <c r="P76" s="410"/>
-      <c r="Q76" s="410"/>
+      <c r="I76" s="413"/>
+      <c r="J76" s="413"/>
+      <c r="K76" s="413"/>
+      <c r="L76" s="413"/>
+      <c r="M76" s="413"/>
+      <c r="N76" s="413"/>
+      <c r="O76" s="413"/>
+      <c r="P76" s="413"/>
+      <c r="Q76" s="413"/>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1">
@@ -13812,38 +13803,38 @@
       <c r="B77" s="121">
         <v>0</v>
       </c>
-      <c r="C77" s="407">
-        <v>0</v>
-      </c>
-      <c r="D77" s="408">
+      <c r="C77" s="408">
+        <v>0</v>
+      </c>
+      <c r="D77" s="409">
         <f>IF(B82&gt;0,SUM(B77:B82)-C77,0)</f>
         <v>0</v>
       </c>
-      <c r="E77" s="407">
+      <c r="E77" s="408">
         <v>6.2</v>
       </c>
-      <c r="F77" s="407">
+      <c r="F77" s="408">
         <v>25.3</v>
       </c>
-      <c r="G77" s="409">
+      <c r="G77" s="410">
         <v>0</v>
       </c>
       <c r="H77" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I77" s="410">
+      <c r="I77" s="413">
         <f>IF($D$2&gt;F77,G77*($D$2-F77)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="410"/>
-      <c r="K77" s="410"/>
-      <c r="L77" s="410"/>
-      <c r="M77" s="410"/>
-      <c r="N77" s="410"/>
-      <c r="O77" s="410"/>
-      <c r="P77" s="410"/>
-      <c r="Q77" s="410"/>
+      <c r="J77" s="413"/>
+      <c r="K77" s="413"/>
+      <c r="L77" s="413"/>
+      <c r="M77" s="413"/>
+      <c r="N77" s="413"/>
+      <c r="O77" s="413"/>
+      <c r="P77" s="413"/>
+      <c r="Q77" s="413"/>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1">
@@ -13852,24 +13843,24 @@
       <c r="B78" s="121">
         <v>0</v>
       </c>
-      <c r="C78" s="407"/>
-      <c r="D78" s="408"/>
-      <c r="E78" s="407"/>
-      <c r="F78" s="407"/>
-      <c r="G78" s="409"/>
+      <c r="C78" s="408"/>
+      <c r="D78" s="409"/>
+      <c r="E78" s="408"/>
+      <c r="F78" s="408"/>
+      <c r="G78" s="410"/>
       <c r="H78" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I78" s="410"/>
-      <c r="J78" s="410"/>
-      <c r="K78" s="410"/>
-      <c r="L78" s="410"/>
-      <c r="M78" s="410"/>
-      <c r="N78" s="410"/>
-      <c r="O78" s="410"/>
-      <c r="P78" s="410"/>
-      <c r="Q78" s="410"/>
+      <c r="I78" s="413"/>
+      <c r="J78" s="413"/>
+      <c r="K78" s="413"/>
+      <c r="L78" s="413"/>
+      <c r="M78" s="413"/>
+      <c r="N78" s="413"/>
+      <c r="O78" s="413"/>
+      <c r="P78" s="413"/>
+      <c r="Q78" s="413"/>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1">
@@ -13878,24 +13869,24 @@
       <c r="B79" s="121">
         <v>0</v>
       </c>
-      <c r="C79" s="407"/>
-      <c r="D79" s="408"/>
-      <c r="E79" s="407"/>
-      <c r="F79" s="407"/>
-      <c r="G79" s="409"/>
+      <c r="C79" s="408"/>
+      <c r="D79" s="409"/>
+      <c r="E79" s="408"/>
+      <c r="F79" s="408"/>
+      <c r="G79" s="410"/>
       <c r="H79" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I79" s="410"/>
-      <c r="J79" s="410"/>
-      <c r="K79" s="410"/>
-      <c r="L79" s="410"/>
-      <c r="M79" s="410"/>
-      <c r="N79" s="410"/>
-      <c r="O79" s="410"/>
-      <c r="P79" s="410"/>
-      <c r="Q79" s="410"/>
+      <c r="I79" s="413"/>
+      <c r="J79" s="413"/>
+      <c r="K79" s="413"/>
+      <c r="L79" s="413"/>
+      <c r="M79" s="413"/>
+      <c r="N79" s="413"/>
+      <c r="O79" s="413"/>
+      <c r="P79" s="413"/>
+      <c r="Q79" s="413"/>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1">
@@ -13904,24 +13895,24 @@
       <c r="B80" s="121">
         <v>0</v>
       </c>
-      <c r="C80" s="407"/>
-      <c r="D80" s="408"/>
-      <c r="E80" s="407"/>
-      <c r="F80" s="407"/>
-      <c r="G80" s="409"/>
+      <c r="C80" s="408"/>
+      <c r="D80" s="409"/>
+      <c r="E80" s="408"/>
+      <c r="F80" s="408"/>
+      <c r="G80" s="410"/>
       <c r="H80" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I80" s="410"/>
-      <c r="J80" s="410"/>
-      <c r="K80" s="410"/>
-      <c r="L80" s="410"/>
-      <c r="M80" s="410"/>
-      <c r="N80" s="410"/>
-      <c r="O80" s="410"/>
-      <c r="P80" s="410"/>
-      <c r="Q80" s="410"/>
+      <c r="I80" s="413"/>
+      <c r="J80" s="413"/>
+      <c r="K80" s="413"/>
+      <c r="L80" s="413"/>
+      <c r="M80" s="413"/>
+      <c r="N80" s="413"/>
+      <c r="O80" s="413"/>
+      <c r="P80" s="413"/>
+      <c r="Q80" s="413"/>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1">
@@ -13930,24 +13921,24 @@
       <c r="B81" s="121">
         <v>0</v>
       </c>
-      <c r="C81" s="407"/>
-      <c r="D81" s="408"/>
-      <c r="E81" s="407"/>
-      <c r="F81" s="407"/>
-      <c r="G81" s="409"/>
+      <c r="C81" s="408"/>
+      <c r="D81" s="409"/>
+      <c r="E81" s="408"/>
+      <c r="F81" s="408"/>
+      <c r="G81" s="410"/>
       <c r="H81" s="120">
         <f t="shared" ref="H81:H88" si="3">R87*0.25</f>
         <v>0</v>
       </c>
-      <c r="I81" s="410"/>
-      <c r="J81" s="410"/>
-      <c r="K81" s="410"/>
-      <c r="L81" s="410"/>
-      <c r="M81" s="410"/>
-      <c r="N81" s="410"/>
-      <c r="O81" s="410"/>
-      <c r="P81" s="410"/>
-      <c r="Q81" s="410"/>
+      <c r="I81" s="413"/>
+      <c r="J81" s="413"/>
+      <c r="K81" s="413"/>
+      <c r="L81" s="413"/>
+      <c r="M81" s="413"/>
+      <c r="N81" s="413"/>
+      <c r="O81" s="413"/>
+      <c r="P81" s="413"/>
+      <c r="Q81" s="413"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1">
@@ -13956,24 +13947,24 @@
       <c r="B82" s="121">
         <v>0</v>
       </c>
-      <c r="C82" s="407"/>
-      <c r="D82" s="408"/>
-      <c r="E82" s="407"/>
-      <c r="F82" s="407"/>
-      <c r="G82" s="409"/>
+      <c r="C82" s="408"/>
+      <c r="D82" s="409"/>
+      <c r="E82" s="408"/>
+      <c r="F82" s="408"/>
+      <c r="G82" s="410"/>
       <c r="H82" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I82" s="410"/>
-      <c r="J82" s="410"/>
-      <c r="K82" s="410"/>
-      <c r="L82" s="410"/>
-      <c r="M82" s="410"/>
-      <c r="N82" s="410"/>
-      <c r="O82" s="410"/>
-      <c r="P82" s="410"/>
-      <c r="Q82" s="410"/>
+      <c r="I82" s="413"/>
+      <c r="J82" s="413"/>
+      <c r="K82" s="413"/>
+      <c r="L82" s="413"/>
+      <c r="M82" s="413"/>
+      <c r="N82" s="413"/>
+      <c r="O82" s="413"/>
+      <c r="P82" s="413"/>
+      <c r="Q82" s="413"/>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1">
@@ -13982,38 +13973,38 @@
       <c r="B83" s="121">
         <v>0</v>
       </c>
-      <c r="C83" s="407">
-        <v>0</v>
-      </c>
-      <c r="D83" s="408">
+      <c r="C83" s="408">
+        <v>0</v>
+      </c>
+      <c r="D83" s="409">
         <f>IF(B88&gt;0,SUM(B83:B88)-C83,0)</f>
         <v>0</v>
       </c>
-      <c r="E83" s="407">
+      <c r="E83" s="408">
         <v>6.2</v>
       </c>
-      <c r="F83" s="407">
+      <c r="F83" s="408">
         <v>25.3</v>
       </c>
-      <c r="G83" s="409">
+      <c r="G83" s="410">
         <v>0</v>
       </c>
       <c r="H83" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I83" s="410">
+      <c r="I83" s="413">
         <f>IF($D$2&gt;F83,G83*($D$2-F83)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J83" s="410"/>
-      <c r="K83" s="410"/>
-      <c r="L83" s="410"/>
-      <c r="M83" s="410"/>
-      <c r="N83" s="410"/>
-      <c r="O83" s="410"/>
-      <c r="P83" s="410"/>
-      <c r="Q83" s="410"/>
+      <c r="J83" s="413"/>
+      <c r="K83" s="413"/>
+      <c r="L83" s="413"/>
+      <c r="M83" s="413"/>
+      <c r="N83" s="413"/>
+      <c r="O83" s="413"/>
+      <c r="P83" s="413"/>
+      <c r="Q83" s="413"/>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1">
@@ -14022,24 +14013,24 @@
       <c r="B84" s="121">
         <v>0</v>
       </c>
-      <c r="C84" s="407"/>
-      <c r="D84" s="408"/>
-      <c r="E84" s="407"/>
-      <c r="F84" s="407"/>
-      <c r="G84" s="409"/>
+      <c r="C84" s="408"/>
+      <c r="D84" s="409"/>
+      <c r="E84" s="408"/>
+      <c r="F84" s="408"/>
+      <c r="G84" s="410"/>
       <c r="H84" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I84" s="410"/>
-      <c r="J84" s="410"/>
-      <c r="K84" s="410"/>
-      <c r="L84" s="410"/>
-      <c r="M84" s="410"/>
-      <c r="N84" s="410"/>
-      <c r="O84" s="410"/>
-      <c r="P84" s="410"/>
-      <c r="Q84" s="410"/>
+      <c r="I84" s="413"/>
+      <c r="J84" s="413"/>
+      <c r="K84" s="413"/>
+      <c r="L84" s="413"/>
+      <c r="M84" s="413"/>
+      <c r="N84" s="413"/>
+      <c r="O84" s="413"/>
+      <c r="P84" s="413"/>
+      <c r="Q84" s="413"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1">
@@ -14048,24 +14039,24 @@
       <c r="B85" s="121">
         <v>0</v>
       </c>
-      <c r="C85" s="407"/>
-      <c r="D85" s="408"/>
-      <c r="E85" s="407"/>
-      <c r="F85" s="407"/>
-      <c r="G85" s="409"/>
+      <c r="C85" s="408"/>
+      <c r="D85" s="409"/>
+      <c r="E85" s="408"/>
+      <c r="F85" s="408"/>
+      <c r="G85" s="410"/>
       <c r="H85" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I85" s="410"/>
-      <c r="J85" s="410"/>
-      <c r="K85" s="410"/>
-      <c r="L85" s="410"/>
-      <c r="M85" s="410"/>
-      <c r="N85" s="410"/>
-      <c r="O85" s="410"/>
-      <c r="P85" s="410"/>
-      <c r="Q85" s="410"/>
+      <c r="I85" s="413"/>
+      <c r="J85" s="413"/>
+      <c r="K85" s="413"/>
+      <c r="L85" s="413"/>
+      <c r="M85" s="413"/>
+      <c r="N85" s="413"/>
+      <c r="O85" s="413"/>
+      <c r="P85" s="413"/>
+      <c r="Q85" s="413"/>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1">
@@ -14074,24 +14065,24 @@
       <c r="B86" s="121">
         <v>0</v>
       </c>
-      <c r="C86" s="407"/>
-      <c r="D86" s="408"/>
-      <c r="E86" s="407"/>
-      <c r="F86" s="407"/>
-      <c r="G86" s="409"/>
+      <c r="C86" s="408"/>
+      <c r="D86" s="409"/>
+      <c r="E86" s="408"/>
+      <c r="F86" s="408"/>
+      <c r="G86" s="410"/>
       <c r="H86" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I86" s="410"/>
-      <c r="J86" s="410"/>
-      <c r="K86" s="410"/>
-      <c r="L86" s="410"/>
-      <c r="M86" s="410"/>
-      <c r="N86" s="410"/>
-      <c r="O86" s="410"/>
-      <c r="P86" s="410"/>
-      <c r="Q86" s="410"/>
+      <c r="I86" s="413"/>
+      <c r="J86" s="413"/>
+      <c r="K86" s="413"/>
+      <c r="L86" s="413"/>
+      <c r="M86" s="413"/>
+      <c r="N86" s="413"/>
+      <c r="O86" s="413"/>
+      <c r="P86" s="413"/>
+      <c r="Q86" s="413"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1">
@@ -14100,24 +14091,24 @@
       <c r="B87" s="121">
         <v>0</v>
       </c>
-      <c r="C87" s="407"/>
-      <c r="D87" s="408"/>
-      <c r="E87" s="407"/>
-      <c r="F87" s="407"/>
-      <c r="G87" s="409"/>
+      <c r="C87" s="408"/>
+      <c r="D87" s="409"/>
+      <c r="E87" s="408"/>
+      <c r="F87" s="408"/>
+      <c r="G87" s="410"/>
       <c r="H87" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I87" s="410"/>
-      <c r="J87" s="410"/>
-      <c r="K87" s="410"/>
-      <c r="L87" s="410"/>
-      <c r="M87" s="410"/>
-      <c r="N87" s="410"/>
-      <c r="O87" s="410"/>
-      <c r="P87" s="410"/>
-      <c r="Q87" s="410"/>
+      <c r="I87" s="413"/>
+      <c r="J87" s="413"/>
+      <c r="K87" s="413"/>
+      <c r="L87" s="413"/>
+      <c r="M87" s="413"/>
+      <c r="N87" s="413"/>
+      <c r="O87" s="413"/>
+      <c r="P87" s="413"/>
+      <c r="Q87" s="413"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1">
@@ -14126,94 +14117,125 @@
       <c r="B88" s="121">
         <v>0</v>
       </c>
-      <c r="C88" s="407"/>
-      <c r="D88" s="408"/>
-      <c r="E88" s="407"/>
-      <c r="F88" s="407"/>
-      <c r="G88" s="409"/>
+      <c r="C88" s="408"/>
+      <c r="D88" s="409"/>
+      <c r="E88" s="408"/>
+      <c r="F88" s="408"/>
+      <c r="G88" s="410"/>
       <c r="H88" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I88" s="410"/>
-      <c r="J88" s="410"/>
-      <c r="K88" s="410"/>
-      <c r="L88" s="410"/>
-      <c r="M88" s="410"/>
-      <c r="N88" s="410"/>
-      <c r="O88" s="410"/>
-      <c r="P88" s="410"/>
-      <c r="Q88" s="410"/>
+      <c r="I88" s="413"/>
+      <c r="J88" s="413"/>
+      <c r="K88" s="413"/>
+      <c r="L88" s="413"/>
+      <c r="M88" s="413"/>
+      <c r="N88" s="413"/>
+      <c r="O88" s="413"/>
+      <c r="P88" s="413"/>
+      <c r="Q88" s="413"/>
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="P10:P15"/>
-    <mergeCell ref="Q10:Q15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="L10:L15"/>
-    <mergeCell ref="M10:M15"/>
-    <mergeCell ref="N10:N15"/>
-    <mergeCell ref="Q16:Q21"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="M16:M21"/>
-    <mergeCell ref="N16:N21"/>
-    <mergeCell ref="O16:O21"/>
-    <mergeCell ref="P16:P21"/>
-    <mergeCell ref="P22:P27"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="G28:G34"/>
-    <mergeCell ref="O28:O34"/>
-    <mergeCell ref="P28:P34"/>
-    <mergeCell ref="Q28:Q34"/>
-    <mergeCell ref="K28:K34"/>
-    <mergeCell ref="L28:L34"/>
-    <mergeCell ref="M28:M34"/>
-    <mergeCell ref="N28:N34"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="J35:J40"/>
-    <mergeCell ref="I28:I34"/>
-    <mergeCell ref="J28:J34"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="G83:G88"/>
+    <mergeCell ref="O83:O88"/>
+    <mergeCell ref="P83:P88"/>
+    <mergeCell ref="Q83:Q88"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="K83:K88"/>
+    <mergeCell ref="L83:L88"/>
+    <mergeCell ref="M83:M88"/>
+    <mergeCell ref="N83:N88"/>
+    <mergeCell ref="M71:M76"/>
+    <mergeCell ref="N71:N76"/>
+    <mergeCell ref="O71:O76"/>
+    <mergeCell ref="P71:P76"/>
+    <mergeCell ref="M77:M82"/>
+    <mergeCell ref="N77:N82"/>
+    <mergeCell ref="O77:O82"/>
+    <mergeCell ref="P77:P82"/>
+    <mergeCell ref="Q77:Q82"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="J77:J82"/>
+    <mergeCell ref="K77:K82"/>
+    <mergeCell ref="L77:L82"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="O65:O70"/>
+    <mergeCell ref="P65:P70"/>
+    <mergeCell ref="Q65:Q70"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="I71:I76"/>
+    <mergeCell ref="J71:J76"/>
+    <mergeCell ref="I65:I70"/>
+    <mergeCell ref="J65:J70"/>
+    <mergeCell ref="K65:K70"/>
+    <mergeCell ref="L65:L70"/>
+    <mergeCell ref="M65:M70"/>
+    <mergeCell ref="N65:N70"/>
+    <mergeCell ref="Q71:Q76"/>
+    <mergeCell ref="K71:K76"/>
+    <mergeCell ref="L71:L76"/>
+    <mergeCell ref="M53:M58"/>
+    <mergeCell ref="N53:N58"/>
+    <mergeCell ref="O53:O58"/>
+    <mergeCell ref="P53:P58"/>
+    <mergeCell ref="M59:M64"/>
+    <mergeCell ref="N59:N64"/>
+    <mergeCell ref="O59:O64"/>
+    <mergeCell ref="P59:P64"/>
+    <mergeCell ref="Q59:Q64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="F59:F64"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="J59:J64"/>
+    <mergeCell ref="K59:K64"/>
+    <mergeCell ref="L59:L64"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="O47:O52"/>
+    <mergeCell ref="P47:P52"/>
+    <mergeCell ref="Q47:Q52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="I53:I58"/>
+    <mergeCell ref="J53:J58"/>
+    <mergeCell ref="I47:I52"/>
+    <mergeCell ref="J47:J52"/>
+    <mergeCell ref="K47:K52"/>
+    <mergeCell ref="L47:L52"/>
+    <mergeCell ref="M47:M52"/>
+    <mergeCell ref="N47:N52"/>
+    <mergeCell ref="Q53:Q58"/>
+    <mergeCell ref="K53:K58"/>
+    <mergeCell ref="L53:L58"/>
     <mergeCell ref="Q35:Q40"/>
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="D41:D46"/>
@@ -14238,104 +14260,73 @@
     <mergeCell ref="C35:C40"/>
     <mergeCell ref="D35:D40"/>
     <mergeCell ref="E35:E40"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="E47:E52"/>
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="O47:O52"/>
-    <mergeCell ref="P47:P52"/>
-    <mergeCell ref="Q47:Q52"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="I53:I58"/>
-    <mergeCell ref="J53:J58"/>
-    <mergeCell ref="I47:I52"/>
-    <mergeCell ref="J47:J52"/>
-    <mergeCell ref="K47:K52"/>
-    <mergeCell ref="L47:L52"/>
-    <mergeCell ref="M47:M52"/>
-    <mergeCell ref="N47:N52"/>
-    <mergeCell ref="Q53:Q58"/>
-    <mergeCell ref="K53:K58"/>
-    <mergeCell ref="L53:L58"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="F59:F64"/>
-    <mergeCell ref="G59:G64"/>
-    <mergeCell ref="I59:I64"/>
-    <mergeCell ref="J59:J64"/>
-    <mergeCell ref="K59:K64"/>
-    <mergeCell ref="L59:L64"/>
-    <mergeCell ref="M53:M58"/>
-    <mergeCell ref="N53:N58"/>
-    <mergeCell ref="O53:O58"/>
-    <mergeCell ref="P53:P58"/>
-    <mergeCell ref="M59:M64"/>
-    <mergeCell ref="N59:N64"/>
-    <mergeCell ref="O59:O64"/>
-    <mergeCell ref="P59:P64"/>
-    <mergeCell ref="Q59:Q64"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="O65:O70"/>
-    <mergeCell ref="P65:P70"/>
-    <mergeCell ref="Q65:Q70"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="F71:F76"/>
-    <mergeCell ref="G71:G76"/>
-    <mergeCell ref="I71:I76"/>
-    <mergeCell ref="J71:J76"/>
-    <mergeCell ref="I65:I70"/>
-    <mergeCell ref="J65:J70"/>
-    <mergeCell ref="K65:K70"/>
-    <mergeCell ref="L65:L70"/>
-    <mergeCell ref="M65:M70"/>
-    <mergeCell ref="N65:N70"/>
-    <mergeCell ref="Q71:Q76"/>
-    <mergeCell ref="K71:K76"/>
-    <mergeCell ref="L71:L76"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="F77:F82"/>
-    <mergeCell ref="G77:G82"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="J77:J82"/>
-    <mergeCell ref="K77:K82"/>
-    <mergeCell ref="L77:L82"/>
-    <mergeCell ref="M71:M76"/>
-    <mergeCell ref="N71:N76"/>
-    <mergeCell ref="O71:O76"/>
-    <mergeCell ref="P71:P76"/>
-    <mergeCell ref="M77:M82"/>
-    <mergeCell ref="N77:N82"/>
-    <mergeCell ref="O77:O82"/>
-    <mergeCell ref="P77:P82"/>
-    <mergeCell ref="Q77:Q82"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="G83:G88"/>
-    <mergeCell ref="O83:O88"/>
-    <mergeCell ref="P83:P88"/>
-    <mergeCell ref="Q83:Q88"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="K83:K88"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="M83:M88"/>
-    <mergeCell ref="N83:N88"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="J35:J40"/>
+    <mergeCell ref="I28:I34"/>
+    <mergeCell ref="J28:J34"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="P22:P27"/>
+    <mergeCell ref="Q22:Q27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="O28:O34"/>
+    <mergeCell ref="P28:P34"/>
+    <mergeCell ref="Q28:Q34"/>
+    <mergeCell ref="K28:K34"/>
+    <mergeCell ref="L28:L34"/>
+    <mergeCell ref="M28:M34"/>
+    <mergeCell ref="N28:N34"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="P10:P15"/>
+    <mergeCell ref="Q10:Q15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="M10:M15"/>
+    <mergeCell ref="N10:N15"/>
+    <mergeCell ref="Q16:Q21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="N16:N21"/>
+    <mergeCell ref="O16:O21"/>
+    <mergeCell ref="P16:P21"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15768,29 +15759,29 @@
     </row>
     <row r="6" spans="4:12" ht="17.100000000000001" customHeight="1">
       <c r="F6" s="216"/>
-      <c r="G6" s="474" t="s">
+      <c r="G6" s="482" t="s">
         <v>916</v>
       </c>
-      <c r="H6" s="476" t="s">
+      <c r="H6" s="484" t="s">
         <v>917</v>
       </c>
-      <c r="I6" s="476" t="s">
+      <c r="I6" s="484" t="s">
         <v>918</v>
       </c>
-      <c r="J6" s="476" t="s">
+      <c r="J6" s="484" t="s">
         <v>919</v>
       </c>
-      <c r="K6" s="465" t="s">
+      <c r="K6" s="480" t="s">
         <v>920</v>
       </c>
-      <c r="L6" s="466"/>
+      <c r="L6" s="481"/>
     </row>
     <row r="7" spans="4:12" ht="18" customHeight="1">
       <c r="F7" s="216"/>
-      <c r="G7" s="475"/>
-      <c r="H7" s="477"/>
-      <c r="I7" s="477"/>
-      <c r="J7" s="477"/>
+      <c r="G7" s="483"/>
+      <c r="H7" s="485"/>
+      <c r="I7" s="485"/>
+      <c r="J7" s="485"/>
       <c r="K7" s="217" t="s">
         <v>921</v>
       </c>
@@ -15799,11 +15790,11 @@
       </c>
     </row>
     <row r="8" spans="4:12" ht="30" customHeight="1" thickBot="1">
-      <c r="D8" s="473" t="s">
+      <c r="D8" s="471" t="s">
         <v>923</v>
       </c>
-      <c r="E8" s="473"/>
-      <c r="F8" s="473"/>
+      <c r="E8" s="471"/>
+      <c r="F8" s="471"/>
       <c r="G8" s="219">
         <v>9.6</v>
       </c>
@@ -15849,21 +15840,21 @@
     </row>
     <row r="12" spans="4:12" ht="18.75">
       <c r="F12" s="216"/>
-      <c r="G12" s="467" t="s">
+      <c r="G12" s="465" t="s">
         <v>924</v>
       </c>
-      <c r="H12" s="469" t="s">
+      <c r="H12" s="467" t="s">
         <v>925</v>
       </c>
-      <c r="I12" s="471" t="s">
+      <c r="I12" s="469" t="s">
         <v>926</v>
       </c>
-      <c r="J12" s="472"/>
+      <c r="J12" s="470"/>
     </row>
     <row r="13" spans="4:12" ht="18.75">
       <c r="F13" s="216"/>
-      <c r="G13" s="468"/>
-      <c r="H13" s="470"/>
+      <c r="G13" s="466"/>
+      <c r="H13" s="468"/>
       <c r="I13" s="222" t="s">
         <v>927</v>
       </c>
@@ -15872,11 +15863,11 @@
       </c>
     </row>
     <row r="14" spans="4:12" ht="33" customHeight="1" thickBot="1">
-      <c r="D14" s="473" t="s">
+      <c r="D14" s="471" t="s">
         <v>929</v>
       </c>
-      <c r="E14" s="473"/>
-      <c r="F14" s="473"/>
+      <c r="E14" s="471"/>
+      <c r="F14" s="471"/>
       <c r="G14" s="224" t="s">
         <v>930</v>
       </c>
@@ -15894,20 +15885,20 @@
     </row>
     <row r="16" spans="4:12" ht="15.75" thickBot="1"/>
     <row r="17" spans="4:10" ht="18.75">
-      <c r="G17" s="467" t="s">
+      <c r="G17" s="465" t="s">
         <v>931</v>
       </c>
-      <c r="H17" s="469" t="s">
+      <c r="H17" s="467" t="s">
         <v>925</v>
       </c>
-      <c r="I17" s="471" t="s">
+      <c r="I17" s="469" t="s">
         <v>926</v>
       </c>
-      <c r="J17" s="472"/>
+      <c r="J17" s="470"/>
     </row>
     <row r="18" spans="4:10" ht="18.75">
-      <c r="G18" s="468"/>
-      <c r="H18" s="470"/>
+      <c r="G18" s="466"/>
+      <c r="H18" s="468"/>
       <c r="I18" s="222" t="s">
         <v>927</v>
       </c>
@@ -15916,11 +15907,11 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="33" customHeight="1" thickBot="1">
-      <c r="D19" s="473" t="s">
+      <c r="D19" s="471" t="s">
         <v>929</v>
       </c>
-      <c r="E19" s="473"/>
-      <c r="F19" s="473"/>
+      <c r="E19" s="471"/>
+      <c r="F19" s="471"/>
       <c r="G19" s="224" t="s">
         <v>932</v>
       </c>
@@ -15938,20 +15929,20 @@
     </row>
     <row r="21" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="22" spans="4:10" ht="18.75">
-      <c r="G22" s="478" t="s">
+      <c r="G22" s="472" t="s">
         <v>933</v>
       </c>
-      <c r="H22" s="469" t="s">
+      <c r="H22" s="467" t="s">
         <v>925</v>
       </c>
-      <c r="I22" s="471" t="s">
+      <c r="I22" s="469" t="s">
         <v>926</v>
       </c>
-      <c r="J22" s="472"/>
+      <c r="J22" s="470"/>
     </row>
     <row r="23" spans="4:10" ht="18.75">
-      <c r="G23" s="479"/>
-      <c r="H23" s="470"/>
+      <c r="G23" s="473"/>
+      <c r="H23" s="468"/>
       <c r="I23" s="222" t="s">
         <v>927</v>
       </c>
@@ -15960,11 +15951,11 @@
       </c>
     </row>
     <row r="24" spans="4:10" ht="32.1" customHeight="1">
-      <c r="D24" s="473" t="s">
+      <c r="D24" s="471" t="s">
         <v>929</v>
       </c>
-      <c r="E24" s="473"/>
-      <c r="F24" s="473"/>
+      <c r="E24" s="471"/>
+      <c r="F24" s="471"/>
       <c r="G24" s="225" t="s">
         <v>934</v>
       </c>
@@ -16019,20 +16010,20 @@
     </row>
     <row r="29" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="30" spans="4:10" ht="18.75">
-      <c r="G30" s="480" t="s">
+      <c r="G30" s="474" t="s">
         <v>937</v>
       </c>
-      <c r="H30" s="482" t="s">
+      <c r="H30" s="476" t="s">
         <v>938</v>
       </c>
-      <c r="I30" s="484" t="s">
+      <c r="I30" s="478" t="s">
         <v>939</v>
       </c>
-      <c r="J30" s="485"/>
+      <c r="J30" s="479"/>
     </row>
     <row r="31" spans="4:10" ht="18.75">
-      <c r="G31" s="481"/>
-      <c r="H31" s="483"/>
+      <c r="G31" s="475"/>
+      <c r="H31" s="477"/>
       <c r="I31" s="229" t="s">
         <v>921</v>
       </c>
@@ -16041,11 +16032,11 @@
       </c>
     </row>
     <row r="32" spans="4:10" ht="35.1" customHeight="1" thickBot="1">
-      <c r="D32" s="473" t="s">
+      <c r="D32" s="471" t="s">
         <v>940</v>
       </c>
-      <c r="E32" s="473"/>
-      <c r="F32" s="473"/>
+      <c r="E32" s="471"/>
+      <c r="F32" s="471"/>
       <c r="G32" s="231" t="s">
         <v>934</v>
       </c>
@@ -16063,6 +16054,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:J17"/>
@@ -16075,16 +16076,6 @@
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17036,7 +17027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -17774,7 +17765,7 @@
         <v>358.5</v>
       </c>
       <c r="K35" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
   </sheetData>
@@ -17791,9 +17782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN486"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H457" sqref="H457"/>
+      <selection pane="bottomLeft" activeCell="X457" sqref="X457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17844,17 +17835,17 @@
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" thickBot="1">
       <c r="A1" s="268"/>
-      <c r="B1" s="452" t="s">
+      <c r="B1" s="419" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="453"/>
-      <c r="D1" s="453"/>
-      <c r="E1" s="453"/>
-      <c r="F1" s="454"/>
-      <c r="G1" s="455" t="s">
+      <c r="C1" s="420"/>
+      <c r="D1" s="420"/>
+      <c r="E1" s="420"/>
+      <c r="F1" s="421"/>
+      <c r="G1" s="422" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="456"/>
+      <c r="H1" s="423"/>
     </row>
     <row r="2" spans="1:40" ht="17.25" thickBot="1">
       <c r="A2" s="271" t="s">
@@ -17875,24 +17866,24 @@
       <c r="F2" s="273" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="457">
+      <c r="G2" s="424">
         <f ca="1">TODAY()-A13</f>
-        <v>1225</v>
-      </c>
-      <c r="H2" s="458"/>
+        <v>1228</v>
+      </c>
+      <c r="H2" s="425"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
       <c r="A3" s="274">
         <f>C6-F6</f>
-        <v>1215776.4411799998</v>
+        <v>1214701.4411799998</v>
       </c>
       <c r="B3" s="275">
         <f>C3+D3+E3+F3</f>
-        <v>1429842.4299999995</v>
+        <v>1429007.1799999995</v>
       </c>
       <c r="C3" s="276">
         <f>'whobor-touna'!J3+人人贷!E3+宜人贷!T2+'whobor-wzd'!N2</f>
-        <v>667459.72</v>
+        <v>666624.47000000009</v>
       </c>
       <c r="D3" s="277">
         <f>'thmei-touna'!J3</f>
@@ -17906,35 +17897,35 @@
         <f>'whobor-touna'!L3</f>
         <v>21308.880000000001</v>
       </c>
-      <c r="G3" s="455" t="s">
+      <c r="G3" s="422" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="456"/>
+      <c r="H3" s="423"/>
     </row>
     <row r="4" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="279"/>
       <c r="B4" s="279"/>
       <c r="C4" s="280">
         <f>C3/$B$3</f>
-        <v>0.46680648580277495</v>
+        <v>0.46649483594617092</v>
       </c>
       <c r="D4" s="280">
         <f>D3/$B$3</f>
-        <v>0.50119002273558189</v>
+        <v>0.50148296665661241</v>
       </c>
       <c r="E4" s="280">
         <f>E3/$B$3</f>
-        <v>1.7100534637232725E-2</v>
+        <v>1.7110529843523955E-2</v>
       </c>
       <c r="F4" s="281">
         <f>F3/$B$3</f>
-        <v>1.4902956824410372E-2</v>
-      </c>
-      <c r="G4" s="450">
+        <v>1.4911667553692774E-2</v>
+      </c>
+      <c r="G4" s="426">
         <f ca="1">A6/G2</f>
-        <v>174.7477459755099</v>
-      </c>
-      <c r="H4" s="451"/>
+        <v>174.51607395765441</v>
+      </c>
+      <c r="H4" s="427"/>
     </row>
     <row r="5" spans="1:40" ht="17.25" thickBot="1">
       <c r="A5" s="282" t="s">
@@ -17955,19 +17946,19 @@
       <c r="F5" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="447" t="s">
+      <c r="G5" s="433" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="448"/>
+      <c r="H5" s="434"/>
     </row>
     <row r="6" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="287">
         <f>B3-A3</f>
-        <v>214065.98881999962</v>
+        <v>214305.73881999962</v>
       </c>
       <c r="B6" s="288">
         <f>F6-C6</f>
-        <v>-1215776.4411799998</v>
+        <v>-1214701.4411799998</v>
       </c>
       <c r="C6" s="289">
         <f>B12+L12+G12+X12+R12</f>
@@ -17975,7 +17966,7 @@
       </c>
       <c r="D6" s="290">
         <f>C12+H12+M12+Y12+S12</f>
-        <v>1844248.9600000002</v>
+        <v>1845323.9600000002</v>
       </c>
       <c r="E6" s="291">
         <f>D12+N12+Z12+T12</f>
@@ -17983,207 +17974,207 @@
       </c>
       <c r="F6" s="292">
         <f>D6-E6</f>
-        <v>1841873.4488200003</v>
-      </c>
-      <c r="G6" s="450">
+        <v>1842948.4488200003</v>
+      </c>
+      <c r="G6" s="426">
         <f ca="1">G4*30</f>
-        <v>5242.4323792652967</v>
-      </c>
-      <c r="H6" s="451"/>
+        <v>5235.4822187296322</v>
+      </c>
+      <c r="H6" s="427"/>
     </row>
     <row r="7" spans="1:40" s="294" customFormat="1" ht="20.25">
       <c r="A7" s="293"/>
-      <c r="B7" s="444" t="s">
+      <c r="B7" s="446" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="442"/>
-      <c r="D7" s="442"/>
-      <c r="E7" s="443"/>
-      <c r="F7" s="445"/>
-      <c r="G7" s="441" t="s">
+      <c r="C7" s="444"/>
+      <c r="D7" s="444"/>
+      <c r="E7" s="445"/>
+      <c r="F7" s="447"/>
+      <c r="G7" s="443" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="442"/>
-      <c r="I7" s="442"/>
-      <c r="J7" s="443"/>
-      <c r="K7" s="443"/>
-      <c r="L7" s="435" t="s">
+      <c r="H7" s="444"/>
+      <c r="I7" s="444"/>
+      <c r="J7" s="445"/>
+      <c r="K7" s="445"/>
+      <c r="L7" s="439" t="s">
         <v>908</v>
       </c>
-      <c r="M7" s="436"/>
-      <c r="N7" s="436"/>
-      <c r="O7" s="436"/>
-      <c r="P7" s="436"/>
-      <c r="Q7" s="437"/>
-      <c r="R7" s="436" t="s">
+      <c r="M7" s="435"/>
+      <c r="N7" s="435"/>
+      <c r="O7" s="435"/>
+      <c r="P7" s="435"/>
+      <c r="Q7" s="440"/>
+      <c r="R7" s="435" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="436"/>
-      <c r="T7" s="436"/>
-      <c r="U7" s="436"/>
-      <c r="V7" s="436"/>
-      <c r="W7" s="436"/>
-      <c r="X7" s="435" t="s">
+      <c r="S7" s="435"/>
+      <c r="T7" s="435"/>
+      <c r="U7" s="435"/>
+      <c r="V7" s="435"/>
+      <c r="W7" s="435"/>
+      <c r="X7" s="439" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="436"/>
-      <c r="Z7" s="436"/>
-      <c r="AA7" s="436"/>
-      <c r="AB7" s="436"/>
-      <c r="AC7" s="437"/>
+      <c r="Y7" s="435"/>
+      <c r="Z7" s="435"/>
+      <c r="AA7" s="435"/>
+      <c r="AB7" s="435"/>
+      <c r="AC7" s="440"/>
     </row>
     <row r="8" spans="1:40" s="294" customFormat="1" ht="16.5">
       <c r="A8" s="295" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="438" t="s">
+      <c r="B8" s="441" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="439"/>
-      <c r="D8" s="439"/>
-      <c r="E8" s="439"/>
-      <c r="F8" s="440"/>
-      <c r="G8" s="439" t="s">
+      <c r="C8" s="436"/>
+      <c r="D8" s="436"/>
+      <c r="E8" s="436"/>
+      <c r="F8" s="442"/>
+      <c r="G8" s="436" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="439"/>
-      <c r="I8" s="439"/>
-      <c r="J8" s="439"/>
-      <c r="K8" s="439"/>
-      <c r="L8" s="438" t="s">
+      <c r="H8" s="436"/>
+      <c r="I8" s="436"/>
+      <c r="J8" s="436"/>
+      <c r="K8" s="436"/>
+      <c r="L8" s="441" t="s">
         <v>909</v>
       </c>
-      <c r="M8" s="439"/>
-      <c r="N8" s="439"/>
-      <c r="O8" s="439"/>
-      <c r="P8" s="439"/>
-      <c r="Q8" s="440"/>
-      <c r="R8" s="439" t="s">
+      <c r="M8" s="436"/>
+      <c r="N8" s="436"/>
+      <c r="O8" s="436"/>
+      <c r="P8" s="436"/>
+      <c r="Q8" s="442"/>
+      <c r="R8" s="436" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="439"/>
-      <c r="T8" s="439"/>
-      <c r="U8" s="439"/>
-      <c r="V8" s="439"/>
-      <c r="W8" s="439"/>
-      <c r="X8" s="438" t="s">
+      <c r="S8" s="436"/>
+      <c r="T8" s="436"/>
+      <c r="U8" s="436"/>
+      <c r="V8" s="436"/>
+      <c r="W8" s="436"/>
+      <c r="X8" s="441" t="s">
         <v>170</v>
       </c>
-      <c r="Y8" s="439"/>
-      <c r="Z8" s="439"/>
-      <c r="AA8" s="439"/>
-      <c r="AB8" s="439"/>
-      <c r="AC8" s="440"/>
+      <c r="Y8" s="436"/>
+      <c r="Z8" s="436"/>
+      <c r="AA8" s="436"/>
+      <c r="AB8" s="436"/>
+      <c r="AC8" s="442"/>
       <c r="AK8" s="296"/>
     </row>
     <row r="9" spans="1:40" s="294" customFormat="1" ht="16.5">
       <c r="A9" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="423" t="s">
+      <c r="B9" s="430" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="424"/>
-      <c r="D9" s="423" t="s">
+      <c r="C9" s="429"/>
+      <c r="D9" s="430" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="428"/>
-      <c r="F9" s="434"/>
-      <c r="G9" s="446" t="s">
+      <c r="E9" s="431"/>
+      <c r="F9" s="458"/>
+      <c r="G9" s="428" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="424"/>
-      <c r="I9" s="423" t="s">
+      <c r="H9" s="429"/>
+      <c r="I9" s="430" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="428"/>
-      <c r="K9" s="427"/>
-      <c r="L9" s="421" t="s">
+      <c r="J9" s="431"/>
+      <c r="K9" s="432"/>
+      <c r="L9" s="450" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="422"/>
-      <c r="N9" s="427" t="s">
+      <c r="M9" s="438"/>
+      <c r="N9" s="432" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="428"/>
-      <c r="P9" s="428"/>
-      <c r="Q9" s="429"/>
-      <c r="R9" s="449" t="s">
+      <c r="O9" s="431"/>
+      <c r="P9" s="431"/>
+      <c r="Q9" s="453"/>
+      <c r="R9" s="437" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="422"/>
-      <c r="T9" s="427" t="s">
+      <c r="S9" s="438"/>
+      <c r="T9" s="432" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="428"/>
-      <c r="V9" s="428"/>
-      <c r="W9" s="428"/>
-      <c r="X9" s="421" t="s">
+      <c r="U9" s="431"/>
+      <c r="V9" s="431"/>
+      <c r="W9" s="431"/>
+      <c r="X9" s="450" t="s">
         <v>49</v>
       </c>
-      <c r="Y9" s="422"/>
-      <c r="Z9" s="427" t="s">
+      <c r="Y9" s="438"/>
+      <c r="Z9" s="432" t="s">
         <v>50</v>
       </c>
-      <c r="AA9" s="428"/>
-      <c r="AB9" s="428"/>
-      <c r="AC9" s="429"/>
+      <c r="AA9" s="431"/>
+      <c r="AB9" s="431"/>
+      <c r="AC9" s="453"/>
     </row>
     <row r="10" spans="1:40" ht="15.75" customHeight="1">
       <c r="A10" s="297" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="419" t="s">
+      <c r="B10" s="448" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="420"/>
-      <c r="D10" s="431">
+      <c r="C10" s="449"/>
+      <c r="D10" s="455">
         <f>'whobor-touna'!G3/$B$3</f>
-        <v>0.36468001582524046</v>
-      </c>
-      <c r="E10" s="425"/>
-      <c r="F10" s="426"/>
-      <c r="G10" s="430" t="s">
+        <v>0.3648931700958985</v>
+      </c>
+      <c r="E10" s="451"/>
+      <c r="F10" s="452"/>
+      <c r="G10" s="454" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="420"/>
-      <c r="I10" s="431">
+      <c r="H10" s="449"/>
+      <c r="I10" s="455">
         <f>'thmei-touna'!G3/$B$3</f>
-        <v>0.5182905573728146</v>
-      </c>
-      <c r="J10" s="425"/>
-      <c r="K10" s="425"/>
-      <c r="L10" s="432" t="s">
+        <v>0.51859349650013631</v>
+      </c>
+      <c r="J10" s="451"/>
+      <c r="K10" s="451"/>
+      <c r="L10" s="456" t="s">
         <v>222</v>
       </c>
-      <c r="M10" s="433"/>
-      <c r="N10" s="425">
+      <c r="M10" s="457"/>
+      <c r="N10" s="451">
         <f>宜人贷!T2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="O10" s="425"/>
-      <c r="P10" s="425"/>
-      <c r="Q10" s="426"/>
-      <c r="R10" s="433"/>
-      <c r="S10" s="433"/>
-      <c r="T10" s="425">
+      <c r="O10" s="451"/>
+      <c r="P10" s="451"/>
+      <c r="Q10" s="452"/>
+      <c r="R10" s="457"/>
+      <c r="S10" s="457"/>
+      <c r="T10" s="451">
         <f>宜人贷!Z2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="U10" s="425"/>
-      <c r="V10" s="425"/>
-      <c r="W10" s="425"/>
-      <c r="X10" s="432">
+      <c r="U10" s="451"/>
+      <c r="V10" s="451"/>
+      <c r="W10" s="451"/>
+      <c r="X10" s="456">
         <v>830106</v>
       </c>
-      <c r="Y10" s="433"/>
-      <c r="Z10" s="425">
+      <c r="Y10" s="457"/>
+      <c r="Z10" s="451">
         <f>'whobor-wzd'!N2/$B$3</f>
-        <v>9.1880438881646584E-2</v>
-      </c>
-      <c r="AA10" s="425"/>
-      <c r="AB10" s="425"/>
-      <c r="AC10" s="426"/>
+        <v>9.1349645982884461E-2</v>
+      </c>
+      <c r="AA10" s="451"/>
+      <c r="AB10" s="451"/>
+      <c r="AC10" s="452"/>
     </row>
     <row r="11" spans="1:40" ht="28.5" customHeight="1">
       <c r="A11" s="298" t="s">
@@ -18358,7 +18349,7 @@
       </c>
       <c r="Y12" s="309">
         <f>SUM(Y13:Y986)</f>
-        <v>1064704.3300000003</v>
+        <v>1065779.3300000003</v>
       </c>
       <c r="Z12" s="316">
         <f>SUM(Z13:Z986)</f>
@@ -18367,11 +18358,11 @@
       <c r="AA12" s="309"/>
       <c r="AB12" s="313">
         <f>Y12-X12+AC12-Z12</f>
-        <v>34173.566420000236</v>
+        <v>34413.31642000025</v>
       </c>
       <c r="AC12" s="311">
         <f>'whobor-wzd'!N2</f>
-        <v>131374.54999999999</v>
+        <v>130539.3</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -34369,6 +34360,9 @@
       <c r="AC455" s="320"/>
     </row>
     <row r="456" spans="1:29">
+      <c r="A456" s="317">
+        <v>42916</v>
+      </c>
       <c r="B456" s="318"/>
       <c r="C456" s="319"/>
       <c r="D456" s="319"/>
@@ -34392,7 +34386,9 @@
       <c r="V456" s="319"/>
       <c r="W456" s="320"/>
       <c r="X456" s="321"/>
-      <c r="Y456" s="319"/>
+      <c r="Y456" s="319">
+        <v>1075</v>
+      </c>
       <c r="Z456" s="321"/>
       <c r="AA456" s="319"/>
       <c r="AB456" s="319"/>
@@ -35300,27 +35296,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="L7:Q7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B9:C9"/>
@@ -35337,6 +35312,27 @@
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D9:F9"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35551,7 +35547,7 @@
         <v>102</v>
       </c>
       <c r="N2" s="75" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
@@ -36910,7 +36906,7 @@
         <v>43509</v>
       </c>
       <c r="B34" s="123" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C34" s="126">
         <v>1177.51</v>
@@ -37086,7 +37082,7 @@
         <v>43564</v>
       </c>
       <c r="B38" s="123" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C38" s="126">
         <v>620</v>
@@ -37130,7 +37126,7 @@
         <v>43565</v>
       </c>
       <c r="B39" s="123" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C39" s="126">
         <v>10000</v>
@@ -37174,7 +37170,7 @@
         <v>43570</v>
       </c>
       <c r="B40" s="123" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C40" s="126">
         <v>4060</v>
@@ -37256,7 +37252,7 @@
         <v>42870</v>
       </c>
       <c r="B42" s="379" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C42" s="380">
         <v>1793</v>
@@ -37295,7 +37291,7 @@
         <v>1793</v>
       </c>
       <c r="N42" s="377" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -40605,7 +40601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P321"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
@@ -40808,7 +40804,7 @@
         <v>100</v>
       </c>
       <c r="N2" s="75" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="30.75" customHeight="1" thickBot="1">
@@ -41069,7 +41065,7 @@
         <v>659</v>
       </c>
       <c r="P8" s="173" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="165" customFormat="1" ht="15.75" thickBot="1">
@@ -42029,7 +42025,7 @@
         <v>43115</v>
       </c>
       <c r="B30" s="123" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C30" s="126">
         <v>1244.07</v>
@@ -42205,7 +42201,7 @@
         <v>43145</v>
       </c>
       <c r="B34" s="123" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C34" s="126">
         <v>5350.66</v>
@@ -42293,7 +42289,7 @@
         <v>43159</v>
       </c>
       <c r="B36" s="123" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C36" s="126">
         <v>555.36</v>
@@ -42337,7 +42333,7 @@
         <v>43350</v>
       </c>
       <c r="B37" s="123" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C37" s="126">
         <v>803.92</v>
@@ -42866,7 +42862,7 @@
         <v>43436</v>
       </c>
       <c r="B49" s="123" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C49" s="126">
         <v>1046.44</v>
@@ -43526,7 +43522,7 @@
         <v>43536</v>
       </c>
       <c r="B64" s="123" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C64" s="126">
         <v>4540.4799999999996</v>
@@ -43658,7 +43654,7 @@
         <v>43558</v>
       </c>
       <c r="B67" s="353" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C67" s="126">
         <v>3000</v>
@@ -43702,7 +43698,7 @@
         <v>43560</v>
       </c>
       <c r="B68" s="353" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C68" s="126">
         <v>5000</v>
@@ -43746,7 +43742,7 @@
         <v>43563</v>
       </c>
       <c r="B69" s="353" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C69" s="126">
         <v>3134</v>
@@ -43790,7 +43786,7 @@
         <v>43566</v>
       </c>
       <c r="B70" s="353" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C70" s="126">
         <v>10824</v>
@@ -43834,7 +43830,7 @@
         <v>43569</v>
       </c>
       <c r="B71" s="353" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C71" s="126">
         <v>2187</v>
@@ -43878,7 +43874,7 @@
         <v>43570</v>
       </c>
       <c r="B72" s="353" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C72" s="126">
         <v>1279</v>
@@ -43922,7 +43918,7 @@
         <v>43570</v>
       </c>
       <c r="B73" s="353" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C73" s="126">
         <v>8837</v>
@@ -43967,7 +43963,7 @@
         <v>43572</v>
       </c>
       <c r="B74" s="353" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C74" s="126">
         <v>1124.54</v>
@@ -44011,7 +44007,7 @@
         <v>43582</v>
       </c>
       <c r="B75" s="353" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C75" s="126">
         <v>1240</v>
@@ -44055,7 +44051,7 @@
         <v>43583</v>
       </c>
       <c r="B76" s="353" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C76" s="126">
         <v>11652</v>
@@ -44099,7 +44095,7 @@
         <v>43587</v>
       </c>
       <c r="B77" s="353" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C77" s="126">
         <v>3279</v>
@@ -44143,7 +44139,7 @@
         <v>43587</v>
       </c>
       <c r="B78" s="353" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C78" s="126">
         <v>4735</v>
@@ -44187,7 +44183,7 @@
         <v>43593</v>
       </c>
       <c r="B79" s="353" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C79" s="126">
         <v>3000</v>
@@ -44246,7 +44242,7 @@
         <v>42872</v>
       </c>
       <c r="B81" s="389" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C81" s="380">
         <v>1284</v>
@@ -44285,7 +44281,7 @@
         <v>0</v>
       </c>
       <c r="N81" s="377" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="390" customFormat="1" ht="26.25" thickBot="1">
@@ -44293,7 +44289,7 @@
         <v>42878</v>
       </c>
       <c r="B82" s="389" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C82" s="380">
         <v>6000</v>
@@ -44332,7 +44328,7 @@
         <v>0</v>
       </c>
       <c r="N82" s="390" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="83" spans="1:14" s="390" customFormat="1" ht="26.25" thickBot="1">
@@ -44340,7 +44336,7 @@
         <v>42879</v>
       </c>
       <c r="B83" s="389" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C83" s="380">
         <v>5835</v>
@@ -44379,7 +44375,7 @@
         <v>0</v>
       </c>
       <c r="N83" s="390" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="84" spans="1:14" s="405" customFormat="1" ht="26.25" thickBot="1">
@@ -44387,7 +44383,7 @@
         <v>42888</v>
       </c>
       <c r="B84" s="389" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C84" s="380">
         <v>3062</v>
@@ -44426,7 +44422,7 @@
         <v>0</v>
       </c>
       <c r="N84" s="405" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="406" customFormat="1" ht="26.25" thickBot="1">
@@ -44434,7 +44430,7 @@
         <v>42892</v>
       </c>
       <c r="B85" s="389" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C85" s="380">
         <v>2206</v>
@@ -44473,7 +44469,7 @@
         <v>0</v>
       </c>
       <c r="N85" s="406" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="406" customFormat="1" ht="26.25" thickBot="1">
@@ -44481,7 +44477,7 @@
         <v>42894</v>
       </c>
       <c r="B86" s="389" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C86" s="380">
         <v>10500</v>
@@ -44520,7 +44516,7 @@
         <v>0</v>
       </c>
       <c r="N86" s="406" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="406" customFormat="1" ht="26.25" thickBot="1">
@@ -44528,7 +44524,7 @@
         <v>42905</v>
       </c>
       <c r="B87" s="389" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C87" s="380">
         <v>9032</v>
@@ -44567,7 +44563,7 @@
         <v>0</v>
       </c>
       <c r="N87" s="406" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="406" customFormat="1" ht="25.5">
@@ -44575,7 +44571,7 @@
         <v>42906</v>
       </c>
       <c r="B88" s="389" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C88" s="380">
         <v>19527</v>
@@ -44614,7 +44610,7 @@
         <v>0</v>
       </c>
       <c r="N88" s="406" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -44636,16 +44632,16 @@
         <v>172</v>
       </c>
       <c r="B90" s="26" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E90" s="26" t="s">
         <v>1229</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>1232</v>
       </c>
       <c r="F90" s="26" t="s">
         <v>296</v>
@@ -44726,16 +44722,16 @@
         <v>184</v>
       </c>
       <c r="B92" s="26" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E92" s="26" t="s">
         <v>1233</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>1236</v>
       </c>
       <c r="F92" s="26" t="s">
         <v>295</v>
@@ -45266,16 +45262,16 @@
         <v>173</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="F104" s="26" t="s">
         <v>296</v>
@@ -45401,16 +45397,16 @@
         <v>185</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="F107" s="26" t="s">
         <v>295</v>
@@ -45939,16 +45935,16 @@
         <v>174</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="F119" s="26" t="s">
         <v>296</v>
@@ -46074,16 +46070,16 @@
         <v>186</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="F122" s="26" t="s">
         <v>295</v>
@@ -46612,16 +46608,16 @@
         <v>175</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F134" s="26" t="s">
         <v>296</v>
@@ -46702,16 +46698,16 @@
         <v>187</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D136" s="26" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="F136" s="26" t="s">
         <v>295</v>
@@ -47240,16 +47236,16 @@
         <v>176</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D148" s="26" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="F148" s="26" t="s">
         <v>296</v>
@@ -47375,16 +47371,16 @@
         <v>188</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="D151" s="26" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="F151" s="26" t="s">
         <v>295</v>
@@ -47913,16 +47909,16 @@
         <v>177</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="D163" s="26" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="F163" s="26" t="s">
         <v>296</v>
@@ -48003,16 +47999,16 @@
         <v>189</v>
       </c>
       <c r="B165" s="26" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C165" s="26" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="D165" s="26" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="E165" s="26" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="F165" s="26" t="s">
         <v>295</v>
@@ -48631,16 +48627,16 @@
         <v>282</v>
       </c>
       <c r="B179" s="26" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C179" s="26" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D179" s="26" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E179" s="26" t="s">
         <v>1267</v>
-      </c>
-      <c r="C179" s="26" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D179" s="26" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E179" s="26" t="s">
-        <v>1270</v>
       </c>
       <c r="F179" s="26" t="s">
         <v>296</v>
@@ -49216,16 +49212,16 @@
         <v>283</v>
       </c>
       <c r="B192" s="26" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C192" s="26" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="D192" s="26" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="E192" s="26" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="F192" s="26" t="s">
         <v>296</v>
@@ -49714,13 +49710,13 @@
         <v>1006</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="D203" s="26" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="E203" s="26" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="F203" s="26" t="s">
         <v>295</v>
@@ -49756,16 +49752,16 @@
         <v>284</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="E204" s="26" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="F204" s="26" t="s">
         <v>296</v>
@@ -50341,16 +50337,16 @@
         <v>285</v>
       </c>
       <c r="B217" s="26" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C217" s="26" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="D217" s="26" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="E217" s="26" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="F217" s="26" t="s">
         <v>296</v>
@@ -50881,16 +50877,16 @@
         <v>286</v>
       </c>
       <c r="B229" s="26" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C229" s="26" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="D229" s="26" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="E229" s="26" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="F229" s="26" t="s">
         <v>296</v>
@@ -51421,16 +51417,16 @@
         <v>287</v>
       </c>
       <c r="B241" s="26" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C241" s="26" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="D241" s="26" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="E241" s="26" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="F241" s="26" t="s">
         <v>296</v>
@@ -54006,11 +54002,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54460,8 +54456,8 @@
       <c r="D2" s="148"/>
       <c r="E2" s="149"/>
       <c r="F2" s="152">
-        <f>SUM(F4:F46)</f>
-        <v>140609.29999999999</v>
+        <f>SUM(F4:F44)</f>
+        <v>130539.3</v>
       </c>
       <c r="G2" s="147"/>
       <c r="H2" s="147"/>
@@ -54472,20 +54468,20 @@
         <v>0</v>
       </c>
       <c r="L2" s="149">
-        <f>SUM(L3:L46)</f>
-        <v>7916.15</v>
+        <f>SUM(L3:L44)</f>
+        <v>7676.380000000001</v>
       </c>
       <c r="M2" s="150">
-        <f>SUM(M3:M48)</f>
-        <v>9234.75</v>
+        <f>SUM(M3:M46)</f>
+        <v>0</v>
       </c>
       <c r="N2" s="149">
         <f>F2-M2</f>
-        <v>131374.54999999999</v>
+        <v>130539.3</v>
       </c>
       <c r="O2" s="149">
-        <f>SUM(O3:O46)</f>
-        <v>139290.71</v>
+        <f>SUM(O3:O44)</f>
+        <v>138215.69</v>
       </c>
       <c r="S2" s="151" t="s">
         <v>63</v>
@@ -54518,25 +54514,25 @@
     </row>
     <row r="4" spans="1:19" ht="30.75" thickBot="1">
       <c r="A4" s="392">
-        <v>42915</v>
+        <v>42918</v>
       </c>
       <c r="B4" s="153" t="s">
-        <v>1208</v>
+        <v>1217</v>
       </c>
       <c r="C4" s="393" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="D4" s="394">
         <v>42736</v>
       </c>
       <c r="E4" s="395">
-        <v>1078.02</v>
+        <v>3022.5</v>
       </c>
       <c r="F4" s="395">
-        <v>1070</v>
+        <v>3000</v>
       </c>
       <c r="G4" s="393">
-        <v>8.02</v>
+        <v>22.5</v>
       </c>
       <c r="H4" s="393">
         <v>0</v>
@@ -54551,162 +54547,160 @@
         <v>164</v>
       </c>
       <c r="L4" s="142">
-        <f t="shared" ref="L4" si="0">G4</f>
-        <v>8.02</v>
+        <f t="shared" ref="L4:L5" si="0">G4</f>
+        <v>22.5</v>
       </c>
       <c r="M4" s="146"/>
       <c r="N4" s="142"/>
       <c r="O4" s="142">
-        <f t="shared" ref="O4" si="1">E4-M4</f>
-        <v>1078.02</v>
+        <f t="shared" ref="O4:O5" si="1">E4-M4</f>
+        <v>3022.5</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30.75" thickBot="1">
-      <c r="A5" s="370">
-        <v>42916</v>
-      </c>
-      <c r="B5" s="372" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C5" s="371" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D5" s="373">
+      <c r="A5" s="392">
+        <v>42918</v>
+      </c>
+      <c r="B5" s="153" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C5" s="393" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D5" s="394">
         <v>42736</v>
       </c>
-      <c r="E5" s="374">
-        <v>9231.75</v>
-      </c>
-      <c r="F5" s="374">
-        <v>9000</v>
-      </c>
-      <c r="G5" s="371">
-        <v>231.75</v>
-      </c>
-      <c r="H5" s="371">
-        <v>0</v>
-      </c>
-      <c r="I5" s="375">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="J5" s="376">
-        <v>0</v>
-      </c>
-      <c r="K5" s="371" t="s">
+      <c r="E5" s="393">
+        <v>2.52</v>
+      </c>
+      <c r="F5" s="393">
+        <v>2.5</v>
+      </c>
+      <c r="G5" s="393">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="393">
+        <v>0</v>
+      </c>
+      <c r="I5" s="396">
+        <v>0.09</v>
+      </c>
+      <c r="J5" s="396">
+        <v>0</v>
+      </c>
+      <c r="K5" s="393" t="s">
         <v>164</v>
       </c>
       <c r="L5" s="142">
-        <f t="shared" ref="L5" si="2">G5</f>
-        <v>231.75</v>
-      </c>
-      <c r="M5" s="146">
-        <v>9234.75</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="M5" s="146"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142">
-        <f t="shared" ref="O5:O10" si="3">E5-M5</f>
-        <v>-3</v>
+        <f t="shared" si="1"/>
+        <v>2.52</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="30.75" thickBot="1">
-      <c r="A6" s="392">
-        <v>42918</v>
-      </c>
-      <c r="B6" s="153" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C6" s="393" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D6" s="394">
+      <c r="A6" s="370">
+        <v>42950</v>
+      </c>
+      <c r="B6" s="372" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C6" s="371" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D6" s="373">
         <v>42736</v>
       </c>
-      <c r="E6" s="395">
-        <v>3022.5</v>
-      </c>
-      <c r="F6" s="395">
-        <v>3000</v>
-      </c>
-      <c r="G6" s="393">
-        <v>22.5</v>
-      </c>
-      <c r="H6" s="393">
-        <v>0</v>
-      </c>
-      <c r="I6" s="396">
-        <v>0.09</v>
-      </c>
-      <c r="J6" s="396">
-        <v>0</v>
-      </c>
-      <c r="K6" s="393" t="s">
+      <c r="E6" s="374">
+        <v>2051.5</v>
+      </c>
+      <c r="F6" s="374">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="371">
+        <v>51.5</v>
+      </c>
+      <c r="H6" s="371">
+        <v>0</v>
+      </c>
+      <c r="I6" s="375">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="J6" s="376">
+        <v>0</v>
+      </c>
+      <c r="K6" s="371" t="s">
         <v>164</v>
       </c>
       <c r="L6" s="142">
-        <f t="shared" ref="L6:L7" si="4">G6</f>
-        <v>22.5</v>
+        <f t="shared" ref="L6" si="2">G6</f>
+        <v>51.5</v>
       </c>
       <c r="M6" s="146"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142">
-        <f t="shared" ref="O6:O7" si="5">E6-M6</f>
-        <v>3022.5</v>
+        <f t="shared" ref="O6" si="3">E6-M6</f>
+        <v>2051.5</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="30.75" thickBot="1">
-      <c r="A7" s="392">
-        <v>42918</v>
-      </c>
-      <c r="B7" s="153" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C7" s="393" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D7" s="394">
+      <c r="A7" s="370">
+        <v>42951</v>
+      </c>
+      <c r="B7" s="372" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C7" s="371" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D7" s="373">
         <v>42736</v>
       </c>
-      <c r="E7" s="393">
-        <v>2.52</v>
-      </c>
-      <c r="F7" s="393">
-        <v>2.5</v>
-      </c>
-      <c r="G7" s="393">
-        <v>0.01</v>
-      </c>
-      <c r="H7" s="393">
-        <v>0</v>
-      </c>
-      <c r="I7" s="396">
-        <v>0.09</v>
-      </c>
-      <c r="J7" s="396">
-        <v>0</v>
-      </c>
-      <c r="K7" s="393" t="s">
+      <c r="E7" s="374">
+        <v>2051.5</v>
+      </c>
+      <c r="F7" s="374">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="371">
+        <v>51.5</v>
+      </c>
+      <c r="H7" s="371">
+        <v>0</v>
+      </c>
+      <c r="I7" s="375">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="J7" s="376">
+        <v>0</v>
+      </c>
+      <c r="K7" s="371" t="s">
         <v>164</v>
       </c>
       <c r="L7" s="142">
-        <f t="shared" si="4"/>
-        <v>0.01</v>
+        <f t="shared" ref="L7" si="4">G7</f>
+        <v>51.5</v>
       </c>
       <c r="M7" s="146"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142">
-        <f t="shared" si="5"/>
-        <v>2.52</v>
+        <f t="shared" ref="O7" si="5">E7-M7</f>
+        <v>2051.5</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30.75" thickBot="1">
       <c r="A8" s="370">
-        <v>42950</v>
+        <v>42955</v>
       </c>
       <c r="B8" s="372" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C8" s="371" t="s">
         <v>1180</v>
-      </c>
-      <c r="C8" s="371" t="s">
-        <v>1181</v>
       </c>
       <c r="D8" s="373">
         <v>42736</v>
@@ -54732,38 +54726,38 @@
       <c r="K8" s="371" t="s">
         <v>164</v>
       </c>
-      <c r="L8" s="142">
-        <f t="shared" ref="L8" si="6">G8</f>
+      <c r="L8" s="366">
+        <f>G8+H8</f>
         <v>51.5</v>
       </c>
       <c r="M8" s="146"/>
       <c r="N8" s="142"/>
       <c r="O8" s="142">
-        <f t="shared" ref="O8" si="7">E8-M8</f>
+        <f t="shared" ref="O8" si="6">E8-M8</f>
         <v>2051.5</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="30.75" thickBot="1">
       <c r="A9" s="370">
-        <v>42951</v>
+        <v>42955</v>
       </c>
       <c r="B9" s="372" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="C9" s="371" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D9" s="373">
         <v>42736</v>
       </c>
       <c r="E9" s="374">
-        <v>2051.5</v>
+        <v>1025.75</v>
       </c>
       <c r="F9" s="374">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="371">
-        <v>51.5</v>
+        <v>25.75</v>
       </c>
       <c r="H9" s="371">
         <v>0</v>
@@ -54777,15 +54771,15 @@
       <c r="K9" s="371" t="s">
         <v>164</v>
       </c>
-      <c r="L9" s="142">
-        <f t="shared" ref="L9" si="8">G9</f>
-        <v>51.5</v>
+      <c r="L9" s="366">
+        <f t="shared" ref="L9:L19" si="7">G9+H9</f>
+        <v>25.75</v>
       </c>
       <c r="M9" s="146"/>
       <c r="N9" s="142"/>
       <c r="O9" s="142">
-        <f t="shared" ref="O9" si="9">E9-M9</f>
-        <v>2051.5</v>
+        <f t="shared" ref="O9:O19" si="8">E9-M9</f>
+        <v>1025.75</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="30.75" thickBot="1">
@@ -54793,10 +54787,10 @@
         <v>42955</v>
       </c>
       <c r="B10" s="372" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C10" s="371" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D10" s="373">
         <v>42736</v>
@@ -54823,25 +54817,25 @@
         <v>164</v>
       </c>
       <c r="L10" s="366">
-        <f>G10+H10</f>
+        <f t="shared" si="7"/>
         <v>51.5</v>
       </c>
       <c r="M10" s="146"/>
       <c r="N10" s="142"/>
       <c r="O10" s="142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2051.5</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="30.75" thickBot="1">
       <c r="A11" s="370">
-        <v>42955</v>
+        <v>42959</v>
       </c>
       <c r="B11" s="372" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C11" s="371" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D11" s="373">
         <v>42736</v>
@@ -54868,37 +54862,37 @@
         <v>164</v>
       </c>
       <c r="L11" s="366">
-        <f t="shared" ref="L11:L21" si="10">G11+H11</f>
+        <f t="shared" si="7"/>
         <v>25.75</v>
       </c>
       <c r="M11" s="146"/>
       <c r="N11" s="142"/>
       <c r="O11" s="142">
-        <f t="shared" ref="O11:O21" si="11">E11-M11</f>
+        <f t="shared" si="8"/>
         <v>1025.75</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="30.75" thickBot="1">
       <c r="A12" s="370">
-        <v>42955</v>
+        <v>42959</v>
       </c>
       <c r="B12" s="372" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C12" s="371" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D12" s="373">
         <v>42736</v>
       </c>
       <c r="E12" s="374">
-        <v>2051.5</v>
+        <v>1025.75</v>
       </c>
       <c r="F12" s="374">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="371">
-        <v>51.5</v>
+        <v>25.75</v>
       </c>
       <c r="H12" s="371">
         <v>0</v>
@@ -54913,14 +54907,14 @@
         <v>164</v>
       </c>
       <c r="L12" s="366">
-        <f t="shared" si="10"/>
-        <v>51.5</v>
+        <f t="shared" si="7"/>
+        <v>25.75</v>
       </c>
       <c r="M12" s="146"/>
       <c r="N12" s="142"/>
       <c r="O12" s="142">
-        <f t="shared" si="11"/>
-        <v>2051.5</v>
+        <f t="shared" si="8"/>
+        <v>1025.75</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="30.75" thickBot="1">
@@ -54928,10 +54922,10 @@
         <v>42959</v>
       </c>
       <c r="B13" s="372" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C13" s="371" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D13" s="373">
         <v>42736</v>
@@ -54958,247 +54952,247 @@
         <v>164</v>
       </c>
       <c r="L13" s="366">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>25.75</v>
       </c>
       <c r="M13" s="146"/>
       <c r="N13" s="142"/>
       <c r="O13" s="142">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1025.75</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="30.75" thickBot="1">
-      <c r="A14" s="370">
-        <v>42959</v>
-      </c>
-      <c r="B14" s="372" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C14" s="371" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D14" s="373">
+      <c r="A14" s="392">
+        <v>42972</v>
+      </c>
+      <c r="B14" s="153" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C14" s="393" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D14" s="394">
         <v>42736</v>
       </c>
-      <c r="E14" s="374">
-        <v>1025.75</v>
-      </c>
-      <c r="F14" s="374">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="371">
-        <v>25.75</v>
-      </c>
-      <c r="H14" s="371">
-        <v>0</v>
-      </c>
-      <c r="I14" s="375">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="J14" s="376">
-        <v>0</v>
-      </c>
-      <c r="K14" s="371" t="s">
+      <c r="E14" s="395">
+        <v>2054</v>
+      </c>
+      <c r="F14" s="395">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="393">
+        <v>54</v>
+      </c>
+      <c r="H14" s="393">
+        <v>0</v>
+      </c>
+      <c r="I14" s="397">
+        <v>0.108</v>
+      </c>
+      <c r="J14" s="396">
+        <v>0</v>
+      </c>
+      <c r="K14" s="393" t="s">
         <v>164</v>
       </c>
       <c r="L14" s="366">
-        <f t="shared" si="10"/>
-        <v>25.75</v>
+        <f t="shared" ref="L14:L16" si="9">G14+H14</f>
+        <v>54</v>
       </c>
       <c r="M14" s="146"/>
       <c r="N14" s="142"/>
       <c r="O14" s="142">
-        <f t="shared" si="11"/>
-        <v>1025.75</v>
+        <f t="shared" ref="O14:O16" si="10">E14-M14</f>
+        <v>2054</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="30.75" thickBot="1">
-      <c r="A15" s="370">
-        <v>42959</v>
-      </c>
-      <c r="B15" s="372" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C15" s="371" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D15" s="373">
+      <c r="A15" s="392">
+        <v>42974</v>
+      </c>
+      <c r="B15" s="153" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C15" s="393" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D15" s="394">
         <v>42736</v>
       </c>
-      <c r="E15" s="374">
-        <v>1025.75</v>
-      </c>
-      <c r="F15" s="374">
+      <c r="E15" s="395">
+        <v>1027</v>
+      </c>
+      <c r="F15" s="395">
         <v>1000</v>
       </c>
-      <c r="G15" s="371">
-        <v>25.75</v>
-      </c>
-      <c r="H15" s="371">
-        <v>0</v>
-      </c>
-      <c r="I15" s="375">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="J15" s="376">
-        <v>0</v>
-      </c>
-      <c r="K15" s="371" t="s">
+      <c r="G15" s="393">
+        <v>27</v>
+      </c>
+      <c r="H15" s="393">
+        <v>0</v>
+      </c>
+      <c r="I15" s="397">
+        <v>0.108</v>
+      </c>
+      <c r="J15" s="396">
+        <v>0</v>
+      </c>
+      <c r="K15" s="393" t="s">
         <v>164</v>
       </c>
       <c r="L15" s="366">
-        <f t="shared" si="10"/>
-        <v>25.75</v>
+        <f t="shared" si="9"/>
+        <v>27</v>
       </c>
       <c r="M15" s="146"/>
       <c r="N15" s="142"/>
       <c r="O15" s="142">
-        <f t="shared" si="11"/>
-        <v>1025.75</v>
+        <f t="shared" si="10"/>
+        <v>1027</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="30.75" thickBot="1">
-      <c r="A16" s="392">
-        <v>42972</v>
-      </c>
-      <c r="B16" s="153" t="s">
+      <c r="A16" s="398">
+        <v>42975</v>
+      </c>
+      <c r="B16" s="400" t="s">
         <v>1210</v>
       </c>
-      <c r="C16" s="393" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D16" s="394">
+      <c r="C16" s="399" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D16" s="401">
         <v>42736</v>
       </c>
-      <c r="E16" s="395">
+      <c r="E16" s="402">
         <v>2054</v>
       </c>
-      <c r="F16" s="395">
+      <c r="F16" s="402">
         <v>2000</v>
       </c>
-      <c r="G16" s="393">
+      <c r="G16" s="399">
         <v>54</v>
       </c>
-      <c r="H16" s="393">
-        <v>0</v>
-      </c>
-      <c r="I16" s="397">
+      <c r="H16" s="399">
+        <v>0</v>
+      </c>
+      <c r="I16" s="403">
         <v>0.108</v>
       </c>
-      <c r="J16" s="396">
-        <v>0</v>
-      </c>
-      <c r="K16" s="393" t="s">
+      <c r="J16" s="404">
+        <v>0</v>
+      </c>
+      <c r="K16" s="399" t="s">
         <v>164</v>
       </c>
       <c r="L16" s="366">
-        <f t="shared" ref="L16:L18" si="12">G16+H16</f>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="M16" s="146"/>
       <c r="N16" s="142"/>
       <c r="O16" s="142">
-        <f t="shared" ref="O16:O18" si="13">E16-M16</f>
+        <f t="shared" si="10"/>
         <v>2054</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="30.75" thickBot="1">
-      <c r="A17" s="392">
-        <v>42974</v>
-      </c>
-      <c r="B17" s="153" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C17" s="393" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D17" s="394">
+      <c r="A17" s="370">
+        <v>43034</v>
+      </c>
+      <c r="B17" s="372" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C17" s="371" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D17" s="373">
         <v>42736</v>
       </c>
-      <c r="E17" s="395">
-        <v>1027</v>
-      </c>
-      <c r="F17" s="395">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="393">
-        <v>27</v>
-      </c>
-      <c r="H17" s="393">
-        <v>0</v>
-      </c>
-      <c r="I17" s="397">
-        <v>0.108</v>
-      </c>
-      <c r="J17" s="396">
-        <v>0</v>
-      </c>
-      <c r="K17" s="393" t="s">
+      <c r="E17" s="374">
+        <v>53782.27</v>
+      </c>
+      <c r="F17" s="374">
+        <v>50499.8</v>
+      </c>
+      <c r="G17" s="374">
+        <v>2903.73</v>
+      </c>
+      <c r="H17" s="371">
+        <v>378.74</v>
+      </c>
+      <c r="I17" s="375">
+        <v>0.115</v>
+      </c>
+      <c r="J17" s="375">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K17" s="371" t="s">
         <v>164</v>
       </c>
       <c r="L17" s="366">
-        <f t="shared" si="12"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>3282.4700000000003</v>
       </c>
       <c r="M17" s="146"/>
       <c r="N17" s="142"/>
       <c r="O17" s="142">
-        <f t="shared" si="13"/>
-        <v>1027</v>
+        <f t="shared" si="8"/>
+        <v>53782.27</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="30.75" thickBot="1">
-      <c r="A18" s="398">
-        <v>42975</v>
-      </c>
-      <c r="B18" s="400" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C18" s="399" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D18" s="401">
+      <c r="A18" s="370">
+        <v>43045</v>
+      </c>
+      <c r="B18" s="372" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C18" s="371" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D18" s="373">
         <v>42736</v>
       </c>
-      <c r="E18" s="402">
-        <v>2054</v>
-      </c>
-      <c r="F18" s="402">
-        <v>2000</v>
-      </c>
-      <c r="G18" s="399">
-        <v>54</v>
-      </c>
-      <c r="H18" s="399">
-        <v>0</v>
-      </c>
-      <c r="I18" s="403">
-        <v>0.108</v>
-      </c>
-      <c r="J18" s="404">
-        <v>0</v>
-      </c>
-      <c r="K18" s="399" t="s">
+      <c r="E18" s="374">
+        <v>32013.9</v>
+      </c>
+      <c r="F18" s="374">
+        <v>30060</v>
+      </c>
+      <c r="G18" s="374">
+        <v>1728.45</v>
+      </c>
+      <c r="H18" s="371">
+        <v>225.45</v>
+      </c>
+      <c r="I18" s="375">
+        <v>0.115</v>
+      </c>
+      <c r="J18" s="375">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K18" s="371" t="s">
         <v>164</v>
       </c>
       <c r="L18" s="366">
-        <f t="shared" si="12"/>
-        <v>54</v>
+        <f t="shared" si="7"/>
+        <v>1953.9</v>
       </c>
       <c r="M18" s="146"/>
       <c r="N18" s="142"/>
       <c r="O18" s="142">
-        <f t="shared" si="13"/>
-        <v>2054</v>
+        <f t="shared" si="8"/>
+        <v>32013.9</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="30.75" thickBot="1">
       <c r="A19" s="370">
-        <v>43034</v>
+        <v>43049</v>
       </c>
       <c r="B19" s="372" t="s">
-        <v>1179</v>
+        <v>1193</v>
       </c>
       <c r="C19" s="371" t="s">
         <v>1192</v>
@@ -55207,16 +55201,16 @@
         <v>42736</v>
       </c>
       <c r="E19" s="374">
-        <v>53782.27</v>
+        <v>10650</v>
       </c>
       <c r="F19" s="374">
-        <v>50499.8</v>
-      </c>
-      <c r="G19" s="374">
-        <v>2903.73</v>
+        <v>10000</v>
+      </c>
+      <c r="G19" s="371">
+        <v>575</v>
       </c>
       <c r="H19" s="371">
-        <v>378.74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="375">
         <v>0.115</v>
@@ -55228,222 +55222,130 @@
         <v>164</v>
       </c>
       <c r="L19" s="366">
-        <f t="shared" si="10"/>
-        <v>3282.4700000000003</v>
+        <f t="shared" si="7"/>
+        <v>650</v>
       </c>
       <c r="M19" s="146"/>
       <c r="N19" s="142"/>
       <c r="O19" s="142">
-        <f t="shared" si="11"/>
-        <v>53782.27</v>
+        <f t="shared" si="8"/>
+        <v>10650</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="30.75" thickBot="1">
-      <c r="A20" s="370">
-        <v>43045</v>
-      </c>
-      <c r="B20" s="372" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C20" s="371" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D20" s="373">
+      <c r="A20" s="392">
+        <v>43062</v>
+      </c>
+      <c r="B20" s="153" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C20" s="393" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D20" s="394">
         <v>42736</v>
       </c>
-      <c r="E20" s="374">
-        <v>32013.9</v>
-      </c>
-      <c r="F20" s="374">
-        <v>30060</v>
-      </c>
-      <c r="G20" s="374">
-        <v>1728.45</v>
-      </c>
-      <c r="H20" s="371">
-        <v>225.45</v>
-      </c>
-      <c r="I20" s="375">
-        <v>0.115</v>
-      </c>
-      <c r="J20" s="375">
+      <c r="E20" s="395">
+        <v>10675</v>
+      </c>
+      <c r="F20" s="395">
+        <v>10000</v>
+      </c>
+      <c r="G20" s="393">
+        <v>600</v>
+      </c>
+      <c r="H20" s="393">
+        <v>75</v>
+      </c>
+      <c r="I20" s="396">
+        <v>0.12</v>
+      </c>
+      <c r="J20" s="397">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K20" s="371" t="s">
+      <c r="K20" s="393" t="s">
         <v>164</v>
       </c>
       <c r="L20" s="366">
-        <f t="shared" si="10"/>
-        <v>1953.9</v>
+        <f t="shared" ref="L20:L21" si="11">G20+H20</f>
+        <v>675</v>
       </c>
       <c r="M20" s="146"/>
       <c r="N20" s="142"/>
       <c r="O20" s="142">
+        <f t="shared" ref="O20:O21" si="12">E20-M20</f>
+        <v>10675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="30.75" thickBot="1">
+      <c r="A21" s="392">
+        <v>43064</v>
+      </c>
+      <c r="B21" s="153" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C21" s="393" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D21" s="394">
+        <v>42736</v>
+      </c>
+      <c r="E21" s="395">
+        <v>10625.5</v>
+      </c>
+      <c r="F21" s="395">
+        <v>9977</v>
+      </c>
+      <c r="G21" s="393">
+        <v>598.62</v>
+      </c>
+      <c r="H21" s="393">
+        <v>49.88</v>
+      </c>
+      <c r="I21" s="396">
+        <v>0.12</v>
+      </c>
+      <c r="J21" s="396">
+        <v>0.01</v>
+      </c>
+      <c r="K21" s="393" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" s="366">
         <f t="shared" si="11"/>
-        <v>32013.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="30.75" thickBot="1">
-      <c r="A21" s="370">
-        <v>43049</v>
-      </c>
-      <c r="B21" s="372" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C21" s="371" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D21" s="373">
-        <v>42736</v>
-      </c>
-      <c r="E21" s="374">
-        <v>10650</v>
-      </c>
-      <c r="F21" s="374">
-        <v>10000</v>
-      </c>
-      <c r="G21" s="371">
-        <v>575</v>
-      </c>
-      <c r="H21" s="371">
-        <v>75</v>
-      </c>
-      <c r="I21" s="375">
-        <v>0.115</v>
-      </c>
-      <c r="J21" s="375">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K21" s="371" t="s">
-        <v>164</v>
-      </c>
-      <c r="L21" s="366">
-        <f t="shared" si="10"/>
-        <v>650</v>
+        <v>648.5</v>
       </c>
       <c r="M21" s="146"/>
       <c r="N21" s="142"/>
       <c r="O21" s="142">
-        <f t="shared" si="11"/>
-        <v>10650</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="30.75" thickBot="1">
-      <c r="A22" s="392">
-        <v>43062</v>
-      </c>
-      <c r="B22" s="153" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C22" s="393" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D22" s="394">
-        <v>42736</v>
-      </c>
-      <c r="E22" s="395">
-        <v>10675</v>
-      </c>
-      <c r="F22" s="395">
-        <v>10000</v>
-      </c>
-      <c r="G22" s="393">
-        <v>600</v>
-      </c>
-      <c r="H22" s="393">
-        <v>75</v>
-      </c>
-      <c r="I22" s="396">
-        <v>0.12</v>
-      </c>
-      <c r="J22" s="397">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K22" s="393" t="s">
-        <v>164</v>
-      </c>
-      <c r="L22" s="366">
-        <f t="shared" ref="L22:L23" si="14">G22+H22</f>
-        <v>675</v>
-      </c>
-      <c r="M22" s="146"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142">
-        <f t="shared" ref="O22:O23" si="15">E22-M22</f>
-        <v>10675</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="30.75" thickBot="1">
-      <c r="A23" s="392">
-        <v>43064</v>
-      </c>
-      <c r="B23" s="153" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C23" s="393" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D23" s="394">
-        <v>42736</v>
-      </c>
-      <c r="E23" s="395">
-        <v>10625.5</v>
-      </c>
-      <c r="F23" s="395">
-        <v>9977</v>
-      </c>
-      <c r="G23" s="393">
-        <v>598.62</v>
-      </c>
-      <c r="H23" s="393">
-        <v>49.88</v>
-      </c>
-      <c r="I23" s="396">
-        <v>0.12</v>
-      </c>
-      <c r="J23" s="396">
-        <v>0.01</v>
-      </c>
-      <c r="K23" s="393" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="366">
-        <f t="shared" si="14"/>
-        <v>648.5</v>
-      </c>
-      <c r="M23" s="146"/>
-      <c r="N23" s="142"/>
-      <c r="O23" s="142">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>10625.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=913779"/>
-    <hyperlink ref="B8" r:id="rId2" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=926784"/>
-    <hyperlink ref="B9" r:id="rId3" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=926932"/>
-    <hyperlink ref="B10" r:id="rId4" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929619"/>
-    <hyperlink ref="B11" r:id="rId5" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929619"/>
-    <hyperlink ref="B12" r:id="rId6" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929619"/>
-    <hyperlink ref="B13" r:id="rId7" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=930981"/>
-    <hyperlink ref="B14" r:id="rId8" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=930981"/>
-    <hyperlink ref="B15" r:id="rId9" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=930981"/>
-    <hyperlink ref="B19" r:id="rId10" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=924483"/>
-    <hyperlink ref="B20" r:id="rId11" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929963"/>
-    <hyperlink ref="B21" r:id="rId12" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=931710"/>
-    <hyperlink ref="B4" r:id="rId13" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=937273"/>
-    <hyperlink ref="B16" r:id="rId14" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936366"/>
-    <hyperlink ref="B17" r:id="rId15" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936596"/>
-    <hyperlink ref="B18" r:id="rId16" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936619"/>
-    <hyperlink ref="B22" r:id="rId17" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936548"/>
-    <hyperlink ref="B23" r:id="rId18" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936622"/>
-    <hyperlink ref="B6" r:id="rId19" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=938749"/>
-    <hyperlink ref="B7" r:id="rId20" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=938749"/>
+    <hyperlink ref="B6" r:id="rId1" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=926784"/>
+    <hyperlink ref="B7" r:id="rId2" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=926932"/>
+    <hyperlink ref="B8" r:id="rId3" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929619"/>
+    <hyperlink ref="B9" r:id="rId4" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929619"/>
+    <hyperlink ref="B10" r:id="rId5" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929619"/>
+    <hyperlink ref="B11" r:id="rId6" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=930981"/>
+    <hyperlink ref="B12" r:id="rId7" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=930981"/>
+    <hyperlink ref="B13" r:id="rId8" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=930981"/>
+    <hyperlink ref="B17" r:id="rId9" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=924483"/>
+    <hyperlink ref="B18" r:id="rId10" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929963"/>
+    <hyperlink ref="B19" r:id="rId11" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=931710"/>
+    <hyperlink ref="B14" r:id="rId12" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936366"/>
+    <hyperlink ref="B15" r:id="rId13" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936596"/>
+    <hyperlink ref="B16" r:id="rId14" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936619"/>
+    <hyperlink ref="B20" r:id="rId15" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936548"/>
+    <hyperlink ref="B21" r:id="rId16" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936622"/>
+    <hyperlink ref="B4" r:id="rId17" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=938749"/>
+    <hyperlink ref="B5" r:id="rId18" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=938749"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -55998,7 +55900,7 @@
         <v>42841</v>
       </c>
       <c r="K6" s="200" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="L6" s="346">
         <v>9.2999999999999999E-2</v>

--- a/HighRiskInvestment.xlsx
+++ b/HighRiskInvestment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="4410" tabRatio="771" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="4410" tabRatio="771" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ESPP" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId16"/>
   </pivotCaches>
@@ -38,7 +38,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0">
+    <comment ref="H9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K28" authorId="0" shapeId="0">
+    <comment ref="K28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +197,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G62" authorId="0" shapeId="0">
+    <comment ref="G62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z79" authorId="0" shapeId="0">
+    <comment ref="Z79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B164" authorId="0" shapeId="0">
+    <comment ref="B164" authorId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G164" authorId="0" shapeId="0">
+    <comment ref="G164" authorId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G165" authorId="0" shapeId="0">
+    <comment ref="G165" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G168" authorId="0" shapeId="0">
+    <comment ref="G168" authorId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y172" authorId="0" shapeId="0">
+    <comment ref="Y172" authorId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D229" authorId="0" shapeId="0">
+    <comment ref="D229" authorId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z234" authorId="0" shapeId="0">
+    <comment ref="Z234" authorId="0">
       <text>
         <r>
           <rPr>
@@ -455,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X245" authorId="0" shapeId="0">
+    <comment ref="X245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -479,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z245" authorId="0" shapeId="0">
+    <comment ref="Z245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -503,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z253" authorId="0" shapeId="0">
+    <comment ref="Z253" authorId="0">
       <text>
         <r>
           <rPr>
@@ -527,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z269" authorId="0" shapeId="0">
+    <comment ref="Z269" authorId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z270" authorId="0" shapeId="0">
+    <comment ref="Z270" authorId="0">
       <text>
         <r>
           <rPr>
@@ -575,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z271" authorId="0" shapeId="0">
+    <comment ref="Z271" authorId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z280" authorId="0" shapeId="0">
+    <comment ref="Z280" authorId="0">
       <text>
         <r>
           <rPr>
@@ -624,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z281" authorId="0" shapeId="0">
+    <comment ref="Z281" authorId="0">
       <text>
         <r>
           <rPr>
@@ -648,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z282" authorId="0" shapeId="0">
+    <comment ref="Z282" authorId="0">
       <text>
         <r>
           <rPr>
@@ -672,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z283" authorId="0" shapeId="0">
+    <comment ref="Z283" authorId="0">
       <text>
         <r>
           <rPr>
@@ -696,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z285" authorId="0" shapeId="0">
+    <comment ref="Z285" authorId="0">
       <text>
         <r>
           <rPr>
@@ -720,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z306" authorId="0" shapeId="0">
+    <comment ref="Z306" authorId="0">
       <text>
         <r>
           <rPr>
@@ -744,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D314" authorId="0" shapeId="0">
+    <comment ref="D314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -768,7 +768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z314" authorId="0" shapeId="0">
+    <comment ref="Z314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -792,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D362" authorId="0" shapeId="0">
+    <comment ref="D362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -816,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z396" authorId="0" shapeId="0">
+    <comment ref="Z396" authorId="0">
       <text>
         <r>
           <rPr>
@@ -840,7 +840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N397" authorId="0" shapeId="0">
+    <comment ref="N397" authorId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z398" authorId="0" shapeId="0">
+    <comment ref="Z398" authorId="0">
       <text>
         <r>
           <rPr>
@@ -888,7 +888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D399" authorId="0" shapeId="0">
+    <comment ref="D399" authorId="0">
       <text>
         <r>
           <rPr>
@@ -912,7 +912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D404" authorId="0" shapeId="0">
+    <comment ref="D404" authorId="0">
       <text>
         <r>
           <rPr>
@@ -936,7 +936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z412" authorId="0" shapeId="0">
+    <comment ref="Z412" authorId="0">
       <text>
         <r>
           <rPr>
@@ -960,7 +960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D414" authorId="0" shapeId="0">
+    <comment ref="D414" authorId="0">
       <text>
         <r>
           <rPr>
@@ -975,7 +975,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D420" authorId="0" shapeId="0">
+    <comment ref="D420" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1009,7 +1009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D426" authorId="0" shapeId="0">
+    <comment ref="D426" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N432" authorId="0" shapeId="0">
+    <comment ref="N432" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1057,7 +1057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z436" authorId="0" shapeId="0">
+    <comment ref="Z436" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1081,7 +1081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z439" authorId="0" shapeId="0">
+    <comment ref="Z439" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z440" authorId="0" shapeId="0">
+    <comment ref="Z440" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1129,7 +1129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z443" authorId="0" shapeId="0">
+    <comment ref="Z443" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z445" authorId="0" shapeId="0">
+    <comment ref="Z445" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z446" authorId="0" shapeId="0">
+    <comment ref="Z446" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z451" authorId="0" shapeId="0">
+    <comment ref="Z451" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z453" authorId="0" shapeId="0">
+    <comment ref="Z453" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1260,7 +1260,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1284,7 +1284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1318,7 +1318,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1342,7 +1342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7648,9 +7648,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7660,14 +7657,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7682,6 +7682,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7705,93 +7792,6 @@
     <xf numFmtId="0" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7807,6 +7807,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7827,6 +7833,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7851,24 +7869,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7925,6 +7925,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8008,7 +8076,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>666624.47000000009</c:v>
+                  <c:v>666512.12000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>716622.75999999943</c:v>
@@ -11268,7 +11336,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -11303,7 +11371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11338,7 +11406,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11579,11 +11647,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A1" s="411" t="s">
+      <c r="A1" s="412" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="411"/>
-      <c r="C1" s="411"/>
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
       <c r="D1" s="110">
         <f>SUM(G10:G88)-SUM(L10:L88)</f>
         <v>268</v>
@@ -11596,11 +11664,11 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A2" s="412" t="s">
+      <c r="A2" s="413" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="412"/>
-      <c r="C2" s="412"/>
+      <c r="B2" s="413"/>
+      <c r="C2" s="413"/>
       <c r="D2" s="111">
         <v>29.75</v>
       </c>
@@ -11615,11 +11683,11 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A3" s="412" t="s">
+      <c r="A3" s="413" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="412"/>
-      <c r="C3" s="412"/>
+      <c r="B3" s="413"/>
+      <c r="C3" s="413"/>
       <c r="D3" s="111">
         <f>D1*0.85</f>
         <v>227.79999999999998</v>
@@ -11635,11 +11703,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A4" s="412" t="s">
+      <c r="A4" s="413" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="412"/>
-      <c r="C4" s="412"/>
+      <c r="B4" s="413"/>
+      <c r="C4" s="413"/>
       <c r="D4" s="112">
         <f>([1]Sheet2!B64)/100</f>
         <v>6.1073000000000004</v>
@@ -11649,11 +11717,11 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="407" t="s">
+      <c r="A5" s="411" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="407"/>
-      <c r="C5" s="407"/>
+      <c r="B5" s="411"/>
+      <c r="C5" s="411"/>
       <c r="D5" s="113">
         <f>SUM(D10:D88)+SUM(H10:H88)</f>
         <v>76568.666499999992</v>
@@ -11663,11 +11731,11 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A6" s="407" t="s">
+      <c r="A6" s="411" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="407"/>
-      <c r="C6" s="407"/>
+      <c r="B6" s="411"/>
+      <c r="C6" s="411"/>
       <c r="D6" s="114">
         <f>SUM(Q10:Q88)</f>
         <v>48178.589949999994</v>
@@ -11681,11 +11749,11 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A7" s="407" t="s">
+      <c r="A7" s="411" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="407"/>
-      <c r="C7" s="407"/>
+      <c r="B7" s="411"/>
+      <c r="C7" s="411"/>
       <c r="D7" s="116">
         <f>D6-D5</f>
         <v>-28390.076549999998</v>
@@ -11764,38 +11832,38 @@
       <c r="B10" s="109">
         <v>0</v>
       </c>
-      <c r="C10" s="408">
+      <c r="C10" s="407">
         <v>68.97</v>
       </c>
-      <c r="D10" s="409">
+      <c r="D10" s="408">
         <f>IF(B15&gt;0,SUM(B10:B15)-C10,0)</f>
         <v>10580.78</v>
       </c>
-      <c r="E10" s="408">
+      <c r="E10" s="407">
         <v>6.2854999999999999</v>
       </c>
-      <c r="F10" s="408">
+      <c r="F10" s="407">
         <v>25.3</v>
       </c>
-      <c r="G10" s="410">
+      <c r="G10" s="409">
         <v>79</v>
       </c>
       <c r="H10" s="120">
         <f t="shared" ref="H10:H15" si="0">R16*0.2</f>
         <v>62.814</v>
       </c>
-      <c r="I10" s="413">
+      <c r="I10" s="410">
         <f>IF($K$28&gt;F10,G10*($K$28-F10)*0.2,0)</f>
         <v>70.309999999999988</v>
       </c>
-      <c r="J10" s="413"/>
-      <c r="K10" s="413"/>
-      <c r="L10" s="413"/>
-      <c r="M10" s="413"/>
-      <c r="N10" s="413"/>
-      <c r="O10" s="413"/>
-      <c r="P10" s="413"/>
-      <c r="Q10" s="413"/>
+      <c r="J10" s="410"/>
+      <c r="K10" s="410"/>
+      <c r="L10" s="410"/>
+      <c r="M10" s="410"/>
+      <c r="N10" s="410"/>
+      <c r="O10" s="410"/>
+      <c r="P10" s="410"/>
+      <c r="Q10" s="410"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
@@ -11804,26 +11872,26 @@
       <c r="B11" s="109">
         <v>3400.95</v>
       </c>
-      <c r="C11" s="408">
+      <c r="C11" s="407">
         <v>3400.95</v>
       </c>
-      <c r="D11" s="409"/>
-      <c r="E11" s="408"/>
-      <c r="F11" s="408"/>
-      <c r="G11" s="410"/>
+      <c r="D11" s="408"/>
+      <c r="E11" s="407"/>
+      <c r="F11" s="407"/>
+      <c r="G11" s="409"/>
       <c r="H11" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I11" s="413"/>
-      <c r="J11" s="413"/>
-      <c r="K11" s="413"/>
-      <c r="L11" s="413"/>
-      <c r="M11" s="413"/>
-      <c r="N11" s="413"/>
-      <c r="O11" s="413"/>
-      <c r="P11" s="413"/>
-      <c r="Q11" s="413"/>
+      <c r="I11" s="410"/>
+      <c r="J11" s="410"/>
+      <c r="K11" s="410"/>
+      <c r="L11" s="410"/>
+      <c r="M11" s="410"/>
+      <c r="N11" s="410"/>
+      <c r="O11" s="410"/>
+      <c r="P11" s="410"/>
+      <c r="Q11" s="410"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1">
@@ -11832,26 +11900,26 @@
       <c r="B12" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C12" s="408">
+      <c r="C12" s="407">
         <v>1706.25</v>
       </c>
-      <c r="D12" s="409"/>
-      <c r="E12" s="408"/>
-      <c r="F12" s="408"/>
-      <c r="G12" s="410"/>
+      <c r="D12" s="408"/>
+      <c r="E12" s="407"/>
+      <c r="F12" s="407"/>
+      <c r="G12" s="409"/>
       <c r="H12" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I12" s="413"/>
-      <c r="J12" s="413"/>
-      <c r="K12" s="413"/>
-      <c r="L12" s="413"/>
-      <c r="M12" s="413"/>
-      <c r="N12" s="413"/>
-      <c r="O12" s="413"/>
-      <c r="P12" s="413"/>
-      <c r="Q12" s="413"/>
+      <c r="I12" s="410"/>
+      <c r="J12" s="410"/>
+      <c r="K12" s="410"/>
+      <c r="L12" s="410"/>
+      <c r="M12" s="410"/>
+      <c r="N12" s="410"/>
+      <c r="O12" s="410"/>
+      <c r="P12" s="410"/>
+      <c r="Q12" s="410"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1">
@@ -11860,26 +11928,26 @@
       <c r="B13" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C13" s="408">
+      <c r="C13" s="407">
         <v>1706.25</v>
       </c>
-      <c r="D13" s="409"/>
-      <c r="E13" s="408"/>
-      <c r="F13" s="408"/>
-      <c r="G13" s="410"/>
+      <c r="D13" s="408"/>
+      <c r="E13" s="407"/>
+      <c r="F13" s="407"/>
+      <c r="G13" s="409"/>
       <c r="H13" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I13" s="413"/>
-      <c r="J13" s="413"/>
-      <c r="K13" s="413"/>
-      <c r="L13" s="413"/>
-      <c r="M13" s="413"/>
-      <c r="N13" s="413"/>
-      <c r="O13" s="413"/>
-      <c r="P13" s="413"/>
-      <c r="Q13" s="413"/>
+      <c r="I13" s="410"/>
+      <c r="J13" s="410"/>
+      <c r="K13" s="410"/>
+      <c r="L13" s="410"/>
+      <c r="M13" s="410"/>
+      <c r="N13" s="410"/>
+      <c r="O13" s="410"/>
+      <c r="P13" s="410"/>
+      <c r="Q13" s="410"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1">
@@ -11888,26 +11956,26 @@
       <c r="B14" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C14" s="408">
+      <c r="C14" s="407">
         <v>1918.15</v>
       </c>
-      <c r="D14" s="409"/>
-      <c r="E14" s="408"/>
-      <c r="F14" s="408"/>
-      <c r="G14" s="410"/>
+      <c r="D14" s="408"/>
+      <c r="E14" s="407"/>
+      <c r="F14" s="407"/>
+      <c r="G14" s="409"/>
       <c r="H14" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I14" s="413"/>
-      <c r="J14" s="413"/>
-      <c r="K14" s="413"/>
-      <c r="L14" s="413"/>
-      <c r="M14" s="413"/>
-      <c r="N14" s="413"/>
-      <c r="O14" s="413"/>
-      <c r="P14" s="413"/>
-      <c r="Q14" s="413"/>
+      <c r="I14" s="410"/>
+      <c r="J14" s="410"/>
+      <c r="K14" s="410"/>
+      <c r="L14" s="410"/>
+      <c r="M14" s="410"/>
+      <c r="N14" s="410"/>
+      <c r="O14" s="410"/>
+      <c r="P14" s="410"/>
+      <c r="Q14" s="410"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1">
@@ -11916,26 +11984,26 @@
       <c r="B15" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C15" s="408">
+      <c r="C15" s="407">
         <v>1918.15</v>
       </c>
-      <c r="D15" s="409"/>
-      <c r="E15" s="408"/>
-      <c r="F15" s="408"/>
-      <c r="G15" s="410"/>
+      <c r="D15" s="408"/>
+      <c r="E15" s="407"/>
+      <c r="F15" s="407"/>
+      <c r="G15" s="409"/>
       <c r="H15" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I15" s="413"/>
-      <c r="J15" s="413"/>
-      <c r="K15" s="413"/>
-      <c r="L15" s="413"/>
-      <c r="M15" s="413"/>
-      <c r="N15" s="413"/>
-      <c r="O15" s="413"/>
-      <c r="P15" s="413"/>
-      <c r="Q15" s="413"/>
+      <c r="I15" s="410"/>
+      <c r="J15" s="410"/>
+      <c r="K15" s="410"/>
+      <c r="L15" s="410"/>
+      <c r="M15" s="410"/>
+      <c r="N15" s="410"/>
+      <c r="O15" s="410"/>
+      <c r="P15" s="410"/>
+      <c r="Q15" s="410"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1">
@@ -11944,38 +12012,38 @@
       <c r="B16" s="109">
         <v>1693.15</v>
       </c>
-      <c r="C16" s="408">
+      <c r="C16" s="407">
         <v>48.24</v>
       </c>
-      <c r="D16" s="409">
+      <c r="D16" s="408">
         <f>IF(B21&gt;0,SUM(B16:B21)-C16,0)</f>
         <v>11196.460000000001</v>
       </c>
-      <c r="E16" s="408">
+      <c r="E16" s="407">
         <v>6.1787000000000001</v>
       </c>
-      <c r="F16" s="408">
+      <c r="F16" s="407">
         <v>23.62</v>
       </c>
-      <c r="G16" s="410">
+      <c r="G16" s="409">
         <v>90</v>
       </c>
       <c r="H16" s="120">
         <f>R22*0.25</f>
         <v>81.435000000000002</v>
       </c>
-      <c r="I16" s="413">
+      <c r="I16" s="410">
         <f>IF($K$28&gt;F16,G16*($K$28-F16)*0.2,0)</f>
         <v>110.33999999999999</v>
       </c>
-      <c r="J16" s="413"/>
-      <c r="K16" s="413"/>
-      <c r="L16" s="413"/>
-      <c r="M16" s="413"/>
-      <c r="N16" s="413"/>
-      <c r="O16" s="413"/>
-      <c r="P16" s="413"/>
-      <c r="Q16" s="413"/>
+      <c r="J16" s="410"/>
+      <c r="K16" s="410"/>
+      <c r="L16" s="410"/>
+      <c r="M16" s="410"/>
+      <c r="N16" s="410"/>
+      <c r="O16" s="410"/>
+      <c r="P16" s="410"/>
+      <c r="Q16" s="410"/>
       <c r="R16" s="109">
         <v>314.07</v>
       </c>
@@ -11987,24 +12055,24 @@
       <c r="B17" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C17" s="408"/>
-      <c r="D17" s="409"/>
-      <c r="E17" s="408"/>
-      <c r="F17" s="408"/>
-      <c r="G17" s="410"/>
+      <c r="C17" s="407"/>
+      <c r="D17" s="408"/>
+      <c r="E17" s="407"/>
+      <c r="F17" s="407"/>
+      <c r="G17" s="409"/>
       <c r="H17" s="120">
         <f t="shared" ref="H17:H80" si="1">R23*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I17" s="413"/>
-      <c r="J17" s="413"/>
-      <c r="K17" s="413"/>
-      <c r="L17" s="413"/>
-      <c r="M17" s="413"/>
-      <c r="N17" s="413"/>
-      <c r="O17" s="413"/>
-      <c r="P17" s="413"/>
-      <c r="Q17" s="413"/>
+      <c r="I17" s="410"/>
+      <c r="J17" s="410"/>
+      <c r="K17" s="410"/>
+      <c r="L17" s="410"/>
+      <c r="M17" s="410"/>
+      <c r="N17" s="410"/>
+      <c r="O17" s="410"/>
+      <c r="P17" s="410"/>
+      <c r="Q17" s="410"/>
       <c r="R17" s="109">
         <f>R16</f>
         <v>314.07</v>
@@ -12017,24 +12085,24 @@
       <c r="B18" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C18" s="408"/>
-      <c r="D18" s="409"/>
-      <c r="E18" s="408"/>
-      <c r="F18" s="408"/>
-      <c r="G18" s="410"/>
+      <c r="C18" s="407"/>
+      <c r="D18" s="408"/>
+      <c r="E18" s="407"/>
+      <c r="F18" s="407"/>
+      <c r="G18" s="409"/>
       <c r="H18" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I18" s="413"/>
-      <c r="J18" s="413"/>
-      <c r="K18" s="413"/>
-      <c r="L18" s="413"/>
-      <c r="M18" s="413"/>
-      <c r="N18" s="413"/>
-      <c r="O18" s="413"/>
-      <c r="P18" s="413"/>
-      <c r="Q18" s="413"/>
+      <c r="I18" s="410"/>
+      <c r="J18" s="410"/>
+      <c r="K18" s="410"/>
+      <c r="L18" s="410"/>
+      <c r="M18" s="410"/>
+      <c r="N18" s="410"/>
+      <c r="O18" s="410"/>
+      <c r="P18" s="410"/>
+      <c r="Q18" s="410"/>
       <c r="R18" s="109">
         <f t="shared" ref="R18:R32" si="2">R17</f>
         <v>314.07</v>
@@ -12047,24 +12115,24 @@
       <c r="B19" s="121">
         <v>2196.35</v>
       </c>
-      <c r="C19" s="408"/>
-      <c r="D19" s="409"/>
-      <c r="E19" s="408"/>
-      <c r="F19" s="408"/>
-      <c r="G19" s="410"/>
+      <c r="C19" s="407"/>
+      <c r="D19" s="408"/>
+      <c r="E19" s="407"/>
+      <c r="F19" s="407"/>
+      <c r="G19" s="409"/>
       <c r="H19" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I19" s="413"/>
-      <c r="J19" s="413"/>
-      <c r="K19" s="413"/>
-      <c r="L19" s="413"/>
-      <c r="M19" s="413"/>
-      <c r="N19" s="413"/>
-      <c r="O19" s="413"/>
-      <c r="P19" s="413"/>
-      <c r="Q19" s="413"/>
+      <c r="I19" s="410"/>
+      <c r="J19" s="410"/>
+      <c r="K19" s="410"/>
+      <c r="L19" s="410"/>
+      <c r="M19" s="410"/>
+      <c r="N19" s="410"/>
+      <c r="O19" s="410"/>
+      <c r="P19" s="410"/>
+      <c r="Q19" s="410"/>
       <c r="R19" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12077,24 +12145,24 @@
       <c r="B20" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C20" s="408"/>
-      <c r="D20" s="409"/>
-      <c r="E20" s="408"/>
-      <c r="F20" s="408"/>
-      <c r="G20" s="410"/>
+      <c r="C20" s="407"/>
+      <c r="D20" s="408"/>
+      <c r="E20" s="407"/>
+      <c r="F20" s="407"/>
+      <c r="G20" s="409"/>
       <c r="H20" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I20" s="413"/>
-      <c r="J20" s="413"/>
-      <c r="K20" s="413"/>
-      <c r="L20" s="413"/>
-      <c r="M20" s="413"/>
-      <c r="N20" s="413"/>
-      <c r="O20" s="413"/>
-      <c r="P20" s="413"/>
-      <c r="Q20" s="413"/>
+      <c r="I20" s="410"/>
+      <c r="J20" s="410"/>
+      <c r="K20" s="410"/>
+      <c r="L20" s="410"/>
+      <c r="M20" s="410"/>
+      <c r="N20" s="410"/>
+      <c r="O20" s="410"/>
+      <c r="P20" s="410"/>
+      <c r="Q20" s="410"/>
       <c r="R20" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12107,24 +12175,24 @@
       <c r="B21" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C21" s="408"/>
-      <c r="D21" s="409"/>
-      <c r="E21" s="408"/>
-      <c r="F21" s="408"/>
-      <c r="G21" s="410"/>
+      <c r="C21" s="407"/>
+      <c r="D21" s="408"/>
+      <c r="E21" s="407"/>
+      <c r="F21" s="407"/>
+      <c r="G21" s="409"/>
       <c r="H21" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I21" s="413"/>
-      <c r="J21" s="413"/>
-      <c r="K21" s="413"/>
-      <c r="L21" s="413"/>
-      <c r="M21" s="413"/>
-      <c r="N21" s="413"/>
-      <c r="O21" s="413"/>
-      <c r="P21" s="413"/>
-      <c r="Q21" s="413"/>
+      <c r="I21" s="410"/>
+      <c r="J21" s="410"/>
+      <c r="K21" s="410"/>
+      <c r="L21" s="410"/>
+      <c r="M21" s="410"/>
+      <c r="N21" s="410"/>
+      <c r="O21" s="410"/>
+      <c r="P21" s="410"/>
+      <c r="Q21" s="410"/>
       <c r="R21" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12137,38 +12205,38 @@
       <c r="B22" s="121">
         <v>1958.23</v>
       </c>
-      <c r="C22" s="408">
+      <c r="C22" s="407">
         <v>34.549999999999997</v>
       </c>
-      <c r="D22" s="409">
+      <c r="D22" s="408">
         <f>IF(B27&gt;0,SUM(B22:B27)-C22,0)</f>
         <v>11771.410000000002</v>
       </c>
-      <c r="E22" s="408">
+      <c r="E22" s="407">
         <v>6.1050000000000004</v>
       </c>
-      <c r="F22" s="408">
+      <c r="F22" s="407">
         <v>24.24</v>
       </c>
-      <c r="G22" s="410">
+      <c r="G22" s="409">
         <v>109</v>
       </c>
       <c r="H22" s="120">
         <f>R28*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I22" s="413">
+      <c r="I22" s="410">
         <f>IF($K$28&gt;F22,G22*($K$28-F22)*0.2,0)</f>
         <v>120.11800000000004</v>
       </c>
-      <c r="J22" s="413"/>
-      <c r="K22" s="413"/>
-      <c r="L22" s="413"/>
-      <c r="M22" s="413"/>
-      <c r="N22" s="413"/>
-      <c r="O22" s="413"/>
-      <c r="P22" s="413"/>
-      <c r="Q22" s="413"/>
+      <c r="J22" s="410"/>
+      <c r="K22" s="410"/>
+      <c r="L22" s="410"/>
+      <c r="M22" s="410"/>
+      <c r="N22" s="410"/>
+      <c r="O22" s="410"/>
+      <c r="P22" s="410"/>
+      <c r="Q22" s="410"/>
       <c r="R22" s="109">
         <v>325.74</v>
       </c>
@@ -12180,24 +12248,24 @@
       <c r="B23" s="121">
         <v>1958.24</v>
       </c>
-      <c r="C23" s="408"/>
-      <c r="D23" s="409"/>
-      <c r="E23" s="408"/>
-      <c r="F23" s="408"/>
-      <c r="G23" s="410"/>
+      <c r="C23" s="407"/>
+      <c r="D23" s="408"/>
+      <c r="E23" s="407"/>
+      <c r="F23" s="407"/>
+      <c r="G23" s="409"/>
       <c r="H23" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I23" s="413"/>
-      <c r="J23" s="413"/>
-      <c r="K23" s="413"/>
-      <c r="L23" s="413"/>
-      <c r="M23" s="413"/>
-      <c r="N23" s="413"/>
-      <c r="O23" s="413"/>
-      <c r="P23" s="413"/>
-      <c r="Q23" s="413"/>
+      <c r="I23" s="410"/>
+      <c r="J23" s="410"/>
+      <c r="K23" s="410"/>
+      <c r="L23" s="410"/>
+      <c r="M23" s="410"/>
+      <c r="N23" s="410"/>
+      <c r="O23" s="410"/>
+      <c r="P23" s="410"/>
+      <c r="Q23" s="410"/>
       <c r="R23" s="109">
         <v>271.45</v>
       </c>
@@ -12209,24 +12277,24 @@
       <c r="B24" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C24" s="408"/>
-      <c r="D24" s="409"/>
-      <c r="E24" s="408"/>
-      <c r="F24" s="408"/>
-      <c r="G24" s="410"/>
+      <c r="C24" s="407"/>
+      <c r="D24" s="408"/>
+      <c r="E24" s="407"/>
+      <c r="F24" s="407"/>
+      <c r="G24" s="409"/>
       <c r="H24" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I24" s="413"/>
-      <c r="J24" s="413"/>
-      <c r="K24" s="413"/>
-      <c r="L24" s="413"/>
-      <c r="M24" s="413"/>
-      <c r="N24" s="413"/>
-      <c r="O24" s="413"/>
-      <c r="P24" s="413"/>
-      <c r="Q24" s="413"/>
+      <c r="I24" s="410"/>
+      <c r="J24" s="410"/>
+      <c r="K24" s="410"/>
+      <c r="L24" s="410"/>
+      <c r="M24" s="410"/>
+      <c r="N24" s="410"/>
+      <c r="O24" s="410"/>
+      <c r="P24" s="410"/>
+      <c r="Q24" s="410"/>
       <c r="R24" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12239,24 +12307,24 @@
       <c r="B25" s="121">
         <v>1958.26</v>
       </c>
-      <c r="C25" s="408"/>
-      <c r="D25" s="409"/>
-      <c r="E25" s="408"/>
-      <c r="F25" s="408"/>
-      <c r="G25" s="410"/>
+      <c r="C25" s="407"/>
+      <c r="D25" s="408"/>
+      <c r="E25" s="407"/>
+      <c r="F25" s="407"/>
+      <c r="G25" s="409"/>
       <c r="H25" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I25" s="413"/>
-      <c r="J25" s="413"/>
-      <c r="K25" s="413"/>
-      <c r="L25" s="413"/>
-      <c r="M25" s="413"/>
-      <c r="N25" s="413"/>
-      <c r="O25" s="413"/>
-      <c r="P25" s="413"/>
-      <c r="Q25" s="413"/>
+      <c r="I25" s="410"/>
+      <c r="J25" s="410"/>
+      <c r="K25" s="410"/>
+      <c r="L25" s="410"/>
+      <c r="M25" s="410"/>
+      <c r="N25" s="410"/>
+      <c r="O25" s="410"/>
+      <c r="P25" s="410"/>
+      <c r="Q25" s="410"/>
       <c r="R25" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12269,24 +12337,24 @@
       <c r="B26" s="121">
         <v>2031.49</v>
       </c>
-      <c r="C26" s="408"/>
-      <c r="D26" s="409"/>
-      <c r="E26" s="408"/>
-      <c r="F26" s="408"/>
-      <c r="G26" s="410"/>
+      <c r="C26" s="407"/>
+      <c r="D26" s="408"/>
+      <c r="E26" s="407"/>
+      <c r="F26" s="407"/>
+      <c r="G26" s="409"/>
       <c r="H26" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I26" s="413"/>
-      <c r="J26" s="413"/>
-      <c r="K26" s="413"/>
-      <c r="L26" s="413"/>
-      <c r="M26" s="413"/>
-      <c r="N26" s="413"/>
-      <c r="O26" s="413"/>
-      <c r="P26" s="413"/>
-      <c r="Q26" s="413"/>
+      <c r="I26" s="410"/>
+      <c r="J26" s="410"/>
+      <c r="K26" s="410"/>
+      <c r="L26" s="410"/>
+      <c r="M26" s="410"/>
+      <c r="N26" s="410"/>
+      <c r="O26" s="410"/>
+      <c r="P26" s="410"/>
+      <c r="Q26" s="410"/>
       <c r="R26" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12299,24 +12367,24 @@
       <c r="B27" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C27" s="408"/>
-      <c r="D27" s="409"/>
-      <c r="E27" s="408"/>
-      <c r="F27" s="408"/>
-      <c r="G27" s="410"/>
+      <c r="C27" s="407"/>
+      <c r="D27" s="408"/>
+      <c r="E27" s="407"/>
+      <c r="F27" s="407"/>
+      <c r="G27" s="409"/>
       <c r="H27" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I27" s="413"/>
-      <c r="J27" s="413"/>
-      <c r="K27" s="413"/>
-      <c r="L27" s="413"/>
-      <c r="M27" s="413"/>
-      <c r="N27" s="413"/>
-      <c r="O27" s="413"/>
-      <c r="P27" s="413"/>
-      <c r="Q27" s="413"/>
+      <c r="I27" s="410"/>
+      <c r="J27" s="410"/>
+      <c r="K27" s="410"/>
+      <c r="L27" s="410"/>
+      <c r="M27" s="410"/>
+      <c r="N27" s="410"/>
+      <c r="O27" s="410"/>
+      <c r="P27" s="410"/>
+      <c r="Q27" s="410"/>
       <c r="R27" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12329,54 +12397,54 @@
       <c r="B28" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C28" s="408">
+      <c r="C28" s="407">
         <v>22.25</v>
       </c>
-      <c r="D28" s="409">
+      <c r="D28" s="408">
         <f>IF(G28&gt;0,SUM(B28:B34)-C28,0)</f>
         <v>14106.8</v>
       </c>
-      <c r="E28" s="408">
+      <c r="E28" s="407">
         <v>6.1675000000000004</v>
       </c>
-      <c r="F28" s="408">
+      <c r="F28" s="407">
         <v>29.3</v>
       </c>
-      <c r="G28" s="410">
+      <c r="G28" s="409">
         <v>79</v>
       </c>
       <c r="H28" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I28" s="413">
+      <c r="I28" s="410">
         <f>IF($D$2&gt;F28,G28*($D$2-F28)*0.2,0)</f>
         <v>7.1099999999999888</v>
       </c>
-      <c r="J28" s="413">
+      <c r="J28" s="410">
         <f>SUM(I10:I27)</f>
         <v>300.76800000000003</v>
       </c>
-      <c r="K28" s="413">
+      <c r="K28" s="410">
         <v>29.75</v>
       </c>
-      <c r="L28" s="413">
+      <c r="L28" s="410">
         <v>278</v>
       </c>
-      <c r="M28" s="413">
+      <c r="M28" s="410">
         <f>IF(IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005)&gt;25,IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005),25)</f>
         <v>41.352499999999999</v>
       </c>
-      <c r="N28" s="413">
+      <c r="N28" s="410">
         <v>5.25</v>
       </c>
-      <c r="O28" s="413">
-        <v>0</v>
-      </c>
-      <c r="P28" s="413">
+      <c r="O28" s="410">
+        <v>0</v>
+      </c>
+      <c r="P28" s="410">
         <v>25</v>
       </c>
-      <c r="Q28" s="413">
+      <c r="Q28" s="410">
         <f>(K28*L28-J28-M28-N28-O28-P28)*S34</f>
         <v>48178.589949999994</v>
       </c>
@@ -12392,24 +12460,24 @@
       <c r="B29" s="121">
         <v>2445.75</v>
       </c>
-      <c r="C29" s="408"/>
-      <c r="D29" s="409"/>
-      <c r="E29" s="408"/>
-      <c r="F29" s="408"/>
-      <c r="G29" s="410"/>
+      <c r="C29" s="407"/>
+      <c r="D29" s="408"/>
+      <c r="E29" s="407"/>
+      <c r="F29" s="407"/>
+      <c r="G29" s="409"/>
       <c r="H29" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I29" s="413"/>
-      <c r="J29" s="413"/>
-      <c r="K29" s="413"/>
-      <c r="L29" s="413"/>
-      <c r="M29" s="413"/>
-      <c r="N29" s="413"/>
-      <c r="O29" s="413"/>
-      <c r="P29" s="413"/>
-      <c r="Q29" s="413"/>
+      <c r="I29" s="410"/>
+      <c r="J29" s="410"/>
+      <c r="K29" s="410"/>
+      <c r="L29" s="410"/>
+      <c r="M29" s="410"/>
+      <c r="N29" s="410"/>
+      <c r="O29" s="410"/>
+      <c r="P29" s="410"/>
+      <c r="Q29" s="410"/>
       <c r="R29" s="109">
         <v>400.35</v>
       </c>
@@ -12421,24 +12489,24 @@
       <c r="B30" s="121">
         <v>1917.03</v>
       </c>
-      <c r="C30" s="408"/>
-      <c r="D30" s="409"/>
-      <c r="E30" s="408"/>
-      <c r="F30" s="408"/>
-      <c r="G30" s="410"/>
+      <c r="C30" s="407"/>
+      <c r="D30" s="408"/>
+      <c r="E30" s="407"/>
+      <c r="F30" s="407"/>
+      <c r="G30" s="409"/>
       <c r="H30" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I30" s="413"/>
-      <c r="J30" s="413"/>
-      <c r="K30" s="413"/>
-      <c r="L30" s="413"/>
-      <c r="M30" s="413"/>
-      <c r="N30" s="413"/>
-      <c r="O30" s="413"/>
-      <c r="P30" s="413"/>
-      <c r="Q30" s="413"/>
+      <c r="I30" s="410"/>
+      <c r="J30" s="410"/>
+      <c r="K30" s="410"/>
+      <c r="L30" s="410"/>
+      <c r="M30" s="410"/>
+      <c r="N30" s="410"/>
+      <c r="O30" s="410"/>
+      <c r="P30" s="410"/>
+      <c r="Q30" s="410"/>
       <c r="R30" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12451,24 +12519,24 @@
       <c r="B31" s="121">
         <v>1827.02</v>
       </c>
-      <c r="C31" s="408"/>
-      <c r="D31" s="409"/>
-      <c r="E31" s="408"/>
-      <c r="F31" s="408"/>
-      <c r="G31" s="410"/>
+      <c r="C31" s="407"/>
+      <c r="D31" s="408"/>
+      <c r="E31" s="407"/>
+      <c r="F31" s="407"/>
+      <c r="G31" s="409"/>
       <c r="H31" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I31" s="413"/>
-      <c r="J31" s="413"/>
-      <c r="K31" s="413"/>
-      <c r="L31" s="413"/>
-      <c r="M31" s="413"/>
-      <c r="N31" s="413"/>
-      <c r="O31" s="413"/>
-      <c r="P31" s="413"/>
-      <c r="Q31" s="413"/>
+      <c r="I31" s="410"/>
+      <c r="J31" s="410"/>
+      <c r="K31" s="410"/>
+      <c r="L31" s="410"/>
+      <c r="M31" s="410"/>
+      <c r="N31" s="410"/>
+      <c r="O31" s="410"/>
+      <c r="P31" s="410"/>
+      <c r="Q31" s="410"/>
       <c r="R31" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12481,24 +12549,24 @@
       <c r="B32" s="121">
         <v>1958.22</v>
       </c>
-      <c r="C32" s="408"/>
-      <c r="D32" s="409"/>
-      <c r="E32" s="408"/>
-      <c r="F32" s="408"/>
-      <c r="G32" s="410"/>
+      <c r="C32" s="407"/>
+      <c r="D32" s="408"/>
+      <c r="E32" s="407"/>
+      <c r="F32" s="407"/>
+      <c r="G32" s="409"/>
       <c r="H32" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I32" s="413"/>
-      <c r="J32" s="413"/>
-      <c r="K32" s="413"/>
-      <c r="L32" s="413"/>
-      <c r="M32" s="413"/>
-      <c r="N32" s="413"/>
-      <c r="O32" s="413"/>
-      <c r="P32" s="413"/>
-      <c r="Q32" s="413"/>
+      <c r="I32" s="410"/>
+      <c r="J32" s="410"/>
+      <c r="K32" s="410"/>
+      <c r="L32" s="410"/>
+      <c r="M32" s="410"/>
+      <c r="N32" s="410"/>
+      <c r="O32" s="410"/>
+      <c r="P32" s="410"/>
+      <c r="Q32" s="410"/>
       <c r="R32" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12511,24 +12579,24 @@
       <c r="B33" s="121">
         <v>1958.28</v>
       </c>
-      <c r="C33" s="408"/>
-      <c r="D33" s="409"/>
-      <c r="E33" s="408"/>
-      <c r="F33" s="408"/>
-      <c r="G33" s="410"/>
+      <c r="C33" s="407"/>
+      <c r="D33" s="408"/>
+      <c r="E33" s="407"/>
+      <c r="F33" s="407"/>
+      <c r="G33" s="409"/>
       <c r="H33" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I33" s="413"/>
-      <c r="J33" s="413"/>
-      <c r="K33" s="413"/>
-      <c r="L33" s="413"/>
-      <c r="M33" s="413"/>
-      <c r="N33" s="413"/>
-      <c r="O33" s="413"/>
-      <c r="P33" s="413"/>
-      <c r="Q33" s="413"/>
+      <c r="I33" s="410"/>
+      <c r="J33" s="410"/>
+      <c r="K33" s="410"/>
+      <c r="L33" s="410"/>
+      <c r="M33" s="410"/>
+      <c r="N33" s="410"/>
+      <c r="O33" s="410"/>
+      <c r="P33" s="410"/>
+      <c r="Q33" s="410"/>
       <c r="R33" s="109">
         <f>R30</f>
         <v>400.35</v>
@@ -12541,24 +12609,24 @@
       <c r="B34" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C34" s="408"/>
-      <c r="D34" s="409"/>
-      <c r="E34" s="408"/>
-      <c r="F34" s="408"/>
-      <c r="G34" s="410"/>
+      <c r="C34" s="407"/>
+      <c r="D34" s="408"/>
+      <c r="E34" s="407"/>
+      <c r="F34" s="407"/>
+      <c r="G34" s="409"/>
       <c r="H34" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I34" s="413"/>
-      <c r="J34" s="413"/>
-      <c r="K34" s="413"/>
-      <c r="L34" s="413"/>
-      <c r="M34" s="413"/>
-      <c r="N34" s="413"/>
-      <c r="O34" s="413"/>
-      <c r="P34" s="413"/>
-      <c r="Q34" s="413"/>
+      <c r="I34" s="410"/>
+      <c r="J34" s="410"/>
+      <c r="K34" s="410"/>
+      <c r="L34" s="410"/>
+      <c r="M34" s="410"/>
+      <c r="N34" s="410"/>
+      <c r="O34" s="410"/>
+      <c r="P34" s="410"/>
+      <c r="Q34" s="410"/>
       <c r="R34" s="109">
         <f>R32</f>
         <v>400.35</v>
@@ -12574,38 +12642,38 @@
       <c r="B35" s="121">
         <v>2171.2600000000002</v>
       </c>
-      <c r="C35" s="408">
+      <c r="C35" s="407">
         <v>30.19</v>
       </c>
-      <c r="D35" s="409">
+      <c r="D35" s="408">
         <f>IF(B40&gt;0,SUM(B35:B40)-C35,0)</f>
         <v>13016.160000000002</v>
       </c>
-      <c r="E35" s="408">
+      <c r="E35" s="407">
         <v>6.1369999999999996</v>
       </c>
-      <c r="F35" s="408">
+      <c r="F35" s="407">
         <v>25.93</v>
       </c>
-      <c r="G35" s="410">
+      <c r="G35" s="409">
         <v>96</v>
       </c>
       <c r="H35" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I35" s="413">
+      <c r="I35" s="410">
         <f>IF($D$2&gt;F35,G35*($D$2-F35)*0.2,0)</f>
         <v>73.344000000000008</v>
       </c>
-      <c r="J35" s="413"/>
-      <c r="K35" s="413"/>
-      <c r="L35" s="413"/>
-      <c r="M35" s="413"/>
-      <c r="N35" s="413"/>
-      <c r="O35" s="413"/>
-      <c r="P35" s="413"/>
-      <c r="Q35" s="413"/>
+      <c r="J35" s="410"/>
+      <c r="K35" s="410"/>
+      <c r="L35" s="410"/>
+      <c r="M35" s="410"/>
+      <c r="N35" s="410"/>
+      <c r="O35" s="410"/>
+      <c r="P35" s="410"/>
+      <c r="Q35" s="410"/>
       <c r="R35" s="109">
         <v>358.55</v>
       </c>
@@ -12617,24 +12685,24 @@
       <c r="B36" s="121">
         <v>2081.27</v>
       </c>
-      <c r="C36" s="408"/>
-      <c r="D36" s="409"/>
-      <c r="E36" s="408"/>
-      <c r="F36" s="408"/>
-      <c r="G36" s="410"/>
+      <c r="C36" s="407"/>
+      <c r="D36" s="408"/>
+      <c r="E36" s="407"/>
+      <c r="F36" s="407"/>
+      <c r="G36" s="409"/>
       <c r="H36" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I36" s="413"/>
-      <c r="J36" s="413"/>
-      <c r="K36" s="413"/>
-      <c r="L36" s="413"/>
-      <c r="M36" s="413"/>
-      <c r="N36" s="413"/>
-      <c r="O36" s="413"/>
-      <c r="P36" s="413"/>
-      <c r="Q36" s="413"/>
+      <c r="I36" s="410"/>
+      <c r="J36" s="410"/>
+      <c r="K36" s="410"/>
+      <c r="L36" s="410"/>
+      <c r="M36" s="410"/>
+      <c r="N36" s="410"/>
+      <c r="O36" s="410"/>
+      <c r="P36" s="410"/>
+      <c r="Q36" s="410"/>
       <c r="R36" s="109">
         <v>358.55</v>
       </c>
@@ -12646,24 +12714,24 @@
       <c r="B37" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C37" s="408"/>
-      <c r="D37" s="409"/>
-      <c r="E37" s="408"/>
-      <c r="F37" s="408"/>
-      <c r="G37" s="410"/>
+      <c r="C37" s="407"/>
+      <c r="D37" s="408"/>
+      <c r="E37" s="407"/>
+      <c r="F37" s="407"/>
+      <c r="G37" s="409"/>
       <c r="H37" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I37" s="413"/>
-      <c r="J37" s="413"/>
-      <c r="K37" s="413"/>
-      <c r="L37" s="413"/>
-      <c r="M37" s="413"/>
-      <c r="N37" s="413"/>
-      <c r="O37" s="413"/>
-      <c r="P37" s="413"/>
-      <c r="Q37" s="413"/>
+      <c r="I37" s="410"/>
+      <c r="J37" s="410"/>
+      <c r="K37" s="410"/>
+      <c r="L37" s="410"/>
+      <c r="M37" s="410"/>
+      <c r="N37" s="410"/>
+      <c r="O37" s="410"/>
+      <c r="P37" s="410"/>
+      <c r="Q37" s="410"/>
       <c r="R37" s="109">
         <v>358.55</v>
       </c>
@@ -12675,24 +12743,24 @@
       <c r="B38" s="121">
         <v>2537.5100000000002</v>
       </c>
-      <c r="C38" s="408"/>
-      <c r="D38" s="409"/>
-      <c r="E38" s="408"/>
-      <c r="F38" s="408"/>
-      <c r="G38" s="410"/>
+      <c r="C38" s="407"/>
+      <c r="D38" s="408"/>
+      <c r="E38" s="407"/>
+      <c r="F38" s="407"/>
+      <c r="G38" s="409"/>
       <c r="H38" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I38" s="413"/>
-      <c r="J38" s="413"/>
-      <c r="K38" s="413"/>
-      <c r="L38" s="413"/>
-      <c r="M38" s="413"/>
-      <c r="N38" s="413"/>
-      <c r="O38" s="413"/>
-      <c r="P38" s="413"/>
-      <c r="Q38" s="413"/>
+      <c r="I38" s="410"/>
+      <c r="J38" s="410"/>
+      <c r="K38" s="410"/>
+      <c r="L38" s="410"/>
+      <c r="M38" s="410"/>
+      <c r="N38" s="410"/>
+      <c r="O38" s="410"/>
+      <c r="P38" s="410"/>
+      <c r="Q38" s="410"/>
       <c r="R38" s="109">
         <v>358.55</v>
       </c>
@@ -12704,24 +12772,24 @@
       <c r="B39" s="121">
         <v>2087.52</v>
       </c>
-      <c r="C39" s="408"/>
-      <c r="D39" s="409"/>
-      <c r="E39" s="408"/>
-      <c r="F39" s="408"/>
-      <c r="G39" s="410"/>
+      <c r="C39" s="407"/>
+      <c r="D39" s="408"/>
+      <c r="E39" s="407"/>
+      <c r="F39" s="407"/>
+      <c r="G39" s="409"/>
       <c r="H39" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I39" s="413"/>
-      <c r="J39" s="413"/>
-      <c r="K39" s="413"/>
-      <c r="L39" s="413"/>
-      <c r="M39" s="413"/>
-      <c r="N39" s="413"/>
-      <c r="O39" s="413"/>
-      <c r="P39" s="413"/>
-      <c r="Q39" s="413"/>
+      <c r="I39" s="410"/>
+      <c r="J39" s="410"/>
+      <c r="K39" s="410"/>
+      <c r="L39" s="410"/>
+      <c r="M39" s="410"/>
+      <c r="N39" s="410"/>
+      <c r="O39" s="410"/>
+      <c r="P39" s="410"/>
+      <c r="Q39" s="410"/>
       <c r="R39" s="109">
         <v>358.55</v>
       </c>
@@ -12733,24 +12801,24 @@
       <c r="B40" s="121">
         <v>2087.5300000000002</v>
       </c>
-      <c r="C40" s="408"/>
-      <c r="D40" s="409"/>
-      <c r="E40" s="408"/>
-      <c r="F40" s="408"/>
-      <c r="G40" s="410"/>
+      <c r="C40" s="407"/>
+      <c r="D40" s="408"/>
+      <c r="E40" s="407"/>
+      <c r="F40" s="407"/>
+      <c r="G40" s="409"/>
       <c r="H40" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I40" s="413"/>
-      <c r="J40" s="413"/>
-      <c r="K40" s="413"/>
-      <c r="L40" s="413"/>
-      <c r="M40" s="413"/>
-      <c r="N40" s="413"/>
-      <c r="O40" s="413"/>
-      <c r="P40" s="413"/>
-      <c r="Q40" s="413"/>
+      <c r="I40" s="410"/>
+      <c r="J40" s="410"/>
+      <c r="K40" s="410"/>
+      <c r="L40" s="410"/>
+      <c r="M40" s="410"/>
+      <c r="N40" s="410"/>
+      <c r="O40" s="410"/>
+      <c r="P40" s="410"/>
+      <c r="Q40" s="410"/>
       <c r="R40" s="109">
         <v>358.55</v>
       </c>
@@ -12762,38 +12830,38 @@
       <c r="B41" s="121">
         <v>2362.48</v>
       </c>
-      <c r="C41" s="408">
+      <c r="C41" s="407">
         <v>52.72</v>
       </c>
-      <c r="D41" s="409">
+      <c r="D41" s="408">
         <f>IF(B46&gt;0,SUM(B41:B46)-C41,0)</f>
         <v>13224.73</v>
       </c>
-      <c r="E41" s="408">
+      <c r="E41" s="407">
         <v>6.2213000000000003</v>
       </c>
-      <c r="F41" s="408">
+      <c r="F41" s="407">
         <v>26.89</v>
       </c>
-      <c r="G41" s="410">
+      <c r="G41" s="409">
         <v>93</v>
       </c>
       <c r="H41" s="120">
         <f t="shared" si="1"/>
         <v>95.527500000000003</v>
       </c>
-      <c r="I41" s="413">
+      <c r="I41" s="410">
         <f>IF($D$2&gt;F41,G41*($D$2-F41)*0.2,0)</f>
         <v>53.195999999999998</v>
       </c>
-      <c r="J41" s="413"/>
-      <c r="K41" s="413"/>
-      <c r="L41" s="413"/>
-      <c r="M41" s="413"/>
-      <c r="N41" s="413"/>
-      <c r="O41" s="413"/>
-      <c r="P41" s="413"/>
-      <c r="Q41" s="413"/>
+      <c r="J41" s="410"/>
+      <c r="K41" s="410"/>
+      <c r="L41" s="410"/>
+      <c r="M41" s="410"/>
+      <c r="N41" s="410"/>
+      <c r="O41" s="410"/>
+      <c r="P41" s="410"/>
+      <c r="Q41" s="410"/>
       <c r="R41" s="109">
         <v>381.97</v>
       </c>
@@ -12805,24 +12873,24 @@
       <c r="B42" s="121">
         <v>2174.98</v>
       </c>
-      <c r="C42" s="408"/>
-      <c r="D42" s="409"/>
-      <c r="E42" s="408"/>
-      <c r="F42" s="408"/>
-      <c r="G42" s="410"/>
+      <c r="C42" s="407"/>
+      <c r="D42" s="408"/>
+      <c r="E42" s="407"/>
+      <c r="F42" s="407"/>
+      <c r="G42" s="409"/>
       <c r="H42" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="413"/>
-      <c r="J42" s="413"/>
-      <c r="K42" s="413"/>
-      <c r="L42" s="413"/>
-      <c r="M42" s="413"/>
-      <c r="N42" s="413"/>
-      <c r="O42" s="413"/>
-      <c r="P42" s="413"/>
-      <c r="Q42" s="413"/>
+      <c r="I42" s="410"/>
+      <c r="J42" s="410"/>
+      <c r="K42" s="410"/>
+      <c r="L42" s="410"/>
+      <c r="M42" s="410"/>
+      <c r="N42" s="410"/>
+      <c r="O42" s="410"/>
+      <c r="P42" s="410"/>
+      <c r="Q42" s="410"/>
       <c r="R42" s="109">
         <v>381.97</v>
       </c>
@@ -12834,24 +12902,24 @@
       <c r="B43" s="121">
         <v>2265</v>
       </c>
-      <c r="C43" s="408"/>
-      <c r="D43" s="409"/>
-      <c r="E43" s="408"/>
-      <c r="F43" s="408"/>
-      <c r="G43" s="410"/>
+      <c r="C43" s="407"/>
+      <c r="D43" s="408"/>
+      <c r="E43" s="407"/>
+      <c r="F43" s="407"/>
+      <c r="G43" s="409"/>
       <c r="H43" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I43" s="413"/>
-      <c r="J43" s="413"/>
-      <c r="K43" s="413"/>
-      <c r="L43" s="413"/>
-      <c r="M43" s="413"/>
-      <c r="N43" s="413"/>
-      <c r="O43" s="413"/>
-      <c r="P43" s="413"/>
-      <c r="Q43" s="413"/>
+      <c r="I43" s="410"/>
+      <c r="J43" s="410"/>
+      <c r="K43" s="410"/>
+      <c r="L43" s="410"/>
+      <c r="M43" s="410"/>
+      <c r="N43" s="410"/>
+      <c r="O43" s="410"/>
+      <c r="P43" s="410"/>
+      <c r="Q43" s="410"/>
       <c r="R43" s="109">
         <v>381.97</v>
       </c>
@@ -12863,24 +12931,24 @@
       <c r="B44" s="121">
         <v>2087.5</v>
       </c>
-      <c r="C44" s="408"/>
-      <c r="D44" s="409"/>
-      <c r="E44" s="408"/>
-      <c r="F44" s="408"/>
-      <c r="G44" s="410"/>
+      <c r="C44" s="407"/>
+      <c r="D44" s="408"/>
+      <c r="E44" s="407"/>
+      <c r="F44" s="407"/>
+      <c r="G44" s="409"/>
       <c r="H44" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44" s="413"/>
-      <c r="J44" s="413"/>
-      <c r="K44" s="413"/>
-      <c r="L44" s="413"/>
-      <c r="M44" s="413"/>
-      <c r="N44" s="413"/>
-      <c r="O44" s="413"/>
-      <c r="P44" s="413"/>
-      <c r="Q44" s="413"/>
+      <c r="I44" s="410"/>
+      <c r="J44" s="410"/>
+      <c r="K44" s="410"/>
+      <c r="L44" s="410"/>
+      <c r="M44" s="410"/>
+      <c r="N44" s="410"/>
+      <c r="O44" s="410"/>
+      <c r="P44" s="410"/>
+      <c r="Q44" s="410"/>
       <c r="R44" s="109">
         <v>381.97</v>
       </c>
@@ -12892,24 +12960,24 @@
       <c r="B45" s="121">
         <v>2087.48</v>
       </c>
-      <c r="C45" s="408"/>
-      <c r="D45" s="409"/>
-      <c r="E45" s="408"/>
-      <c r="F45" s="408"/>
-      <c r="G45" s="410"/>
+      <c r="C45" s="407"/>
+      <c r="D45" s="408"/>
+      <c r="E45" s="407"/>
+      <c r="F45" s="407"/>
+      <c r="G45" s="409"/>
       <c r="H45" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45" s="413"/>
-      <c r="J45" s="413"/>
-      <c r="K45" s="413"/>
-      <c r="L45" s="413"/>
-      <c r="M45" s="413"/>
-      <c r="N45" s="413"/>
-      <c r="O45" s="413"/>
-      <c r="P45" s="413"/>
-      <c r="Q45" s="413"/>
+      <c r="I45" s="410"/>
+      <c r="J45" s="410"/>
+      <c r="K45" s="410"/>
+      <c r="L45" s="410"/>
+      <c r="M45" s="410"/>
+      <c r="N45" s="410"/>
+      <c r="O45" s="410"/>
+      <c r="P45" s="410"/>
+      <c r="Q45" s="410"/>
       <c r="R45" s="109">
         <v>381.97</v>
       </c>
@@ -12921,24 +12989,24 @@
       <c r="B46" s="121">
         <v>2300.0100000000002</v>
       </c>
-      <c r="C46" s="408"/>
-      <c r="D46" s="409"/>
-      <c r="E46" s="408"/>
-      <c r="F46" s="408"/>
-      <c r="G46" s="410"/>
+      <c r="C46" s="407"/>
+      <c r="D46" s="408"/>
+      <c r="E46" s="407"/>
+      <c r="F46" s="407"/>
+      <c r="G46" s="409"/>
       <c r="H46" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46" s="413"/>
-      <c r="J46" s="413"/>
-      <c r="K46" s="413"/>
-      <c r="L46" s="413"/>
-      <c r="M46" s="413"/>
-      <c r="N46" s="413"/>
-      <c r="O46" s="413"/>
-      <c r="P46" s="413"/>
-      <c r="Q46" s="413"/>
+      <c r="I46" s="410"/>
+      <c r="J46" s="410"/>
+      <c r="K46" s="410"/>
+      <c r="L46" s="410"/>
+      <c r="M46" s="410"/>
+      <c r="N46" s="410"/>
+      <c r="O46" s="410"/>
+      <c r="P46" s="410"/>
+      <c r="Q46" s="410"/>
       <c r="R46" s="109">
         <v>381.97</v>
       </c>
@@ -12950,38 +13018,38 @@
       <c r="B47" s="121">
         <v>3787.17</v>
       </c>
-      <c r="C47" s="408">
-        <v>0</v>
-      </c>
-      <c r="D47" s="409">
+      <c r="C47" s="407">
+        <v>0</v>
+      </c>
+      <c r="D47" s="408">
         <f>IF(B52&gt;0,SUM(B47:B52)-C47,0)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="408">
+      <c r="E47" s="407">
         <v>6.2</v>
       </c>
-      <c r="F47" s="408">
+      <c r="F47" s="407">
         <v>25.3</v>
       </c>
-      <c r="G47" s="410">
+      <c r="G47" s="409">
         <v>0</v>
       </c>
       <c r="H47" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="413">
+      <c r="I47" s="410">
         <f>IF($D$2&gt;F47,G47*($D$2-F47)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="413"/>
-      <c r="K47" s="413"/>
-      <c r="L47" s="413"/>
-      <c r="M47" s="413"/>
-      <c r="N47" s="413"/>
-      <c r="O47" s="413"/>
-      <c r="P47" s="413"/>
-      <c r="Q47" s="413"/>
+      <c r="J47" s="410"/>
+      <c r="K47" s="410"/>
+      <c r="L47" s="410"/>
+      <c r="M47" s="410"/>
+      <c r="N47" s="410"/>
+      <c r="O47" s="410"/>
+      <c r="P47" s="410"/>
+      <c r="Q47" s="410"/>
       <c r="R47" s="109">
         <v>382.11</v>
       </c>
@@ -12993,24 +13061,24 @@
       <c r="B48" s="121">
         <v>0</v>
       </c>
-      <c r="C48" s="408"/>
-      <c r="D48" s="409"/>
-      <c r="E48" s="408"/>
-      <c r="F48" s="408"/>
-      <c r="G48" s="410"/>
+      <c r="C48" s="407"/>
+      <c r="D48" s="408"/>
+      <c r="E48" s="407"/>
+      <c r="F48" s="407"/>
+      <c r="G48" s="409"/>
       <c r="H48" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48" s="413"/>
-      <c r="J48" s="413"/>
-      <c r="K48" s="413"/>
-      <c r="L48" s="413"/>
-      <c r="M48" s="413"/>
-      <c r="N48" s="413"/>
-      <c r="O48" s="413"/>
-      <c r="P48" s="413"/>
-      <c r="Q48" s="413"/>
+      <c r="I48" s="410"/>
+      <c r="J48" s="410"/>
+      <c r="K48" s="410"/>
+      <c r="L48" s="410"/>
+      <c r="M48" s="410"/>
+      <c r="N48" s="410"/>
+      <c r="O48" s="410"/>
+      <c r="P48" s="410"/>
+      <c r="Q48" s="410"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
@@ -13019,24 +13087,24 @@
       <c r="B49" s="121">
         <v>0</v>
       </c>
-      <c r="C49" s="408"/>
-      <c r="D49" s="409"/>
-      <c r="E49" s="408"/>
-      <c r="F49" s="408"/>
-      <c r="G49" s="410"/>
+      <c r="C49" s="407"/>
+      <c r="D49" s="408"/>
+      <c r="E49" s="407"/>
+      <c r="F49" s="407"/>
+      <c r="G49" s="409"/>
       <c r="H49" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I49" s="413"/>
-      <c r="J49" s="413"/>
-      <c r="K49" s="413"/>
-      <c r="L49" s="413"/>
-      <c r="M49" s="413"/>
-      <c r="N49" s="413"/>
-      <c r="O49" s="413"/>
-      <c r="P49" s="413"/>
-      <c r="Q49" s="413"/>
+      <c r="I49" s="410"/>
+      <c r="J49" s="410"/>
+      <c r="K49" s="410"/>
+      <c r="L49" s="410"/>
+      <c r="M49" s="410"/>
+      <c r="N49" s="410"/>
+      <c r="O49" s="410"/>
+      <c r="P49" s="410"/>
+      <c r="Q49" s="410"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
@@ -13045,24 +13113,24 @@
       <c r="B50" s="121">
         <v>0</v>
       </c>
-      <c r="C50" s="408"/>
-      <c r="D50" s="409"/>
-      <c r="E50" s="408"/>
-      <c r="F50" s="408"/>
-      <c r="G50" s="410"/>
+      <c r="C50" s="407"/>
+      <c r="D50" s="408"/>
+      <c r="E50" s="407"/>
+      <c r="F50" s="407"/>
+      <c r="G50" s="409"/>
       <c r="H50" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I50" s="413"/>
-      <c r="J50" s="413"/>
-      <c r="K50" s="413"/>
-      <c r="L50" s="413"/>
-      <c r="M50" s="413"/>
-      <c r="N50" s="413"/>
-      <c r="O50" s="413"/>
-      <c r="P50" s="413"/>
-      <c r="Q50" s="413"/>
+      <c r="I50" s="410"/>
+      <c r="J50" s="410"/>
+      <c r="K50" s="410"/>
+      <c r="L50" s="410"/>
+      <c r="M50" s="410"/>
+      <c r="N50" s="410"/>
+      <c r="O50" s="410"/>
+      <c r="P50" s="410"/>
+      <c r="Q50" s="410"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
@@ -13071,24 +13139,24 @@
       <c r="B51" s="121">
         <v>0</v>
       </c>
-      <c r="C51" s="408"/>
-      <c r="D51" s="409"/>
-      <c r="E51" s="408"/>
-      <c r="F51" s="408"/>
-      <c r="G51" s="410"/>
+      <c r="C51" s="407"/>
+      <c r="D51" s="408"/>
+      <c r="E51" s="407"/>
+      <c r="F51" s="407"/>
+      <c r="G51" s="409"/>
       <c r="H51" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I51" s="413"/>
-      <c r="J51" s="413"/>
-      <c r="K51" s="413"/>
-      <c r="L51" s="413"/>
-      <c r="M51" s="413"/>
-      <c r="N51" s="413"/>
-      <c r="O51" s="413"/>
-      <c r="P51" s="413"/>
-      <c r="Q51" s="413"/>
+      <c r="I51" s="410"/>
+      <c r="J51" s="410"/>
+      <c r="K51" s="410"/>
+      <c r="L51" s="410"/>
+      <c r="M51" s="410"/>
+      <c r="N51" s="410"/>
+      <c r="O51" s="410"/>
+      <c r="P51" s="410"/>
+      <c r="Q51" s="410"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
@@ -13097,24 +13165,24 @@
       <c r="B52" s="121">
         <v>0</v>
       </c>
-      <c r="C52" s="408"/>
-      <c r="D52" s="409"/>
-      <c r="E52" s="408"/>
-      <c r="F52" s="408"/>
-      <c r="G52" s="410"/>
+      <c r="C52" s="407"/>
+      <c r="D52" s="408"/>
+      <c r="E52" s="407"/>
+      <c r="F52" s="407"/>
+      <c r="G52" s="409"/>
       <c r="H52" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I52" s="413"/>
-      <c r="J52" s="413"/>
-      <c r="K52" s="413"/>
-      <c r="L52" s="413"/>
-      <c r="M52" s="413"/>
-      <c r="N52" s="413"/>
-      <c r="O52" s="413"/>
-      <c r="P52" s="413"/>
-      <c r="Q52" s="413"/>
+      <c r="I52" s="410"/>
+      <c r="J52" s="410"/>
+      <c r="K52" s="410"/>
+      <c r="L52" s="410"/>
+      <c r="M52" s="410"/>
+      <c r="N52" s="410"/>
+      <c r="O52" s="410"/>
+      <c r="P52" s="410"/>
+      <c r="Q52" s="410"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
@@ -13123,38 +13191,38 @@
       <c r="B53" s="121">
         <v>0</v>
       </c>
-      <c r="C53" s="408">
-        <v>0</v>
-      </c>
-      <c r="D53" s="409">
+      <c r="C53" s="407">
+        <v>0</v>
+      </c>
+      <c r="D53" s="408">
         <f>IF(B58&gt;0,SUM(B53:B58)-C53,0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="408">
+      <c r="E53" s="407">
         <v>6.2</v>
       </c>
-      <c r="F53" s="408">
+      <c r="F53" s="407">
         <v>25.3</v>
       </c>
-      <c r="G53" s="410">
+      <c r="G53" s="409">
         <v>0</v>
       </c>
       <c r="H53" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I53" s="413">
+      <c r="I53" s="410">
         <f>IF($D$2&gt;F53,G53*($D$2-F53)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J53" s="413"/>
-      <c r="K53" s="413"/>
-      <c r="L53" s="413"/>
-      <c r="M53" s="413"/>
-      <c r="N53" s="413"/>
-      <c r="O53" s="413"/>
-      <c r="P53" s="413"/>
-      <c r="Q53" s="413"/>
+      <c r="J53" s="410"/>
+      <c r="K53" s="410"/>
+      <c r="L53" s="410"/>
+      <c r="M53" s="410"/>
+      <c r="N53" s="410"/>
+      <c r="O53" s="410"/>
+      <c r="P53" s="410"/>
+      <c r="Q53" s="410"/>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
@@ -13163,24 +13231,24 @@
       <c r="B54" s="121">
         <v>0</v>
       </c>
-      <c r="C54" s="408"/>
-      <c r="D54" s="409"/>
-      <c r="E54" s="408"/>
-      <c r="F54" s="408"/>
-      <c r="G54" s="410"/>
+      <c r="C54" s="407"/>
+      <c r="D54" s="408"/>
+      <c r="E54" s="407"/>
+      <c r="F54" s="407"/>
+      <c r="G54" s="409"/>
       <c r="H54" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I54" s="413"/>
-      <c r="J54" s="413"/>
-      <c r="K54" s="413"/>
-      <c r="L54" s="413"/>
-      <c r="M54" s="413"/>
-      <c r="N54" s="413"/>
-      <c r="O54" s="413"/>
-      <c r="P54" s="413"/>
-      <c r="Q54" s="413"/>
+      <c r="I54" s="410"/>
+      <c r="J54" s="410"/>
+      <c r="K54" s="410"/>
+      <c r="L54" s="410"/>
+      <c r="M54" s="410"/>
+      <c r="N54" s="410"/>
+      <c r="O54" s="410"/>
+      <c r="P54" s="410"/>
+      <c r="Q54" s="410"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
@@ -13189,24 +13257,24 @@
       <c r="B55" s="121">
         <v>0</v>
       </c>
-      <c r="C55" s="408"/>
-      <c r="D55" s="409"/>
-      <c r="E55" s="408"/>
-      <c r="F55" s="408"/>
-      <c r="G55" s="410"/>
+      <c r="C55" s="407"/>
+      <c r="D55" s="408"/>
+      <c r="E55" s="407"/>
+      <c r="F55" s="407"/>
+      <c r="G55" s="409"/>
       <c r="H55" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I55" s="413"/>
-      <c r="J55" s="413"/>
-      <c r="K55" s="413"/>
-      <c r="L55" s="413"/>
-      <c r="M55" s="413"/>
-      <c r="N55" s="413"/>
-      <c r="O55" s="413"/>
-      <c r="P55" s="413"/>
-      <c r="Q55" s="413"/>
+      <c r="I55" s="410"/>
+      <c r="J55" s="410"/>
+      <c r="K55" s="410"/>
+      <c r="L55" s="410"/>
+      <c r="M55" s="410"/>
+      <c r="N55" s="410"/>
+      <c r="O55" s="410"/>
+      <c r="P55" s="410"/>
+      <c r="Q55" s="410"/>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
@@ -13215,24 +13283,24 @@
       <c r="B56" s="121">
         <v>0</v>
       </c>
-      <c r="C56" s="408"/>
-      <c r="D56" s="409"/>
-      <c r="E56" s="408"/>
-      <c r="F56" s="408"/>
-      <c r="G56" s="410"/>
+      <c r="C56" s="407"/>
+      <c r="D56" s="408"/>
+      <c r="E56" s="407"/>
+      <c r="F56" s="407"/>
+      <c r="G56" s="409"/>
       <c r="H56" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I56" s="413"/>
-      <c r="J56" s="413"/>
-      <c r="K56" s="413"/>
-      <c r="L56" s="413"/>
-      <c r="M56" s="413"/>
-      <c r="N56" s="413"/>
-      <c r="O56" s="413"/>
-      <c r="P56" s="413"/>
-      <c r="Q56" s="413"/>
+      <c r="I56" s="410"/>
+      <c r="J56" s="410"/>
+      <c r="K56" s="410"/>
+      <c r="L56" s="410"/>
+      <c r="M56" s="410"/>
+      <c r="N56" s="410"/>
+      <c r="O56" s="410"/>
+      <c r="P56" s="410"/>
+      <c r="Q56" s="410"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
@@ -13241,24 +13309,24 @@
       <c r="B57" s="121">
         <v>0</v>
       </c>
-      <c r="C57" s="408"/>
-      <c r="D57" s="409"/>
-      <c r="E57" s="408"/>
-      <c r="F57" s="408"/>
-      <c r="G57" s="410"/>
+      <c r="C57" s="407"/>
+      <c r="D57" s="408"/>
+      <c r="E57" s="407"/>
+      <c r="F57" s="407"/>
+      <c r="G57" s="409"/>
       <c r="H57" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I57" s="413"/>
-      <c r="J57" s="413"/>
-      <c r="K57" s="413"/>
-      <c r="L57" s="413"/>
-      <c r="M57" s="413"/>
-      <c r="N57" s="413"/>
-      <c r="O57" s="413"/>
-      <c r="P57" s="413"/>
-      <c r="Q57" s="413"/>
+      <c r="I57" s="410"/>
+      <c r="J57" s="410"/>
+      <c r="K57" s="410"/>
+      <c r="L57" s="410"/>
+      <c r="M57" s="410"/>
+      <c r="N57" s="410"/>
+      <c r="O57" s="410"/>
+      <c r="P57" s="410"/>
+      <c r="Q57" s="410"/>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
@@ -13267,24 +13335,24 @@
       <c r="B58" s="121">
         <v>0</v>
       </c>
-      <c r="C58" s="408"/>
-      <c r="D58" s="409"/>
-      <c r="E58" s="408"/>
-      <c r="F58" s="408"/>
-      <c r="G58" s="410"/>
+      <c r="C58" s="407"/>
+      <c r="D58" s="408"/>
+      <c r="E58" s="407"/>
+      <c r="F58" s="407"/>
+      <c r="G58" s="409"/>
       <c r="H58" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I58" s="413"/>
-      <c r="J58" s="413"/>
-      <c r="K58" s="413"/>
-      <c r="L58" s="413"/>
-      <c r="M58" s="413"/>
-      <c r="N58" s="413"/>
-      <c r="O58" s="413"/>
-      <c r="P58" s="413"/>
-      <c r="Q58" s="413"/>
+      <c r="I58" s="410"/>
+      <c r="J58" s="410"/>
+      <c r="K58" s="410"/>
+      <c r="L58" s="410"/>
+      <c r="M58" s="410"/>
+      <c r="N58" s="410"/>
+      <c r="O58" s="410"/>
+      <c r="P58" s="410"/>
+      <c r="Q58" s="410"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
@@ -13293,38 +13361,38 @@
       <c r="B59" s="121">
         <v>0</v>
       </c>
-      <c r="C59" s="408">
-        <v>0</v>
-      </c>
-      <c r="D59" s="409">
+      <c r="C59" s="407">
+        <v>0</v>
+      </c>
+      <c r="D59" s="408">
         <f>IF(B64&gt;0,SUM(B59:B64)-C59,0)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="408">
+      <c r="E59" s="407">
         <v>6.2</v>
       </c>
-      <c r="F59" s="408">
+      <c r="F59" s="407">
         <v>25.3</v>
       </c>
-      <c r="G59" s="410">
+      <c r="G59" s="409">
         <v>0</v>
       </c>
       <c r="H59" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I59" s="413">
+      <c r="I59" s="410">
         <f>IF($D$2&gt;F59,G59*($D$2-F59)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="413"/>
-      <c r="K59" s="413"/>
-      <c r="L59" s="413"/>
-      <c r="M59" s="413"/>
-      <c r="N59" s="413"/>
-      <c r="O59" s="413"/>
-      <c r="P59" s="413"/>
-      <c r="Q59" s="413"/>
+      <c r="J59" s="410"/>
+      <c r="K59" s="410"/>
+      <c r="L59" s="410"/>
+      <c r="M59" s="410"/>
+      <c r="N59" s="410"/>
+      <c r="O59" s="410"/>
+      <c r="P59" s="410"/>
+      <c r="Q59" s="410"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
@@ -13333,24 +13401,24 @@
       <c r="B60" s="121">
         <v>0</v>
       </c>
-      <c r="C60" s="408"/>
-      <c r="D60" s="409"/>
-      <c r="E60" s="408"/>
-      <c r="F60" s="408"/>
-      <c r="G60" s="410"/>
+      <c r="C60" s="407"/>
+      <c r="D60" s="408"/>
+      <c r="E60" s="407"/>
+      <c r="F60" s="407"/>
+      <c r="G60" s="409"/>
       <c r="H60" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I60" s="413"/>
-      <c r="J60" s="413"/>
-      <c r="K60" s="413"/>
-      <c r="L60" s="413"/>
-      <c r="M60" s="413"/>
-      <c r="N60" s="413"/>
-      <c r="O60" s="413"/>
-      <c r="P60" s="413"/>
-      <c r="Q60" s="413"/>
+      <c r="I60" s="410"/>
+      <c r="J60" s="410"/>
+      <c r="K60" s="410"/>
+      <c r="L60" s="410"/>
+      <c r="M60" s="410"/>
+      <c r="N60" s="410"/>
+      <c r="O60" s="410"/>
+      <c r="P60" s="410"/>
+      <c r="Q60" s="410"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
@@ -13359,24 +13427,24 @@
       <c r="B61" s="121">
         <v>0</v>
       </c>
-      <c r="C61" s="408"/>
-      <c r="D61" s="409"/>
-      <c r="E61" s="408"/>
-      <c r="F61" s="408"/>
-      <c r="G61" s="410"/>
+      <c r="C61" s="407"/>
+      <c r="D61" s="408"/>
+      <c r="E61" s="407"/>
+      <c r="F61" s="407"/>
+      <c r="G61" s="409"/>
       <c r="H61" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I61" s="413"/>
-      <c r="J61" s="413"/>
-      <c r="K61" s="413"/>
-      <c r="L61" s="413"/>
-      <c r="M61" s="413"/>
-      <c r="N61" s="413"/>
-      <c r="O61" s="413"/>
-      <c r="P61" s="413"/>
-      <c r="Q61" s="413"/>
+      <c r="I61" s="410"/>
+      <c r="J61" s="410"/>
+      <c r="K61" s="410"/>
+      <c r="L61" s="410"/>
+      <c r="M61" s="410"/>
+      <c r="N61" s="410"/>
+      <c r="O61" s="410"/>
+      <c r="P61" s="410"/>
+      <c r="Q61" s="410"/>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
@@ -13385,24 +13453,24 @@
       <c r="B62" s="121">
         <v>0</v>
       </c>
-      <c r="C62" s="408"/>
-      <c r="D62" s="409"/>
-      <c r="E62" s="408"/>
-      <c r="F62" s="408"/>
-      <c r="G62" s="410"/>
+      <c r="C62" s="407"/>
+      <c r="D62" s="408"/>
+      <c r="E62" s="407"/>
+      <c r="F62" s="407"/>
+      <c r="G62" s="409"/>
       <c r="H62" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I62" s="413"/>
-      <c r="J62" s="413"/>
-      <c r="K62" s="413"/>
-      <c r="L62" s="413"/>
-      <c r="M62" s="413"/>
-      <c r="N62" s="413"/>
-      <c r="O62" s="413"/>
-      <c r="P62" s="413"/>
-      <c r="Q62" s="413"/>
+      <c r="I62" s="410"/>
+      <c r="J62" s="410"/>
+      <c r="K62" s="410"/>
+      <c r="L62" s="410"/>
+      <c r="M62" s="410"/>
+      <c r="N62" s="410"/>
+      <c r="O62" s="410"/>
+      <c r="P62" s="410"/>
+      <c r="Q62" s="410"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
@@ -13411,24 +13479,24 @@
       <c r="B63" s="121">
         <v>0</v>
       </c>
-      <c r="C63" s="408"/>
-      <c r="D63" s="409"/>
-      <c r="E63" s="408"/>
-      <c r="F63" s="408"/>
-      <c r="G63" s="410"/>
+      <c r="C63" s="407"/>
+      <c r="D63" s="408"/>
+      <c r="E63" s="407"/>
+      <c r="F63" s="407"/>
+      <c r="G63" s="409"/>
       <c r="H63" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I63" s="413"/>
-      <c r="J63" s="413"/>
-      <c r="K63" s="413"/>
-      <c r="L63" s="413"/>
-      <c r="M63" s="413"/>
-      <c r="N63" s="413"/>
-      <c r="O63" s="413"/>
-      <c r="P63" s="413"/>
-      <c r="Q63" s="413"/>
+      <c r="I63" s="410"/>
+      <c r="J63" s="410"/>
+      <c r="K63" s="410"/>
+      <c r="L63" s="410"/>
+      <c r="M63" s="410"/>
+      <c r="N63" s="410"/>
+      <c r="O63" s="410"/>
+      <c r="P63" s="410"/>
+      <c r="Q63" s="410"/>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
@@ -13437,24 +13505,24 @@
       <c r="B64" s="121">
         <v>0</v>
       </c>
-      <c r="C64" s="408"/>
-      <c r="D64" s="409"/>
-      <c r="E64" s="408"/>
-      <c r="F64" s="408"/>
-      <c r="G64" s="410"/>
+      <c r="C64" s="407"/>
+      <c r="D64" s="408"/>
+      <c r="E64" s="407"/>
+      <c r="F64" s="407"/>
+      <c r="G64" s="409"/>
       <c r="H64" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I64" s="413"/>
-      <c r="J64" s="413"/>
-      <c r="K64" s="413"/>
-      <c r="L64" s="413"/>
-      <c r="M64" s="413"/>
-      <c r="N64" s="413"/>
-      <c r="O64" s="413"/>
-      <c r="P64" s="413"/>
-      <c r="Q64" s="413"/>
+      <c r="I64" s="410"/>
+      <c r="J64" s="410"/>
+      <c r="K64" s="410"/>
+      <c r="L64" s="410"/>
+      <c r="M64" s="410"/>
+      <c r="N64" s="410"/>
+      <c r="O64" s="410"/>
+      <c r="P64" s="410"/>
+      <c r="Q64" s="410"/>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1">
@@ -13463,38 +13531,38 @@
       <c r="B65" s="121">
         <v>0</v>
       </c>
-      <c r="C65" s="408">
-        <v>0</v>
-      </c>
-      <c r="D65" s="409">
+      <c r="C65" s="407">
+        <v>0</v>
+      </c>
+      <c r="D65" s="408">
         <f>IF(B70&gt;0,SUM(B65:B70)-C65,0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="408">
+      <c r="E65" s="407">
         <v>6.2</v>
       </c>
-      <c r="F65" s="408">
+      <c r="F65" s="407">
         <v>25.3</v>
       </c>
-      <c r="G65" s="410">
+      <c r="G65" s="409">
         <v>0</v>
       </c>
       <c r="H65" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I65" s="413">
+      <c r="I65" s="410">
         <f>IF($D$2&gt;F65,G65*($D$2-F65)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="413"/>
-      <c r="K65" s="413"/>
-      <c r="L65" s="413"/>
-      <c r="M65" s="413"/>
-      <c r="N65" s="413"/>
-      <c r="O65" s="413"/>
-      <c r="P65" s="413"/>
-      <c r="Q65" s="413"/>
+      <c r="J65" s="410"/>
+      <c r="K65" s="410"/>
+      <c r="L65" s="410"/>
+      <c r="M65" s="410"/>
+      <c r="N65" s="410"/>
+      <c r="O65" s="410"/>
+      <c r="P65" s="410"/>
+      <c r="Q65" s="410"/>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1">
@@ -13503,24 +13571,24 @@
       <c r="B66" s="121">
         <v>0</v>
       </c>
-      <c r="C66" s="408"/>
-      <c r="D66" s="409"/>
-      <c r="E66" s="408"/>
-      <c r="F66" s="408"/>
-      <c r="G66" s="410"/>
+      <c r="C66" s="407"/>
+      <c r="D66" s="408"/>
+      <c r="E66" s="407"/>
+      <c r="F66" s="407"/>
+      <c r="G66" s="409"/>
       <c r="H66" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I66" s="413"/>
-      <c r="J66" s="413"/>
-      <c r="K66" s="413"/>
-      <c r="L66" s="413"/>
-      <c r="M66" s="413"/>
-      <c r="N66" s="413"/>
-      <c r="O66" s="413"/>
-      <c r="P66" s="413"/>
-      <c r="Q66" s="413"/>
+      <c r="I66" s="410"/>
+      <c r="J66" s="410"/>
+      <c r="K66" s="410"/>
+      <c r="L66" s="410"/>
+      <c r="M66" s="410"/>
+      <c r="N66" s="410"/>
+      <c r="O66" s="410"/>
+      <c r="P66" s="410"/>
+      <c r="Q66" s="410"/>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1">
@@ -13529,24 +13597,24 @@
       <c r="B67" s="121">
         <v>0</v>
       </c>
-      <c r="C67" s="408"/>
-      <c r="D67" s="409"/>
-      <c r="E67" s="408"/>
-      <c r="F67" s="408"/>
-      <c r="G67" s="410"/>
+      <c r="C67" s="407"/>
+      <c r="D67" s="408"/>
+      <c r="E67" s="407"/>
+      <c r="F67" s="407"/>
+      <c r="G67" s="409"/>
       <c r="H67" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I67" s="413"/>
-      <c r="J67" s="413"/>
-      <c r="K67" s="413"/>
-      <c r="L67" s="413"/>
-      <c r="M67" s="413"/>
-      <c r="N67" s="413"/>
-      <c r="O67" s="413"/>
-      <c r="P67" s="413"/>
-      <c r="Q67" s="413"/>
+      <c r="I67" s="410"/>
+      <c r="J67" s="410"/>
+      <c r="K67" s="410"/>
+      <c r="L67" s="410"/>
+      <c r="M67" s="410"/>
+      <c r="N67" s="410"/>
+      <c r="O67" s="410"/>
+      <c r="P67" s="410"/>
+      <c r="Q67" s="410"/>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1">
@@ -13555,24 +13623,24 @@
       <c r="B68" s="121">
         <v>0</v>
       </c>
-      <c r="C68" s="408"/>
-      <c r="D68" s="409"/>
-      <c r="E68" s="408"/>
-      <c r="F68" s="408"/>
-      <c r="G68" s="410"/>
+      <c r="C68" s="407"/>
+      <c r="D68" s="408"/>
+      <c r="E68" s="407"/>
+      <c r="F68" s="407"/>
+      <c r="G68" s="409"/>
       <c r="H68" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I68" s="413"/>
-      <c r="J68" s="413"/>
-      <c r="K68" s="413"/>
-      <c r="L68" s="413"/>
-      <c r="M68" s="413"/>
-      <c r="N68" s="413"/>
-      <c r="O68" s="413"/>
-      <c r="P68" s="413"/>
-      <c r="Q68" s="413"/>
+      <c r="I68" s="410"/>
+      <c r="J68" s="410"/>
+      <c r="K68" s="410"/>
+      <c r="L68" s="410"/>
+      <c r="M68" s="410"/>
+      <c r="N68" s="410"/>
+      <c r="O68" s="410"/>
+      <c r="P68" s="410"/>
+      <c r="Q68" s="410"/>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1">
@@ -13581,24 +13649,24 @@
       <c r="B69" s="121">
         <v>0</v>
       </c>
-      <c r="C69" s="408"/>
-      <c r="D69" s="409"/>
-      <c r="E69" s="408"/>
-      <c r="F69" s="408"/>
-      <c r="G69" s="410"/>
+      <c r="C69" s="407"/>
+      <c r="D69" s="408"/>
+      <c r="E69" s="407"/>
+      <c r="F69" s="407"/>
+      <c r="G69" s="409"/>
       <c r="H69" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I69" s="413"/>
-      <c r="J69" s="413"/>
-      <c r="K69" s="413"/>
-      <c r="L69" s="413"/>
-      <c r="M69" s="413"/>
-      <c r="N69" s="413"/>
-      <c r="O69" s="413"/>
-      <c r="P69" s="413"/>
-      <c r="Q69" s="413"/>
+      <c r="I69" s="410"/>
+      <c r="J69" s="410"/>
+      <c r="K69" s="410"/>
+      <c r="L69" s="410"/>
+      <c r="M69" s="410"/>
+      <c r="N69" s="410"/>
+      <c r="O69" s="410"/>
+      <c r="P69" s="410"/>
+      <c r="Q69" s="410"/>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1">
@@ -13607,24 +13675,24 @@
       <c r="B70" s="121">
         <v>0</v>
       </c>
-      <c r="C70" s="408"/>
-      <c r="D70" s="409"/>
-      <c r="E70" s="408"/>
-      <c r="F70" s="408"/>
-      <c r="G70" s="410"/>
+      <c r="C70" s="407"/>
+      <c r="D70" s="408"/>
+      <c r="E70" s="407"/>
+      <c r="F70" s="407"/>
+      <c r="G70" s="409"/>
       <c r="H70" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I70" s="413"/>
-      <c r="J70" s="413"/>
-      <c r="K70" s="413"/>
-      <c r="L70" s="413"/>
-      <c r="M70" s="413"/>
-      <c r="N70" s="413"/>
-      <c r="O70" s="413"/>
-      <c r="P70" s="413"/>
-      <c r="Q70" s="413"/>
+      <c r="I70" s="410"/>
+      <c r="J70" s="410"/>
+      <c r="K70" s="410"/>
+      <c r="L70" s="410"/>
+      <c r="M70" s="410"/>
+      <c r="N70" s="410"/>
+      <c r="O70" s="410"/>
+      <c r="P70" s="410"/>
+      <c r="Q70" s="410"/>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1">
@@ -13633,38 +13701,38 @@
       <c r="B71" s="121">
         <v>0</v>
       </c>
-      <c r="C71" s="408">
-        <v>0</v>
-      </c>
-      <c r="D71" s="409">
+      <c r="C71" s="407">
+        <v>0</v>
+      </c>
+      <c r="D71" s="408">
         <f>IF(B76&gt;0,SUM(B71:B76)-C71,0)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="408">
+      <c r="E71" s="407">
         <v>6.2</v>
       </c>
-      <c r="F71" s="408">
+      <c r="F71" s="407">
         <v>25.3</v>
       </c>
-      <c r="G71" s="410">
+      <c r="G71" s="409">
         <v>0</v>
       </c>
       <c r="H71" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I71" s="413">
+      <c r="I71" s="410">
         <f>IF($D$2&gt;F71,G71*($D$2-F71)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="413"/>
-      <c r="K71" s="413"/>
-      <c r="L71" s="413"/>
-      <c r="M71" s="413"/>
-      <c r="N71" s="413"/>
-      <c r="O71" s="413"/>
-      <c r="P71" s="413"/>
-      <c r="Q71" s="413"/>
+      <c r="J71" s="410"/>
+      <c r="K71" s="410"/>
+      <c r="L71" s="410"/>
+      <c r="M71" s="410"/>
+      <c r="N71" s="410"/>
+      <c r="O71" s="410"/>
+      <c r="P71" s="410"/>
+      <c r="Q71" s="410"/>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1">
@@ -13673,24 +13741,24 @@
       <c r="B72" s="121">
         <v>0</v>
       </c>
-      <c r="C72" s="408"/>
-      <c r="D72" s="409"/>
-      <c r="E72" s="408"/>
-      <c r="F72" s="408"/>
-      <c r="G72" s="410"/>
+      <c r="C72" s="407"/>
+      <c r="D72" s="408"/>
+      <c r="E72" s="407"/>
+      <c r="F72" s="407"/>
+      <c r="G72" s="409"/>
       <c r="H72" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I72" s="413"/>
-      <c r="J72" s="413"/>
-      <c r="K72" s="413"/>
-      <c r="L72" s="413"/>
-      <c r="M72" s="413"/>
-      <c r="N72" s="413"/>
-      <c r="O72" s="413"/>
-      <c r="P72" s="413"/>
-      <c r="Q72" s="413"/>
+      <c r="I72" s="410"/>
+      <c r="J72" s="410"/>
+      <c r="K72" s="410"/>
+      <c r="L72" s="410"/>
+      <c r="M72" s="410"/>
+      <c r="N72" s="410"/>
+      <c r="O72" s="410"/>
+      <c r="P72" s="410"/>
+      <c r="Q72" s="410"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1">
@@ -13699,24 +13767,24 @@
       <c r="B73" s="121">
         <v>0</v>
       </c>
-      <c r="C73" s="408"/>
-      <c r="D73" s="409"/>
-      <c r="E73" s="408"/>
-      <c r="F73" s="408"/>
-      <c r="G73" s="410"/>
+      <c r="C73" s="407"/>
+      <c r="D73" s="408"/>
+      <c r="E73" s="407"/>
+      <c r="F73" s="407"/>
+      <c r="G73" s="409"/>
       <c r="H73" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I73" s="413"/>
-      <c r="J73" s="413"/>
-      <c r="K73" s="413"/>
-      <c r="L73" s="413"/>
-      <c r="M73" s="413"/>
-      <c r="N73" s="413"/>
-      <c r="O73" s="413"/>
-      <c r="P73" s="413"/>
-      <c r="Q73" s="413"/>
+      <c r="I73" s="410"/>
+      <c r="J73" s="410"/>
+      <c r="K73" s="410"/>
+      <c r="L73" s="410"/>
+      <c r="M73" s="410"/>
+      <c r="N73" s="410"/>
+      <c r="O73" s="410"/>
+      <c r="P73" s="410"/>
+      <c r="Q73" s="410"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1">
@@ -13725,24 +13793,24 @@
       <c r="B74" s="121">
         <v>0</v>
       </c>
-      <c r="C74" s="408"/>
-      <c r="D74" s="409"/>
-      <c r="E74" s="408"/>
-      <c r="F74" s="408"/>
-      <c r="G74" s="410"/>
+      <c r="C74" s="407"/>
+      <c r="D74" s="408"/>
+      <c r="E74" s="407"/>
+      <c r="F74" s="407"/>
+      <c r="G74" s="409"/>
       <c r="H74" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I74" s="413"/>
-      <c r="J74" s="413"/>
-      <c r="K74" s="413"/>
-      <c r="L74" s="413"/>
-      <c r="M74" s="413"/>
-      <c r="N74" s="413"/>
-      <c r="O74" s="413"/>
-      <c r="P74" s="413"/>
-      <c r="Q74" s="413"/>
+      <c r="I74" s="410"/>
+      <c r="J74" s="410"/>
+      <c r="K74" s="410"/>
+      <c r="L74" s="410"/>
+      <c r="M74" s="410"/>
+      <c r="N74" s="410"/>
+      <c r="O74" s="410"/>
+      <c r="P74" s="410"/>
+      <c r="Q74" s="410"/>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1">
@@ -13751,24 +13819,24 @@
       <c r="B75" s="121">
         <v>0</v>
       </c>
-      <c r="C75" s="408"/>
-      <c r="D75" s="409"/>
-      <c r="E75" s="408"/>
-      <c r="F75" s="408"/>
-      <c r="G75" s="410"/>
+      <c r="C75" s="407"/>
+      <c r="D75" s="408"/>
+      <c r="E75" s="407"/>
+      <c r="F75" s="407"/>
+      <c r="G75" s="409"/>
       <c r="H75" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I75" s="413"/>
-      <c r="J75" s="413"/>
-      <c r="K75" s="413"/>
-      <c r="L75" s="413"/>
-      <c r="M75" s="413"/>
-      <c r="N75" s="413"/>
-      <c r="O75" s="413"/>
-      <c r="P75" s="413"/>
-      <c r="Q75" s="413"/>
+      <c r="I75" s="410"/>
+      <c r="J75" s="410"/>
+      <c r="K75" s="410"/>
+      <c r="L75" s="410"/>
+      <c r="M75" s="410"/>
+      <c r="N75" s="410"/>
+      <c r="O75" s="410"/>
+      <c r="P75" s="410"/>
+      <c r="Q75" s="410"/>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1">
@@ -13777,24 +13845,24 @@
       <c r="B76" s="121">
         <v>0</v>
       </c>
-      <c r="C76" s="408"/>
-      <c r="D76" s="409"/>
-      <c r="E76" s="408"/>
-      <c r="F76" s="408"/>
-      <c r="G76" s="410"/>
+      <c r="C76" s="407"/>
+      <c r="D76" s="408"/>
+      <c r="E76" s="407"/>
+      <c r="F76" s="407"/>
+      <c r="G76" s="409"/>
       <c r="H76" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I76" s="413"/>
-      <c r="J76" s="413"/>
-      <c r="K76" s="413"/>
-      <c r="L76" s="413"/>
-      <c r="M76" s="413"/>
-      <c r="N76" s="413"/>
-      <c r="O76" s="413"/>
-      <c r="P76" s="413"/>
-      <c r="Q76" s="413"/>
+      <c r="I76" s="410"/>
+      <c r="J76" s="410"/>
+      <c r="K76" s="410"/>
+      <c r="L76" s="410"/>
+      <c r="M76" s="410"/>
+      <c r="N76" s="410"/>
+      <c r="O76" s="410"/>
+      <c r="P76" s="410"/>
+      <c r="Q76" s="410"/>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1">
@@ -13803,38 +13871,38 @@
       <c r="B77" s="121">
         <v>0</v>
       </c>
-      <c r="C77" s="408">
-        <v>0</v>
-      </c>
-      <c r="D77" s="409">
+      <c r="C77" s="407">
+        <v>0</v>
+      </c>
+      <c r="D77" s="408">
         <f>IF(B82&gt;0,SUM(B77:B82)-C77,0)</f>
         <v>0</v>
       </c>
-      <c r="E77" s="408">
+      <c r="E77" s="407">
         <v>6.2</v>
       </c>
-      <c r="F77" s="408">
+      <c r="F77" s="407">
         <v>25.3</v>
       </c>
-      <c r="G77" s="410">
+      <c r="G77" s="409">
         <v>0</v>
       </c>
       <c r="H77" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I77" s="413">
+      <c r="I77" s="410">
         <f>IF($D$2&gt;F77,G77*($D$2-F77)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="413"/>
-      <c r="K77" s="413"/>
-      <c r="L77" s="413"/>
-      <c r="M77" s="413"/>
-      <c r="N77" s="413"/>
-      <c r="O77" s="413"/>
-      <c r="P77" s="413"/>
-      <c r="Q77" s="413"/>
+      <c r="J77" s="410"/>
+      <c r="K77" s="410"/>
+      <c r="L77" s="410"/>
+      <c r="M77" s="410"/>
+      <c r="N77" s="410"/>
+      <c r="O77" s="410"/>
+      <c r="P77" s="410"/>
+      <c r="Q77" s="410"/>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1">
@@ -13843,24 +13911,24 @@
       <c r="B78" s="121">
         <v>0</v>
       </c>
-      <c r="C78" s="408"/>
-      <c r="D78" s="409"/>
-      <c r="E78" s="408"/>
-      <c r="F78" s="408"/>
-      <c r="G78" s="410"/>
+      <c r="C78" s="407"/>
+      <c r="D78" s="408"/>
+      <c r="E78" s="407"/>
+      <c r="F78" s="407"/>
+      <c r="G78" s="409"/>
       <c r="H78" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I78" s="413"/>
-      <c r="J78" s="413"/>
-      <c r="K78" s="413"/>
-      <c r="L78" s="413"/>
-      <c r="M78" s="413"/>
-      <c r="N78" s="413"/>
-      <c r="O78" s="413"/>
-      <c r="P78" s="413"/>
-      <c r="Q78" s="413"/>
+      <c r="I78" s="410"/>
+      <c r="J78" s="410"/>
+      <c r="K78" s="410"/>
+      <c r="L78" s="410"/>
+      <c r="M78" s="410"/>
+      <c r="N78" s="410"/>
+      <c r="O78" s="410"/>
+      <c r="P78" s="410"/>
+      <c r="Q78" s="410"/>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1">
@@ -13869,24 +13937,24 @@
       <c r="B79" s="121">
         <v>0</v>
       </c>
-      <c r="C79" s="408"/>
-      <c r="D79" s="409"/>
-      <c r="E79" s="408"/>
-      <c r="F79" s="408"/>
-      <c r="G79" s="410"/>
+      <c r="C79" s="407"/>
+      <c r="D79" s="408"/>
+      <c r="E79" s="407"/>
+      <c r="F79" s="407"/>
+      <c r="G79" s="409"/>
       <c r="H79" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I79" s="413"/>
-      <c r="J79" s="413"/>
-      <c r="K79" s="413"/>
-      <c r="L79" s="413"/>
-      <c r="M79" s="413"/>
-      <c r="N79" s="413"/>
-      <c r="O79" s="413"/>
-      <c r="P79" s="413"/>
-      <c r="Q79" s="413"/>
+      <c r="I79" s="410"/>
+      <c r="J79" s="410"/>
+      <c r="K79" s="410"/>
+      <c r="L79" s="410"/>
+      <c r="M79" s="410"/>
+      <c r="N79" s="410"/>
+      <c r="O79" s="410"/>
+      <c r="P79" s="410"/>
+      <c r="Q79" s="410"/>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1">
@@ -13895,24 +13963,24 @@
       <c r="B80" s="121">
         <v>0</v>
       </c>
-      <c r="C80" s="408"/>
-      <c r="D80" s="409"/>
-      <c r="E80" s="408"/>
-      <c r="F80" s="408"/>
-      <c r="G80" s="410"/>
+      <c r="C80" s="407"/>
+      <c r="D80" s="408"/>
+      <c r="E80" s="407"/>
+      <c r="F80" s="407"/>
+      <c r="G80" s="409"/>
       <c r="H80" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I80" s="413"/>
-      <c r="J80" s="413"/>
-      <c r="K80" s="413"/>
-      <c r="L80" s="413"/>
-      <c r="M80" s="413"/>
-      <c r="N80" s="413"/>
-      <c r="O80" s="413"/>
-      <c r="P80" s="413"/>
-      <c r="Q80" s="413"/>
+      <c r="I80" s="410"/>
+      <c r="J80" s="410"/>
+      <c r="K80" s="410"/>
+      <c r="L80" s="410"/>
+      <c r="M80" s="410"/>
+      <c r="N80" s="410"/>
+      <c r="O80" s="410"/>
+      <c r="P80" s="410"/>
+      <c r="Q80" s="410"/>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1">
@@ -13921,24 +13989,24 @@
       <c r="B81" s="121">
         <v>0</v>
       </c>
-      <c r="C81" s="408"/>
-      <c r="D81" s="409"/>
-      <c r="E81" s="408"/>
-      <c r="F81" s="408"/>
-      <c r="G81" s="410"/>
+      <c r="C81" s="407"/>
+      <c r="D81" s="408"/>
+      <c r="E81" s="407"/>
+      <c r="F81" s="407"/>
+      <c r="G81" s="409"/>
       <c r="H81" s="120">
         <f t="shared" ref="H81:H88" si="3">R87*0.25</f>
         <v>0</v>
       </c>
-      <c r="I81" s="413"/>
-      <c r="J81" s="413"/>
-      <c r="K81" s="413"/>
-      <c r="L81" s="413"/>
-      <c r="M81" s="413"/>
-      <c r="N81" s="413"/>
-      <c r="O81" s="413"/>
-      <c r="P81" s="413"/>
-      <c r="Q81" s="413"/>
+      <c r="I81" s="410"/>
+      <c r="J81" s="410"/>
+      <c r="K81" s="410"/>
+      <c r="L81" s="410"/>
+      <c r="M81" s="410"/>
+      <c r="N81" s="410"/>
+      <c r="O81" s="410"/>
+      <c r="P81" s="410"/>
+      <c r="Q81" s="410"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1">
@@ -13947,24 +14015,24 @@
       <c r="B82" s="121">
         <v>0</v>
       </c>
-      <c r="C82" s="408"/>
-      <c r="D82" s="409"/>
-      <c r="E82" s="408"/>
-      <c r="F82" s="408"/>
-      <c r="G82" s="410"/>
+      <c r="C82" s="407"/>
+      <c r="D82" s="408"/>
+      <c r="E82" s="407"/>
+      <c r="F82" s="407"/>
+      <c r="G82" s="409"/>
       <c r="H82" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I82" s="413"/>
-      <c r="J82" s="413"/>
-      <c r="K82" s="413"/>
-      <c r="L82" s="413"/>
-      <c r="M82" s="413"/>
-      <c r="N82" s="413"/>
-      <c r="O82" s="413"/>
-      <c r="P82" s="413"/>
-      <c r="Q82" s="413"/>
+      <c r="I82" s="410"/>
+      <c r="J82" s="410"/>
+      <c r="K82" s="410"/>
+      <c r="L82" s="410"/>
+      <c r="M82" s="410"/>
+      <c r="N82" s="410"/>
+      <c r="O82" s="410"/>
+      <c r="P82" s="410"/>
+      <c r="Q82" s="410"/>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1">
@@ -13973,38 +14041,38 @@
       <c r="B83" s="121">
         <v>0</v>
       </c>
-      <c r="C83" s="408">
-        <v>0</v>
-      </c>
-      <c r="D83" s="409">
+      <c r="C83" s="407">
+        <v>0</v>
+      </c>
+      <c r="D83" s="408">
         <f>IF(B88&gt;0,SUM(B83:B88)-C83,0)</f>
         <v>0</v>
       </c>
-      <c r="E83" s="408">
+      <c r="E83" s="407">
         <v>6.2</v>
       </c>
-      <c r="F83" s="408">
+      <c r="F83" s="407">
         <v>25.3</v>
       </c>
-      <c r="G83" s="410">
+      <c r="G83" s="409">
         <v>0</v>
       </c>
       <c r="H83" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I83" s="413">
+      <c r="I83" s="410">
         <f>IF($D$2&gt;F83,G83*($D$2-F83)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J83" s="413"/>
-      <c r="K83" s="413"/>
-      <c r="L83" s="413"/>
-      <c r="M83" s="413"/>
-      <c r="N83" s="413"/>
-      <c r="O83" s="413"/>
-      <c r="P83" s="413"/>
-      <c r="Q83" s="413"/>
+      <c r="J83" s="410"/>
+      <c r="K83" s="410"/>
+      <c r="L83" s="410"/>
+      <c r="M83" s="410"/>
+      <c r="N83" s="410"/>
+      <c r="O83" s="410"/>
+      <c r="P83" s="410"/>
+      <c r="Q83" s="410"/>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1">
@@ -14013,24 +14081,24 @@
       <c r="B84" s="121">
         <v>0</v>
       </c>
-      <c r="C84" s="408"/>
-      <c r="D84" s="409"/>
-      <c r="E84" s="408"/>
-      <c r="F84" s="408"/>
-      <c r="G84" s="410"/>
+      <c r="C84" s="407"/>
+      <c r="D84" s="408"/>
+      <c r="E84" s="407"/>
+      <c r="F84" s="407"/>
+      <c r="G84" s="409"/>
       <c r="H84" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I84" s="413"/>
-      <c r="J84" s="413"/>
-      <c r="K84" s="413"/>
-      <c r="L84" s="413"/>
-      <c r="M84" s="413"/>
-      <c r="N84" s="413"/>
-      <c r="O84" s="413"/>
-      <c r="P84" s="413"/>
-      <c r="Q84" s="413"/>
+      <c r="I84" s="410"/>
+      <c r="J84" s="410"/>
+      <c r="K84" s="410"/>
+      <c r="L84" s="410"/>
+      <c r="M84" s="410"/>
+      <c r="N84" s="410"/>
+      <c r="O84" s="410"/>
+      <c r="P84" s="410"/>
+      <c r="Q84" s="410"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1">
@@ -14039,24 +14107,24 @@
       <c r="B85" s="121">
         <v>0</v>
       </c>
-      <c r="C85" s="408"/>
-      <c r="D85" s="409"/>
-      <c r="E85" s="408"/>
-      <c r="F85" s="408"/>
-      <c r="G85" s="410"/>
+      <c r="C85" s="407"/>
+      <c r="D85" s="408"/>
+      <c r="E85" s="407"/>
+      <c r="F85" s="407"/>
+      <c r="G85" s="409"/>
       <c r="H85" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I85" s="413"/>
-      <c r="J85" s="413"/>
-      <c r="K85" s="413"/>
-      <c r="L85" s="413"/>
-      <c r="M85" s="413"/>
-      <c r="N85" s="413"/>
-      <c r="O85" s="413"/>
-      <c r="P85" s="413"/>
-      <c r="Q85" s="413"/>
+      <c r="I85" s="410"/>
+      <c r="J85" s="410"/>
+      <c r="K85" s="410"/>
+      <c r="L85" s="410"/>
+      <c r="M85" s="410"/>
+      <c r="N85" s="410"/>
+      <c r="O85" s="410"/>
+      <c r="P85" s="410"/>
+      <c r="Q85" s="410"/>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1">
@@ -14065,24 +14133,24 @@
       <c r="B86" s="121">
         <v>0</v>
       </c>
-      <c r="C86" s="408"/>
-      <c r="D86" s="409"/>
-      <c r="E86" s="408"/>
-      <c r="F86" s="408"/>
-      <c r="G86" s="410"/>
+      <c r="C86" s="407"/>
+      <c r="D86" s="408"/>
+      <c r="E86" s="407"/>
+      <c r="F86" s="407"/>
+      <c r="G86" s="409"/>
       <c r="H86" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I86" s="413"/>
-      <c r="J86" s="413"/>
-      <c r="K86" s="413"/>
-      <c r="L86" s="413"/>
-      <c r="M86" s="413"/>
-      <c r="N86" s="413"/>
-      <c r="O86" s="413"/>
-      <c r="P86" s="413"/>
-      <c r="Q86" s="413"/>
+      <c r="I86" s="410"/>
+      <c r="J86" s="410"/>
+      <c r="K86" s="410"/>
+      <c r="L86" s="410"/>
+      <c r="M86" s="410"/>
+      <c r="N86" s="410"/>
+      <c r="O86" s="410"/>
+      <c r="P86" s="410"/>
+      <c r="Q86" s="410"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1">
@@ -14091,24 +14159,24 @@
       <c r="B87" s="121">
         <v>0</v>
       </c>
-      <c r="C87" s="408"/>
-      <c r="D87" s="409"/>
-      <c r="E87" s="408"/>
-      <c r="F87" s="408"/>
-      <c r="G87" s="410"/>
+      <c r="C87" s="407"/>
+      <c r="D87" s="408"/>
+      <c r="E87" s="407"/>
+      <c r="F87" s="407"/>
+      <c r="G87" s="409"/>
       <c r="H87" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I87" s="413"/>
-      <c r="J87" s="413"/>
-      <c r="K87" s="413"/>
-      <c r="L87" s="413"/>
-      <c r="M87" s="413"/>
-      <c r="N87" s="413"/>
-      <c r="O87" s="413"/>
-      <c r="P87" s="413"/>
-      <c r="Q87" s="413"/>
+      <c r="I87" s="410"/>
+      <c r="J87" s="410"/>
+      <c r="K87" s="410"/>
+      <c r="L87" s="410"/>
+      <c r="M87" s="410"/>
+      <c r="N87" s="410"/>
+      <c r="O87" s="410"/>
+      <c r="P87" s="410"/>
+      <c r="Q87" s="410"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1">
@@ -14117,59 +14185,160 @@
       <c r="B88" s="121">
         <v>0</v>
       </c>
-      <c r="C88" s="408"/>
-      <c r="D88" s="409"/>
-      <c r="E88" s="408"/>
-      <c r="F88" s="408"/>
-      <c r="G88" s="410"/>
+      <c r="C88" s="407"/>
+      <c r="D88" s="408"/>
+      <c r="E88" s="407"/>
+      <c r="F88" s="407"/>
+      <c r="G88" s="409"/>
       <c r="H88" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I88" s="413"/>
-      <c r="J88" s="413"/>
-      <c r="K88" s="413"/>
-      <c r="L88" s="413"/>
-      <c r="M88" s="413"/>
-      <c r="N88" s="413"/>
-      <c r="O88" s="413"/>
-      <c r="P88" s="413"/>
-      <c r="Q88" s="413"/>
+      <c r="I88" s="410"/>
+      <c r="J88" s="410"/>
+      <c r="K88" s="410"/>
+      <c r="L88" s="410"/>
+      <c r="M88" s="410"/>
+      <c r="N88" s="410"/>
+      <c r="O88" s="410"/>
+      <c r="P88" s="410"/>
+      <c r="Q88" s="410"/>
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="G83:G88"/>
-    <mergeCell ref="O83:O88"/>
-    <mergeCell ref="P83:P88"/>
-    <mergeCell ref="Q83:Q88"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="K83:K88"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="M83:M88"/>
-    <mergeCell ref="N83:N88"/>
-    <mergeCell ref="M71:M76"/>
-    <mergeCell ref="N71:N76"/>
-    <mergeCell ref="O71:O76"/>
-    <mergeCell ref="P71:P76"/>
-    <mergeCell ref="M77:M82"/>
-    <mergeCell ref="N77:N82"/>
-    <mergeCell ref="O77:O82"/>
-    <mergeCell ref="P77:P82"/>
-    <mergeCell ref="Q77:Q82"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="F77:F82"/>
-    <mergeCell ref="G77:G82"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="J77:J82"/>
-    <mergeCell ref="K77:K82"/>
-    <mergeCell ref="L77:L82"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="P10:P15"/>
+    <mergeCell ref="Q10:Q15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="M10:M15"/>
+    <mergeCell ref="N10:N15"/>
+    <mergeCell ref="Q16:Q21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="N16:N21"/>
+    <mergeCell ref="O16:O21"/>
+    <mergeCell ref="P16:P21"/>
+    <mergeCell ref="P22:P27"/>
+    <mergeCell ref="Q22:Q27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="O28:O34"/>
+    <mergeCell ref="P28:P34"/>
+    <mergeCell ref="Q28:Q34"/>
+    <mergeCell ref="K28:K34"/>
+    <mergeCell ref="L28:L34"/>
+    <mergeCell ref="M28:M34"/>
+    <mergeCell ref="N28:N34"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="J35:J40"/>
+    <mergeCell ref="I28:I34"/>
+    <mergeCell ref="J28:J34"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="Q35:Q40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="F41:F46"/>
+    <mergeCell ref="G41:G46"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="J41:J46"/>
+    <mergeCell ref="K41:K46"/>
+    <mergeCell ref="L41:L46"/>
+    <mergeCell ref="K35:K40"/>
+    <mergeCell ref="L35:L40"/>
+    <mergeCell ref="M35:M40"/>
+    <mergeCell ref="N35:N40"/>
+    <mergeCell ref="O35:O40"/>
+    <mergeCell ref="P35:P40"/>
+    <mergeCell ref="M41:M46"/>
+    <mergeCell ref="N41:N46"/>
+    <mergeCell ref="O41:O46"/>
+    <mergeCell ref="P41:P46"/>
+    <mergeCell ref="Q41:Q46"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="O47:O52"/>
+    <mergeCell ref="P47:P52"/>
+    <mergeCell ref="Q47:Q52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="I53:I58"/>
+    <mergeCell ref="J53:J58"/>
+    <mergeCell ref="I47:I52"/>
+    <mergeCell ref="J47:J52"/>
+    <mergeCell ref="K47:K52"/>
+    <mergeCell ref="L47:L52"/>
+    <mergeCell ref="M47:M52"/>
+    <mergeCell ref="N47:N52"/>
+    <mergeCell ref="Q53:Q58"/>
+    <mergeCell ref="K53:K58"/>
+    <mergeCell ref="L53:L58"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="F59:F64"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="J59:J64"/>
+    <mergeCell ref="K59:K64"/>
+    <mergeCell ref="L59:L64"/>
+    <mergeCell ref="M53:M58"/>
+    <mergeCell ref="N53:N58"/>
+    <mergeCell ref="O53:O58"/>
+    <mergeCell ref="P53:P58"/>
+    <mergeCell ref="M59:M64"/>
+    <mergeCell ref="N59:N64"/>
+    <mergeCell ref="O59:O64"/>
+    <mergeCell ref="P59:P64"/>
+    <mergeCell ref="Q59:Q64"/>
     <mergeCell ref="C65:C70"/>
     <mergeCell ref="D65:D70"/>
     <mergeCell ref="E65:E70"/>
@@ -14194,139 +14363,38 @@
     <mergeCell ref="Q71:Q76"/>
     <mergeCell ref="K71:K76"/>
     <mergeCell ref="L71:L76"/>
-    <mergeCell ref="M53:M58"/>
-    <mergeCell ref="N53:N58"/>
-    <mergeCell ref="O53:O58"/>
-    <mergeCell ref="P53:P58"/>
-    <mergeCell ref="M59:M64"/>
-    <mergeCell ref="N59:N64"/>
-    <mergeCell ref="O59:O64"/>
-    <mergeCell ref="P59:P64"/>
-    <mergeCell ref="Q59:Q64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="F59:F64"/>
-    <mergeCell ref="G59:G64"/>
-    <mergeCell ref="I59:I64"/>
-    <mergeCell ref="J59:J64"/>
-    <mergeCell ref="K59:K64"/>
-    <mergeCell ref="L59:L64"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="E47:E52"/>
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="O47:O52"/>
-    <mergeCell ref="P47:P52"/>
-    <mergeCell ref="Q47:Q52"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="I53:I58"/>
-    <mergeCell ref="J53:J58"/>
-    <mergeCell ref="I47:I52"/>
-    <mergeCell ref="J47:J52"/>
-    <mergeCell ref="K47:K52"/>
-    <mergeCell ref="L47:L52"/>
-    <mergeCell ref="M47:M52"/>
-    <mergeCell ref="N47:N52"/>
-    <mergeCell ref="Q53:Q58"/>
-    <mergeCell ref="K53:K58"/>
-    <mergeCell ref="L53:L58"/>
-    <mergeCell ref="Q35:Q40"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="F41:F46"/>
-    <mergeCell ref="G41:G46"/>
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="J41:J46"/>
-    <mergeCell ref="K41:K46"/>
-    <mergeCell ref="L41:L46"/>
-    <mergeCell ref="K35:K40"/>
-    <mergeCell ref="L35:L40"/>
-    <mergeCell ref="M35:M40"/>
-    <mergeCell ref="N35:N40"/>
-    <mergeCell ref="O35:O40"/>
-    <mergeCell ref="P35:P40"/>
-    <mergeCell ref="M41:M46"/>
-    <mergeCell ref="N41:N46"/>
-    <mergeCell ref="O41:O46"/>
-    <mergeCell ref="P41:P46"/>
-    <mergeCell ref="Q41:Q46"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="J35:J40"/>
-    <mergeCell ref="I28:I34"/>
-    <mergeCell ref="J28:J34"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="O22:O27"/>
-    <mergeCell ref="P22:P27"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="G28:G34"/>
-    <mergeCell ref="O28:O34"/>
-    <mergeCell ref="P28:P34"/>
-    <mergeCell ref="Q28:Q34"/>
-    <mergeCell ref="K28:K34"/>
-    <mergeCell ref="L28:L34"/>
-    <mergeCell ref="M28:M34"/>
-    <mergeCell ref="N28:N34"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="P10:P15"/>
-    <mergeCell ref="Q10:Q15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="L10:L15"/>
-    <mergeCell ref="M10:M15"/>
-    <mergeCell ref="N10:N15"/>
-    <mergeCell ref="Q16:Q21"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="M16:M21"/>
-    <mergeCell ref="N16:N21"/>
-    <mergeCell ref="O16:O21"/>
-    <mergeCell ref="P16:P21"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="J77:J82"/>
+    <mergeCell ref="K77:K82"/>
+    <mergeCell ref="L77:L82"/>
+    <mergeCell ref="M71:M76"/>
+    <mergeCell ref="N71:N76"/>
+    <mergeCell ref="O71:O76"/>
+    <mergeCell ref="P71:P76"/>
+    <mergeCell ref="M77:M82"/>
+    <mergeCell ref="N77:N82"/>
+    <mergeCell ref="O77:O82"/>
+    <mergeCell ref="P77:P82"/>
+    <mergeCell ref="Q77:Q82"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="G83:G88"/>
+    <mergeCell ref="O83:O88"/>
+    <mergeCell ref="P83:P88"/>
+    <mergeCell ref="Q83:Q88"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="K83:K88"/>
+    <mergeCell ref="L83:L88"/>
+    <mergeCell ref="M83:M88"/>
+    <mergeCell ref="N83:N88"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15759,29 +15827,29 @@
     </row>
     <row r="6" spans="4:12" ht="17.100000000000001" customHeight="1">
       <c r="F6" s="216"/>
-      <c r="G6" s="482" t="s">
+      <c r="G6" s="474" t="s">
         <v>916</v>
       </c>
-      <c r="H6" s="484" t="s">
+      <c r="H6" s="476" t="s">
         <v>917</v>
       </c>
-      <c r="I6" s="484" t="s">
+      <c r="I6" s="476" t="s">
         <v>918</v>
       </c>
-      <c r="J6" s="484" t="s">
+      <c r="J6" s="476" t="s">
         <v>919</v>
       </c>
-      <c r="K6" s="480" t="s">
+      <c r="K6" s="465" t="s">
         <v>920</v>
       </c>
-      <c r="L6" s="481"/>
+      <c r="L6" s="466"/>
     </row>
     <row r="7" spans="4:12" ht="18" customHeight="1">
       <c r="F7" s="216"/>
-      <c r="G7" s="483"/>
-      <c r="H7" s="485"/>
-      <c r="I7" s="485"/>
-      <c r="J7" s="485"/>
+      <c r="G7" s="475"/>
+      <c r="H7" s="477"/>
+      <c r="I7" s="477"/>
+      <c r="J7" s="477"/>
       <c r="K7" s="217" t="s">
         <v>921</v>
       </c>
@@ -15790,11 +15858,11 @@
       </c>
     </row>
     <row r="8" spans="4:12" ht="30" customHeight="1" thickBot="1">
-      <c r="D8" s="471" t="s">
+      <c r="D8" s="473" t="s">
         <v>923</v>
       </c>
-      <c r="E8" s="471"/>
-      <c r="F8" s="471"/>
+      <c r="E8" s="473"/>
+      <c r="F8" s="473"/>
       <c r="G8" s="219">
         <v>9.6</v>
       </c>
@@ -15840,21 +15908,21 @@
     </row>
     <row r="12" spans="4:12" ht="18.75">
       <c r="F12" s="216"/>
-      <c r="G12" s="465" t="s">
+      <c r="G12" s="467" t="s">
         <v>924</v>
       </c>
-      <c r="H12" s="467" t="s">
+      <c r="H12" s="469" t="s">
         <v>925</v>
       </c>
-      <c r="I12" s="469" t="s">
+      <c r="I12" s="471" t="s">
         <v>926</v>
       </c>
-      <c r="J12" s="470"/>
+      <c r="J12" s="472"/>
     </row>
     <row r="13" spans="4:12" ht="18.75">
       <c r="F13" s="216"/>
-      <c r="G13" s="466"/>
-      <c r="H13" s="468"/>
+      <c r="G13" s="468"/>
+      <c r="H13" s="470"/>
       <c r="I13" s="222" t="s">
         <v>927</v>
       </c>
@@ -15863,11 +15931,11 @@
       </c>
     </row>
     <row r="14" spans="4:12" ht="33" customHeight="1" thickBot="1">
-      <c r="D14" s="471" t="s">
+      <c r="D14" s="473" t="s">
         <v>929</v>
       </c>
-      <c r="E14" s="471"/>
-      <c r="F14" s="471"/>
+      <c r="E14" s="473"/>
+      <c r="F14" s="473"/>
       <c r="G14" s="224" t="s">
         <v>930</v>
       </c>
@@ -15885,20 +15953,20 @@
     </row>
     <row r="16" spans="4:12" ht="15.75" thickBot="1"/>
     <row r="17" spans="4:10" ht="18.75">
-      <c r="G17" s="465" t="s">
+      <c r="G17" s="467" t="s">
         <v>931</v>
       </c>
-      <c r="H17" s="467" t="s">
+      <c r="H17" s="469" t="s">
         <v>925</v>
       </c>
-      <c r="I17" s="469" t="s">
+      <c r="I17" s="471" t="s">
         <v>926</v>
       </c>
-      <c r="J17" s="470"/>
+      <c r="J17" s="472"/>
     </row>
     <row r="18" spans="4:10" ht="18.75">
-      <c r="G18" s="466"/>
-      <c r="H18" s="468"/>
+      <c r="G18" s="468"/>
+      <c r="H18" s="470"/>
       <c r="I18" s="222" t="s">
         <v>927</v>
       </c>
@@ -15907,11 +15975,11 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="33" customHeight="1" thickBot="1">
-      <c r="D19" s="471" t="s">
+      <c r="D19" s="473" t="s">
         <v>929</v>
       </c>
-      <c r="E19" s="471"/>
-      <c r="F19" s="471"/>
+      <c r="E19" s="473"/>
+      <c r="F19" s="473"/>
       <c r="G19" s="224" t="s">
         <v>932</v>
       </c>
@@ -15929,20 +15997,20 @@
     </row>
     <row r="21" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="22" spans="4:10" ht="18.75">
-      <c r="G22" s="472" t="s">
+      <c r="G22" s="478" t="s">
         <v>933</v>
       </c>
-      <c r="H22" s="467" t="s">
+      <c r="H22" s="469" t="s">
         <v>925</v>
       </c>
-      <c r="I22" s="469" t="s">
+      <c r="I22" s="471" t="s">
         <v>926</v>
       </c>
-      <c r="J22" s="470"/>
+      <c r="J22" s="472"/>
     </row>
     <row r="23" spans="4:10" ht="18.75">
-      <c r="G23" s="473"/>
-      <c r="H23" s="468"/>
+      <c r="G23" s="479"/>
+      <c r="H23" s="470"/>
       <c r="I23" s="222" t="s">
         <v>927</v>
       </c>
@@ -15951,11 +16019,11 @@
       </c>
     </row>
     <row r="24" spans="4:10" ht="32.1" customHeight="1">
-      <c r="D24" s="471" t="s">
+      <c r="D24" s="473" t="s">
         <v>929</v>
       </c>
-      <c r="E24" s="471"/>
-      <c r="F24" s="471"/>
+      <c r="E24" s="473"/>
+      <c r="F24" s="473"/>
       <c r="G24" s="225" t="s">
         <v>934</v>
       </c>
@@ -16010,20 +16078,20 @@
     </row>
     <row r="29" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="30" spans="4:10" ht="18.75">
-      <c r="G30" s="474" t="s">
+      <c r="G30" s="480" t="s">
         <v>937</v>
       </c>
-      <c r="H30" s="476" t="s">
+      <c r="H30" s="482" t="s">
         <v>938</v>
       </c>
-      <c r="I30" s="478" t="s">
+      <c r="I30" s="484" t="s">
         <v>939</v>
       </c>
-      <c r="J30" s="479"/>
+      <c r="J30" s="485"/>
     </row>
     <row r="31" spans="4:10" ht="18.75">
-      <c r="G31" s="475"/>
-      <c r="H31" s="477"/>
+      <c r="G31" s="481"/>
+      <c r="H31" s="483"/>
       <c r="I31" s="229" t="s">
         <v>921</v>
       </c>
@@ -16032,11 +16100,11 @@
       </c>
     </row>
     <row r="32" spans="4:10" ht="35.1" customHeight="1" thickBot="1">
-      <c r="D32" s="471" t="s">
+      <c r="D32" s="473" t="s">
         <v>940</v>
       </c>
-      <c r="E32" s="471"/>
-      <c r="F32" s="471"/>
+      <c r="E32" s="473"/>
+      <c r="F32" s="473"/>
       <c r="G32" s="231" t="s">
         <v>934</v>
       </c>
@@ -16054,16 +16122,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:J17"/>
@@ -16076,6 +16134,16 @@
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17027,7 +17095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -17782,9 +17850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN486"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X457" sqref="X457"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A456" sqref="A456:XFD456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17835,17 +17903,17 @@
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" thickBot="1">
       <c r="A1" s="268"/>
-      <c r="B1" s="419" t="s">
+      <c r="B1" s="452" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="420"/>
-      <c r="D1" s="420"/>
-      <c r="E1" s="420"/>
-      <c r="F1" s="421"/>
-      <c r="G1" s="422" t="s">
+      <c r="C1" s="453"/>
+      <c r="D1" s="453"/>
+      <c r="E1" s="453"/>
+      <c r="F1" s="454"/>
+      <c r="G1" s="455" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="423"/>
+      <c r="H1" s="456"/>
     </row>
     <row r="2" spans="1:40" ht="17.25" thickBot="1">
       <c r="A2" s="271" t="s">
@@ -17866,24 +17934,24 @@
       <c r="F2" s="273" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="424">
+      <c r="G2" s="457">
         <f ca="1">TODAY()-A13</f>
-        <v>1228</v>
-      </c>
-      <c r="H2" s="425"/>
+        <v>1229</v>
+      </c>
+      <c r="H2" s="458"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
       <c r="A3" s="274">
         <f>C6-F6</f>
-        <v>1214701.4411799998</v>
+        <v>1214589.09118</v>
       </c>
       <c r="B3" s="275">
         <f>C3+D3+E3+F3</f>
-        <v>1429007.1799999995</v>
+        <v>1428894.8299999994</v>
       </c>
       <c r="C3" s="276">
         <f>'whobor-touna'!J3+人人贷!E3+宜人贷!T2+'whobor-wzd'!N2</f>
-        <v>666624.47000000009</v>
+        <v>666512.12000000011</v>
       </c>
       <c r="D3" s="277">
         <f>'thmei-touna'!J3</f>
@@ -17897,35 +17965,35 @@
         <f>'whobor-touna'!L3</f>
         <v>21308.880000000001</v>
       </c>
-      <c r="G3" s="422" t="s">
+      <c r="G3" s="455" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="423"/>
+      <c r="H3" s="456"/>
     </row>
     <row r="4" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="279"/>
       <c r="B4" s="279"/>
       <c r="C4" s="280">
         <f>C3/$B$3</f>
-        <v>0.46649483594617092</v>
+        <v>0.46645288792877809</v>
       </c>
       <c r="D4" s="280">
         <f>D3/$B$3</f>
-        <v>0.50148296665661241</v>
+        <v>0.5015223968582766</v>
       </c>
       <c r="E4" s="280">
         <f>E3/$B$3</f>
-        <v>1.7110529843523955E-2</v>
+        <v>1.7111875196581128E-2</v>
       </c>
       <c r="F4" s="281">
         <f>F3/$B$3</f>
-        <v>1.4911667553692774E-2</v>
-      </c>
-      <c r="G4" s="426">
+        <v>1.4912840016364262E-2</v>
+      </c>
+      <c r="G4" s="450">
         <f ca="1">A6/G2</f>
-        <v>174.51607395765441</v>
-      </c>
-      <c r="H4" s="427"/>
+        <v>174.37407552481642</v>
+      </c>
+      <c r="H4" s="451"/>
     </row>
     <row r="5" spans="1:40" ht="17.25" thickBot="1">
       <c r="A5" s="282" t="s">
@@ -17946,19 +18014,19 @@
       <c r="F5" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="433" t="s">
+      <c r="G5" s="447" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="434"/>
+      <c r="H5" s="448"/>
     </row>
     <row r="6" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="287">
         <f>B3-A3</f>
-        <v>214305.73881999962</v>
+        <v>214305.73881999939</v>
       </c>
       <c r="B6" s="288">
         <f>F6-C6</f>
-        <v>-1214701.4411799998</v>
+        <v>-1214589.09118</v>
       </c>
       <c r="C6" s="289">
         <f>B12+L12+G12+X12+R12</f>
@@ -17966,7 +18034,7 @@
       </c>
       <c r="D6" s="290">
         <f>C12+H12+M12+Y12+S12</f>
-        <v>1845323.9600000002</v>
+        <v>1845436.31</v>
       </c>
       <c r="E6" s="291">
         <f>D12+N12+Z12+T12</f>
@@ -17974,207 +18042,207 @@
       </c>
       <c r="F6" s="292">
         <f>D6-E6</f>
-        <v>1842948.4488200003</v>
-      </c>
-      <c r="G6" s="426">
+        <v>1843060.7988200001</v>
+      </c>
+      <c r="G6" s="450">
         <f ca="1">G4*30</f>
-        <v>5235.4822187296322</v>
-      </c>
-      <c r="H6" s="427"/>
+        <v>5231.2222657444927</v>
+      </c>
+      <c r="H6" s="451"/>
     </row>
     <row r="7" spans="1:40" s="294" customFormat="1" ht="20.25">
       <c r="A7" s="293"/>
-      <c r="B7" s="446" t="s">
+      <c r="B7" s="444" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="444"/>
-      <c r="D7" s="444"/>
-      <c r="E7" s="445"/>
-      <c r="F7" s="447"/>
-      <c r="G7" s="443" t="s">
+      <c r="C7" s="442"/>
+      <c r="D7" s="442"/>
+      <c r="E7" s="443"/>
+      <c r="F7" s="445"/>
+      <c r="G7" s="441" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="444"/>
-      <c r="I7" s="444"/>
-      <c r="J7" s="445"/>
-      <c r="K7" s="445"/>
-      <c r="L7" s="439" t="s">
+      <c r="H7" s="442"/>
+      <c r="I7" s="442"/>
+      <c r="J7" s="443"/>
+      <c r="K7" s="443"/>
+      <c r="L7" s="435" t="s">
         <v>908</v>
       </c>
-      <c r="M7" s="435"/>
-      <c r="N7" s="435"/>
-      <c r="O7" s="435"/>
-      <c r="P7" s="435"/>
-      <c r="Q7" s="440"/>
-      <c r="R7" s="435" t="s">
+      <c r="M7" s="436"/>
+      <c r="N7" s="436"/>
+      <c r="O7" s="436"/>
+      <c r="P7" s="436"/>
+      <c r="Q7" s="437"/>
+      <c r="R7" s="436" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="435"/>
-      <c r="T7" s="435"/>
-      <c r="U7" s="435"/>
-      <c r="V7" s="435"/>
-      <c r="W7" s="435"/>
-      <c r="X7" s="439" t="s">
+      <c r="S7" s="436"/>
+      <c r="T7" s="436"/>
+      <c r="U7" s="436"/>
+      <c r="V7" s="436"/>
+      <c r="W7" s="436"/>
+      <c r="X7" s="435" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="435"/>
-      <c r="Z7" s="435"/>
-      <c r="AA7" s="435"/>
-      <c r="AB7" s="435"/>
-      <c r="AC7" s="440"/>
+      <c r="Y7" s="436"/>
+      <c r="Z7" s="436"/>
+      <c r="AA7" s="436"/>
+      <c r="AB7" s="436"/>
+      <c r="AC7" s="437"/>
     </row>
     <row r="8" spans="1:40" s="294" customFormat="1" ht="16.5">
       <c r="A8" s="295" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="441" t="s">
+      <c r="B8" s="438" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="436"/>
-      <c r="D8" s="436"/>
-      <c r="E8" s="436"/>
-      <c r="F8" s="442"/>
-      <c r="G8" s="436" t="s">
+      <c r="C8" s="439"/>
+      <c r="D8" s="439"/>
+      <c r="E8" s="439"/>
+      <c r="F8" s="440"/>
+      <c r="G8" s="439" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="436"/>
-      <c r="I8" s="436"/>
-      <c r="J8" s="436"/>
-      <c r="K8" s="436"/>
-      <c r="L8" s="441" t="s">
+      <c r="H8" s="439"/>
+      <c r="I8" s="439"/>
+      <c r="J8" s="439"/>
+      <c r="K8" s="439"/>
+      <c r="L8" s="438" t="s">
         <v>909</v>
       </c>
-      <c r="M8" s="436"/>
-      <c r="N8" s="436"/>
-      <c r="O8" s="436"/>
-      <c r="P8" s="436"/>
-      <c r="Q8" s="442"/>
-      <c r="R8" s="436" t="s">
+      <c r="M8" s="439"/>
+      <c r="N8" s="439"/>
+      <c r="O8" s="439"/>
+      <c r="P8" s="439"/>
+      <c r="Q8" s="440"/>
+      <c r="R8" s="439" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="436"/>
-      <c r="T8" s="436"/>
-      <c r="U8" s="436"/>
-      <c r="V8" s="436"/>
-      <c r="W8" s="436"/>
-      <c r="X8" s="441" t="s">
+      <c r="S8" s="439"/>
+      <c r="T8" s="439"/>
+      <c r="U8" s="439"/>
+      <c r="V8" s="439"/>
+      <c r="W8" s="439"/>
+      <c r="X8" s="438" t="s">
         <v>170</v>
       </c>
-      <c r="Y8" s="436"/>
-      <c r="Z8" s="436"/>
-      <c r="AA8" s="436"/>
-      <c r="AB8" s="436"/>
-      <c r="AC8" s="442"/>
+      <c r="Y8" s="439"/>
+      <c r="Z8" s="439"/>
+      <c r="AA8" s="439"/>
+      <c r="AB8" s="439"/>
+      <c r="AC8" s="440"/>
       <c r="AK8" s="296"/>
     </row>
     <row r="9" spans="1:40" s="294" customFormat="1" ht="16.5">
       <c r="A9" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="430" t="s">
+      <c r="B9" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="429"/>
-      <c r="D9" s="430" t="s">
+      <c r="C9" s="424"/>
+      <c r="D9" s="423" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="431"/>
-      <c r="F9" s="458"/>
-      <c r="G9" s="428" t="s">
+      <c r="E9" s="428"/>
+      <c r="F9" s="434"/>
+      <c r="G9" s="446" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="429"/>
-      <c r="I9" s="430" t="s">
+      <c r="H9" s="424"/>
+      <c r="I9" s="423" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="431"/>
-      <c r="K9" s="432"/>
-      <c r="L9" s="450" t="s">
+      <c r="J9" s="428"/>
+      <c r="K9" s="427"/>
+      <c r="L9" s="421" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="438"/>
-      <c r="N9" s="432" t="s">
+      <c r="M9" s="422"/>
+      <c r="N9" s="427" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="431"/>
-      <c r="P9" s="431"/>
-      <c r="Q9" s="453"/>
-      <c r="R9" s="437" t="s">
+      <c r="O9" s="428"/>
+      <c r="P9" s="428"/>
+      <c r="Q9" s="429"/>
+      <c r="R9" s="449" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="438"/>
-      <c r="T9" s="432" t="s">
+      <c r="S9" s="422"/>
+      <c r="T9" s="427" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="431"/>
-      <c r="V9" s="431"/>
-      <c r="W9" s="431"/>
-      <c r="X9" s="450" t="s">
+      <c r="U9" s="428"/>
+      <c r="V9" s="428"/>
+      <c r="W9" s="428"/>
+      <c r="X9" s="421" t="s">
         <v>49</v>
       </c>
-      <c r="Y9" s="438"/>
-      <c r="Z9" s="432" t="s">
+      <c r="Y9" s="422"/>
+      <c r="Z9" s="427" t="s">
         <v>50</v>
       </c>
-      <c r="AA9" s="431"/>
-      <c r="AB9" s="431"/>
-      <c r="AC9" s="453"/>
+      <c r="AA9" s="428"/>
+      <c r="AB9" s="428"/>
+      <c r="AC9" s="429"/>
     </row>
     <row r="10" spans="1:40" ht="15.75" customHeight="1">
       <c r="A10" s="297" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="448" t="s">
+      <c r="B10" s="419" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="449"/>
-      <c r="D10" s="455">
+      <c r="C10" s="420"/>
+      <c r="D10" s="431">
         <f>'whobor-touna'!G3/$B$3</f>
-        <v>0.3648931700958985</v>
-      </c>
-      <c r="E10" s="451"/>
-      <c r="F10" s="452"/>
-      <c r="G10" s="454" t="s">
+        <v>0.36492186062427023</v>
+      </c>
+      <c r="E10" s="425"/>
+      <c r="F10" s="426"/>
+      <c r="G10" s="430" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="449"/>
-      <c r="I10" s="455">
+      <c r="H10" s="420"/>
+      <c r="I10" s="431">
         <f>'thmei-touna'!G3/$B$3</f>
-        <v>0.51859349650013631</v>
-      </c>
-      <c r="J10" s="451"/>
-      <c r="K10" s="451"/>
-      <c r="L10" s="456" t="s">
+        <v>0.51863427205485779</v>
+      </c>
+      <c r="J10" s="425"/>
+      <c r="K10" s="425"/>
+      <c r="L10" s="432" t="s">
         <v>222</v>
       </c>
-      <c r="M10" s="457"/>
-      <c r="N10" s="451">
+      <c r="M10" s="433"/>
+      <c r="N10" s="425">
         <f>宜人贷!T2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="O10" s="451"/>
-      <c r="P10" s="451"/>
-      <c r="Q10" s="452"/>
-      <c r="R10" s="457"/>
-      <c r="S10" s="457"/>
-      <c r="T10" s="451">
+      <c r="O10" s="425"/>
+      <c r="P10" s="425"/>
+      <c r="Q10" s="426"/>
+      <c r="R10" s="433"/>
+      <c r="S10" s="433"/>
+      <c r="T10" s="425">
         <f>宜人贷!Z2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="U10" s="451"/>
-      <c r="V10" s="451"/>
-      <c r="W10" s="451"/>
-      <c r="X10" s="456">
+      <c r="U10" s="425"/>
+      <c r="V10" s="425"/>
+      <c r="W10" s="425"/>
+      <c r="X10" s="432">
         <v>830106</v>
       </c>
-      <c r="Y10" s="457"/>
-      <c r="Z10" s="451">
+      <c r="Y10" s="433"/>
+      <c r="Z10" s="425">
         <f>'whobor-wzd'!N2/$B$3</f>
-        <v>9.1349645982884461E-2</v>
-      </c>
-      <c r="AA10" s="451"/>
-      <c r="AB10" s="451"/>
-      <c r="AC10" s="452"/>
+        <v>9.1356828549796112E-2</v>
+      </c>
+      <c r="AA10" s="425"/>
+      <c r="AB10" s="425"/>
+      <c r="AC10" s="426"/>
     </row>
     <row r="11" spans="1:40" ht="28.5" customHeight="1">
       <c r="A11" s="298" t="s">
@@ -18307,7 +18375,7 @@
       </c>
       <c r="M12" s="309">
         <f>SUM(M13:M986)</f>
-        <v>4763.01</v>
+        <v>4875.3600000000006</v>
       </c>
       <c r="N12" s="309">
         <f>SUM(N13:N986)</f>
@@ -18320,7 +18388,7 @@
       </c>
       <c r="Q12" s="314">
         <f>人人贷!E3</f>
-        <v>35959.089999999997</v>
+        <v>35846.74</v>
       </c>
       <c r="R12" s="312">
         <f>SUM(R13:R986)</f>
@@ -34374,7 +34442,9 @@
       <c r="J456" s="319"/>
       <c r="K456" s="320"/>
       <c r="L456" s="319"/>
-      <c r="M456" s="319"/>
+      <c r="M456" s="319">
+        <v>112.35</v>
+      </c>
       <c r="N456" s="319"/>
       <c r="O456" s="319"/>
       <c r="P456" s="319"/>
@@ -35296,6 +35366,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="L7:Q7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B9:C9"/>
@@ -35312,27 +35403,6 @@
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55354,7 +55424,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55818,11 +55888,11 @@
       </c>
       <c r="E3" s="244">
         <f>A3+C3-D12</f>
-        <v>35959.089999999997</v>
+        <v>35846.74</v>
       </c>
       <c r="F3" s="243">
         <f>B3+D3-D12</f>
-        <v>37121.480000000003</v>
+        <v>37009.130000000005</v>
       </c>
       <c r="I3" s="209"/>
       <c r="J3" s="210"/>
@@ -55997,8 +56067,8 @@
         <v>5</v>
       </c>
       <c r="D12" s="360">
-        <f>820.28+481.68+177.77+2612.05</f>
-        <v>4091.78</v>
+        <f>820.28+481.68+177.77+2612.05+112.35</f>
+        <v>4204.13</v>
       </c>
       <c r="I12" s="200"/>
       <c r="J12" s="200"/>

--- a/HighRiskInvestment.xlsx
+++ b/HighRiskInvestment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="4410" tabRatio="771" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="4410" tabRatio="771" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ESPP" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId16"/>
   </pivotCaches>
@@ -38,7 +38,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0">
+    <comment ref="H9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K28" authorId="0" shapeId="0">
+    <comment ref="K28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +197,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G62" authorId="0" shapeId="0">
+    <comment ref="G62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z79" authorId="0" shapeId="0">
+    <comment ref="Z79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B164" authorId="0" shapeId="0">
+    <comment ref="B164" authorId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G164" authorId="0" shapeId="0">
+    <comment ref="G164" authorId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G165" authorId="0" shapeId="0">
+    <comment ref="G165" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G168" authorId="0" shapeId="0">
+    <comment ref="G168" authorId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y172" authorId="0" shapeId="0">
+    <comment ref="Y172" authorId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D229" authorId="0" shapeId="0">
+    <comment ref="D229" authorId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z234" authorId="0" shapeId="0">
+    <comment ref="Z234" authorId="0">
       <text>
         <r>
           <rPr>
@@ -455,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X245" authorId="0" shapeId="0">
+    <comment ref="X245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -479,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z245" authorId="0" shapeId="0">
+    <comment ref="Z245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -503,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z253" authorId="0" shapeId="0">
+    <comment ref="Z253" authorId="0">
       <text>
         <r>
           <rPr>
@@ -527,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z269" authorId="0" shapeId="0">
+    <comment ref="Z269" authorId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z270" authorId="0" shapeId="0">
+    <comment ref="Z270" authorId="0">
       <text>
         <r>
           <rPr>
@@ -575,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z271" authorId="0" shapeId="0">
+    <comment ref="Z271" authorId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z280" authorId="0" shapeId="0">
+    <comment ref="Z280" authorId="0">
       <text>
         <r>
           <rPr>
@@ -624,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z281" authorId="0" shapeId="0">
+    <comment ref="Z281" authorId="0">
       <text>
         <r>
           <rPr>
@@ -648,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z282" authorId="0" shapeId="0">
+    <comment ref="Z282" authorId="0">
       <text>
         <r>
           <rPr>
@@ -672,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z283" authorId="0" shapeId="0">
+    <comment ref="Z283" authorId="0">
       <text>
         <r>
           <rPr>
@@ -696,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z285" authorId="0" shapeId="0">
+    <comment ref="Z285" authorId="0">
       <text>
         <r>
           <rPr>
@@ -720,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z306" authorId="0" shapeId="0">
+    <comment ref="Z306" authorId="0">
       <text>
         <r>
           <rPr>
@@ -744,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D314" authorId="0" shapeId="0">
+    <comment ref="D314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -768,7 +768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z314" authorId="0" shapeId="0">
+    <comment ref="Z314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -792,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D362" authorId="0" shapeId="0">
+    <comment ref="D362" authorId="0">
       <text>
         <r>
           <rPr>
@@ -816,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z396" authorId="0" shapeId="0">
+    <comment ref="Z396" authorId="0">
       <text>
         <r>
           <rPr>
@@ -840,7 +840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N397" authorId="0" shapeId="0">
+    <comment ref="N397" authorId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z398" authorId="0" shapeId="0">
+    <comment ref="Z398" authorId="0">
       <text>
         <r>
           <rPr>
@@ -888,7 +888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D399" authorId="0" shapeId="0">
+    <comment ref="D399" authorId="0">
       <text>
         <r>
           <rPr>
@@ -912,7 +912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D404" authorId="0" shapeId="0">
+    <comment ref="D404" authorId="0">
       <text>
         <r>
           <rPr>
@@ -936,7 +936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z412" authorId="0" shapeId="0">
+    <comment ref="Z412" authorId="0">
       <text>
         <r>
           <rPr>
@@ -960,7 +960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D414" authorId="0" shapeId="0">
+    <comment ref="D414" authorId="0">
       <text>
         <r>
           <rPr>
@@ -975,7 +975,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D420" authorId="0" shapeId="0">
+    <comment ref="D420" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1009,7 +1009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D426" authorId="0" shapeId="0">
+    <comment ref="D426" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N432" authorId="0" shapeId="0">
+    <comment ref="N432" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1057,7 +1057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z436" authorId="0" shapeId="0">
+    <comment ref="Z436" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1081,7 +1081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z439" authorId="0" shapeId="0">
+    <comment ref="Z439" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z440" authorId="0" shapeId="0">
+    <comment ref="Z440" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1129,7 +1129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z443" authorId="0" shapeId="0">
+    <comment ref="Z443" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z445" authorId="0" shapeId="0">
+    <comment ref="Z445" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z446" authorId="0" shapeId="0">
+    <comment ref="Z446" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z451" authorId="0" shapeId="0">
+    <comment ref="Z451" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z453" authorId="0" shapeId="0">
+    <comment ref="Z453" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z460" authorId="0" shapeId="0">
+    <comment ref="Z460" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1274,7 +1274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D461" authorId="0" shapeId="0">
+    <comment ref="D461" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1308,7 +1308,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1332,7 +1332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1366,7 +1366,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1390,7 +1390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1419,7 +1419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="1380">
   <si>
     <t>Ahu99</t>
   </si>
@@ -5702,6 +5702,9 @@
   </si>
   <si>
     <t>26.26</t>
+  </si>
+  <si>
+    <t>U计划-24月-20170731-1期</t>
   </si>
 </sst>
 </file>
@@ -8042,9 +8045,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8054,14 +8054,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8076,6 +8079,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8099,128 +8189,23 @@
     <xf numFmtId="0" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="65" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="65" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="8" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="8" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="63" fillId="8" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="63" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="63" fillId="8" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="63" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="76" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8229,10 +8214,28 @@
     <xf numFmtId="22" fontId="65" fillId="8" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="63" fillId="8" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="65" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="76" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="63" fillId="8" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="63" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="63" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="65" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="63" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8246,6 +8249,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8266,6 +8275,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8290,24 +8311,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8364,6 +8367,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8447,7 +8518,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>651499.97000000009</c:v>
+                  <c:v>661385.04000000015</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>724324.4800000001</c:v>
@@ -11707,7 +11778,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -11742,7 +11813,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11777,7 +11848,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12018,11 +12089,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A1" s="423" t="s">
+      <c r="A1" s="424" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="423"/>
-      <c r="C1" s="423"/>
+      <c r="B1" s="424"/>
+      <c r="C1" s="424"/>
       <c r="D1" s="110">
         <f>SUM(G10:G88)-SUM(L10:L88)</f>
         <v>268</v>
@@ -12035,11 +12106,11 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A2" s="424" t="s">
+      <c r="A2" s="425" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="424"/>
-      <c r="C2" s="424"/>
+      <c r="B2" s="425"/>
+      <c r="C2" s="425"/>
       <c r="D2" s="111">
         <v>29.75</v>
       </c>
@@ -12054,11 +12125,11 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A3" s="424" t="s">
+      <c r="A3" s="425" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="424"/>
-      <c r="C3" s="424"/>
+      <c r="B3" s="425"/>
+      <c r="C3" s="425"/>
       <c r="D3" s="111">
         <f>D1*0.85</f>
         <v>227.79999999999998</v>
@@ -12074,11 +12145,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A4" s="424" t="s">
+      <c r="A4" s="425" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="424"/>
-      <c r="C4" s="424"/>
+      <c r="B4" s="425"/>
+      <c r="C4" s="425"/>
       <c r="D4" s="112">
         <f>([1]Sheet2!B64)/100</f>
         <v>6.1073000000000004</v>
@@ -12088,11 +12159,11 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="419" t="s">
+      <c r="A5" s="423" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="419"/>
-      <c r="C5" s="419"/>
+      <c r="B5" s="423"/>
+      <c r="C5" s="423"/>
       <c r="D5" s="113">
         <f>SUM(D10:D88)+SUM(H10:H88)</f>
         <v>76568.666499999992</v>
@@ -12102,11 +12173,11 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A6" s="419" t="s">
+      <c r="A6" s="423" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="419"/>
-      <c r="C6" s="419"/>
+      <c r="B6" s="423"/>
+      <c r="C6" s="423"/>
       <c r="D6" s="114">
         <f>SUM(Q10:Q88)</f>
         <v>48178.589949999994</v>
@@ -12120,11 +12191,11 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A7" s="419" t="s">
+      <c r="A7" s="423" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="419"/>
-      <c r="C7" s="419"/>
+      <c r="B7" s="423"/>
+      <c r="C7" s="423"/>
       <c r="D7" s="116">
         <f>D6-D5</f>
         <v>-28390.076549999998</v>
@@ -12203,38 +12274,38 @@
       <c r="B10" s="109">
         <v>0</v>
       </c>
-      <c r="C10" s="420">
+      <c r="C10" s="419">
         <v>68.97</v>
       </c>
-      <c r="D10" s="421">
+      <c r="D10" s="420">
         <f>IF(B15&gt;0,SUM(B10:B15)-C10,0)</f>
         <v>10580.78</v>
       </c>
-      <c r="E10" s="420">
+      <c r="E10" s="419">
         <v>6.2854999999999999</v>
       </c>
-      <c r="F10" s="420">
+      <c r="F10" s="419">
         <v>25.3</v>
       </c>
-      <c r="G10" s="422">
+      <c r="G10" s="421">
         <v>79</v>
       </c>
       <c r="H10" s="120">
         <f t="shared" ref="H10:H15" si="0">R16*0.2</f>
         <v>62.814</v>
       </c>
-      <c r="I10" s="425">
+      <c r="I10" s="422">
         <f>IF($K$28&gt;F10,G10*($K$28-F10)*0.2,0)</f>
         <v>70.309999999999988</v>
       </c>
-      <c r="J10" s="425"/>
-      <c r="K10" s="425"/>
-      <c r="L10" s="425"/>
-      <c r="M10" s="425"/>
-      <c r="N10" s="425"/>
-      <c r="O10" s="425"/>
-      <c r="P10" s="425"/>
-      <c r="Q10" s="425"/>
+      <c r="J10" s="422"/>
+      <c r="K10" s="422"/>
+      <c r="L10" s="422"/>
+      <c r="M10" s="422"/>
+      <c r="N10" s="422"/>
+      <c r="O10" s="422"/>
+      <c r="P10" s="422"/>
+      <c r="Q10" s="422"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
@@ -12243,26 +12314,26 @@
       <c r="B11" s="109">
         <v>3400.95</v>
       </c>
-      <c r="C11" s="420">
+      <c r="C11" s="419">
         <v>3400.95</v>
       </c>
-      <c r="D11" s="421"/>
-      <c r="E11" s="420"/>
-      <c r="F11" s="420"/>
-      <c r="G11" s="422"/>
+      <c r="D11" s="420"/>
+      <c r="E11" s="419"/>
+      <c r="F11" s="419"/>
+      <c r="G11" s="421"/>
       <c r="H11" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I11" s="425"/>
-      <c r="J11" s="425"/>
-      <c r="K11" s="425"/>
-      <c r="L11" s="425"/>
-      <c r="M11" s="425"/>
-      <c r="N11" s="425"/>
-      <c r="O11" s="425"/>
-      <c r="P11" s="425"/>
-      <c r="Q11" s="425"/>
+      <c r="I11" s="422"/>
+      <c r="J11" s="422"/>
+      <c r="K11" s="422"/>
+      <c r="L11" s="422"/>
+      <c r="M11" s="422"/>
+      <c r="N11" s="422"/>
+      <c r="O11" s="422"/>
+      <c r="P11" s="422"/>
+      <c r="Q11" s="422"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1">
@@ -12271,26 +12342,26 @@
       <c r="B12" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C12" s="420">
+      <c r="C12" s="419">
         <v>1706.25</v>
       </c>
-      <c r="D12" s="421"/>
-      <c r="E12" s="420"/>
-      <c r="F12" s="420"/>
-      <c r="G12" s="422"/>
+      <c r="D12" s="420"/>
+      <c r="E12" s="419"/>
+      <c r="F12" s="419"/>
+      <c r="G12" s="421"/>
       <c r="H12" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I12" s="425"/>
-      <c r="J12" s="425"/>
-      <c r="K12" s="425"/>
-      <c r="L12" s="425"/>
-      <c r="M12" s="425"/>
-      <c r="N12" s="425"/>
-      <c r="O12" s="425"/>
-      <c r="P12" s="425"/>
-      <c r="Q12" s="425"/>
+      <c r="I12" s="422"/>
+      <c r="J12" s="422"/>
+      <c r="K12" s="422"/>
+      <c r="L12" s="422"/>
+      <c r="M12" s="422"/>
+      <c r="N12" s="422"/>
+      <c r="O12" s="422"/>
+      <c r="P12" s="422"/>
+      <c r="Q12" s="422"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1">
@@ -12299,26 +12370,26 @@
       <c r="B13" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C13" s="420">
+      <c r="C13" s="419">
         <v>1706.25</v>
       </c>
-      <c r="D13" s="421"/>
-      <c r="E13" s="420"/>
-      <c r="F13" s="420"/>
-      <c r="G13" s="422"/>
+      <c r="D13" s="420"/>
+      <c r="E13" s="419"/>
+      <c r="F13" s="419"/>
+      <c r="G13" s="421"/>
       <c r="H13" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I13" s="425"/>
-      <c r="J13" s="425"/>
-      <c r="K13" s="425"/>
-      <c r="L13" s="425"/>
-      <c r="M13" s="425"/>
-      <c r="N13" s="425"/>
-      <c r="O13" s="425"/>
-      <c r="P13" s="425"/>
-      <c r="Q13" s="425"/>
+      <c r="I13" s="422"/>
+      <c r="J13" s="422"/>
+      <c r="K13" s="422"/>
+      <c r="L13" s="422"/>
+      <c r="M13" s="422"/>
+      <c r="N13" s="422"/>
+      <c r="O13" s="422"/>
+      <c r="P13" s="422"/>
+      <c r="Q13" s="422"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1">
@@ -12327,26 +12398,26 @@
       <c r="B14" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C14" s="420">
+      <c r="C14" s="419">
         <v>1918.15</v>
       </c>
-      <c r="D14" s="421"/>
-      <c r="E14" s="420"/>
-      <c r="F14" s="420"/>
-      <c r="G14" s="422"/>
+      <c r="D14" s="420"/>
+      <c r="E14" s="419"/>
+      <c r="F14" s="419"/>
+      <c r="G14" s="421"/>
       <c r="H14" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I14" s="425"/>
-      <c r="J14" s="425"/>
-      <c r="K14" s="425"/>
-      <c r="L14" s="425"/>
-      <c r="M14" s="425"/>
-      <c r="N14" s="425"/>
-      <c r="O14" s="425"/>
-      <c r="P14" s="425"/>
-      <c r="Q14" s="425"/>
+      <c r="I14" s="422"/>
+      <c r="J14" s="422"/>
+      <c r="K14" s="422"/>
+      <c r="L14" s="422"/>
+      <c r="M14" s="422"/>
+      <c r="N14" s="422"/>
+      <c r="O14" s="422"/>
+      <c r="P14" s="422"/>
+      <c r="Q14" s="422"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1">
@@ -12355,26 +12426,26 @@
       <c r="B15" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C15" s="420">
+      <c r="C15" s="419">
         <v>1918.15</v>
       </c>
-      <c r="D15" s="421"/>
-      <c r="E15" s="420"/>
-      <c r="F15" s="420"/>
-      <c r="G15" s="422"/>
+      <c r="D15" s="420"/>
+      <c r="E15" s="419"/>
+      <c r="F15" s="419"/>
+      <c r="G15" s="421"/>
       <c r="H15" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I15" s="425"/>
-      <c r="J15" s="425"/>
-      <c r="K15" s="425"/>
-      <c r="L15" s="425"/>
-      <c r="M15" s="425"/>
-      <c r="N15" s="425"/>
-      <c r="O15" s="425"/>
-      <c r="P15" s="425"/>
-      <c r="Q15" s="425"/>
+      <c r="I15" s="422"/>
+      <c r="J15" s="422"/>
+      <c r="K15" s="422"/>
+      <c r="L15" s="422"/>
+      <c r="M15" s="422"/>
+      <c r="N15" s="422"/>
+      <c r="O15" s="422"/>
+      <c r="P15" s="422"/>
+      <c r="Q15" s="422"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1">
@@ -12383,38 +12454,38 @@
       <c r="B16" s="109">
         <v>1693.15</v>
       </c>
-      <c r="C16" s="420">
+      <c r="C16" s="419">
         <v>48.24</v>
       </c>
-      <c r="D16" s="421">
+      <c r="D16" s="420">
         <f>IF(B21&gt;0,SUM(B16:B21)-C16,0)</f>
         <v>11196.460000000001</v>
       </c>
-      <c r="E16" s="420">
+      <c r="E16" s="419">
         <v>6.1787000000000001</v>
       </c>
-      <c r="F16" s="420">
+      <c r="F16" s="419">
         <v>23.62</v>
       </c>
-      <c r="G16" s="422">
+      <c r="G16" s="421">
         <v>90</v>
       </c>
       <c r="H16" s="120">
         <f>R22*0.25</f>
         <v>81.435000000000002</v>
       </c>
-      <c r="I16" s="425">
+      <c r="I16" s="422">
         <f>IF($K$28&gt;F16,G16*($K$28-F16)*0.2,0)</f>
         <v>110.33999999999999</v>
       </c>
-      <c r="J16" s="425"/>
-      <c r="K16" s="425"/>
-      <c r="L16" s="425"/>
-      <c r="M16" s="425"/>
-      <c r="N16" s="425"/>
-      <c r="O16" s="425"/>
-      <c r="P16" s="425"/>
-      <c r="Q16" s="425"/>
+      <c r="J16" s="422"/>
+      <c r="K16" s="422"/>
+      <c r="L16" s="422"/>
+      <c r="M16" s="422"/>
+      <c r="N16" s="422"/>
+      <c r="O16" s="422"/>
+      <c r="P16" s="422"/>
+      <c r="Q16" s="422"/>
       <c r="R16" s="109">
         <v>314.07</v>
       </c>
@@ -12426,24 +12497,24 @@
       <c r="B17" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C17" s="420"/>
-      <c r="D17" s="421"/>
-      <c r="E17" s="420"/>
-      <c r="F17" s="420"/>
-      <c r="G17" s="422"/>
+      <c r="C17" s="419"/>
+      <c r="D17" s="420"/>
+      <c r="E17" s="419"/>
+      <c r="F17" s="419"/>
+      <c r="G17" s="421"/>
       <c r="H17" s="120">
         <f t="shared" ref="H17:H80" si="1">R23*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I17" s="425"/>
-      <c r="J17" s="425"/>
-      <c r="K17" s="425"/>
-      <c r="L17" s="425"/>
-      <c r="M17" s="425"/>
-      <c r="N17" s="425"/>
-      <c r="O17" s="425"/>
-      <c r="P17" s="425"/>
-      <c r="Q17" s="425"/>
+      <c r="I17" s="422"/>
+      <c r="J17" s="422"/>
+      <c r="K17" s="422"/>
+      <c r="L17" s="422"/>
+      <c r="M17" s="422"/>
+      <c r="N17" s="422"/>
+      <c r="O17" s="422"/>
+      <c r="P17" s="422"/>
+      <c r="Q17" s="422"/>
       <c r="R17" s="109">
         <f>R16</f>
         <v>314.07</v>
@@ -12456,24 +12527,24 @@
       <c r="B18" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C18" s="420"/>
-      <c r="D18" s="421"/>
-      <c r="E18" s="420"/>
-      <c r="F18" s="420"/>
-      <c r="G18" s="422"/>
+      <c r="C18" s="419"/>
+      <c r="D18" s="420"/>
+      <c r="E18" s="419"/>
+      <c r="F18" s="419"/>
+      <c r="G18" s="421"/>
       <c r="H18" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I18" s="425"/>
-      <c r="J18" s="425"/>
-      <c r="K18" s="425"/>
-      <c r="L18" s="425"/>
-      <c r="M18" s="425"/>
-      <c r="N18" s="425"/>
-      <c r="O18" s="425"/>
-      <c r="P18" s="425"/>
-      <c r="Q18" s="425"/>
+      <c r="I18" s="422"/>
+      <c r="J18" s="422"/>
+      <c r="K18" s="422"/>
+      <c r="L18" s="422"/>
+      <c r="M18" s="422"/>
+      <c r="N18" s="422"/>
+      <c r="O18" s="422"/>
+      <c r="P18" s="422"/>
+      <c r="Q18" s="422"/>
       <c r="R18" s="109">
         <f t="shared" ref="R18:R32" si="2">R17</f>
         <v>314.07</v>
@@ -12486,24 +12557,24 @@
       <c r="B19" s="121">
         <v>2196.35</v>
       </c>
-      <c r="C19" s="420"/>
-      <c r="D19" s="421"/>
-      <c r="E19" s="420"/>
-      <c r="F19" s="420"/>
-      <c r="G19" s="422"/>
+      <c r="C19" s="419"/>
+      <c r="D19" s="420"/>
+      <c r="E19" s="419"/>
+      <c r="F19" s="419"/>
+      <c r="G19" s="421"/>
       <c r="H19" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I19" s="425"/>
-      <c r="J19" s="425"/>
-      <c r="K19" s="425"/>
-      <c r="L19" s="425"/>
-      <c r="M19" s="425"/>
-      <c r="N19" s="425"/>
-      <c r="O19" s="425"/>
-      <c r="P19" s="425"/>
-      <c r="Q19" s="425"/>
+      <c r="I19" s="422"/>
+      <c r="J19" s="422"/>
+      <c r="K19" s="422"/>
+      <c r="L19" s="422"/>
+      <c r="M19" s="422"/>
+      <c r="N19" s="422"/>
+      <c r="O19" s="422"/>
+      <c r="P19" s="422"/>
+      <c r="Q19" s="422"/>
       <c r="R19" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12516,24 +12587,24 @@
       <c r="B20" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C20" s="420"/>
-      <c r="D20" s="421"/>
-      <c r="E20" s="420"/>
-      <c r="F20" s="420"/>
-      <c r="G20" s="422"/>
+      <c r="C20" s="419"/>
+      <c r="D20" s="420"/>
+      <c r="E20" s="419"/>
+      <c r="F20" s="419"/>
+      <c r="G20" s="421"/>
       <c r="H20" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I20" s="425"/>
-      <c r="J20" s="425"/>
-      <c r="K20" s="425"/>
-      <c r="L20" s="425"/>
-      <c r="M20" s="425"/>
-      <c r="N20" s="425"/>
-      <c r="O20" s="425"/>
-      <c r="P20" s="425"/>
-      <c r="Q20" s="425"/>
+      <c r="I20" s="422"/>
+      <c r="J20" s="422"/>
+      <c r="K20" s="422"/>
+      <c r="L20" s="422"/>
+      <c r="M20" s="422"/>
+      <c r="N20" s="422"/>
+      <c r="O20" s="422"/>
+      <c r="P20" s="422"/>
+      <c r="Q20" s="422"/>
       <c r="R20" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12546,24 +12617,24 @@
       <c r="B21" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C21" s="420"/>
-      <c r="D21" s="421"/>
-      <c r="E21" s="420"/>
-      <c r="F21" s="420"/>
-      <c r="G21" s="422"/>
+      <c r="C21" s="419"/>
+      <c r="D21" s="420"/>
+      <c r="E21" s="419"/>
+      <c r="F21" s="419"/>
+      <c r="G21" s="421"/>
       <c r="H21" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I21" s="425"/>
-      <c r="J21" s="425"/>
-      <c r="K21" s="425"/>
-      <c r="L21" s="425"/>
-      <c r="M21" s="425"/>
-      <c r="N21" s="425"/>
-      <c r="O21" s="425"/>
-      <c r="P21" s="425"/>
-      <c r="Q21" s="425"/>
+      <c r="I21" s="422"/>
+      <c r="J21" s="422"/>
+      <c r="K21" s="422"/>
+      <c r="L21" s="422"/>
+      <c r="M21" s="422"/>
+      <c r="N21" s="422"/>
+      <c r="O21" s="422"/>
+      <c r="P21" s="422"/>
+      <c r="Q21" s="422"/>
       <c r="R21" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12576,38 +12647,38 @@
       <c r="B22" s="121">
         <v>1958.23</v>
       </c>
-      <c r="C22" s="420">
+      <c r="C22" s="419">
         <v>34.549999999999997</v>
       </c>
-      <c r="D22" s="421">
+      <c r="D22" s="420">
         <f>IF(B27&gt;0,SUM(B22:B27)-C22,0)</f>
         <v>11771.410000000002</v>
       </c>
-      <c r="E22" s="420">
+      <c r="E22" s="419">
         <v>6.1050000000000004</v>
       </c>
-      <c r="F22" s="420">
+      <c r="F22" s="419">
         <v>24.24</v>
       </c>
-      <c r="G22" s="422">
+      <c r="G22" s="421">
         <v>109</v>
       </c>
       <c r="H22" s="120">
         <f>R28*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I22" s="425">
+      <c r="I22" s="422">
         <f>IF($K$28&gt;F22,G22*($K$28-F22)*0.2,0)</f>
         <v>120.11800000000004</v>
       </c>
-      <c r="J22" s="425"/>
-      <c r="K22" s="425"/>
-      <c r="L22" s="425"/>
-      <c r="M22" s="425"/>
-      <c r="N22" s="425"/>
-      <c r="O22" s="425"/>
-      <c r="P22" s="425"/>
-      <c r="Q22" s="425"/>
+      <c r="J22" s="422"/>
+      <c r="K22" s="422"/>
+      <c r="L22" s="422"/>
+      <c r="M22" s="422"/>
+      <c r="N22" s="422"/>
+      <c r="O22" s="422"/>
+      <c r="P22" s="422"/>
+      <c r="Q22" s="422"/>
       <c r="R22" s="109">
         <v>325.74</v>
       </c>
@@ -12619,24 +12690,24 @@
       <c r="B23" s="121">
         <v>1958.24</v>
       </c>
-      <c r="C23" s="420"/>
-      <c r="D23" s="421"/>
-      <c r="E23" s="420"/>
-      <c r="F23" s="420"/>
-      <c r="G23" s="422"/>
+      <c r="C23" s="419"/>
+      <c r="D23" s="420"/>
+      <c r="E23" s="419"/>
+      <c r="F23" s="419"/>
+      <c r="G23" s="421"/>
       <c r="H23" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I23" s="425"/>
-      <c r="J23" s="425"/>
-      <c r="K23" s="425"/>
-      <c r="L23" s="425"/>
-      <c r="M23" s="425"/>
-      <c r="N23" s="425"/>
-      <c r="O23" s="425"/>
-      <c r="P23" s="425"/>
-      <c r="Q23" s="425"/>
+      <c r="I23" s="422"/>
+      <c r="J23" s="422"/>
+      <c r="K23" s="422"/>
+      <c r="L23" s="422"/>
+      <c r="M23" s="422"/>
+      <c r="N23" s="422"/>
+      <c r="O23" s="422"/>
+      <c r="P23" s="422"/>
+      <c r="Q23" s="422"/>
       <c r="R23" s="109">
         <v>271.45</v>
       </c>
@@ -12648,24 +12719,24 @@
       <c r="B24" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C24" s="420"/>
-      <c r="D24" s="421"/>
-      <c r="E24" s="420"/>
-      <c r="F24" s="420"/>
-      <c r="G24" s="422"/>
+      <c r="C24" s="419"/>
+      <c r="D24" s="420"/>
+      <c r="E24" s="419"/>
+      <c r="F24" s="419"/>
+      <c r="G24" s="421"/>
       <c r="H24" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I24" s="425"/>
-      <c r="J24" s="425"/>
-      <c r="K24" s="425"/>
-      <c r="L24" s="425"/>
-      <c r="M24" s="425"/>
-      <c r="N24" s="425"/>
-      <c r="O24" s="425"/>
-      <c r="P24" s="425"/>
-      <c r="Q24" s="425"/>
+      <c r="I24" s="422"/>
+      <c r="J24" s="422"/>
+      <c r="K24" s="422"/>
+      <c r="L24" s="422"/>
+      <c r="M24" s="422"/>
+      <c r="N24" s="422"/>
+      <c r="O24" s="422"/>
+      <c r="P24" s="422"/>
+      <c r="Q24" s="422"/>
       <c r="R24" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12678,24 +12749,24 @@
       <c r="B25" s="121">
         <v>1958.26</v>
       </c>
-      <c r="C25" s="420"/>
-      <c r="D25" s="421"/>
-      <c r="E25" s="420"/>
-      <c r="F25" s="420"/>
-      <c r="G25" s="422"/>
+      <c r="C25" s="419"/>
+      <c r="D25" s="420"/>
+      <c r="E25" s="419"/>
+      <c r="F25" s="419"/>
+      <c r="G25" s="421"/>
       <c r="H25" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I25" s="425"/>
-      <c r="J25" s="425"/>
-      <c r="K25" s="425"/>
-      <c r="L25" s="425"/>
-      <c r="M25" s="425"/>
-      <c r="N25" s="425"/>
-      <c r="O25" s="425"/>
-      <c r="P25" s="425"/>
-      <c r="Q25" s="425"/>
+      <c r="I25" s="422"/>
+      <c r="J25" s="422"/>
+      <c r="K25" s="422"/>
+      <c r="L25" s="422"/>
+      <c r="M25" s="422"/>
+      <c r="N25" s="422"/>
+      <c r="O25" s="422"/>
+      <c r="P25" s="422"/>
+      <c r="Q25" s="422"/>
       <c r="R25" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12708,24 +12779,24 @@
       <c r="B26" s="121">
         <v>2031.49</v>
       </c>
-      <c r="C26" s="420"/>
-      <c r="D26" s="421"/>
-      <c r="E26" s="420"/>
-      <c r="F26" s="420"/>
-      <c r="G26" s="422"/>
+      <c r="C26" s="419"/>
+      <c r="D26" s="420"/>
+      <c r="E26" s="419"/>
+      <c r="F26" s="419"/>
+      <c r="G26" s="421"/>
       <c r="H26" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I26" s="425"/>
-      <c r="J26" s="425"/>
-      <c r="K26" s="425"/>
-      <c r="L26" s="425"/>
-      <c r="M26" s="425"/>
-      <c r="N26" s="425"/>
-      <c r="O26" s="425"/>
-      <c r="P26" s="425"/>
-      <c r="Q26" s="425"/>
+      <c r="I26" s="422"/>
+      <c r="J26" s="422"/>
+      <c r="K26" s="422"/>
+      <c r="L26" s="422"/>
+      <c r="M26" s="422"/>
+      <c r="N26" s="422"/>
+      <c r="O26" s="422"/>
+      <c r="P26" s="422"/>
+      <c r="Q26" s="422"/>
       <c r="R26" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12738,24 +12809,24 @@
       <c r="B27" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C27" s="420"/>
-      <c r="D27" s="421"/>
-      <c r="E27" s="420"/>
-      <c r="F27" s="420"/>
-      <c r="G27" s="422"/>
+      <c r="C27" s="419"/>
+      <c r="D27" s="420"/>
+      <c r="E27" s="419"/>
+      <c r="F27" s="419"/>
+      <c r="G27" s="421"/>
       <c r="H27" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I27" s="425"/>
-      <c r="J27" s="425"/>
-      <c r="K27" s="425"/>
-      <c r="L27" s="425"/>
-      <c r="M27" s="425"/>
-      <c r="N27" s="425"/>
-      <c r="O27" s="425"/>
-      <c r="P27" s="425"/>
-      <c r="Q27" s="425"/>
+      <c r="I27" s="422"/>
+      <c r="J27" s="422"/>
+      <c r="K27" s="422"/>
+      <c r="L27" s="422"/>
+      <c r="M27" s="422"/>
+      <c r="N27" s="422"/>
+      <c r="O27" s="422"/>
+      <c r="P27" s="422"/>
+      <c r="Q27" s="422"/>
       <c r="R27" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12768,54 +12839,54 @@
       <c r="B28" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C28" s="420">
+      <c r="C28" s="419">
         <v>22.25</v>
       </c>
-      <c r="D28" s="421">
+      <c r="D28" s="420">
         <f>IF(G28&gt;0,SUM(B28:B34)-C28,0)</f>
         <v>14106.8</v>
       </c>
-      <c r="E28" s="420">
+      <c r="E28" s="419">
         <v>6.1675000000000004</v>
       </c>
-      <c r="F28" s="420">
+      <c r="F28" s="419">
         <v>29.3</v>
       </c>
-      <c r="G28" s="422">
+      <c r="G28" s="421">
         <v>79</v>
       </c>
       <c r="H28" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I28" s="425">
+      <c r="I28" s="422">
         <f>IF($D$2&gt;F28,G28*($D$2-F28)*0.2,0)</f>
         <v>7.1099999999999888</v>
       </c>
-      <c r="J28" s="425">
+      <c r="J28" s="422">
         <f>SUM(I10:I27)</f>
         <v>300.76800000000003</v>
       </c>
-      <c r="K28" s="425">
+      <c r="K28" s="422">
         <v>29.75</v>
       </c>
-      <c r="L28" s="425">
+      <c r="L28" s="422">
         <v>278</v>
       </c>
-      <c r="M28" s="425">
+      <c r="M28" s="422">
         <f>IF(IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005)&gt;25,IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005),25)</f>
         <v>41.352499999999999</v>
       </c>
-      <c r="N28" s="425">
+      <c r="N28" s="422">
         <v>5.25</v>
       </c>
-      <c r="O28" s="425">
-        <v>0</v>
-      </c>
-      <c r="P28" s="425">
+      <c r="O28" s="422">
+        <v>0</v>
+      </c>
+      <c r="P28" s="422">
         <v>25</v>
       </c>
-      <c r="Q28" s="425">
+      <c r="Q28" s="422">
         <f>(K28*L28-J28-M28-N28-O28-P28)*S34</f>
         <v>48178.589949999994</v>
       </c>
@@ -12831,24 +12902,24 @@
       <c r="B29" s="121">
         <v>2445.75</v>
       </c>
-      <c r="C29" s="420"/>
-      <c r="D29" s="421"/>
-      <c r="E29" s="420"/>
-      <c r="F29" s="420"/>
-      <c r="G29" s="422"/>
+      <c r="C29" s="419"/>
+      <c r="D29" s="420"/>
+      <c r="E29" s="419"/>
+      <c r="F29" s="419"/>
+      <c r="G29" s="421"/>
       <c r="H29" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I29" s="425"/>
-      <c r="J29" s="425"/>
-      <c r="K29" s="425"/>
-      <c r="L29" s="425"/>
-      <c r="M29" s="425"/>
-      <c r="N29" s="425"/>
-      <c r="O29" s="425"/>
-      <c r="P29" s="425"/>
-      <c r="Q29" s="425"/>
+      <c r="I29" s="422"/>
+      <c r="J29" s="422"/>
+      <c r="K29" s="422"/>
+      <c r="L29" s="422"/>
+      <c r="M29" s="422"/>
+      <c r="N29" s="422"/>
+      <c r="O29" s="422"/>
+      <c r="P29" s="422"/>
+      <c r="Q29" s="422"/>
       <c r="R29" s="109">
         <v>400.35</v>
       </c>
@@ -12860,24 +12931,24 @@
       <c r="B30" s="121">
         <v>1917.03</v>
       </c>
-      <c r="C30" s="420"/>
-      <c r="D30" s="421"/>
-      <c r="E30" s="420"/>
-      <c r="F30" s="420"/>
-      <c r="G30" s="422"/>
+      <c r="C30" s="419"/>
+      <c r="D30" s="420"/>
+      <c r="E30" s="419"/>
+      <c r="F30" s="419"/>
+      <c r="G30" s="421"/>
       <c r="H30" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I30" s="425"/>
-      <c r="J30" s="425"/>
-      <c r="K30" s="425"/>
-      <c r="L30" s="425"/>
-      <c r="M30" s="425"/>
-      <c r="N30" s="425"/>
-      <c r="O30" s="425"/>
-      <c r="P30" s="425"/>
-      <c r="Q30" s="425"/>
+      <c r="I30" s="422"/>
+      <c r="J30" s="422"/>
+      <c r="K30" s="422"/>
+      <c r="L30" s="422"/>
+      <c r="M30" s="422"/>
+      <c r="N30" s="422"/>
+      <c r="O30" s="422"/>
+      <c r="P30" s="422"/>
+      <c r="Q30" s="422"/>
       <c r="R30" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12890,24 +12961,24 @@
       <c r="B31" s="121">
         <v>1827.02</v>
       </c>
-      <c r="C31" s="420"/>
-      <c r="D31" s="421"/>
-      <c r="E31" s="420"/>
-      <c r="F31" s="420"/>
-      <c r="G31" s="422"/>
+      <c r="C31" s="419"/>
+      <c r="D31" s="420"/>
+      <c r="E31" s="419"/>
+      <c r="F31" s="419"/>
+      <c r="G31" s="421"/>
       <c r="H31" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I31" s="425"/>
-      <c r="J31" s="425"/>
-      <c r="K31" s="425"/>
-      <c r="L31" s="425"/>
-      <c r="M31" s="425"/>
-      <c r="N31" s="425"/>
-      <c r="O31" s="425"/>
-      <c r="P31" s="425"/>
-      <c r="Q31" s="425"/>
+      <c r="I31" s="422"/>
+      <c r="J31" s="422"/>
+      <c r="K31" s="422"/>
+      <c r="L31" s="422"/>
+      <c r="M31" s="422"/>
+      <c r="N31" s="422"/>
+      <c r="O31" s="422"/>
+      <c r="P31" s="422"/>
+      <c r="Q31" s="422"/>
       <c r="R31" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12920,24 +12991,24 @@
       <c r="B32" s="121">
         <v>1958.22</v>
       </c>
-      <c r="C32" s="420"/>
-      <c r="D32" s="421"/>
-      <c r="E32" s="420"/>
-      <c r="F32" s="420"/>
-      <c r="G32" s="422"/>
+      <c r="C32" s="419"/>
+      <c r="D32" s="420"/>
+      <c r="E32" s="419"/>
+      <c r="F32" s="419"/>
+      <c r="G32" s="421"/>
       <c r="H32" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I32" s="425"/>
-      <c r="J32" s="425"/>
-      <c r="K32" s="425"/>
-      <c r="L32" s="425"/>
-      <c r="M32" s="425"/>
-      <c r="N32" s="425"/>
-      <c r="O32" s="425"/>
-      <c r="P32" s="425"/>
-      <c r="Q32" s="425"/>
+      <c r="I32" s="422"/>
+      <c r="J32" s="422"/>
+      <c r="K32" s="422"/>
+      <c r="L32" s="422"/>
+      <c r="M32" s="422"/>
+      <c r="N32" s="422"/>
+      <c r="O32" s="422"/>
+      <c r="P32" s="422"/>
+      <c r="Q32" s="422"/>
       <c r="R32" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12950,24 +13021,24 @@
       <c r="B33" s="121">
         <v>1958.28</v>
       </c>
-      <c r="C33" s="420"/>
-      <c r="D33" s="421"/>
-      <c r="E33" s="420"/>
-      <c r="F33" s="420"/>
-      <c r="G33" s="422"/>
+      <c r="C33" s="419"/>
+      <c r="D33" s="420"/>
+      <c r="E33" s="419"/>
+      <c r="F33" s="419"/>
+      <c r="G33" s="421"/>
       <c r="H33" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I33" s="425"/>
-      <c r="J33" s="425"/>
-      <c r="K33" s="425"/>
-      <c r="L33" s="425"/>
-      <c r="M33" s="425"/>
-      <c r="N33" s="425"/>
-      <c r="O33" s="425"/>
-      <c r="P33" s="425"/>
-      <c r="Q33" s="425"/>
+      <c r="I33" s="422"/>
+      <c r="J33" s="422"/>
+      <c r="K33" s="422"/>
+      <c r="L33" s="422"/>
+      <c r="M33" s="422"/>
+      <c r="N33" s="422"/>
+      <c r="O33" s="422"/>
+      <c r="P33" s="422"/>
+      <c r="Q33" s="422"/>
       <c r="R33" s="109">
         <f>R30</f>
         <v>400.35</v>
@@ -12980,24 +13051,24 @@
       <c r="B34" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C34" s="420"/>
-      <c r="D34" s="421"/>
-      <c r="E34" s="420"/>
-      <c r="F34" s="420"/>
-      <c r="G34" s="422"/>
+      <c r="C34" s="419"/>
+      <c r="D34" s="420"/>
+      <c r="E34" s="419"/>
+      <c r="F34" s="419"/>
+      <c r="G34" s="421"/>
       <c r="H34" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I34" s="425"/>
-      <c r="J34" s="425"/>
-      <c r="K34" s="425"/>
-      <c r="L34" s="425"/>
-      <c r="M34" s="425"/>
-      <c r="N34" s="425"/>
-      <c r="O34" s="425"/>
-      <c r="P34" s="425"/>
-      <c r="Q34" s="425"/>
+      <c r="I34" s="422"/>
+      <c r="J34" s="422"/>
+      <c r="K34" s="422"/>
+      <c r="L34" s="422"/>
+      <c r="M34" s="422"/>
+      <c r="N34" s="422"/>
+      <c r="O34" s="422"/>
+      <c r="P34" s="422"/>
+      <c r="Q34" s="422"/>
       <c r="R34" s="109">
         <f>R32</f>
         <v>400.35</v>
@@ -13013,38 +13084,38 @@
       <c r="B35" s="121">
         <v>2171.2600000000002</v>
       </c>
-      <c r="C35" s="420">
+      <c r="C35" s="419">
         <v>30.19</v>
       </c>
-      <c r="D35" s="421">
+      <c r="D35" s="420">
         <f>IF(B40&gt;0,SUM(B35:B40)-C35,0)</f>
         <v>13016.160000000002</v>
       </c>
-      <c r="E35" s="420">
+      <c r="E35" s="419">
         <v>6.1369999999999996</v>
       </c>
-      <c r="F35" s="420">
+      <c r="F35" s="419">
         <v>25.93</v>
       </c>
-      <c r="G35" s="422">
+      <c r="G35" s="421">
         <v>96</v>
       </c>
       <c r="H35" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I35" s="425">
+      <c r="I35" s="422">
         <f>IF($D$2&gt;F35,G35*($D$2-F35)*0.2,0)</f>
         <v>73.344000000000008</v>
       </c>
-      <c r="J35" s="425"/>
-      <c r="K35" s="425"/>
-      <c r="L35" s="425"/>
-      <c r="M35" s="425"/>
-      <c r="N35" s="425"/>
-      <c r="O35" s="425"/>
-      <c r="P35" s="425"/>
-      <c r="Q35" s="425"/>
+      <c r="J35" s="422"/>
+      <c r="K35" s="422"/>
+      <c r="L35" s="422"/>
+      <c r="M35" s="422"/>
+      <c r="N35" s="422"/>
+      <c r="O35" s="422"/>
+      <c r="P35" s="422"/>
+      <c r="Q35" s="422"/>
       <c r="R35" s="109">
         <v>358.55</v>
       </c>
@@ -13056,24 +13127,24 @@
       <c r="B36" s="121">
         <v>2081.27</v>
       </c>
-      <c r="C36" s="420"/>
-      <c r="D36" s="421"/>
-      <c r="E36" s="420"/>
-      <c r="F36" s="420"/>
-      <c r="G36" s="422"/>
+      <c r="C36" s="419"/>
+      <c r="D36" s="420"/>
+      <c r="E36" s="419"/>
+      <c r="F36" s="419"/>
+      <c r="G36" s="421"/>
       <c r="H36" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I36" s="425"/>
-      <c r="J36" s="425"/>
-      <c r="K36" s="425"/>
-      <c r="L36" s="425"/>
-      <c r="M36" s="425"/>
-      <c r="N36" s="425"/>
-      <c r="O36" s="425"/>
-      <c r="P36" s="425"/>
-      <c r="Q36" s="425"/>
+      <c r="I36" s="422"/>
+      <c r="J36" s="422"/>
+      <c r="K36" s="422"/>
+      <c r="L36" s="422"/>
+      <c r="M36" s="422"/>
+      <c r="N36" s="422"/>
+      <c r="O36" s="422"/>
+      <c r="P36" s="422"/>
+      <c r="Q36" s="422"/>
       <c r="R36" s="109">
         <v>358.55</v>
       </c>
@@ -13085,24 +13156,24 @@
       <c r="B37" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C37" s="420"/>
-      <c r="D37" s="421"/>
-      <c r="E37" s="420"/>
-      <c r="F37" s="420"/>
-      <c r="G37" s="422"/>
+      <c r="C37" s="419"/>
+      <c r="D37" s="420"/>
+      <c r="E37" s="419"/>
+      <c r="F37" s="419"/>
+      <c r="G37" s="421"/>
       <c r="H37" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I37" s="425"/>
-      <c r="J37" s="425"/>
-      <c r="K37" s="425"/>
-      <c r="L37" s="425"/>
-      <c r="M37" s="425"/>
-      <c r="N37" s="425"/>
-      <c r="O37" s="425"/>
-      <c r="P37" s="425"/>
-      <c r="Q37" s="425"/>
+      <c r="I37" s="422"/>
+      <c r="J37" s="422"/>
+      <c r="K37" s="422"/>
+      <c r="L37" s="422"/>
+      <c r="M37" s="422"/>
+      <c r="N37" s="422"/>
+      <c r="O37" s="422"/>
+      <c r="P37" s="422"/>
+      <c r="Q37" s="422"/>
       <c r="R37" s="109">
         <v>358.55</v>
       </c>
@@ -13114,24 +13185,24 @@
       <c r="B38" s="121">
         <v>2537.5100000000002</v>
       </c>
-      <c r="C38" s="420"/>
-      <c r="D38" s="421"/>
-      <c r="E38" s="420"/>
-      <c r="F38" s="420"/>
-      <c r="G38" s="422"/>
+      <c r="C38" s="419"/>
+      <c r="D38" s="420"/>
+      <c r="E38" s="419"/>
+      <c r="F38" s="419"/>
+      <c r="G38" s="421"/>
       <c r="H38" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I38" s="425"/>
-      <c r="J38" s="425"/>
-      <c r="K38" s="425"/>
-      <c r="L38" s="425"/>
-      <c r="M38" s="425"/>
-      <c r="N38" s="425"/>
-      <c r="O38" s="425"/>
-      <c r="P38" s="425"/>
-      <c r="Q38" s="425"/>
+      <c r="I38" s="422"/>
+      <c r="J38" s="422"/>
+      <c r="K38" s="422"/>
+      <c r="L38" s="422"/>
+      <c r="M38" s="422"/>
+      <c r="N38" s="422"/>
+      <c r="O38" s="422"/>
+      <c r="P38" s="422"/>
+      <c r="Q38" s="422"/>
       <c r="R38" s="109">
         <v>358.55</v>
       </c>
@@ -13143,24 +13214,24 @@
       <c r="B39" s="121">
         <v>2087.52</v>
       </c>
-      <c r="C39" s="420"/>
-      <c r="D39" s="421"/>
-      <c r="E39" s="420"/>
-      <c r="F39" s="420"/>
-      <c r="G39" s="422"/>
+      <c r="C39" s="419"/>
+      <c r="D39" s="420"/>
+      <c r="E39" s="419"/>
+      <c r="F39" s="419"/>
+      <c r="G39" s="421"/>
       <c r="H39" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I39" s="425"/>
-      <c r="J39" s="425"/>
-      <c r="K39" s="425"/>
-      <c r="L39" s="425"/>
-      <c r="M39" s="425"/>
-      <c r="N39" s="425"/>
-      <c r="O39" s="425"/>
-      <c r="P39" s="425"/>
-      <c r="Q39" s="425"/>
+      <c r="I39" s="422"/>
+      <c r="J39" s="422"/>
+      <c r="K39" s="422"/>
+      <c r="L39" s="422"/>
+      <c r="M39" s="422"/>
+      <c r="N39" s="422"/>
+      <c r="O39" s="422"/>
+      <c r="P39" s="422"/>
+      <c r="Q39" s="422"/>
       <c r="R39" s="109">
         <v>358.55</v>
       </c>
@@ -13172,24 +13243,24 @@
       <c r="B40" s="121">
         <v>2087.5300000000002</v>
       </c>
-      <c r="C40" s="420"/>
-      <c r="D40" s="421"/>
-      <c r="E40" s="420"/>
-      <c r="F40" s="420"/>
-      <c r="G40" s="422"/>
+      <c r="C40" s="419"/>
+      <c r="D40" s="420"/>
+      <c r="E40" s="419"/>
+      <c r="F40" s="419"/>
+      <c r="G40" s="421"/>
       <c r="H40" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I40" s="425"/>
-      <c r="J40" s="425"/>
-      <c r="K40" s="425"/>
-      <c r="L40" s="425"/>
-      <c r="M40" s="425"/>
-      <c r="N40" s="425"/>
-      <c r="O40" s="425"/>
-      <c r="P40" s="425"/>
-      <c r="Q40" s="425"/>
+      <c r="I40" s="422"/>
+      <c r="J40" s="422"/>
+      <c r="K40" s="422"/>
+      <c r="L40" s="422"/>
+      <c r="M40" s="422"/>
+      <c r="N40" s="422"/>
+      <c r="O40" s="422"/>
+      <c r="P40" s="422"/>
+      <c r="Q40" s="422"/>
       <c r="R40" s="109">
         <v>358.55</v>
       </c>
@@ -13201,38 +13272,38 @@
       <c r="B41" s="121">
         <v>2362.48</v>
       </c>
-      <c r="C41" s="420">
+      <c r="C41" s="419">
         <v>52.72</v>
       </c>
-      <c r="D41" s="421">
+      <c r="D41" s="420">
         <f>IF(B46&gt;0,SUM(B41:B46)-C41,0)</f>
         <v>13224.73</v>
       </c>
-      <c r="E41" s="420">
+      <c r="E41" s="419">
         <v>6.2213000000000003</v>
       </c>
-      <c r="F41" s="420">
+      <c r="F41" s="419">
         <v>26.89</v>
       </c>
-      <c r="G41" s="422">
+      <c r="G41" s="421">
         <v>93</v>
       </c>
       <c r="H41" s="120">
         <f t="shared" si="1"/>
         <v>95.527500000000003</v>
       </c>
-      <c r="I41" s="425">
+      <c r="I41" s="422">
         <f>IF($D$2&gt;F41,G41*($D$2-F41)*0.2,0)</f>
         <v>53.195999999999998</v>
       </c>
-      <c r="J41" s="425"/>
-      <c r="K41" s="425"/>
-      <c r="L41" s="425"/>
-      <c r="M41" s="425"/>
-      <c r="N41" s="425"/>
-      <c r="O41" s="425"/>
-      <c r="P41" s="425"/>
-      <c r="Q41" s="425"/>
+      <c r="J41" s="422"/>
+      <c r="K41" s="422"/>
+      <c r="L41" s="422"/>
+      <c r="M41" s="422"/>
+      <c r="N41" s="422"/>
+      <c r="O41" s="422"/>
+      <c r="P41" s="422"/>
+      <c r="Q41" s="422"/>
       <c r="R41" s="109">
         <v>381.97</v>
       </c>
@@ -13244,24 +13315,24 @@
       <c r="B42" s="121">
         <v>2174.98</v>
       </c>
-      <c r="C42" s="420"/>
-      <c r="D42" s="421"/>
-      <c r="E42" s="420"/>
-      <c r="F42" s="420"/>
-      <c r="G42" s="422"/>
+      <c r="C42" s="419"/>
+      <c r="D42" s="420"/>
+      <c r="E42" s="419"/>
+      <c r="F42" s="419"/>
+      <c r="G42" s="421"/>
       <c r="H42" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="425"/>
-      <c r="J42" s="425"/>
-      <c r="K42" s="425"/>
-      <c r="L42" s="425"/>
-      <c r="M42" s="425"/>
-      <c r="N42" s="425"/>
-      <c r="O42" s="425"/>
-      <c r="P42" s="425"/>
-      <c r="Q42" s="425"/>
+      <c r="I42" s="422"/>
+      <c r="J42" s="422"/>
+      <c r="K42" s="422"/>
+      <c r="L42" s="422"/>
+      <c r="M42" s="422"/>
+      <c r="N42" s="422"/>
+      <c r="O42" s="422"/>
+      <c r="P42" s="422"/>
+      <c r="Q42" s="422"/>
       <c r="R42" s="109">
         <v>381.97</v>
       </c>
@@ -13273,24 +13344,24 @@
       <c r="B43" s="121">
         <v>2265</v>
       </c>
-      <c r="C43" s="420"/>
-      <c r="D43" s="421"/>
-      <c r="E43" s="420"/>
-      <c r="F43" s="420"/>
-      <c r="G43" s="422"/>
+      <c r="C43" s="419"/>
+      <c r="D43" s="420"/>
+      <c r="E43" s="419"/>
+      <c r="F43" s="419"/>
+      <c r="G43" s="421"/>
       <c r="H43" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I43" s="425"/>
-      <c r="J43" s="425"/>
-      <c r="K43" s="425"/>
-      <c r="L43" s="425"/>
-      <c r="M43" s="425"/>
-      <c r="N43" s="425"/>
-      <c r="O43" s="425"/>
-      <c r="P43" s="425"/>
-      <c r="Q43" s="425"/>
+      <c r="I43" s="422"/>
+      <c r="J43" s="422"/>
+      <c r="K43" s="422"/>
+      <c r="L43" s="422"/>
+      <c r="M43" s="422"/>
+      <c r="N43" s="422"/>
+      <c r="O43" s="422"/>
+      <c r="P43" s="422"/>
+      <c r="Q43" s="422"/>
       <c r="R43" s="109">
         <v>381.97</v>
       </c>
@@ -13302,24 +13373,24 @@
       <c r="B44" s="121">
         <v>2087.5</v>
       </c>
-      <c r="C44" s="420"/>
-      <c r="D44" s="421"/>
-      <c r="E44" s="420"/>
-      <c r="F44" s="420"/>
-      <c r="G44" s="422"/>
+      <c r="C44" s="419"/>
+      <c r="D44" s="420"/>
+      <c r="E44" s="419"/>
+      <c r="F44" s="419"/>
+      <c r="G44" s="421"/>
       <c r="H44" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44" s="425"/>
-      <c r="J44" s="425"/>
-      <c r="K44" s="425"/>
-      <c r="L44" s="425"/>
-      <c r="M44" s="425"/>
-      <c r="N44" s="425"/>
-      <c r="O44" s="425"/>
-      <c r="P44" s="425"/>
-      <c r="Q44" s="425"/>
+      <c r="I44" s="422"/>
+      <c r="J44" s="422"/>
+      <c r="K44" s="422"/>
+      <c r="L44" s="422"/>
+      <c r="M44" s="422"/>
+      <c r="N44" s="422"/>
+      <c r="O44" s="422"/>
+      <c r="P44" s="422"/>
+      <c r="Q44" s="422"/>
       <c r="R44" s="109">
         <v>381.97</v>
       </c>
@@ -13331,24 +13402,24 @@
       <c r="B45" s="121">
         <v>2087.48</v>
       </c>
-      <c r="C45" s="420"/>
-      <c r="D45" s="421"/>
-      <c r="E45" s="420"/>
-      <c r="F45" s="420"/>
-      <c r="G45" s="422"/>
+      <c r="C45" s="419"/>
+      <c r="D45" s="420"/>
+      <c r="E45" s="419"/>
+      <c r="F45" s="419"/>
+      <c r="G45" s="421"/>
       <c r="H45" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45" s="425"/>
-      <c r="J45" s="425"/>
-      <c r="K45" s="425"/>
-      <c r="L45" s="425"/>
-      <c r="M45" s="425"/>
-      <c r="N45" s="425"/>
-      <c r="O45" s="425"/>
-      <c r="P45" s="425"/>
-      <c r="Q45" s="425"/>
+      <c r="I45" s="422"/>
+      <c r="J45" s="422"/>
+      <c r="K45" s="422"/>
+      <c r="L45" s="422"/>
+      <c r="M45" s="422"/>
+      <c r="N45" s="422"/>
+      <c r="O45" s="422"/>
+      <c r="P45" s="422"/>
+      <c r="Q45" s="422"/>
       <c r="R45" s="109">
         <v>381.97</v>
       </c>
@@ -13360,24 +13431,24 @@
       <c r="B46" s="121">
         <v>2300.0100000000002</v>
       </c>
-      <c r="C46" s="420"/>
-      <c r="D46" s="421"/>
-      <c r="E46" s="420"/>
-      <c r="F46" s="420"/>
-      <c r="G46" s="422"/>
+      <c r="C46" s="419"/>
+      <c r="D46" s="420"/>
+      <c r="E46" s="419"/>
+      <c r="F46" s="419"/>
+      <c r="G46" s="421"/>
       <c r="H46" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46" s="425"/>
-      <c r="J46" s="425"/>
-      <c r="K46" s="425"/>
-      <c r="L46" s="425"/>
-      <c r="M46" s="425"/>
-      <c r="N46" s="425"/>
-      <c r="O46" s="425"/>
-      <c r="P46" s="425"/>
-      <c r="Q46" s="425"/>
+      <c r="I46" s="422"/>
+      <c r="J46" s="422"/>
+      <c r="K46" s="422"/>
+      <c r="L46" s="422"/>
+      <c r="M46" s="422"/>
+      <c r="N46" s="422"/>
+      <c r="O46" s="422"/>
+      <c r="P46" s="422"/>
+      <c r="Q46" s="422"/>
       <c r="R46" s="109">
         <v>381.97</v>
       </c>
@@ -13389,38 +13460,38 @@
       <c r="B47" s="121">
         <v>3787.17</v>
       </c>
-      <c r="C47" s="420">
-        <v>0</v>
-      </c>
-      <c r="D47" s="421">
+      <c r="C47" s="419">
+        <v>0</v>
+      </c>
+      <c r="D47" s="420">
         <f>IF(B52&gt;0,SUM(B47:B52)-C47,0)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="420">
+      <c r="E47" s="419">
         <v>6.2</v>
       </c>
-      <c r="F47" s="420">
+      <c r="F47" s="419">
         <v>25.3</v>
       </c>
-      <c r="G47" s="422">
+      <c r="G47" s="421">
         <v>0</v>
       </c>
       <c r="H47" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="425">
+      <c r="I47" s="422">
         <f>IF($D$2&gt;F47,G47*($D$2-F47)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="425"/>
-      <c r="K47" s="425"/>
-      <c r="L47" s="425"/>
-      <c r="M47" s="425"/>
-      <c r="N47" s="425"/>
-      <c r="O47" s="425"/>
-      <c r="P47" s="425"/>
-      <c r="Q47" s="425"/>
+      <c r="J47" s="422"/>
+      <c r="K47" s="422"/>
+      <c r="L47" s="422"/>
+      <c r="M47" s="422"/>
+      <c r="N47" s="422"/>
+      <c r="O47" s="422"/>
+      <c r="P47" s="422"/>
+      <c r="Q47" s="422"/>
       <c r="R47" s="109">
         <v>382.11</v>
       </c>
@@ -13432,24 +13503,24 @@
       <c r="B48" s="121">
         <v>0</v>
       </c>
-      <c r="C48" s="420"/>
-      <c r="D48" s="421"/>
-      <c r="E48" s="420"/>
-      <c r="F48" s="420"/>
-      <c r="G48" s="422"/>
+      <c r="C48" s="419"/>
+      <c r="D48" s="420"/>
+      <c r="E48" s="419"/>
+      <c r="F48" s="419"/>
+      <c r="G48" s="421"/>
       <c r="H48" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48" s="425"/>
-      <c r="J48" s="425"/>
-      <c r="K48" s="425"/>
-      <c r="L48" s="425"/>
-      <c r="M48" s="425"/>
-      <c r="N48" s="425"/>
-      <c r="O48" s="425"/>
-      <c r="P48" s="425"/>
-      <c r="Q48" s="425"/>
+      <c r="I48" s="422"/>
+      <c r="J48" s="422"/>
+      <c r="K48" s="422"/>
+      <c r="L48" s="422"/>
+      <c r="M48" s="422"/>
+      <c r="N48" s="422"/>
+      <c r="O48" s="422"/>
+      <c r="P48" s="422"/>
+      <c r="Q48" s="422"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
@@ -13458,24 +13529,24 @@
       <c r="B49" s="121">
         <v>0</v>
       </c>
-      <c r="C49" s="420"/>
-      <c r="D49" s="421"/>
-      <c r="E49" s="420"/>
-      <c r="F49" s="420"/>
-      <c r="G49" s="422"/>
+      <c r="C49" s="419"/>
+      <c r="D49" s="420"/>
+      <c r="E49" s="419"/>
+      <c r="F49" s="419"/>
+      <c r="G49" s="421"/>
       <c r="H49" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I49" s="425"/>
-      <c r="J49" s="425"/>
-      <c r="K49" s="425"/>
-      <c r="L49" s="425"/>
-      <c r="M49" s="425"/>
-      <c r="N49" s="425"/>
-      <c r="O49" s="425"/>
-      <c r="P49" s="425"/>
-      <c r="Q49" s="425"/>
+      <c r="I49" s="422"/>
+      <c r="J49" s="422"/>
+      <c r="K49" s="422"/>
+      <c r="L49" s="422"/>
+      <c r="M49" s="422"/>
+      <c r="N49" s="422"/>
+      <c r="O49" s="422"/>
+      <c r="P49" s="422"/>
+      <c r="Q49" s="422"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
@@ -13484,24 +13555,24 @@
       <c r="B50" s="121">
         <v>0</v>
       </c>
-      <c r="C50" s="420"/>
-      <c r="D50" s="421"/>
-      <c r="E50" s="420"/>
-      <c r="F50" s="420"/>
-      <c r="G50" s="422"/>
+      <c r="C50" s="419"/>
+      <c r="D50" s="420"/>
+      <c r="E50" s="419"/>
+      <c r="F50" s="419"/>
+      <c r="G50" s="421"/>
       <c r="H50" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I50" s="425"/>
-      <c r="J50" s="425"/>
-      <c r="K50" s="425"/>
-      <c r="L50" s="425"/>
-      <c r="M50" s="425"/>
-      <c r="N50" s="425"/>
-      <c r="O50" s="425"/>
-      <c r="P50" s="425"/>
-      <c r="Q50" s="425"/>
+      <c r="I50" s="422"/>
+      <c r="J50" s="422"/>
+      <c r="K50" s="422"/>
+      <c r="L50" s="422"/>
+      <c r="M50" s="422"/>
+      <c r="N50" s="422"/>
+      <c r="O50" s="422"/>
+      <c r="P50" s="422"/>
+      <c r="Q50" s="422"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
@@ -13510,24 +13581,24 @@
       <c r="B51" s="121">
         <v>0</v>
       </c>
-      <c r="C51" s="420"/>
-      <c r="D51" s="421"/>
-      <c r="E51" s="420"/>
-      <c r="F51" s="420"/>
-      <c r="G51" s="422"/>
+      <c r="C51" s="419"/>
+      <c r="D51" s="420"/>
+      <c r="E51" s="419"/>
+      <c r="F51" s="419"/>
+      <c r="G51" s="421"/>
       <c r="H51" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I51" s="425"/>
-      <c r="J51" s="425"/>
-      <c r="K51" s="425"/>
-      <c r="L51" s="425"/>
-      <c r="M51" s="425"/>
-      <c r="N51" s="425"/>
-      <c r="O51" s="425"/>
-      <c r="P51" s="425"/>
-      <c r="Q51" s="425"/>
+      <c r="I51" s="422"/>
+      <c r="J51" s="422"/>
+      <c r="K51" s="422"/>
+      <c r="L51" s="422"/>
+      <c r="M51" s="422"/>
+      <c r="N51" s="422"/>
+      <c r="O51" s="422"/>
+      <c r="P51" s="422"/>
+      <c r="Q51" s="422"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
@@ -13536,24 +13607,24 @@
       <c r="B52" s="121">
         <v>0</v>
       </c>
-      <c r="C52" s="420"/>
-      <c r="D52" s="421"/>
-      <c r="E52" s="420"/>
-      <c r="F52" s="420"/>
-      <c r="G52" s="422"/>
+      <c r="C52" s="419"/>
+      <c r="D52" s="420"/>
+      <c r="E52" s="419"/>
+      <c r="F52" s="419"/>
+      <c r="G52" s="421"/>
       <c r="H52" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I52" s="425"/>
-      <c r="J52" s="425"/>
-      <c r="K52" s="425"/>
-      <c r="L52" s="425"/>
-      <c r="M52" s="425"/>
-      <c r="N52" s="425"/>
-      <c r="O52" s="425"/>
-      <c r="P52" s="425"/>
-      <c r="Q52" s="425"/>
+      <c r="I52" s="422"/>
+      <c r="J52" s="422"/>
+      <c r="K52" s="422"/>
+      <c r="L52" s="422"/>
+      <c r="M52" s="422"/>
+      <c r="N52" s="422"/>
+      <c r="O52" s="422"/>
+      <c r="P52" s="422"/>
+      <c r="Q52" s="422"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
@@ -13562,38 +13633,38 @@
       <c r="B53" s="121">
         <v>0</v>
       </c>
-      <c r="C53" s="420">
-        <v>0</v>
-      </c>
-      <c r="D53" s="421">
+      <c r="C53" s="419">
+        <v>0</v>
+      </c>
+      <c r="D53" s="420">
         <f>IF(B58&gt;0,SUM(B53:B58)-C53,0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="420">
+      <c r="E53" s="419">
         <v>6.2</v>
       </c>
-      <c r="F53" s="420">
+      <c r="F53" s="419">
         <v>25.3</v>
       </c>
-      <c r="G53" s="422">
+      <c r="G53" s="421">
         <v>0</v>
       </c>
       <c r="H53" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I53" s="425">
+      <c r="I53" s="422">
         <f>IF($D$2&gt;F53,G53*($D$2-F53)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J53" s="425"/>
-      <c r="K53" s="425"/>
-      <c r="L53" s="425"/>
-      <c r="M53" s="425"/>
-      <c r="N53" s="425"/>
-      <c r="O53" s="425"/>
-      <c r="P53" s="425"/>
-      <c r="Q53" s="425"/>
+      <c r="J53" s="422"/>
+      <c r="K53" s="422"/>
+      <c r="L53" s="422"/>
+      <c r="M53" s="422"/>
+      <c r="N53" s="422"/>
+      <c r="O53" s="422"/>
+      <c r="P53" s="422"/>
+      <c r="Q53" s="422"/>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
@@ -13602,24 +13673,24 @@
       <c r="B54" s="121">
         <v>0</v>
       </c>
-      <c r="C54" s="420"/>
-      <c r="D54" s="421"/>
-      <c r="E54" s="420"/>
-      <c r="F54" s="420"/>
-      <c r="G54" s="422"/>
+      <c r="C54" s="419"/>
+      <c r="D54" s="420"/>
+      <c r="E54" s="419"/>
+      <c r="F54" s="419"/>
+      <c r="G54" s="421"/>
       <c r="H54" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I54" s="425"/>
-      <c r="J54" s="425"/>
-      <c r="K54" s="425"/>
-      <c r="L54" s="425"/>
-      <c r="M54" s="425"/>
-      <c r="N54" s="425"/>
-      <c r="O54" s="425"/>
-      <c r="P54" s="425"/>
-      <c r="Q54" s="425"/>
+      <c r="I54" s="422"/>
+      <c r="J54" s="422"/>
+      <c r="K54" s="422"/>
+      <c r="L54" s="422"/>
+      <c r="M54" s="422"/>
+      <c r="N54" s="422"/>
+      <c r="O54" s="422"/>
+      <c r="P54" s="422"/>
+      <c r="Q54" s="422"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
@@ -13628,24 +13699,24 @@
       <c r="B55" s="121">
         <v>0</v>
       </c>
-      <c r="C55" s="420"/>
-      <c r="D55" s="421"/>
-      <c r="E55" s="420"/>
-      <c r="F55" s="420"/>
-      <c r="G55" s="422"/>
+      <c r="C55" s="419"/>
+      <c r="D55" s="420"/>
+      <c r="E55" s="419"/>
+      <c r="F55" s="419"/>
+      <c r="G55" s="421"/>
       <c r="H55" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I55" s="425"/>
-      <c r="J55" s="425"/>
-      <c r="K55" s="425"/>
-      <c r="L55" s="425"/>
-      <c r="M55" s="425"/>
-      <c r="N55" s="425"/>
-      <c r="O55" s="425"/>
-      <c r="P55" s="425"/>
-      <c r="Q55" s="425"/>
+      <c r="I55" s="422"/>
+      <c r="J55" s="422"/>
+      <c r="K55" s="422"/>
+      <c r="L55" s="422"/>
+      <c r="M55" s="422"/>
+      <c r="N55" s="422"/>
+      <c r="O55" s="422"/>
+      <c r="P55" s="422"/>
+      <c r="Q55" s="422"/>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
@@ -13654,24 +13725,24 @@
       <c r="B56" s="121">
         <v>0</v>
       </c>
-      <c r="C56" s="420"/>
-      <c r="D56" s="421"/>
-      <c r="E56" s="420"/>
-      <c r="F56" s="420"/>
-      <c r="G56" s="422"/>
+      <c r="C56" s="419"/>
+      <c r="D56" s="420"/>
+      <c r="E56" s="419"/>
+      <c r="F56" s="419"/>
+      <c r="G56" s="421"/>
       <c r="H56" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I56" s="425"/>
-      <c r="J56" s="425"/>
-      <c r="K56" s="425"/>
-      <c r="L56" s="425"/>
-      <c r="M56" s="425"/>
-      <c r="N56" s="425"/>
-      <c r="O56" s="425"/>
-      <c r="P56" s="425"/>
-      <c r="Q56" s="425"/>
+      <c r="I56" s="422"/>
+      <c r="J56" s="422"/>
+      <c r="K56" s="422"/>
+      <c r="L56" s="422"/>
+      <c r="M56" s="422"/>
+      <c r="N56" s="422"/>
+      <c r="O56" s="422"/>
+      <c r="P56" s="422"/>
+      <c r="Q56" s="422"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
@@ -13680,24 +13751,24 @@
       <c r="B57" s="121">
         <v>0</v>
       </c>
-      <c r="C57" s="420"/>
-      <c r="D57" s="421"/>
-      <c r="E57" s="420"/>
-      <c r="F57" s="420"/>
-      <c r="G57" s="422"/>
+      <c r="C57" s="419"/>
+      <c r="D57" s="420"/>
+      <c r="E57" s="419"/>
+      <c r="F57" s="419"/>
+      <c r="G57" s="421"/>
       <c r="H57" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I57" s="425"/>
-      <c r="J57" s="425"/>
-      <c r="K57" s="425"/>
-      <c r="L57" s="425"/>
-      <c r="M57" s="425"/>
-      <c r="N57" s="425"/>
-      <c r="O57" s="425"/>
-      <c r="P57" s="425"/>
-      <c r="Q57" s="425"/>
+      <c r="I57" s="422"/>
+      <c r="J57" s="422"/>
+      <c r="K57" s="422"/>
+      <c r="L57" s="422"/>
+      <c r="M57" s="422"/>
+      <c r="N57" s="422"/>
+      <c r="O57" s="422"/>
+      <c r="P57" s="422"/>
+      <c r="Q57" s="422"/>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
@@ -13706,24 +13777,24 @@
       <c r="B58" s="121">
         <v>0</v>
       </c>
-      <c r="C58" s="420"/>
-      <c r="D58" s="421"/>
-      <c r="E58" s="420"/>
-      <c r="F58" s="420"/>
-      <c r="G58" s="422"/>
+      <c r="C58" s="419"/>
+      <c r="D58" s="420"/>
+      <c r="E58" s="419"/>
+      <c r="F58" s="419"/>
+      <c r="G58" s="421"/>
       <c r="H58" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I58" s="425"/>
-      <c r="J58" s="425"/>
-      <c r="K58" s="425"/>
-      <c r="L58" s="425"/>
-      <c r="M58" s="425"/>
-      <c r="N58" s="425"/>
-      <c r="O58" s="425"/>
-      <c r="P58" s="425"/>
-      <c r="Q58" s="425"/>
+      <c r="I58" s="422"/>
+      <c r="J58" s="422"/>
+      <c r="K58" s="422"/>
+      <c r="L58" s="422"/>
+      <c r="M58" s="422"/>
+      <c r="N58" s="422"/>
+      <c r="O58" s="422"/>
+      <c r="P58" s="422"/>
+      <c r="Q58" s="422"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
@@ -13732,38 +13803,38 @@
       <c r="B59" s="121">
         <v>0</v>
       </c>
-      <c r="C59" s="420">
-        <v>0</v>
-      </c>
-      <c r="D59" s="421">
+      <c r="C59" s="419">
+        <v>0</v>
+      </c>
+      <c r="D59" s="420">
         <f>IF(B64&gt;0,SUM(B59:B64)-C59,0)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="420">
+      <c r="E59" s="419">
         <v>6.2</v>
       </c>
-      <c r="F59" s="420">
+      <c r="F59" s="419">
         <v>25.3</v>
       </c>
-      <c r="G59" s="422">
+      <c r="G59" s="421">
         <v>0</v>
       </c>
       <c r="H59" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I59" s="425">
+      <c r="I59" s="422">
         <f>IF($D$2&gt;F59,G59*($D$2-F59)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="425"/>
-      <c r="K59" s="425"/>
-      <c r="L59" s="425"/>
-      <c r="M59" s="425"/>
-      <c r="N59" s="425"/>
-      <c r="O59" s="425"/>
-      <c r="P59" s="425"/>
-      <c r="Q59" s="425"/>
+      <c r="J59" s="422"/>
+      <c r="K59" s="422"/>
+      <c r="L59" s="422"/>
+      <c r="M59" s="422"/>
+      <c r="N59" s="422"/>
+      <c r="O59" s="422"/>
+      <c r="P59" s="422"/>
+      <c r="Q59" s="422"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
@@ -13772,24 +13843,24 @@
       <c r="B60" s="121">
         <v>0</v>
       </c>
-      <c r="C60" s="420"/>
-      <c r="D60" s="421"/>
-      <c r="E60" s="420"/>
-      <c r="F60" s="420"/>
-      <c r="G60" s="422"/>
+      <c r="C60" s="419"/>
+      <c r="D60" s="420"/>
+      <c r="E60" s="419"/>
+      <c r="F60" s="419"/>
+      <c r="G60" s="421"/>
       <c r="H60" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I60" s="425"/>
-      <c r="J60" s="425"/>
-      <c r="K60" s="425"/>
-      <c r="L60" s="425"/>
-      <c r="M60" s="425"/>
-      <c r="N60" s="425"/>
-      <c r="O60" s="425"/>
-      <c r="P60" s="425"/>
-      <c r="Q60" s="425"/>
+      <c r="I60" s="422"/>
+      <c r="J60" s="422"/>
+      <c r="K60" s="422"/>
+      <c r="L60" s="422"/>
+      <c r="M60" s="422"/>
+      <c r="N60" s="422"/>
+      <c r="O60" s="422"/>
+      <c r="P60" s="422"/>
+      <c r="Q60" s="422"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
@@ -13798,24 +13869,24 @@
       <c r="B61" s="121">
         <v>0</v>
       </c>
-      <c r="C61" s="420"/>
-      <c r="D61" s="421"/>
-      <c r="E61" s="420"/>
-      <c r="F61" s="420"/>
-      <c r="G61" s="422"/>
+      <c r="C61" s="419"/>
+      <c r="D61" s="420"/>
+      <c r="E61" s="419"/>
+      <c r="F61" s="419"/>
+      <c r="G61" s="421"/>
       <c r="H61" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I61" s="425"/>
-      <c r="J61" s="425"/>
-      <c r="K61" s="425"/>
-      <c r="L61" s="425"/>
-      <c r="M61" s="425"/>
-      <c r="N61" s="425"/>
-      <c r="O61" s="425"/>
-      <c r="P61" s="425"/>
-      <c r="Q61" s="425"/>
+      <c r="I61" s="422"/>
+      <c r="J61" s="422"/>
+      <c r="K61" s="422"/>
+      <c r="L61" s="422"/>
+      <c r="M61" s="422"/>
+      <c r="N61" s="422"/>
+      <c r="O61" s="422"/>
+      <c r="P61" s="422"/>
+      <c r="Q61" s="422"/>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
@@ -13824,24 +13895,24 @@
       <c r="B62" s="121">
         <v>0</v>
       </c>
-      <c r="C62" s="420"/>
-      <c r="D62" s="421"/>
-      <c r="E62" s="420"/>
-      <c r="F62" s="420"/>
-      <c r="G62" s="422"/>
+      <c r="C62" s="419"/>
+      <c r="D62" s="420"/>
+      <c r="E62" s="419"/>
+      <c r="F62" s="419"/>
+      <c r="G62" s="421"/>
       <c r="H62" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I62" s="425"/>
-      <c r="J62" s="425"/>
-      <c r="K62" s="425"/>
-      <c r="L62" s="425"/>
-      <c r="M62" s="425"/>
-      <c r="N62" s="425"/>
-      <c r="O62" s="425"/>
-      <c r="P62" s="425"/>
-      <c r="Q62" s="425"/>
+      <c r="I62" s="422"/>
+      <c r="J62" s="422"/>
+      <c r="K62" s="422"/>
+      <c r="L62" s="422"/>
+      <c r="M62" s="422"/>
+      <c r="N62" s="422"/>
+      <c r="O62" s="422"/>
+      <c r="P62" s="422"/>
+      <c r="Q62" s="422"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
@@ -13850,24 +13921,24 @@
       <c r="B63" s="121">
         <v>0</v>
       </c>
-      <c r="C63" s="420"/>
-      <c r="D63" s="421"/>
-      <c r="E63" s="420"/>
-      <c r="F63" s="420"/>
-      <c r="G63" s="422"/>
+      <c r="C63" s="419"/>
+      <c r="D63" s="420"/>
+      <c r="E63" s="419"/>
+      <c r="F63" s="419"/>
+      <c r="G63" s="421"/>
       <c r="H63" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I63" s="425"/>
-      <c r="J63" s="425"/>
-      <c r="K63" s="425"/>
-      <c r="L63" s="425"/>
-      <c r="M63" s="425"/>
-      <c r="N63" s="425"/>
-      <c r="O63" s="425"/>
-      <c r="P63" s="425"/>
-      <c r="Q63" s="425"/>
+      <c r="I63" s="422"/>
+      <c r="J63" s="422"/>
+      <c r="K63" s="422"/>
+      <c r="L63" s="422"/>
+      <c r="M63" s="422"/>
+      <c r="N63" s="422"/>
+      <c r="O63" s="422"/>
+      <c r="P63" s="422"/>
+      <c r="Q63" s="422"/>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
@@ -13876,24 +13947,24 @@
       <c r="B64" s="121">
         <v>0</v>
       </c>
-      <c r="C64" s="420"/>
-      <c r="D64" s="421"/>
-      <c r="E64" s="420"/>
-      <c r="F64" s="420"/>
-      <c r="G64" s="422"/>
+      <c r="C64" s="419"/>
+      <c r="D64" s="420"/>
+      <c r="E64" s="419"/>
+      <c r="F64" s="419"/>
+      <c r="G64" s="421"/>
       <c r="H64" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I64" s="425"/>
-      <c r="J64" s="425"/>
-      <c r="K64" s="425"/>
-      <c r="L64" s="425"/>
-      <c r="M64" s="425"/>
-      <c r="N64" s="425"/>
-      <c r="O64" s="425"/>
-      <c r="P64" s="425"/>
-      <c r="Q64" s="425"/>
+      <c r="I64" s="422"/>
+      <c r="J64" s="422"/>
+      <c r="K64" s="422"/>
+      <c r="L64" s="422"/>
+      <c r="M64" s="422"/>
+      <c r="N64" s="422"/>
+      <c r="O64" s="422"/>
+      <c r="P64" s="422"/>
+      <c r="Q64" s="422"/>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1">
@@ -13902,38 +13973,38 @@
       <c r="B65" s="121">
         <v>0</v>
       </c>
-      <c r="C65" s="420">
-        <v>0</v>
-      </c>
-      <c r="D65" s="421">
+      <c r="C65" s="419">
+        <v>0</v>
+      </c>
+      <c r="D65" s="420">
         <f>IF(B70&gt;0,SUM(B65:B70)-C65,0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="420">
+      <c r="E65" s="419">
         <v>6.2</v>
       </c>
-      <c r="F65" s="420">
+      <c r="F65" s="419">
         <v>25.3</v>
       </c>
-      <c r="G65" s="422">
+      <c r="G65" s="421">
         <v>0</v>
       </c>
       <c r="H65" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I65" s="425">
+      <c r="I65" s="422">
         <f>IF($D$2&gt;F65,G65*($D$2-F65)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="425"/>
-      <c r="K65" s="425"/>
-      <c r="L65" s="425"/>
-      <c r="M65" s="425"/>
-      <c r="N65" s="425"/>
-      <c r="O65" s="425"/>
-      <c r="P65" s="425"/>
-      <c r="Q65" s="425"/>
+      <c r="J65" s="422"/>
+      <c r="K65" s="422"/>
+      <c r="L65" s="422"/>
+      <c r="M65" s="422"/>
+      <c r="N65" s="422"/>
+      <c r="O65" s="422"/>
+      <c r="P65" s="422"/>
+      <c r="Q65" s="422"/>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1">
@@ -13942,24 +14013,24 @@
       <c r="B66" s="121">
         <v>0</v>
       </c>
-      <c r="C66" s="420"/>
-      <c r="D66" s="421"/>
-      <c r="E66" s="420"/>
-      <c r="F66" s="420"/>
-      <c r="G66" s="422"/>
+      <c r="C66" s="419"/>
+      <c r="D66" s="420"/>
+      <c r="E66" s="419"/>
+      <c r="F66" s="419"/>
+      <c r="G66" s="421"/>
       <c r="H66" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I66" s="425"/>
-      <c r="J66" s="425"/>
-      <c r="K66" s="425"/>
-      <c r="L66" s="425"/>
-      <c r="M66" s="425"/>
-      <c r="N66" s="425"/>
-      <c r="O66" s="425"/>
-      <c r="P66" s="425"/>
-      <c r="Q66" s="425"/>
+      <c r="I66" s="422"/>
+      <c r="J66" s="422"/>
+      <c r="K66" s="422"/>
+      <c r="L66" s="422"/>
+      <c r="M66" s="422"/>
+      <c r="N66" s="422"/>
+      <c r="O66" s="422"/>
+      <c r="P66" s="422"/>
+      <c r="Q66" s="422"/>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1">
@@ -13968,24 +14039,24 @@
       <c r="B67" s="121">
         <v>0</v>
       </c>
-      <c r="C67" s="420"/>
-      <c r="D67" s="421"/>
-      <c r="E67" s="420"/>
-      <c r="F67" s="420"/>
-      <c r="G67" s="422"/>
+      <c r="C67" s="419"/>
+      <c r="D67" s="420"/>
+      <c r="E67" s="419"/>
+      <c r="F67" s="419"/>
+      <c r="G67" s="421"/>
       <c r="H67" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I67" s="425"/>
-      <c r="J67" s="425"/>
-      <c r="K67" s="425"/>
-      <c r="L67" s="425"/>
-      <c r="M67" s="425"/>
-      <c r="N67" s="425"/>
-      <c r="O67" s="425"/>
-      <c r="P67" s="425"/>
-      <c r="Q67" s="425"/>
+      <c r="I67" s="422"/>
+      <c r="J67" s="422"/>
+      <c r="K67" s="422"/>
+      <c r="L67" s="422"/>
+      <c r="M67" s="422"/>
+      <c r="N67" s="422"/>
+      <c r="O67" s="422"/>
+      <c r="P67" s="422"/>
+      <c r="Q67" s="422"/>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1">
@@ -13994,24 +14065,24 @@
       <c r="B68" s="121">
         <v>0</v>
       </c>
-      <c r="C68" s="420"/>
-      <c r="D68" s="421"/>
-      <c r="E68" s="420"/>
-      <c r="F68" s="420"/>
-      <c r="G68" s="422"/>
+      <c r="C68" s="419"/>
+      <c r="D68" s="420"/>
+      <c r="E68" s="419"/>
+      <c r="F68" s="419"/>
+      <c r="G68" s="421"/>
       <c r="H68" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I68" s="425"/>
-      <c r="J68" s="425"/>
-      <c r="K68" s="425"/>
-      <c r="L68" s="425"/>
-      <c r="M68" s="425"/>
-      <c r="N68" s="425"/>
-      <c r="O68" s="425"/>
-      <c r="P68" s="425"/>
-      <c r="Q68" s="425"/>
+      <c r="I68" s="422"/>
+      <c r="J68" s="422"/>
+      <c r="K68" s="422"/>
+      <c r="L68" s="422"/>
+      <c r="M68" s="422"/>
+      <c r="N68" s="422"/>
+      <c r="O68" s="422"/>
+      <c r="P68" s="422"/>
+      <c r="Q68" s="422"/>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1">
@@ -14020,24 +14091,24 @@
       <c r="B69" s="121">
         <v>0</v>
       </c>
-      <c r="C69" s="420"/>
-      <c r="D69" s="421"/>
-      <c r="E69" s="420"/>
-      <c r="F69" s="420"/>
-      <c r="G69" s="422"/>
+      <c r="C69" s="419"/>
+      <c r="D69" s="420"/>
+      <c r="E69" s="419"/>
+      <c r="F69" s="419"/>
+      <c r="G69" s="421"/>
       <c r="H69" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I69" s="425"/>
-      <c r="J69" s="425"/>
-      <c r="K69" s="425"/>
-      <c r="L69" s="425"/>
-      <c r="M69" s="425"/>
-      <c r="N69" s="425"/>
-      <c r="O69" s="425"/>
-      <c r="P69" s="425"/>
-      <c r="Q69" s="425"/>
+      <c r="I69" s="422"/>
+      <c r="J69" s="422"/>
+      <c r="K69" s="422"/>
+      <c r="L69" s="422"/>
+      <c r="M69" s="422"/>
+      <c r="N69" s="422"/>
+      <c r="O69" s="422"/>
+      <c r="P69" s="422"/>
+      <c r="Q69" s="422"/>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1">
@@ -14046,24 +14117,24 @@
       <c r="B70" s="121">
         <v>0</v>
       </c>
-      <c r="C70" s="420"/>
-      <c r="D70" s="421"/>
-      <c r="E70" s="420"/>
-      <c r="F70" s="420"/>
-      <c r="G70" s="422"/>
+      <c r="C70" s="419"/>
+      <c r="D70" s="420"/>
+      <c r="E70" s="419"/>
+      <c r="F70" s="419"/>
+      <c r="G70" s="421"/>
       <c r="H70" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I70" s="425"/>
-      <c r="J70" s="425"/>
-      <c r="K70" s="425"/>
-      <c r="L70" s="425"/>
-      <c r="M70" s="425"/>
-      <c r="N70" s="425"/>
-      <c r="O70" s="425"/>
-      <c r="P70" s="425"/>
-      <c r="Q70" s="425"/>
+      <c r="I70" s="422"/>
+      <c r="J70" s="422"/>
+      <c r="K70" s="422"/>
+      <c r="L70" s="422"/>
+      <c r="M70" s="422"/>
+      <c r="N70" s="422"/>
+      <c r="O70" s="422"/>
+      <c r="P70" s="422"/>
+      <c r="Q70" s="422"/>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1">
@@ -14072,38 +14143,38 @@
       <c r="B71" s="121">
         <v>0</v>
       </c>
-      <c r="C71" s="420">
-        <v>0</v>
-      </c>
-      <c r="D71" s="421">
+      <c r="C71" s="419">
+        <v>0</v>
+      </c>
+      <c r="D71" s="420">
         <f>IF(B76&gt;0,SUM(B71:B76)-C71,0)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="420">
+      <c r="E71" s="419">
         <v>6.2</v>
       </c>
-      <c r="F71" s="420">
+      <c r="F71" s="419">
         <v>25.3</v>
       </c>
-      <c r="G71" s="422">
+      <c r="G71" s="421">
         <v>0</v>
       </c>
       <c r="H71" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I71" s="425">
+      <c r="I71" s="422">
         <f>IF($D$2&gt;F71,G71*($D$2-F71)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="425"/>
-      <c r="K71" s="425"/>
-      <c r="L71" s="425"/>
-      <c r="M71" s="425"/>
-      <c r="N71" s="425"/>
-      <c r="O71" s="425"/>
-      <c r="P71" s="425"/>
-      <c r="Q71" s="425"/>
+      <c r="J71" s="422"/>
+      <c r="K71" s="422"/>
+      <c r="L71" s="422"/>
+      <c r="M71" s="422"/>
+      <c r="N71" s="422"/>
+      <c r="O71" s="422"/>
+      <c r="P71" s="422"/>
+      <c r="Q71" s="422"/>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1">
@@ -14112,24 +14183,24 @@
       <c r="B72" s="121">
         <v>0</v>
       </c>
-      <c r="C72" s="420"/>
-      <c r="D72" s="421"/>
-      <c r="E72" s="420"/>
-      <c r="F72" s="420"/>
-      <c r="G72" s="422"/>
+      <c r="C72" s="419"/>
+      <c r="D72" s="420"/>
+      <c r="E72" s="419"/>
+      <c r="F72" s="419"/>
+      <c r="G72" s="421"/>
       <c r="H72" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I72" s="425"/>
-      <c r="J72" s="425"/>
-      <c r="K72" s="425"/>
-      <c r="L72" s="425"/>
-      <c r="M72" s="425"/>
-      <c r="N72" s="425"/>
-      <c r="O72" s="425"/>
-      <c r="P72" s="425"/>
-      <c r="Q72" s="425"/>
+      <c r="I72" s="422"/>
+      <c r="J72" s="422"/>
+      <c r="K72" s="422"/>
+      <c r="L72" s="422"/>
+      <c r="M72" s="422"/>
+      <c r="N72" s="422"/>
+      <c r="O72" s="422"/>
+      <c r="P72" s="422"/>
+      <c r="Q72" s="422"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1">
@@ -14138,24 +14209,24 @@
       <c r="B73" s="121">
         <v>0</v>
       </c>
-      <c r="C73" s="420"/>
-      <c r="D73" s="421"/>
-      <c r="E73" s="420"/>
-      <c r="F73" s="420"/>
-      <c r="G73" s="422"/>
+      <c r="C73" s="419"/>
+      <c r="D73" s="420"/>
+      <c r="E73" s="419"/>
+      <c r="F73" s="419"/>
+      <c r="G73" s="421"/>
       <c r="H73" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I73" s="425"/>
-      <c r="J73" s="425"/>
-      <c r="K73" s="425"/>
-      <c r="L73" s="425"/>
-      <c r="M73" s="425"/>
-      <c r="N73" s="425"/>
-      <c r="O73" s="425"/>
-      <c r="P73" s="425"/>
-      <c r="Q73" s="425"/>
+      <c r="I73" s="422"/>
+      <c r="J73" s="422"/>
+      <c r="K73" s="422"/>
+      <c r="L73" s="422"/>
+      <c r="M73" s="422"/>
+      <c r="N73" s="422"/>
+      <c r="O73" s="422"/>
+      <c r="P73" s="422"/>
+      <c r="Q73" s="422"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1">
@@ -14164,24 +14235,24 @@
       <c r="B74" s="121">
         <v>0</v>
       </c>
-      <c r="C74" s="420"/>
-      <c r="D74" s="421"/>
-      <c r="E74" s="420"/>
-      <c r="F74" s="420"/>
-      <c r="G74" s="422"/>
+      <c r="C74" s="419"/>
+      <c r="D74" s="420"/>
+      <c r="E74" s="419"/>
+      <c r="F74" s="419"/>
+      <c r="G74" s="421"/>
       <c r="H74" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I74" s="425"/>
-      <c r="J74" s="425"/>
-      <c r="K74" s="425"/>
-      <c r="L74" s="425"/>
-      <c r="M74" s="425"/>
-      <c r="N74" s="425"/>
-      <c r="O74" s="425"/>
-      <c r="P74" s="425"/>
-      <c r="Q74" s="425"/>
+      <c r="I74" s="422"/>
+      <c r="J74" s="422"/>
+      <c r="K74" s="422"/>
+      <c r="L74" s="422"/>
+      <c r="M74" s="422"/>
+      <c r="N74" s="422"/>
+      <c r="O74" s="422"/>
+      <c r="P74" s="422"/>
+      <c r="Q74" s="422"/>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1">
@@ -14190,24 +14261,24 @@
       <c r="B75" s="121">
         <v>0</v>
       </c>
-      <c r="C75" s="420"/>
-      <c r="D75" s="421"/>
-      <c r="E75" s="420"/>
-      <c r="F75" s="420"/>
-      <c r="G75" s="422"/>
+      <c r="C75" s="419"/>
+      <c r="D75" s="420"/>
+      <c r="E75" s="419"/>
+      <c r="F75" s="419"/>
+      <c r="G75" s="421"/>
       <c r="H75" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I75" s="425"/>
-      <c r="J75" s="425"/>
-      <c r="K75" s="425"/>
-      <c r="L75" s="425"/>
-      <c r="M75" s="425"/>
-      <c r="N75" s="425"/>
-      <c r="O75" s="425"/>
-      <c r="P75" s="425"/>
-      <c r="Q75" s="425"/>
+      <c r="I75" s="422"/>
+      <c r="J75" s="422"/>
+      <c r="K75" s="422"/>
+      <c r="L75" s="422"/>
+      <c r="M75" s="422"/>
+      <c r="N75" s="422"/>
+      <c r="O75" s="422"/>
+      <c r="P75" s="422"/>
+      <c r="Q75" s="422"/>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1">
@@ -14216,24 +14287,24 @@
       <c r="B76" s="121">
         <v>0</v>
       </c>
-      <c r="C76" s="420"/>
-      <c r="D76" s="421"/>
-      <c r="E76" s="420"/>
-      <c r="F76" s="420"/>
-      <c r="G76" s="422"/>
+      <c r="C76" s="419"/>
+      <c r="D76" s="420"/>
+      <c r="E76" s="419"/>
+      <c r="F76" s="419"/>
+      <c r="G76" s="421"/>
       <c r="H76" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I76" s="425"/>
-      <c r="J76" s="425"/>
-      <c r="K76" s="425"/>
-      <c r="L76" s="425"/>
-      <c r="M76" s="425"/>
-      <c r="N76" s="425"/>
-      <c r="O76" s="425"/>
-      <c r="P76" s="425"/>
-      <c r="Q76" s="425"/>
+      <c r="I76" s="422"/>
+      <c r="J76" s="422"/>
+      <c r="K76" s="422"/>
+      <c r="L76" s="422"/>
+      <c r="M76" s="422"/>
+      <c r="N76" s="422"/>
+      <c r="O76" s="422"/>
+      <c r="P76" s="422"/>
+      <c r="Q76" s="422"/>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1">
@@ -14242,38 +14313,38 @@
       <c r="B77" s="121">
         <v>0</v>
       </c>
-      <c r="C77" s="420">
-        <v>0</v>
-      </c>
-      <c r="D77" s="421">
+      <c r="C77" s="419">
+        <v>0</v>
+      </c>
+      <c r="D77" s="420">
         <f>IF(B82&gt;0,SUM(B77:B82)-C77,0)</f>
         <v>0</v>
       </c>
-      <c r="E77" s="420">
+      <c r="E77" s="419">
         <v>6.2</v>
       </c>
-      <c r="F77" s="420">
+      <c r="F77" s="419">
         <v>25.3</v>
       </c>
-      <c r="G77" s="422">
+      <c r="G77" s="421">
         <v>0</v>
       </c>
       <c r="H77" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I77" s="425">
+      <c r="I77" s="422">
         <f>IF($D$2&gt;F77,G77*($D$2-F77)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="425"/>
-      <c r="K77" s="425"/>
-      <c r="L77" s="425"/>
-      <c r="M77" s="425"/>
-      <c r="N77" s="425"/>
-      <c r="O77" s="425"/>
-      <c r="P77" s="425"/>
-      <c r="Q77" s="425"/>
+      <c r="J77" s="422"/>
+      <c r="K77" s="422"/>
+      <c r="L77" s="422"/>
+      <c r="M77" s="422"/>
+      <c r="N77" s="422"/>
+      <c r="O77" s="422"/>
+      <c r="P77" s="422"/>
+      <c r="Q77" s="422"/>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1">
@@ -14282,24 +14353,24 @@
       <c r="B78" s="121">
         <v>0</v>
       </c>
-      <c r="C78" s="420"/>
-      <c r="D78" s="421"/>
-      <c r="E78" s="420"/>
-      <c r="F78" s="420"/>
-      <c r="G78" s="422"/>
+      <c r="C78" s="419"/>
+      <c r="D78" s="420"/>
+      <c r="E78" s="419"/>
+      <c r="F78" s="419"/>
+      <c r="G78" s="421"/>
       <c r="H78" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I78" s="425"/>
-      <c r="J78" s="425"/>
-      <c r="K78" s="425"/>
-      <c r="L78" s="425"/>
-      <c r="M78" s="425"/>
-      <c r="N78" s="425"/>
-      <c r="O78" s="425"/>
-      <c r="P78" s="425"/>
-      <c r="Q78" s="425"/>
+      <c r="I78" s="422"/>
+      <c r="J78" s="422"/>
+      <c r="K78" s="422"/>
+      <c r="L78" s="422"/>
+      <c r="M78" s="422"/>
+      <c r="N78" s="422"/>
+      <c r="O78" s="422"/>
+      <c r="P78" s="422"/>
+      <c r="Q78" s="422"/>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1">
@@ -14308,24 +14379,24 @@
       <c r="B79" s="121">
         <v>0</v>
       </c>
-      <c r="C79" s="420"/>
-      <c r="D79" s="421"/>
-      <c r="E79" s="420"/>
-      <c r="F79" s="420"/>
-      <c r="G79" s="422"/>
+      <c r="C79" s="419"/>
+      <c r="D79" s="420"/>
+      <c r="E79" s="419"/>
+      <c r="F79" s="419"/>
+      <c r="G79" s="421"/>
       <c r="H79" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I79" s="425"/>
-      <c r="J79" s="425"/>
-      <c r="K79" s="425"/>
-      <c r="L79" s="425"/>
-      <c r="M79" s="425"/>
-      <c r="N79" s="425"/>
-      <c r="O79" s="425"/>
-      <c r="P79" s="425"/>
-      <c r="Q79" s="425"/>
+      <c r="I79" s="422"/>
+      <c r="J79" s="422"/>
+      <c r="K79" s="422"/>
+      <c r="L79" s="422"/>
+      <c r="M79" s="422"/>
+      <c r="N79" s="422"/>
+      <c r="O79" s="422"/>
+      <c r="P79" s="422"/>
+      <c r="Q79" s="422"/>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1">
@@ -14334,24 +14405,24 @@
       <c r="B80" s="121">
         <v>0</v>
       </c>
-      <c r="C80" s="420"/>
-      <c r="D80" s="421"/>
-      <c r="E80" s="420"/>
-      <c r="F80" s="420"/>
-      <c r="G80" s="422"/>
+      <c r="C80" s="419"/>
+      <c r="D80" s="420"/>
+      <c r="E80" s="419"/>
+      <c r="F80" s="419"/>
+      <c r="G80" s="421"/>
       <c r="H80" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I80" s="425"/>
-      <c r="J80" s="425"/>
-      <c r="K80" s="425"/>
-      <c r="L80" s="425"/>
-      <c r="M80" s="425"/>
-      <c r="N80" s="425"/>
-      <c r="O80" s="425"/>
-      <c r="P80" s="425"/>
-      <c r="Q80" s="425"/>
+      <c r="I80" s="422"/>
+      <c r="J80" s="422"/>
+      <c r="K80" s="422"/>
+      <c r="L80" s="422"/>
+      <c r="M80" s="422"/>
+      <c r="N80" s="422"/>
+      <c r="O80" s="422"/>
+      <c r="P80" s="422"/>
+      <c r="Q80" s="422"/>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1">
@@ -14360,24 +14431,24 @@
       <c r="B81" s="121">
         <v>0</v>
       </c>
-      <c r="C81" s="420"/>
-      <c r="D81" s="421"/>
-      <c r="E81" s="420"/>
-      <c r="F81" s="420"/>
-      <c r="G81" s="422"/>
+      <c r="C81" s="419"/>
+      <c r="D81" s="420"/>
+      <c r="E81" s="419"/>
+      <c r="F81" s="419"/>
+      <c r="G81" s="421"/>
       <c r="H81" s="120">
         <f t="shared" ref="H81:H88" si="3">R87*0.25</f>
         <v>0</v>
       </c>
-      <c r="I81" s="425"/>
-      <c r="J81" s="425"/>
-      <c r="K81" s="425"/>
-      <c r="L81" s="425"/>
-      <c r="M81" s="425"/>
-      <c r="N81" s="425"/>
-      <c r="O81" s="425"/>
-      <c r="P81" s="425"/>
-      <c r="Q81" s="425"/>
+      <c r="I81" s="422"/>
+      <c r="J81" s="422"/>
+      <c r="K81" s="422"/>
+      <c r="L81" s="422"/>
+      <c r="M81" s="422"/>
+      <c r="N81" s="422"/>
+      <c r="O81" s="422"/>
+      <c r="P81" s="422"/>
+      <c r="Q81" s="422"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1">
@@ -14386,24 +14457,24 @@
       <c r="B82" s="121">
         <v>0</v>
       </c>
-      <c r="C82" s="420"/>
-      <c r="D82" s="421"/>
-      <c r="E82" s="420"/>
-      <c r="F82" s="420"/>
-      <c r="G82" s="422"/>
+      <c r="C82" s="419"/>
+      <c r="D82" s="420"/>
+      <c r="E82" s="419"/>
+      <c r="F82" s="419"/>
+      <c r="G82" s="421"/>
       <c r="H82" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I82" s="425"/>
-      <c r="J82" s="425"/>
-      <c r="K82" s="425"/>
-      <c r="L82" s="425"/>
-      <c r="M82" s="425"/>
-      <c r="N82" s="425"/>
-      <c r="O82" s="425"/>
-      <c r="P82" s="425"/>
-      <c r="Q82" s="425"/>
+      <c r="I82" s="422"/>
+      <c r="J82" s="422"/>
+      <c r="K82" s="422"/>
+      <c r="L82" s="422"/>
+      <c r="M82" s="422"/>
+      <c r="N82" s="422"/>
+      <c r="O82" s="422"/>
+      <c r="P82" s="422"/>
+      <c r="Q82" s="422"/>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1">
@@ -14412,38 +14483,38 @@
       <c r="B83" s="121">
         <v>0</v>
       </c>
-      <c r="C83" s="420">
-        <v>0</v>
-      </c>
-      <c r="D83" s="421">
+      <c r="C83" s="419">
+        <v>0</v>
+      </c>
+      <c r="D83" s="420">
         <f>IF(B88&gt;0,SUM(B83:B88)-C83,0)</f>
         <v>0</v>
       </c>
-      <c r="E83" s="420">
+      <c r="E83" s="419">
         <v>6.2</v>
       </c>
-      <c r="F83" s="420">
+      <c r="F83" s="419">
         <v>25.3</v>
       </c>
-      <c r="G83" s="422">
+      <c r="G83" s="421">
         <v>0</v>
       </c>
       <c r="H83" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I83" s="425">
+      <c r="I83" s="422">
         <f>IF($D$2&gt;F83,G83*($D$2-F83)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J83" s="425"/>
-      <c r="K83" s="425"/>
-      <c r="L83" s="425"/>
-      <c r="M83" s="425"/>
-      <c r="N83" s="425"/>
-      <c r="O83" s="425"/>
-      <c r="P83" s="425"/>
-      <c r="Q83" s="425"/>
+      <c r="J83" s="422"/>
+      <c r="K83" s="422"/>
+      <c r="L83" s="422"/>
+      <c r="M83" s="422"/>
+      <c r="N83" s="422"/>
+      <c r="O83" s="422"/>
+      <c r="P83" s="422"/>
+      <c r="Q83" s="422"/>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1">
@@ -14452,24 +14523,24 @@
       <c r="B84" s="121">
         <v>0</v>
       </c>
-      <c r="C84" s="420"/>
-      <c r="D84" s="421"/>
-      <c r="E84" s="420"/>
-      <c r="F84" s="420"/>
-      <c r="G84" s="422"/>
+      <c r="C84" s="419"/>
+      <c r="D84" s="420"/>
+      <c r="E84" s="419"/>
+      <c r="F84" s="419"/>
+      <c r="G84" s="421"/>
       <c r="H84" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I84" s="425"/>
-      <c r="J84" s="425"/>
-      <c r="K84" s="425"/>
-      <c r="L84" s="425"/>
-      <c r="M84" s="425"/>
-      <c r="N84" s="425"/>
-      <c r="O84" s="425"/>
-      <c r="P84" s="425"/>
-      <c r="Q84" s="425"/>
+      <c r="I84" s="422"/>
+      <c r="J84" s="422"/>
+      <c r="K84" s="422"/>
+      <c r="L84" s="422"/>
+      <c r="M84" s="422"/>
+      <c r="N84" s="422"/>
+      <c r="O84" s="422"/>
+      <c r="P84" s="422"/>
+      <c r="Q84" s="422"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1">
@@ -14478,24 +14549,24 @@
       <c r="B85" s="121">
         <v>0</v>
       </c>
-      <c r="C85" s="420"/>
-      <c r="D85" s="421"/>
-      <c r="E85" s="420"/>
-      <c r="F85" s="420"/>
-      <c r="G85" s="422"/>
+      <c r="C85" s="419"/>
+      <c r="D85" s="420"/>
+      <c r="E85" s="419"/>
+      <c r="F85" s="419"/>
+      <c r="G85" s="421"/>
       <c r="H85" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I85" s="425"/>
-      <c r="J85" s="425"/>
-      <c r="K85" s="425"/>
-      <c r="L85" s="425"/>
-      <c r="M85" s="425"/>
-      <c r="N85" s="425"/>
-      <c r="O85" s="425"/>
-      <c r="P85" s="425"/>
-      <c r="Q85" s="425"/>
+      <c r="I85" s="422"/>
+      <c r="J85" s="422"/>
+      <c r="K85" s="422"/>
+      <c r="L85" s="422"/>
+      <c r="M85" s="422"/>
+      <c r="N85" s="422"/>
+      <c r="O85" s="422"/>
+      <c r="P85" s="422"/>
+      <c r="Q85" s="422"/>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1">
@@ -14504,24 +14575,24 @@
       <c r="B86" s="121">
         <v>0</v>
       </c>
-      <c r="C86" s="420"/>
-      <c r="D86" s="421"/>
-      <c r="E86" s="420"/>
-      <c r="F86" s="420"/>
-      <c r="G86" s="422"/>
+      <c r="C86" s="419"/>
+      <c r="D86" s="420"/>
+      <c r="E86" s="419"/>
+      <c r="F86" s="419"/>
+      <c r="G86" s="421"/>
       <c r="H86" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I86" s="425"/>
-      <c r="J86" s="425"/>
-      <c r="K86" s="425"/>
-      <c r="L86" s="425"/>
-      <c r="M86" s="425"/>
-      <c r="N86" s="425"/>
-      <c r="O86" s="425"/>
-      <c r="P86" s="425"/>
-      <c r="Q86" s="425"/>
+      <c r="I86" s="422"/>
+      <c r="J86" s="422"/>
+      <c r="K86" s="422"/>
+      <c r="L86" s="422"/>
+      <c r="M86" s="422"/>
+      <c r="N86" s="422"/>
+      <c r="O86" s="422"/>
+      <c r="P86" s="422"/>
+      <c r="Q86" s="422"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1">
@@ -14530,24 +14601,24 @@
       <c r="B87" s="121">
         <v>0</v>
       </c>
-      <c r="C87" s="420"/>
-      <c r="D87" s="421"/>
-      <c r="E87" s="420"/>
-      <c r="F87" s="420"/>
-      <c r="G87" s="422"/>
+      <c r="C87" s="419"/>
+      <c r="D87" s="420"/>
+      <c r="E87" s="419"/>
+      <c r="F87" s="419"/>
+      <c r="G87" s="421"/>
       <c r="H87" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I87" s="425"/>
-      <c r="J87" s="425"/>
-      <c r="K87" s="425"/>
-      <c r="L87" s="425"/>
-      <c r="M87" s="425"/>
-      <c r="N87" s="425"/>
-      <c r="O87" s="425"/>
-      <c r="P87" s="425"/>
-      <c r="Q87" s="425"/>
+      <c r="I87" s="422"/>
+      <c r="J87" s="422"/>
+      <c r="K87" s="422"/>
+      <c r="L87" s="422"/>
+      <c r="M87" s="422"/>
+      <c r="N87" s="422"/>
+      <c r="O87" s="422"/>
+      <c r="P87" s="422"/>
+      <c r="Q87" s="422"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1">
@@ -14556,59 +14627,160 @@
       <c r="B88" s="121">
         <v>0</v>
       </c>
-      <c r="C88" s="420"/>
-      <c r="D88" s="421"/>
-      <c r="E88" s="420"/>
-      <c r="F88" s="420"/>
-      <c r="G88" s="422"/>
+      <c r="C88" s="419"/>
+      <c r="D88" s="420"/>
+      <c r="E88" s="419"/>
+      <c r="F88" s="419"/>
+      <c r="G88" s="421"/>
       <c r="H88" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I88" s="425"/>
-      <c r="J88" s="425"/>
-      <c r="K88" s="425"/>
-      <c r="L88" s="425"/>
-      <c r="M88" s="425"/>
-      <c r="N88" s="425"/>
-      <c r="O88" s="425"/>
-      <c r="P88" s="425"/>
-      <c r="Q88" s="425"/>
+      <c r="I88" s="422"/>
+      <c r="J88" s="422"/>
+      <c r="K88" s="422"/>
+      <c r="L88" s="422"/>
+      <c r="M88" s="422"/>
+      <c r="N88" s="422"/>
+      <c r="O88" s="422"/>
+      <c r="P88" s="422"/>
+      <c r="Q88" s="422"/>
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="G83:G88"/>
-    <mergeCell ref="O83:O88"/>
-    <mergeCell ref="P83:P88"/>
-    <mergeCell ref="Q83:Q88"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="K83:K88"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="M83:M88"/>
-    <mergeCell ref="N83:N88"/>
-    <mergeCell ref="M71:M76"/>
-    <mergeCell ref="N71:N76"/>
-    <mergeCell ref="O71:O76"/>
-    <mergeCell ref="P71:P76"/>
-    <mergeCell ref="M77:M82"/>
-    <mergeCell ref="N77:N82"/>
-    <mergeCell ref="O77:O82"/>
-    <mergeCell ref="P77:P82"/>
-    <mergeCell ref="Q77:Q82"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="F77:F82"/>
-    <mergeCell ref="G77:G82"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="J77:J82"/>
-    <mergeCell ref="K77:K82"/>
-    <mergeCell ref="L77:L82"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="P10:P15"/>
+    <mergeCell ref="Q10:Q15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="M10:M15"/>
+    <mergeCell ref="N10:N15"/>
+    <mergeCell ref="Q16:Q21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="N16:N21"/>
+    <mergeCell ref="O16:O21"/>
+    <mergeCell ref="P16:P21"/>
+    <mergeCell ref="P22:P27"/>
+    <mergeCell ref="Q22:Q27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="O28:O34"/>
+    <mergeCell ref="P28:P34"/>
+    <mergeCell ref="Q28:Q34"/>
+    <mergeCell ref="K28:K34"/>
+    <mergeCell ref="L28:L34"/>
+    <mergeCell ref="M28:M34"/>
+    <mergeCell ref="N28:N34"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="J35:J40"/>
+    <mergeCell ref="I28:I34"/>
+    <mergeCell ref="J28:J34"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="Q35:Q40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="F41:F46"/>
+    <mergeCell ref="G41:G46"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="J41:J46"/>
+    <mergeCell ref="K41:K46"/>
+    <mergeCell ref="L41:L46"/>
+    <mergeCell ref="K35:K40"/>
+    <mergeCell ref="L35:L40"/>
+    <mergeCell ref="M35:M40"/>
+    <mergeCell ref="N35:N40"/>
+    <mergeCell ref="O35:O40"/>
+    <mergeCell ref="P35:P40"/>
+    <mergeCell ref="M41:M46"/>
+    <mergeCell ref="N41:N46"/>
+    <mergeCell ref="O41:O46"/>
+    <mergeCell ref="P41:P46"/>
+    <mergeCell ref="Q41:Q46"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="O47:O52"/>
+    <mergeCell ref="P47:P52"/>
+    <mergeCell ref="Q47:Q52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="I53:I58"/>
+    <mergeCell ref="J53:J58"/>
+    <mergeCell ref="I47:I52"/>
+    <mergeCell ref="J47:J52"/>
+    <mergeCell ref="K47:K52"/>
+    <mergeCell ref="L47:L52"/>
+    <mergeCell ref="M47:M52"/>
+    <mergeCell ref="N47:N52"/>
+    <mergeCell ref="Q53:Q58"/>
+    <mergeCell ref="K53:K58"/>
+    <mergeCell ref="L53:L58"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="F59:F64"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="J59:J64"/>
+    <mergeCell ref="K59:K64"/>
+    <mergeCell ref="L59:L64"/>
+    <mergeCell ref="M53:M58"/>
+    <mergeCell ref="N53:N58"/>
+    <mergeCell ref="O53:O58"/>
+    <mergeCell ref="P53:P58"/>
+    <mergeCell ref="M59:M64"/>
+    <mergeCell ref="N59:N64"/>
+    <mergeCell ref="O59:O64"/>
+    <mergeCell ref="P59:P64"/>
+    <mergeCell ref="Q59:Q64"/>
     <mergeCell ref="C65:C70"/>
     <mergeCell ref="D65:D70"/>
     <mergeCell ref="E65:E70"/>
@@ -14633,139 +14805,38 @@
     <mergeCell ref="Q71:Q76"/>
     <mergeCell ref="K71:K76"/>
     <mergeCell ref="L71:L76"/>
-    <mergeCell ref="M53:M58"/>
-    <mergeCell ref="N53:N58"/>
-    <mergeCell ref="O53:O58"/>
-    <mergeCell ref="P53:P58"/>
-    <mergeCell ref="M59:M64"/>
-    <mergeCell ref="N59:N64"/>
-    <mergeCell ref="O59:O64"/>
-    <mergeCell ref="P59:P64"/>
-    <mergeCell ref="Q59:Q64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="F59:F64"/>
-    <mergeCell ref="G59:G64"/>
-    <mergeCell ref="I59:I64"/>
-    <mergeCell ref="J59:J64"/>
-    <mergeCell ref="K59:K64"/>
-    <mergeCell ref="L59:L64"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="E47:E52"/>
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="O47:O52"/>
-    <mergeCell ref="P47:P52"/>
-    <mergeCell ref="Q47:Q52"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="I53:I58"/>
-    <mergeCell ref="J53:J58"/>
-    <mergeCell ref="I47:I52"/>
-    <mergeCell ref="J47:J52"/>
-    <mergeCell ref="K47:K52"/>
-    <mergeCell ref="L47:L52"/>
-    <mergeCell ref="M47:M52"/>
-    <mergeCell ref="N47:N52"/>
-    <mergeCell ref="Q53:Q58"/>
-    <mergeCell ref="K53:K58"/>
-    <mergeCell ref="L53:L58"/>
-    <mergeCell ref="Q35:Q40"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="F41:F46"/>
-    <mergeCell ref="G41:G46"/>
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="J41:J46"/>
-    <mergeCell ref="K41:K46"/>
-    <mergeCell ref="L41:L46"/>
-    <mergeCell ref="K35:K40"/>
-    <mergeCell ref="L35:L40"/>
-    <mergeCell ref="M35:M40"/>
-    <mergeCell ref="N35:N40"/>
-    <mergeCell ref="O35:O40"/>
-    <mergeCell ref="P35:P40"/>
-    <mergeCell ref="M41:M46"/>
-    <mergeCell ref="N41:N46"/>
-    <mergeCell ref="O41:O46"/>
-    <mergeCell ref="P41:P46"/>
-    <mergeCell ref="Q41:Q46"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="J35:J40"/>
-    <mergeCell ref="I28:I34"/>
-    <mergeCell ref="J28:J34"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="O22:O27"/>
-    <mergeCell ref="P22:P27"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="G28:G34"/>
-    <mergeCell ref="O28:O34"/>
-    <mergeCell ref="P28:P34"/>
-    <mergeCell ref="Q28:Q34"/>
-    <mergeCell ref="K28:K34"/>
-    <mergeCell ref="L28:L34"/>
-    <mergeCell ref="M28:M34"/>
-    <mergeCell ref="N28:N34"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="P10:P15"/>
-    <mergeCell ref="Q10:Q15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="L10:L15"/>
-    <mergeCell ref="M10:M15"/>
-    <mergeCell ref="N10:N15"/>
-    <mergeCell ref="Q16:Q21"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="M16:M21"/>
-    <mergeCell ref="N16:N21"/>
-    <mergeCell ref="O16:O21"/>
-    <mergeCell ref="P16:P21"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="J77:J82"/>
+    <mergeCell ref="K77:K82"/>
+    <mergeCell ref="L77:L82"/>
+    <mergeCell ref="M71:M76"/>
+    <mergeCell ref="N71:N76"/>
+    <mergeCell ref="O71:O76"/>
+    <mergeCell ref="P71:P76"/>
+    <mergeCell ref="M77:M82"/>
+    <mergeCell ref="N77:N82"/>
+    <mergeCell ref="O77:O82"/>
+    <mergeCell ref="P77:P82"/>
+    <mergeCell ref="Q77:Q82"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="G83:G88"/>
+    <mergeCell ref="O83:O88"/>
+    <mergeCell ref="P83:P88"/>
+    <mergeCell ref="Q83:Q88"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="K83:K88"/>
+    <mergeCell ref="L83:L88"/>
+    <mergeCell ref="M83:M88"/>
+    <mergeCell ref="N83:N88"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16198,29 +16269,29 @@
     </row>
     <row r="6" spans="4:12" ht="17.100000000000001" customHeight="1">
       <c r="F6" s="212"/>
-      <c r="G6" s="509" t="s">
+      <c r="G6" s="501" t="s">
         <v>774</v>
       </c>
-      <c r="H6" s="511" t="s">
+      <c r="H6" s="503" t="s">
         <v>775</v>
       </c>
-      <c r="I6" s="511" t="s">
+      <c r="I6" s="503" t="s">
         <v>776</v>
       </c>
-      <c r="J6" s="511" t="s">
+      <c r="J6" s="503" t="s">
         <v>777</v>
       </c>
-      <c r="K6" s="507" t="s">
+      <c r="K6" s="492" t="s">
         <v>778</v>
       </c>
-      <c r="L6" s="508"/>
+      <c r="L6" s="493"/>
     </row>
     <row r="7" spans="4:12" ht="18" customHeight="1">
       <c r="F7" s="212"/>
-      <c r="G7" s="510"/>
-      <c r="H7" s="512"/>
-      <c r="I7" s="512"/>
-      <c r="J7" s="512"/>
+      <c r="G7" s="502"/>
+      <c r="H7" s="504"/>
+      <c r="I7" s="504"/>
+      <c r="J7" s="504"/>
       <c r="K7" s="213" t="s">
         <v>779</v>
       </c>
@@ -16229,11 +16300,11 @@
       </c>
     </row>
     <row r="8" spans="4:12" ht="30" customHeight="1" thickBot="1">
-      <c r="D8" s="498" t="s">
+      <c r="D8" s="500" t="s">
         <v>781</v>
       </c>
-      <c r="E8" s="498"/>
-      <c r="F8" s="498"/>
+      <c r="E8" s="500"/>
+      <c r="F8" s="500"/>
       <c r="G8" s="215">
         <v>9.6</v>
       </c>
@@ -16279,21 +16350,21 @@
     </row>
     <row r="12" spans="4:12" ht="18.75">
       <c r="F12" s="212"/>
-      <c r="G12" s="492" t="s">
+      <c r="G12" s="494" t="s">
         <v>782</v>
       </c>
-      <c r="H12" s="494" t="s">
+      <c r="H12" s="496" t="s">
         <v>783</v>
       </c>
-      <c r="I12" s="496" t="s">
+      <c r="I12" s="498" t="s">
         <v>784</v>
       </c>
-      <c r="J12" s="497"/>
+      <c r="J12" s="499"/>
     </row>
     <row r="13" spans="4:12" ht="18.75">
       <c r="F13" s="212"/>
-      <c r="G13" s="493"/>
-      <c r="H13" s="495"/>
+      <c r="G13" s="495"/>
+      <c r="H13" s="497"/>
       <c r="I13" s="218" t="s">
         <v>785</v>
       </c>
@@ -16302,11 +16373,11 @@
       </c>
     </row>
     <row r="14" spans="4:12" ht="33" customHeight="1" thickBot="1">
-      <c r="D14" s="498" t="s">
+      <c r="D14" s="500" t="s">
         <v>787</v>
       </c>
-      <c r="E14" s="498"/>
-      <c r="F14" s="498"/>
+      <c r="E14" s="500"/>
+      <c r="F14" s="500"/>
       <c r="G14" s="220" t="s">
         <v>788</v>
       </c>
@@ -16324,20 +16395,20 @@
     </row>
     <row r="16" spans="4:12" ht="15.75" thickBot="1"/>
     <row r="17" spans="4:10" ht="18.75">
-      <c r="G17" s="492" t="s">
+      <c r="G17" s="494" t="s">
         <v>789</v>
       </c>
-      <c r="H17" s="494" t="s">
+      <c r="H17" s="496" t="s">
         <v>783</v>
       </c>
-      <c r="I17" s="496" t="s">
+      <c r="I17" s="498" t="s">
         <v>784</v>
       </c>
-      <c r="J17" s="497"/>
+      <c r="J17" s="499"/>
     </row>
     <row r="18" spans="4:10" ht="18.75">
-      <c r="G18" s="493"/>
-      <c r="H18" s="495"/>
+      <c r="G18" s="495"/>
+      <c r="H18" s="497"/>
       <c r="I18" s="218" t="s">
         <v>785</v>
       </c>
@@ -16346,11 +16417,11 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="33" customHeight="1" thickBot="1">
-      <c r="D19" s="498" t="s">
+      <c r="D19" s="500" t="s">
         <v>787</v>
       </c>
-      <c r="E19" s="498"/>
-      <c r="F19" s="498"/>
+      <c r="E19" s="500"/>
+      <c r="F19" s="500"/>
       <c r="G19" s="220" t="s">
         <v>790</v>
       </c>
@@ -16368,20 +16439,20 @@
     </row>
     <row r="21" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="22" spans="4:10" ht="18.75">
-      <c r="G22" s="499" t="s">
+      <c r="G22" s="505" t="s">
         <v>791</v>
       </c>
-      <c r="H22" s="494" t="s">
+      <c r="H22" s="496" t="s">
         <v>783</v>
       </c>
-      <c r="I22" s="496" t="s">
+      <c r="I22" s="498" t="s">
         <v>784</v>
       </c>
-      <c r="J22" s="497"/>
+      <c r="J22" s="499"/>
     </row>
     <row r="23" spans="4:10" ht="18.75">
-      <c r="G23" s="500"/>
-      <c r="H23" s="495"/>
+      <c r="G23" s="506"/>
+      <c r="H23" s="497"/>
       <c r="I23" s="218" t="s">
         <v>785</v>
       </c>
@@ -16390,11 +16461,11 @@
       </c>
     </row>
     <row r="24" spans="4:10" ht="32.1" customHeight="1">
-      <c r="D24" s="498" t="s">
+      <c r="D24" s="500" t="s">
         <v>787</v>
       </c>
-      <c r="E24" s="498"/>
-      <c r="F24" s="498"/>
+      <c r="E24" s="500"/>
+      <c r="F24" s="500"/>
       <c r="G24" s="221" t="s">
         <v>792</v>
       </c>
@@ -16449,20 +16520,20 @@
     </row>
     <row r="29" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="30" spans="4:10" ht="18.75">
-      <c r="G30" s="501" t="s">
+      <c r="G30" s="507" t="s">
         <v>795</v>
       </c>
-      <c r="H30" s="503" t="s">
+      <c r="H30" s="509" t="s">
         <v>796</v>
       </c>
-      <c r="I30" s="505" t="s">
+      <c r="I30" s="511" t="s">
         <v>797</v>
       </c>
-      <c r="J30" s="506"/>
+      <c r="J30" s="512"/>
     </row>
     <row r="31" spans="4:10" ht="18.75">
-      <c r="G31" s="502"/>
-      <c r="H31" s="504"/>
+      <c r="G31" s="508"/>
+      <c r="H31" s="510"/>
       <c r="I31" s="225" t="s">
         <v>779</v>
       </c>
@@ -16471,11 +16542,11 @@
       </c>
     </row>
     <row r="32" spans="4:10" ht="35.1" customHeight="1" thickBot="1">
-      <c r="D32" s="498" t="s">
+      <c r="D32" s="500" t="s">
         <v>798</v>
       </c>
-      <c r="E32" s="498"/>
-      <c r="F32" s="498"/>
+      <c r="E32" s="500"/>
+      <c r="F32" s="500"/>
       <c r="G32" s="227" t="s">
         <v>792</v>
       </c>
@@ -16493,16 +16564,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:J17"/>
@@ -16515,6 +16576,16 @@
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18221,9 +18292,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN485"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X467" sqref="X467"/>
+      <selection pane="bottomLeft" activeCell="M465" sqref="M465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18274,17 +18345,17 @@
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" thickBot="1">
       <c r="A1" s="264"/>
-      <c r="B1" s="431" t="s">
+      <c r="B1" s="464" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="432"/>
-      <c r="D1" s="432"/>
-      <c r="E1" s="432"/>
-      <c r="F1" s="433"/>
-      <c r="G1" s="434" t="s">
+      <c r="C1" s="465"/>
+      <c r="D1" s="465"/>
+      <c r="E1" s="465"/>
+      <c r="F1" s="466"/>
+      <c r="G1" s="467" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="435"/>
+      <c r="H1" s="468"/>
     </row>
     <row r="2" spans="1:40" ht="17.25" thickBot="1">
       <c r="A2" s="267" t="s">
@@ -18305,24 +18376,24 @@
       <c r="F2" s="269" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="436">
+      <c r="G2" s="469">
         <f ca="1">TODAY()-A13</f>
         <v>1259</v>
       </c>
-      <c r="H2" s="437"/>
+      <c r="H2" s="470"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
       <c r="A3" s="270">
         <f>C6-F6</f>
-        <v>1196365.83118</v>
+        <v>1206250.90118</v>
       </c>
       <c r="B3" s="271">
         <f>C3+D3+E3+F3</f>
-        <v>1421584.4000000001</v>
+        <v>1431469.4700000002</v>
       </c>
       <c r="C3" s="272">
         <f>'whobor-touna'!J3+人人贷!E3+宜人贷!T2+'whobor-wzd'!N2</f>
-        <v>651499.97000000009</v>
+        <v>661385.04000000015</v>
       </c>
       <c r="D3" s="273">
         <f>'thmei-touna'!J3</f>
@@ -18336,35 +18407,35 @@
         <f>'whobor-touna'!L3</f>
         <v>21308.880000000001</v>
       </c>
-      <c r="G3" s="434" t="s">
+      <c r="G3" s="467" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="435"/>
+      <c r="H3" s="468"/>
     </row>
     <row r="4" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="275"/>
       <c r="B4" s="275"/>
       <c r="C4" s="276">
         <f>C3/$B$3</f>
-        <v>0.45829144579808279</v>
+        <v>0.46203223600710119</v>
       </c>
       <c r="D4" s="276">
         <f>D3/$B$3</f>
-        <v>0.50951915341783438</v>
+        <v>0.50600064841061543</v>
       </c>
       <c r="E4" s="276">
         <f>E3/$B$3</f>
-        <v>1.7199872198935214E-2</v>
+        <v>1.7081097789672033E-2</v>
       </c>
       <c r="F4" s="277">
         <f>F3/$B$3</f>
-        <v>1.498952858514767E-2</v>
-      </c>
-      <c r="G4" s="438">
+        <v>1.4886017792611391E-2</v>
+      </c>
+      <c r="G4" s="462">
         <f ca="1">A6/G2</f>
         <v>178.88686959491673</v>
       </c>
-      <c r="H4" s="439"/>
+      <c r="H4" s="463"/>
     </row>
     <row r="5" spans="1:40" ht="17.25" thickBot="1">
       <c r="A5" s="278" t="s">
@@ -18385,10 +18456,10 @@
       <c r="F5" s="282" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="445" t="s">
+      <c r="G5" s="459" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="446"/>
+      <c r="H5" s="460"/>
     </row>
     <row r="6" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="283">
@@ -18397,15 +18468,15 @@
       </c>
       <c r="B6" s="284">
         <f>F6-C6</f>
-        <v>-1196365.83118</v>
+        <v>-1206250.90118</v>
       </c>
       <c r="C6" s="285">
         <f>B12+L12+G12+X12+R12</f>
-        <v>3063637.89</v>
+        <v>3073637.89</v>
       </c>
       <c r="D6" s="286">
         <f>C12+H12+M12+Y12+S12</f>
-        <v>1869673.9600000002</v>
+        <v>1869788.8900000001</v>
       </c>
       <c r="E6" s="287">
         <f>D12+N12+Z12+T12</f>
@@ -18413,207 +18484,207 @@
       </c>
       <c r="F6" s="288">
         <f>D6-E6</f>
-        <v>1867272.0588200002</v>
-      </c>
-      <c r="G6" s="438">
+        <v>1867386.9888200001</v>
+      </c>
+      <c r="G6" s="462">
         <f ca="1">G4*30</f>
         <v>5366.6060878475018</v>
       </c>
-      <c r="H6" s="439"/>
+      <c r="H6" s="463"/>
     </row>
     <row r="7" spans="1:40" s="290" customFormat="1" ht="20.25">
       <c r="A7" s="289"/>
-      <c r="B7" s="458" t="s">
+      <c r="B7" s="456" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="456"/>
-      <c r="D7" s="456"/>
-      <c r="E7" s="457"/>
-      <c r="F7" s="459"/>
-      <c r="G7" s="455" t="s">
+      <c r="C7" s="454"/>
+      <c r="D7" s="454"/>
+      <c r="E7" s="455"/>
+      <c r="F7" s="457"/>
+      <c r="G7" s="453" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="456"/>
-      <c r="I7" s="456"/>
-      <c r="J7" s="457"/>
-      <c r="K7" s="457"/>
-      <c r="L7" s="451" t="s">
+      <c r="H7" s="454"/>
+      <c r="I7" s="454"/>
+      <c r="J7" s="455"/>
+      <c r="K7" s="455"/>
+      <c r="L7" s="447" t="s">
         <v>766</v>
       </c>
-      <c r="M7" s="447"/>
-      <c r="N7" s="447"/>
-      <c r="O7" s="447"/>
-      <c r="P7" s="447"/>
-      <c r="Q7" s="452"/>
-      <c r="R7" s="447" t="s">
+      <c r="M7" s="448"/>
+      <c r="N7" s="448"/>
+      <c r="O7" s="448"/>
+      <c r="P7" s="448"/>
+      <c r="Q7" s="449"/>
+      <c r="R7" s="448" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="447"/>
-      <c r="T7" s="447"/>
-      <c r="U7" s="447"/>
-      <c r="V7" s="447"/>
-      <c r="W7" s="447"/>
-      <c r="X7" s="451" t="s">
+      <c r="S7" s="448"/>
+      <c r="T7" s="448"/>
+      <c r="U7" s="448"/>
+      <c r="V7" s="448"/>
+      <c r="W7" s="448"/>
+      <c r="X7" s="447" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="447"/>
-      <c r="Z7" s="447"/>
-      <c r="AA7" s="447"/>
-      <c r="AB7" s="447"/>
-      <c r="AC7" s="452"/>
+      <c r="Y7" s="448"/>
+      <c r="Z7" s="448"/>
+      <c r="AA7" s="448"/>
+      <c r="AB7" s="448"/>
+      <c r="AC7" s="449"/>
     </row>
     <row r="8" spans="1:40" s="290" customFormat="1" ht="16.5">
       <c r="A8" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="453" t="s">
+      <c r="B8" s="450" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="448"/>
-      <c r="D8" s="448"/>
-      <c r="E8" s="448"/>
-      <c r="F8" s="454"/>
-      <c r="G8" s="448" t="s">
+      <c r="C8" s="451"/>
+      <c r="D8" s="451"/>
+      <c r="E8" s="451"/>
+      <c r="F8" s="452"/>
+      <c r="G8" s="451" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="448"/>
-      <c r="I8" s="448"/>
-      <c r="J8" s="448"/>
-      <c r="K8" s="448"/>
-      <c r="L8" s="453" t="s">
+      <c r="H8" s="451"/>
+      <c r="I8" s="451"/>
+      <c r="J8" s="451"/>
+      <c r="K8" s="451"/>
+      <c r="L8" s="450" t="s">
         <v>767</v>
       </c>
-      <c r="M8" s="448"/>
-      <c r="N8" s="448"/>
-      <c r="O8" s="448"/>
-      <c r="P8" s="448"/>
-      <c r="Q8" s="454"/>
-      <c r="R8" s="448" t="s">
+      <c r="M8" s="451"/>
+      <c r="N8" s="451"/>
+      <c r="O8" s="451"/>
+      <c r="P8" s="451"/>
+      <c r="Q8" s="452"/>
+      <c r="R8" s="451" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="448"/>
-      <c r="T8" s="448"/>
-      <c r="U8" s="448"/>
-      <c r="V8" s="448"/>
-      <c r="W8" s="448"/>
-      <c r="X8" s="453" t="s">
+      <c r="S8" s="451"/>
+      <c r="T8" s="451"/>
+      <c r="U8" s="451"/>
+      <c r="V8" s="451"/>
+      <c r="W8" s="451"/>
+      <c r="X8" s="450" t="s">
         <v>164</v>
       </c>
-      <c r="Y8" s="448"/>
-      <c r="Z8" s="448"/>
-      <c r="AA8" s="448"/>
-      <c r="AB8" s="448"/>
-      <c r="AC8" s="454"/>
+      <c r="Y8" s="451"/>
+      <c r="Z8" s="451"/>
+      <c r="AA8" s="451"/>
+      <c r="AB8" s="451"/>
+      <c r="AC8" s="452"/>
       <c r="AK8" s="292"/>
     </row>
     <row r="9" spans="1:40" s="290" customFormat="1" ht="16.5">
       <c r="A9" s="291" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="442" t="s">
+      <c r="B9" s="435" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="441"/>
-      <c r="D9" s="442" t="s">
+      <c r="C9" s="436"/>
+      <c r="D9" s="435" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="443"/>
-      <c r="F9" s="470"/>
-      <c r="G9" s="440" t="s">
+      <c r="E9" s="440"/>
+      <c r="F9" s="446"/>
+      <c r="G9" s="458" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="441"/>
-      <c r="I9" s="442" t="s">
+      <c r="H9" s="436"/>
+      <c r="I9" s="435" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="443"/>
-      <c r="K9" s="444"/>
-      <c r="L9" s="462" t="s">
+      <c r="J9" s="440"/>
+      <c r="K9" s="439"/>
+      <c r="L9" s="433" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="450"/>
-      <c r="N9" s="444" t="s">
+      <c r="M9" s="434"/>
+      <c r="N9" s="439" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="443"/>
-      <c r="P9" s="443"/>
-      <c r="Q9" s="465"/>
-      <c r="R9" s="449" t="s">
+      <c r="O9" s="440"/>
+      <c r="P9" s="440"/>
+      <c r="Q9" s="441"/>
+      <c r="R9" s="461" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="450"/>
-      <c r="T9" s="444" t="s">
+      <c r="S9" s="434"/>
+      <c r="T9" s="439" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="443"/>
-      <c r="V9" s="443"/>
-      <c r="W9" s="443"/>
-      <c r="X9" s="462" t="s">
+      <c r="U9" s="440"/>
+      <c r="V9" s="440"/>
+      <c r="W9" s="440"/>
+      <c r="X9" s="433" t="s">
         <v>49</v>
       </c>
-      <c r="Y9" s="450"/>
-      <c r="Z9" s="444" t="s">
+      <c r="Y9" s="434"/>
+      <c r="Z9" s="439" t="s">
         <v>50</v>
       </c>
-      <c r="AA9" s="443"/>
-      <c r="AB9" s="443"/>
-      <c r="AC9" s="465"/>
+      <c r="AA9" s="440"/>
+      <c r="AB9" s="440"/>
+      <c r="AC9" s="441"/>
     </row>
     <row r="10" spans="1:40" ht="15.75" customHeight="1">
       <c r="A10" s="293" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="460" t="s">
+      <c r="B10" s="431" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="461"/>
-      <c r="D10" s="467">
+      <c r="C10" s="432"/>
+      <c r="D10" s="443">
         <f>'whobor-touna'!G3/$B$3</f>
-        <v>0.35851090515624678</v>
-      </c>
-      <c r="E10" s="463"/>
-      <c r="F10" s="464"/>
-      <c r="G10" s="466" t="s">
+        <v>0.35603519368107794</v>
+      </c>
+      <c r="E10" s="437"/>
+      <c r="F10" s="438"/>
+      <c r="G10" s="442" t="s">
         <v>207</v>
       </c>
-      <c r="H10" s="461"/>
-      <c r="I10" s="467">
+      <c r="H10" s="432"/>
+      <c r="I10" s="443">
         <f>'thmei-touna'!G3/$B$3</f>
-        <v>0.52671902561676964</v>
-      </c>
-      <c r="J10" s="463"/>
-      <c r="K10" s="463"/>
-      <c r="L10" s="468" t="s">
+        <v>0.52308174620028747</v>
+      </c>
+      <c r="J10" s="437"/>
+      <c r="K10" s="437"/>
+      <c r="L10" s="444" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="469"/>
-      <c r="N10" s="463">
+      <c r="M10" s="445"/>
+      <c r="N10" s="437">
         <f>宜人贷!T2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="O10" s="463"/>
-      <c r="P10" s="463"/>
-      <c r="Q10" s="464"/>
-      <c r="R10" s="469"/>
-      <c r="S10" s="469"/>
-      <c r="T10" s="463">
+      <c r="O10" s="437"/>
+      <c r="P10" s="437"/>
+      <c r="Q10" s="438"/>
+      <c r="R10" s="445"/>
+      <c r="S10" s="445"/>
+      <c r="T10" s="437">
         <f>宜人贷!Z2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="U10" s="463"/>
-      <c r="V10" s="463"/>
-      <c r="W10" s="463"/>
-      <c r="X10" s="468">
+      <c r="U10" s="437"/>
+      <c r="V10" s="437"/>
+      <c r="W10" s="437"/>
+      <c r="X10" s="444">
         <v>830106</v>
       </c>
-      <c r="Y10" s="469"/>
-      <c r="Z10" s="463">
+      <c r="Y10" s="445"/>
+      <c r="Z10" s="437">
         <f>'whobor-wzd'!N2/$B$3</f>
-        <v>8.9714546670602177E-2</v>
-      </c>
-      <c r="AA10" s="463"/>
-      <c r="AB10" s="463"/>
-      <c r="AC10" s="464"/>
+        <v>8.9095019260173242E-2</v>
+      </c>
+      <c r="AA10" s="437"/>
+      <c r="AB10" s="437"/>
+      <c r="AC10" s="438"/>
     </row>
     <row r="11" spans="1:40" ht="28.5" customHeight="1">
       <c r="A11" s="294" t="s">
@@ -18742,11 +18813,11 @@
       </c>
       <c r="L12" s="304">
         <f>SUM(L13:L985)</f>
-        <v>39778.75</v>
+        <v>49778.75</v>
       </c>
       <c r="M12" s="305">
         <f>SUM(M13:M985)</f>
-        <v>5103.5600000000004</v>
+        <v>5218.4900000000007</v>
       </c>
       <c r="N12" s="305">
         <f>SUM(N13:N985)</f>
@@ -18759,7 +18830,7 @@
       </c>
       <c r="Q12" s="310">
         <f>人人贷!E3</f>
-        <v>35618.539999999994</v>
+        <v>45503.609999999993</v>
       </c>
       <c r="R12" s="308">
         <f>SUM(R13:R985)</f>
@@ -35032,8 +35103,12 @@
       <c r="I462" s="315"/>
       <c r="J462" s="315"/>
       <c r="K462" s="316"/>
-      <c r="L462" s="315"/>
-      <c r="M462" s="315"/>
+      <c r="L462" s="315">
+        <v>10000</v>
+      </c>
+      <c r="M462" s="315">
+        <v>114.93</v>
+      </c>
       <c r="N462" s="315"/>
       <c r="O462" s="315"/>
       <c r="P462" s="315"/>
@@ -35745,6 +35820,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="L7:Q7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B9:C9"/>
@@ -35761,27 +35857,6 @@
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44468,12 +44543,12 @@
         <v>1029</v>
       </c>
       <c r="P79" s="403"/>
-      <c r="Q79" s="473"/>
-      <c r="R79" s="475"/>
-      <c r="S79" s="477"/>
-      <c r="T79" s="477"/>
-      <c r="U79" s="481"/>
-      <c r="V79" s="483"/>
+      <c r="Q79" s="485"/>
+      <c r="R79" s="486"/>
+      <c r="S79" s="487"/>
+      <c r="T79" s="487"/>
+      <c r="U79" s="483"/>
+      <c r="V79" s="484"/>
     </row>
     <row r="80" spans="1:22" s="385" customFormat="1" ht="26.25" thickBot="1">
       <c r="A80" s="373">
@@ -44522,12 +44597,12 @@
         <v>1031</v>
       </c>
       <c r="P80" s="404"/>
-      <c r="Q80" s="474"/>
-      <c r="R80" s="476"/>
-      <c r="S80" s="478"/>
-      <c r="T80" s="478"/>
-      <c r="U80" s="482"/>
-      <c r="V80" s="484"/>
+      <c r="Q80" s="480"/>
+      <c r="R80" s="482"/>
+      <c r="S80" s="474"/>
+      <c r="T80" s="474"/>
+      <c r="U80" s="476"/>
+      <c r="V80" s="478"/>
     </row>
     <row r="81" spans="1:22" s="385" customFormat="1" ht="26.25" thickBot="1">
       <c r="A81" s="373">
@@ -44576,12 +44651,12 @@
         <v>1033</v>
       </c>
       <c r="P81" s="403"/>
-      <c r="Q81" s="485"/>
-      <c r="R81" s="479"/>
-      <c r="S81" s="480"/>
-      <c r="T81" s="480"/>
-      <c r="U81" s="486"/>
-      <c r="V81" s="487"/>
+      <c r="Q81" s="479"/>
+      <c r="R81" s="481"/>
+      <c r="S81" s="473"/>
+      <c r="T81" s="473"/>
+      <c r="U81" s="475"/>
+      <c r="V81" s="477"/>
     </row>
     <row r="82" spans="1:22" s="400" customFormat="1" ht="26.25" thickBot="1">
       <c r="A82" s="373">
@@ -44630,12 +44705,12 @@
         <v>1046</v>
       </c>
       <c r="P82" s="404"/>
-      <c r="Q82" s="474"/>
-      <c r="R82" s="476"/>
-      <c r="S82" s="478"/>
-      <c r="T82" s="478"/>
-      <c r="U82" s="482"/>
-      <c r="V82" s="484"/>
+      <c r="Q82" s="480"/>
+      <c r="R82" s="482"/>
+      <c r="S82" s="474"/>
+      <c r="T82" s="474"/>
+      <c r="U82" s="476"/>
+      <c r="V82" s="478"/>
     </row>
     <row r="83" spans="1:22" s="401" customFormat="1" ht="26.25" thickBot="1">
       <c r="A83" s="373">
@@ -44684,12 +44759,12 @@
         <v>1049</v>
       </c>
       <c r="P83" s="403"/>
-      <c r="Q83" s="485"/>
-      <c r="R83" s="479"/>
-      <c r="S83" s="480"/>
-      <c r="T83" s="480"/>
-      <c r="U83" s="486"/>
-      <c r="V83" s="487"/>
+      <c r="Q83" s="479"/>
+      <c r="R83" s="481"/>
+      <c r="S83" s="473"/>
+      <c r="T83" s="473"/>
+      <c r="U83" s="475"/>
+      <c r="V83" s="477"/>
     </row>
     <row r="84" spans="1:22" s="401" customFormat="1" ht="26.25" thickBot="1">
       <c r="A84" s="373">
@@ -44738,12 +44813,12 @@
         <v>1054</v>
       </c>
       <c r="P84" s="404"/>
-      <c r="Q84" s="474"/>
-      <c r="R84" s="476"/>
-      <c r="S84" s="478"/>
-      <c r="T84" s="478"/>
-      <c r="U84" s="482"/>
-      <c r="V84" s="484"/>
+      <c r="Q84" s="480"/>
+      <c r="R84" s="482"/>
+      <c r="S84" s="474"/>
+      <c r="T84" s="474"/>
+      <c r="U84" s="476"/>
+      <c r="V84" s="478"/>
     </row>
     <row r="85" spans="1:22" s="401" customFormat="1" ht="26.25" thickBot="1">
       <c r="A85" s="373">
@@ -44792,12 +44867,12 @@
         <v>1053</v>
       </c>
       <c r="P85" s="403"/>
-      <c r="Q85" s="485"/>
-      <c r="R85" s="479"/>
-      <c r="S85" s="480"/>
-      <c r="T85" s="480"/>
-      <c r="U85" s="486"/>
-      <c r="V85" s="487"/>
+      <c r="Q85" s="479"/>
+      <c r="R85" s="481"/>
+      <c r="S85" s="473"/>
+      <c r="T85" s="473"/>
+      <c r="U85" s="475"/>
+      <c r="V85" s="477"/>
     </row>
     <row r="86" spans="1:22" s="401" customFormat="1" ht="26.25" thickBot="1">
       <c r="A86" s="373">
@@ -44846,12 +44921,12 @@
         <v>1053</v>
       </c>
       <c r="P86" s="404"/>
-      <c r="Q86" s="474"/>
-      <c r="R86" s="476"/>
-      <c r="S86" s="478"/>
-      <c r="T86" s="478"/>
-      <c r="U86" s="482"/>
-      <c r="V86" s="484"/>
+      <c r="Q86" s="480"/>
+      <c r="R86" s="482"/>
+      <c r="S86" s="474"/>
+      <c r="T86" s="474"/>
+      <c r="U86" s="476"/>
+      <c r="V86" s="478"/>
     </row>
     <row r="87" spans="1:22" s="410" customFormat="1" ht="26.25" thickBot="1">
       <c r="A87" s="373">
@@ -54874,6 +54949,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="T79:T80"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="V79:V80"/>
+    <mergeCell ref="Q81:Q82"/>
+    <mergeCell ref="R81:R82"/>
+    <mergeCell ref="S81:S82"/>
+    <mergeCell ref="T81:T82"/>
+    <mergeCell ref="U81:U82"/>
+    <mergeCell ref="V81:V82"/>
     <mergeCell ref="S85:S86"/>
     <mergeCell ref="T85:T86"/>
     <mergeCell ref="U85:U86"/>
@@ -54883,22 +54971,9 @@
     <mergeCell ref="S83:S84"/>
     <mergeCell ref="T83:T84"/>
     <mergeCell ref="U83:U84"/>
-    <mergeCell ref="U79:U80"/>
-    <mergeCell ref="V79:V80"/>
-    <mergeCell ref="Q81:Q82"/>
-    <mergeCell ref="R81:R82"/>
-    <mergeCell ref="S81:S82"/>
-    <mergeCell ref="T81:T82"/>
-    <mergeCell ref="U81:U82"/>
-    <mergeCell ref="V81:V82"/>
     <mergeCell ref="V83:V84"/>
     <mergeCell ref="Q85:Q86"/>
     <mergeCell ref="R85:R86"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="T79:T80"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56168,8 +56243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56625,19 +56700,19 @@
       </c>
       <c r="C3" s="242">
         <f>M3</f>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D3" s="242">
         <f>M3</f>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E3" s="240">
         <f>A3+C3-D12</f>
-        <v>35618.539999999994</v>
+        <v>45503.609999999993</v>
       </c>
       <c r="F3" s="239">
         <f>B3+D3-D12</f>
-        <v>36780.93</v>
+        <v>46666</v>
       </c>
       <c r="I3" s="205"/>
       <c r="J3" s="206"/>
@@ -56645,7 +56720,7 @@
       <c r="L3" s="207"/>
       <c r="M3" s="208">
         <f>SUM(M4:M101)</f>
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -56737,11 +56812,21 @@
       <c r="D7" s="235">
         <v>2467.2000000000003</v>
       </c>
-      <c r="I7" s="196"/>
-      <c r="J7" s="196"/>
-      <c r="K7" s="196"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="198"/>
+      <c r="I7" s="199">
+        <v>43679</v>
+      </c>
+      <c r="J7" s="199">
+        <v>42947</v>
+      </c>
+      <c r="K7" s="196" t="s">
+        <v>1379</v>
+      </c>
+      <c r="L7" s="342">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="200">
+        <v>10000</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="234">
@@ -56812,8 +56897,8 @@
         <v>5</v>
       </c>
       <c r="D12" s="356">
-        <f>820.28+481.68+177.77+2612.05+112.35+228.2</f>
-        <v>4432.33</v>
+        <f>820.28+481.68+177.77+2612.05+112.35+228.2+114.93</f>
+        <v>4547.26</v>
       </c>
       <c r="I12" s="196"/>
       <c r="J12" s="196"/>

--- a/HighRiskInvestment.xlsx
+++ b/HighRiskInvestment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="4410" tabRatio="771" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="4410" tabRatio="771" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ESPP" sheetId="10" r:id="rId1"/>
@@ -25,9 +25,9 @@
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="9" r:id="rId16"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -38,7 +38,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0">
+    <comment ref="H9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0">
+    <comment ref="D28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K28" authorId="0">
+    <comment ref="K28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +197,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G62" authorId="0">
+    <comment ref="G62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z79" authorId="0">
+    <comment ref="Z79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B164" authorId="0">
+    <comment ref="B164" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G164" authorId="0">
+    <comment ref="G164" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G165" authorId="0">
+    <comment ref="G165" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G168" authorId="0">
+    <comment ref="G168" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y172" authorId="0">
+    <comment ref="Y172" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D229" authorId="0">
+    <comment ref="D229" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z234" authorId="0">
+    <comment ref="Z234" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -455,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X245" authorId="0">
+    <comment ref="X245" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -479,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z245" authorId="0">
+    <comment ref="Z245" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -503,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z253" authorId="0">
+    <comment ref="Z253" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -527,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z269" authorId="0">
+    <comment ref="Z269" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z270" authorId="0">
+    <comment ref="Z270" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -575,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z271" authorId="0">
+    <comment ref="Z271" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z280" authorId="0">
+    <comment ref="Z280" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -624,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z281" authorId="0">
+    <comment ref="Z281" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -648,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z282" authorId="0">
+    <comment ref="Z282" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -672,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z283" authorId="0">
+    <comment ref="Z283" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -696,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z285" authorId="0">
+    <comment ref="Z285" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -720,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z306" authorId="0">
+    <comment ref="Z306" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -744,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D314" authorId="0">
+    <comment ref="D314" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -768,7 +768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z314" authorId="0">
+    <comment ref="Z314" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -792,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D362" authorId="0">
+    <comment ref="D362" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -816,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z396" authorId="0">
+    <comment ref="Z396" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -840,7 +840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N397" authorId="0">
+    <comment ref="N397" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z398" authorId="0">
+    <comment ref="Z398" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -888,7 +888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D399" authorId="0">
+    <comment ref="D399" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -912,7 +912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D404" authorId="0">
+    <comment ref="D404" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -936,7 +936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z412" authorId="0">
+    <comment ref="Z412" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -960,7 +960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D414" authorId="0">
+    <comment ref="D414" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -975,7 +975,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D420" authorId="0">
+    <comment ref="D420" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1009,7 +1009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D426" authorId="0">
+    <comment ref="D426" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N432" authorId="0">
+    <comment ref="N432" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1057,7 +1057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z436" authorId="0">
+    <comment ref="Z436" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1081,7 +1081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z439" authorId="0">
+    <comment ref="Z439" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z440" authorId="0">
+    <comment ref="Z440" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1129,7 +1129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z443" authorId="0">
+    <comment ref="Z443" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z445" authorId="0">
+    <comment ref="Z445" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z446" authorId="0">
+    <comment ref="Z446" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z451" authorId="0">
+    <comment ref="Z451" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z453" authorId="0">
+    <comment ref="Z453" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z460" authorId="0">
+    <comment ref="Z460" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1274,7 +1274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D461" authorId="0">
+    <comment ref="D461" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1308,7 +1308,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="J2" authorId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1332,7 +1332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1366,7 +1366,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="J2" authorId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1390,7 +1390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8045,6 +8045,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8054,17 +8057,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8079,93 +8079,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8189,23 +8102,122 @@
     <xf numFmtId="0" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="65" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="65" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="63" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="63" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="8" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="63" fillId="8" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="63" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="63" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="76" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8214,28 +8226,16 @@
     <xf numFmtId="22" fontId="65" fillId="8" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="65" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="63" fillId="8" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="63" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="8" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="63" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="63" fillId="8" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="65" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="76" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8249,12 +8249,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8275,18 +8269,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8311,6 +8293,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8367,74 +8367,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -11602,7 +11534,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:D10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -11693,7 +11625,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -11778,7 +11710,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -11813,7 +11745,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11848,7 +11780,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12089,11 +12021,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A1" s="424" t="s">
+      <c r="A1" s="423" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="424"/>
-      <c r="C1" s="424"/>
+      <c r="B1" s="423"/>
+      <c r="C1" s="423"/>
       <c r="D1" s="110">
         <f>SUM(G10:G88)-SUM(L10:L88)</f>
         <v>268</v>
@@ -12106,11 +12038,11 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A2" s="425" t="s">
+      <c r="A2" s="424" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="425"/>
-      <c r="C2" s="425"/>
+      <c r="B2" s="424"/>
+      <c r="C2" s="424"/>
       <c r="D2" s="111">
         <v>29.75</v>
       </c>
@@ -12125,11 +12057,11 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A3" s="425" t="s">
+      <c r="A3" s="424" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="425"/>
-      <c r="C3" s="425"/>
+      <c r="B3" s="424"/>
+      <c r="C3" s="424"/>
       <c r="D3" s="111">
         <f>D1*0.85</f>
         <v>227.79999999999998</v>
@@ -12145,11 +12077,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A4" s="425" t="s">
+      <c r="A4" s="424" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="425"/>
-      <c r="C4" s="425"/>
+      <c r="B4" s="424"/>
+      <c r="C4" s="424"/>
       <c r="D4" s="112">
         <f>([1]Sheet2!B64)/100</f>
         <v>6.1073000000000004</v>
@@ -12159,11 +12091,11 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="423" t="s">
+      <c r="A5" s="419" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="423"/>
-      <c r="C5" s="423"/>
+      <c r="B5" s="419"/>
+      <c r="C5" s="419"/>
       <c r="D5" s="113">
         <f>SUM(D10:D88)+SUM(H10:H88)</f>
         <v>76568.666499999992</v>
@@ -12173,11 +12105,11 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A6" s="423" t="s">
+      <c r="A6" s="419" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="423"/>
-      <c r="C6" s="423"/>
+      <c r="B6" s="419"/>
+      <c r="C6" s="419"/>
       <c r="D6" s="114">
         <f>SUM(Q10:Q88)</f>
         <v>48178.589949999994</v>
@@ -12191,11 +12123,11 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A7" s="423" t="s">
+      <c r="A7" s="419" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="423"/>
-      <c r="C7" s="423"/>
+      <c r="B7" s="419"/>
+      <c r="C7" s="419"/>
       <c r="D7" s="116">
         <f>D6-D5</f>
         <v>-28390.076549999998</v>
@@ -12274,38 +12206,38 @@
       <c r="B10" s="109">
         <v>0</v>
       </c>
-      <c r="C10" s="419">
+      <c r="C10" s="420">
         <v>68.97</v>
       </c>
-      <c r="D10" s="420">
+      <c r="D10" s="421">
         <f>IF(B15&gt;0,SUM(B10:B15)-C10,0)</f>
         <v>10580.78</v>
       </c>
-      <c r="E10" s="419">
+      <c r="E10" s="420">
         <v>6.2854999999999999</v>
       </c>
-      <c r="F10" s="419">
+      <c r="F10" s="420">
         <v>25.3</v>
       </c>
-      <c r="G10" s="421">
+      <c r="G10" s="422">
         <v>79</v>
       </c>
       <c r="H10" s="120">
         <f t="shared" ref="H10:H15" si="0">R16*0.2</f>
         <v>62.814</v>
       </c>
-      <c r="I10" s="422">
+      <c r="I10" s="425">
         <f>IF($K$28&gt;F10,G10*($K$28-F10)*0.2,0)</f>
         <v>70.309999999999988</v>
       </c>
-      <c r="J10" s="422"/>
-      <c r="K10" s="422"/>
-      <c r="L10" s="422"/>
-      <c r="M10" s="422"/>
-      <c r="N10" s="422"/>
-      <c r="O10" s="422"/>
-      <c r="P10" s="422"/>
-      <c r="Q10" s="422"/>
+      <c r="J10" s="425"/>
+      <c r="K10" s="425"/>
+      <c r="L10" s="425"/>
+      <c r="M10" s="425"/>
+      <c r="N10" s="425"/>
+      <c r="O10" s="425"/>
+      <c r="P10" s="425"/>
+      <c r="Q10" s="425"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
@@ -12314,26 +12246,26 @@
       <c r="B11" s="109">
         <v>3400.95</v>
       </c>
-      <c r="C11" s="419">
+      <c r="C11" s="420">
         <v>3400.95</v>
       </c>
-      <c r="D11" s="420"/>
-      <c r="E11" s="419"/>
-      <c r="F11" s="419"/>
-      <c r="G11" s="421"/>
+      <c r="D11" s="421"/>
+      <c r="E11" s="420"/>
+      <c r="F11" s="420"/>
+      <c r="G11" s="422"/>
       <c r="H11" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I11" s="422"/>
-      <c r="J11" s="422"/>
-      <c r="K11" s="422"/>
-      <c r="L11" s="422"/>
-      <c r="M11" s="422"/>
-      <c r="N11" s="422"/>
-      <c r="O11" s="422"/>
-      <c r="P11" s="422"/>
-      <c r="Q11" s="422"/>
+      <c r="I11" s="425"/>
+      <c r="J11" s="425"/>
+      <c r="K11" s="425"/>
+      <c r="L11" s="425"/>
+      <c r="M11" s="425"/>
+      <c r="N11" s="425"/>
+      <c r="O11" s="425"/>
+      <c r="P11" s="425"/>
+      <c r="Q11" s="425"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1">
@@ -12342,26 +12274,26 @@
       <c r="B12" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C12" s="419">
+      <c r="C12" s="420">
         <v>1706.25</v>
       </c>
-      <c r="D12" s="420"/>
-      <c r="E12" s="419"/>
-      <c r="F12" s="419"/>
-      <c r="G12" s="421"/>
+      <c r="D12" s="421"/>
+      <c r="E12" s="420"/>
+      <c r="F12" s="420"/>
+      <c r="G12" s="422"/>
       <c r="H12" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I12" s="422"/>
-      <c r="J12" s="422"/>
-      <c r="K12" s="422"/>
-      <c r="L12" s="422"/>
-      <c r="M12" s="422"/>
-      <c r="N12" s="422"/>
-      <c r="O12" s="422"/>
-      <c r="P12" s="422"/>
-      <c r="Q12" s="422"/>
+      <c r="I12" s="425"/>
+      <c r="J12" s="425"/>
+      <c r="K12" s="425"/>
+      <c r="L12" s="425"/>
+      <c r="M12" s="425"/>
+      <c r="N12" s="425"/>
+      <c r="O12" s="425"/>
+      <c r="P12" s="425"/>
+      <c r="Q12" s="425"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1">
@@ -12370,26 +12302,26 @@
       <c r="B13" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C13" s="419">
+      <c r="C13" s="420">
         <v>1706.25</v>
       </c>
-      <c r="D13" s="420"/>
-      <c r="E13" s="419"/>
-      <c r="F13" s="419"/>
-      <c r="G13" s="421"/>
+      <c r="D13" s="421"/>
+      <c r="E13" s="420"/>
+      <c r="F13" s="420"/>
+      <c r="G13" s="422"/>
       <c r="H13" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I13" s="422"/>
-      <c r="J13" s="422"/>
-      <c r="K13" s="422"/>
-      <c r="L13" s="422"/>
-      <c r="M13" s="422"/>
-      <c r="N13" s="422"/>
-      <c r="O13" s="422"/>
-      <c r="P13" s="422"/>
-      <c r="Q13" s="422"/>
+      <c r="I13" s="425"/>
+      <c r="J13" s="425"/>
+      <c r="K13" s="425"/>
+      <c r="L13" s="425"/>
+      <c r="M13" s="425"/>
+      <c r="N13" s="425"/>
+      <c r="O13" s="425"/>
+      <c r="P13" s="425"/>
+      <c r="Q13" s="425"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1">
@@ -12398,26 +12330,26 @@
       <c r="B14" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C14" s="419">
+      <c r="C14" s="420">
         <v>1918.15</v>
       </c>
-      <c r="D14" s="420"/>
-      <c r="E14" s="419"/>
-      <c r="F14" s="419"/>
-      <c r="G14" s="421"/>
+      <c r="D14" s="421"/>
+      <c r="E14" s="420"/>
+      <c r="F14" s="420"/>
+      <c r="G14" s="422"/>
       <c r="H14" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I14" s="422"/>
-      <c r="J14" s="422"/>
-      <c r="K14" s="422"/>
-      <c r="L14" s="422"/>
-      <c r="M14" s="422"/>
-      <c r="N14" s="422"/>
-      <c r="O14" s="422"/>
-      <c r="P14" s="422"/>
-      <c r="Q14" s="422"/>
+      <c r="I14" s="425"/>
+      <c r="J14" s="425"/>
+      <c r="K14" s="425"/>
+      <c r="L14" s="425"/>
+      <c r="M14" s="425"/>
+      <c r="N14" s="425"/>
+      <c r="O14" s="425"/>
+      <c r="P14" s="425"/>
+      <c r="Q14" s="425"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1">
@@ -12426,26 +12358,26 @@
       <c r="B15" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C15" s="419">
+      <c r="C15" s="420">
         <v>1918.15</v>
       </c>
-      <c r="D15" s="420"/>
-      <c r="E15" s="419"/>
-      <c r="F15" s="419"/>
-      <c r="G15" s="421"/>
+      <c r="D15" s="421"/>
+      <c r="E15" s="420"/>
+      <c r="F15" s="420"/>
+      <c r="G15" s="422"/>
       <c r="H15" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I15" s="422"/>
-      <c r="J15" s="422"/>
-      <c r="K15" s="422"/>
-      <c r="L15" s="422"/>
-      <c r="M15" s="422"/>
-      <c r="N15" s="422"/>
-      <c r="O15" s="422"/>
-      <c r="P15" s="422"/>
-      <c r="Q15" s="422"/>
+      <c r="I15" s="425"/>
+      <c r="J15" s="425"/>
+      <c r="K15" s="425"/>
+      <c r="L15" s="425"/>
+      <c r="M15" s="425"/>
+      <c r="N15" s="425"/>
+      <c r="O15" s="425"/>
+      <c r="P15" s="425"/>
+      <c r="Q15" s="425"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1">
@@ -12454,38 +12386,38 @@
       <c r="B16" s="109">
         <v>1693.15</v>
       </c>
-      <c r="C16" s="419">
+      <c r="C16" s="420">
         <v>48.24</v>
       </c>
-      <c r="D16" s="420">
+      <c r="D16" s="421">
         <f>IF(B21&gt;0,SUM(B16:B21)-C16,0)</f>
         <v>11196.460000000001</v>
       </c>
-      <c r="E16" s="419">
+      <c r="E16" s="420">
         <v>6.1787000000000001</v>
       </c>
-      <c r="F16" s="419">
+      <c r="F16" s="420">
         <v>23.62</v>
       </c>
-      <c r="G16" s="421">
+      <c r="G16" s="422">
         <v>90</v>
       </c>
       <c r="H16" s="120">
         <f>R22*0.25</f>
         <v>81.435000000000002</v>
       </c>
-      <c r="I16" s="422">
+      <c r="I16" s="425">
         <f>IF($K$28&gt;F16,G16*($K$28-F16)*0.2,0)</f>
         <v>110.33999999999999</v>
       </c>
-      <c r="J16" s="422"/>
-      <c r="K16" s="422"/>
-      <c r="L16" s="422"/>
-      <c r="M16" s="422"/>
-      <c r="N16" s="422"/>
-      <c r="O16" s="422"/>
-      <c r="P16" s="422"/>
-      <c r="Q16" s="422"/>
+      <c r="J16" s="425"/>
+      <c r="K16" s="425"/>
+      <c r="L16" s="425"/>
+      <c r="M16" s="425"/>
+      <c r="N16" s="425"/>
+      <c r="O16" s="425"/>
+      <c r="P16" s="425"/>
+      <c r="Q16" s="425"/>
       <c r="R16" s="109">
         <v>314.07</v>
       </c>
@@ -12497,24 +12429,24 @@
       <c r="B17" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C17" s="419"/>
-      <c r="D17" s="420"/>
-      <c r="E17" s="419"/>
-      <c r="F17" s="419"/>
-      <c r="G17" s="421"/>
+      <c r="C17" s="420"/>
+      <c r="D17" s="421"/>
+      <c r="E17" s="420"/>
+      <c r="F17" s="420"/>
+      <c r="G17" s="422"/>
       <c r="H17" s="120">
         <f t="shared" ref="H17:H80" si="1">R23*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I17" s="422"/>
-      <c r="J17" s="422"/>
-      <c r="K17" s="422"/>
-      <c r="L17" s="422"/>
-      <c r="M17" s="422"/>
-      <c r="N17" s="422"/>
-      <c r="O17" s="422"/>
-      <c r="P17" s="422"/>
-      <c r="Q17" s="422"/>
+      <c r="I17" s="425"/>
+      <c r="J17" s="425"/>
+      <c r="K17" s="425"/>
+      <c r="L17" s="425"/>
+      <c r="M17" s="425"/>
+      <c r="N17" s="425"/>
+      <c r="O17" s="425"/>
+      <c r="P17" s="425"/>
+      <c r="Q17" s="425"/>
       <c r="R17" s="109">
         <f>R16</f>
         <v>314.07</v>
@@ -12527,24 +12459,24 @@
       <c r="B18" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C18" s="419"/>
-      <c r="D18" s="420"/>
-      <c r="E18" s="419"/>
-      <c r="F18" s="419"/>
-      <c r="G18" s="421"/>
+      <c r="C18" s="420"/>
+      <c r="D18" s="421"/>
+      <c r="E18" s="420"/>
+      <c r="F18" s="420"/>
+      <c r="G18" s="422"/>
       <c r="H18" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I18" s="422"/>
-      <c r="J18" s="422"/>
-      <c r="K18" s="422"/>
-      <c r="L18" s="422"/>
-      <c r="M18" s="422"/>
-      <c r="N18" s="422"/>
-      <c r="O18" s="422"/>
-      <c r="P18" s="422"/>
-      <c r="Q18" s="422"/>
+      <c r="I18" s="425"/>
+      <c r="J18" s="425"/>
+      <c r="K18" s="425"/>
+      <c r="L18" s="425"/>
+      <c r="M18" s="425"/>
+      <c r="N18" s="425"/>
+      <c r="O18" s="425"/>
+      <c r="P18" s="425"/>
+      <c r="Q18" s="425"/>
       <c r="R18" s="109">
         <f t="shared" ref="R18:R32" si="2">R17</f>
         <v>314.07</v>
@@ -12557,24 +12489,24 @@
       <c r="B19" s="121">
         <v>2196.35</v>
       </c>
-      <c r="C19" s="419"/>
-      <c r="D19" s="420"/>
-      <c r="E19" s="419"/>
-      <c r="F19" s="419"/>
-      <c r="G19" s="421"/>
+      <c r="C19" s="420"/>
+      <c r="D19" s="421"/>
+      <c r="E19" s="420"/>
+      <c r="F19" s="420"/>
+      <c r="G19" s="422"/>
       <c r="H19" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I19" s="422"/>
-      <c r="J19" s="422"/>
-      <c r="K19" s="422"/>
-      <c r="L19" s="422"/>
-      <c r="M19" s="422"/>
-      <c r="N19" s="422"/>
-      <c r="O19" s="422"/>
-      <c r="P19" s="422"/>
-      <c r="Q19" s="422"/>
+      <c r="I19" s="425"/>
+      <c r="J19" s="425"/>
+      <c r="K19" s="425"/>
+      <c r="L19" s="425"/>
+      <c r="M19" s="425"/>
+      <c r="N19" s="425"/>
+      <c r="O19" s="425"/>
+      <c r="P19" s="425"/>
+      <c r="Q19" s="425"/>
       <c r="R19" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12587,24 +12519,24 @@
       <c r="B20" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C20" s="419"/>
-      <c r="D20" s="420"/>
-      <c r="E20" s="419"/>
-      <c r="F20" s="419"/>
-      <c r="G20" s="421"/>
+      <c r="C20" s="420"/>
+      <c r="D20" s="421"/>
+      <c r="E20" s="420"/>
+      <c r="F20" s="420"/>
+      <c r="G20" s="422"/>
       <c r="H20" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I20" s="422"/>
-      <c r="J20" s="422"/>
-      <c r="K20" s="422"/>
-      <c r="L20" s="422"/>
-      <c r="M20" s="422"/>
-      <c r="N20" s="422"/>
-      <c r="O20" s="422"/>
-      <c r="P20" s="422"/>
-      <c r="Q20" s="422"/>
+      <c r="I20" s="425"/>
+      <c r="J20" s="425"/>
+      <c r="K20" s="425"/>
+      <c r="L20" s="425"/>
+      <c r="M20" s="425"/>
+      <c r="N20" s="425"/>
+      <c r="O20" s="425"/>
+      <c r="P20" s="425"/>
+      <c r="Q20" s="425"/>
       <c r="R20" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12617,24 +12549,24 @@
       <c r="B21" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C21" s="419"/>
-      <c r="D21" s="420"/>
-      <c r="E21" s="419"/>
-      <c r="F21" s="419"/>
-      <c r="G21" s="421"/>
+      <c r="C21" s="420"/>
+      <c r="D21" s="421"/>
+      <c r="E21" s="420"/>
+      <c r="F21" s="420"/>
+      <c r="G21" s="422"/>
       <c r="H21" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I21" s="422"/>
-      <c r="J21" s="422"/>
-      <c r="K21" s="422"/>
-      <c r="L21" s="422"/>
-      <c r="M21" s="422"/>
-      <c r="N21" s="422"/>
-      <c r="O21" s="422"/>
-      <c r="P21" s="422"/>
-      <c r="Q21" s="422"/>
+      <c r="I21" s="425"/>
+      <c r="J21" s="425"/>
+      <c r="K21" s="425"/>
+      <c r="L21" s="425"/>
+      <c r="M21" s="425"/>
+      <c r="N21" s="425"/>
+      <c r="O21" s="425"/>
+      <c r="P21" s="425"/>
+      <c r="Q21" s="425"/>
       <c r="R21" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -12647,38 +12579,38 @@
       <c r="B22" s="121">
         <v>1958.23</v>
       </c>
-      <c r="C22" s="419">
+      <c r="C22" s="420">
         <v>34.549999999999997</v>
       </c>
-      <c r="D22" s="420">
+      <c r="D22" s="421">
         <f>IF(B27&gt;0,SUM(B22:B27)-C22,0)</f>
         <v>11771.410000000002</v>
       </c>
-      <c r="E22" s="419">
+      <c r="E22" s="420">
         <v>6.1050000000000004</v>
       </c>
-      <c r="F22" s="419">
+      <c r="F22" s="420">
         <v>24.24</v>
       </c>
-      <c r="G22" s="421">
+      <c r="G22" s="422">
         <v>109</v>
       </c>
       <c r="H22" s="120">
         <f>R28*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I22" s="422">
+      <c r="I22" s="425">
         <f>IF($K$28&gt;F22,G22*($K$28-F22)*0.2,0)</f>
         <v>120.11800000000004</v>
       </c>
-      <c r="J22" s="422"/>
-      <c r="K22" s="422"/>
-      <c r="L22" s="422"/>
-      <c r="M22" s="422"/>
-      <c r="N22" s="422"/>
-      <c r="O22" s="422"/>
-      <c r="P22" s="422"/>
-      <c r="Q22" s="422"/>
+      <c r="J22" s="425"/>
+      <c r="K22" s="425"/>
+      <c r="L22" s="425"/>
+      <c r="M22" s="425"/>
+      <c r="N22" s="425"/>
+      <c r="O22" s="425"/>
+      <c r="P22" s="425"/>
+      <c r="Q22" s="425"/>
       <c r="R22" s="109">
         <v>325.74</v>
       </c>
@@ -12690,24 +12622,24 @@
       <c r="B23" s="121">
         <v>1958.24</v>
       </c>
-      <c r="C23" s="419"/>
-      <c r="D23" s="420"/>
-      <c r="E23" s="419"/>
-      <c r="F23" s="419"/>
-      <c r="G23" s="421"/>
+      <c r="C23" s="420"/>
+      <c r="D23" s="421"/>
+      <c r="E23" s="420"/>
+      <c r="F23" s="420"/>
+      <c r="G23" s="422"/>
       <c r="H23" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I23" s="422"/>
-      <c r="J23" s="422"/>
-      <c r="K23" s="422"/>
-      <c r="L23" s="422"/>
-      <c r="M23" s="422"/>
-      <c r="N23" s="422"/>
-      <c r="O23" s="422"/>
-      <c r="P23" s="422"/>
-      <c r="Q23" s="422"/>
+      <c r="I23" s="425"/>
+      <c r="J23" s="425"/>
+      <c r="K23" s="425"/>
+      <c r="L23" s="425"/>
+      <c r="M23" s="425"/>
+      <c r="N23" s="425"/>
+      <c r="O23" s="425"/>
+      <c r="P23" s="425"/>
+      <c r="Q23" s="425"/>
       <c r="R23" s="109">
         <v>271.45</v>
       </c>
@@ -12719,24 +12651,24 @@
       <c r="B24" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C24" s="419"/>
-      <c r="D24" s="420"/>
-      <c r="E24" s="419"/>
-      <c r="F24" s="419"/>
-      <c r="G24" s="421"/>
+      <c r="C24" s="420"/>
+      <c r="D24" s="421"/>
+      <c r="E24" s="420"/>
+      <c r="F24" s="420"/>
+      <c r="G24" s="422"/>
       <c r="H24" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I24" s="422"/>
-      <c r="J24" s="422"/>
-      <c r="K24" s="422"/>
-      <c r="L24" s="422"/>
-      <c r="M24" s="422"/>
-      <c r="N24" s="422"/>
-      <c r="O24" s="422"/>
-      <c r="P24" s="422"/>
-      <c r="Q24" s="422"/>
+      <c r="I24" s="425"/>
+      <c r="J24" s="425"/>
+      <c r="K24" s="425"/>
+      <c r="L24" s="425"/>
+      <c r="M24" s="425"/>
+      <c r="N24" s="425"/>
+      <c r="O24" s="425"/>
+      <c r="P24" s="425"/>
+      <c r="Q24" s="425"/>
       <c r="R24" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12749,24 +12681,24 @@
       <c r="B25" s="121">
         <v>1958.26</v>
       </c>
-      <c r="C25" s="419"/>
-      <c r="D25" s="420"/>
-      <c r="E25" s="419"/>
-      <c r="F25" s="419"/>
-      <c r="G25" s="421"/>
+      <c r="C25" s="420"/>
+      <c r="D25" s="421"/>
+      <c r="E25" s="420"/>
+      <c r="F25" s="420"/>
+      <c r="G25" s="422"/>
       <c r="H25" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I25" s="422"/>
-      <c r="J25" s="422"/>
-      <c r="K25" s="422"/>
-      <c r="L25" s="422"/>
-      <c r="M25" s="422"/>
-      <c r="N25" s="422"/>
-      <c r="O25" s="422"/>
-      <c r="P25" s="422"/>
-      <c r="Q25" s="422"/>
+      <c r="I25" s="425"/>
+      <c r="J25" s="425"/>
+      <c r="K25" s="425"/>
+      <c r="L25" s="425"/>
+      <c r="M25" s="425"/>
+      <c r="N25" s="425"/>
+      <c r="O25" s="425"/>
+      <c r="P25" s="425"/>
+      <c r="Q25" s="425"/>
       <c r="R25" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12779,24 +12711,24 @@
       <c r="B26" s="121">
         <v>2031.49</v>
       </c>
-      <c r="C26" s="419"/>
-      <c r="D26" s="420"/>
-      <c r="E26" s="419"/>
-      <c r="F26" s="419"/>
-      <c r="G26" s="421"/>
+      <c r="C26" s="420"/>
+      <c r="D26" s="421"/>
+      <c r="E26" s="420"/>
+      <c r="F26" s="420"/>
+      <c r="G26" s="422"/>
       <c r="H26" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I26" s="422"/>
-      <c r="J26" s="422"/>
-      <c r="K26" s="422"/>
-      <c r="L26" s="422"/>
-      <c r="M26" s="422"/>
-      <c r="N26" s="422"/>
-      <c r="O26" s="422"/>
-      <c r="P26" s="422"/>
-      <c r="Q26" s="422"/>
+      <c r="I26" s="425"/>
+      <c r="J26" s="425"/>
+      <c r="K26" s="425"/>
+      <c r="L26" s="425"/>
+      <c r="M26" s="425"/>
+      <c r="N26" s="425"/>
+      <c r="O26" s="425"/>
+      <c r="P26" s="425"/>
+      <c r="Q26" s="425"/>
       <c r="R26" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12809,24 +12741,24 @@
       <c r="B27" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C27" s="419"/>
-      <c r="D27" s="420"/>
-      <c r="E27" s="419"/>
-      <c r="F27" s="419"/>
-      <c r="G27" s="421"/>
+      <c r="C27" s="420"/>
+      <c r="D27" s="421"/>
+      <c r="E27" s="420"/>
+      <c r="F27" s="420"/>
+      <c r="G27" s="422"/>
       <c r="H27" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I27" s="422"/>
-      <c r="J27" s="422"/>
-      <c r="K27" s="422"/>
-      <c r="L27" s="422"/>
-      <c r="M27" s="422"/>
-      <c r="N27" s="422"/>
-      <c r="O27" s="422"/>
-      <c r="P27" s="422"/>
-      <c r="Q27" s="422"/>
+      <c r="I27" s="425"/>
+      <c r="J27" s="425"/>
+      <c r="K27" s="425"/>
+      <c r="L27" s="425"/>
+      <c r="M27" s="425"/>
+      <c r="N27" s="425"/>
+      <c r="O27" s="425"/>
+      <c r="P27" s="425"/>
+      <c r="Q27" s="425"/>
       <c r="R27" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -12839,54 +12771,54 @@
       <c r="B28" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C28" s="419">
+      <c r="C28" s="420">
         <v>22.25</v>
       </c>
-      <c r="D28" s="420">
+      <c r="D28" s="421">
         <f>IF(G28&gt;0,SUM(B28:B34)-C28,0)</f>
         <v>14106.8</v>
       </c>
-      <c r="E28" s="419">
+      <c r="E28" s="420">
         <v>6.1675000000000004</v>
       </c>
-      <c r="F28" s="419">
+      <c r="F28" s="420">
         <v>29.3</v>
       </c>
-      <c r="G28" s="421">
+      <c r="G28" s="422">
         <v>79</v>
       </c>
       <c r="H28" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I28" s="422">
+      <c r="I28" s="425">
         <f>IF($D$2&gt;F28,G28*($D$2-F28)*0.2,0)</f>
         <v>7.1099999999999888</v>
       </c>
-      <c r="J28" s="422">
+      <c r="J28" s="425">
         <f>SUM(I10:I27)</f>
         <v>300.76800000000003</v>
       </c>
-      <c r="K28" s="422">
+      <c r="K28" s="425">
         <v>29.75</v>
       </c>
-      <c r="L28" s="422">
+      <c r="L28" s="425">
         <v>278</v>
       </c>
-      <c r="M28" s="422">
+      <c r="M28" s="425">
         <f>IF(IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005)&gt;25,IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005),25)</f>
         <v>41.352499999999999</v>
       </c>
-      <c r="N28" s="422">
+      <c r="N28" s="425">
         <v>5.25</v>
       </c>
-      <c r="O28" s="422">
-        <v>0</v>
-      </c>
-      <c r="P28" s="422">
+      <c r="O28" s="425">
+        <v>0</v>
+      </c>
+      <c r="P28" s="425">
         <v>25</v>
       </c>
-      <c r="Q28" s="422">
+      <c r="Q28" s="425">
         <f>(K28*L28-J28-M28-N28-O28-P28)*S34</f>
         <v>48178.589949999994</v>
       </c>
@@ -12902,24 +12834,24 @@
       <c r="B29" s="121">
         <v>2445.75</v>
       </c>
-      <c r="C29" s="419"/>
-      <c r="D29" s="420"/>
-      <c r="E29" s="419"/>
-      <c r="F29" s="419"/>
-      <c r="G29" s="421"/>
+      <c r="C29" s="420"/>
+      <c r="D29" s="421"/>
+      <c r="E29" s="420"/>
+      <c r="F29" s="420"/>
+      <c r="G29" s="422"/>
       <c r="H29" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I29" s="422"/>
-      <c r="J29" s="422"/>
-      <c r="K29" s="422"/>
-      <c r="L29" s="422"/>
-      <c r="M29" s="422"/>
-      <c r="N29" s="422"/>
-      <c r="O29" s="422"/>
-      <c r="P29" s="422"/>
-      <c r="Q29" s="422"/>
+      <c r="I29" s="425"/>
+      <c r="J29" s="425"/>
+      <c r="K29" s="425"/>
+      <c r="L29" s="425"/>
+      <c r="M29" s="425"/>
+      <c r="N29" s="425"/>
+      <c r="O29" s="425"/>
+      <c r="P29" s="425"/>
+      <c r="Q29" s="425"/>
       <c r="R29" s="109">
         <v>400.35</v>
       </c>
@@ -12931,24 +12863,24 @@
       <c r="B30" s="121">
         <v>1917.03</v>
       </c>
-      <c r="C30" s="419"/>
-      <c r="D30" s="420"/>
-      <c r="E30" s="419"/>
-      <c r="F30" s="419"/>
-      <c r="G30" s="421"/>
+      <c r="C30" s="420"/>
+      <c r="D30" s="421"/>
+      <c r="E30" s="420"/>
+      <c r="F30" s="420"/>
+      <c r="G30" s="422"/>
       <c r="H30" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I30" s="422"/>
-      <c r="J30" s="422"/>
-      <c r="K30" s="422"/>
-      <c r="L30" s="422"/>
-      <c r="M30" s="422"/>
-      <c r="N30" s="422"/>
-      <c r="O30" s="422"/>
-      <c r="P30" s="422"/>
-      <c r="Q30" s="422"/>
+      <c r="I30" s="425"/>
+      <c r="J30" s="425"/>
+      <c r="K30" s="425"/>
+      <c r="L30" s="425"/>
+      <c r="M30" s="425"/>
+      <c r="N30" s="425"/>
+      <c r="O30" s="425"/>
+      <c r="P30" s="425"/>
+      <c r="Q30" s="425"/>
       <c r="R30" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12961,24 +12893,24 @@
       <c r="B31" s="121">
         <v>1827.02</v>
       </c>
-      <c r="C31" s="419"/>
-      <c r="D31" s="420"/>
-      <c r="E31" s="419"/>
-      <c r="F31" s="419"/>
-      <c r="G31" s="421"/>
+      <c r="C31" s="420"/>
+      <c r="D31" s="421"/>
+      <c r="E31" s="420"/>
+      <c r="F31" s="420"/>
+      <c r="G31" s="422"/>
       <c r="H31" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I31" s="422"/>
-      <c r="J31" s="422"/>
-      <c r="K31" s="422"/>
-      <c r="L31" s="422"/>
-      <c r="M31" s="422"/>
-      <c r="N31" s="422"/>
-      <c r="O31" s="422"/>
-      <c r="P31" s="422"/>
-      <c r="Q31" s="422"/>
+      <c r="I31" s="425"/>
+      <c r="J31" s="425"/>
+      <c r="K31" s="425"/>
+      <c r="L31" s="425"/>
+      <c r="M31" s="425"/>
+      <c r="N31" s="425"/>
+      <c r="O31" s="425"/>
+      <c r="P31" s="425"/>
+      <c r="Q31" s="425"/>
       <c r="R31" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -12991,24 +12923,24 @@
       <c r="B32" s="121">
         <v>1958.22</v>
       </c>
-      <c r="C32" s="419"/>
-      <c r="D32" s="420"/>
-      <c r="E32" s="419"/>
-      <c r="F32" s="419"/>
-      <c r="G32" s="421"/>
+      <c r="C32" s="420"/>
+      <c r="D32" s="421"/>
+      <c r="E32" s="420"/>
+      <c r="F32" s="420"/>
+      <c r="G32" s="422"/>
       <c r="H32" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I32" s="422"/>
-      <c r="J32" s="422"/>
-      <c r="K32" s="422"/>
-      <c r="L32" s="422"/>
-      <c r="M32" s="422"/>
-      <c r="N32" s="422"/>
-      <c r="O32" s="422"/>
-      <c r="P32" s="422"/>
-      <c r="Q32" s="422"/>
+      <c r="I32" s="425"/>
+      <c r="J32" s="425"/>
+      <c r="K32" s="425"/>
+      <c r="L32" s="425"/>
+      <c r="M32" s="425"/>
+      <c r="N32" s="425"/>
+      <c r="O32" s="425"/>
+      <c r="P32" s="425"/>
+      <c r="Q32" s="425"/>
       <c r="R32" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -13021,24 +12953,24 @@
       <c r="B33" s="121">
         <v>1958.28</v>
       </c>
-      <c r="C33" s="419"/>
-      <c r="D33" s="420"/>
-      <c r="E33" s="419"/>
-      <c r="F33" s="419"/>
-      <c r="G33" s="421"/>
+      <c r="C33" s="420"/>
+      <c r="D33" s="421"/>
+      <c r="E33" s="420"/>
+      <c r="F33" s="420"/>
+      <c r="G33" s="422"/>
       <c r="H33" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I33" s="422"/>
-      <c r="J33" s="422"/>
-      <c r="K33" s="422"/>
-      <c r="L33" s="422"/>
-      <c r="M33" s="422"/>
-      <c r="N33" s="422"/>
-      <c r="O33" s="422"/>
-      <c r="P33" s="422"/>
-      <c r="Q33" s="422"/>
+      <c r="I33" s="425"/>
+      <c r="J33" s="425"/>
+      <c r="K33" s="425"/>
+      <c r="L33" s="425"/>
+      <c r="M33" s="425"/>
+      <c r="N33" s="425"/>
+      <c r="O33" s="425"/>
+      <c r="P33" s="425"/>
+      <c r="Q33" s="425"/>
       <c r="R33" s="109">
         <f>R30</f>
         <v>400.35</v>
@@ -13051,24 +12983,24 @@
       <c r="B34" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C34" s="419"/>
-      <c r="D34" s="420"/>
-      <c r="E34" s="419"/>
-      <c r="F34" s="419"/>
-      <c r="G34" s="421"/>
+      <c r="C34" s="420"/>
+      <c r="D34" s="421"/>
+      <c r="E34" s="420"/>
+      <c r="F34" s="420"/>
+      <c r="G34" s="422"/>
       <c r="H34" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I34" s="422"/>
-      <c r="J34" s="422"/>
-      <c r="K34" s="422"/>
-      <c r="L34" s="422"/>
-      <c r="M34" s="422"/>
-      <c r="N34" s="422"/>
-      <c r="O34" s="422"/>
-      <c r="P34" s="422"/>
-      <c r="Q34" s="422"/>
+      <c r="I34" s="425"/>
+      <c r="J34" s="425"/>
+      <c r="K34" s="425"/>
+      <c r="L34" s="425"/>
+      <c r="M34" s="425"/>
+      <c r="N34" s="425"/>
+      <c r="O34" s="425"/>
+      <c r="P34" s="425"/>
+      <c r="Q34" s="425"/>
       <c r="R34" s="109">
         <f>R32</f>
         <v>400.35</v>
@@ -13084,38 +13016,38 @@
       <c r="B35" s="121">
         <v>2171.2600000000002</v>
       </c>
-      <c r="C35" s="419">
+      <c r="C35" s="420">
         <v>30.19</v>
       </c>
-      <c r="D35" s="420">
+      <c r="D35" s="421">
         <f>IF(B40&gt;0,SUM(B35:B40)-C35,0)</f>
         <v>13016.160000000002</v>
       </c>
-      <c r="E35" s="419">
+      <c r="E35" s="420">
         <v>6.1369999999999996</v>
       </c>
-      <c r="F35" s="419">
+      <c r="F35" s="420">
         <v>25.93</v>
       </c>
-      <c r="G35" s="421">
+      <c r="G35" s="422">
         <v>96</v>
       </c>
       <c r="H35" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I35" s="422">
+      <c r="I35" s="425">
         <f>IF($D$2&gt;F35,G35*($D$2-F35)*0.2,0)</f>
         <v>73.344000000000008</v>
       </c>
-      <c r="J35" s="422"/>
-      <c r="K35" s="422"/>
-      <c r="L35" s="422"/>
-      <c r="M35" s="422"/>
-      <c r="N35" s="422"/>
-      <c r="O35" s="422"/>
-      <c r="P35" s="422"/>
-      <c r="Q35" s="422"/>
+      <c r="J35" s="425"/>
+      <c r="K35" s="425"/>
+      <c r="L35" s="425"/>
+      <c r="M35" s="425"/>
+      <c r="N35" s="425"/>
+      <c r="O35" s="425"/>
+      <c r="P35" s="425"/>
+      <c r="Q35" s="425"/>
       <c r="R35" s="109">
         <v>358.55</v>
       </c>
@@ -13127,24 +13059,24 @@
       <c r="B36" s="121">
         <v>2081.27</v>
       </c>
-      <c r="C36" s="419"/>
-      <c r="D36" s="420"/>
-      <c r="E36" s="419"/>
-      <c r="F36" s="419"/>
-      <c r="G36" s="421"/>
+      <c r="C36" s="420"/>
+      <c r="D36" s="421"/>
+      <c r="E36" s="420"/>
+      <c r="F36" s="420"/>
+      <c r="G36" s="422"/>
       <c r="H36" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I36" s="422"/>
-      <c r="J36" s="422"/>
-      <c r="K36" s="422"/>
-      <c r="L36" s="422"/>
-      <c r="M36" s="422"/>
-      <c r="N36" s="422"/>
-      <c r="O36" s="422"/>
-      <c r="P36" s="422"/>
-      <c r="Q36" s="422"/>
+      <c r="I36" s="425"/>
+      <c r="J36" s="425"/>
+      <c r="K36" s="425"/>
+      <c r="L36" s="425"/>
+      <c r="M36" s="425"/>
+      <c r="N36" s="425"/>
+      <c r="O36" s="425"/>
+      <c r="P36" s="425"/>
+      <c r="Q36" s="425"/>
       <c r="R36" s="109">
         <v>358.55</v>
       </c>
@@ -13156,24 +13088,24 @@
       <c r="B37" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C37" s="419"/>
-      <c r="D37" s="420"/>
-      <c r="E37" s="419"/>
-      <c r="F37" s="419"/>
-      <c r="G37" s="421"/>
+      <c r="C37" s="420"/>
+      <c r="D37" s="421"/>
+      <c r="E37" s="420"/>
+      <c r="F37" s="420"/>
+      <c r="G37" s="422"/>
       <c r="H37" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I37" s="422"/>
-      <c r="J37" s="422"/>
-      <c r="K37" s="422"/>
-      <c r="L37" s="422"/>
-      <c r="M37" s="422"/>
-      <c r="N37" s="422"/>
-      <c r="O37" s="422"/>
-      <c r="P37" s="422"/>
-      <c r="Q37" s="422"/>
+      <c r="I37" s="425"/>
+      <c r="J37" s="425"/>
+      <c r="K37" s="425"/>
+      <c r="L37" s="425"/>
+      <c r="M37" s="425"/>
+      <c r="N37" s="425"/>
+      <c r="O37" s="425"/>
+      <c r="P37" s="425"/>
+      <c r="Q37" s="425"/>
       <c r="R37" s="109">
         <v>358.55</v>
       </c>
@@ -13185,24 +13117,24 @@
       <c r="B38" s="121">
         <v>2537.5100000000002</v>
       </c>
-      <c r="C38" s="419"/>
-      <c r="D38" s="420"/>
-      <c r="E38" s="419"/>
-      <c r="F38" s="419"/>
-      <c r="G38" s="421"/>
+      <c r="C38" s="420"/>
+      <c r="D38" s="421"/>
+      <c r="E38" s="420"/>
+      <c r="F38" s="420"/>
+      <c r="G38" s="422"/>
       <c r="H38" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I38" s="422"/>
-      <c r="J38" s="422"/>
-      <c r="K38" s="422"/>
-      <c r="L38" s="422"/>
-      <c r="M38" s="422"/>
-      <c r="N38" s="422"/>
-      <c r="O38" s="422"/>
-      <c r="P38" s="422"/>
-      <c r="Q38" s="422"/>
+      <c r="I38" s="425"/>
+      <c r="J38" s="425"/>
+      <c r="K38" s="425"/>
+      <c r="L38" s="425"/>
+      <c r="M38" s="425"/>
+      <c r="N38" s="425"/>
+      <c r="O38" s="425"/>
+      <c r="P38" s="425"/>
+      <c r="Q38" s="425"/>
       <c r="R38" s="109">
         <v>358.55</v>
       </c>
@@ -13214,24 +13146,24 @@
       <c r="B39" s="121">
         <v>2087.52</v>
       </c>
-      <c r="C39" s="419"/>
-      <c r="D39" s="420"/>
-      <c r="E39" s="419"/>
-      <c r="F39" s="419"/>
-      <c r="G39" s="421"/>
+      <c r="C39" s="420"/>
+      <c r="D39" s="421"/>
+      <c r="E39" s="420"/>
+      <c r="F39" s="420"/>
+      <c r="G39" s="422"/>
       <c r="H39" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I39" s="422"/>
-      <c r="J39" s="422"/>
-      <c r="K39" s="422"/>
-      <c r="L39" s="422"/>
-      <c r="M39" s="422"/>
-      <c r="N39" s="422"/>
-      <c r="O39" s="422"/>
-      <c r="P39" s="422"/>
-      <c r="Q39" s="422"/>
+      <c r="I39" s="425"/>
+      <c r="J39" s="425"/>
+      <c r="K39" s="425"/>
+      <c r="L39" s="425"/>
+      <c r="M39" s="425"/>
+      <c r="N39" s="425"/>
+      <c r="O39" s="425"/>
+      <c r="P39" s="425"/>
+      <c r="Q39" s="425"/>
       <c r="R39" s="109">
         <v>358.55</v>
       </c>
@@ -13243,24 +13175,24 @@
       <c r="B40" s="121">
         <v>2087.5300000000002</v>
       </c>
-      <c r="C40" s="419"/>
-      <c r="D40" s="420"/>
-      <c r="E40" s="419"/>
-      <c r="F40" s="419"/>
-      <c r="G40" s="421"/>
+      <c r="C40" s="420"/>
+      <c r="D40" s="421"/>
+      <c r="E40" s="420"/>
+      <c r="F40" s="420"/>
+      <c r="G40" s="422"/>
       <c r="H40" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I40" s="422"/>
-      <c r="J40" s="422"/>
-      <c r="K40" s="422"/>
-      <c r="L40" s="422"/>
-      <c r="M40" s="422"/>
-      <c r="N40" s="422"/>
-      <c r="O40" s="422"/>
-      <c r="P40" s="422"/>
-      <c r="Q40" s="422"/>
+      <c r="I40" s="425"/>
+      <c r="J40" s="425"/>
+      <c r="K40" s="425"/>
+      <c r="L40" s="425"/>
+      <c r="M40" s="425"/>
+      <c r="N40" s="425"/>
+      <c r="O40" s="425"/>
+      <c r="P40" s="425"/>
+      <c r="Q40" s="425"/>
       <c r="R40" s="109">
         <v>358.55</v>
       </c>
@@ -13272,38 +13204,38 @@
       <c r="B41" s="121">
         <v>2362.48</v>
       </c>
-      <c r="C41" s="419">
+      <c r="C41" s="420">
         <v>52.72</v>
       </c>
-      <c r="D41" s="420">
+      <c r="D41" s="421">
         <f>IF(B46&gt;0,SUM(B41:B46)-C41,0)</f>
         <v>13224.73</v>
       </c>
-      <c r="E41" s="419">
+      <c r="E41" s="420">
         <v>6.2213000000000003</v>
       </c>
-      <c r="F41" s="419">
+      <c r="F41" s="420">
         <v>26.89</v>
       </c>
-      <c r="G41" s="421">
+      <c r="G41" s="422">
         <v>93</v>
       </c>
       <c r="H41" s="120">
         <f t="shared" si="1"/>
         <v>95.527500000000003</v>
       </c>
-      <c r="I41" s="422">
+      <c r="I41" s="425">
         <f>IF($D$2&gt;F41,G41*($D$2-F41)*0.2,0)</f>
         <v>53.195999999999998</v>
       </c>
-      <c r="J41" s="422"/>
-      <c r="K41" s="422"/>
-      <c r="L41" s="422"/>
-      <c r="M41" s="422"/>
-      <c r="N41" s="422"/>
-      <c r="O41" s="422"/>
-      <c r="P41" s="422"/>
-      <c r="Q41" s="422"/>
+      <c r="J41" s="425"/>
+      <c r="K41" s="425"/>
+      <c r="L41" s="425"/>
+      <c r="M41" s="425"/>
+      <c r="N41" s="425"/>
+      <c r="O41" s="425"/>
+      <c r="P41" s="425"/>
+      <c r="Q41" s="425"/>
       <c r="R41" s="109">
         <v>381.97</v>
       </c>
@@ -13315,24 +13247,24 @@
       <c r="B42" s="121">
         <v>2174.98</v>
       </c>
-      <c r="C42" s="419"/>
-      <c r="D42" s="420"/>
-      <c r="E42" s="419"/>
-      <c r="F42" s="419"/>
-      <c r="G42" s="421"/>
+      <c r="C42" s="420"/>
+      <c r="D42" s="421"/>
+      <c r="E42" s="420"/>
+      <c r="F42" s="420"/>
+      <c r="G42" s="422"/>
       <c r="H42" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="422"/>
-      <c r="J42" s="422"/>
-      <c r="K42" s="422"/>
-      <c r="L42" s="422"/>
-      <c r="M42" s="422"/>
-      <c r="N42" s="422"/>
-      <c r="O42" s="422"/>
-      <c r="P42" s="422"/>
-      <c r="Q42" s="422"/>
+      <c r="I42" s="425"/>
+      <c r="J42" s="425"/>
+      <c r="K42" s="425"/>
+      <c r="L42" s="425"/>
+      <c r="M42" s="425"/>
+      <c r="N42" s="425"/>
+      <c r="O42" s="425"/>
+      <c r="P42" s="425"/>
+      <c r="Q42" s="425"/>
       <c r="R42" s="109">
         <v>381.97</v>
       </c>
@@ -13344,24 +13276,24 @@
       <c r="B43" s="121">
         <v>2265</v>
       </c>
-      <c r="C43" s="419"/>
-      <c r="D43" s="420"/>
-      <c r="E43" s="419"/>
-      <c r="F43" s="419"/>
-      <c r="G43" s="421"/>
+      <c r="C43" s="420"/>
+      <c r="D43" s="421"/>
+      <c r="E43" s="420"/>
+      <c r="F43" s="420"/>
+      <c r="G43" s="422"/>
       <c r="H43" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I43" s="422"/>
-      <c r="J43" s="422"/>
-      <c r="K43" s="422"/>
-      <c r="L43" s="422"/>
-      <c r="M43" s="422"/>
-      <c r="N43" s="422"/>
-      <c r="O43" s="422"/>
-      <c r="P43" s="422"/>
-      <c r="Q43" s="422"/>
+      <c r="I43" s="425"/>
+      <c r="J43" s="425"/>
+      <c r="K43" s="425"/>
+      <c r="L43" s="425"/>
+      <c r="M43" s="425"/>
+      <c r="N43" s="425"/>
+      <c r="O43" s="425"/>
+      <c r="P43" s="425"/>
+      <c r="Q43" s="425"/>
       <c r="R43" s="109">
         <v>381.97</v>
       </c>
@@ -13373,24 +13305,24 @@
       <c r="B44" s="121">
         <v>2087.5</v>
       </c>
-      <c r="C44" s="419"/>
-      <c r="D44" s="420"/>
-      <c r="E44" s="419"/>
-      <c r="F44" s="419"/>
-      <c r="G44" s="421"/>
+      <c r="C44" s="420"/>
+      <c r="D44" s="421"/>
+      <c r="E44" s="420"/>
+      <c r="F44" s="420"/>
+      <c r="G44" s="422"/>
       <c r="H44" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44" s="422"/>
-      <c r="J44" s="422"/>
-      <c r="K44" s="422"/>
-      <c r="L44" s="422"/>
-      <c r="M44" s="422"/>
-      <c r="N44" s="422"/>
-      <c r="O44" s="422"/>
-      <c r="P44" s="422"/>
-      <c r="Q44" s="422"/>
+      <c r="I44" s="425"/>
+      <c r="J44" s="425"/>
+      <c r="K44" s="425"/>
+      <c r="L44" s="425"/>
+      <c r="M44" s="425"/>
+      <c r="N44" s="425"/>
+      <c r="O44" s="425"/>
+      <c r="P44" s="425"/>
+      <c r="Q44" s="425"/>
       <c r="R44" s="109">
         <v>381.97</v>
       </c>
@@ -13402,24 +13334,24 @@
       <c r="B45" s="121">
         <v>2087.48</v>
       </c>
-      <c r="C45" s="419"/>
-      <c r="D45" s="420"/>
-      <c r="E45" s="419"/>
-      <c r="F45" s="419"/>
-      <c r="G45" s="421"/>
+      <c r="C45" s="420"/>
+      <c r="D45" s="421"/>
+      <c r="E45" s="420"/>
+      <c r="F45" s="420"/>
+      <c r="G45" s="422"/>
       <c r="H45" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45" s="422"/>
-      <c r="J45" s="422"/>
-      <c r="K45" s="422"/>
-      <c r="L45" s="422"/>
-      <c r="M45" s="422"/>
-      <c r="N45" s="422"/>
-      <c r="O45" s="422"/>
-      <c r="P45" s="422"/>
-      <c r="Q45" s="422"/>
+      <c r="I45" s="425"/>
+      <c r="J45" s="425"/>
+      <c r="K45" s="425"/>
+      <c r="L45" s="425"/>
+      <c r="M45" s="425"/>
+      <c r="N45" s="425"/>
+      <c r="O45" s="425"/>
+      <c r="P45" s="425"/>
+      <c r="Q45" s="425"/>
       <c r="R45" s="109">
         <v>381.97</v>
       </c>
@@ -13431,24 +13363,24 @@
       <c r="B46" s="121">
         <v>2300.0100000000002</v>
       </c>
-      <c r="C46" s="419"/>
-      <c r="D46" s="420"/>
-      <c r="E46" s="419"/>
-      <c r="F46" s="419"/>
-      <c r="G46" s="421"/>
+      <c r="C46" s="420"/>
+      <c r="D46" s="421"/>
+      <c r="E46" s="420"/>
+      <c r="F46" s="420"/>
+      <c r="G46" s="422"/>
       <c r="H46" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46" s="422"/>
-      <c r="J46" s="422"/>
-      <c r="K46" s="422"/>
-      <c r="L46" s="422"/>
-      <c r="M46" s="422"/>
-      <c r="N46" s="422"/>
-      <c r="O46" s="422"/>
-      <c r="P46" s="422"/>
-      <c r="Q46" s="422"/>
+      <c r="I46" s="425"/>
+      <c r="J46" s="425"/>
+      <c r="K46" s="425"/>
+      <c r="L46" s="425"/>
+      <c r="M46" s="425"/>
+      <c r="N46" s="425"/>
+      <c r="O46" s="425"/>
+      <c r="P46" s="425"/>
+      <c r="Q46" s="425"/>
       <c r="R46" s="109">
         <v>381.97</v>
       </c>
@@ -13460,38 +13392,38 @@
       <c r="B47" s="121">
         <v>3787.17</v>
       </c>
-      <c r="C47" s="419">
-        <v>0</v>
-      </c>
-      <c r="D47" s="420">
+      <c r="C47" s="420">
+        <v>0</v>
+      </c>
+      <c r="D47" s="421">
         <f>IF(B52&gt;0,SUM(B47:B52)-C47,0)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="419">
+      <c r="E47" s="420">
         <v>6.2</v>
       </c>
-      <c r="F47" s="419">
+      <c r="F47" s="420">
         <v>25.3</v>
       </c>
-      <c r="G47" s="421">
+      <c r="G47" s="422">
         <v>0</v>
       </c>
       <c r="H47" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="422">
+      <c r="I47" s="425">
         <f>IF($D$2&gt;F47,G47*($D$2-F47)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="422"/>
-      <c r="K47" s="422"/>
-      <c r="L47" s="422"/>
-      <c r="M47" s="422"/>
-      <c r="N47" s="422"/>
-      <c r="O47" s="422"/>
-      <c r="P47" s="422"/>
-      <c r="Q47" s="422"/>
+      <c r="J47" s="425"/>
+      <c r="K47" s="425"/>
+      <c r="L47" s="425"/>
+      <c r="M47" s="425"/>
+      <c r="N47" s="425"/>
+      <c r="O47" s="425"/>
+      <c r="P47" s="425"/>
+      <c r="Q47" s="425"/>
       <c r="R47" s="109">
         <v>382.11</v>
       </c>
@@ -13503,24 +13435,24 @@
       <c r="B48" s="121">
         <v>0</v>
       </c>
-      <c r="C48" s="419"/>
-      <c r="D48" s="420"/>
-      <c r="E48" s="419"/>
-      <c r="F48" s="419"/>
-      <c r="G48" s="421"/>
+      <c r="C48" s="420"/>
+      <c r="D48" s="421"/>
+      <c r="E48" s="420"/>
+      <c r="F48" s="420"/>
+      <c r="G48" s="422"/>
       <c r="H48" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48" s="422"/>
-      <c r="J48" s="422"/>
-      <c r="K48" s="422"/>
-      <c r="L48" s="422"/>
-      <c r="M48" s="422"/>
-      <c r="N48" s="422"/>
-      <c r="O48" s="422"/>
-      <c r="P48" s="422"/>
-      <c r="Q48" s="422"/>
+      <c r="I48" s="425"/>
+      <c r="J48" s="425"/>
+      <c r="K48" s="425"/>
+      <c r="L48" s="425"/>
+      <c r="M48" s="425"/>
+      <c r="N48" s="425"/>
+      <c r="O48" s="425"/>
+      <c r="P48" s="425"/>
+      <c r="Q48" s="425"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
@@ -13529,24 +13461,24 @@
       <c r="B49" s="121">
         <v>0</v>
       </c>
-      <c r="C49" s="419"/>
-      <c r="D49" s="420"/>
-      <c r="E49" s="419"/>
-      <c r="F49" s="419"/>
-      <c r="G49" s="421"/>
+      <c r="C49" s="420"/>
+      <c r="D49" s="421"/>
+      <c r="E49" s="420"/>
+      <c r="F49" s="420"/>
+      <c r="G49" s="422"/>
       <c r="H49" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I49" s="422"/>
-      <c r="J49" s="422"/>
-      <c r="K49" s="422"/>
-      <c r="L49" s="422"/>
-      <c r="M49" s="422"/>
-      <c r="N49" s="422"/>
-      <c r="O49" s="422"/>
-      <c r="P49" s="422"/>
-      <c r="Q49" s="422"/>
+      <c r="I49" s="425"/>
+      <c r="J49" s="425"/>
+      <c r="K49" s="425"/>
+      <c r="L49" s="425"/>
+      <c r="M49" s="425"/>
+      <c r="N49" s="425"/>
+      <c r="O49" s="425"/>
+      <c r="P49" s="425"/>
+      <c r="Q49" s="425"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
@@ -13555,24 +13487,24 @@
       <c r="B50" s="121">
         <v>0</v>
       </c>
-      <c r="C50" s="419"/>
-      <c r="D50" s="420"/>
-      <c r="E50" s="419"/>
-      <c r="F50" s="419"/>
-      <c r="G50" s="421"/>
+      <c r="C50" s="420"/>
+      <c r="D50" s="421"/>
+      <c r="E50" s="420"/>
+      <c r="F50" s="420"/>
+      <c r="G50" s="422"/>
       <c r="H50" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I50" s="422"/>
-      <c r="J50" s="422"/>
-      <c r="K50" s="422"/>
-      <c r="L50" s="422"/>
-      <c r="M50" s="422"/>
-      <c r="N50" s="422"/>
-      <c r="O50" s="422"/>
-      <c r="P50" s="422"/>
-      <c r="Q50" s="422"/>
+      <c r="I50" s="425"/>
+      <c r="J50" s="425"/>
+      <c r="K50" s="425"/>
+      <c r="L50" s="425"/>
+      <c r="M50" s="425"/>
+      <c r="N50" s="425"/>
+      <c r="O50" s="425"/>
+      <c r="P50" s="425"/>
+      <c r="Q50" s="425"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
@@ -13581,24 +13513,24 @@
       <c r="B51" s="121">
         <v>0</v>
       </c>
-      <c r="C51" s="419"/>
-      <c r="D51" s="420"/>
-      <c r="E51" s="419"/>
-      <c r="F51" s="419"/>
-      <c r="G51" s="421"/>
+      <c r="C51" s="420"/>
+      <c r="D51" s="421"/>
+      <c r="E51" s="420"/>
+      <c r="F51" s="420"/>
+      <c r="G51" s="422"/>
       <c r="H51" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I51" s="422"/>
-      <c r="J51" s="422"/>
-      <c r="K51" s="422"/>
-      <c r="L51" s="422"/>
-      <c r="M51" s="422"/>
-      <c r="N51" s="422"/>
-      <c r="O51" s="422"/>
-      <c r="P51" s="422"/>
-      <c r="Q51" s="422"/>
+      <c r="I51" s="425"/>
+      <c r="J51" s="425"/>
+      <c r="K51" s="425"/>
+      <c r="L51" s="425"/>
+      <c r="M51" s="425"/>
+      <c r="N51" s="425"/>
+      <c r="O51" s="425"/>
+      <c r="P51" s="425"/>
+      <c r="Q51" s="425"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
@@ -13607,24 +13539,24 @@
       <c r="B52" s="121">
         <v>0</v>
       </c>
-      <c r="C52" s="419"/>
-      <c r="D52" s="420"/>
-      <c r="E52" s="419"/>
-      <c r="F52" s="419"/>
-      <c r="G52" s="421"/>
+      <c r="C52" s="420"/>
+      <c r="D52" s="421"/>
+      <c r="E52" s="420"/>
+      <c r="F52" s="420"/>
+      <c r="G52" s="422"/>
       <c r="H52" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I52" s="422"/>
-      <c r="J52" s="422"/>
-      <c r="K52" s="422"/>
-      <c r="L52" s="422"/>
-      <c r="M52" s="422"/>
-      <c r="N52" s="422"/>
-      <c r="O52" s="422"/>
-      <c r="P52" s="422"/>
-      <c r="Q52" s="422"/>
+      <c r="I52" s="425"/>
+      <c r="J52" s="425"/>
+      <c r="K52" s="425"/>
+      <c r="L52" s="425"/>
+      <c r="M52" s="425"/>
+      <c r="N52" s="425"/>
+      <c r="O52" s="425"/>
+      <c r="P52" s="425"/>
+      <c r="Q52" s="425"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
@@ -13633,38 +13565,38 @@
       <c r="B53" s="121">
         <v>0</v>
       </c>
-      <c r="C53" s="419">
-        <v>0</v>
-      </c>
-      <c r="D53" s="420">
+      <c r="C53" s="420">
+        <v>0</v>
+      </c>
+      <c r="D53" s="421">
         <f>IF(B58&gt;0,SUM(B53:B58)-C53,0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="419">
+      <c r="E53" s="420">
         <v>6.2</v>
       </c>
-      <c r="F53" s="419">
+      <c r="F53" s="420">
         <v>25.3</v>
       </c>
-      <c r="G53" s="421">
+      <c r="G53" s="422">
         <v>0</v>
       </c>
       <c r="H53" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I53" s="422">
+      <c r="I53" s="425">
         <f>IF($D$2&gt;F53,G53*($D$2-F53)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J53" s="422"/>
-      <c r="K53" s="422"/>
-      <c r="L53" s="422"/>
-      <c r="M53" s="422"/>
-      <c r="N53" s="422"/>
-      <c r="O53" s="422"/>
-      <c r="P53" s="422"/>
-      <c r="Q53" s="422"/>
+      <c r="J53" s="425"/>
+      <c r="K53" s="425"/>
+      <c r="L53" s="425"/>
+      <c r="M53" s="425"/>
+      <c r="N53" s="425"/>
+      <c r="O53" s="425"/>
+      <c r="P53" s="425"/>
+      <c r="Q53" s="425"/>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
@@ -13673,24 +13605,24 @@
       <c r="B54" s="121">
         <v>0</v>
       </c>
-      <c r="C54" s="419"/>
-      <c r="D54" s="420"/>
-      <c r="E54" s="419"/>
-      <c r="F54" s="419"/>
-      <c r="G54" s="421"/>
+      <c r="C54" s="420"/>
+      <c r="D54" s="421"/>
+      <c r="E54" s="420"/>
+      <c r="F54" s="420"/>
+      <c r="G54" s="422"/>
       <c r="H54" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I54" s="422"/>
-      <c r="J54" s="422"/>
-      <c r="K54" s="422"/>
-      <c r="L54" s="422"/>
-      <c r="M54" s="422"/>
-      <c r="N54" s="422"/>
-      <c r="O54" s="422"/>
-      <c r="P54" s="422"/>
-      <c r="Q54" s="422"/>
+      <c r="I54" s="425"/>
+      <c r="J54" s="425"/>
+      <c r="K54" s="425"/>
+      <c r="L54" s="425"/>
+      <c r="M54" s="425"/>
+      <c r="N54" s="425"/>
+      <c r="O54" s="425"/>
+      <c r="P54" s="425"/>
+      <c r="Q54" s="425"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
@@ -13699,24 +13631,24 @@
       <c r="B55" s="121">
         <v>0</v>
       </c>
-      <c r="C55" s="419"/>
-      <c r="D55" s="420"/>
-      <c r="E55" s="419"/>
-      <c r="F55" s="419"/>
-      <c r="G55" s="421"/>
+      <c r="C55" s="420"/>
+      <c r="D55" s="421"/>
+      <c r="E55" s="420"/>
+      <c r="F55" s="420"/>
+      <c r="G55" s="422"/>
       <c r="H55" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I55" s="422"/>
-      <c r="J55" s="422"/>
-      <c r="K55" s="422"/>
-      <c r="L55" s="422"/>
-      <c r="M55" s="422"/>
-      <c r="N55" s="422"/>
-      <c r="O55" s="422"/>
-      <c r="P55" s="422"/>
-      <c r="Q55" s="422"/>
+      <c r="I55" s="425"/>
+      <c r="J55" s="425"/>
+      <c r="K55" s="425"/>
+      <c r="L55" s="425"/>
+      <c r="M55" s="425"/>
+      <c r="N55" s="425"/>
+      <c r="O55" s="425"/>
+      <c r="P55" s="425"/>
+      <c r="Q55" s="425"/>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
@@ -13725,24 +13657,24 @@
       <c r="B56" s="121">
         <v>0</v>
       </c>
-      <c r="C56" s="419"/>
-      <c r="D56" s="420"/>
-      <c r="E56" s="419"/>
-      <c r="F56" s="419"/>
-      <c r="G56" s="421"/>
+      <c r="C56" s="420"/>
+      <c r="D56" s="421"/>
+      <c r="E56" s="420"/>
+      <c r="F56" s="420"/>
+      <c r="G56" s="422"/>
       <c r="H56" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I56" s="422"/>
-      <c r="J56" s="422"/>
-      <c r="K56" s="422"/>
-      <c r="L56" s="422"/>
-      <c r="M56" s="422"/>
-      <c r="N56" s="422"/>
-      <c r="O56" s="422"/>
-      <c r="P56" s="422"/>
-      <c r="Q56" s="422"/>
+      <c r="I56" s="425"/>
+      <c r="J56" s="425"/>
+      <c r="K56" s="425"/>
+      <c r="L56" s="425"/>
+      <c r="M56" s="425"/>
+      <c r="N56" s="425"/>
+      <c r="O56" s="425"/>
+      <c r="P56" s="425"/>
+      <c r="Q56" s="425"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
@@ -13751,24 +13683,24 @@
       <c r="B57" s="121">
         <v>0</v>
       </c>
-      <c r="C57" s="419"/>
-      <c r="D57" s="420"/>
-      <c r="E57" s="419"/>
-      <c r="F57" s="419"/>
-      <c r="G57" s="421"/>
+      <c r="C57" s="420"/>
+      <c r="D57" s="421"/>
+      <c r="E57" s="420"/>
+      <c r="F57" s="420"/>
+      <c r="G57" s="422"/>
       <c r="H57" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I57" s="422"/>
-      <c r="J57" s="422"/>
-      <c r="K57" s="422"/>
-      <c r="L57" s="422"/>
-      <c r="M57" s="422"/>
-      <c r="N57" s="422"/>
-      <c r="O57" s="422"/>
-      <c r="P57" s="422"/>
-      <c r="Q57" s="422"/>
+      <c r="I57" s="425"/>
+      <c r="J57" s="425"/>
+      <c r="K57" s="425"/>
+      <c r="L57" s="425"/>
+      <c r="M57" s="425"/>
+      <c r="N57" s="425"/>
+      <c r="O57" s="425"/>
+      <c r="P57" s="425"/>
+      <c r="Q57" s="425"/>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
@@ -13777,24 +13709,24 @@
       <c r="B58" s="121">
         <v>0</v>
       </c>
-      <c r="C58" s="419"/>
-      <c r="D58" s="420"/>
-      <c r="E58" s="419"/>
-      <c r="F58" s="419"/>
-      <c r="G58" s="421"/>
+      <c r="C58" s="420"/>
+      <c r="D58" s="421"/>
+      <c r="E58" s="420"/>
+      <c r="F58" s="420"/>
+      <c r="G58" s="422"/>
       <c r="H58" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I58" s="422"/>
-      <c r="J58" s="422"/>
-      <c r="K58" s="422"/>
-      <c r="L58" s="422"/>
-      <c r="M58" s="422"/>
-      <c r="N58" s="422"/>
-      <c r="O58" s="422"/>
-      <c r="P58" s="422"/>
-      <c r="Q58" s="422"/>
+      <c r="I58" s="425"/>
+      <c r="J58" s="425"/>
+      <c r="K58" s="425"/>
+      <c r="L58" s="425"/>
+      <c r="M58" s="425"/>
+      <c r="N58" s="425"/>
+      <c r="O58" s="425"/>
+      <c r="P58" s="425"/>
+      <c r="Q58" s="425"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
@@ -13803,38 +13735,38 @@
       <c r="B59" s="121">
         <v>0</v>
       </c>
-      <c r="C59" s="419">
-        <v>0</v>
-      </c>
-      <c r="D59" s="420">
+      <c r="C59" s="420">
+        <v>0</v>
+      </c>
+      <c r="D59" s="421">
         <f>IF(B64&gt;0,SUM(B59:B64)-C59,0)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="419">
+      <c r="E59" s="420">
         <v>6.2</v>
       </c>
-      <c r="F59" s="419">
+      <c r="F59" s="420">
         <v>25.3</v>
       </c>
-      <c r="G59" s="421">
+      <c r="G59" s="422">
         <v>0</v>
       </c>
       <c r="H59" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I59" s="422">
+      <c r="I59" s="425">
         <f>IF($D$2&gt;F59,G59*($D$2-F59)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="422"/>
-      <c r="K59" s="422"/>
-      <c r="L59" s="422"/>
-      <c r="M59" s="422"/>
-      <c r="N59" s="422"/>
-      <c r="O59" s="422"/>
-      <c r="P59" s="422"/>
-      <c r="Q59" s="422"/>
+      <c r="J59" s="425"/>
+      <c r="K59" s="425"/>
+      <c r="L59" s="425"/>
+      <c r="M59" s="425"/>
+      <c r="N59" s="425"/>
+      <c r="O59" s="425"/>
+      <c r="P59" s="425"/>
+      <c r="Q59" s="425"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
@@ -13843,24 +13775,24 @@
       <c r="B60" s="121">
         <v>0</v>
       </c>
-      <c r="C60" s="419"/>
-      <c r="D60" s="420"/>
-      <c r="E60" s="419"/>
-      <c r="F60" s="419"/>
-      <c r="G60" s="421"/>
+      <c r="C60" s="420"/>
+      <c r="D60" s="421"/>
+      <c r="E60" s="420"/>
+      <c r="F60" s="420"/>
+      <c r="G60" s="422"/>
       <c r="H60" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I60" s="422"/>
-      <c r="J60" s="422"/>
-      <c r="K60" s="422"/>
-      <c r="L60" s="422"/>
-      <c r="M60" s="422"/>
-      <c r="N60" s="422"/>
-      <c r="O60" s="422"/>
-      <c r="P60" s="422"/>
-      <c r="Q60" s="422"/>
+      <c r="I60" s="425"/>
+      <c r="J60" s="425"/>
+      <c r="K60" s="425"/>
+      <c r="L60" s="425"/>
+      <c r="M60" s="425"/>
+      <c r="N60" s="425"/>
+      <c r="O60" s="425"/>
+      <c r="P60" s="425"/>
+      <c r="Q60" s="425"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
@@ -13869,24 +13801,24 @@
       <c r="B61" s="121">
         <v>0</v>
       </c>
-      <c r="C61" s="419"/>
-      <c r="D61" s="420"/>
-      <c r="E61" s="419"/>
-      <c r="F61" s="419"/>
-      <c r="G61" s="421"/>
+      <c r="C61" s="420"/>
+      <c r="D61" s="421"/>
+      <c r="E61" s="420"/>
+      <c r="F61" s="420"/>
+      <c r="G61" s="422"/>
       <c r="H61" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I61" s="422"/>
-      <c r="J61" s="422"/>
-      <c r="K61" s="422"/>
-      <c r="L61" s="422"/>
-      <c r="M61" s="422"/>
-      <c r="N61" s="422"/>
-      <c r="O61" s="422"/>
-      <c r="P61" s="422"/>
-      <c r="Q61" s="422"/>
+      <c r="I61" s="425"/>
+      <c r="J61" s="425"/>
+      <c r="K61" s="425"/>
+      <c r="L61" s="425"/>
+      <c r="M61" s="425"/>
+      <c r="N61" s="425"/>
+      <c r="O61" s="425"/>
+      <c r="P61" s="425"/>
+      <c r="Q61" s="425"/>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
@@ -13895,24 +13827,24 @@
       <c r="B62" s="121">
         <v>0</v>
       </c>
-      <c r="C62" s="419"/>
-      <c r="D62" s="420"/>
-      <c r="E62" s="419"/>
-      <c r="F62" s="419"/>
-      <c r="G62" s="421"/>
+      <c r="C62" s="420"/>
+      <c r="D62" s="421"/>
+      <c r="E62" s="420"/>
+      <c r="F62" s="420"/>
+      <c r="G62" s="422"/>
       <c r="H62" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I62" s="422"/>
-      <c r="J62" s="422"/>
-      <c r="K62" s="422"/>
-      <c r="L62" s="422"/>
-      <c r="M62" s="422"/>
-      <c r="N62" s="422"/>
-      <c r="O62" s="422"/>
-      <c r="P62" s="422"/>
-      <c r="Q62" s="422"/>
+      <c r="I62" s="425"/>
+      <c r="J62" s="425"/>
+      <c r="K62" s="425"/>
+      <c r="L62" s="425"/>
+      <c r="M62" s="425"/>
+      <c r="N62" s="425"/>
+      <c r="O62" s="425"/>
+      <c r="P62" s="425"/>
+      <c r="Q62" s="425"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
@@ -13921,24 +13853,24 @@
       <c r="B63" s="121">
         <v>0</v>
       </c>
-      <c r="C63" s="419"/>
-      <c r="D63" s="420"/>
-      <c r="E63" s="419"/>
-      <c r="F63" s="419"/>
-      <c r="G63" s="421"/>
+      <c r="C63" s="420"/>
+      <c r="D63" s="421"/>
+      <c r="E63" s="420"/>
+      <c r="F63" s="420"/>
+      <c r="G63" s="422"/>
       <c r="H63" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I63" s="422"/>
-      <c r="J63" s="422"/>
-      <c r="K63" s="422"/>
-      <c r="L63" s="422"/>
-      <c r="M63" s="422"/>
-      <c r="N63" s="422"/>
-      <c r="O63" s="422"/>
-      <c r="P63" s="422"/>
-      <c r="Q63" s="422"/>
+      <c r="I63" s="425"/>
+      <c r="J63" s="425"/>
+      <c r="K63" s="425"/>
+      <c r="L63" s="425"/>
+      <c r="M63" s="425"/>
+      <c r="N63" s="425"/>
+      <c r="O63" s="425"/>
+      <c r="P63" s="425"/>
+      <c r="Q63" s="425"/>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
@@ -13947,24 +13879,24 @@
       <c r="B64" s="121">
         <v>0</v>
       </c>
-      <c r="C64" s="419"/>
-      <c r="D64" s="420"/>
-      <c r="E64" s="419"/>
-      <c r="F64" s="419"/>
-      <c r="G64" s="421"/>
+      <c r="C64" s="420"/>
+      <c r="D64" s="421"/>
+      <c r="E64" s="420"/>
+      <c r="F64" s="420"/>
+      <c r="G64" s="422"/>
       <c r="H64" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I64" s="422"/>
-      <c r="J64" s="422"/>
-      <c r="K64" s="422"/>
-      <c r="L64" s="422"/>
-      <c r="M64" s="422"/>
-      <c r="N64" s="422"/>
-      <c r="O64" s="422"/>
-      <c r="P64" s="422"/>
-      <c r="Q64" s="422"/>
+      <c r="I64" s="425"/>
+      <c r="J64" s="425"/>
+      <c r="K64" s="425"/>
+      <c r="L64" s="425"/>
+      <c r="M64" s="425"/>
+      <c r="N64" s="425"/>
+      <c r="O64" s="425"/>
+      <c r="P64" s="425"/>
+      <c r="Q64" s="425"/>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1">
@@ -13973,38 +13905,38 @@
       <c r="B65" s="121">
         <v>0</v>
       </c>
-      <c r="C65" s="419">
-        <v>0</v>
-      </c>
-      <c r="D65" s="420">
+      <c r="C65" s="420">
+        <v>0</v>
+      </c>
+      <c r="D65" s="421">
         <f>IF(B70&gt;0,SUM(B65:B70)-C65,0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="419">
+      <c r="E65" s="420">
         <v>6.2</v>
       </c>
-      <c r="F65" s="419">
+      <c r="F65" s="420">
         <v>25.3</v>
       </c>
-      <c r="G65" s="421">
+      <c r="G65" s="422">
         <v>0</v>
       </c>
       <c r="H65" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I65" s="422">
+      <c r="I65" s="425">
         <f>IF($D$2&gt;F65,G65*($D$2-F65)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="422"/>
-      <c r="K65" s="422"/>
-      <c r="L65" s="422"/>
-      <c r="M65" s="422"/>
-      <c r="N65" s="422"/>
-      <c r="O65" s="422"/>
-      <c r="P65" s="422"/>
-      <c r="Q65" s="422"/>
+      <c r="J65" s="425"/>
+      <c r="K65" s="425"/>
+      <c r="L65" s="425"/>
+      <c r="M65" s="425"/>
+      <c r="N65" s="425"/>
+      <c r="O65" s="425"/>
+      <c r="P65" s="425"/>
+      <c r="Q65" s="425"/>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1">
@@ -14013,24 +13945,24 @@
       <c r="B66" s="121">
         <v>0</v>
       </c>
-      <c r="C66" s="419"/>
-      <c r="D66" s="420"/>
-      <c r="E66" s="419"/>
-      <c r="F66" s="419"/>
-      <c r="G66" s="421"/>
+      <c r="C66" s="420"/>
+      <c r="D66" s="421"/>
+      <c r="E66" s="420"/>
+      <c r="F66" s="420"/>
+      <c r="G66" s="422"/>
       <c r="H66" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I66" s="422"/>
-      <c r="J66" s="422"/>
-      <c r="K66" s="422"/>
-      <c r="L66" s="422"/>
-      <c r="M66" s="422"/>
-      <c r="N66" s="422"/>
-      <c r="O66" s="422"/>
-      <c r="P66" s="422"/>
-      <c r="Q66" s="422"/>
+      <c r="I66" s="425"/>
+      <c r="J66" s="425"/>
+      <c r="K66" s="425"/>
+      <c r="L66" s="425"/>
+      <c r="M66" s="425"/>
+      <c r="N66" s="425"/>
+      <c r="O66" s="425"/>
+      <c r="P66" s="425"/>
+      <c r="Q66" s="425"/>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1">
@@ -14039,24 +13971,24 @@
       <c r="B67" s="121">
         <v>0</v>
       </c>
-      <c r="C67" s="419"/>
-      <c r="D67" s="420"/>
-      <c r="E67" s="419"/>
-      <c r="F67" s="419"/>
-      <c r="G67" s="421"/>
+      <c r="C67" s="420"/>
+      <c r="D67" s="421"/>
+      <c r="E67" s="420"/>
+      <c r="F67" s="420"/>
+      <c r="G67" s="422"/>
       <c r="H67" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I67" s="422"/>
-      <c r="J67" s="422"/>
-      <c r="K67" s="422"/>
-      <c r="L67" s="422"/>
-      <c r="M67" s="422"/>
-      <c r="N67" s="422"/>
-      <c r="O67" s="422"/>
-      <c r="P67" s="422"/>
-      <c r="Q67" s="422"/>
+      <c r="I67" s="425"/>
+      <c r="J67" s="425"/>
+      <c r="K67" s="425"/>
+      <c r="L67" s="425"/>
+      <c r="M67" s="425"/>
+      <c r="N67" s="425"/>
+      <c r="O67" s="425"/>
+      <c r="P67" s="425"/>
+      <c r="Q67" s="425"/>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1">
@@ -14065,24 +13997,24 @@
       <c r="B68" s="121">
         <v>0</v>
       </c>
-      <c r="C68" s="419"/>
-      <c r="D68" s="420"/>
-      <c r="E68" s="419"/>
-      <c r="F68" s="419"/>
-      <c r="G68" s="421"/>
+      <c r="C68" s="420"/>
+      <c r="D68" s="421"/>
+      <c r="E68" s="420"/>
+      <c r="F68" s="420"/>
+      <c r="G68" s="422"/>
       <c r="H68" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I68" s="422"/>
-      <c r="J68" s="422"/>
-      <c r="K68" s="422"/>
-      <c r="L68" s="422"/>
-      <c r="M68" s="422"/>
-      <c r="N68" s="422"/>
-      <c r="O68" s="422"/>
-      <c r="P68" s="422"/>
-      <c r="Q68" s="422"/>
+      <c r="I68" s="425"/>
+      <c r="J68" s="425"/>
+      <c r="K68" s="425"/>
+      <c r="L68" s="425"/>
+      <c r="M68" s="425"/>
+      <c r="N68" s="425"/>
+      <c r="O68" s="425"/>
+      <c r="P68" s="425"/>
+      <c r="Q68" s="425"/>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1">
@@ -14091,24 +14023,24 @@
       <c r="B69" s="121">
         <v>0</v>
       </c>
-      <c r="C69" s="419"/>
-      <c r="D69" s="420"/>
-      <c r="E69" s="419"/>
-      <c r="F69" s="419"/>
-      <c r="G69" s="421"/>
+      <c r="C69" s="420"/>
+      <c r="D69" s="421"/>
+      <c r="E69" s="420"/>
+      <c r="F69" s="420"/>
+      <c r="G69" s="422"/>
       <c r="H69" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I69" s="422"/>
-      <c r="J69" s="422"/>
-      <c r="K69" s="422"/>
-      <c r="L69" s="422"/>
-      <c r="M69" s="422"/>
-      <c r="N69" s="422"/>
-      <c r="O69" s="422"/>
-      <c r="P69" s="422"/>
-      <c r="Q69" s="422"/>
+      <c r="I69" s="425"/>
+      <c r="J69" s="425"/>
+      <c r="K69" s="425"/>
+      <c r="L69" s="425"/>
+      <c r="M69" s="425"/>
+      <c r="N69" s="425"/>
+      <c r="O69" s="425"/>
+      <c r="P69" s="425"/>
+      <c r="Q69" s="425"/>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1">
@@ -14117,24 +14049,24 @@
       <c r="B70" s="121">
         <v>0</v>
       </c>
-      <c r="C70" s="419"/>
-      <c r="D70" s="420"/>
-      <c r="E70" s="419"/>
-      <c r="F70" s="419"/>
-      <c r="G70" s="421"/>
+      <c r="C70" s="420"/>
+      <c r="D70" s="421"/>
+      <c r="E70" s="420"/>
+      <c r="F70" s="420"/>
+      <c r="G70" s="422"/>
       <c r="H70" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I70" s="422"/>
-      <c r="J70" s="422"/>
-      <c r="K70" s="422"/>
-      <c r="L70" s="422"/>
-      <c r="M70" s="422"/>
-      <c r="N70" s="422"/>
-      <c r="O70" s="422"/>
-      <c r="P70" s="422"/>
-      <c r="Q70" s="422"/>
+      <c r="I70" s="425"/>
+      <c r="J70" s="425"/>
+      <c r="K70" s="425"/>
+      <c r="L70" s="425"/>
+      <c r="M70" s="425"/>
+      <c r="N70" s="425"/>
+      <c r="O70" s="425"/>
+      <c r="P70" s="425"/>
+      <c r="Q70" s="425"/>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1">
@@ -14143,38 +14075,38 @@
       <c r="B71" s="121">
         <v>0</v>
       </c>
-      <c r="C71" s="419">
-        <v>0</v>
-      </c>
-      <c r="D71" s="420">
+      <c r="C71" s="420">
+        <v>0</v>
+      </c>
+      <c r="D71" s="421">
         <f>IF(B76&gt;0,SUM(B71:B76)-C71,0)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="419">
+      <c r="E71" s="420">
         <v>6.2</v>
       </c>
-      <c r="F71" s="419">
+      <c r="F71" s="420">
         <v>25.3</v>
       </c>
-      <c r="G71" s="421">
+      <c r="G71" s="422">
         <v>0</v>
       </c>
       <c r="H71" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I71" s="422">
+      <c r="I71" s="425">
         <f>IF($D$2&gt;F71,G71*($D$2-F71)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="422"/>
-      <c r="K71" s="422"/>
-      <c r="L71" s="422"/>
-      <c r="M71" s="422"/>
-      <c r="N71" s="422"/>
-      <c r="O71" s="422"/>
-      <c r="P71" s="422"/>
-      <c r="Q71" s="422"/>
+      <c r="J71" s="425"/>
+      <c r="K71" s="425"/>
+      <c r="L71" s="425"/>
+      <c r="M71" s="425"/>
+      <c r="N71" s="425"/>
+      <c r="O71" s="425"/>
+      <c r="P71" s="425"/>
+      <c r="Q71" s="425"/>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1">
@@ -14183,24 +14115,24 @@
       <c r="B72" s="121">
         <v>0</v>
       </c>
-      <c r="C72" s="419"/>
-      <c r="D72" s="420"/>
-      <c r="E72" s="419"/>
-      <c r="F72" s="419"/>
-      <c r="G72" s="421"/>
+      <c r="C72" s="420"/>
+      <c r="D72" s="421"/>
+      <c r="E72" s="420"/>
+      <c r="F72" s="420"/>
+      <c r="G72" s="422"/>
       <c r="H72" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I72" s="422"/>
-      <c r="J72" s="422"/>
-      <c r="K72" s="422"/>
-      <c r="L72" s="422"/>
-      <c r="M72" s="422"/>
-      <c r="N72" s="422"/>
-      <c r="O72" s="422"/>
-      <c r="P72" s="422"/>
-      <c r="Q72" s="422"/>
+      <c r="I72" s="425"/>
+      <c r="J72" s="425"/>
+      <c r="K72" s="425"/>
+      <c r="L72" s="425"/>
+      <c r="M72" s="425"/>
+      <c r="N72" s="425"/>
+      <c r="O72" s="425"/>
+      <c r="P72" s="425"/>
+      <c r="Q72" s="425"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1">
@@ -14209,24 +14141,24 @@
       <c r="B73" s="121">
         <v>0</v>
       </c>
-      <c r="C73" s="419"/>
-      <c r="D73" s="420"/>
-      <c r="E73" s="419"/>
-      <c r="F73" s="419"/>
-      <c r="G73" s="421"/>
+      <c r="C73" s="420"/>
+      <c r="D73" s="421"/>
+      <c r="E73" s="420"/>
+      <c r="F73" s="420"/>
+      <c r="G73" s="422"/>
       <c r="H73" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I73" s="422"/>
-      <c r="J73" s="422"/>
-      <c r="K73" s="422"/>
-      <c r="L73" s="422"/>
-      <c r="M73" s="422"/>
-      <c r="N73" s="422"/>
-      <c r="O73" s="422"/>
-      <c r="P73" s="422"/>
-      <c r="Q73" s="422"/>
+      <c r="I73" s="425"/>
+      <c r="J73" s="425"/>
+      <c r="K73" s="425"/>
+      <c r="L73" s="425"/>
+      <c r="M73" s="425"/>
+      <c r="N73" s="425"/>
+      <c r="O73" s="425"/>
+      <c r="P73" s="425"/>
+      <c r="Q73" s="425"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1">
@@ -14235,24 +14167,24 @@
       <c r="B74" s="121">
         <v>0</v>
       </c>
-      <c r="C74" s="419"/>
-      <c r="D74" s="420"/>
-      <c r="E74" s="419"/>
-      <c r="F74" s="419"/>
-      <c r="G74" s="421"/>
+      <c r="C74" s="420"/>
+      <c r="D74" s="421"/>
+      <c r="E74" s="420"/>
+      <c r="F74" s="420"/>
+      <c r="G74" s="422"/>
       <c r="H74" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I74" s="422"/>
-      <c r="J74" s="422"/>
-      <c r="K74" s="422"/>
-      <c r="L74" s="422"/>
-      <c r="M74" s="422"/>
-      <c r="N74" s="422"/>
-      <c r="O74" s="422"/>
-      <c r="P74" s="422"/>
-      <c r="Q74" s="422"/>
+      <c r="I74" s="425"/>
+      <c r="J74" s="425"/>
+      <c r="K74" s="425"/>
+      <c r="L74" s="425"/>
+      <c r="M74" s="425"/>
+      <c r="N74" s="425"/>
+      <c r="O74" s="425"/>
+      <c r="P74" s="425"/>
+      <c r="Q74" s="425"/>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1">
@@ -14261,24 +14193,24 @@
       <c r="B75" s="121">
         <v>0</v>
       </c>
-      <c r="C75" s="419"/>
-      <c r="D75" s="420"/>
-      <c r="E75" s="419"/>
-      <c r="F75" s="419"/>
-      <c r="G75" s="421"/>
+      <c r="C75" s="420"/>
+      <c r="D75" s="421"/>
+      <c r="E75" s="420"/>
+      <c r="F75" s="420"/>
+      <c r="G75" s="422"/>
       <c r="H75" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I75" s="422"/>
-      <c r="J75" s="422"/>
-      <c r="K75" s="422"/>
-      <c r="L75" s="422"/>
-      <c r="M75" s="422"/>
-      <c r="N75" s="422"/>
-      <c r="O75" s="422"/>
-      <c r="P75" s="422"/>
-      <c r="Q75" s="422"/>
+      <c r="I75" s="425"/>
+      <c r="J75" s="425"/>
+      <c r="K75" s="425"/>
+      <c r="L75" s="425"/>
+      <c r="M75" s="425"/>
+      <c r="N75" s="425"/>
+      <c r="O75" s="425"/>
+      <c r="P75" s="425"/>
+      <c r="Q75" s="425"/>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1">
@@ -14287,24 +14219,24 @@
       <c r="B76" s="121">
         <v>0</v>
       </c>
-      <c r="C76" s="419"/>
-      <c r="D76" s="420"/>
-      <c r="E76" s="419"/>
-      <c r="F76" s="419"/>
-      <c r="G76" s="421"/>
+      <c r="C76" s="420"/>
+      <c r="D76" s="421"/>
+      <c r="E76" s="420"/>
+      <c r="F76" s="420"/>
+      <c r="G76" s="422"/>
       <c r="H76" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I76" s="422"/>
-      <c r="J76" s="422"/>
-      <c r="K76" s="422"/>
-      <c r="L76" s="422"/>
-      <c r="M76" s="422"/>
-      <c r="N76" s="422"/>
-      <c r="O76" s="422"/>
-      <c r="P76" s="422"/>
-      <c r="Q76" s="422"/>
+      <c r="I76" s="425"/>
+      <c r="J76" s="425"/>
+      <c r="K76" s="425"/>
+      <c r="L76" s="425"/>
+      <c r="M76" s="425"/>
+      <c r="N76" s="425"/>
+      <c r="O76" s="425"/>
+      <c r="P76" s="425"/>
+      <c r="Q76" s="425"/>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1">
@@ -14313,38 +14245,38 @@
       <c r="B77" s="121">
         <v>0</v>
       </c>
-      <c r="C77" s="419">
-        <v>0</v>
-      </c>
-      <c r="D77" s="420">
+      <c r="C77" s="420">
+        <v>0</v>
+      </c>
+      <c r="D77" s="421">
         <f>IF(B82&gt;0,SUM(B77:B82)-C77,0)</f>
         <v>0</v>
       </c>
-      <c r="E77" s="419">
+      <c r="E77" s="420">
         <v>6.2</v>
       </c>
-      <c r="F77" s="419">
+      <c r="F77" s="420">
         <v>25.3</v>
       </c>
-      <c r="G77" s="421">
+      <c r="G77" s="422">
         <v>0</v>
       </c>
       <c r="H77" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I77" s="422">
+      <c r="I77" s="425">
         <f>IF($D$2&gt;F77,G77*($D$2-F77)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="422"/>
-      <c r="K77" s="422"/>
-      <c r="L77" s="422"/>
-      <c r="M77" s="422"/>
-      <c r="N77" s="422"/>
-      <c r="O77" s="422"/>
-      <c r="P77" s="422"/>
-      <c r="Q77" s="422"/>
+      <c r="J77" s="425"/>
+      <c r="K77" s="425"/>
+      <c r="L77" s="425"/>
+      <c r="M77" s="425"/>
+      <c r="N77" s="425"/>
+      <c r="O77" s="425"/>
+      <c r="P77" s="425"/>
+      <c r="Q77" s="425"/>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1">
@@ -14353,24 +14285,24 @@
       <c r="B78" s="121">
         <v>0</v>
       </c>
-      <c r="C78" s="419"/>
-      <c r="D78" s="420"/>
-      <c r="E78" s="419"/>
-      <c r="F78" s="419"/>
-      <c r="G78" s="421"/>
+      <c r="C78" s="420"/>
+      <c r="D78" s="421"/>
+      <c r="E78" s="420"/>
+      <c r="F78" s="420"/>
+      <c r="G78" s="422"/>
       <c r="H78" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I78" s="422"/>
-      <c r="J78" s="422"/>
-      <c r="K78" s="422"/>
-      <c r="L78" s="422"/>
-      <c r="M78" s="422"/>
-      <c r="N78" s="422"/>
-      <c r="O78" s="422"/>
-      <c r="P78" s="422"/>
-      <c r="Q78" s="422"/>
+      <c r="I78" s="425"/>
+      <c r="J78" s="425"/>
+      <c r="K78" s="425"/>
+      <c r="L78" s="425"/>
+      <c r="M78" s="425"/>
+      <c r="N78" s="425"/>
+      <c r="O78" s="425"/>
+      <c r="P78" s="425"/>
+      <c r="Q78" s="425"/>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1">
@@ -14379,24 +14311,24 @@
       <c r="B79" s="121">
         <v>0</v>
       </c>
-      <c r="C79" s="419"/>
-      <c r="D79" s="420"/>
-      <c r="E79" s="419"/>
-      <c r="F79" s="419"/>
-      <c r="G79" s="421"/>
+      <c r="C79" s="420"/>
+      <c r="D79" s="421"/>
+      <c r="E79" s="420"/>
+      <c r="F79" s="420"/>
+      <c r="G79" s="422"/>
       <c r="H79" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I79" s="422"/>
-      <c r="J79" s="422"/>
-      <c r="K79" s="422"/>
-      <c r="L79" s="422"/>
-      <c r="M79" s="422"/>
-      <c r="N79" s="422"/>
-      <c r="O79" s="422"/>
-      <c r="P79" s="422"/>
-      <c r="Q79" s="422"/>
+      <c r="I79" s="425"/>
+      <c r="J79" s="425"/>
+      <c r="K79" s="425"/>
+      <c r="L79" s="425"/>
+      <c r="M79" s="425"/>
+      <c r="N79" s="425"/>
+      <c r="O79" s="425"/>
+      <c r="P79" s="425"/>
+      <c r="Q79" s="425"/>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1">
@@ -14405,24 +14337,24 @@
       <c r="B80" s="121">
         <v>0</v>
       </c>
-      <c r="C80" s="419"/>
-      <c r="D80" s="420"/>
-      <c r="E80" s="419"/>
-      <c r="F80" s="419"/>
-      <c r="G80" s="421"/>
+      <c r="C80" s="420"/>
+      <c r="D80" s="421"/>
+      <c r="E80" s="420"/>
+      <c r="F80" s="420"/>
+      <c r="G80" s="422"/>
       <c r="H80" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I80" s="422"/>
-      <c r="J80" s="422"/>
-      <c r="K80" s="422"/>
-      <c r="L80" s="422"/>
-      <c r="M80" s="422"/>
-      <c r="N80" s="422"/>
-      <c r="O80" s="422"/>
-      <c r="P80" s="422"/>
-      <c r="Q80" s="422"/>
+      <c r="I80" s="425"/>
+      <c r="J80" s="425"/>
+      <c r="K80" s="425"/>
+      <c r="L80" s="425"/>
+      <c r="M80" s="425"/>
+      <c r="N80" s="425"/>
+      <c r="O80" s="425"/>
+      <c r="P80" s="425"/>
+      <c r="Q80" s="425"/>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1">
@@ -14431,24 +14363,24 @@
       <c r="B81" s="121">
         <v>0</v>
       </c>
-      <c r="C81" s="419"/>
-      <c r="D81" s="420"/>
-      <c r="E81" s="419"/>
-      <c r="F81" s="419"/>
-      <c r="G81" s="421"/>
+      <c r="C81" s="420"/>
+      <c r="D81" s="421"/>
+      <c r="E81" s="420"/>
+      <c r="F81" s="420"/>
+      <c r="G81" s="422"/>
       <c r="H81" s="120">
         <f t="shared" ref="H81:H88" si="3">R87*0.25</f>
         <v>0</v>
       </c>
-      <c r="I81" s="422"/>
-      <c r="J81" s="422"/>
-      <c r="K81" s="422"/>
-      <c r="L81" s="422"/>
-      <c r="M81" s="422"/>
-      <c r="N81" s="422"/>
-      <c r="O81" s="422"/>
-      <c r="P81" s="422"/>
-      <c r="Q81" s="422"/>
+      <c r="I81" s="425"/>
+      <c r="J81" s="425"/>
+      <c r="K81" s="425"/>
+      <c r="L81" s="425"/>
+      <c r="M81" s="425"/>
+      <c r="N81" s="425"/>
+      <c r="O81" s="425"/>
+      <c r="P81" s="425"/>
+      <c r="Q81" s="425"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1">
@@ -14457,24 +14389,24 @@
       <c r="B82" s="121">
         <v>0</v>
       </c>
-      <c r="C82" s="419"/>
-      <c r="D82" s="420"/>
-      <c r="E82" s="419"/>
-      <c r="F82" s="419"/>
-      <c r="G82" s="421"/>
+      <c r="C82" s="420"/>
+      <c r="D82" s="421"/>
+      <c r="E82" s="420"/>
+      <c r="F82" s="420"/>
+      <c r="G82" s="422"/>
       <c r="H82" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I82" s="422"/>
-      <c r="J82" s="422"/>
-      <c r="K82" s="422"/>
-      <c r="L82" s="422"/>
-      <c r="M82" s="422"/>
-      <c r="N82" s="422"/>
-      <c r="O82" s="422"/>
-      <c r="P82" s="422"/>
-      <c r="Q82" s="422"/>
+      <c r="I82" s="425"/>
+      <c r="J82" s="425"/>
+      <c r="K82" s="425"/>
+      <c r="L82" s="425"/>
+      <c r="M82" s="425"/>
+      <c r="N82" s="425"/>
+      <c r="O82" s="425"/>
+      <c r="P82" s="425"/>
+      <c r="Q82" s="425"/>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1">
@@ -14483,38 +14415,38 @@
       <c r="B83" s="121">
         <v>0</v>
       </c>
-      <c r="C83" s="419">
-        <v>0</v>
-      </c>
-      <c r="D83" s="420">
+      <c r="C83" s="420">
+        <v>0</v>
+      </c>
+      <c r="D83" s="421">
         <f>IF(B88&gt;0,SUM(B83:B88)-C83,0)</f>
         <v>0</v>
       </c>
-      <c r="E83" s="419">
+      <c r="E83" s="420">
         <v>6.2</v>
       </c>
-      <c r="F83" s="419">
+      <c r="F83" s="420">
         <v>25.3</v>
       </c>
-      <c r="G83" s="421">
+      <c r="G83" s="422">
         <v>0</v>
       </c>
       <c r="H83" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I83" s="422">
+      <c r="I83" s="425">
         <f>IF($D$2&gt;F83,G83*($D$2-F83)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J83" s="422"/>
-      <c r="K83" s="422"/>
-      <c r="L83" s="422"/>
-      <c r="M83" s="422"/>
-      <c r="N83" s="422"/>
-      <c r="O83" s="422"/>
-      <c r="P83" s="422"/>
-      <c r="Q83" s="422"/>
+      <c r="J83" s="425"/>
+      <c r="K83" s="425"/>
+      <c r="L83" s="425"/>
+      <c r="M83" s="425"/>
+      <c r="N83" s="425"/>
+      <c r="O83" s="425"/>
+      <c r="P83" s="425"/>
+      <c r="Q83" s="425"/>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1">
@@ -14523,24 +14455,24 @@
       <c r="B84" s="121">
         <v>0</v>
       </c>
-      <c r="C84" s="419"/>
-      <c r="D84" s="420"/>
-      <c r="E84" s="419"/>
-      <c r="F84" s="419"/>
-      <c r="G84" s="421"/>
+      <c r="C84" s="420"/>
+      <c r="D84" s="421"/>
+      <c r="E84" s="420"/>
+      <c r="F84" s="420"/>
+      <c r="G84" s="422"/>
       <c r="H84" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I84" s="422"/>
-      <c r="J84" s="422"/>
-      <c r="K84" s="422"/>
-      <c r="L84" s="422"/>
-      <c r="M84" s="422"/>
-      <c r="N84" s="422"/>
-      <c r="O84" s="422"/>
-      <c r="P84" s="422"/>
-      <c r="Q84" s="422"/>
+      <c r="I84" s="425"/>
+      <c r="J84" s="425"/>
+      <c r="K84" s="425"/>
+      <c r="L84" s="425"/>
+      <c r="M84" s="425"/>
+      <c r="N84" s="425"/>
+      <c r="O84" s="425"/>
+      <c r="P84" s="425"/>
+      <c r="Q84" s="425"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1">
@@ -14549,24 +14481,24 @@
       <c r="B85" s="121">
         <v>0</v>
       </c>
-      <c r="C85" s="419"/>
-      <c r="D85" s="420"/>
-      <c r="E85" s="419"/>
-      <c r="F85" s="419"/>
-      <c r="G85" s="421"/>
+      <c r="C85" s="420"/>
+      <c r="D85" s="421"/>
+      <c r="E85" s="420"/>
+      <c r="F85" s="420"/>
+      <c r="G85" s="422"/>
       <c r="H85" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I85" s="422"/>
-      <c r="J85" s="422"/>
-      <c r="K85" s="422"/>
-      <c r="L85" s="422"/>
-      <c r="M85" s="422"/>
-      <c r="N85" s="422"/>
-      <c r="O85" s="422"/>
-      <c r="P85" s="422"/>
-      <c r="Q85" s="422"/>
+      <c r="I85" s="425"/>
+      <c r="J85" s="425"/>
+      <c r="K85" s="425"/>
+      <c r="L85" s="425"/>
+      <c r="M85" s="425"/>
+      <c r="N85" s="425"/>
+      <c r="O85" s="425"/>
+      <c r="P85" s="425"/>
+      <c r="Q85" s="425"/>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1">
@@ -14575,24 +14507,24 @@
       <c r="B86" s="121">
         <v>0</v>
       </c>
-      <c r="C86" s="419"/>
-      <c r="D86" s="420"/>
-      <c r="E86" s="419"/>
-      <c r="F86" s="419"/>
-      <c r="G86" s="421"/>
+      <c r="C86" s="420"/>
+      <c r="D86" s="421"/>
+      <c r="E86" s="420"/>
+      <c r="F86" s="420"/>
+      <c r="G86" s="422"/>
       <c r="H86" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I86" s="422"/>
-      <c r="J86" s="422"/>
-      <c r="K86" s="422"/>
-      <c r="L86" s="422"/>
-      <c r="M86" s="422"/>
-      <c r="N86" s="422"/>
-      <c r="O86" s="422"/>
-      <c r="P86" s="422"/>
-      <c r="Q86" s="422"/>
+      <c r="I86" s="425"/>
+      <c r="J86" s="425"/>
+      <c r="K86" s="425"/>
+      <c r="L86" s="425"/>
+      <c r="M86" s="425"/>
+      <c r="N86" s="425"/>
+      <c r="O86" s="425"/>
+      <c r="P86" s="425"/>
+      <c r="Q86" s="425"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1">
@@ -14601,24 +14533,24 @@
       <c r="B87" s="121">
         <v>0</v>
       </c>
-      <c r="C87" s="419"/>
-      <c r="D87" s="420"/>
-      <c r="E87" s="419"/>
-      <c r="F87" s="419"/>
-      <c r="G87" s="421"/>
+      <c r="C87" s="420"/>
+      <c r="D87" s="421"/>
+      <c r="E87" s="420"/>
+      <c r="F87" s="420"/>
+      <c r="G87" s="422"/>
       <c r="H87" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I87" s="422"/>
-      <c r="J87" s="422"/>
-      <c r="K87" s="422"/>
-      <c r="L87" s="422"/>
-      <c r="M87" s="422"/>
-      <c r="N87" s="422"/>
-      <c r="O87" s="422"/>
-      <c r="P87" s="422"/>
-      <c r="Q87" s="422"/>
+      <c r="I87" s="425"/>
+      <c r="J87" s="425"/>
+      <c r="K87" s="425"/>
+      <c r="L87" s="425"/>
+      <c r="M87" s="425"/>
+      <c r="N87" s="425"/>
+      <c r="O87" s="425"/>
+      <c r="P87" s="425"/>
+      <c r="Q87" s="425"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1">
@@ -14627,94 +14559,125 @@
       <c r="B88" s="121">
         <v>0</v>
       </c>
-      <c r="C88" s="419"/>
-      <c r="D88" s="420"/>
-      <c r="E88" s="419"/>
-      <c r="F88" s="419"/>
-      <c r="G88" s="421"/>
+      <c r="C88" s="420"/>
+      <c r="D88" s="421"/>
+      <c r="E88" s="420"/>
+      <c r="F88" s="420"/>
+      <c r="G88" s="422"/>
       <c r="H88" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I88" s="422"/>
-      <c r="J88" s="422"/>
-      <c r="K88" s="422"/>
-      <c r="L88" s="422"/>
-      <c r="M88" s="422"/>
-      <c r="N88" s="422"/>
-      <c r="O88" s="422"/>
-      <c r="P88" s="422"/>
-      <c r="Q88" s="422"/>
+      <c r="I88" s="425"/>
+      <c r="J88" s="425"/>
+      <c r="K88" s="425"/>
+      <c r="L88" s="425"/>
+      <c r="M88" s="425"/>
+      <c r="N88" s="425"/>
+      <c r="O88" s="425"/>
+      <c r="P88" s="425"/>
+      <c r="Q88" s="425"/>
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="P10:P15"/>
-    <mergeCell ref="Q10:Q15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="L10:L15"/>
-    <mergeCell ref="M10:M15"/>
-    <mergeCell ref="N10:N15"/>
-    <mergeCell ref="Q16:Q21"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="M16:M21"/>
-    <mergeCell ref="N16:N21"/>
-    <mergeCell ref="O16:O21"/>
-    <mergeCell ref="P16:P21"/>
-    <mergeCell ref="P22:P27"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="G28:G34"/>
-    <mergeCell ref="O28:O34"/>
-    <mergeCell ref="P28:P34"/>
-    <mergeCell ref="Q28:Q34"/>
-    <mergeCell ref="K28:K34"/>
-    <mergeCell ref="L28:L34"/>
-    <mergeCell ref="M28:M34"/>
-    <mergeCell ref="N28:N34"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="J35:J40"/>
-    <mergeCell ref="I28:I34"/>
-    <mergeCell ref="J28:J34"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="G83:G88"/>
+    <mergeCell ref="O83:O88"/>
+    <mergeCell ref="P83:P88"/>
+    <mergeCell ref="Q83:Q88"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="K83:K88"/>
+    <mergeCell ref="L83:L88"/>
+    <mergeCell ref="M83:M88"/>
+    <mergeCell ref="N83:N88"/>
+    <mergeCell ref="M71:M76"/>
+    <mergeCell ref="N71:N76"/>
+    <mergeCell ref="O71:O76"/>
+    <mergeCell ref="P71:P76"/>
+    <mergeCell ref="M77:M82"/>
+    <mergeCell ref="N77:N82"/>
+    <mergeCell ref="O77:O82"/>
+    <mergeCell ref="P77:P82"/>
+    <mergeCell ref="Q77:Q82"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="J77:J82"/>
+    <mergeCell ref="K77:K82"/>
+    <mergeCell ref="L77:L82"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="O65:O70"/>
+    <mergeCell ref="P65:P70"/>
+    <mergeCell ref="Q65:Q70"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="I71:I76"/>
+    <mergeCell ref="J71:J76"/>
+    <mergeCell ref="I65:I70"/>
+    <mergeCell ref="J65:J70"/>
+    <mergeCell ref="K65:K70"/>
+    <mergeCell ref="L65:L70"/>
+    <mergeCell ref="M65:M70"/>
+    <mergeCell ref="N65:N70"/>
+    <mergeCell ref="Q71:Q76"/>
+    <mergeCell ref="K71:K76"/>
+    <mergeCell ref="L71:L76"/>
+    <mergeCell ref="M53:M58"/>
+    <mergeCell ref="N53:N58"/>
+    <mergeCell ref="O53:O58"/>
+    <mergeCell ref="P53:P58"/>
+    <mergeCell ref="M59:M64"/>
+    <mergeCell ref="N59:N64"/>
+    <mergeCell ref="O59:O64"/>
+    <mergeCell ref="P59:P64"/>
+    <mergeCell ref="Q59:Q64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="F59:F64"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="J59:J64"/>
+    <mergeCell ref="K59:K64"/>
+    <mergeCell ref="L59:L64"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="O47:O52"/>
+    <mergeCell ref="P47:P52"/>
+    <mergeCell ref="Q47:Q52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="I53:I58"/>
+    <mergeCell ref="J53:J58"/>
+    <mergeCell ref="I47:I52"/>
+    <mergeCell ref="J47:J52"/>
+    <mergeCell ref="K47:K52"/>
+    <mergeCell ref="L47:L52"/>
+    <mergeCell ref="M47:M52"/>
+    <mergeCell ref="N47:N52"/>
+    <mergeCell ref="Q53:Q58"/>
+    <mergeCell ref="K53:K58"/>
+    <mergeCell ref="L53:L58"/>
     <mergeCell ref="Q35:Q40"/>
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="D41:D46"/>
@@ -14739,104 +14702,73 @@
     <mergeCell ref="C35:C40"/>
     <mergeCell ref="D35:D40"/>
     <mergeCell ref="E35:E40"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="E47:E52"/>
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="O47:O52"/>
-    <mergeCell ref="P47:P52"/>
-    <mergeCell ref="Q47:Q52"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="I53:I58"/>
-    <mergeCell ref="J53:J58"/>
-    <mergeCell ref="I47:I52"/>
-    <mergeCell ref="J47:J52"/>
-    <mergeCell ref="K47:K52"/>
-    <mergeCell ref="L47:L52"/>
-    <mergeCell ref="M47:M52"/>
-    <mergeCell ref="N47:N52"/>
-    <mergeCell ref="Q53:Q58"/>
-    <mergeCell ref="K53:K58"/>
-    <mergeCell ref="L53:L58"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="F59:F64"/>
-    <mergeCell ref="G59:G64"/>
-    <mergeCell ref="I59:I64"/>
-    <mergeCell ref="J59:J64"/>
-    <mergeCell ref="K59:K64"/>
-    <mergeCell ref="L59:L64"/>
-    <mergeCell ref="M53:M58"/>
-    <mergeCell ref="N53:N58"/>
-    <mergeCell ref="O53:O58"/>
-    <mergeCell ref="P53:P58"/>
-    <mergeCell ref="M59:M64"/>
-    <mergeCell ref="N59:N64"/>
-    <mergeCell ref="O59:O64"/>
-    <mergeCell ref="P59:P64"/>
-    <mergeCell ref="Q59:Q64"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="O65:O70"/>
-    <mergeCell ref="P65:P70"/>
-    <mergeCell ref="Q65:Q70"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="F71:F76"/>
-    <mergeCell ref="G71:G76"/>
-    <mergeCell ref="I71:I76"/>
-    <mergeCell ref="J71:J76"/>
-    <mergeCell ref="I65:I70"/>
-    <mergeCell ref="J65:J70"/>
-    <mergeCell ref="K65:K70"/>
-    <mergeCell ref="L65:L70"/>
-    <mergeCell ref="M65:M70"/>
-    <mergeCell ref="N65:N70"/>
-    <mergeCell ref="Q71:Q76"/>
-    <mergeCell ref="K71:K76"/>
-    <mergeCell ref="L71:L76"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="F77:F82"/>
-    <mergeCell ref="G77:G82"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="J77:J82"/>
-    <mergeCell ref="K77:K82"/>
-    <mergeCell ref="L77:L82"/>
-    <mergeCell ref="M71:M76"/>
-    <mergeCell ref="N71:N76"/>
-    <mergeCell ref="O71:O76"/>
-    <mergeCell ref="P71:P76"/>
-    <mergeCell ref="M77:M82"/>
-    <mergeCell ref="N77:N82"/>
-    <mergeCell ref="O77:O82"/>
-    <mergeCell ref="P77:P82"/>
-    <mergeCell ref="Q77:Q82"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="G83:G88"/>
-    <mergeCell ref="O83:O88"/>
-    <mergeCell ref="P83:P88"/>
-    <mergeCell ref="Q83:Q88"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="K83:K88"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="M83:M88"/>
-    <mergeCell ref="N83:N88"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="J35:J40"/>
+    <mergeCell ref="I28:I34"/>
+    <mergeCell ref="J28:J34"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="P22:P27"/>
+    <mergeCell ref="Q22:Q27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="O28:O34"/>
+    <mergeCell ref="P28:P34"/>
+    <mergeCell ref="Q28:Q34"/>
+    <mergeCell ref="K28:K34"/>
+    <mergeCell ref="L28:L34"/>
+    <mergeCell ref="M28:M34"/>
+    <mergeCell ref="N28:N34"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="P10:P15"/>
+    <mergeCell ref="Q10:Q15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="M10:M15"/>
+    <mergeCell ref="N10:N15"/>
+    <mergeCell ref="Q16:Q21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="N16:N21"/>
+    <mergeCell ref="O16:O21"/>
+    <mergeCell ref="P16:P21"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16269,29 +16201,29 @@
     </row>
     <row r="6" spans="4:12" ht="17.100000000000001" customHeight="1">
       <c r="F6" s="212"/>
-      <c r="G6" s="501" t="s">
+      <c r="G6" s="509" t="s">
         <v>774</v>
       </c>
-      <c r="H6" s="503" t="s">
+      <c r="H6" s="511" t="s">
         <v>775</v>
       </c>
-      <c r="I6" s="503" t="s">
+      <c r="I6" s="511" t="s">
         <v>776</v>
       </c>
-      <c r="J6" s="503" t="s">
+      <c r="J6" s="511" t="s">
         <v>777</v>
       </c>
-      <c r="K6" s="492" t="s">
+      <c r="K6" s="507" t="s">
         <v>778</v>
       </c>
-      <c r="L6" s="493"/>
+      <c r="L6" s="508"/>
     </row>
     <row r="7" spans="4:12" ht="18" customHeight="1">
       <c r="F7" s="212"/>
-      <c r="G7" s="502"/>
-      <c r="H7" s="504"/>
-      <c r="I7" s="504"/>
-      <c r="J7" s="504"/>
+      <c r="G7" s="510"/>
+      <c r="H7" s="512"/>
+      <c r="I7" s="512"/>
+      <c r="J7" s="512"/>
       <c r="K7" s="213" t="s">
         <v>779</v>
       </c>
@@ -16300,11 +16232,11 @@
       </c>
     </row>
     <row r="8" spans="4:12" ht="30" customHeight="1" thickBot="1">
-      <c r="D8" s="500" t="s">
+      <c r="D8" s="498" t="s">
         <v>781</v>
       </c>
-      <c r="E8" s="500"/>
-      <c r="F8" s="500"/>
+      <c r="E8" s="498"/>
+      <c r="F8" s="498"/>
       <c r="G8" s="215">
         <v>9.6</v>
       </c>
@@ -16350,21 +16282,21 @@
     </row>
     <row r="12" spans="4:12" ht="18.75">
       <c r="F12" s="212"/>
-      <c r="G12" s="494" t="s">
+      <c r="G12" s="492" t="s">
         <v>782</v>
       </c>
-      <c r="H12" s="496" t="s">
+      <c r="H12" s="494" t="s">
         <v>783</v>
       </c>
-      <c r="I12" s="498" t="s">
+      <c r="I12" s="496" t="s">
         <v>784</v>
       </c>
-      <c r="J12" s="499"/>
+      <c r="J12" s="497"/>
     </row>
     <row r="13" spans="4:12" ht="18.75">
       <c r="F13" s="212"/>
-      <c r="G13" s="495"/>
-      <c r="H13" s="497"/>
+      <c r="G13" s="493"/>
+      <c r="H13" s="495"/>
       <c r="I13" s="218" t="s">
         <v>785</v>
       </c>
@@ -16373,11 +16305,11 @@
       </c>
     </row>
     <row r="14" spans="4:12" ht="33" customHeight="1" thickBot="1">
-      <c r="D14" s="500" t="s">
+      <c r="D14" s="498" t="s">
         <v>787</v>
       </c>
-      <c r="E14" s="500"/>
-      <c r="F14" s="500"/>
+      <c r="E14" s="498"/>
+      <c r="F14" s="498"/>
       <c r="G14" s="220" t="s">
         <v>788</v>
       </c>
@@ -16395,20 +16327,20 @@
     </row>
     <row r="16" spans="4:12" ht="15.75" thickBot="1"/>
     <row r="17" spans="4:10" ht="18.75">
-      <c r="G17" s="494" t="s">
+      <c r="G17" s="492" t="s">
         <v>789</v>
       </c>
-      <c r="H17" s="496" t="s">
+      <c r="H17" s="494" t="s">
         <v>783</v>
       </c>
-      <c r="I17" s="498" t="s">
+      <c r="I17" s="496" t="s">
         <v>784</v>
       </c>
-      <c r="J17" s="499"/>
+      <c r="J17" s="497"/>
     </row>
     <row r="18" spans="4:10" ht="18.75">
-      <c r="G18" s="495"/>
-      <c r="H18" s="497"/>
+      <c r="G18" s="493"/>
+      <c r="H18" s="495"/>
       <c r="I18" s="218" t="s">
         <v>785</v>
       </c>
@@ -16417,11 +16349,11 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="33" customHeight="1" thickBot="1">
-      <c r="D19" s="500" t="s">
+      <c r="D19" s="498" t="s">
         <v>787</v>
       </c>
-      <c r="E19" s="500"/>
-      <c r="F19" s="500"/>
+      <c r="E19" s="498"/>
+      <c r="F19" s="498"/>
       <c r="G19" s="220" t="s">
         <v>790</v>
       </c>
@@ -16439,20 +16371,20 @@
     </row>
     <row r="21" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="22" spans="4:10" ht="18.75">
-      <c r="G22" s="505" t="s">
+      <c r="G22" s="499" t="s">
         <v>791</v>
       </c>
-      <c r="H22" s="496" t="s">
+      <c r="H22" s="494" t="s">
         <v>783</v>
       </c>
-      <c r="I22" s="498" t="s">
+      <c r="I22" s="496" t="s">
         <v>784</v>
       </c>
-      <c r="J22" s="499"/>
+      <c r="J22" s="497"/>
     </row>
     <row r="23" spans="4:10" ht="18.75">
-      <c r="G23" s="506"/>
-      <c r="H23" s="497"/>
+      <c r="G23" s="500"/>
+      <c r="H23" s="495"/>
       <c r="I23" s="218" t="s">
         <v>785</v>
       </c>
@@ -16461,11 +16393,11 @@
       </c>
     </row>
     <row r="24" spans="4:10" ht="32.1" customHeight="1">
-      <c r="D24" s="500" t="s">
+      <c r="D24" s="498" t="s">
         <v>787</v>
       </c>
-      <c r="E24" s="500"/>
-      <c r="F24" s="500"/>
+      <c r="E24" s="498"/>
+      <c r="F24" s="498"/>
       <c r="G24" s="221" t="s">
         <v>792</v>
       </c>
@@ -16520,20 +16452,20 @@
     </row>
     <row r="29" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="30" spans="4:10" ht="18.75">
-      <c r="G30" s="507" t="s">
+      <c r="G30" s="501" t="s">
         <v>795</v>
       </c>
-      <c r="H30" s="509" t="s">
+      <c r="H30" s="503" t="s">
         <v>796</v>
       </c>
-      <c r="I30" s="511" t="s">
+      <c r="I30" s="505" t="s">
         <v>797</v>
       </c>
-      <c r="J30" s="512"/>
+      <c r="J30" s="506"/>
     </row>
     <row r="31" spans="4:10" ht="18.75">
-      <c r="G31" s="508"/>
-      <c r="H31" s="510"/>
+      <c r="G31" s="502"/>
+      <c r="H31" s="504"/>
       <c r="I31" s="225" t="s">
         <v>779</v>
       </c>
@@ -16542,11 +16474,11 @@
       </c>
     </row>
     <row r="32" spans="4:10" ht="35.1" customHeight="1" thickBot="1">
-      <c r="D32" s="500" t="s">
+      <c r="D32" s="498" t="s">
         <v>798</v>
       </c>
-      <c r="E32" s="500"/>
-      <c r="F32" s="500"/>
+      <c r="E32" s="498"/>
+      <c r="F32" s="498"/>
       <c r="G32" s="227" t="s">
         <v>792</v>
       </c>
@@ -16564,6 +16496,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:J17"/>
@@ -16576,16 +16518,6 @@
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18292,9 +18224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN485"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M465" sqref="M465"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F463" sqref="F463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18345,17 +18277,17 @@
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" thickBot="1">
       <c r="A1" s="264"/>
-      <c r="B1" s="464" t="s">
+      <c r="B1" s="431" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="465"/>
-      <c r="D1" s="465"/>
-      <c r="E1" s="465"/>
-      <c r="F1" s="466"/>
-      <c r="G1" s="467" t="s">
+      <c r="C1" s="432"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="433"/>
+      <c r="G1" s="434" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="468"/>
+      <c r="H1" s="435"/>
     </row>
     <row r="2" spans="1:40" ht="17.25" thickBot="1">
       <c r="A2" s="267" t="s">
@@ -18376,16 +18308,16 @@
       <c r="F2" s="269" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="469">
+      <c r="G2" s="436">
         <f ca="1">TODAY()-A13</f>
-        <v>1259</v>
-      </c>
-      <c r="H2" s="470"/>
+        <v>1262</v>
+      </c>
+      <c r="H2" s="437"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
       <c r="A3" s="270">
         <f>C6-F6</f>
-        <v>1206250.90118</v>
+        <v>1213250.90118</v>
       </c>
       <c r="B3" s="271">
         <f>C3+D3+E3+F3</f>
@@ -18407,10 +18339,10 @@
         <f>'whobor-touna'!L3</f>
         <v>21308.880000000001</v>
       </c>
-      <c r="G3" s="467" t="s">
+      <c r="G3" s="434" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="468"/>
+      <c r="H3" s="435"/>
     </row>
     <row r="4" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="275"/>
@@ -18431,11 +18363,11 @@
         <f>F3/$B$3</f>
         <v>1.4886017792611391E-2</v>
       </c>
-      <c r="G4" s="462">
+      <c r="G4" s="438">
         <f ca="1">A6/G2</f>
-        <v>178.88686959491673</v>
-      </c>
-      <c r="H4" s="463"/>
+        <v>172.91487228209203</v>
+      </c>
+      <c r="H4" s="439"/>
     </row>
     <row r="5" spans="1:40" ht="17.25" thickBot="1">
       <c r="A5" s="278" t="s">
@@ -18456,23 +18388,23 @@
       <c r="F5" s="282" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="459" t="s">
+      <c r="G5" s="445" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="460"/>
+      <c r="H5" s="446"/>
     </row>
     <row r="6" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="283">
         <f>B3-A3</f>
-        <v>225218.56882000016</v>
+        <v>218218.56882000016</v>
       </c>
       <c r="B6" s="284">
         <f>F6-C6</f>
-        <v>-1206250.90118</v>
+        <v>-1213250.90118</v>
       </c>
       <c r="C6" s="285">
         <f>B12+L12+G12+X12+R12</f>
-        <v>3073637.89</v>
+        <v>3080637.89</v>
       </c>
       <c r="D6" s="286">
         <f>C12+H12+M12+Y12+S12</f>
@@ -18486,205 +18418,205 @@
         <f>D6-E6</f>
         <v>1867386.9888200001</v>
       </c>
-      <c r="G6" s="462">
+      <c r="G6" s="438">
         <f ca="1">G4*30</f>
-        <v>5366.6060878475018</v>
-      </c>
-      <c r="H6" s="463"/>
+        <v>5187.4461684627613</v>
+      </c>
+      <c r="H6" s="439"/>
     </row>
     <row r="7" spans="1:40" s="290" customFormat="1" ht="20.25">
       <c r="A7" s="289"/>
-      <c r="B7" s="456" t="s">
+      <c r="B7" s="458" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="454"/>
-      <c r="D7" s="454"/>
-      <c r="E7" s="455"/>
-      <c r="F7" s="457"/>
-      <c r="G7" s="453" t="s">
+      <c r="C7" s="456"/>
+      <c r="D7" s="456"/>
+      <c r="E7" s="457"/>
+      <c r="F7" s="459"/>
+      <c r="G7" s="455" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="454"/>
-      <c r="I7" s="454"/>
-      <c r="J7" s="455"/>
-      <c r="K7" s="455"/>
-      <c r="L7" s="447" t="s">
+      <c r="H7" s="456"/>
+      <c r="I7" s="456"/>
+      <c r="J7" s="457"/>
+      <c r="K7" s="457"/>
+      <c r="L7" s="451" t="s">
         <v>766</v>
       </c>
-      <c r="M7" s="448"/>
-      <c r="N7" s="448"/>
-      <c r="O7" s="448"/>
-      <c r="P7" s="448"/>
-      <c r="Q7" s="449"/>
-      <c r="R7" s="448" t="s">
+      <c r="M7" s="447"/>
+      <c r="N7" s="447"/>
+      <c r="O7" s="447"/>
+      <c r="P7" s="447"/>
+      <c r="Q7" s="452"/>
+      <c r="R7" s="447" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="448"/>
-      <c r="T7" s="448"/>
-      <c r="U7" s="448"/>
-      <c r="V7" s="448"/>
-      <c r="W7" s="448"/>
-      <c r="X7" s="447" t="s">
+      <c r="S7" s="447"/>
+      <c r="T7" s="447"/>
+      <c r="U7" s="447"/>
+      <c r="V7" s="447"/>
+      <c r="W7" s="447"/>
+      <c r="X7" s="451" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="448"/>
-      <c r="Z7" s="448"/>
-      <c r="AA7" s="448"/>
-      <c r="AB7" s="448"/>
-      <c r="AC7" s="449"/>
+      <c r="Y7" s="447"/>
+      <c r="Z7" s="447"/>
+      <c r="AA7" s="447"/>
+      <c r="AB7" s="447"/>
+      <c r="AC7" s="452"/>
     </row>
     <row r="8" spans="1:40" s="290" customFormat="1" ht="16.5">
       <c r="A8" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="450" t="s">
+      <c r="B8" s="453" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="451"/>
-      <c r="D8" s="451"/>
-      <c r="E8" s="451"/>
-      <c r="F8" s="452"/>
-      <c r="G8" s="451" t="s">
+      <c r="C8" s="448"/>
+      <c r="D8" s="448"/>
+      <c r="E8" s="448"/>
+      <c r="F8" s="454"/>
+      <c r="G8" s="448" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="451"/>
-      <c r="I8" s="451"/>
-      <c r="J8" s="451"/>
-      <c r="K8" s="451"/>
-      <c r="L8" s="450" t="s">
+      <c r="H8" s="448"/>
+      <c r="I8" s="448"/>
+      <c r="J8" s="448"/>
+      <c r="K8" s="448"/>
+      <c r="L8" s="453" t="s">
         <v>767</v>
       </c>
-      <c r="M8" s="451"/>
-      <c r="N8" s="451"/>
-      <c r="O8" s="451"/>
-      <c r="P8" s="451"/>
-      <c r="Q8" s="452"/>
-      <c r="R8" s="451" t="s">
+      <c r="M8" s="448"/>
+      <c r="N8" s="448"/>
+      <c r="O8" s="448"/>
+      <c r="P8" s="448"/>
+      <c r="Q8" s="454"/>
+      <c r="R8" s="448" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="451"/>
-      <c r="T8" s="451"/>
-      <c r="U8" s="451"/>
-      <c r="V8" s="451"/>
-      <c r="W8" s="451"/>
-      <c r="X8" s="450" t="s">
+      <c r="S8" s="448"/>
+      <c r="T8" s="448"/>
+      <c r="U8" s="448"/>
+      <c r="V8" s="448"/>
+      <c r="W8" s="448"/>
+      <c r="X8" s="453" t="s">
         <v>164</v>
       </c>
-      <c r="Y8" s="451"/>
-      <c r="Z8" s="451"/>
-      <c r="AA8" s="451"/>
-      <c r="AB8" s="451"/>
-      <c r="AC8" s="452"/>
+      <c r="Y8" s="448"/>
+      <c r="Z8" s="448"/>
+      <c r="AA8" s="448"/>
+      <c r="AB8" s="448"/>
+      <c r="AC8" s="454"/>
       <c r="AK8" s="292"/>
     </row>
     <row r="9" spans="1:40" s="290" customFormat="1" ht="16.5">
       <c r="A9" s="291" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="435" t="s">
+      <c r="B9" s="442" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="436"/>
-      <c r="D9" s="435" t="s">
+      <c r="C9" s="441"/>
+      <c r="D9" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="440"/>
-      <c r="F9" s="446"/>
-      <c r="G9" s="458" t="s">
+      <c r="E9" s="443"/>
+      <c r="F9" s="470"/>
+      <c r="G9" s="440" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="436"/>
-      <c r="I9" s="435" t="s">
+      <c r="H9" s="441"/>
+      <c r="I9" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="440"/>
-      <c r="K9" s="439"/>
-      <c r="L9" s="433" t="s">
+      <c r="J9" s="443"/>
+      <c r="K9" s="444"/>
+      <c r="L9" s="462" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="434"/>
-      <c r="N9" s="439" t="s">
+      <c r="M9" s="450"/>
+      <c r="N9" s="444" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="440"/>
-      <c r="P9" s="440"/>
-      <c r="Q9" s="441"/>
-      <c r="R9" s="461" t="s">
+      <c r="O9" s="443"/>
+      <c r="P9" s="443"/>
+      <c r="Q9" s="465"/>
+      <c r="R9" s="449" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="434"/>
-      <c r="T9" s="439" t="s">
+      <c r="S9" s="450"/>
+      <c r="T9" s="444" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="440"/>
-      <c r="V9" s="440"/>
-      <c r="W9" s="440"/>
-      <c r="X9" s="433" t="s">
+      <c r="U9" s="443"/>
+      <c r="V9" s="443"/>
+      <c r="W9" s="443"/>
+      <c r="X9" s="462" t="s">
         <v>49</v>
       </c>
-      <c r="Y9" s="434"/>
-      <c r="Z9" s="439" t="s">
+      <c r="Y9" s="450"/>
+      <c r="Z9" s="444" t="s">
         <v>50</v>
       </c>
-      <c r="AA9" s="440"/>
-      <c r="AB9" s="440"/>
-      <c r="AC9" s="441"/>
+      <c r="AA9" s="443"/>
+      <c r="AB9" s="443"/>
+      <c r="AC9" s="465"/>
     </row>
     <row r="10" spans="1:40" ht="15.75" customHeight="1">
       <c r="A10" s="293" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="431" t="s">
+      <c r="B10" s="460" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="432"/>
-      <c r="D10" s="443">
+      <c r="C10" s="461"/>
+      <c r="D10" s="467">
         <f>'whobor-touna'!G3/$B$3</f>
         <v>0.35603519368107794</v>
       </c>
-      <c r="E10" s="437"/>
-      <c r="F10" s="438"/>
-      <c r="G10" s="442" t="s">
+      <c r="E10" s="463"/>
+      <c r="F10" s="464"/>
+      <c r="G10" s="466" t="s">
         <v>207</v>
       </c>
-      <c r="H10" s="432"/>
-      <c r="I10" s="443">
+      <c r="H10" s="461"/>
+      <c r="I10" s="467">
         <f>'thmei-touna'!G3/$B$3</f>
         <v>0.52308174620028747</v>
       </c>
-      <c r="J10" s="437"/>
-      <c r="K10" s="437"/>
-      <c r="L10" s="444" t="s">
+      <c r="J10" s="463"/>
+      <c r="K10" s="463"/>
+      <c r="L10" s="468" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="445"/>
-      <c r="N10" s="437">
+      <c r="M10" s="469"/>
+      <c r="N10" s="463">
         <f>宜人贷!T2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="O10" s="437"/>
-      <c r="P10" s="437"/>
-      <c r="Q10" s="438"/>
-      <c r="R10" s="445"/>
-      <c r="S10" s="445"/>
-      <c r="T10" s="437">
+      <c r="O10" s="463"/>
+      <c r="P10" s="463"/>
+      <c r="Q10" s="464"/>
+      <c r="R10" s="469"/>
+      <c r="S10" s="469"/>
+      <c r="T10" s="463">
         <f>宜人贷!Z2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="U10" s="437"/>
-      <c r="V10" s="437"/>
-      <c r="W10" s="437"/>
-      <c r="X10" s="444">
+      <c r="U10" s="463"/>
+      <c r="V10" s="463"/>
+      <c r="W10" s="463"/>
+      <c r="X10" s="468">
         <v>830106</v>
       </c>
-      <c r="Y10" s="445"/>
-      <c r="Z10" s="437">
+      <c r="Y10" s="469"/>
+      <c r="Z10" s="463">
         <f>'whobor-wzd'!N2/$B$3</f>
         <v>8.9095019260173242E-2</v>
       </c>
-      <c r="AA10" s="437"/>
-      <c r="AB10" s="437"/>
-      <c r="AC10" s="438"/>
+      <c r="AA10" s="463"/>
+      <c r="AB10" s="463"/>
+      <c r="AC10" s="464"/>
     </row>
     <row r="11" spans="1:40" ht="28.5" customHeight="1">
       <c r="A11" s="294" t="s">
@@ -18793,7 +18725,7 @@
       </c>
       <c r="G12" s="308">
         <f>SUM(G13:G889)</f>
-        <v>876765.75</v>
+        <v>883765.75</v>
       </c>
       <c r="H12" s="305">
         <f>SUM(H13:H985)</f>
@@ -18805,7 +18737,7 @@
       </c>
       <c r="J12" s="306">
         <f>H12-G12+K12-I12</f>
-        <v>102691.35000000021</v>
+        <v>95691.35000000021</v>
       </c>
       <c r="K12" s="306">
         <f>'thmei-touna'!G3</f>
@@ -35129,12 +35061,17 @@
       <c r="AC462" s="316"/>
     </row>
     <row r="463" spans="1:29">
+      <c r="A463" s="313">
+        <v>42950</v>
+      </c>
       <c r="B463" s="314"/>
       <c r="C463" s="315"/>
       <c r="D463" s="315"/>
       <c r="E463" s="315"/>
       <c r="F463" s="316"/>
-      <c r="G463" s="314"/>
+      <c r="G463" s="314">
+        <v>7000</v>
+      </c>
       <c r="H463" s="315"/>
       <c r="I463" s="315"/>
       <c r="J463" s="315"/>
@@ -35820,27 +35757,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="L7:Q7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B9:C9"/>
@@ -35857,6 +35773,27 @@
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D9:F9"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44543,12 +44480,12 @@
         <v>1029</v>
       </c>
       <c r="P79" s="403"/>
-      <c r="Q79" s="485"/>
-      <c r="R79" s="486"/>
-      <c r="S79" s="487"/>
-      <c r="T79" s="487"/>
-      <c r="U79" s="483"/>
-      <c r="V79" s="484"/>
+      <c r="Q79" s="473"/>
+      <c r="R79" s="475"/>
+      <c r="S79" s="477"/>
+      <c r="T79" s="477"/>
+      <c r="U79" s="479"/>
+      <c r="V79" s="481"/>
     </row>
     <row r="80" spans="1:22" s="385" customFormat="1" ht="26.25" thickBot="1">
       <c r="A80" s="373">
@@ -44597,12 +44534,12 @@
         <v>1031</v>
       </c>
       <c r="P80" s="404"/>
-      <c r="Q80" s="480"/>
-      <c r="R80" s="482"/>
-      <c r="S80" s="474"/>
-      <c r="T80" s="474"/>
-      <c r="U80" s="476"/>
-      <c r="V80" s="478"/>
+      <c r="Q80" s="474"/>
+      <c r="R80" s="476"/>
+      <c r="S80" s="478"/>
+      <c r="T80" s="478"/>
+      <c r="U80" s="480"/>
+      <c r="V80" s="482"/>
     </row>
     <row r="81" spans="1:22" s="385" customFormat="1" ht="26.25" thickBot="1">
       <c r="A81" s="373">
@@ -44651,12 +44588,12 @@
         <v>1033</v>
       </c>
       <c r="P81" s="403"/>
-      <c r="Q81" s="479"/>
-      <c r="R81" s="481"/>
-      <c r="S81" s="473"/>
-      <c r="T81" s="473"/>
-      <c r="U81" s="475"/>
-      <c r="V81" s="477"/>
+      <c r="Q81" s="483"/>
+      <c r="R81" s="484"/>
+      <c r="S81" s="485"/>
+      <c r="T81" s="485"/>
+      <c r="U81" s="486"/>
+      <c r="V81" s="487"/>
     </row>
     <row r="82" spans="1:22" s="400" customFormat="1" ht="26.25" thickBot="1">
       <c r="A82" s="373">
@@ -44705,12 +44642,12 @@
         <v>1046</v>
       </c>
       <c r="P82" s="404"/>
-      <c r="Q82" s="480"/>
-      <c r="R82" s="482"/>
-      <c r="S82" s="474"/>
-      <c r="T82" s="474"/>
-      <c r="U82" s="476"/>
-      <c r="V82" s="478"/>
+      <c r="Q82" s="474"/>
+      <c r="R82" s="476"/>
+      <c r="S82" s="478"/>
+      <c r="T82" s="478"/>
+      <c r="U82" s="480"/>
+      <c r="V82" s="482"/>
     </row>
     <row r="83" spans="1:22" s="401" customFormat="1" ht="26.25" thickBot="1">
       <c r="A83" s="373">
@@ -44759,12 +44696,12 @@
         <v>1049</v>
       </c>
       <c r="P83" s="403"/>
-      <c r="Q83" s="479"/>
-      <c r="R83" s="481"/>
-      <c r="S83" s="473"/>
-      <c r="T83" s="473"/>
-      <c r="U83" s="475"/>
-      <c r="V83" s="477"/>
+      <c r="Q83" s="483"/>
+      <c r="R83" s="484"/>
+      <c r="S83" s="485"/>
+      <c r="T83" s="485"/>
+      <c r="U83" s="486"/>
+      <c r="V83" s="487"/>
     </row>
     <row r="84" spans="1:22" s="401" customFormat="1" ht="26.25" thickBot="1">
       <c r="A84" s="373">
@@ -44813,12 +44750,12 @@
         <v>1054</v>
       </c>
       <c r="P84" s="404"/>
-      <c r="Q84" s="480"/>
-      <c r="R84" s="482"/>
-      <c r="S84" s="474"/>
-      <c r="T84" s="474"/>
-      <c r="U84" s="476"/>
-      <c r="V84" s="478"/>
+      <c r="Q84" s="474"/>
+      <c r="R84" s="476"/>
+      <c r="S84" s="478"/>
+      <c r="T84" s="478"/>
+      <c r="U84" s="480"/>
+      <c r="V84" s="482"/>
     </row>
     <row r="85" spans="1:22" s="401" customFormat="1" ht="26.25" thickBot="1">
       <c r="A85" s="373">
@@ -44867,12 +44804,12 @@
         <v>1053</v>
       </c>
       <c r="P85" s="403"/>
-      <c r="Q85" s="479"/>
-      <c r="R85" s="481"/>
-      <c r="S85" s="473"/>
-      <c r="T85" s="473"/>
-      <c r="U85" s="475"/>
-      <c r="V85" s="477"/>
+      <c r="Q85" s="483"/>
+      <c r="R85" s="484"/>
+      <c r="S85" s="485"/>
+      <c r="T85" s="485"/>
+      <c r="U85" s="486"/>
+      <c r="V85" s="487"/>
     </row>
     <row r="86" spans="1:22" s="401" customFormat="1" ht="26.25" thickBot="1">
       <c r="A86" s="373">
@@ -44921,12 +44858,12 @@
         <v>1053</v>
       </c>
       <c r="P86" s="404"/>
-      <c r="Q86" s="480"/>
-      <c r="R86" s="482"/>
-      <c r="S86" s="474"/>
-      <c r="T86" s="474"/>
-      <c r="U86" s="476"/>
-      <c r="V86" s="478"/>
+      <c r="Q86" s="474"/>
+      <c r="R86" s="476"/>
+      <c r="S86" s="478"/>
+      <c r="T86" s="478"/>
+      <c r="U86" s="480"/>
+      <c r="V86" s="482"/>
     </row>
     <row r="87" spans="1:22" s="410" customFormat="1" ht="26.25" thickBot="1">
       <c r="A87" s="373">
@@ -54949,19 +54886,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="T79:T80"/>
-    <mergeCell ref="U79:U80"/>
-    <mergeCell ref="V79:V80"/>
-    <mergeCell ref="Q81:Q82"/>
-    <mergeCell ref="R81:R82"/>
-    <mergeCell ref="S81:S82"/>
-    <mergeCell ref="T81:T82"/>
-    <mergeCell ref="U81:U82"/>
-    <mergeCell ref="V81:V82"/>
     <mergeCell ref="S85:S86"/>
     <mergeCell ref="T85:T86"/>
     <mergeCell ref="U85:U86"/>
@@ -54974,6 +54898,19 @@
     <mergeCell ref="V83:V84"/>
     <mergeCell ref="Q85:Q86"/>
     <mergeCell ref="R85:R86"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="V79:V80"/>
+    <mergeCell ref="Q81:Q82"/>
+    <mergeCell ref="R81:R82"/>
+    <mergeCell ref="S81:S82"/>
+    <mergeCell ref="T81:T82"/>
+    <mergeCell ref="U81:U82"/>
+    <mergeCell ref="V81:V82"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="T79:T80"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56243,7 +56180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>

--- a/HighRiskInvestment.xlsx
+++ b/HighRiskInvestment.xlsx
@@ -1419,7 +1419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="1663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="1663">
   <si>
     <t>Ahu99</t>
   </si>
@@ -8929,9 +8929,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8941,14 +8938,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8963,6 +8963,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8986,122 +9073,23 @@
     <xf numFmtId="0" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="52" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="65" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="65" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="8" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="8" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="63" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="63" fillId="8" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="63" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="76" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -9110,16 +9098,28 @@
     <xf numFmtId="22" fontId="65" fillId="8" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="65" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="63" fillId="8" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="8" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="63" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="63" fillId="8" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="63" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="76" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="65" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="63" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9133,6 +9133,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9153,6 +9159,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9177,24 +9195,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12905,11 +12905,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A1" s="426" t="s">
+      <c r="A1" s="427" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="426"/>
-      <c r="C1" s="426"/>
+      <c r="B1" s="427"/>
+      <c r="C1" s="427"/>
       <c r="D1" s="110">
         <f>SUM(G10:G88)-SUM(L10:L88)</f>
         <v>268</v>
@@ -12922,11 +12922,11 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A2" s="427" t="s">
+      <c r="A2" s="428" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="427"/>
-      <c r="C2" s="427"/>
+      <c r="B2" s="428"/>
+      <c r="C2" s="428"/>
       <c r="D2" s="111">
         <v>29.75</v>
       </c>
@@ -12941,11 +12941,11 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A3" s="427" t="s">
+      <c r="A3" s="428" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="427"/>
-      <c r="C3" s="427"/>
+      <c r="B3" s="428"/>
+      <c r="C3" s="428"/>
       <c r="D3" s="111">
         <f>D1*0.85</f>
         <v>227.79999999999998</v>
@@ -12961,11 +12961,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A4" s="427" t="s">
+      <c r="A4" s="428" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="427"/>
-      <c r="C4" s="427"/>
+      <c r="B4" s="428"/>
+      <c r="C4" s="428"/>
       <c r="D4" s="112">
         <f>([1]Sheet2!B64)/100</f>
         <v>6.1073000000000004</v>
@@ -12975,11 +12975,11 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="422" t="s">
+      <c r="A5" s="426" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="422"/>
-      <c r="C5" s="422"/>
+      <c r="B5" s="426"/>
+      <c r="C5" s="426"/>
       <c r="D5" s="113">
         <f>SUM(D10:D88)+SUM(H10:H88)</f>
         <v>76568.666499999992</v>
@@ -12989,11 +12989,11 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A6" s="422" t="s">
+      <c r="A6" s="426" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="422"/>
-      <c r="C6" s="422"/>
+      <c r="B6" s="426"/>
+      <c r="C6" s="426"/>
       <c r="D6" s="114">
         <f>SUM(Q10:Q88)</f>
         <v>48178.589949999994</v>
@@ -13007,11 +13007,11 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A7" s="422" t="s">
+      <c r="A7" s="426" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="422"/>
-      <c r="C7" s="422"/>
+      <c r="B7" s="426"/>
+      <c r="C7" s="426"/>
       <c r="D7" s="116">
         <f>D6-D5</f>
         <v>-28390.076549999998</v>
@@ -13090,38 +13090,38 @@
       <c r="B10" s="109">
         <v>0</v>
       </c>
-      <c r="C10" s="423">
+      <c r="C10" s="422">
         <v>68.97</v>
       </c>
-      <c r="D10" s="424">
+      <c r="D10" s="423">
         <f>IF(B15&gt;0,SUM(B10:B15)-C10,0)</f>
         <v>10580.78</v>
       </c>
-      <c r="E10" s="423">
+      <c r="E10" s="422">
         <v>6.2854999999999999</v>
       </c>
-      <c r="F10" s="423">
+      <c r="F10" s="422">
         <v>25.3</v>
       </c>
-      <c r="G10" s="425">
+      <c r="G10" s="424">
         <v>79</v>
       </c>
       <c r="H10" s="120">
         <f t="shared" ref="H10:H15" si="0">R16*0.2</f>
         <v>62.814</v>
       </c>
-      <c r="I10" s="428">
+      <c r="I10" s="425">
         <f>IF($K$28&gt;F10,G10*($K$28-F10)*0.2,0)</f>
         <v>70.309999999999988</v>
       </c>
-      <c r="J10" s="428"/>
-      <c r="K10" s="428"/>
-      <c r="L10" s="428"/>
-      <c r="M10" s="428"/>
-      <c r="N10" s="428"/>
-      <c r="O10" s="428"/>
-      <c r="P10" s="428"/>
-      <c r="Q10" s="428"/>
+      <c r="J10" s="425"/>
+      <c r="K10" s="425"/>
+      <c r="L10" s="425"/>
+      <c r="M10" s="425"/>
+      <c r="N10" s="425"/>
+      <c r="O10" s="425"/>
+      <c r="P10" s="425"/>
+      <c r="Q10" s="425"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
@@ -13130,26 +13130,26 @@
       <c r="B11" s="109">
         <v>3400.95</v>
       </c>
-      <c r="C11" s="423">
+      <c r="C11" s="422">
         <v>3400.95</v>
       </c>
-      <c r="D11" s="424"/>
-      <c r="E11" s="423"/>
-      <c r="F11" s="423"/>
-      <c r="G11" s="425"/>
+      <c r="D11" s="423"/>
+      <c r="E11" s="422"/>
+      <c r="F11" s="422"/>
+      <c r="G11" s="424"/>
       <c r="H11" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I11" s="428"/>
-      <c r="J11" s="428"/>
-      <c r="K11" s="428"/>
-      <c r="L11" s="428"/>
-      <c r="M11" s="428"/>
-      <c r="N11" s="428"/>
-      <c r="O11" s="428"/>
-      <c r="P11" s="428"/>
-      <c r="Q11" s="428"/>
+      <c r="I11" s="425"/>
+      <c r="J11" s="425"/>
+      <c r="K11" s="425"/>
+      <c r="L11" s="425"/>
+      <c r="M11" s="425"/>
+      <c r="N11" s="425"/>
+      <c r="O11" s="425"/>
+      <c r="P11" s="425"/>
+      <c r="Q11" s="425"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1">
@@ -13158,26 +13158,26 @@
       <c r="B12" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C12" s="423">
+      <c r="C12" s="422">
         <v>1706.25</v>
       </c>
-      <c r="D12" s="424"/>
-      <c r="E12" s="423"/>
-      <c r="F12" s="423"/>
-      <c r="G12" s="425"/>
+      <c r="D12" s="423"/>
+      <c r="E12" s="422"/>
+      <c r="F12" s="422"/>
+      <c r="G12" s="424"/>
       <c r="H12" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I12" s="428"/>
-      <c r="J12" s="428"/>
-      <c r="K12" s="428"/>
-      <c r="L12" s="428"/>
-      <c r="M12" s="428"/>
-      <c r="N12" s="428"/>
-      <c r="O12" s="428"/>
-      <c r="P12" s="428"/>
-      <c r="Q12" s="428"/>
+      <c r="I12" s="425"/>
+      <c r="J12" s="425"/>
+      <c r="K12" s="425"/>
+      <c r="L12" s="425"/>
+      <c r="M12" s="425"/>
+      <c r="N12" s="425"/>
+      <c r="O12" s="425"/>
+      <c r="P12" s="425"/>
+      <c r="Q12" s="425"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1">
@@ -13186,26 +13186,26 @@
       <c r="B13" s="109">
         <v>1706.25</v>
       </c>
-      <c r="C13" s="423">
+      <c r="C13" s="422">
         <v>1706.25</v>
       </c>
-      <c r="D13" s="424"/>
-      <c r="E13" s="423"/>
-      <c r="F13" s="423"/>
-      <c r="G13" s="425"/>
+      <c r="D13" s="423"/>
+      <c r="E13" s="422"/>
+      <c r="F13" s="422"/>
+      <c r="G13" s="424"/>
       <c r="H13" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I13" s="428"/>
-      <c r="J13" s="428"/>
-      <c r="K13" s="428"/>
-      <c r="L13" s="428"/>
-      <c r="M13" s="428"/>
-      <c r="N13" s="428"/>
-      <c r="O13" s="428"/>
-      <c r="P13" s="428"/>
-      <c r="Q13" s="428"/>
+      <c r="I13" s="425"/>
+      <c r="J13" s="425"/>
+      <c r="K13" s="425"/>
+      <c r="L13" s="425"/>
+      <c r="M13" s="425"/>
+      <c r="N13" s="425"/>
+      <c r="O13" s="425"/>
+      <c r="P13" s="425"/>
+      <c r="Q13" s="425"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1">
@@ -13214,26 +13214,26 @@
       <c r="B14" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C14" s="423">
+      <c r="C14" s="422">
         <v>1918.15</v>
       </c>
-      <c r="D14" s="424"/>
-      <c r="E14" s="423"/>
-      <c r="F14" s="423"/>
-      <c r="G14" s="425"/>
+      <c r="D14" s="423"/>
+      <c r="E14" s="422"/>
+      <c r="F14" s="422"/>
+      <c r="G14" s="424"/>
       <c r="H14" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I14" s="428"/>
-      <c r="J14" s="428"/>
-      <c r="K14" s="428"/>
-      <c r="L14" s="428"/>
-      <c r="M14" s="428"/>
-      <c r="N14" s="428"/>
-      <c r="O14" s="428"/>
-      <c r="P14" s="428"/>
-      <c r="Q14" s="428"/>
+      <c r="I14" s="425"/>
+      <c r="J14" s="425"/>
+      <c r="K14" s="425"/>
+      <c r="L14" s="425"/>
+      <c r="M14" s="425"/>
+      <c r="N14" s="425"/>
+      <c r="O14" s="425"/>
+      <c r="P14" s="425"/>
+      <c r="Q14" s="425"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1">
@@ -13242,26 +13242,26 @@
       <c r="B15" s="109">
         <v>1918.15</v>
       </c>
-      <c r="C15" s="423">
+      <c r="C15" s="422">
         <v>1918.15</v>
       </c>
-      <c r="D15" s="424"/>
-      <c r="E15" s="423"/>
-      <c r="F15" s="423"/>
-      <c r="G15" s="425"/>
+      <c r="D15" s="423"/>
+      <c r="E15" s="422"/>
+      <c r="F15" s="422"/>
+      <c r="G15" s="424"/>
       <c r="H15" s="120">
         <f t="shared" si="0"/>
         <v>62.814</v>
       </c>
-      <c r="I15" s="428"/>
-      <c r="J15" s="428"/>
-      <c r="K15" s="428"/>
-      <c r="L15" s="428"/>
-      <c r="M15" s="428"/>
-      <c r="N15" s="428"/>
-      <c r="O15" s="428"/>
-      <c r="P15" s="428"/>
-      <c r="Q15" s="428"/>
+      <c r="I15" s="425"/>
+      <c r="J15" s="425"/>
+      <c r="K15" s="425"/>
+      <c r="L15" s="425"/>
+      <c r="M15" s="425"/>
+      <c r="N15" s="425"/>
+      <c r="O15" s="425"/>
+      <c r="P15" s="425"/>
+      <c r="Q15" s="425"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1">
@@ -13270,38 +13270,38 @@
       <c r="B16" s="109">
         <v>1693.15</v>
       </c>
-      <c r="C16" s="423">
+      <c r="C16" s="422">
         <v>48.24</v>
       </c>
-      <c r="D16" s="424">
+      <c r="D16" s="423">
         <f>IF(B21&gt;0,SUM(B16:B21)-C16,0)</f>
         <v>11196.460000000001</v>
       </c>
-      <c r="E16" s="423">
+      <c r="E16" s="422">
         <v>6.1787000000000001</v>
       </c>
-      <c r="F16" s="423">
+      <c r="F16" s="422">
         <v>23.62</v>
       </c>
-      <c r="G16" s="425">
+      <c r="G16" s="424">
         <v>90</v>
       </c>
       <c r="H16" s="120">
         <f>R22*0.25</f>
         <v>81.435000000000002</v>
       </c>
-      <c r="I16" s="428">
+      <c r="I16" s="425">
         <f>IF($K$28&gt;F16,G16*($K$28-F16)*0.2,0)</f>
         <v>110.33999999999999</v>
       </c>
-      <c r="J16" s="428"/>
-      <c r="K16" s="428"/>
-      <c r="L16" s="428"/>
-      <c r="M16" s="428"/>
-      <c r="N16" s="428"/>
-      <c r="O16" s="428"/>
-      <c r="P16" s="428"/>
-      <c r="Q16" s="428"/>
+      <c r="J16" s="425"/>
+      <c r="K16" s="425"/>
+      <c r="L16" s="425"/>
+      <c r="M16" s="425"/>
+      <c r="N16" s="425"/>
+      <c r="O16" s="425"/>
+      <c r="P16" s="425"/>
+      <c r="Q16" s="425"/>
       <c r="R16" s="109">
         <v>314.07</v>
       </c>
@@ -13313,24 +13313,24 @@
       <c r="B17" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C17" s="423"/>
-      <c r="D17" s="424"/>
-      <c r="E17" s="423"/>
-      <c r="F17" s="423"/>
-      <c r="G17" s="425"/>
+      <c r="C17" s="422"/>
+      <c r="D17" s="423"/>
+      <c r="E17" s="422"/>
+      <c r="F17" s="422"/>
+      <c r="G17" s="424"/>
       <c r="H17" s="120">
         <f t="shared" ref="H17:H80" si="1">R23*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I17" s="428"/>
-      <c r="J17" s="428"/>
-      <c r="K17" s="428"/>
-      <c r="L17" s="428"/>
-      <c r="M17" s="428"/>
-      <c r="N17" s="428"/>
-      <c r="O17" s="428"/>
-      <c r="P17" s="428"/>
-      <c r="Q17" s="428"/>
+      <c r="I17" s="425"/>
+      <c r="J17" s="425"/>
+      <c r="K17" s="425"/>
+      <c r="L17" s="425"/>
+      <c r="M17" s="425"/>
+      <c r="N17" s="425"/>
+      <c r="O17" s="425"/>
+      <c r="P17" s="425"/>
+      <c r="Q17" s="425"/>
       <c r="R17" s="109">
         <f>R16</f>
         <v>314.07</v>
@@ -13343,24 +13343,24 @@
       <c r="B18" s="121">
         <v>1719.35</v>
       </c>
-      <c r="C18" s="423"/>
-      <c r="D18" s="424"/>
-      <c r="E18" s="423"/>
-      <c r="F18" s="423"/>
-      <c r="G18" s="425"/>
+      <c r="C18" s="422"/>
+      <c r="D18" s="423"/>
+      <c r="E18" s="422"/>
+      <c r="F18" s="422"/>
+      <c r="G18" s="424"/>
       <c r="H18" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I18" s="428"/>
-      <c r="J18" s="428"/>
-      <c r="K18" s="428"/>
-      <c r="L18" s="428"/>
-      <c r="M18" s="428"/>
-      <c r="N18" s="428"/>
-      <c r="O18" s="428"/>
-      <c r="P18" s="428"/>
-      <c r="Q18" s="428"/>
+      <c r="I18" s="425"/>
+      <c r="J18" s="425"/>
+      <c r="K18" s="425"/>
+      <c r="L18" s="425"/>
+      <c r="M18" s="425"/>
+      <c r="N18" s="425"/>
+      <c r="O18" s="425"/>
+      <c r="P18" s="425"/>
+      <c r="Q18" s="425"/>
       <c r="R18" s="109">
         <f t="shared" ref="R18:R32" si="2">R17</f>
         <v>314.07</v>
@@ -13373,24 +13373,24 @@
       <c r="B19" s="121">
         <v>2196.35</v>
       </c>
-      <c r="C19" s="423"/>
-      <c r="D19" s="424"/>
-      <c r="E19" s="423"/>
-      <c r="F19" s="423"/>
-      <c r="G19" s="425"/>
+      <c r="C19" s="422"/>
+      <c r="D19" s="423"/>
+      <c r="E19" s="422"/>
+      <c r="F19" s="422"/>
+      <c r="G19" s="424"/>
       <c r="H19" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I19" s="428"/>
-      <c r="J19" s="428"/>
-      <c r="K19" s="428"/>
-      <c r="L19" s="428"/>
-      <c r="M19" s="428"/>
-      <c r="N19" s="428"/>
-      <c r="O19" s="428"/>
-      <c r="P19" s="428"/>
-      <c r="Q19" s="428"/>
+      <c r="I19" s="425"/>
+      <c r="J19" s="425"/>
+      <c r="K19" s="425"/>
+      <c r="L19" s="425"/>
+      <c r="M19" s="425"/>
+      <c r="N19" s="425"/>
+      <c r="O19" s="425"/>
+      <c r="P19" s="425"/>
+      <c r="Q19" s="425"/>
       <c r="R19" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -13403,24 +13403,24 @@
       <c r="B20" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C20" s="423"/>
-      <c r="D20" s="424"/>
-      <c r="E20" s="423"/>
-      <c r="F20" s="423"/>
-      <c r="G20" s="425"/>
+      <c r="C20" s="422"/>
+      <c r="D20" s="423"/>
+      <c r="E20" s="422"/>
+      <c r="F20" s="422"/>
+      <c r="G20" s="424"/>
       <c r="H20" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I20" s="428"/>
-      <c r="J20" s="428"/>
-      <c r="K20" s="428"/>
-      <c r="L20" s="428"/>
-      <c r="M20" s="428"/>
-      <c r="N20" s="428"/>
-      <c r="O20" s="428"/>
-      <c r="P20" s="428"/>
-      <c r="Q20" s="428"/>
+      <c r="I20" s="425"/>
+      <c r="J20" s="425"/>
+      <c r="K20" s="425"/>
+      <c r="L20" s="425"/>
+      <c r="M20" s="425"/>
+      <c r="N20" s="425"/>
+      <c r="O20" s="425"/>
+      <c r="P20" s="425"/>
+      <c r="Q20" s="425"/>
       <c r="R20" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -13433,24 +13433,24 @@
       <c r="B21" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C21" s="423"/>
-      <c r="D21" s="424"/>
-      <c r="E21" s="423"/>
-      <c r="F21" s="423"/>
-      <c r="G21" s="425"/>
+      <c r="C21" s="422"/>
+      <c r="D21" s="423"/>
+      <c r="E21" s="422"/>
+      <c r="F21" s="422"/>
+      <c r="G21" s="424"/>
       <c r="H21" s="120">
         <f t="shared" si="1"/>
         <v>67.862499999999997</v>
       </c>
-      <c r="I21" s="428"/>
-      <c r="J21" s="428"/>
-      <c r="K21" s="428"/>
-      <c r="L21" s="428"/>
-      <c r="M21" s="428"/>
-      <c r="N21" s="428"/>
-      <c r="O21" s="428"/>
-      <c r="P21" s="428"/>
-      <c r="Q21" s="428"/>
+      <c r="I21" s="425"/>
+      <c r="J21" s="425"/>
+      <c r="K21" s="425"/>
+      <c r="L21" s="425"/>
+      <c r="M21" s="425"/>
+      <c r="N21" s="425"/>
+      <c r="O21" s="425"/>
+      <c r="P21" s="425"/>
+      <c r="Q21" s="425"/>
       <c r="R21" s="109">
         <f t="shared" si="2"/>
         <v>314.07</v>
@@ -13463,38 +13463,38 @@
       <c r="B22" s="121">
         <v>1958.23</v>
       </c>
-      <c r="C22" s="423">
+      <c r="C22" s="422">
         <v>34.549999999999997</v>
       </c>
-      <c r="D22" s="424">
+      <c r="D22" s="423">
         <f>IF(B27&gt;0,SUM(B22:B27)-C22,0)</f>
         <v>11771.410000000002</v>
       </c>
-      <c r="E22" s="423">
+      <c r="E22" s="422">
         <v>6.1050000000000004</v>
       </c>
-      <c r="F22" s="423">
+      <c r="F22" s="422">
         <v>24.24</v>
       </c>
-      <c r="G22" s="425">
+      <c r="G22" s="424">
         <v>109</v>
       </c>
       <c r="H22" s="120">
         <f>R28*0.25</f>
         <v>67.862499999999997</v>
       </c>
-      <c r="I22" s="428">
+      <c r="I22" s="425">
         <f>IF($K$28&gt;F22,G22*($K$28-F22)*0.2,0)</f>
         <v>120.11800000000004</v>
       </c>
-      <c r="J22" s="428"/>
-      <c r="K22" s="428"/>
-      <c r="L22" s="428"/>
-      <c r="M22" s="428"/>
-      <c r="N22" s="428"/>
-      <c r="O22" s="428"/>
-      <c r="P22" s="428"/>
-      <c r="Q22" s="428"/>
+      <c r="J22" s="425"/>
+      <c r="K22" s="425"/>
+      <c r="L22" s="425"/>
+      <c r="M22" s="425"/>
+      <c r="N22" s="425"/>
+      <c r="O22" s="425"/>
+      <c r="P22" s="425"/>
+      <c r="Q22" s="425"/>
       <c r="R22" s="109">
         <v>325.74</v>
       </c>
@@ -13506,24 +13506,24 @@
       <c r="B23" s="121">
         <v>1958.24</v>
       </c>
-      <c r="C23" s="423"/>
-      <c r="D23" s="424"/>
-      <c r="E23" s="423"/>
-      <c r="F23" s="423"/>
-      <c r="G23" s="425"/>
+      <c r="C23" s="422"/>
+      <c r="D23" s="423"/>
+      <c r="E23" s="422"/>
+      <c r="F23" s="422"/>
+      <c r="G23" s="424"/>
       <c r="H23" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I23" s="428"/>
-      <c r="J23" s="428"/>
-      <c r="K23" s="428"/>
-      <c r="L23" s="428"/>
-      <c r="M23" s="428"/>
-      <c r="N23" s="428"/>
-      <c r="O23" s="428"/>
-      <c r="P23" s="428"/>
-      <c r="Q23" s="428"/>
+      <c r="I23" s="425"/>
+      <c r="J23" s="425"/>
+      <c r="K23" s="425"/>
+      <c r="L23" s="425"/>
+      <c r="M23" s="425"/>
+      <c r="N23" s="425"/>
+      <c r="O23" s="425"/>
+      <c r="P23" s="425"/>
+      <c r="Q23" s="425"/>
       <c r="R23" s="109">
         <v>271.45</v>
       </c>
@@ -13535,24 +13535,24 @@
       <c r="B24" s="121">
         <v>1958.25</v>
       </c>
-      <c r="C24" s="423"/>
-      <c r="D24" s="424"/>
-      <c r="E24" s="423"/>
-      <c r="F24" s="423"/>
-      <c r="G24" s="425"/>
+      <c r="C24" s="422"/>
+      <c r="D24" s="423"/>
+      <c r="E24" s="422"/>
+      <c r="F24" s="422"/>
+      <c r="G24" s="424"/>
       <c r="H24" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I24" s="428"/>
-      <c r="J24" s="428"/>
-      <c r="K24" s="428"/>
-      <c r="L24" s="428"/>
-      <c r="M24" s="428"/>
-      <c r="N24" s="428"/>
-      <c r="O24" s="428"/>
-      <c r="P24" s="428"/>
-      <c r="Q24" s="428"/>
+      <c r="I24" s="425"/>
+      <c r="J24" s="425"/>
+      <c r="K24" s="425"/>
+      <c r="L24" s="425"/>
+      <c r="M24" s="425"/>
+      <c r="N24" s="425"/>
+      <c r="O24" s="425"/>
+      <c r="P24" s="425"/>
+      <c r="Q24" s="425"/>
       <c r="R24" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -13565,24 +13565,24 @@
       <c r="B25" s="121">
         <v>1958.26</v>
       </c>
-      <c r="C25" s="423"/>
-      <c r="D25" s="424"/>
-      <c r="E25" s="423"/>
-      <c r="F25" s="423"/>
-      <c r="G25" s="425"/>
+      <c r="C25" s="422"/>
+      <c r="D25" s="423"/>
+      <c r="E25" s="422"/>
+      <c r="F25" s="422"/>
+      <c r="G25" s="424"/>
       <c r="H25" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I25" s="428"/>
-      <c r="J25" s="428"/>
-      <c r="K25" s="428"/>
-      <c r="L25" s="428"/>
-      <c r="M25" s="428"/>
-      <c r="N25" s="428"/>
-      <c r="O25" s="428"/>
-      <c r="P25" s="428"/>
-      <c r="Q25" s="428"/>
+      <c r="I25" s="425"/>
+      <c r="J25" s="425"/>
+      <c r="K25" s="425"/>
+      <c r="L25" s="425"/>
+      <c r="M25" s="425"/>
+      <c r="N25" s="425"/>
+      <c r="O25" s="425"/>
+      <c r="P25" s="425"/>
+      <c r="Q25" s="425"/>
       <c r="R25" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -13595,24 +13595,24 @@
       <c r="B26" s="121">
         <v>2031.49</v>
       </c>
-      <c r="C26" s="423"/>
-      <c r="D26" s="424"/>
-      <c r="E26" s="423"/>
-      <c r="F26" s="423"/>
-      <c r="G26" s="425"/>
+      <c r="C26" s="422"/>
+      <c r="D26" s="423"/>
+      <c r="E26" s="422"/>
+      <c r="F26" s="422"/>
+      <c r="G26" s="424"/>
       <c r="H26" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I26" s="428"/>
-      <c r="J26" s="428"/>
-      <c r="K26" s="428"/>
-      <c r="L26" s="428"/>
-      <c r="M26" s="428"/>
-      <c r="N26" s="428"/>
-      <c r="O26" s="428"/>
-      <c r="P26" s="428"/>
-      <c r="Q26" s="428"/>
+      <c r="I26" s="425"/>
+      <c r="J26" s="425"/>
+      <c r="K26" s="425"/>
+      <c r="L26" s="425"/>
+      <c r="M26" s="425"/>
+      <c r="N26" s="425"/>
+      <c r="O26" s="425"/>
+      <c r="P26" s="425"/>
+      <c r="Q26" s="425"/>
       <c r="R26" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -13625,24 +13625,24 @@
       <c r="B27" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C27" s="423"/>
-      <c r="D27" s="424"/>
-      <c r="E27" s="423"/>
-      <c r="F27" s="423"/>
-      <c r="G27" s="425"/>
+      <c r="C27" s="422"/>
+      <c r="D27" s="423"/>
+      <c r="E27" s="422"/>
+      <c r="F27" s="422"/>
+      <c r="G27" s="424"/>
       <c r="H27" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I27" s="428"/>
-      <c r="J27" s="428"/>
-      <c r="K27" s="428"/>
-      <c r="L27" s="428"/>
-      <c r="M27" s="428"/>
-      <c r="N27" s="428"/>
-      <c r="O27" s="428"/>
-      <c r="P27" s="428"/>
-      <c r="Q27" s="428"/>
+      <c r="I27" s="425"/>
+      <c r="J27" s="425"/>
+      <c r="K27" s="425"/>
+      <c r="L27" s="425"/>
+      <c r="M27" s="425"/>
+      <c r="N27" s="425"/>
+      <c r="O27" s="425"/>
+      <c r="P27" s="425"/>
+      <c r="Q27" s="425"/>
       <c r="R27" s="109">
         <f t="shared" si="2"/>
         <v>271.45</v>
@@ -13655,54 +13655,54 @@
       <c r="B28" s="121">
         <v>1941.49</v>
       </c>
-      <c r="C28" s="423">
+      <c r="C28" s="422">
         <v>22.25</v>
       </c>
-      <c r="D28" s="424">
+      <c r="D28" s="423">
         <f>IF(G28&gt;0,SUM(B28:B34)-C28,0)</f>
         <v>14106.8</v>
       </c>
-      <c r="E28" s="423">
+      <c r="E28" s="422">
         <v>6.1675000000000004</v>
       </c>
-      <c r="F28" s="423">
+      <c r="F28" s="422">
         <v>29.3</v>
       </c>
-      <c r="G28" s="425">
+      <c r="G28" s="424">
         <v>79</v>
       </c>
       <c r="H28" s="120">
         <f t="shared" si="1"/>
         <v>100.08750000000001</v>
       </c>
-      <c r="I28" s="428">
+      <c r="I28" s="425">
         <f>IF($D$2&gt;F28,G28*($D$2-F28)*0.2,0)</f>
         <v>7.1099999999999888</v>
       </c>
-      <c r="J28" s="428">
+      <c r="J28" s="425">
         <f>SUM(I10:I27)</f>
         <v>300.76800000000003</v>
       </c>
-      <c r="K28" s="428">
+      <c r="K28" s="425">
         <v>29.75</v>
       </c>
-      <c r="L28" s="428">
+      <c r="L28" s="425">
         <v>278</v>
       </c>
-      <c r="M28" s="428">
+      <c r="M28" s="425">
         <f>IF(IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005)&gt;25,IF(L28*K28&lt;5000,L28*K28*0.006,L28*K28*0.005),25)</f>
         <v>41.352499999999999</v>
       </c>
-      <c r="N28" s="428">
+      <c r="N28" s="425">
         <v>5.25</v>
       </c>
-      <c r="O28" s="428">
-        <v>0</v>
-      </c>
-      <c r="P28" s="428">
+      <c r="O28" s="425">
+        <v>0</v>
+      </c>
+      <c r="P28" s="425">
         <v>25</v>
       </c>
-      <c r="Q28" s="428">
+      <c r="Q28" s="425">
         <f>(K28*L28-J28-M28-N28-O28-P28)*S34</f>
         <v>48178.589949999994</v>
       </c>
@@ -13718,24 +13718,24 @@
       <c r="B29" s="121">
         <v>2445.75</v>
       </c>
-      <c r="C29" s="423"/>
-      <c r="D29" s="424"/>
-      <c r="E29" s="423"/>
-      <c r="F29" s="423"/>
-      <c r="G29" s="425"/>
+      <c r="C29" s="422"/>
+      <c r="D29" s="423"/>
+      <c r="E29" s="422"/>
+      <c r="F29" s="422"/>
+      <c r="G29" s="424"/>
       <c r="H29" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I29" s="428"/>
-      <c r="J29" s="428"/>
-      <c r="K29" s="428"/>
-      <c r="L29" s="428"/>
-      <c r="M29" s="428"/>
-      <c r="N29" s="428"/>
-      <c r="O29" s="428"/>
-      <c r="P29" s="428"/>
-      <c r="Q29" s="428"/>
+      <c r="I29" s="425"/>
+      <c r="J29" s="425"/>
+      <c r="K29" s="425"/>
+      <c r="L29" s="425"/>
+      <c r="M29" s="425"/>
+      <c r="N29" s="425"/>
+      <c r="O29" s="425"/>
+      <c r="P29" s="425"/>
+      <c r="Q29" s="425"/>
       <c r="R29" s="109">
         <v>400.35</v>
       </c>
@@ -13747,24 +13747,24 @@
       <c r="B30" s="121">
         <v>1917.03</v>
       </c>
-      <c r="C30" s="423"/>
-      <c r="D30" s="424"/>
-      <c r="E30" s="423"/>
-      <c r="F30" s="423"/>
-      <c r="G30" s="425"/>
+      <c r="C30" s="422"/>
+      <c r="D30" s="423"/>
+      <c r="E30" s="422"/>
+      <c r="F30" s="422"/>
+      <c r="G30" s="424"/>
       <c r="H30" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I30" s="428"/>
-      <c r="J30" s="428"/>
-      <c r="K30" s="428"/>
-      <c r="L30" s="428"/>
-      <c r="M30" s="428"/>
-      <c r="N30" s="428"/>
-      <c r="O30" s="428"/>
-      <c r="P30" s="428"/>
-      <c r="Q30" s="428"/>
+      <c r="I30" s="425"/>
+      <c r="J30" s="425"/>
+      <c r="K30" s="425"/>
+      <c r="L30" s="425"/>
+      <c r="M30" s="425"/>
+      <c r="N30" s="425"/>
+      <c r="O30" s="425"/>
+      <c r="P30" s="425"/>
+      <c r="Q30" s="425"/>
       <c r="R30" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -13777,24 +13777,24 @@
       <c r="B31" s="121">
         <v>1827.02</v>
       </c>
-      <c r="C31" s="423"/>
-      <c r="D31" s="424"/>
-      <c r="E31" s="423"/>
-      <c r="F31" s="423"/>
-      <c r="G31" s="425"/>
+      <c r="C31" s="422"/>
+      <c r="D31" s="423"/>
+      <c r="E31" s="422"/>
+      <c r="F31" s="422"/>
+      <c r="G31" s="424"/>
       <c r="H31" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I31" s="428"/>
-      <c r="J31" s="428"/>
-      <c r="K31" s="428"/>
-      <c r="L31" s="428"/>
-      <c r="M31" s="428"/>
-      <c r="N31" s="428"/>
-      <c r="O31" s="428"/>
-      <c r="P31" s="428"/>
-      <c r="Q31" s="428"/>
+      <c r="I31" s="425"/>
+      <c r="J31" s="425"/>
+      <c r="K31" s="425"/>
+      <c r="L31" s="425"/>
+      <c r="M31" s="425"/>
+      <c r="N31" s="425"/>
+      <c r="O31" s="425"/>
+      <c r="P31" s="425"/>
+      <c r="Q31" s="425"/>
       <c r="R31" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -13807,24 +13807,24 @@
       <c r="B32" s="121">
         <v>1958.22</v>
       </c>
-      <c r="C32" s="423"/>
-      <c r="D32" s="424"/>
-      <c r="E32" s="423"/>
-      <c r="F32" s="423"/>
-      <c r="G32" s="425"/>
+      <c r="C32" s="422"/>
+      <c r="D32" s="423"/>
+      <c r="E32" s="422"/>
+      <c r="F32" s="422"/>
+      <c r="G32" s="424"/>
       <c r="H32" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I32" s="428"/>
-      <c r="J32" s="428"/>
-      <c r="K32" s="428"/>
-      <c r="L32" s="428"/>
-      <c r="M32" s="428"/>
-      <c r="N32" s="428"/>
-      <c r="O32" s="428"/>
-      <c r="P32" s="428"/>
-      <c r="Q32" s="428"/>
+      <c r="I32" s="425"/>
+      <c r="J32" s="425"/>
+      <c r="K32" s="425"/>
+      <c r="L32" s="425"/>
+      <c r="M32" s="425"/>
+      <c r="N32" s="425"/>
+      <c r="O32" s="425"/>
+      <c r="P32" s="425"/>
+      <c r="Q32" s="425"/>
       <c r="R32" s="109">
         <f t="shared" si="2"/>
         <v>400.35</v>
@@ -13837,24 +13837,24 @@
       <c r="B33" s="121">
         <v>1958.28</v>
       </c>
-      <c r="C33" s="423"/>
-      <c r="D33" s="424"/>
-      <c r="E33" s="423"/>
-      <c r="F33" s="423"/>
-      <c r="G33" s="425"/>
+      <c r="C33" s="422"/>
+      <c r="D33" s="423"/>
+      <c r="E33" s="422"/>
+      <c r="F33" s="422"/>
+      <c r="G33" s="424"/>
       <c r="H33" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I33" s="428"/>
-      <c r="J33" s="428"/>
-      <c r="K33" s="428"/>
-      <c r="L33" s="428"/>
-      <c r="M33" s="428"/>
-      <c r="N33" s="428"/>
-      <c r="O33" s="428"/>
-      <c r="P33" s="428"/>
-      <c r="Q33" s="428"/>
+      <c r="I33" s="425"/>
+      <c r="J33" s="425"/>
+      <c r="K33" s="425"/>
+      <c r="L33" s="425"/>
+      <c r="M33" s="425"/>
+      <c r="N33" s="425"/>
+      <c r="O33" s="425"/>
+      <c r="P33" s="425"/>
+      <c r="Q33" s="425"/>
       <c r="R33" s="109">
         <f>R30</f>
         <v>400.35</v>
@@ -13867,24 +13867,24 @@
       <c r="B34" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C34" s="423"/>
-      <c r="D34" s="424"/>
-      <c r="E34" s="423"/>
-      <c r="F34" s="423"/>
-      <c r="G34" s="425"/>
+      <c r="C34" s="422"/>
+      <c r="D34" s="423"/>
+      <c r="E34" s="422"/>
+      <c r="F34" s="422"/>
+      <c r="G34" s="424"/>
       <c r="H34" s="120">
         <f t="shared" si="1"/>
         <v>89.637500000000003</v>
       </c>
-      <c r="I34" s="428"/>
-      <c r="J34" s="428"/>
-      <c r="K34" s="428"/>
-      <c r="L34" s="428"/>
-      <c r="M34" s="428"/>
-      <c r="N34" s="428"/>
-      <c r="O34" s="428"/>
-      <c r="P34" s="428"/>
-      <c r="Q34" s="428"/>
+      <c r="I34" s="425"/>
+      <c r="J34" s="425"/>
+      <c r="K34" s="425"/>
+      <c r="L34" s="425"/>
+      <c r="M34" s="425"/>
+      <c r="N34" s="425"/>
+      <c r="O34" s="425"/>
+      <c r="P34" s="425"/>
+      <c r="Q34" s="425"/>
       <c r="R34" s="109">
         <f>R32</f>
         <v>400.35</v>
@@ -13900,38 +13900,38 @@
       <c r="B35" s="121">
         <v>2171.2600000000002</v>
       </c>
-      <c r="C35" s="423">
+      <c r="C35" s="422">
         <v>30.19</v>
       </c>
-      <c r="D35" s="424">
+      <c r="D35" s="423">
         <f>IF(B40&gt;0,SUM(B35:B40)-C35,0)</f>
         <v>13016.160000000002</v>
       </c>
-      <c r="E35" s="423">
+      <c r="E35" s="422">
         <v>6.1369999999999996</v>
       </c>
-      <c r="F35" s="423">
+      <c r="F35" s="422">
         <v>25.93</v>
       </c>
-      <c r="G35" s="425">
+      <c r="G35" s="424">
         <v>96</v>
       </c>
       <c r="H35" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I35" s="428">
+      <c r="I35" s="425">
         <f>IF($D$2&gt;F35,G35*($D$2-F35)*0.2,0)</f>
         <v>73.344000000000008</v>
       </c>
-      <c r="J35" s="428"/>
-      <c r="K35" s="428"/>
-      <c r="L35" s="428"/>
-      <c r="M35" s="428"/>
-      <c r="N35" s="428"/>
-      <c r="O35" s="428"/>
-      <c r="P35" s="428"/>
-      <c r="Q35" s="428"/>
+      <c r="J35" s="425"/>
+      <c r="K35" s="425"/>
+      <c r="L35" s="425"/>
+      <c r="M35" s="425"/>
+      <c r="N35" s="425"/>
+      <c r="O35" s="425"/>
+      <c r="P35" s="425"/>
+      <c r="Q35" s="425"/>
       <c r="R35" s="109">
         <v>358.55</v>
       </c>
@@ -13943,24 +13943,24 @@
       <c r="B36" s="121">
         <v>2081.27</v>
       </c>
-      <c r="C36" s="423"/>
-      <c r="D36" s="424"/>
-      <c r="E36" s="423"/>
-      <c r="F36" s="423"/>
-      <c r="G36" s="425"/>
+      <c r="C36" s="422"/>
+      <c r="D36" s="423"/>
+      <c r="E36" s="422"/>
+      <c r="F36" s="422"/>
+      <c r="G36" s="424"/>
       <c r="H36" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I36" s="428"/>
-      <c r="J36" s="428"/>
-      <c r="K36" s="428"/>
-      <c r="L36" s="428"/>
-      <c r="M36" s="428"/>
-      <c r="N36" s="428"/>
-      <c r="O36" s="428"/>
-      <c r="P36" s="428"/>
-      <c r="Q36" s="428"/>
+      <c r="I36" s="425"/>
+      <c r="J36" s="425"/>
+      <c r="K36" s="425"/>
+      <c r="L36" s="425"/>
+      <c r="M36" s="425"/>
+      <c r="N36" s="425"/>
+      <c r="O36" s="425"/>
+      <c r="P36" s="425"/>
+      <c r="Q36" s="425"/>
       <c r="R36" s="109">
         <v>358.55</v>
       </c>
@@ -13972,24 +13972,24 @@
       <c r="B37" s="121">
         <v>2081.2600000000002</v>
       </c>
-      <c r="C37" s="423"/>
-      <c r="D37" s="424"/>
-      <c r="E37" s="423"/>
-      <c r="F37" s="423"/>
-      <c r="G37" s="425"/>
+      <c r="C37" s="422"/>
+      <c r="D37" s="423"/>
+      <c r="E37" s="422"/>
+      <c r="F37" s="422"/>
+      <c r="G37" s="424"/>
       <c r="H37" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I37" s="428"/>
-      <c r="J37" s="428"/>
-      <c r="K37" s="428"/>
-      <c r="L37" s="428"/>
-      <c r="M37" s="428"/>
-      <c r="N37" s="428"/>
-      <c r="O37" s="428"/>
-      <c r="P37" s="428"/>
-      <c r="Q37" s="428"/>
+      <c r="I37" s="425"/>
+      <c r="J37" s="425"/>
+      <c r="K37" s="425"/>
+      <c r="L37" s="425"/>
+      <c r="M37" s="425"/>
+      <c r="N37" s="425"/>
+      <c r="O37" s="425"/>
+      <c r="P37" s="425"/>
+      <c r="Q37" s="425"/>
       <c r="R37" s="109">
         <v>358.55</v>
       </c>
@@ -14001,24 +14001,24 @@
       <c r="B38" s="121">
         <v>2537.5100000000002</v>
       </c>
-      <c r="C38" s="423"/>
-      <c r="D38" s="424"/>
-      <c r="E38" s="423"/>
-      <c r="F38" s="423"/>
-      <c r="G38" s="425"/>
+      <c r="C38" s="422"/>
+      <c r="D38" s="423"/>
+      <c r="E38" s="422"/>
+      <c r="F38" s="422"/>
+      <c r="G38" s="424"/>
       <c r="H38" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I38" s="428"/>
-      <c r="J38" s="428"/>
-      <c r="K38" s="428"/>
-      <c r="L38" s="428"/>
-      <c r="M38" s="428"/>
-      <c r="N38" s="428"/>
-      <c r="O38" s="428"/>
-      <c r="P38" s="428"/>
-      <c r="Q38" s="428"/>
+      <c r="I38" s="425"/>
+      <c r="J38" s="425"/>
+      <c r="K38" s="425"/>
+      <c r="L38" s="425"/>
+      <c r="M38" s="425"/>
+      <c r="N38" s="425"/>
+      <c r="O38" s="425"/>
+      <c r="P38" s="425"/>
+      <c r="Q38" s="425"/>
       <c r="R38" s="109">
         <v>358.55</v>
       </c>
@@ -14030,24 +14030,24 @@
       <c r="B39" s="121">
         <v>2087.52</v>
       </c>
-      <c r="C39" s="423"/>
-      <c r="D39" s="424"/>
-      <c r="E39" s="423"/>
-      <c r="F39" s="423"/>
-      <c r="G39" s="425"/>
+      <c r="C39" s="422"/>
+      <c r="D39" s="423"/>
+      <c r="E39" s="422"/>
+      <c r="F39" s="422"/>
+      <c r="G39" s="424"/>
       <c r="H39" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I39" s="428"/>
-      <c r="J39" s="428"/>
-      <c r="K39" s="428"/>
-      <c r="L39" s="428"/>
-      <c r="M39" s="428"/>
-      <c r="N39" s="428"/>
-      <c r="O39" s="428"/>
-      <c r="P39" s="428"/>
-      <c r="Q39" s="428"/>
+      <c r="I39" s="425"/>
+      <c r="J39" s="425"/>
+      <c r="K39" s="425"/>
+      <c r="L39" s="425"/>
+      <c r="M39" s="425"/>
+      <c r="N39" s="425"/>
+      <c r="O39" s="425"/>
+      <c r="P39" s="425"/>
+      <c r="Q39" s="425"/>
       <c r="R39" s="109">
         <v>358.55</v>
       </c>
@@ -14059,24 +14059,24 @@
       <c r="B40" s="121">
         <v>2087.5300000000002</v>
       </c>
-      <c r="C40" s="423"/>
-      <c r="D40" s="424"/>
-      <c r="E40" s="423"/>
-      <c r="F40" s="423"/>
-      <c r="G40" s="425"/>
+      <c r="C40" s="422"/>
+      <c r="D40" s="423"/>
+      <c r="E40" s="422"/>
+      <c r="F40" s="422"/>
+      <c r="G40" s="424"/>
       <c r="H40" s="120">
         <f t="shared" si="1"/>
         <v>95.492500000000007</v>
       </c>
-      <c r="I40" s="428"/>
-      <c r="J40" s="428"/>
-      <c r="K40" s="428"/>
-      <c r="L40" s="428"/>
-      <c r="M40" s="428"/>
-      <c r="N40" s="428"/>
-      <c r="O40" s="428"/>
-      <c r="P40" s="428"/>
-      <c r="Q40" s="428"/>
+      <c r="I40" s="425"/>
+      <c r="J40" s="425"/>
+      <c r="K40" s="425"/>
+      <c r="L40" s="425"/>
+      <c r="M40" s="425"/>
+      <c r="N40" s="425"/>
+      <c r="O40" s="425"/>
+      <c r="P40" s="425"/>
+      <c r="Q40" s="425"/>
       <c r="R40" s="109">
         <v>358.55</v>
       </c>
@@ -14088,38 +14088,38 @@
       <c r="B41" s="121">
         <v>2362.48</v>
       </c>
-      <c r="C41" s="423">
+      <c r="C41" s="422">
         <v>52.72</v>
       </c>
-      <c r="D41" s="424">
+      <c r="D41" s="423">
         <f>IF(B46&gt;0,SUM(B41:B46)-C41,0)</f>
         <v>13224.73</v>
       </c>
-      <c r="E41" s="423">
+      <c r="E41" s="422">
         <v>6.2213000000000003</v>
       </c>
-      <c r="F41" s="423">
+      <c r="F41" s="422">
         <v>26.89</v>
       </c>
-      <c r="G41" s="425">
+      <c r="G41" s="424">
         <v>93</v>
       </c>
       <c r="H41" s="120">
         <f t="shared" si="1"/>
         <v>95.527500000000003</v>
       </c>
-      <c r="I41" s="428">
+      <c r="I41" s="425">
         <f>IF($D$2&gt;F41,G41*($D$2-F41)*0.2,0)</f>
         <v>53.195999999999998</v>
       </c>
-      <c r="J41" s="428"/>
-      <c r="K41" s="428"/>
-      <c r="L41" s="428"/>
-      <c r="M41" s="428"/>
-      <c r="N41" s="428"/>
-      <c r="O41" s="428"/>
-      <c r="P41" s="428"/>
-      <c r="Q41" s="428"/>
+      <c r="J41" s="425"/>
+      <c r="K41" s="425"/>
+      <c r="L41" s="425"/>
+      <c r="M41" s="425"/>
+      <c r="N41" s="425"/>
+      <c r="O41" s="425"/>
+      <c r="P41" s="425"/>
+      <c r="Q41" s="425"/>
       <c r="R41" s="109">
         <v>381.97</v>
       </c>
@@ -14131,24 +14131,24 @@
       <c r="B42" s="121">
         <v>2174.98</v>
       </c>
-      <c r="C42" s="423"/>
-      <c r="D42" s="424"/>
-      <c r="E42" s="423"/>
-      <c r="F42" s="423"/>
-      <c r="G42" s="425"/>
+      <c r="C42" s="422"/>
+      <c r="D42" s="423"/>
+      <c r="E42" s="422"/>
+      <c r="F42" s="422"/>
+      <c r="G42" s="424"/>
       <c r="H42" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="428"/>
-      <c r="J42" s="428"/>
-      <c r="K42" s="428"/>
-      <c r="L42" s="428"/>
-      <c r="M42" s="428"/>
-      <c r="N42" s="428"/>
-      <c r="O42" s="428"/>
-      <c r="P42" s="428"/>
-      <c r="Q42" s="428"/>
+      <c r="I42" s="425"/>
+      <c r="J42" s="425"/>
+      <c r="K42" s="425"/>
+      <c r="L42" s="425"/>
+      <c r="M42" s="425"/>
+      <c r="N42" s="425"/>
+      <c r="O42" s="425"/>
+      <c r="P42" s="425"/>
+      <c r="Q42" s="425"/>
       <c r="R42" s="109">
         <v>381.97</v>
       </c>
@@ -14160,24 +14160,24 @@
       <c r="B43" s="121">
         <v>2265</v>
       </c>
-      <c r="C43" s="423"/>
-      <c r="D43" s="424"/>
-      <c r="E43" s="423"/>
-      <c r="F43" s="423"/>
-      <c r="G43" s="425"/>
+      <c r="C43" s="422"/>
+      <c r="D43" s="423"/>
+      <c r="E43" s="422"/>
+      <c r="F43" s="422"/>
+      <c r="G43" s="424"/>
       <c r="H43" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I43" s="428"/>
-      <c r="J43" s="428"/>
-      <c r="K43" s="428"/>
-      <c r="L43" s="428"/>
-      <c r="M43" s="428"/>
-      <c r="N43" s="428"/>
-      <c r="O43" s="428"/>
-      <c r="P43" s="428"/>
-      <c r="Q43" s="428"/>
+      <c r="I43" s="425"/>
+      <c r="J43" s="425"/>
+      <c r="K43" s="425"/>
+      <c r="L43" s="425"/>
+      <c r="M43" s="425"/>
+      <c r="N43" s="425"/>
+      <c r="O43" s="425"/>
+      <c r="P43" s="425"/>
+      <c r="Q43" s="425"/>
       <c r="R43" s="109">
         <v>381.97</v>
       </c>
@@ -14189,24 +14189,24 @@
       <c r="B44" s="121">
         <v>2087.5</v>
       </c>
-      <c r="C44" s="423"/>
-      <c r="D44" s="424"/>
-      <c r="E44" s="423"/>
-      <c r="F44" s="423"/>
-      <c r="G44" s="425"/>
+      <c r="C44" s="422"/>
+      <c r="D44" s="423"/>
+      <c r="E44" s="422"/>
+      <c r="F44" s="422"/>
+      <c r="G44" s="424"/>
       <c r="H44" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44" s="428"/>
-      <c r="J44" s="428"/>
-      <c r="K44" s="428"/>
-      <c r="L44" s="428"/>
-      <c r="M44" s="428"/>
-      <c r="N44" s="428"/>
-      <c r="O44" s="428"/>
-      <c r="P44" s="428"/>
-      <c r="Q44" s="428"/>
+      <c r="I44" s="425"/>
+      <c r="J44" s="425"/>
+      <c r="K44" s="425"/>
+      <c r="L44" s="425"/>
+      <c r="M44" s="425"/>
+      <c r="N44" s="425"/>
+      <c r="O44" s="425"/>
+      <c r="P44" s="425"/>
+      <c r="Q44" s="425"/>
       <c r="R44" s="109">
         <v>381.97</v>
       </c>
@@ -14218,24 +14218,24 @@
       <c r="B45" s="121">
         <v>2087.48</v>
       </c>
-      <c r="C45" s="423"/>
-      <c r="D45" s="424"/>
-      <c r="E45" s="423"/>
-      <c r="F45" s="423"/>
-      <c r="G45" s="425"/>
+      <c r="C45" s="422"/>
+      <c r="D45" s="423"/>
+      <c r="E45" s="422"/>
+      <c r="F45" s="422"/>
+      <c r="G45" s="424"/>
       <c r="H45" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45" s="428"/>
-      <c r="J45" s="428"/>
-      <c r="K45" s="428"/>
-      <c r="L45" s="428"/>
-      <c r="M45" s="428"/>
-      <c r="N45" s="428"/>
-      <c r="O45" s="428"/>
-      <c r="P45" s="428"/>
-      <c r="Q45" s="428"/>
+      <c r="I45" s="425"/>
+      <c r="J45" s="425"/>
+      <c r="K45" s="425"/>
+      <c r="L45" s="425"/>
+      <c r="M45" s="425"/>
+      <c r="N45" s="425"/>
+      <c r="O45" s="425"/>
+      <c r="P45" s="425"/>
+      <c r="Q45" s="425"/>
       <c r="R45" s="109">
         <v>381.97</v>
       </c>
@@ -14247,24 +14247,24 @@
       <c r="B46" s="121">
         <v>2300.0100000000002</v>
       </c>
-      <c r="C46" s="423"/>
-      <c r="D46" s="424"/>
-      <c r="E46" s="423"/>
-      <c r="F46" s="423"/>
-      <c r="G46" s="425"/>
+      <c r="C46" s="422"/>
+      <c r="D46" s="423"/>
+      <c r="E46" s="422"/>
+      <c r="F46" s="422"/>
+      <c r="G46" s="424"/>
       <c r="H46" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46" s="428"/>
-      <c r="J46" s="428"/>
-      <c r="K46" s="428"/>
-      <c r="L46" s="428"/>
-      <c r="M46" s="428"/>
-      <c r="N46" s="428"/>
-      <c r="O46" s="428"/>
-      <c r="P46" s="428"/>
-      <c r="Q46" s="428"/>
+      <c r="I46" s="425"/>
+      <c r="J46" s="425"/>
+      <c r="K46" s="425"/>
+      <c r="L46" s="425"/>
+      <c r="M46" s="425"/>
+      <c r="N46" s="425"/>
+      <c r="O46" s="425"/>
+      <c r="P46" s="425"/>
+      <c r="Q46" s="425"/>
       <c r="R46" s="109">
         <v>381.97</v>
       </c>
@@ -14276,38 +14276,38 @@
       <c r="B47" s="121">
         <v>3787.17</v>
       </c>
-      <c r="C47" s="423">
-        <v>0</v>
-      </c>
-      <c r="D47" s="424">
+      <c r="C47" s="422">
+        <v>0</v>
+      </c>
+      <c r="D47" s="423">
         <f>IF(B52&gt;0,SUM(B47:B52)-C47,0)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="423">
+      <c r="E47" s="422">
         <v>6.2</v>
       </c>
-      <c r="F47" s="423">
+      <c r="F47" s="422">
         <v>25.3</v>
       </c>
-      <c r="G47" s="425">
+      <c r="G47" s="424">
         <v>0</v>
       </c>
       <c r="H47" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="428">
+      <c r="I47" s="425">
         <f>IF($D$2&gt;F47,G47*($D$2-F47)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="428"/>
-      <c r="K47" s="428"/>
-      <c r="L47" s="428"/>
-      <c r="M47" s="428"/>
-      <c r="N47" s="428"/>
-      <c r="O47" s="428"/>
-      <c r="P47" s="428"/>
-      <c r="Q47" s="428"/>
+      <c r="J47" s="425"/>
+      <c r="K47" s="425"/>
+      <c r="L47" s="425"/>
+      <c r="M47" s="425"/>
+      <c r="N47" s="425"/>
+      <c r="O47" s="425"/>
+      <c r="P47" s="425"/>
+      <c r="Q47" s="425"/>
       <c r="R47" s="109">
         <v>382.11</v>
       </c>
@@ -14319,24 +14319,24 @@
       <c r="B48" s="121">
         <v>0</v>
       </c>
-      <c r="C48" s="423"/>
-      <c r="D48" s="424"/>
-      <c r="E48" s="423"/>
-      <c r="F48" s="423"/>
-      <c r="G48" s="425"/>
+      <c r="C48" s="422"/>
+      <c r="D48" s="423"/>
+      <c r="E48" s="422"/>
+      <c r="F48" s="422"/>
+      <c r="G48" s="424"/>
       <c r="H48" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48" s="428"/>
-      <c r="J48" s="428"/>
-      <c r="K48" s="428"/>
-      <c r="L48" s="428"/>
-      <c r="M48" s="428"/>
-      <c r="N48" s="428"/>
-      <c r="O48" s="428"/>
-      <c r="P48" s="428"/>
-      <c r="Q48" s="428"/>
+      <c r="I48" s="425"/>
+      <c r="J48" s="425"/>
+      <c r="K48" s="425"/>
+      <c r="L48" s="425"/>
+      <c r="M48" s="425"/>
+      <c r="N48" s="425"/>
+      <c r="O48" s="425"/>
+      <c r="P48" s="425"/>
+      <c r="Q48" s="425"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
@@ -14345,24 +14345,24 @@
       <c r="B49" s="121">
         <v>0</v>
       </c>
-      <c r="C49" s="423"/>
-      <c r="D49" s="424"/>
-      <c r="E49" s="423"/>
-      <c r="F49" s="423"/>
-      <c r="G49" s="425"/>
+      <c r="C49" s="422"/>
+      <c r="D49" s="423"/>
+      <c r="E49" s="422"/>
+      <c r="F49" s="422"/>
+      <c r="G49" s="424"/>
       <c r="H49" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I49" s="428"/>
-      <c r="J49" s="428"/>
-      <c r="K49" s="428"/>
-      <c r="L49" s="428"/>
-      <c r="M49" s="428"/>
-      <c r="N49" s="428"/>
-      <c r="O49" s="428"/>
-      <c r="P49" s="428"/>
-      <c r="Q49" s="428"/>
+      <c r="I49" s="425"/>
+      <c r="J49" s="425"/>
+      <c r="K49" s="425"/>
+      <c r="L49" s="425"/>
+      <c r="M49" s="425"/>
+      <c r="N49" s="425"/>
+      <c r="O49" s="425"/>
+      <c r="P49" s="425"/>
+      <c r="Q49" s="425"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
@@ -14371,24 +14371,24 @@
       <c r="B50" s="121">
         <v>0</v>
       </c>
-      <c r="C50" s="423"/>
-      <c r="D50" s="424"/>
-      <c r="E50" s="423"/>
-      <c r="F50" s="423"/>
-      <c r="G50" s="425"/>
+      <c r="C50" s="422"/>
+      <c r="D50" s="423"/>
+      <c r="E50" s="422"/>
+      <c r="F50" s="422"/>
+      <c r="G50" s="424"/>
       <c r="H50" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I50" s="428"/>
-      <c r="J50" s="428"/>
-      <c r="K50" s="428"/>
-      <c r="L50" s="428"/>
-      <c r="M50" s="428"/>
-      <c r="N50" s="428"/>
-      <c r="O50" s="428"/>
-      <c r="P50" s="428"/>
-      <c r="Q50" s="428"/>
+      <c r="I50" s="425"/>
+      <c r="J50" s="425"/>
+      <c r="K50" s="425"/>
+      <c r="L50" s="425"/>
+      <c r="M50" s="425"/>
+      <c r="N50" s="425"/>
+      <c r="O50" s="425"/>
+      <c r="P50" s="425"/>
+      <c r="Q50" s="425"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
@@ -14397,24 +14397,24 @@
       <c r="B51" s="121">
         <v>0</v>
       </c>
-      <c r="C51" s="423"/>
-      <c r="D51" s="424"/>
-      <c r="E51" s="423"/>
-      <c r="F51" s="423"/>
-      <c r="G51" s="425"/>
+      <c r="C51" s="422"/>
+      <c r="D51" s="423"/>
+      <c r="E51" s="422"/>
+      <c r="F51" s="422"/>
+      <c r="G51" s="424"/>
       <c r="H51" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I51" s="428"/>
-      <c r="J51" s="428"/>
-      <c r="K51" s="428"/>
-      <c r="L51" s="428"/>
-      <c r="M51" s="428"/>
-      <c r="N51" s="428"/>
-      <c r="O51" s="428"/>
-      <c r="P51" s="428"/>
-      <c r="Q51" s="428"/>
+      <c r="I51" s="425"/>
+      <c r="J51" s="425"/>
+      <c r="K51" s="425"/>
+      <c r="L51" s="425"/>
+      <c r="M51" s="425"/>
+      <c r="N51" s="425"/>
+      <c r="O51" s="425"/>
+      <c r="P51" s="425"/>
+      <c r="Q51" s="425"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
@@ -14423,24 +14423,24 @@
       <c r="B52" s="121">
         <v>0</v>
       </c>
-      <c r="C52" s="423"/>
-      <c r="D52" s="424"/>
-      <c r="E52" s="423"/>
-      <c r="F52" s="423"/>
-      <c r="G52" s="425"/>
+      <c r="C52" s="422"/>
+      <c r="D52" s="423"/>
+      <c r="E52" s="422"/>
+      <c r="F52" s="422"/>
+      <c r="G52" s="424"/>
       <c r="H52" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I52" s="428"/>
-      <c r="J52" s="428"/>
-      <c r="K52" s="428"/>
-      <c r="L52" s="428"/>
-      <c r="M52" s="428"/>
-      <c r="N52" s="428"/>
-      <c r="O52" s="428"/>
-      <c r="P52" s="428"/>
-      <c r="Q52" s="428"/>
+      <c r="I52" s="425"/>
+      <c r="J52" s="425"/>
+      <c r="K52" s="425"/>
+      <c r="L52" s="425"/>
+      <c r="M52" s="425"/>
+      <c r="N52" s="425"/>
+      <c r="O52" s="425"/>
+      <c r="P52" s="425"/>
+      <c r="Q52" s="425"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
@@ -14449,38 +14449,38 @@
       <c r="B53" s="121">
         <v>0</v>
       </c>
-      <c r="C53" s="423">
-        <v>0</v>
-      </c>
-      <c r="D53" s="424">
+      <c r="C53" s="422">
+        <v>0</v>
+      </c>
+      <c r="D53" s="423">
         <f>IF(B58&gt;0,SUM(B53:B58)-C53,0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="423">
+      <c r="E53" s="422">
         <v>6.2</v>
       </c>
-      <c r="F53" s="423">
+      <c r="F53" s="422">
         <v>25.3</v>
       </c>
-      <c r="G53" s="425">
+      <c r="G53" s="424">
         <v>0</v>
       </c>
       <c r="H53" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I53" s="428">
+      <c r="I53" s="425">
         <f>IF($D$2&gt;F53,G53*($D$2-F53)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J53" s="428"/>
-      <c r="K53" s="428"/>
-      <c r="L53" s="428"/>
-      <c r="M53" s="428"/>
-      <c r="N53" s="428"/>
-      <c r="O53" s="428"/>
-      <c r="P53" s="428"/>
-      <c r="Q53" s="428"/>
+      <c r="J53" s="425"/>
+      <c r="K53" s="425"/>
+      <c r="L53" s="425"/>
+      <c r="M53" s="425"/>
+      <c r="N53" s="425"/>
+      <c r="O53" s="425"/>
+      <c r="P53" s="425"/>
+      <c r="Q53" s="425"/>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
@@ -14489,24 +14489,24 @@
       <c r="B54" s="121">
         <v>0</v>
       </c>
-      <c r="C54" s="423"/>
-      <c r="D54" s="424"/>
-      <c r="E54" s="423"/>
-      <c r="F54" s="423"/>
-      <c r="G54" s="425"/>
+      <c r="C54" s="422"/>
+      <c r="D54" s="423"/>
+      <c r="E54" s="422"/>
+      <c r="F54" s="422"/>
+      <c r="G54" s="424"/>
       <c r="H54" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I54" s="428"/>
-      <c r="J54" s="428"/>
-      <c r="K54" s="428"/>
-      <c r="L54" s="428"/>
-      <c r="M54" s="428"/>
-      <c r="N54" s="428"/>
-      <c r="O54" s="428"/>
-      <c r="P54" s="428"/>
-      <c r="Q54" s="428"/>
+      <c r="I54" s="425"/>
+      <c r="J54" s="425"/>
+      <c r="K54" s="425"/>
+      <c r="L54" s="425"/>
+      <c r="M54" s="425"/>
+      <c r="N54" s="425"/>
+      <c r="O54" s="425"/>
+      <c r="P54" s="425"/>
+      <c r="Q54" s="425"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
@@ -14515,24 +14515,24 @@
       <c r="B55" s="121">
         <v>0</v>
       </c>
-      <c r="C55" s="423"/>
-      <c r="D55" s="424"/>
-      <c r="E55" s="423"/>
-      <c r="F55" s="423"/>
-      <c r="G55" s="425"/>
+      <c r="C55" s="422"/>
+      <c r="D55" s="423"/>
+      <c r="E55" s="422"/>
+      <c r="F55" s="422"/>
+      <c r="G55" s="424"/>
       <c r="H55" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I55" s="428"/>
-      <c r="J55" s="428"/>
-      <c r="K55" s="428"/>
-      <c r="L55" s="428"/>
-      <c r="M55" s="428"/>
-      <c r="N55" s="428"/>
-      <c r="O55" s="428"/>
-      <c r="P55" s="428"/>
-      <c r="Q55" s="428"/>
+      <c r="I55" s="425"/>
+      <c r="J55" s="425"/>
+      <c r="K55" s="425"/>
+      <c r="L55" s="425"/>
+      <c r="M55" s="425"/>
+      <c r="N55" s="425"/>
+      <c r="O55" s="425"/>
+      <c r="P55" s="425"/>
+      <c r="Q55" s="425"/>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
@@ -14541,24 +14541,24 @@
       <c r="B56" s="121">
         <v>0</v>
       </c>
-      <c r="C56" s="423"/>
-      <c r="D56" s="424"/>
-      <c r="E56" s="423"/>
-      <c r="F56" s="423"/>
-      <c r="G56" s="425"/>
+      <c r="C56" s="422"/>
+      <c r="D56" s="423"/>
+      <c r="E56" s="422"/>
+      <c r="F56" s="422"/>
+      <c r="G56" s="424"/>
       <c r="H56" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I56" s="428"/>
-      <c r="J56" s="428"/>
-      <c r="K56" s="428"/>
-      <c r="L56" s="428"/>
-      <c r="M56" s="428"/>
-      <c r="N56" s="428"/>
-      <c r="O56" s="428"/>
-      <c r="P56" s="428"/>
-      <c r="Q56" s="428"/>
+      <c r="I56" s="425"/>
+      <c r="J56" s="425"/>
+      <c r="K56" s="425"/>
+      <c r="L56" s="425"/>
+      <c r="M56" s="425"/>
+      <c r="N56" s="425"/>
+      <c r="O56" s="425"/>
+      <c r="P56" s="425"/>
+      <c r="Q56" s="425"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
@@ -14567,24 +14567,24 @@
       <c r="B57" s="121">
         <v>0</v>
       </c>
-      <c r="C57" s="423"/>
-      <c r="D57" s="424"/>
-      <c r="E57" s="423"/>
-      <c r="F57" s="423"/>
-      <c r="G57" s="425"/>
+      <c r="C57" s="422"/>
+      <c r="D57" s="423"/>
+      <c r="E57" s="422"/>
+      <c r="F57" s="422"/>
+      <c r="G57" s="424"/>
       <c r="H57" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I57" s="428"/>
-      <c r="J57" s="428"/>
-      <c r="K57" s="428"/>
-      <c r="L57" s="428"/>
-      <c r="M57" s="428"/>
-      <c r="N57" s="428"/>
-      <c r="O57" s="428"/>
-      <c r="P57" s="428"/>
-      <c r="Q57" s="428"/>
+      <c r="I57" s="425"/>
+      <c r="J57" s="425"/>
+      <c r="K57" s="425"/>
+      <c r="L57" s="425"/>
+      <c r="M57" s="425"/>
+      <c r="N57" s="425"/>
+      <c r="O57" s="425"/>
+      <c r="P57" s="425"/>
+      <c r="Q57" s="425"/>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
@@ -14593,24 +14593,24 @@
       <c r="B58" s="121">
         <v>0</v>
       </c>
-      <c r="C58" s="423"/>
-      <c r="D58" s="424"/>
-      <c r="E58" s="423"/>
-      <c r="F58" s="423"/>
-      <c r="G58" s="425"/>
+      <c r="C58" s="422"/>
+      <c r="D58" s="423"/>
+      <c r="E58" s="422"/>
+      <c r="F58" s="422"/>
+      <c r="G58" s="424"/>
       <c r="H58" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I58" s="428"/>
-      <c r="J58" s="428"/>
-      <c r="K58" s="428"/>
-      <c r="L58" s="428"/>
-      <c r="M58" s="428"/>
-      <c r="N58" s="428"/>
-      <c r="O58" s="428"/>
-      <c r="P58" s="428"/>
-      <c r="Q58" s="428"/>
+      <c r="I58" s="425"/>
+      <c r="J58" s="425"/>
+      <c r="K58" s="425"/>
+      <c r="L58" s="425"/>
+      <c r="M58" s="425"/>
+      <c r="N58" s="425"/>
+      <c r="O58" s="425"/>
+      <c r="P58" s="425"/>
+      <c r="Q58" s="425"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
@@ -14619,38 +14619,38 @@
       <c r="B59" s="121">
         <v>0</v>
       </c>
-      <c r="C59" s="423">
-        <v>0</v>
-      </c>
-      <c r="D59" s="424">
+      <c r="C59" s="422">
+        <v>0</v>
+      </c>
+      <c r="D59" s="423">
         <f>IF(B64&gt;0,SUM(B59:B64)-C59,0)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="423">
+      <c r="E59" s="422">
         <v>6.2</v>
       </c>
-      <c r="F59" s="423">
+      <c r="F59" s="422">
         <v>25.3</v>
       </c>
-      <c r="G59" s="425">
+      <c r="G59" s="424">
         <v>0</v>
       </c>
       <c r="H59" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I59" s="428">
+      <c r="I59" s="425">
         <f>IF($D$2&gt;F59,G59*($D$2-F59)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="428"/>
-      <c r="K59" s="428"/>
-      <c r="L59" s="428"/>
-      <c r="M59" s="428"/>
-      <c r="N59" s="428"/>
-      <c r="O59" s="428"/>
-      <c r="P59" s="428"/>
-      <c r="Q59" s="428"/>
+      <c r="J59" s="425"/>
+      <c r="K59" s="425"/>
+      <c r="L59" s="425"/>
+      <c r="M59" s="425"/>
+      <c r="N59" s="425"/>
+      <c r="O59" s="425"/>
+      <c r="P59" s="425"/>
+      <c r="Q59" s="425"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
@@ -14659,24 +14659,24 @@
       <c r="B60" s="121">
         <v>0</v>
       </c>
-      <c r="C60" s="423"/>
-      <c r="D60" s="424"/>
-      <c r="E60" s="423"/>
-      <c r="F60" s="423"/>
-      <c r="G60" s="425"/>
+      <c r="C60" s="422"/>
+      <c r="D60" s="423"/>
+      <c r="E60" s="422"/>
+      <c r="F60" s="422"/>
+      <c r="G60" s="424"/>
       <c r="H60" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I60" s="428"/>
-      <c r="J60" s="428"/>
-      <c r="K60" s="428"/>
-      <c r="L60" s="428"/>
-      <c r="M60" s="428"/>
-      <c r="N60" s="428"/>
-      <c r="O60" s="428"/>
-      <c r="P60" s="428"/>
-      <c r="Q60" s="428"/>
+      <c r="I60" s="425"/>
+      <c r="J60" s="425"/>
+      <c r="K60" s="425"/>
+      <c r="L60" s="425"/>
+      <c r="M60" s="425"/>
+      <c r="N60" s="425"/>
+      <c r="O60" s="425"/>
+      <c r="P60" s="425"/>
+      <c r="Q60" s="425"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
@@ -14685,24 +14685,24 @@
       <c r="B61" s="121">
         <v>0</v>
       </c>
-      <c r="C61" s="423"/>
-      <c r="D61" s="424"/>
-      <c r="E61" s="423"/>
-      <c r="F61" s="423"/>
-      <c r="G61" s="425"/>
+      <c r="C61" s="422"/>
+      <c r="D61" s="423"/>
+      <c r="E61" s="422"/>
+      <c r="F61" s="422"/>
+      <c r="G61" s="424"/>
       <c r="H61" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I61" s="428"/>
-      <c r="J61" s="428"/>
-      <c r="K61" s="428"/>
-      <c r="L61" s="428"/>
-      <c r="M61" s="428"/>
-      <c r="N61" s="428"/>
-      <c r="O61" s="428"/>
-      <c r="P61" s="428"/>
-      <c r="Q61" s="428"/>
+      <c r="I61" s="425"/>
+      <c r="J61" s="425"/>
+      <c r="K61" s="425"/>
+      <c r="L61" s="425"/>
+      <c r="M61" s="425"/>
+      <c r="N61" s="425"/>
+      <c r="O61" s="425"/>
+      <c r="P61" s="425"/>
+      <c r="Q61" s="425"/>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
@@ -14711,24 +14711,24 @@
       <c r="B62" s="121">
         <v>0</v>
       </c>
-      <c r="C62" s="423"/>
-      <c r="D62" s="424"/>
-      <c r="E62" s="423"/>
-      <c r="F62" s="423"/>
-      <c r="G62" s="425"/>
+      <c r="C62" s="422"/>
+      <c r="D62" s="423"/>
+      <c r="E62" s="422"/>
+      <c r="F62" s="422"/>
+      <c r="G62" s="424"/>
       <c r="H62" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I62" s="428"/>
-      <c r="J62" s="428"/>
-      <c r="K62" s="428"/>
-      <c r="L62" s="428"/>
-      <c r="M62" s="428"/>
-      <c r="N62" s="428"/>
-      <c r="O62" s="428"/>
-      <c r="P62" s="428"/>
-      <c r="Q62" s="428"/>
+      <c r="I62" s="425"/>
+      <c r="J62" s="425"/>
+      <c r="K62" s="425"/>
+      <c r="L62" s="425"/>
+      <c r="M62" s="425"/>
+      <c r="N62" s="425"/>
+      <c r="O62" s="425"/>
+      <c r="P62" s="425"/>
+      <c r="Q62" s="425"/>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
@@ -14737,24 +14737,24 @@
       <c r="B63" s="121">
         <v>0</v>
       </c>
-      <c r="C63" s="423"/>
-      <c r="D63" s="424"/>
-      <c r="E63" s="423"/>
-      <c r="F63" s="423"/>
-      <c r="G63" s="425"/>
+      <c r="C63" s="422"/>
+      <c r="D63" s="423"/>
+      <c r="E63" s="422"/>
+      <c r="F63" s="422"/>
+      <c r="G63" s="424"/>
       <c r="H63" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I63" s="428"/>
-      <c r="J63" s="428"/>
-      <c r="K63" s="428"/>
-      <c r="L63" s="428"/>
-      <c r="M63" s="428"/>
-      <c r="N63" s="428"/>
-      <c r="O63" s="428"/>
-      <c r="P63" s="428"/>
-      <c r="Q63" s="428"/>
+      <c r="I63" s="425"/>
+      <c r="J63" s="425"/>
+      <c r="K63" s="425"/>
+      <c r="L63" s="425"/>
+      <c r="M63" s="425"/>
+      <c r="N63" s="425"/>
+      <c r="O63" s="425"/>
+      <c r="P63" s="425"/>
+      <c r="Q63" s="425"/>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
@@ -14763,24 +14763,24 @@
       <c r="B64" s="121">
         <v>0</v>
       </c>
-      <c r="C64" s="423"/>
-      <c r="D64" s="424"/>
-      <c r="E64" s="423"/>
-      <c r="F64" s="423"/>
-      <c r="G64" s="425"/>
+      <c r="C64" s="422"/>
+      <c r="D64" s="423"/>
+      <c r="E64" s="422"/>
+      <c r="F64" s="422"/>
+      <c r="G64" s="424"/>
       <c r="H64" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I64" s="428"/>
-      <c r="J64" s="428"/>
-      <c r="K64" s="428"/>
-      <c r="L64" s="428"/>
-      <c r="M64" s="428"/>
-      <c r="N64" s="428"/>
-      <c r="O64" s="428"/>
-      <c r="P64" s="428"/>
-      <c r="Q64" s="428"/>
+      <c r="I64" s="425"/>
+      <c r="J64" s="425"/>
+      <c r="K64" s="425"/>
+      <c r="L64" s="425"/>
+      <c r="M64" s="425"/>
+      <c r="N64" s="425"/>
+      <c r="O64" s="425"/>
+      <c r="P64" s="425"/>
+      <c r="Q64" s="425"/>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1">
@@ -14789,38 +14789,38 @@
       <c r="B65" s="121">
         <v>0</v>
       </c>
-      <c r="C65" s="423">
-        <v>0</v>
-      </c>
-      <c r="D65" s="424">
+      <c r="C65" s="422">
+        <v>0</v>
+      </c>
+      <c r="D65" s="423">
         <f>IF(B70&gt;0,SUM(B65:B70)-C65,0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="423">
+      <c r="E65" s="422">
         <v>6.2</v>
       </c>
-      <c r="F65" s="423">
+      <c r="F65" s="422">
         <v>25.3</v>
       </c>
-      <c r="G65" s="425">
+      <c r="G65" s="424">
         <v>0</v>
       </c>
       <c r="H65" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I65" s="428">
+      <c r="I65" s="425">
         <f>IF($D$2&gt;F65,G65*($D$2-F65)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="428"/>
-      <c r="K65" s="428"/>
-      <c r="L65" s="428"/>
-      <c r="M65" s="428"/>
-      <c r="N65" s="428"/>
-      <c r="O65" s="428"/>
-      <c r="P65" s="428"/>
-      <c r="Q65" s="428"/>
+      <c r="J65" s="425"/>
+      <c r="K65" s="425"/>
+      <c r="L65" s="425"/>
+      <c r="M65" s="425"/>
+      <c r="N65" s="425"/>
+      <c r="O65" s="425"/>
+      <c r="P65" s="425"/>
+      <c r="Q65" s="425"/>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1">
@@ -14829,24 +14829,24 @@
       <c r="B66" s="121">
         <v>0</v>
       </c>
-      <c r="C66" s="423"/>
-      <c r="D66" s="424"/>
-      <c r="E66" s="423"/>
-      <c r="F66" s="423"/>
-      <c r="G66" s="425"/>
+      <c r="C66" s="422"/>
+      <c r="D66" s="423"/>
+      <c r="E66" s="422"/>
+      <c r="F66" s="422"/>
+      <c r="G66" s="424"/>
       <c r="H66" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I66" s="428"/>
-      <c r="J66" s="428"/>
-      <c r="K66" s="428"/>
-      <c r="L66" s="428"/>
-      <c r="M66" s="428"/>
-      <c r="N66" s="428"/>
-      <c r="O66" s="428"/>
-      <c r="P66" s="428"/>
-      <c r="Q66" s="428"/>
+      <c r="I66" s="425"/>
+      <c r="J66" s="425"/>
+      <c r="K66" s="425"/>
+      <c r="L66" s="425"/>
+      <c r="M66" s="425"/>
+      <c r="N66" s="425"/>
+      <c r="O66" s="425"/>
+      <c r="P66" s="425"/>
+      <c r="Q66" s="425"/>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1">
@@ -14855,24 +14855,24 @@
       <c r="B67" s="121">
         <v>0</v>
       </c>
-      <c r="C67" s="423"/>
-      <c r="D67" s="424"/>
-      <c r="E67" s="423"/>
-      <c r="F67" s="423"/>
-      <c r="G67" s="425"/>
+      <c r="C67" s="422"/>
+      <c r="D67" s="423"/>
+      <c r="E67" s="422"/>
+      <c r="F67" s="422"/>
+      <c r="G67" s="424"/>
       <c r="H67" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I67" s="428"/>
-      <c r="J67" s="428"/>
-      <c r="K67" s="428"/>
-      <c r="L67" s="428"/>
-      <c r="M67" s="428"/>
-      <c r="N67" s="428"/>
-      <c r="O67" s="428"/>
-      <c r="P67" s="428"/>
-      <c r="Q67" s="428"/>
+      <c r="I67" s="425"/>
+      <c r="J67" s="425"/>
+      <c r="K67" s="425"/>
+      <c r="L67" s="425"/>
+      <c r="M67" s="425"/>
+      <c r="N67" s="425"/>
+      <c r="O67" s="425"/>
+      <c r="P67" s="425"/>
+      <c r="Q67" s="425"/>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1">
@@ -14881,24 +14881,24 @@
       <c r="B68" s="121">
         <v>0</v>
       </c>
-      <c r="C68" s="423"/>
-      <c r="D68" s="424"/>
-      <c r="E68" s="423"/>
-      <c r="F68" s="423"/>
-      <c r="G68" s="425"/>
+      <c r="C68" s="422"/>
+      <c r="D68" s="423"/>
+      <c r="E68" s="422"/>
+      <c r="F68" s="422"/>
+      <c r="G68" s="424"/>
       <c r="H68" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I68" s="428"/>
-      <c r="J68" s="428"/>
-      <c r="K68" s="428"/>
-      <c r="L68" s="428"/>
-      <c r="M68" s="428"/>
-      <c r="N68" s="428"/>
-      <c r="O68" s="428"/>
-      <c r="P68" s="428"/>
-      <c r="Q68" s="428"/>
+      <c r="I68" s="425"/>
+      <c r="J68" s="425"/>
+      <c r="K68" s="425"/>
+      <c r="L68" s="425"/>
+      <c r="M68" s="425"/>
+      <c r="N68" s="425"/>
+      <c r="O68" s="425"/>
+      <c r="P68" s="425"/>
+      <c r="Q68" s="425"/>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1">
@@ -14907,24 +14907,24 @@
       <c r="B69" s="121">
         <v>0</v>
       </c>
-      <c r="C69" s="423"/>
-      <c r="D69" s="424"/>
-      <c r="E69" s="423"/>
-      <c r="F69" s="423"/>
-      <c r="G69" s="425"/>
+      <c r="C69" s="422"/>
+      <c r="D69" s="423"/>
+      <c r="E69" s="422"/>
+      <c r="F69" s="422"/>
+      <c r="G69" s="424"/>
       <c r="H69" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I69" s="428"/>
-      <c r="J69" s="428"/>
-      <c r="K69" s="428"/>
-      <c r="L69" s="428"/>
-      <c r="M69" s="428"/>
-      <c r="N69" s="428"/>
-      <c r="O69" s="428"/>
-      <c r="P69" s="428"/>
-      <c r="Q69" s="428"/>
+      <c r="I69" s="425"/>
+      <c r="J69" s="425"/>
+      <c r="K69" s="425"/>
+      <c r="L69" s="425"/>
+      <c r="M69" s="425"/>
+      <c r="N69" s="425"/>
+      <c r="O69" s="425"/>
+      <c r="P69" s="425"/>
+      <c r="Q69" s="425"/>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1">
@@ -14933,24 +14933,24 @@
       <c r="B70" s="121">
         <v>0</v>
       </c>
-      <c r="C70" s="423"/>
-      <c r="D70" s="424"/>
-      <c r="E70" s="423"/>
-      <c r="F70" s="423"/>
-      <c r="G70" s="425"/>
+      <c r="C70" s="422"/>
+      <c r="D70" s="423"/>
+      <c r="E70" s="422"/>
+      <c r="F70" s="422"/>
+      <c r="G70" s="424"/>
       <c r="H70" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I70" s="428"/>
-      <c r="J70" s="428"/>
-      <c r="K70" s="428"/>
-      <c r="L70" s="428"/>
-      <c r="M70" s="428"/>
-      <c r="N70" s="428"/>
-      <c r="O70" s="428"/>
-      <c r="P70" s="428"/>
-      <c r="Q70" s="428"/>
+      <c r="I70" s="425"/>
+      <c r="J70" s="425"/>
+      <c r="K70" s="425"/>
+      <c r="L70" s="425"/>
+      <c r="M70" s="425"/>
+      <c r="N70" s="425"/>
+      <c r="O70" s="425"/>
+      <c r="P70" s="425"/>
+      <c r="Q70" s="425"/>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1">
@@ -14959,38 +14959,38 @@
       <c r="B71" s="121">
         <v>0</v>
       </c>
-      <c r="C71" s="423">
-        <v>0</v>
-      </c>
-      <c r="D71" s="424">
+      <c r="C71" s="422">
+        <v>0</v>
+      </c>
+      <c r="D71" s="423">
         <f>IF(B76&gt;0,SUM(B71:B76)-C71,0)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="423">
+      <c r="E71" s="422">
         <v>6.2</v>
       </c>
-      <c r="F71" s="423">
+      <c r="F71" s="422">
         <v>25.3</v>
       </c>
-      <c r="G71" s="425">
+      <c r="G71" s="424">
         <v>0</v>
       </c>
       <c r="H71" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I71" s="428">
+      <c r="I71" s="425">
         <f>IF($D$2&gt;F71,G71*($D$2-F71)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="428"/>
-      <c r="K71" s="428"/>
-      <c r="L71" s="428"/>
-      <c r="M71" s="428"/>
-      <c r="N71" s="428"/>
-      <c r="O71" s="428"/>
-      <c r="P71" s="428"/>
-      <c r="Q71" s="428"/>
+      <c r="J71" s="425"/>
+      <c r="K71" s="425"/>
+      <c r="L71" s="425"/>
+      <c r="M71" s="425"/>
+      <c r="N71" s="425"/>
+      <c r="O71" s="425"/>
+      <c r="P71" s="425"/>
+      <c r="Q71" s="425"/>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1">
@@ -14999,24 +14999,24 @@
       <c r="B72" s="121">
         <v>0</v>
       </c>
-      <c r="C72" s="423"/>
-      <c r="D72" s="424"/>
-      <c r="E72" s="423"/>
-      <c r="F72" s="423"/>
-      <c r="G72" s="425"/>
+      <c r="C72" s="422"/>
+      <c r="D72" s="423"/>
+      <c r="E72" s="422"/>
+      <c r="F72" s="422"/>
+      <c r="G72" s="424"/>
       <c r="H72" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I72" s="428"/>
-      <c r="J72" s="428"/>
-      <c r="K72" s="428"/>
-      <c r="L72" s="428"/>
-      <c r="M72" s="428"/>
-      <c r="N72" s="428"/>
-      <c r="O72" s="428"/>
-      <c r="P72" s="428"/>
-      <c r="Q72" s="428"/>
+      <c r="I72" s="425"/>
+      <c r="J72" s="425"/>
+      <c r="K72" s="425"/>
+      <c r="L72" s="425"/>
+      <c r="M72" s="425"/>
+      <c r="N72" s="425"/>
+      <c r="O72" s="425"/>
+      <c r="P72" s="425"/>
+      <c r="Q72" s="425"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1">
@@ -15025,24 +15025,24 @@
       <c r="B73" s="121">
         <v>0</v>
       </c>
-      <c r="C73" s="423"/>
-      <c r="D73" s="424"/>
-      <c r="E73" s="423"/>
-      <c r="F73" s="423"/>
-      <c r="G73" s="425"/>
+      <c r="C73" s="422"/>
+      <c r="D73" s="423"/>
+      <c r="E73" s="422"/>
+      <c r="F73" s="422"/>
+      <c r="G73" s="424"/>
       <c r="H73" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I73" s="428"/>
-      <c r="J73" s="428"/>
-      <c r="K73" s="428"/>
-      <c r="L73" s="428"/>
-      <c r="M73" s="428"/>
-      <c r="N73" s="428"/>
-      <c r="O73" s="428"/>
-      <c r="P73" s="428"/>
-      <c r="Q73" s="428"/>
+      <c r="I73" s="425"/>
+      <c r="J73" s="425"/>
+      <c r="K73" s="425"/>
+      <c r="L73" s="425"/>
+      <c r="M73" s="425"/>
+      <c r="N73" s="425"/>
+      <c r="O73" s="425"/>
+      <c r="P73" s="425"/>
+      <c r="Q73" s="425"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1">
@@ -15051,24 +15051,24 @@
       <c r="B74" s="121">
         <v>0</v>
       </c>
-      <c r="C74" s="423"/>
-      <c r="D74" s="424"/>
-      <c r="E74" s="423"/>
-      <c r="F74" s="423"/>
-      <c r="G74" s="425"/>
+      <c r="C74" s="422"/>
+      <c r="D74" s="423"/>
+      <c r="E74" s="422"/>
+      <c r="F74" s="422"/>
+      <c r="G74" s="424"/>
       <c r="H74" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I74" s="428"/>
-      <c r="J74" s="428"/>
-      <c r="K74" s="428"/>
-      <c r="L74" s="428"/>
-      <c r="M74" s="428"/>
-      <c r="N74" s="428"/>
-      <c r="O74" s="428"/>
-      <c r="P74" s="428"/>
-      <c r="Q74" s="428"/>
+      <c r="I74" s="425"/>
+      <c r="J74" s="425"/>
+      <c r="K74" s="425"/>
+      <c r="L74" s="425"/>
+      <c r="M74" s="425"/>
+      <c r="N74" s="425"/>
+      <c r="O74" s="425"/>
+      <c r="P74" s="425"/>
+      <c r="Q74" s="425"/>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1">
@@ -15077,24 +15077,24 @@
       <c r="B75" s="121">
         <v>0</v>
       </c>
-      <c r="C75" s="423"/>
-      <c r="D75" s="424"/>
-      <c r="E75" s="423"/>
-      <c r="F75" s="423"/>
-      <c r="G75" s="425"/>
+      <c r="C75" s="422"/>
+      <c r="D75" s="423"/>
+      <c r="E75" s="422"/>
+      <c r="F75" s="422"/>
+      <c r="G75" s="424"/>
       <c r="H75" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I75" s="428"/>
-      <c r="J75" s="428"/>
-      <c r="K75" s="428"/>
-      <c r="L75" s="428"/>
-      <c r="M75" s="428"/>
-      <c r="N75" s="428"/>
-      <c r="O75" s="428"/>
-      <c r="P75" s="428"/>
-      <c r="Q75" s="428"/>
+      <c r="I75" s="425"/>
+      <c r="J75" s="425"/>
+      <c r="K75" s="425"/>
+      <c r="L75" s="425"/>
+      <c r="M75" s="425"/>
+      <c r="N75" s="425"/>
+      <c r="O75" s="425"/>
+      <c r="P75" s="425"/>
+      <c r="Q75" s="425"/>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1">
@@ -15103,24 +15103,24 @@
       <c r="B76" s="121">
         <v>0</v>
       </c>
-      <c r="C76" s="423"/>
-      <c r="D76" s="424"/>
-      <c r="E76" s="423"/>
-      <c r="F76" s="423"/>
-      <c r="G76" s="425"/>
+      <c r="C76" s="422"/>
+      <c r="D76" s="423"/>
+      <c r="E76" s="422"/>
+      <c r="F76" s="422"/>
+      <c r="G76" s="424"/>
       <c r="H76" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I76" s="428"/>
-      <c r="J76" s="428"/>
-      <c r="K76" s="428"/>
-      <c r="L76" s="428"/>
-      <c r="M76" s="428"/>
-      <c r="N76" s="428"/>
-      <c r="O76" s="428"/>
-      <c r="P76" s="428"/>
-      <c r="Q76" s="428"/>
+      <c r="I76" s="425"/>
+      <c r="J76" s="425"/>
+      <c r="K76" s="425"/>
+      <c r="L76" s="425"/>
+      <c r="M76" s="425"/>
+      <c r="N76" s="425"/>
+      <c r="O76" s="425"/>
+      <c r="P76" s="425"/>
+      <c r="Q76" s="425"/>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1">
@@ -15129,38 +15129,38 @@
       <c r="B77" s="121">
         <v>0</v>
       </c>
-      <c r="C77" s="423">
-        <v>0</v>
-      </c>
-      <c r="D77" s="424">
+      <c r="C77" s="422">
+        <v>0</v>
+      </c>
+      <c r="D77" s="423">
         <f>IF(B82&gt;0,SUM(B77:B82)-C77,0)</f>
         <v>0</v>
       </c>
-      <c r="E77" s="423">
+      <c r="E77" s="422">
         <v>6.2</v>
       </c>
-      <c r="F77" s="423">
+      <c r="F77" s="422">
         <v>25.3</v>
       </c>
-      <c r="G77" s="425">
+      <c r="G77" s="424">
         <v>0</v>
       </c>
       <c r="H77" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I77" s="428">
+      <c r="I77" s="425">
         <f>IF($D$2&gt;F77,G77*($D$2-F77)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="428"/>
-      <c r="K77" s="428"/>
-      <c r="L77" s="428"/>
-      <c r="M77" s="428"/>
-      <c r="N77" s="428"/>
-      <c r="O77" s="428"/>
-      <c r="P77" s="428"/>
-      <c r="Q77" s="428"/>
+      <c r="J77" s="425"/>
+      <c r="K77" s="425"/>
+      <c r="L77" s="425"/>
+      <c r="M77" s="425"/>
+      <c r="N77" s="425"/>
+      <c r="O77" s="425"/>
+      <c r="P77" s="425"/>
+      <c r="Q77" s="425"/>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1">
@@ -15169,24 +15169,24 @@
       <c r="B78" s="121">
         <v>0</v>
       </c>
-      <c r="C78" s="423"/>
-      <c r="D78" s="424"/>
-      <c r="E78" s="423"/>
-      <c r="F78" s="423"/>
-      <c r="G78" s="425"/>
+      <c r="C78" s="422"/>
+      <c r="D78" s="423"/>
+      <c r="E78" s="422"/>
+      <c r="F78" s="422"/>
+      <c r="G78" s="424"/>
       <c r="H78" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I78" s="428"/>
-      <c r="J78" s="428"/>
-      <c r="K78" s="428"/>
-      <c r="L78" s="428"/>
-      <c r="M78" s="428"/>
-      <c r="N78" s="428"/>
-      <c r="O78" s="428"/>
-      <c r="P78" s="428"/>
-      <c r="Q78" s="428"/>
+      <c r="I78" s="425"/>
+      <c r="J78" s="425"/>
+      <c r="K78" s="425"/>
+      <c r="L78" s="425"/>
+      <c r="M78" s="425"/>
+      <c r="N78" s="425"/>
+      <c r="O78" s="425"/>
+      <c r="P78" s="425"/>
+      <c r="Q78" s="425"/>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1">
@@ -15195,24 +15195,24 @@
       <c r="B79" s="121">
         <v>0</v>
       </c>
-      <c r="C79" s="423"/>
-      <c r="D79" s="424"/>
-      <c r="E79" s="423"/>
-      <c r="F79" s="423"/>
-      <c r="G79" s="425"/>
+      <c r="C79" s="422"/>
+      <c r="D79" s="423"/>
+      <c r="E79" s="422"/>
+      <c r="F79" s="422"/>
+      <c r="G79" s="424"/>
       <c r="H79" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I79" s="428"/>
-      <c r="J79" s="428"/>
-      <c r="K79" s="428"/>
-      <c r="L79" s="428"/>
-      <c r="M79" s="428"/>
-      <c r="N79" s="428"/>
-      <c r="O79" s="428"/>
-      <c r="P79" s="428"/>
-      <c r="Q79" s="428"/>
+      <c r="I79" s="425"/>
+      <c r="J79" s="425"/>
+      <c r="K79" s="425"/>
+      <c r="L79" s="425"/>
+      <c r="M79" s="425"/>
+      <c r="N79" s="425"/>
+      <c r="O79" s="425"/>
+      <c r="P79" s="425"/>
+      <c r="Q79" s="425"/>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1">
@@ -15221,24 +15221,24 @@
       <c r="B80" s="121">
         <v>0</v>
       </c>
-      <c r="C80" s="423"/>
-      <c r="D80" s="424"/>
-      <c r="E80" s="423"/>
-      <c r="F80" s="423"/>
-      <c r="G80" s="425"/>
+      <c r="C80" s="422"/>
+      <c r="D80" s="423"/>
+      <c r="E80" s="422"/>
+      <c r="F80" s="422"/>
+      <c r="G80" s="424"/>
       <c r="H80" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I80" s="428"/>
-      <c r="J80" s="428"/>
-      <c r="K80" s="428"/>
-      <c r="L80" s="428"/>
-      <c r="M80" s="428"/>
-      <c r="N80" s="428"/>
-      <c r="O80" s="428"/>
-      <c r="P80" s="428"/>
-      <c r="Q80" s="428"/>
+      <c r="I80" s="425"/>
+      <c r="J80" s="425"/>
+      <c r="K80" s="425"/>
+      <c r="L80" s="425"/>
+      <c r="M80" s="425"/>
+      <c r="N80" s="425"/>
+      <c r="O80" s="425"/>
+      <c r="P80" s="425"/>
+      <c r="Q80" s="425"/>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1">
@@ -15247,24 +15247,24 @@
       <c r="B81" s="121">
         <v>0</v>
       </c>
-      <c r="C81" s="423"/>
-      <c r="D81" s="424"/>
-      <c r="E81" s="423"/>
-      <c r="F81" s="423"/>
-      <c r="G81" s="425"/>
+      <c r="C81" s="422"/>
+      <c r="D81" s="423"/>
+      <c r="E81" s="422"/>
+      <c r="F81" s="422"/>
+      <c r="G81" s="424"/>
       <c r="H81" s="120">
         <f t="shared" ref="H81:H88" si="3">R87*0.25</f>
         <v>0</v>
       </c>
-      <c r="I81" s="428"/>
-      <c r="J81" s="428"/>
-      <c r="K81" s="428"/>
-      <c r="L81" s="428"/>
-      <c r="M81" s="428"/>
-      <c r="N81" s="428"/>
-      <c r="O81" s="428"/>
-      <c r="P81" s="428"/>
-      <c r="Q81" s="428"/>
+      <c r="I81" s="425"/>
+      <c r="J81" s="425"/>
+      <c r="K81" s="425"/>
+      <c r="L81" s="425"/>
+      <c r="M81" s="425"/>
+      <c r="N81" s="425"/>
+      <c r="O81" s="425"/>
+      <c r="P81" s="425"/>
+      <c r="Q81" s="425"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1">
@@ -15273,24 +15273,24 @@
       <c r="B82" s="121">
         <v>0</v>
       </c>
-      <c r="C82" s="423"/>
-      <c r="D82" s="424"/>
-      <c r="E82" s="423"/>
-      <c r="F82" s="423"/>
-      <c r="G82" s="425"/>
+      <c r="C82" s="422"/>
+      <c r="D82" s="423"/>
+      <c r="E82" s="422"/>
+      <c r="F82" s="422"/>
+      <c r="G82" s="424"/>
       <c r="H82" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I82" s="428"/>
-      <c r="J82" s="428"/>
-      <c r="K82" s="428"/>
-      <c r="L82" s="428"/>
-      <c r="M82" s="428"/>
-      <c r="N82" s="428"/>
-      <c r="O82" s="428"/>
-      <c r="P82" s="428"/>
-      <c r="Q82" s="428"/>
+      <c r="I82" s="425"/>
+      <c r="J82" s="425"/>
+      <c r="K82" s="425"/>
+      <c r="L82" s="425"/>
+      <c r="M82" s="425"/>
+      <c r="N82" s="425"/>
+      <c r="O82" s="425"/>
+      <c r="P82" s="425"/>
+      <c r="Q82" s="425"/>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1">
@@ -15299,38 +15299,38 @@
       <c r="B83" s="121">
         <v>0</v>
       </c>
-      <c r="C83" s="423">
-        <v>0</v>
-      </c>
-      <c r="D83" s="424">
+      <c r="C83" s="422">
+        <v>0</v>
+      </c>
+      <c r="D83" s="423">
         <f>IF(B88&gt;0,SUM(B83:B88)-C83,0)</f>
         <v>0</v>
       </c>
-      <c r="E83" s="423">
+      <c r="E83" s="422">
         <v>6.2</v>
       </c>
-      <c r="F83" s="423">
+      <c r="F83" s="422">
         <v>25.3</v>
       </c>
-      <c r="G83" s="425">
+      <c r="G83" s="424">
         <v>0</v>
       </c>
       <c r="H83" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I83" s="428">
+      <c r="I83" s="425">
         <f>IF($D$2&gt;F83,G83*($D$2-F83)*0.2,0)</f>
         <v>0</v>
       </c>
-      <c r="J83" s="428"/>
-      <c r="K83" s="428"/>
-      <c r="L83" s="428"/>
-      <c r="M83" s="428"/>
-      <c r="N83" s="428"/>
-      <c r="O83" s="428"/>
-      <c r="P83" s="428"/>
-      <c r="Q83" s="428"/>
+      <c r="J83" s="425"/>
+      <c r="K83" s="425"/>
+      <c r="L83" s="425"/>
+      <c r="M83" s="425"/>
+      <c r="N83" s="425"/>
+      <c r="O83" s="425"/>
+      <c r="P83" s="425"/>
+      <c r="Q83" s="425"/>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1">
@@ -15339,24 +15339,24 @@
       <c r="B84" s="121">
         <v>0</v>
       </c>
-      <c r="C84" s="423"/>
-      <c r="D84" s="424"/>
-      <c r="E84" s="423"/>
-      <c r="F84" s="423"/>
-      <c r="G84" s="425"/>
+      <c r="C84" s="422"/>
+      <c r="D84" s="423"/>
+      <c r="E84" s="422"/>
+      <c r="F84" s="422"/>
+      <c r="G84" s="424"/>
       <c r="H84" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I84" s="428"/>
-      <c r="J84" s="428"/>
-      <c r="K84" s="428"/>
-      <c r="L84" s="428"/>
-      <c r="M84" s="428"/>
-      <c r="N84" s="428"/>
-      <c r="O84" s="428"/>
-      <c r="P84" s="428"/>
-      <c r="Q84" s="428"/>
+      <c r="I84" s="425"/>
+      <c r="J84" s="425"/>
+      <c r="K84" s="425"/>
+      <c r="L84" s="425"/>
+      <c r="M84" s="425"/>
+      <c r="N84" s="425"/>
+      <c r="O84" s="425"/>
+      <c r="P84" s="425"/>
+      <c r="Q84" s="425"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1">
@@ -15365,24 +15365,24 @@
       <c r="B85" s="121">
         <v>0</v>
       </c>
-      <c r="C85" s="423"/>
-      <c r="D85" s="424"/>
-      <c r="E85" s="423"/>
-      <c r="F85" s="423"/>
-      <c r="G85" s="425"/>
+      <c r="C85" s="422"/>
+      <c r="D85" s="423"/>
+      <c r="E85" s="422"/>
+      <c r="F85" s="422"/>
+      <c r="G85" s="424"/>
       <c r="H85" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I85" s="428"/>
-      <c r="J85" s="428"/>
-      <c r="K85" s="428"/>
-      <c r="L85" s="428"/>
-      <c r="M85" s="428"/>
-      <c r="N85" s="428"/>
-      <c r="O85" s="428"/>
-      <c r="P85" s="428"/>
-      <c r="Q85" s="428"/>
+      <c r="I85" s="425"/>
+      <c r="J85" s="425"/>
+      <c r="K85" s="425"/>
+      <c r="L85" s="425"/>
+      <c r="M85" s="425"/>
+      <c r="N85" s="425"/>
+      <c r="O85" s="425"/>
+      <c r="P85" s="425"/>
+      <c r="Q85" s="425"/>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1">
@@ -15391,24 +15391,24 @@
       <c r="B86" s="121">
         <v>0</v>
       </c>
-      <c r="C86" s="423"/>
-      <c r="D86" s="424"/>
-      <c r="E86" s="423"/>
-      <c r="F86" s="423"/>
-      <c r="G86" s="425"/>
+      <c r="C86" s="422"/>
+      <c r="D86" s="423"/>
+      <c r="E86" s="422"/>
+      <c r="F86" s="422"/>
+      <c r="G86" s="424"/>
       <c r="H86" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I86" s="428"/>
-      <c r="J86" s="428"/>
-      <c r="K86" s="428"/>
-      <c r="L86" s="428"/>
-      <c r="M86" s="428"/>
-      <c r="N86" s="428"/>
-      <c r="O86" s="428"/>
-      <c r="P86" s="428"/>
-      <c r="Q86" s="428"/>
+      <c r="I86" s="425"/>
+      <c r="J86" s="425"/>
+      <c r="K86" s="425"/>
+      <c r="L86" s="425"/>
+      <c r="M86" s="425"/>
+      <c r="N86" s="425"/>
+      <c r="O86" s="425"/>
+      <c r="P86" s="425"/>
+      <c r="Q86" s="425"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1">
@@ -15417,24 +15417,24 @@
       <c r="B87" s="121">
         <v>0</v>
       </c>
-      <c r="C87" s="423"/>
-      <c r="D87" s="424"/>
-      <c r="E87" s="423"/>
-      <c r="F87" s="423"/>
-      <c r="G87" s="425"/>
+      <c r="C87" s="422"/>
+      <c r="D87" s="423"/>
+      <c r="E87" s="422"/>
+      <c r="F87" s="422"/>
+      <c r="G87" s="424"/>
       <c r="H87" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I87" s="428"/>
-      <c r="J87" s="428"/>
-      <c r="K87" s="428"/>
-      <c r="L87" s="428"/>
-      <c r="M87" s="428"/>
-      <c r="N87" s="428"/>
-      <c r="O87" s="428"/>
-      <c r="P87" s="428"/>
-      <c r="Q87" s="428"/>
+      <c r="I87" s="425"/>
+      <c r="J87" s="425"/>
+      <c r="K87" s="425"/>
+      <c r="L87" s="425"/>
+      <c r="M87" s="425"/>
+      <c r="N87" s="425"/>
+      <c r="O87" s="425"/>
+      <c r="P87" s="425"/>
+      <c r="Q87" s="425"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1">
@@ -15443,59 +15443,160 @@
       <c r="B88" s="121">
         <v>0</v>
       </c>
-      <c r="C88" s="423"/>
-      <c r="D88" s="424"/>
-      <c r="E88" s="423"/>
-      <c r="F88" s="423"/>
-      <c r="G88" s="425"/>
+      <c r="C88" s="422"/>
+      <c r="D88" s="423"/>
+      <c r="E88" s="422"/>
+      <c r="F88" s="422"/>
+      <c r="G88" s="424"/>
       <c r="H88" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I88" s="428"/>
-      <c r="J88" s="428"/>
-      <c r="K88" s="428"/>
-      <c r="L88" s="428"/>
-      <c r="M88" s="428"/>
-      <c r="N88" s="428"/>
-      <c r="O88" s="428"/>
-      <c r="P88" s="428"/>
-      <c r="Q88" s="428"/>
+      <c r="I88" s="425"/>
+      <c r="J88" s="425"/>
+      <c r="K88" s="425"/>
+      <c r="L88" s="425"/>
+      <c r="M88" s="425"/>
+      <c r="N88" s="425"/>
+      <c r="O88" s="425"/>
+      <c r="P88" s="425"/>
+      <c r="Q88" s="425"/>
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="G83:G88"/>
-    <mergeCell ref="O83:O88"/>
-    <mergeCell ref="P83:P88"/>
-    <mergeCell ref="Q83:Q88"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="K83:K88"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="M83:M88"/>
-    <mergeCell ref="N83:N88"/>
-    <mergeCell ref="M71:M76"/>
-    <mergeCell ref="N71:N76"/>
-    <mergeCell ref="O71:O76"/>
-    <mergeCell ref="P71:P76"/>
-    <mergeCell ref="M77:M82"/>
-    <mergeCell ref="N77:N82"/>
-    <mergeCell ref="O77:O82"/>
-    <mergeCell ref="P77:P82"/>
-    <mergeCell ref="Q77:Q82"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="F77:F82"/>
-    <mergeCell ref="G77:G82"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="J77:J82"/>
-    <mergeCell ref="K77:K82"/>
-    <mergeCell ref="L77:L82"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="P10:P15"/>
+    <mergeCell ref="Q10:Q15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="M10:M15"/>
+    <mergeCell ref="N10:N15"/>
+    <mergeCell ref="Q16:Q21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="N16:N21"/>
+    <mergeCell ref="O16:O21"/>
+    <mergeCell ref="P16:P21"/>
+    <mergeCell ref="P22:P27"/>
+    <mergeCell ref="Q22:Q27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="O28:O34"/>
+    <mergeCell ref="P28:P34"/>
+    <mergeCell ref="Q28:Q34"/>
+    <mergeCell ref="K28:K34"/>
+    <mergeCell ref="L28:L34"/>
+    <mergeCell ref="M28:M34"/>
+    <mergeCell ref="N28:N34"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="J35:J40"/>
+    <mergeCell ref="I28:I34"/>
+    <mergeCell ref="J28:J34"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="Q35:Q40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="F41:F46"/>
+    <mergeCell ref="G41:G46"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="J41:J46"/>
+    <mergeCell ref="K41:K46"/>
+    <mergeCell ref="L41:L46"/>
+    <mergeCell ref="K35:K40"/>
+    <mergeCell ref="L35:L40"/>
+    <mergeCell ref="M35:M40"/>
+    <mergeCell ref="N35:N40"/>
+    <mergeCell ref="O35:O40"/>
+    <mergeCell ref="P35:P40"/>
+    <mergeCell ref="M41:M46"/>
+    <mergeCell ref="N41:N46"/>
+    <mergeCell ref="O41:O46"/>
+    <mergeCell ref="P41:P46"/>
+    <mergeCell ref="Q41:Q46"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="O47:O52"/>
+    <mergeCell ref="P47:P52"/>
+    <mergeCell ref="Q47:Q52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="I53:I58"/>
+    <mergeCell ref="J53:J58"/>
+    <mergeCell ref="I47:I52"/>
+    <mergeCell ref="J47:J52"/>
+    <mergeCell ref="K47:K52"/>
+    <mergeCell ref="L47:L52"/>
+    <mergeCell ref="M47:M52"/>
+    <mergeCell ref="N47:N52"/>
+    <mergeCell ref="Q53:Q58"/>
+    <mergeCell ref="K53:K58"/>
+    <mergeCell ref="L53:L58"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="F59:F64"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="J59:J64"/>
+    <mergeCell ref="K59:K64"/>
+    <mergeCell ref="L59:L64"/>
+    <mergeCell ref="M53:M58"/>
+    <mergeCell ref="N53:N58"/>
+    <mergeCell ref="O53:O58"/>
+    <mergeCell ref="P53:P58"/>
+    <mergeCell ref="M59:M64"/>
+    <mergeCell ref="N59:N64"/>
+    <mergeCell ref="O59:O64"/>
+    <mergeCell ref="P59:P64"/>
+    <mergeCell ref="Q59:Q64"/>
     <mergeCell ref="C65:C70"/>
     <mergeCell ref="D65:D70"/>
     <mergeCell ref="E65:E70"/>
@@ -15520,139 +15621,38 @@
     <mergeCell ref="Q71:Q76"/>
     <mergeCell ref="K71:K76"/>
     <mergeCell ref="L71:L76"/>
-    <mergeCell ref="M53:M58"/>
-    <mergeCell ref="N53:N58"/>
-    <mergeCell ref="O53:O58"/>
-    <mergeCell ref="P53:P58"/>
-    <mergeCell ref="M59:M64"/>
-    <mergeCell ref="N59:N64"/>
-    <mergeCell ref="O59:O64"/>
-    <mergeCell ref="P59:P64"/>
-    <mergeCell ref="Q59:Q64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="F59:F64"/>
-    <mergeCell ref="G59:G64"/>
-    <mergeCell ref="I59:I64"/>
-    <mergeCell ref="J59:J64"/>
-    <mergeCell ref="K59:K64"/>
-    <mergeCell ref="L59:L64"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="E47:E52"/>
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="O47:O52"/>
-    <mergeCell ref="P47:P52"/>
-    <mergeCell ref="Q47:Q52"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="I53:I58"/>
-    <mergeCell ref="J53:J58"/>
-    <mergeCell ref="I47:I52"/>
-    <mergeCell ref="J47:J52"/>
-    <mergeCell ref="K47:K52"/>
-    <mergeCell ref="L47:L52"/>
-    <mergeCell ref="M47:M52"/>
-    <mergeCell ref="N47:N52"/>
-    <mergeCell ref="Q53:Q58"/>
-    <mergeCell ref="K53:K58"/>
-    <mergeCell ref="L53:L58"/>
-    <mergeCell ref="Q35:Q40"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="F41:F46"/>
-    <mergeCell ref="G41:G46"/>
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="J41:J46"/>
-    <mergeCell ref="K41:K46"/>
-    <mergeCell ref="L41:L46"/>
-    <mergeCell ref="K35:K40"/>
-    <mergeCell ref="L35:L40"/>
-    <mergeCell ref="M35:M40"/>
-    <mergeCell ref="N35:N40"/>
-    <mergeCell ref="O35:O40"/>
-    <mergeCell ref="P35:P40"/>
-    <mergeCell ref="M41:M46"/>
-    <mergeCell ref="N41:N46"/>
-    <mergeCell ref="O41:O46"/>
-    <mergeCell ref="P41:P46"/>
-    <mergeCell ref="Q41:Q46"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="J35:J40"/>
-    <mergeCell ref="I28:I34"/>
-    <mergeCell ref="J28:J34"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="O22:O27"/>
-    <mergeCell ref="P22:P27"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="G28:G34"/>
-    <mergeCell ref="O28:O34"/>
-    <mergeCell ref="P28:P34"/>
-    <mergeCell ref="Q28:Q34"/>
-    <mergeCell ref="K28:K34"/>
-    <mergeCell ref="L28:L34"/>
-    <mergeCell ref="M28:M34"/>
-    <mergeCell ref="N28:N34"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="P10:P15"/>
-    <mergeCell ref="Q10:Q15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="L10:L15"/>
-    <mergeCell ref="M10:M15"/>
-    <mergeCell ref="N10:N15"/>
-    <mergeCell ref="Q16:Q21"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="M16:M21"/>
-    <mergeCell ref="N16:N21"/>
-    <mergeCell ref="O16:O21"/>
-    <mergeCell ref="P16:P21"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="J77:J82"/>
+    <mergeCell ref="K77:K82"/>
+    <mergeCell ref="L77:L82"/>
+    <mergeCell ref="M71:M76"/>
+    <mergeCell ref="N71:N76"/>
+    <mergeCell ref="O71:O76"/>
+    <mergeCell ref="P71:P76"/>
+    <mergeCell ref="M77:M82"/>
+    <mergeCell ref="N77:N82"/>
+    <mergeCell ref="O77:O82"/>
+    <mergeCell ref="P77:P82"/>
+    <mergeCell ref="Q77:Q82"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="G83:G88"/>
+    <mergeCell ref="O83:O88"/>
+    <mergeCell ref="P83:P88"/>
+    <mergeCell ref="Q83:Q88"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="K83:K88"/>
+    <mergeCell ref="L83:L88"/>
+    <mergeCell ref="M83:M88"/>
+    <mergeCell ref="N83:N88"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17085,29 +17085,29 @@
     </row>
     <row r="6" spans="4:12" ht="17.100000000000001" customHeight="1">
       <c r="F6" s="202"/>
-      <c r="G6" s="512" t="s">
+      <c r="G6" s="504" t="s">
         <v>685</v>
       </c>
-      <c r="H6" s="514" t="s">
+      <c r="H6" s="506" t="s">
         <v>686</v>
       </c>
-      <c r="I6" s="514" t="s">
+      <c r="I6" s="506" t="s">
         <v>687</v>
       </c>
-      <c r="J6" s="514" t="s">
+      <c r="J6" s="506" t="s">
         <v>688</v>
       </c>
-      <c r="K6" s="510" t="s">
+      <c r="K6" s="495" t="s">
         <v>689</v>
       </c>
-      <c r="L6" s="511"/>
+      <c r="L6" s="496"/>
     </row>
     <row r="7" spans="4:12" ht="18" customHeight="1">
       <c r="F7" s="202"/>
-      <c r="G7" s="513"/>
-      <c r="H7" s="515"/>
-      <c r="I7" s="515"/>
-      <c r="J7" s="515"/>
+      <c r="G7" s="505"/>
+      <c r="H7" s="507"/>
+      <c r="I7" s="507"/>
+      <c r="J7" s="507"/>
       <c r="K7" s="203" t="s">
         <v>690</v>
       </c>
@@ -17116,11 +17116,11 @@
       </c>
     </row>
     <row r="8" spans="4:12" ht="30" customHeight="1" thickBot="1">
-      <c r="D8" s="501" t="s">
+      <c r="D8" s="503" t="s">
         <v>692</v>
       </c>
-      <c r="E8" s="501"/>
-      <c r="F8" s="501"/>
+      <c r="E8" s="503"/>
+      <c r="F8" s="503"/>
       <c r="G8" s="205">
         <v>9.6</v>
       </c>
@@ -17166,21 +17166,21 @@
     </row>
     <row r="12" spans="4:12" ht="18.75">
       <c r="F12" s="202"/>
-      <c r="G12" s="495" t="s">
+      <c r="G12" s="497" t="s">
         <v>693</v>
       </c>
-      <c r="H12" s="497" t="s">
+      <c r="H12" s="499" t="s">
         <v>694</v>
       </c>
-      <c r="I12" s="499" t="s">
+      <c r="I12" s="501" t="s">
         <v>695</v>
       </c>
-      <c r="J12" s="500"/>
+      <c r="J12" s="502"/>
     </row>
     <row r="13" spans="4:12" ht="18.75">
       <c r="F13" s="202"/>
-      <c r="G13" s="496"/>
-      <c r="H13" s="498"/>
+      <c r="G13" s="498"/>
+      <c r="H13" s="500"/>
       <c r="I13" s="208" t="s">
         <v>696</v>
       </c>
@@ -17189,11 +17189,11 @@
       </c>
     </row>
     <row r="14" spans="4:12" ht="33" customHeight="1" thickBot="1">
-      <c r="D14" s="501" t="s">
+      <c r="D14" s="503" t="s">
         <v>698</v>
       </c>
-      <c r="E14" s="501"/>
-      <c r="F14" s="501"/>
+      <c r="E14" s="503"/>
+      <c r="F14" s="503"/>
       <c r="G14" s="210" t="s">
         <v>699</v>
       </c>
@@ -17211,20 +17211,20 @@
     </row>
     <row r="16" spans="4:12" ht="15.75" thickBot="1"/>
     <row r="17" spans="4:10" ht="18.75">
-      <c r="G17" s="495" t="s">
+      <c r="G17" s="497" t="s">
         <v>700</v>
       </c>
-      <c r="H17" s="497" t="s">
+      <c r="H17" s="499" t="s">
         <v>694</v>
       </c>
-      <c r="I17" s="499" t="s">
+      <c r="I17" s="501" t="s">
         <v>695</v>
       </c>
-      <c r="J17" s="500"/>
+      <c r="J17" s="502"/>
     </row>
     <row r="18" spans="4:10" ht="18.75">
-      <c r="G18" s="496"/>
-      <c r="H18" s="498"/>
+      <c r="G18" s="498"/>
+      <c r="H18" s="500"/>
       <c r="I18" s="208" t="s">
         <v>696</v>
       </c>
@@ -17233,11 +17233,11 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="33" customHeight="1" thickBot="1">
-      <c r="D19" s="501" t="s">
+      <c r="D19" s="503" t="s">
         <v>698</v>
       </c>
-      <c r="E19" s="501"/>
-      <c r="F19" s="501"/>
+      <c r="E19" s="503"/>
+      <c r="F19" s="503"/>
       <c r="G19" s="210" t="s">
         <v>701</v>
       </c>
@@ -17255,20 +17255,20 @@
     </row>
     <row r="21" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="22" spans="4:10" ht="18.75">
-      <c r="G22" s="502" t="s">
+      <c r="G22" s="508" t="s">
         <v>702</v>
       </c>
-      <c r="H22" s="497" t="s">
+      <c r="H22" s="499" t="s">
         <v>694</v>
       </c>
-      <c r="I22" s="499" t="s">
+      <c r="I22" s="501" t="s">
         <v>695</v>
       </c>
-      <c r="J22" s="500"/>
+      <c r="J22" s="502"/>
     </row>
     <row r="23" spans="4:10" ht="18.75">
-      <c r="G23" s="503"/>
-      <c r="H23" s="498"/>
+      <c r="G23" s="509"/>
+      <c r="H23" s="500"/>
       <c r="I23" s="208" t="s">
         <v>696</v>
       </c>
@@ -17277,11 +17277,11 @@
       </c>
     </row>
     <row r="24" spans="4:10" ht="32.1" customHeight="1">
-      <c r="D24" s="501" t="s">
+      <c r="D24" s="503" t="s">
         <v>698</v>
       </c>
-      <c r="E24" s="501"/>
-      <c r="F24" s="501"/>
+      <c r="E24" s="503"/>
+      <c r="F24" s="503"/>
       <c r="G24" s="211" t="s">
         <v>703</v>
       </c>
@@ -17336,20 +17336,20 @@
     </row>
     <row r="29" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="30" spans="4:10" ht="18.75">
-      <c r="G30" s="504" t="s">
+      <c r="G30" s="510" t="s">
         <v>706</v>
       </c>
-      <c r="H30" s="506" t="s">
+      <c r="H30" s="512" t="s">
         <v>707</v>
       </c>
-      <c r="I30" s="508" t="s">
+      <c r="I30" s="514" t="s">
         <v>708</v>
       </c>
-      <c r="J30" s="509"/>
+      <c r="J30" s="515"/>
     </row>
     <row r="31" spans="4:10" ht="18.75">
-      <c r="G31" s="505"/>
-      <c r="H31" s="507"/>
+      <c r="G31" s="511"/>
+      <c r="H31" s="513"/>
       <c r="I31" s="215" t="s">
         <v>690</v>
       </c>
@@ -17358,11 +17358,11 @@
       </c>
     </row>
     <row r="32" spans="4:10" ht="35.1" customHeight="1" thickBot="1">
-      <c r="D32" s="501" t="s">
+      <c r="D32" s="503" t="s">
         <v>709</v>
       </c>
-      <c r="E32" s="501"/>
-      <c r="F32" s="501"/>
+      <c r="E32" s="503"/>
+      <c r="F32" s="503"/>
       <c r="G32" s="217" t="s">
         <v>703</v>
       </c>
@@ -17380,16 +17380,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:J17"/>
@@ -17402,6 +17392,16 @@
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19110,7 +19110,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A473" sqref="A473:XFD473"/>
+      <selection pane="bottomLeft" activeCell="A474" sqref="A474:XFD474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19161,17 +19161,17 @@
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" thickBot="1">
       <c r="A1" s="254"/>
-      <c r="B1" s="434" t="s">
+      <c r="B1" s="467" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="435"/>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
-      <c r="F1" s="436"/>
-      <c r="G1" s="437" t="s">
+      <c r="C1" s="468"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
+      <c r="F1" s="469"/>
+      <c r="G1" s="470" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="438"/>
+      <c r="H1" s="471"/>
     </row>
     <row r="2" spans="1:40" ht="17.25" thickBot="1">
       <c r="A2" s="257" t="s">
@@ -19192,16 +19192,16 @@
       <c r="F2" s="259" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="439">
+      <c r="G2" s="472">
         <f ca="1">TODAY()-A13</f>
-        <v>1282</v>
-      </c>
-      <c r="H2" s="440"/>
+        <v>1284</v>
+      </c>
+      <c r="H2" s="473"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
       <c r="A3" s="260">
         <f>C6-F6</f>
-        <v>1292551.5711800002</v>
+        <v>1290497.5711800002</v>
       </c>
       <c r="B3" s="261">
         <f>C3+D3+E3+F3</f>
@@ -19223,10 +19223,10 @@
         <f>'whobor-touna'!L3</f>
         <v>21582.920000000002</v>
       </c>
-      <c r="G3" s="437" t="s">
+      <c r="G3" s="470" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="438"/>
+      <c r="H3" s="471"/>
     </row>
     <row r="4" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="265"/>
@@ -19247,11 +19247,11 @@
         <f>F3/$B$3</f>
         <v>1.4248783748940135E-2</v>
       </c>
-      <c r="G4" s="441">
+      <c r="G4" s="465">
         <f ca="1">A6/G2</f>
-        <v>173.29843121684863</v>
-      </c>
-      <c r="H4" s="442"/>
+        <v>174.62818443925229</v>
+      </c>
+      <c r="H4" s="466"/>
     </row>
     <row r="5" spans="1:40" ht="17.25" thickBot="1">
       <c r="A5" s="268" t="s">
@@ -19272,19 +19272,19 @@
       <c r="F5" s="272" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="448" t="s">
+      <c r="G5" s="462" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="449"/>
+      <c r="H5" s="463"/>
     </row>
     <row r="6" spans="1:40" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="273">
         <f>B3-A3</f>
-        <v>222168.58881999995</v>
+        <v>224222.58881999995</v>
       </c>
       <c r="B6" s="274">
         <f>F6-C6</f>
-        <v>-1292551.5711800002</v>
+        <v>-1290497.5711800002</v>
       </c>
       <c r="C6" s="275">
         <f>B12+L12+G12+X12+R12</f>
@@ -19292,7 +19292,7 @@
       </c>
       <c r="D6" s="276">
         <f>C12+H12+M12+Y12+S12</f>
-        <v>1880458.22</v>
+        <v>1882512.22</v>
       </c>
       <c r="E6" s="277">
         <f>D12+N12+Z12+T12</f>
@@ -19300,207 +19300,207 @@
       </c>
       <c r="F6" s="278">
         <f>D6-E6</f>
-        <v>1878056.3188199999</v>
-      </c>
-      <c r="G6" s="441">
+        <v>1880110.3188199999</v>
+      </c>
+      <c r="G6" s="465">
         <f ca="1">G4*30</f>
-        <v>5198.9529365054586</v>
-      </c>
-      <c r="H6" s="442"/>
+        <v>5238.8455331775685</v>
+      </c>
+      <c r="H6" s="466"/>
     </row>
     <row r="7" spans="1:40" s="280" customFormat="1" ht="20.25">
       <c r="A7" s="279"/>
-      <c r="B7" s="461" t="s">
+      <c r="B7" s="459" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="459"/>
-      <c r="D7" s="459"/>
-      <c r="E7" s="460"/>
-      <c r="F7" s="462"/>
-      <c r="G7" s="458" t="s">
+      <c r="C7" s="457"/>
+      <c r="D7" s="457"/>
+      <c r="E7" s="458"/>
+      <c r="F7" s="460"/>
+      <c r="G7" s="456" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="459"/>
-      <c r="I7" s="459"/>
-      <c r="J7" s="460"/>
-      <c r="K7" s="460"/>
-      <c r="L7" s="454" t="s">
+      <c r="H7" s="457"/>
+      <c r="I7" s="457"/>
+      <c r="J7" s="458"/>
+      <c r="K7" s="458"/>
+      <c r="L7" s="450" t="s">
         <v>677</v>
       </c>
-      <c r="M7" s="450"/>
-      <c r="N7" s="450"/>
-      <c r="O7" s="450"/>
-      <c r="P7" s="450"/>
-      <c r="Q7" s="455"/>
-      <c r="R7" s="450" t="s">
+      <c r="M7" s="451"/>
+      <c r="N7" s="451"/>
+      <c r="O7" s="451"/>
+      <c r="P7" s="451"/>
+      <c r="Q7" s="452"/>
+      <c r="R7" s="451" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="450"/>
-      <c r="T7" s="450"/>
-      <c r="U7" s="450"/>
-      <c r="V7" s="450"/>
-      <c r="W7" s="450"/>
-      <c r="X7" s="454" t="s">
+      <c r="S7" s="451"/>
+      <c r="T7" s="451"/>
+      <c r="U7" s="451"/>
+      <c r="V7" s="451"/>
+      <c r="W7" s="451"/>
+      <c r="X7" s="450" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="450"/>
-      <c r="Z7" s="450"/>
-      <c r="AA7" s="450"/>
-      <c r="AB7" s="450"/>
-      <c r="AC7" s="455"/>
+      <c r="Y7" s="451"/>
+      <c r="Z7" s="451"/>
+      <c r="AA7" s="451"/>
+      <c r="AB7" s="451"/>
+      <c r="AC7" s="452"/>
     </row>
     <row r="8" spans="1:40" s="280" customFormat="1" ht="16.5">
       <c r="A8" s="281" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="456" t="s">
+      <c r="B8" s="453" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="451"/>
-      <c r="D8" s="451"/>
-      <c r="E8" s="451"/>
-      <c r="F8" s="457"/>
-      <c r="G8" s="451" t="s">
+      <c r="C8" s="454"/>
+      <c r="D8" s="454"/>
+      <c r="E8" s="454"/>
+      <c r="F8" s="455"/>
+      <c r="G8" s="454" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="451"/>
-      <c r="I8" s="451"/>
-      <c r="J8" s="451"/>
-      <c r="K8" s="451"/>
-      <c r="L8" s="456" t="s">
+      <c r="H8" s="454"/>
+      <c r="I8" s="454"/>
+      <c r="J8" s="454"/>
+      <c r="K8" s="454"/>
+      <c r="L8" s="453" t="s">
         <v>678</v>
       </c>
-      <c r="M8" s="451"/>
-      <c r="N8" s="451"/>
-      <c r="O8" s="451"/>
-      <c r="P8" s="451"/>
-      <c r="Q8" s="457"/>
-      <c r="R8" s="451" t="s">
+      <c r="M8" s="454"/>
+      <c r="N8" s="454"/>
+      <c r="O8" s="454"/>
+      <c r="P8" s="454"/>
+      <c r="Q8" s="455"/>
+      <c r="R8" s="454" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="451"/>
-      <c r="T8" s="451"/>
-      <c r="U8" s="451"/>
-      <c r="V8" s="451"/>
-      <c r="W8" s="451"/>
-      <c r="X8" s="456" t="s">
+      <c r="S8" s="454"/>
+      <c r="T8" s="454"/>
+      <c r="U8" s="454"/>
+      <c r="V8" s="454"/>
+      <c r="W8" s="454"/>
+      <c r="X8" s="453" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="451"/>
-      <c r="Z8" s="451"/>
-      <c r="AA8" s="451"/>
-      <c r="AB8" s="451"/>
-      <c r="AC8" s="457"/>
+      <c r="Y8" s="454"/>
+      <c r="Z8" s="454"/>
+      <c r="AA8" s="454"/>
+      <c r="AB8" s="454"/>
+      <c r="AC8" s="455"/>
       <c r="AK8" s="282"/>
     </row>
     <row r="9" spans="1:40" s="280" customFormat="1" ht="16.5">
       <c r="A9" s="281" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="445" t="s">
+      <c r="B9" s="438" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="444"/>
-      <c r="D9" s="445" t="s">
+      <c r="C9" s="439"/>
+      <c r="D9" s="438" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="446"/>
-      <c r="F9" s="473"/>
-      <c r="G9" s="443" t="s">
+      <c r="E9" s="443"/>
+      <c r="F9" s="449"/>
+      <c r="G9" s="461" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="444"/>
-      <c r="I9" s="445" t="s">
+      <c r="H9" s="439"/>
+      <c r="I9" s="438" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="446"/>
-      <c r="K9" s="447"/>
-      <c r="L9" s="465" t="s">
+      <c r="J9" s="443"/>
+      <c r="K9" s="442"/>
+      <c r="L9" s="436" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="453"/>
-      <c r="N9" s="447" t="s">
+      <c r="M9" s="437"/>
+      <c r="N9" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="446"/>
-      <c r="P9" s="446"/>
-      <c r="Q9" s="468"/>
-      <c r="R9" s="452" t="s">
+      <c r="O9" s="443"/>
+      <c r="P9" s="443"/>
+      <c r="Q9" s="444"/>
+      <c r="R9" s="464" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="453"/>
-      <c r="T9" s="447" t="s">
+      <c r="S9" s="437"/>
+      <c r="T9" s="442" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="446"/>
-      <c r="V9" s="446"/>
-      <c r="W9" s="446"/>
-      <c r="X9" s="465" t="s">
+      <c r="U9" s="443"/>
+      <c r="V9" s="443"/>
+      <c r="W9" s="443"/>
+      <c r="X9" s="436" t="s">
         <v>49</v>
       </c>
-      <c r="Y9" s="453"/>
-      <c r="Z9" s="447" t="s">
+      <c r="Y9" s="437"/>
+      <c r="Z9" s="442" t="s">
         <v>50</v>
       </c>
-      <c r="AA9" s="446"/>
-      <c r="AB9" s="446"/>
-      <c r="AC9" s="468"/>
+      <c r="AA9" s="443"/>
+      <c r="AB9" s="443"/>
+      <c r="AC9" s="444"/>
     </row>
     <row r="10" spans="1:40" ht="15.75" customHeight="1">
       <c r="A10" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="463" t="s">
+      <c r="B10" s="434" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="464"/>
-      <c r="D10" s="470">
+      <c r="C10" s="435"/>
+      <c r="D10" s="446">
         <f>'whobor-touna'!G3/$B$3</f>
         <v>0.34398162364195367</v>
       </c>
-      <c r="E10" s="466"/>
-      <c r="F10" s="467"/>
-      <c r="G10" s="469" t="s">
+      <c r="E10" s="440"/>
+      <c r="F10" s="441"/>
+      <c r="G10" s="445" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="464"/>
-      <c r="I10" s="470">
+      <c r="H10" s="435"/>
+      <c r="I10" s="446">
         <f>'thmei-touna'!G3/$B$3</f>
         <v>0.53400758196814413</v>
       </c>
-      <c r="J10" s="466"/>
-      <c r="K10" s="466"/>
-      <c r="L10" s="471" t="s">
+      <c r="J10" s="440"/>
+      <c r="K10" s="440"/>
+      <c r="L10" s="447" t="s">
         <v>183</v>
       </c>
-      <c r="M10" s="472"/>
-      <c r="N10" s="466">
+      <c r="M10" s="448"/>
+      <c r="N10" s="440">
         <f>宜人贷!T2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="O10" s="466"/>
-      <c r="P10" s="466"/>
-      <c r="Q10" s="467"/>
-      <c r="R10" s="472"/>
-      <c r="S10" s="472"/>
-      <c r="T10" s="466">
+      <c r="O10" s="440"/>
+      <c r="P10" s="440"/>
+      <c r="Q10" s="441"/>
+      <c r="R10" s="448"/>
+      <c r="S10" s="448"/>
+      <c r="T10" s="440">
         <f>宜人贷!Z2/$B$3</f>
         <v>0</v>
       </c>
-      <c r="U10" s="466"/>
-      <c r="V10" s="466"/>
-      <c r="W10" s="466"/>
-      <c r="X10" s="471">
+      <c r="U10" s="440"/>
+      <c r="V10" s="440"/>
+      <c r="W10" s="440"/>
+      <c r="X10" s="447">
         <v>830106</v>
       </c>
-      <c r="Y10" s="472"/>
-      <c r="Z10" s="466">
+      <c r="Y10" s="448"/>
+      <c r="Z10" s="440">
         <f>'whobor-wzd'!N2/$B$3</f>
         <v>7.8916755158259716E-2</v>
       </c>
-      <c r="AA10" s="466"/>
-      <c r="AB10" s="466"/>
-      <c r="AC10" s="467"/>
+      <c r="AA10" s="440"/>
+      <c r="AB10" s="440"/>
+      <c r="AC10" s="441"/>
     </row>
     <row r="11" spans="1:40" ht="28.5" customHeight="1">
       <c r="A11" s="284" t="s">
@@ -19675,7 +19675,7 @@
       </c>
       <c r="Y12" s="295">
         <f>SUM(Y13:Y986)</f>
-        <v>1083174.0500000003</v>
+        <v>1085228.0500000003</v>
       </c>
       <c r="Z12" s="302">
         <f>SUM(Z13:Z986)</f>
@@ -19684,7 +19684,7 @@
       <c r="AA12" s="295"/>
       <c r="AB12" s="299">
         <f>Y12-X12+AC12-Z12</f>
-        <v>34805.536420000222</v>
+        <v>36859.536420000222</v>
       </c>
       <c r="AC12" s="297">
         <f>'whobor-wzd'!N2</f>
@@ -36340,8 +36340,11 @@
       <c r="AC473" s="306"/>
     </row>
     <row r="474" spans="1:29">
+      <c r="A474" s="303">
+        <v>42972</v>
+      </c>
       <c r="B474" s="304"/>
-      <c r="C474" s="305"/>
+      <c r="C474" s="321"/>
       <c r="D474" s="305"/>
       <c r="E474" s="305"/>
       <c r="F474" s="306"/>
@@ -36363,7 +36366,9 @@
       <c r="V474" s="305"/>
       <c r="W474" s="306"/>
       <c r="X474" s="307"/>
-      <c r="Y474" s="305"/>
+      <c r="Y474" s="305">
+        <v>2054</v>
+      </c>
       <c r="Z474" s="307"/>
       <c r="AA474" s="305"/>
       <c r="AB474" s="305"/>
@@ -36731,6 +36736,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="L7:Q7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B9:C9"/>
@@ -36747,27 +36773,6 @@
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45716,12 +45721,12 @@
         <v>912</v>
       </c>
       <c r="P72" s="391"/>
-      <c r="Q72" s="476"/>
-      <c r="R72" s="478"/>
-      <c r="S72" s="480"/>
-      <c r="T72" s="480"/>
-      <c r="U72" s="482"/>
-      <c r="V72" s="484"/>
+      <c r="Q72" s="488"/>
+      <c r="R72" s="489"/>
+      <c r="S72" s="490"/>
+      <c r="T72" s="490"/>
+      <c r="U72" s="486"/>
+      <c r="V72" s="487"/>
     </row>
     <row r="73" spans="1:22" s="373" customFormat="1" ht="26.25" thickBot="1">
       <c r="A73" s="361">
@@ -45770,12 +45775,12 @@
         <v>914</v>
       </c>
       <c r="P73" s="392"/>
-      <c r="Q73" s="477"/>
-      <c r="R73" s="479"/>
-      <c r="S73" s="481"/>
-      <c r="T73" s="481"/>
-      <c r="U73" s="483"/>
-      <c r="V73" s="485"/>
+      <c r="Q73" s="483"/>
+      <c r="R73" s="485"/>
+      <c r="S73" s="477"/>
+      <c r="T73" s="477"/>
+      <c r="U73" s="479"/>
+      <c r="V73" s="481"/>
     </row>
     <row r="74" spans="1:22" s="373" customFormat="1" ht="26.25" thickBot="1">
       <c r="A74" s="361">
@@ -45824,12 +45829,12 @@
         <v>916</v>
       </c>
       <c r="P74" s="391"/>
-      <c r="Q74" s="486"/>
-      <c r="R74" s="487"/>
-      <c r="S74" s="488"/>
-      <c r="T74" s="488"/>
-      <c r="U74" s="489"/>
-      <c r="V74" s="490"/>
+      <c r="Q74" s="482"/>
+      <c r="R74" s="484"/>
+      <c r="S74" s="476"/>
+      <c r="T74" s="476"/>
+      <c r="U74" s="478"/>
+      <c r="V74" s="480"/>
     </row>
     <row r="75" spans="1:22" s="388" customFormat="1" ht="26.25" thickBot="1">
       <c r="A75" s="361">
@@ -45878,12 +45883,12 @@
         <v>929</v>
       </c>
       <c r="P75" s="392"/>
-      <c r="Q75" s="477"/>
-      <c r="R75" s="479"/>
-      <c r="S75" s="481"/>
-      <c r="T75" s="481"/>
-      <c r="U75" s="483"/>
-      <c r="V75" s="485"/>
+      <c r="Q75" s="483"/>
+      <c r="R75" s="485"/>
+      <c r="S75" s="477"/>
+      <c r="T75" s="477"/>
+      <c r="U75" s="479"/>
+      <c r="V75" s="481"/>
     </row>
     <row r="76" spans="1:22" s="389" customFormat="1" ht="26.25" thickBot="1">
       <c r="A76" s="361">
@@ -45932,12 +45937,12 @@
         <v>932</v>
       </c>
       <c r="P76" s="391"/>
-      <c r="Q76" s="486"/>
-      <c r="R76" s="487"/>
-      <c r="S76" s="488"/>
-      <c r="T76" s="488"/>
-      <c r="U76" s="489"/>
-      <c r="V76" s="490"/>
+      <c r="Q76" s="482"/>
+      <c r="R76" s="484"/>
+      <c r="S76" s="476"/>
+      <c r="T76" s="476"/>
+      <c r="U76" s="478"/>
+      <c r="V76" s="480"/>
     </row>
     <row r="77" spans="1:22" s="389" customFormat="1" ht="26.25" thickBot="1">
       <c r="A77" s="361">
@@ -45986,12 +45991,12 @@
         <v>937</v>
       </c>
       <c r="P77" s="392"/>
-      <c r="Q77" s="477"/>
-      <c r="R77" s="479"/>
-      <c r="S77" s="481"/>
-      <c r="T77" s="481"/>
-      <c r="U77" s="483"/>
-      <c r="V77" s="485"/>
+      <c r="Q77" s="483"/>
+      <c r="R77" s="485"/>
+      <c r="S77" s="477"/>
+      <c r="T77" s="477"/>
+      <c r="U77" s="479"/>
+      <c r="V77" s="481"/>
     </row>
     <row r="78" spans="1:22" s="389" customFormat="1" ht="26.25" thickBot="1">
       <c r="A78" s="361">
@@ -46040,12 +46045,12 @@
         <v>936</v>
       </c>
       <c r="P78" s="391"/>
-      <c r="Q78" s="486"/>
-      <c r="R78" s="487"/>
-      <c r="S78" s="488"/>
-      <c r="T78" s="488"/>
-      <c r="U78" s="489"/>
-      <c r="V78" s="490"/>
+      <c r="Q78" s="482"/>
+      <c r="R78" s="484"/>
+      <c r="S78" s="476"/>
+      <c r="T78" s="476"/>
+      <c r="U78" s="478"/>
+      <c r="V78" s="480"/>
     </row>
     <row r="79" spans="1:22" s="389" customFormat="1" ht="26.25" thickBot="1">
       <c r="A79" s="361">
@@ -46094,12 +46099,12 @@
         <v>936</v>
       </c>
       <c r="P79" s="392"/>
-      <c r="Q79" s="477"/>
-      <c r="R79" s="479"/>
-      <c r="S79" s="481"/>
-      <c r="T79" s="481"/>
-      <c r="U79" s="483"/>
-      <c r="V79" s="485"/>
+      <c r="Q79" s="483"/>
+      <c r="R79" s="485"/>
+      <c r="S79" s="477"/>
+      <c r="T79" s="477"/>
+      <c r="U79" s="479"/>
+      <c r="V79" s="481"/>
     </row>
     <row r="80" spans="1:22" s="398" customFormat="1" ht="26.25" thickBot="1">
       <c r="A80" s="361">
@@ -59103,6 +59108,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="S72:S73"/>
+    <mergeCell ref="T72:T73"/>
+    <mergeCell ref="U72:U73"/>
+    <mergeCell ref="V72:V73"/>
+    <mergeCell ref="Q74:Q75"/>
+    <mergeCell ref="R74:R75"/>
+    <mergeCell ref="S74:S75"/>
+    <mergeCell ref="T74:T75"/>
+    <mergeCell ref="U74:U75"/>
+    <mergeCell ref="V74:V75"/>
     <mergeCell ref="S78:S79"/>
     <mergeCell ref="T78:T79"/>
     <mergeCell ref="U78:U79"/>
@@ -59115,19 +59133,6 @@
     <mergeCell ref="V76:V77"/>
     <mergeCell ref="Q78:Q79"/>
     <mergeCell ref="R78:R79"/>
-    <mergeCell ref="U72:U73"/>
-    <mergeCell ref="V72:V73"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="R74:R75"/>
-    <mergeCell ref="S74:S75"/>
-    <mergeCell ref="T74:T75"/>
-    <mergeCell ref="U74:U75"/>
-    <mergeCell ref="V74:V75"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="S72:S73"/>
-    <mergeCell ref="T72:T73"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -59138,11 +59143,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD6"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -59592,7 +59597,7 @@
       <c r="D2" s="147"/>
       <c r="E2" s="148"/>
       <c r="F2" s="151">
-        <f>SUM(F4:F37)</f>
+        <f>SUM(F6:F39)</f>
         <v>119536.8</v>
       </c>
       <c r="G2" s="146"/>
@@ -59604,11 +59609,11 @@
         <v>0</v>
       </c>
       <c r="L2" s="148">
-        <f>SUM(L3:L37)</f>
-        <v>7373.1900000000005</v>
+        <f>SUM(L3:L39)</f>
+        <v>7454.1900000000005</v>
       </c>
       <c r="M2" s="149">
-        <f>SUM(M3:M39)</f>
+        <f>SUM(M3:M41)</f>
         <v>0</v>
       </c>
       <c r="N2" s="148">
@@ -59616,8 +59621,8 @@
         <v>119536.8</v>
       </c>
       <c r="O2" s="148">
-        <f>SUM(O3:O37)</f>
-        <v>126909.98999999999</v>
+        <f>SUM(O3:O39)</f>
+        <v>129990.98999999999</v>
       </c>
       <c r="S2" s="150" t="s">
         <v>63</v>
@@ -59650,10 +59655,10 @@
     </row>
     <row r="4" spans="1:19" ht="30.75" thickBot="1">
       <c r="A4" s="375">
-        <v>42980</v>
+        <v>42974</v>
       </c>
       <c r="B4" s="152" t="s">
-        <v>1182</v>
+        <v>922</v>
       </c>
       <c r="C4" s="376" t="s">
         <v>921</v>
@@ -59662,19 +59667,19 @@
         <v>42736</v>
       </c>
       <c r="E4" s="378">
-        <v>1007.08</v>
+        <v>1027</v>
       </c>
       <c r="F4" s="378">
         <v>1000</v>
       </c>
       <c r="G4" s="376">
-        <v>7.08</v>
+        <v>27</v>
       </c>
       <c r="H4" s="376">
         <v>0</v>
       </c>
       <c r="I4" s="380">
-        <v>8.5000000000000006E-2</v>
+        <v>0.108</v>
       </c>
       <c r="J4" s="379">
         <v>0</v>
@@ -59683,22 +59688,22 @@
         <v>156</v>
       </c>
       <c r="L4" s="351">
-        <f t="shared" ref="L4:L6" si="0">G4+H4</f>
-        <v>7.08</v>
+        <f t="shared" ref="L4:L5" si="0">G4+H4</f>
+        <v>27</v>
       </c>
       <c r="M4" s="145"/>
       <c r="N4" s="141"/>
       <c r="O4" s="141">
-        <f t="shared" ref="O4:O6" si="1">E4-M4</f>
-        <v>1007.08</v>
+        <f t="shared" ref="O4:O5" si="1">E4-M4</f>
+        <v>1027</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30.75" thickBot="1">
       <c r="A5" s="375">
-        <v>42980</v>
+        <v>42975</v>
       </c>
       <c r="B5" s="152" t="s">
-        <v>1182</v>
+        <v>923</v>
       </c>
       <c r="C5" s="376" t="s">
         <v>921</v>
@@ -59707,19 +59712,19 @@
         <v>42736</v>
       </c>
       <c r="E5" s="378">
-        <v>1007.08</v>
+        <v>2054</v>
       </c>
       <c r="F5" s="378">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G5" s="376">
-        <v>7.08</v>
+        <v>54</v>
       </c>
       <c r="H5" s="376">
         <v>0</v>
       </c>
       <c r="I5" s="380">
-        <v>8.5000000000000006E-2</v>
+        <v>0.108</v>
       </c>
       <c r="J5" s="379">
         <v>0</v>
@@ -59729,36 +59734,36 @@
       </c>
       <c r="L5" s="351">
         <f t="shared" si="0"/>
-        <v>7.08</v>
+        <v>54</v>
       </c>
       <c r="M5" s="145"/>
       <c r="N5" s="141"/>
       <c r="O5" s="141">
         <f t="shared" si="1"/>
-        <v>1007.08</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="30.75" thickBot="1">
       <c r="A6" s="375">
-        <v>42981</v>
+        <v>42980</v>
       </c>
       <c r="B6" s="152" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C6" s="376" t="s">
-        <v>1184</v>
+        <v>921</v>
       </c>
       <c r="D6" s="377">
         <v>42736</v>
       </c>
       <c r="E6" s="378">
-        <v>2014.16</v>
+        <v>1007.08</v>
       </c>
       <c r="F6" s="378">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G6" s="376">
-        <v>14.16</v>
+        <v>7.08</v>
       </c>
       <c r="H6" s="376">
         <v>0</v>
@@ -59773,22 +59778,22 @@
         <v>156</v>
       </c>
       <c r="L6" s="351">
-        <f t="shared" si="0"/>
-        <v>14.16</v>
+        <f t="shared" ref="L6:L8" si="2">G6+H6</f>
+        <v>7.08</v>
       </c>
       <c r="M6" s="145"/>
       <c r="N6" s="141"/>
       <c r="O6" s="141">
-        <f t="shared" si="1"/>
-        <v>2014.16</v>
+        <f t="shared" ref="O6:O8" si="3">E6-M6</f>
+        <v>1007.08</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="30.75" thickBot="1">
       <c r="A7" s="375">
-        <v>42972</v>
+        <v>42980</v>
       </c>
       <c r="B7" s="152" t="s">
-        <v>920</v>
+        <v>1182</v>
       </c>
       <c r="C7" s="376" t="s">
         <v>921</v>
@@ -59797,19 +59802,19 @@
         <v>42736</v>
       </c>
       <c r="E7" s="378">
-        <v>2054</v>
+        <v>1007.08</v>
       </c>
       <c r="F7" s="378">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G7" s="376">
-        <v>54</v>
+        <v>7.08</v>
       </c>
       <c r="H7" s="376">
         <v>0</v>
       </c>
       <c r="I7" s="380">
-        <v>0.108</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="J7" s="379">
         <v>0</v>
@@ -59818,43 +59823,43 @@
         <v>156</v>
       </c>
       <c r="L7" s="351">
-        <f t="shared" ref="L7:L9" si="2">G7+H7</f>
-        <v>54</v>
+        <f t="shared" si="2"/>
+        <v>7.08</v>
       </c>
       <c r="M7" s="145"/>
       <c r="N7" s="141"/>
       <c r="O7" s="141">
-        <f t="shared" ref="O7:O9" si="3">E7-M7</f>
-        <v>2054</v>
+        <f t="shared" si="3"/>
+        <v>1007.08</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30.75" thickBot="1">
       <c r="A8" s="375">
-        <v>42974</v>
+        <v>42981</v>
       </c>
       <c r="B8" s="152" t="s">
-        <v>922</v>
+        <v>1183</v>
       </c>
       <c r="C8" s="376" t="s">
-        <v>921</v>
+        <v>1184</v>
       </c>
       <c r="D8" s="377">
         <v>42736</v>
       </c>
       <c r="E8" s="378">
-        <v>1027</v>
+        <v>2014.16</v>
       </c>
       <c r="F8" s="378">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G8" s="376">
-        <v>27</v>
+        <v>14.16</v>
       </c>
       <c r="H8" s="376">
         <v>0</v>
       </c>
       <c r="I8" s="380">
-        <v>0.108</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="J8" s="379">
         <v>0</v>
@@ -59864,174 +59869,174 @@
       </c>
       <c r="L8" s="351">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>14.16</v>
       </c>
       <c r="M8" s="145"/>
       <c r="N8" s="141"/>
       <c r="O8" s="141">
         <f t="shared" si="3"/>
-        <v>1027</v>
+        <v>2014.16</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="30.75" thickBot="1">
-      <c r="A9" s="381">
-        <v>42975</v>
-      </c>
-      <c r="B9" s="383" t="s">
-        <v>923</v>
-      </c>
-      <c r="C9" s="382" t="s">
+      <c r="A9" s="375">
+        <v>42972</v>
+      </c>
+      <c r="B9" s="152" t="s">
+        <v>920</v>
+      </c>
+      <c r="C9" s="376" t="s">
         <v>921</v>
       </c>
-      <c r="D9" s="384">
+      <c r="D9" s="377">
         <v>42736</v>
       </c>
-      <c r="E9" s="385">
+      <c r="E9" s="378">
         <v>2054</v>
       </c>
-      <c r="F9" s="385">
+      <c r="F9" s="378">
         <v>2000</v>
       </c>
-      <c r="G9" s="382">
+      <c r="G9" s="376">
         <v>54</v>
       </c>
-      <c r="H9" s="382">
-        <v>0</v>
-      </c>
-      <c r="I9" s="386">
+      <c r="H9" s="376">
+        <v>0</v>
+      </c>
+      <c r="I9" s="380">
         <v>0.108</v>
       </c>
-      <c r="J9" s="387">
-        <v>0</v>
-      </c>
-      <c r="K9" s="382" t="s">
+      <c r="J9" s="379">
+        <v>0</v>
+      </c>
+      <c r="K9" s="376" t="s">
         <v>156</v>
       </c>
       <c r="L9" s="351">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L9:L11" si="4">G9+H9</f>
         <v>54</v>
       </c>
       <c r="M9" s="145"/>
       <c r="N9" s="141"/>
       <c r="O9" s="141">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O9:O11" si="5">E9-M9</f>
         <v>2054</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="30.75" thickBot="1">
-      <c r="A10" s="354">
-        <v>43034</v>
-      </c>
-      <c r="B10" s="356" t="s">
-        <v>899</v>
-      </c>
-      <c r="C10" s="355" t="s">
-        <v>905</v>
-      </c>
-      <c r="D10" s="357">
+      <c r="A10" s="375">
+        <v>42974</v>
+      </c>
+      <c r="B10" s="152" t="s">
+        <v>922</v>
+      </c>
+      <c r="C10" s="376" t="s">
+        <v>921</v>
+      </c>
+      <c r="D10" s="377">
         <v>42736</v>
       </c>
-      <c r="E10" s="358">
-        <v>53782.27</v>
-      </c>
-      <c r="F10" s="358">
-        <v>50499.8</v>
-      </c>
-      <c r="G10" s="358">
-        <v>2903.73</v>
-      </c>
-      <c r="H10" s="355">
-        <v>378.74</v>
-      </c>
-      <c r="I10" s="359">
-        <v>0.115</v>
-      </c>
-      <c r="J10" s="359">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K10" s="355" t="s">
+      <c r="E10" s="378">
+        <v>1027</v>
+      </c>
+      <c r="F10" s="378">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="376">
+        <v>27</v>
+      </c>
+      <c r="H10" s="376">
+        <v>0</v>
+      </c>
+      <c r="I10" s="380">
+        <v>0.108</v>
+      </c>
+      <c r="J10" s="379">
+        <v>0</v>
+      </c>
+      <c r="K10" s="376" t="s">
         <v>156</v>
       </c>
       <c r="L10" s="351">
-        <f t="shared" ref="L10:L12" si="4">G10+H10</f>
-        <v>3282.4700000000003</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
       <c r="M10" s="145"/>
       <c r="N10" s="141"/>
       <c r="O10" s="141">
-        <f t="shared" ref="O10:O12" si="5">E10-M10</f>
-        <v>53782.27</v>
+        <f t="shared" si="5"/>
+        <v>1027</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="30.75" thickBot="1">
-      <c r="A11" s="354">
-        <v>43045</v>
-      </c>
-      <c r="B11" s="356" t="s">
-        <v>906</v>
-      </c>
-      <c r="C11" s="355" t="s">
-        <v>907</v>
-      </c>
-      <c r="D11" s="357">
+      <c r="A11" s="381">
+        <v>42975</v>
+      </c>
+      <c r="B11" s="383" t="s">
+        <v>923</v>
+      </c>
+      <c r="C11" s="382" t="s">
+        <v>921</v>
+      </c>
+      <c r="D11" s="384">
         <v>42736</v>
       </c>
-      <c r="E11" s="358">
-        <v>32013.9</v>
-      </c>
-      <c r="F11" s="358">
-        <v>30060</v>
-      </c>
-      <c r="G11" s="358">
-        <v>1728.45</v>
-      </c>
-      <c r="H11" s="355">
-        <v>225.45</v>
-      </c>
-      <c r="I11" s="359">
-        <v>0.115</v>
-      </c>
-      <c r="J11" s="359">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K11" s="355" t="s">
+      <c r="E11" s="385">
+        <v>2054</v>
+      </c>
+      <c r="F11" s="385">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="382">
+        <v>54</v>
+      </c>
+      <c r="H11" s="382">
+        <v>0</v>
+      </c>
+      <c r="I11" s="386">
+        <v>0.108</v>
+      </c>
+      <c r="J11" s="387">
+        <v>0</v>
+      </c>
+      <c r="K11" s="382" t="s">
         <v>156</v>
       </c>
       <c r="L11" s="351">
         <f t="shared" si="4"/>
-        <v>1953.9</v>
+        <v>54</v>
       </c>
       <c r="M11" s="145"/>
       <c r="N11" s="141"/>
       <c r="O11" s="141">
         <f t="shared" si="5"/>
-        <v>32013.9</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="30.75" thickBot="1">
       <c r="A12" s="354">
-        <v>43049</v>
+        <v>43034</v>
       </c>
       <c r="B12" s="356" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="C12" s="355" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D12" s="357">
         <v>42736</v>
       </c>
       <c r="E12" s="358">
-        <v>10650</v>
+        <v>53782.27</v>
       </c>
       <c r="F12" s="358">
-        <v>10000</v>
-      </c>
-      <c r="G12" s="355">
-        <v>575</v>
+        <v>50499.8</v>
+      </c>
+      <c r="G12" s="358">
+        <v>2903.73</v>
       </c>
       <c r="H12" s="355">
-        <v>75</v>
+        <v>378.74</v>
       </c>
       <c r="I12" s="359">
         <v>0.115</v>
@@ -60043,123 +60048,215 @@
         <v>156</v>
       </c>
       <c r="L12" s="351">
-        <f t="shared" si="4"/>
-        <v>650</v>
+        <f t="shared" ref="L12:L14" si="6">G12+H12</f>
+        <v>3282.4700000000003</v>
       </c>
       <c r="M12" s="145"/>
       <c r="N12" s="141"/>
       <c r="O12" s="141">
-        <f t="shared" si="5"/>
-        <v>10650</v>
+        <f t="shared" ref="O12:O14" si="7">E12-M12</f>
+        <v>53782.27</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="30.75" thickBot="1">
-      <c r="A13" s="375">
-        <v>43062</v>
-      </c>
-      <c r="B13" s="152" t="s">
-        <v>924</v>
-      </c>
-      <c r="C13" s="376" t="s">
-        <v>925</v>
-      </c>
-      <c r="D13" s="377">
+      <c r="A13" s="354">
+        <v>43045</v>
+      </c>
+      <c r="B13" s="356" t="s">
+        <v>906</v>
+      </c>
+      <c r="C13" s="355" t="s">
+        <v>907</v>
+      </c>
+      <c r="D13" s="357">
         <v>42736</v>
       </c>
-      <c r="E13" s="378">
-        <v>10675</v>
-      </c>
-      <c r="F13" s="378">
-        <v>10000</v>
-      </c>
-      <c r="G13" s="376">
-        <v>600</v>
-      </c>
-      <c r="H13" s="376">
-        <v>75</v>
-      </c>
-      <c r="I13" s="379">
-        <v>0.12</v>
-      </c>
-      <c r="J13" s="380">
+      <c r="E13" s="358">
+        <v>32013.9</v>
+      </c>
+      <c r="F13" s="358">
+        <v>30060</v>
+      </c>
+      <c r="G13" s="358">
+        <v>1728.45</v>
+      </c>
+      <c r="H13" s="355">
+        <v>225.45</v>
+      </c>
+      <c r="I13" s="359">
+        <v>0.115</v>
+      </c>
+      <c r="J13" s="359">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K13" s="376" t="s">
+      <c r="K13" s="355" t="s">
         <v>156</v>
       </c>
       <c r="L13" s="351">
-        <f t="shared" ref="L13:L14" si="6">G13+H13</f>
-        <v>675</v>
+        <f t="shared" si="6"/>
+        <v>1953.9</v>
       </c>
       <c r="M13" s="145"/>
       <c r="N13" s="141"/>
       <c r="O13" s="141">
-        <f t="shared" ref="O13:O14" si="7">E13-M13</f>
-        <v>10675</v>
+        <f t="shared" si="7"/>
+        <v>32013.9</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="30.75" thickBot="1">
-      <c r="A14" s="375">
-        <v>43064</v>
-      </c>
-      <c r="B14" s="152" t="s">
-        <v>926</v>
-      </c>
-      <c r="C14" s="376" t="s">
-        <v>927</v>
-      </c>
-      <c r="D14" s="377">
+      <c r="A14" s="354">
+        <v>43049</v>
+      </c>
+      <c r="B14" s="356" t="s">
+        <v>908</v>
+      </c>
+      <c r="C14" s="355" t="s">
+        <v>907</v>
+      </c>
+      <c r="D14" s="357">
         <v>42736</v>
       </c>
-      <c r="E14" s="378">
-        <v>10625.5</v>
-      </c>
-      <c r="F14" s="378">
-        <v>9977</v>
-      </c>
-      <c r="G14" s="376">
-        <v>598.62</v>
-      </c>
-      <c r="H14" s="376">
-        <v>49.88</v>
-      </c>
-      <c r="I14" s="379">
-        <v>0.12</v>
-      </c>
-      <c r="J14" s="379">
-        <v>0.01</v>
-      </c>
-      <c r="K14" s="376" t="s">
+      <c r="E14" s="358">
+        <v>10650</v>
+      </c>
+      <c r="F14" s="358">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="355">
+        <v>575</v>
+      </c>
+      <c r="H14" s="355">
+        <v>75</v>
+      </c>
+      <c r="I14" s="359">
+        <v>0.115</v>
+      </c>
+      <c r="J14" s="359">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K14" s="355" t="s">
         <v>156</v>
       </c>
       <c r="L14" s="351">
         <f t="shared" si="6"/>
-        <v>648.5</v>
+        <v>650</v>
       </c>
       <c r="M14" s="145"/>
       <c r="N14" s="141"/>
       <c r="O14" s="141">
         <f t="shared" si="7"/>
+        <v>10650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="30.75" thickBot="1">
+      <c r="A15" s="375">
+        <v>43062</v>
+      </c>
+      <c r="B15" s="152" t="s">
+        <v>924</v>
+      </c>
+      <c r="C15" s="376" t="s">
+        <v>925</v>
+      </c>
+      <c r="D15" s="377">
+        <v>42736</v>
+      </c>
+      <c r="E15" s="378">
+        <v>10675</v>
+      </c>
+      <c r="F15" s="378">
+        <v>10000</v>
+      </c>
+      <c r="G15" s="376">
+        <v>600</v>
+      </c>
+      <c r="H15" s="376">
+        <v>75</v>
+      </c>
+      <c r="I15" s="379">
+        <v>0.12</v>
+      </c>
+      <c r="J15" s="380">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K15" s="376" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" s="351">
+        <f t="shared" ref="L15:L16" si="8">G15+H15</f>
+        <v>675</v>
+      </c>
+      <c r="M15" s="145"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="141">
+        <f t="shared" ref="O15:O16" si="9">E15-M15</f>
+        <v>10675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30.75" thickBot="1">
+      <c r="A16" s="375">
+        <v>43064</v>
+      </c>
+      <c r="B16" s="152" t="s">
+        <v>926</v>
+      </c>
+      <c r="C16" s="376" t="s">
+        <v>927</v>
+      </c>
+      <c r="D16" s="377">
+        <v>42736</v>
+      </c>
+      <c r="E16" s="378">
+        <v>10625.5</v>
+      </c>
+      <c r="F16" s="378">
+        <v>9977</v>
+      </c>
+      <c r="G16" s="376">
+        <v>598.62</v>
+      </c>
+      <c r="H16" s="376">
+        <v>49.88</v>
+      </c>
+      <c r="I16" s="379">
+        <v>0.12</v>
+      </c>
+      <c r="J16" s="379">
+        <v>0.01</v>
+      </c>
+      <c r="K16" s="376" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="351">
+        <f t="shared" si="8"/>
+        <v>648.5</v>
+      </c>
+      <c r="M16" s="145"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141">
+        <f t="shared" si="9"/>
         <v>10625.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=924483"/>
-    <hyperlink ref="B11" r:id="rId2" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929963"/>
-    <hyperlink ref="B12" r:id="rId3" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=931710"/>
-    <hyperlink ref="B7" r:id="rId4" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936366"/>
-    <hyperlink ref="B8" r:id="rId5" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936596"/>
-    <hyperlink ref="B9" r:id="rId6" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936619"/>
-    <hyperlink ref="B13" r:id="rId7" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936548"/>
-    <hyperlink ref="B14" r:id="rId8" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936622"/>
-    <hyperlink ref="B4" r:id="rId9" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=942241"/>
-    <hyperlink ref="B5" r:id="rId10" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=942241"/>
-    <hyperlink ref="B6" r:id="rId11" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=942247"/>
+    <hyperlink ref="B12" r:id="rId1" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=924483"/>
+    <hyperlink ref="B13" r:id="rId2" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=929963"/>
+    <hyperlink ref="B14" r:id="rId3" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=931710"/>
+    <hyperlink ref="B9" r:id="rId4" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936366"/>
+    <hyperlink ref="B10" r:id="rId5" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936596"/>
+    <hyperlink ref="B11" r:id="rId6" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936619"/>
+    <hyperlink ref="B15" r:id="rId7" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936548"/>
+    <hyperlink ref="B16" r:id="rId8" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936622"/>
+    <hyperlink ref="B6" r:id="rId9" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=942241"/>
+    <hyperlink ref="B7" r:id="rId10" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=942241"/>
+    <hyperlink ref="B8" r:id="rId11" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=942247"/>
+    <hyperlink ref="B4" r:id="rId12" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936596"/>
+    <hyperlink ref="B5" r:id="rId13" display="http://finance.wzdai.com/liDetailNew.shtml?borrowId=936619"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
